--- a/nop-dyn/model/nop-dyn.orm.xlsx
+++ b/nop-dyn/model/nop-dyn.orm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-dyn\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C31F68A-7A88-4863-B88C-4B8AE70C2698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D13CFF6E-0ABC-47D6-87BD-F2FF38B75DE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" firstSheet="6" activeTab="9" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1188" uniqueCount="387">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1574,6 +1574,18 @@
   </si>
   <si>
     <t>动态实体定义中的每个字段需要映射到NopDynEntity的字段上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REF_TAG_SET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ref Tag Set</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联属性标签</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1918,16 +1930,28 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1966,13 +1990,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1987,9 +2005,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1999,19 +2014,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2023,33 +2026,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2059,8 +2035,44 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2593,10 +2605,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68F89B88-34E8-484E-A694-177B0E94136A}">
-  <dimension ref="A1:P41"/>
+  <dimension ref="A1:P42"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2616,132 +2628,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="46" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="48" t="s">
         <v>336</v>
       </c>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="48"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="50"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="26"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="27"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="33"/>
       <c r="N1" s="14"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="46" t="s">
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="48" t="s">
         <v>337</v>
       </c>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="48"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="50"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="50" t="s">
+      <c r="I2" s="51" t="s">
         <v>338</v>
       </c>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="53"/>
       <c r="N2" s="13"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="48"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="50"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="27"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="33"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="48"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="50"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="26"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="30"/>
-      <c r="P5" s="27"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="33"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="49"/>
-      <c r="N6" s="49"/>
-      <c r="O6" s="49"/>
-      <c r="P6" s="49"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="46"/>
+      <c r="O6" s="46"/>
+      <c r="P6" s="46"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -2807,7 +2819,7 @@
         <v>339</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>233</v>
+        <v>104</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>340</v>
@@ -2836,16 +2848,18 @@
         <v>2</v>
       </c>
       <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
+      <c r="C9" s="7" t="s">
+        <v>106</v>
+      </c>
       <c r="D9" s="9" t="s">
-        <v>342</v>
-      </c>
-      <c r="E9" s="7"/>
+        <v>348</v>
+      </c>
+      <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>325</v>
+        <v>14</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="7" t="s">
@@ -2855,7 +2869,7 @@
         <v>28</v>
       </c>
       <c r="K9" s="7">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="L9" s="7"/>
       <c r="M9" s="9"/>
@@ -2868,18 +2882,16 @@
         <v>3</v>
       </c>
       <c r="B10" s="7"/>
-      <c r="C10" s="7" t="s">
-        <v>106</v>
-      </c>
+      <c r="C10" s="7"/>
       <c r="D10" s="9" t="s">
-        <v>348</v>
-      </c>
-      <c r="E10" s="9"/>
+        <v>60</v>
+      </c>
+      <c r="E10" s="7"/>
       <c r="F10" s="9" t="s">
-        <v>349</v>
+        <v>142</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="7" t="s">
@@ -2889,7 +2901,7 @@
         <v>28</v>
       </c>
       <c r="K10" s="7">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L10" s="7"/>
       <c r="M10" s="9"/>
@@ -2904,14 +2916,14 @@
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="9" t="s">
-        <v>60</v>
+        <v>342</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="9" t="s">
-        <v>142</v>
+        <v>343</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>244</v>
+        <v>325</v>
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="7" t="s">
@@ -2921,7 +2933,7 @@
         <v>28</v>
       </c>
       <c r="K11" s="7">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="L11" s="7"/>
       <c r="M11" s="9"/>
@@ -3042,9 +3054,7 @@
         <v>356</v>
       </c>
       <c r="H15" s="9"/>
-      <c r="I15" s="7" t="s">
-        <v>27</v>
-      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="9" t="s">
         <v>28</v>
       </c>
@@ -3104,9 +3114,7 @@
         <v>62</v>
       </c>
       <c r="H17" s="9"/>
-      <c r="I17" s="7" t="s">
-        <v>27</v>
-      </c>
+      <c r="I17" s="7"/>
       <c r="J17" s="9" t="s">
         <v>28</v>
       </c>
@@ -3310,27 +3318,25 @@
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="9" t="s">
-        <v>33</v>
+        <v>384</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="9" t="s">
-        <v>34</v>
+        <v>385</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>95</v>
+        <v>386</v>
       </c>
       <c r="H24" s="9"/>
-      <c r="I24" s="7" t="s">
-        <v>27</v>
-      </c>
+      <c r="I24" s="7"/>
       <c r="J24" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="K24" s="7"/>
+        <v>28</v>
+      </c>
+      <c r="K24" s="7">
+        <v>200</v>
+      </c>
       <c r="L24" s="7"/>
-      <c r="M24" s="9" t="s">
-        <v>232</v>
-      </c>
+      <c r="M24" s="9"/>
       <c r="N24" s="9"/>
       <c r="O24" s="7"/>
       <c r="P24" s="1"/>
@@ -3342,20 +3348,16 @@
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>104</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="E25" s="7"/>
       <c r="F25" s="9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H25" s="9" t="s">
-        <v>88</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="H25" s="9"/>
       <c r="I25" s="7" t="s">
         <v>27</v>
       </c>
@@ -3364,7 +3366,9 @@
       </c>
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
-      <c r="M25" s="9"/>
+      <c r="M25" s="9" t="s">
+        <v>232</v>
+      </c>
       <c r="N25" s="9"/>
       <c r="O25" s="7"/>
       <c r="P25" s="1"/>
@@ -3376,27 +3380,27 @@
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E26" s="7"/>
+        <v>36</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>104</v>
+      </c>
       <c r="F26" s="9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I26" s="7" t="s">
         <v>27</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K26" s="7">
-        <v>50</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="K26" s="7"/>
       <c r="L26" s="7"/>
       <c r="M26" s="9"/>
       <c r="N26" s="9"/>
@@ -3410,25 +3414,29 @@
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E27" s="7"/>
+        <v>39</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>233</v>
+      </c>
       <c r="F27" s="9" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I27" s="7" t="s">
         <v>27</v>
       </c>
       <c r="J27" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="K27" s="7"/>
+        <v>28</v>
+      </c>
+      <c r="K27" s="7">
+        <v>50</v>
+      </c>
       <c r="L27" s="7"/>
       <c r="M27" s="9"/>
       <c r="N27" s="9"/>
@@ -3442,27 +3450,27 @@
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E28" s="7"/>
+        <v>43</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>233</v>
+      </c>
       <c r="F28" s="9" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I28" s="7" t="s">
         <v>27</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K28" s="7">
-        <v>50</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="K28" s="7"/>
       <c r="L28" s="7"/>
       <c r="M28" s="9"/>
       <c r="N28" s="9"/>
@@ -3476,25 +3484,29 @@
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E29" s="7"/>
+        <v>47</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>233</v>
+      </c>
       <c r="F29" s="9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I29" s="7" t="s">
         <v>27</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="K29" s="7"/>
+        <v>28</v>
+      </c>
+      <c r="K29" s="7">
+        <v>50</v>
+      </c>
       <c r="L29" s="7"/>
       <c r="M29" s="9"/>
       <c r="N29" s="9"/>
@@ -3508,27 +3520,27 @@
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>105</v>
+        <v>233</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="I30" s="7"/>
+        <v>92</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="J30" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K30" s="7">
-        <v>200</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="K30" s="7"/>
       <c r="L30" s="7"/>
       <c r="M30" s="9"/>
       <c r="N30" s="9"/>
@@ -3536,285 +3548,277 @@
       <c r="P30" s="1"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="7"/>
+      <c r="A31" s="7">
+        <v>24</v>
+      </c>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
+      <c r="D31" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>101</v>
+      </c>
       <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
+      <c r="J31" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K31" s="7">
+        <v>200</v>
+      </c>
       <c r="L31" s="7"/>
       <c r="M31" s="9"/>
       <c r="N31" s="9"/>
       <c r="O31" s="7"/>
       <c r="P31" s="1"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A33" s="70" t="s">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="1"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A34" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="B33" s="71"/>
-      <c r="C33" s="71"/>
-      <c r="D33" s="71"/>
-      <c r="E33" s="71"/>
-      <c r="F33" s="71"/>
-      <c r="G33" s="71"/>
-      <c r="H33" s="71"/>
-      <c r="I33" s="71"/>
-      <c r="J33" s="71"/>
-      <c r="K33" s="71"/>
-      <c r="L33" s="71"/>
-      <c r="M33" s="71"/>
-      <c r="N33" s="71"/>
-      <c r="O33" s="71"/>
-      <c r="P33" s="72"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A34" s="42">
+      <c r="B34" s="59"/>
+      <c r="C34" s="59"/>
+      <c r="D34" s="59"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="59"/>
+      <c r="G34" s="59"/>
+      <c r="H34" s="59"/>
+      <c r="I34" s="59"/>
+      <c r="J34" s="59"/>
+      <c r="K34" s="59"/>
+      <c r="L34" s="59"/>
+      <c r="M34" s="59"/>
+      <c r="N34" s="59"/>
+      <c r="O34" s="59"/>
+      <c r="P34" s="60"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A35" s="27">
         <v>1</v>
       </c>
-      <c r="B34" s="68" t="s">
+      <c r="B35" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="69"/>
-      <c r="D34" s="26" t="s">
+      <c r="C35" s="62"/>
+      <c r="D35" s="32" t="s">
         <v>344</v>
       </c>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="2" t="s">
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H34" s="26" t="s">
+      <c r="H35" s="32" t="s">
         <v>345</v>
       </c>
-      <c r="I34" s="30"/>
-      <c r="J34" s="27"/>
-      <c r="K34" s="62" t="s">
+      <c r="I35" s="34"/>
+      <c r="J35" s="33"/>
+      <c r="K35" s="63" t="s">
         <v>58</v>
       </c>
-      <c r="L34" s="64"/>
-      <c r="M34" s="74" t="s">
+      <c r="L35" s="64"/>
+      <c r="M35" s="74" t="s">
         <v>346</v>
       </c>
-      <c r="N34" s="75"/>
-      <c r="O34" s="75"/>
-      <c r="P34" s="76"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A35" s="43"/>
-      <c r="B35" s="68" t="s">
+      <c r="N35" s="75"/>
+      <c r="O35" s="75"/>
+      <c r="P35" s="76"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A36" s="28"/>
+      <c r="B36" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="C35" s="69"/>
-      <c r="D35" s="26" t="s">
+      <c r="C36" s="62"/>
+      <c r="D36" s="32" t="s">
         <v>285</v>
       </c>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="2" t="s">
+      <c r="E36" s="34"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H35" s="26" t="s">
+      <c r="H36" s="32" t="s">
         <v>284</v>
       </c>
-      <c r="I35" s="30"/>
-      <c r="J35" s="27"/>
-      <c r="K35" s="62" t="s">
+      <c r="I36" s="34"/>
+      <c r="J36" s="33"/>
+      <c r="K36" s="63" t="s">
         <v>66</v>
       </c>
-      <c r="L35" s="64"/>
-      <c r="M35" s="50" t="s">
+      <c r="L36" s="64"/>
+      <c r="M36" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="N35" s="51"/>
-      <c r="O35" s="51"/>
-      <c r="P35" s="52"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A36" s="43"/>
-      <c r="B36" s="68" t="s">
+      <c r="N36" s="52"/>
+      <c r="O36" s="52"/>
+      <c r="P36" s="53"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A37" s="28"/>
+      <c r="B37" s="61" t="s">
         <v>98</v>
       </c>
-      <c r="C36" s="69"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="17" t="s">
+      <c r="C37" s="62"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="27"/>
-      <c r="K36" s="15"/>
-      <c r="L36" s="16"/>
-      <c r="M36" s="50"/>
-      <c r="N36" s="51"/>
-      <c r="O36" s="51"/>
-      <c r="P36" s="52"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A37" s="43"/>
-      <c r="B37" s="68" t="s">
+      <c r="H37" s="34"/>
+      <c r="I37" s="34"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="15"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="51"/>
+      <c r="N37" s="52"/>
+      <c r="O37" s="52"/>
+      <c r="P37" s="53"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A38" s="28"/>
+      <c r="B38" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="C37" s="69"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="30"/>
-      <c r="J37" s="27"/>
-      <c r="K37" s="62" t="s">
+      <c r="C38" s="62"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="34"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="34"/>
+      <c r="J38" s="33"/>
+      <c r="K38" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="L37" s="64"/>
-      <c r="M37" s="50" t="s">
+      <c r="L38" s="64"/>
+      <c r="M38" s="51" t="s">
         <v>143</v>
       </c>
-      <c r="N37" s="51"/>
-      <c r="O37" s="51"/>
-      <c r="P37" s="52"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A38" s="43"/>
-      <c r="B38" s="53" t="s">
+      <c r="N38" s="52"/>
+      <c r="O38" s="52"/>
+      <c r="P38" s="53"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A39" s="28"/>
+      <c r="B39" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="54"/>
-      <c r="D38" s="54"/>
-      <c r="E38" s="54"/>
-      <c r="F38" s="54"/>
-      <c r="G38" s="54"/>
-      <c r="H38" s="54"/>
-      <c r="I38" s="54"/>
-      <c r="J38" s="55"/>
-      <c r="K38" s="53"/>
-      <c r="L38" s="55"/>
-      <c r="M38" s="53"/>
-      <c r="N38" s="54"/>
-      <c r="O38" s="54"/>
-      <c r="P38" s="55"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A39" s="43"/>
-      <c r="B39" s="12" t="s">
+      <c r="C39" s="68"/>
+      <c r="D39" s="68"/>
+      <c r="E39" s="68"/>
+      <c r="F39" s="68"/>
+      <c r="G39" s="68"/>
+      <c r="H39" s="68"/>
+      <c r="I39" s="68"/>
+      <c r="J39" s="67"/>
+      <c r="K39" s="66"/>
+      <c r="L39" s="67"/>
+      <c r="M39" s="66"/>
+      <c r="N39" s="68"/>
+      <c r="O39" s="68"/>
+      <c r="P39" s="67"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A40" s="28"/>
+      <c r="B40" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C39" s="62" t="s">
+      <c r="C40" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="D39" s="63"/>
-      <c r="E39" s="64"/>
-      <c r="F39" s="15" t="s">
+      <c r="D40" s="72"/>
+      <c r="E40" s="64"/>
+      <c r="F40" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G39" s="62" t="s">
+      <c r="G40" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="H39" s="64"/>
-      <c r="I39" s="62" t="s">
+      <c r="H40" s="64"/>
+      <c r="I40" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="J39" s="64"/>
-      <c r="K39" s="65"/>
-      <c r="L39" s="66"/>
-      <c r="M39" s="65"/>
-      <c r="N39" s="67"/>
-      <c r="O39" s="67"/>
-      <c r="P39" s="66"/>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A40" s="43"/>
-      <c r="B40" s="8">
+      <c r="J40" s="64"/>
+      <c r="K40" s="69"/>
+      <c r="L40" s="71"/>
+      <c r="M40" s="69"/>
+      <c r="N40" s="70"/>
+      <c r="O40" s="70"/>
+      <c r="P40" s="71"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A41" s="28"/>
+      <c r="B41" s="8">
         <v>1</v>
       </c>
-      <c r="C40" s="56" t="s">
+      <c r="C41" s="54" t="s">
         <v>347</v>
       </c>
-      <c r="D40" s="57"/>
-      <c r="E40" s="58"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="56" t="s">
+      <c r="D41" s="73"/>
+      <c r="E41" s="55"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="54" t="s">
         <v>347</v>
       </c>
-      <c r="H40" s="58"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="59"/>
-      <c r="L40" s="60"/>
-      <c r="M40" s="59"/>
-      <c r="N40" s="61"/>
-      <c r="O40" s="61"/>
-      <c r="P40" s="60"/>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A41" s="43"/>
-      <c r="B41" s="56"/>
-      <c r="C41" s="57"/>
-      <c r="D41" s="57"/>
-      <c r="E41" s="58"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="56"/>
-      <c r="H41" s="58"/>
+      <c r="H41" s="55"/>
       <c r="I41" s="3"/>
       <c r="J41" s="4"/>
-      <c r="K41" s="59"/>
-      <c r="L41" s="60"/>
-      <c r="M41" s="59"/>
-      <c r="N41" s="61"/>
-      <c r="O41" s="61"/>
-      <c r="P41" s="60"/>
+      <c r="K41" s="56"/>
+      <c r="L41" s="57"/>
+      <c r="M41" s="56"/>
+      <c r="N41" s="65"/>
+      <c r="O41" s="65"/>
+      <c r="P41" s="57"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A42" s="28"/>
+      <c r="B42" s="54"/>
+      <c r="C42" s="73"/>
+      <c r="D42" s="73"/>
+      <c r="E42" s="55"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="54"/>
+      <c r="H42" s="55"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="56"/>
+      <c r="L42" s="57"/>
+      <c r="M42" s="56"/>
+      <c r="N42" s="65"/>
+      <c r="O42" s="65"/>
+      <c r="P42" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M41:P41"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:P39"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:P40"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:P37"/>
-    <mergeCell ref="B38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:P38"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="M35:P35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="M36:P36"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A33:P33"/>
-    <mergeCell ref="A34:A41"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="M34:P34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:L4"/>
     <mergeCell ref="A5:P5"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:G1"/>
@@ -3822,10 +3826,52 @@
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:L4"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A34:P34"/>
+    <mergeCell ref="A35:A42"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="M35:P35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:P36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="M37:P37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:P38"/>
+    <mergeCell ref="B39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:P39"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="M42:P42"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:P40"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:P41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="M34:P34" location="nop_dyn_entity_meta!A1" display="NopDynEntityMeta" xr:uid="{33AE4065-0F68-4806-879B-8B3C0D52F0DF}"/>
+    <hyperlink ref="M35:P35" location="nop_dyn_entity_meta!A1" display="NopDynEntityMeta" xr:uid="{33AE4065-0F68-4806-879B-8B3C0D52F0DF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -3857,134 +3903,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="46" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="48" t="s">
         <v>312</v>
       </c>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="48"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="50"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="26"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="27"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="33"/>
       <c r="N1" s="14"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="46" t="s">
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="48" t="s">
         <v>145</v>
       </c>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="48"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="50"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="50" t="s">
+      <c r="I2" s="51" t="s">
         <v>146</v>
       </c>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="53"/>
       <c r="N2" s="13"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="46" t="s">
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="48" t="s">
         <v>172</v>
       </c>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="48"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="50"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="27"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="33"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="48"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="50"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="26"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="30"/>
-      <c r="P5" s="27"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="33"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="49"/>
-      <c r="N6" s="49"/>
-      <c r="O6" s="49"/>
-      <c r="P6" s="49"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="46"/>
+      <c r="O6" s="46"/>
+      <c r="P6" s="46"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -5081,241 +5127,250 @@
       <c r="P40" s="1"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A42" s="70" t="s">
+      <c r="A42" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="B42" s="71"/>
-      <c r="C42" s="71"/>
-      <c r="D42" s="71"/>
-      <c r="E42" s="71"/>
-      <c r="F42" s="71"/>
-      <c r="G42" s="71"/>
-      <c r="H42" s="71"/>
-      <c r="I42" s="71"/>
-      <c r="J42" s="71"/>
-      <c r="K42" s="71"/>
-      <c r="L42" s="71"/>
-      <c r="M42" s="71"/>
-      <c r="N42" s="71"/>
-      <c r="O42" s="71"/>
-      <c r="P42" s="72"/>
+      <c r="B42" s="59"/>
+      <c r="C42" s="59"/>
+      <c r="D42" s="59"/>
+      <c r="E42" s="59"/>
+      <c r="F42" s="59"/>
+      <c r="G42" s="59"/>
+      <c r="H42" s="59"/>
+      <c r="I42" s="59"/>
+      <c r="J42" s="59"/>
+      <c r="K42" s="59"/>
+      <c r="L42" s="59"/>
+      <c r="M42" s="59"/>
+      <c r="N42" s="59"/>
+      <c r="O42" s="59"/>
+      <c r="P42" s="60"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A43" s="42">
+      <c r="A43" s="27">
         <v>2</v>
       </c>
-      <c r="B43" s="68" t="s">
+      <c r="B43" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="C43" s="69"/>
-      <c r="D43" s="26" t="s">
+      <c r="C43" s="62"/>
+      <c r="D43" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="34"/>
       <c r="G43" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H43" s="26" t="s">
+      <c r="H43" s="32" t="s">
         <v>162</v>
       </c>
-      <c r="I43" s="30"/>
-      <c r="J43" s="27"/>
-      <c r="K43" s="62" t="s">
+      <c r="I43" s="34"/>
+      <c r="J43" s="33"/>
+      <c r="K43" s="63" t="s">
         <v>58</v>
       </c>
       <c r="L43" s="64"/>
-      <c r="M43" s="50" t="s">
+      <c r="M43" s="51" t="s">
         <v>313</v>
       </c>
-      <c r="N43" s="51"/>
-      <c r="O43" s="51"/>
-      <c r="P43" s="52"/>
+      <c r="N43" s="52"/>
+      <c r="O43" s="52"/>
+      <c r="P43" s="53"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A44" s="43"/>
-      <c r="B44" s="68" t="s">
+      <c r="A44" s="28"/>
+      <c r="B44" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="C44" s="69"/>
-      <c r="D44" s="26" t="s">
+      <c r="C44" s="62"/>
+      <c r="D44" s="32" t="s">
         <v>163</v>
       </c>
-      <c r="E44" s="30"/>
-      <c r="F44" s="30"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="34"/>
       <c r="G44" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H44" s="26" t="s">
+      <c r="H44" s="32" t="s">
         <v>164</v>
       </c>
-      <c r="I44" s="30"/>
-      <c r="J44" s="27"/>
-      <c r="K44" s="62" t="s">
+      <c r="I44" s="34"/>
+      <c r="J44" s="33"/>
+      <c r="K44" s="63" t="s">
         <v>66</v>
       </c>
       <c r="L44" s="64"/>
-      <c r="M44" s="50" t="s">
+      <c r="M44" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="N44" s="51"/>
-      <c r="O44" s="51"/>
-      <c r="P44" s="52"/>
+      <c r="N44" s="52"/>
+      <c r="O44" s="52"/>
+      <c r="P44" s="53"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A45" s="43"/>
-      <c r="B45" s="68" t="s">
+      <c r="A45" s="28"/>
+      <c r="B45" s="61" t="s">
         <v>98</v>
       </c>
-      <c r="C45" s="69"/>
-      <c r="D45" s="26" t="s">
+      <c r="C45" s="62"/>
+      <c r="D45" s="32" t="s">
         <v>165</v>
       </c>
-      <c r="E45" s="30"/>
-      <c r="F45" s="30"/>
+      <c r="E45" s="34"/>
+      <c r="F45" s="34"/>
       <c r="G45" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="H45" s="30" t="s">
+      <c r="H45" s="34" t="s">
         <v>166</v>
       </c>
-      <c r="I45" s="30"/>
-      <c r="J45" s="27"/>
+      <c r="I45" s="34"/>
+      <c r="J45" s="33"/>
       <c r="K45" s="15"/>
       <c r="L45" s="16"/>
-      <c r="M45" s="50"/>
-      <c r="N45" s="51"/>
-      <c r="O45" s="51"/>
-      <c r="P45" s="52"/>
+      <c r="M45" s="51"/>
+      <c r="N45" s="52"/>
+      <c r="O45" s="52"/>
+      <c r="P45" s="53"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A46" s="43"/>
-      <c r="B46" s="68" t="s">
+      <c r="A46" s="28"/>
+      <c r="B46" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="C46" s="69"/>
-      <c r="D46" s="26"/>
-      <c r="E46" s="30"/>
-      <c r="F46" s="30"/>
-      <c r="G46" s="30"/>
-      <c r="H46" s="30"/>
-      <c r="I46" s="30"/>
-      <c r="J46" s="27"/>
-      <c r="K46" s="62" t="s">
+      <c r="C46" s="62"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="34"/>
+      <c r="F46" s="34"/>
+      <c r="G46" s="34"/>
+      <c r="H46" s="34"/>
+      <c r="I46" s="34"/>
+      <c r="J46" s="33"/>
+      <c r="K46" s="63" t="s">
         <v>9</v>
       </c>
       <c r="L46" s="64"/>
-      <c r="M46" s="50" t="s">
+      <c r="M46" s="51" t="s">
         <v>141</v>
       </c>
-      <c r="N46" s="51"/>
-      <c r="O46" s="51"/>
-      <c r="P46" s="52"/>
+      <c r="N46" s="52"/>
+      <c r="O46" s="52"/>
+      <c r="P46" s="53"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A47" s="43"/>
-      <c r="B47" s="53" t="s">
+      <c r="A47" s="28"/>
+      <c r="B47" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="C47" s="54"/>
-      <c r="D47" s="54"/>
-      <c r="E47" s="54"/>
-      <c r="F47" s="54"/>
-      <c r="G47" s="54"/>
-      <c r="H47" s="54"/>
-      <c r="I47" s="54"/>
-      <c r="J47" s="55"/>
-      <c r="K47" s="53"/>
-      <c r="L47" s="55"/>
-      <c r="M47" s="53"/>
-      <c r="N47" s="54"/>
-      <c r="O47" s="54"/>
-      <c r="P47" s="55"/>
+      <c r="C47" s="68"/>
+      <c r="D47" s="68"/>
+      <c r="E47" s="68"/>
+      <c r="F47" s="68"/>
+      <c r="G47" s="68"/>
+      <c r="H47" s="68"/>
+      <c r="I47" s="68"/>
+      <c r="J47" s="67"/>
+      <c r="K47" s="66"/>
+      <c r="L47" s="67"/>
+      <c r="M47" s="66"/>
+      <c r="N47" s="68"/>
+      <c r="O47" s="68"/>
+      <c r="P47" s="67"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A48" s="43"/>
+      <c r="A48" s="28"/>
       <c r="B48" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C48" s="62" t="s">
+      <c r="C48" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="D48" s="63"/>
+      <c r="D48" s="72"/>
       <c r="E48" s="64"/>
       <c r="F48" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G48" s="62" t="s">
+      <c r="G48" s="63" t="s">
         <v>17</v>
       </c>
       <c r="H48" s="64"/>
-      <c r="I48" s="62" t="s">
+      <c r="I48" s="63" t="s">
         <v>18</v>
       </c>
       <c r="J48" s="64"/>
-      <c r="K48" s="65"/>
-      <c r="L48" s="66"/>
-      <c r="M48" s="65"/>
-      <c r="N48" s="67"/>
-      <c r="O48" s="67"/>
-      <c r="P48" s="66"/>
+      <c r="K48" s="69"/>
+      <c r="L48" s="71"/>
+      <c r="M48" s="69"/>
+      <c r="N48" s="70"/>
+      <c r="O48" s="70"/>
+      <c r="P48" s="71"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A49" s="43"/>
+      <c r="A49" s="28"/>
       <c r="B49" s="8">
         <v>1</v>
       </c>
-      <c r="C49" s="56" t="s">
+      <c r="C49" s="54" t="s">
         <v>167</v>
       </c>
-      <c r="D49" s="57"/>
-      <c r="E49" s="58"/>
+      <c r="D49" s="73"/>
+      <c r="E49" s="55"/>
       <c r="F49" s="3"/>
-      <c r="G49" s="56" t="s">
+      <c r="G49" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="H49" s="58"/>
+      <c r="H49" s="55"/>
       <c r="I49" s="3"/>
       <c r="J49" s="4"/>
-      <c r="K49" s="59"/>
-      <c r="L49" s="60"/>
-      <c r="M49" s="59"/>
-      <c r="N49" s="61"/>
-      <c r="O49" s="61"/>
-      <c r="P49" s="60"/>
+      <c r="K49" s="56"/>
+      <c r="L49" s="57"/>
+      <c r="M49" s="56"/>
+      <c r="N49" s="65"/>
+      <c r="O49" s="65"/>
+      <c r="P49" s="57"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A50" s="43"/>
-      <c r="B50" s="56"/>
-      <c r="C50" s="57"/>
-      <c r="D50" s="57"/>
-      <c r="E50" s="58"/>
+      <c r="A50" s="28"/>
+      <c r="B50" s="54"/>
+      <c r="C50" s="73"/>
+      <c r="D50" s="73"/>
+      <c r="E50" s="55"/>
       <c r="F50" s="3"/>
-      <c r="G50" s="56"/>
-      <c r="H50" s="58"/>
+      <c r="G50" s="54"/>
+      <c r="H50" s="55"/>
       <c r="I50" s="3"/>
       <c r="J50" s="4"/>
-      <c r="K50" s="59"/>
-      <c r="L50" s="60"/>
-      <c r="M50" s="59"/>
-      <c r="N50" s="61"/>
-      <c r="O50" s="61"/>
-      <c r="P50" s="60"/>
+      <c r="K50" s="56"/>
+      <c r="L50" s="57"/>
+      <c r="M50" s="56"/>
+      <c r="N50" s="65"/>
+      <c r="O50" s="65"/>
+      <c r="P50" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:L4"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="M49:P49"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="M50:P50"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:J46"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="M47:P47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="M48:P48"/>
+    <mergeCell ref="B47:J47"/>
+    <mergeCell ref="C48:E48"/>
     <mergeCell ref="A6:P6"/>
     <mergeCell ref="A42:P42"/>
     <mergeCell ref="M45:P45"/>
@@ -5329,30 +5384,21 @@
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="K44:L44"/>
     <mergeCell ref="M44:P44"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="M47:P47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="M48:P48"/>
     <mergeCell ref="A43:A50"/>
     <mergeCell ref="D44:F44"/>
     <mergeCell ref="H44:J44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:J46"/>
-    <mergeCell ref="B47:J47"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="M49:P49"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="M50:P50"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:L4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5364,7 +5410,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9313AC94-4A2B-4F66-85AD-4A3D79664E62}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -5966,8 +6012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC07AC33-2EAE-4B58-8A81-8419FBBDDE80}">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -5981,17 +6027,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="42">
+      <c r="A1" s="27">
         <v>1</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="26" t="s">
+      <c r="C1" s="31"/>
+      <c r="D1" s="32" t="s">
         <v>296</v>
       </c>
-      <c r="E1" s="27"/>
+      <c r="E1" s="33"/>
       <c r="F1" s="18" t="s">
         <v>126</v>
       </c>
@@ -6000,15 +6046,15 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="43"/>
-      <c r="B2" s="28" t="s">
+      <c r="A2" s="28"/>
+      <c r="B2" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="26" t="s">
+      <c r="C2" s="31"/>
+      <c r="D2" s="32" t="s">
         <v>297</v>
       </c>
-      <c r="E2" s="27"/>
+      <c r="E2" s="33"/>
       <c r="F2" s="18" t="s">
         <v>129</v>
       </c>
@@ -6017,29 +6063,29 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="43"/>
-      <c r="B3" s="28" t="s">
+      <c r="A3" s="28"/>
+      <c r="B3" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="27"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="33"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="43"/>
-      <c r="B4" s="31" t="s">
+      <c r="A4" s="28"/>
+      <c r="B4" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="33"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="37"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="43"/>
+      <c r="A5" s="28"/>
       <c r="B5" s="20" t="s">
         <v>132</v>
       </c>
@@ -6060,7 +6106,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="43"/>
+      <c r="A6" s="28"/>
       <c r="B6" s="19">
         <v>1</v>
       </c>
@@ -6077,7 +6123,7 @@
       <c r="G6" s="22"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="43"/>
+      <c r="A7" s="28"/>
       <c r="B7" s="19">
         <v>2</v>
       </c>
@@ -6094,7 +6140,7 @@
       <c r="G7" s="22"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="43"/>
+      <c r="A8" s="28"/>
       <c r="B8" s="19"/>
       <c r="C8" s="23"/>
       <c r="D8" s="22"/>
@@ -6103,26 +6149,26 @@
       <c r="G8" s="22"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="44"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="36"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="40"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="39">
+      <c r="A10" s="43">
         <v>2</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="26" t="s">
+      <c r="C10" s="31"/>
+      <c r="D10" s="32" t="s">
         <v>251</v>
       </c>
-      <c r="E10" s="27"/>
+      <c r="E10" s="33"/>
       <c r="F10" s="18" t="s">
         <v>126</v>
       </c>
@@ -6131,15 +6177,15 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="40"/>
-      <c r="B11" s="28" t="s">
+      <c r="A11" s="44"/>
+      <c r="B11" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="26" t="s">
+      <c r="C11" s="31"/>
+      <c r="D11" s="32" t="s">
         <v>252</v>
       </c>
-      <c r="E11" s="27"/>
+      <c r="E11" s="33"/>
       <c r="F11" s="18" t="s">
         <v>129</v>
       </c>
@@ -6148,29 +6194,29 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="40"/>
-      <c r="B12" s="28" t="s">
+      <c r="A12" s="44"/>
+      <c r="B12" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="C12" s="29"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="27"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="33"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="40"/>
-      <c r="B13" s="31" t="s">
+      <c r="A13" s="44"/>
+      <c r="B13" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="33"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="37"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="40"/>
+      <c r="A14" s="44"/>
       <c r="B14" s="20" t="s">
         <v>132</v>
       </c>
@@ -6191,7 +6237,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="40"/>
+      <c r="A15" s="44"/>
       <c r="B15" s="19">
         <v>1</v>
       </c>
@@ -6208,7 +6254,7 @@
       <c r="G15" s="22"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="40"/>
+      <c r="A16" s="44"/>
       <c r="B16" s="19">
         <v>2</v>
       </c>
@@ -6225,7 +6271,7 @@
       <c r="G16" s="22"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="40"/>
+      <c r="A17" s="44"/>
       <c r="B17" s="19"/>
       <c r="C17" s="23"/>
       <c r="D17" s="22"/>
@@ -6234,26 +6280,26 @@
       <c r="G17" s="22"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="41"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="36"/>
+      <c r="A18" s="45"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="40"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="42">
+      <c r="A19" s="27">
         <v>3</v>
       </c>
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="C19" s="29"/>
-      <c r="D19" s="26" t="s">
+      <c r="C19" s="31"/>
+      <c r="D19" s="32" t="s">
         <v>264</v>
       </c>
-      <c r="E19" s="27"/>
+      <c r="E19" s="33"/>
       <c r="F19" s="18" t="s">
         <v>126</v>
       </c>
@@ -6262,15 +6308,15 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="43"/>
-      <c r="B20" s="28" t="s">
+      <c r="A20" s="28"/>
+      <c r="B20" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="C20" s="29"/>
-      <c r="D20" s="26" t="s">
+      <c r="C20" s="31"/>
+      <c r="D20" s="32" t="s">
         <v>265</v>
       </c>
-      <c r="E20" s="27"/>
+      <c r="E20" s="33"/>
       <c r="F20" s="18" t="s">
         <v>129</v>
       </c>
@@ -6279,29 +6325,29 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="43"/>
-      <c r="B21" s="28" t="s">
+      <c r="A21" s="28"/>
+      <c r="B21" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="C21" s="29"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="27"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="33"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="43"/>
-      <c r="B22" s="31" t="s">
+      <c r="A22" s="28"/>
+      <c r="B22" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="33"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="37"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="43"/>
+      <c r="A23" s="28"/>
       <c r="B23" s="20" t="s">
         <v>132</v>
       </c>
@@ -6322,7 +6368,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="43"/>
+      <c r="A24" s="28"/>
       <c r="B24" s="19">
         <v>1</v>
       </c>
@@ -6339,7 +6385,7 @@
       <c r="G24" s="22"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="43"/>
+      <c r="A25" s="28"/>
       <c r="B25" s="19">
         <v>2</v>
       </c>
@@ -6356,7 +6402,7 @@
       <c r="G25" s="22"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="43"/>
+      <c r="A26" s="28"/>
       <c r="B26" s="19">
         <v>3</v>
       </c>
@@ -6373,26 +6419,26 @@
       <c r="G26" s="24"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="44"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="36"/>
+      <c r="A27" s="29"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="40"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="37">
+      <c r="A28" s="41">
         <v>4</v>
       </c>
-      <c r="B28" s="28" t="s">
+      <c r="B28" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="C28" s="29"/>
-      <c r="D28" s="26" t="s">
+      <c r="C28" s="31"/>
+      <c r="D28" s="32" t="s">
         <v>315</v>
       </c>
-      <c r="E28" s="27"/>
+      <c r="E28" s="33"/>
       <c r="F28" s="18" t="s">
         <v>126</v>
       </c>
@@ -6401,15 +6447,15 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="38"/>
-      <c r="B29" s="28" t="s">
+      <c r="A29" s="42"/>
+      <c r="B29" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="C29" s="29"/>
-      <c r="D29" s="26" t="s">
+      <c r="C29" s="31"/>
+      <c r="D29" s="32" t="s">
         <v>316</v>
       </c>
-      <c r="E29" s="27"/>
+      <c r="E29" s="33"/>
       <c r="F29" s="18" t="s">
         <v>129</v>
       </c>
@@ -6418,29 +6464,29 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="38"/>
-      <c r="B30" s="28" t="s">
+      <c r="A30" s="42"/>
+      <c r="B30" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="C30" s="29"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="27"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="33"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="38"/>
-      <c r="B31" s="31" t="s">
+      <c r="A31" s="42"/>
+      <c r="B31" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="33"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="37"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="38"/>
+      <c r="A32" s="42"/>
       <c r="B32" s="20" t="s">
         <v>132</v>
       </c>
@@ -6461,7 +6507,7 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="38"/>
+      <c r="A33" s="42"/>
       <c r="B33" s="19">
         <v>1</v>
       </c>
@@ -6478,7 +6524,7 @@
       <c r="G33" s="22"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="38"/>
+      <c r="A34" s="42"/>
       <c r="B34" s="19">
         <v>2</v>
       </c>
@@ -6495,31 +6541,21 @@
       <c r="G34" s="22"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="38"/>
-      <c r="B35" s="34"/>
-      <c r="C35" s="35"/>
-      <c r="D35" s="35"/>
-      <c r="E35" s="35"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="36"/>
+      <c r="A35" s="42"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A1:A9"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B27:G27"/>
     <mergeCell ref="B31:G31"/>
     <mergeCell ref="A28:A35"/>
     <mergeCell ref="B35:G35"/>
@@ -6536,11 +6572,21 @@
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="A1:A9"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B9:G9"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6551,8 +6597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44FDE2B5-AFC1-4A23-9D01-924959A8BB4F}">
   <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -6572,132 +6618,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="46" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="48" t="s">
         <v>286</v>
       </c>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="48"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="50"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="26"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="27"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="33"/>
       <c r="N1" s="14"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="46" t="s">
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="48" t="s">
         <v>287</v>
       </c>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="48"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="50"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="50" t="s">
+      <c r="I2" s="51" t="s">
         <v>288</v>
       </c>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="53"/>
       <c r="N2" s="13"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="48"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="50"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="27"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="33"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="48"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="50"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="26"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="30"/>
-      <c r="P5" s="27"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="33"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="49"/>
-      <c r="N6" s="49"/>
-      <c r="O6" s="49"/>
-      <c r="P6" s="49"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="46"/>
+      <c r="O6" s="46"/>
+      <c r="P6" s="46"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -6762,7 +6808,9 @@
       <c r="D8" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="E8" s="7"/>
+      <c r="E8" s="7" t="s">
+        <v>104</v>
+      </c>
       <c r="F8" s="9" t="s">
         <v>290</v>
       </c>
@@ -6840,7 +6888,7 @@
         <v>27</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K10" s="7">
         <v>200</v>
@@ -6876,8 +6924,7 @@
       </c>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="73" t="s">
+      <c r="M11" s="26" t="s">
         <v>295</v>
       </c>
       <c r="O11" s="7"/>
@@ -7076,25 +7123,31 @@
       <c r="P17" s="1"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="26"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="30"/>
-      <c r="N18" s="30"/>
-      <c r="O18" s="30"/>
-      <c r="P18" s="27"/>
+      <c r="A18" s="32"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="34"/>
+      <c r="O18" s="34"/>
+      <c r="P18" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
     <mergeCell ref="A6:P6"/>
     <mergeCell ref="A18:P18"/>
     <mergeCell ref="A3:C3"/>
@@ -7103,16 +7156,10 @@
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="D4:L4"/>
     <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="N11" location="app_status" display="dyn/app-status" xr:uid="{1FB75574-5BC5-4322-A9ED-3E2F85131694}"/>
+    <hyperlink ref="M11" location="app_status" display="dyn/app-status" xr:uid="{1FB75574-5BC5-4322-A9ED-3E2F85131694}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -7123,8 +7170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F0DE455-FF29-43D0-9612-7232A83DF9B7}">
   <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -7144,132 +7191,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="46" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="48" t="s">
         <v>245</v>
       </c>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="48"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="50"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="26"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="27"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="33"/>
       <c r="N1" s="14"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="46" t="s">
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="48" t="s">
         <v>246</v>
       </c>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="48"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="50"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="50" t="s">
+      <c r="I2" s="51" t="s">
         <v>247</v>
       </c>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="53"/>
       <c r="N2" s="13"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="48"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="50"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="27"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="33"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="48"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="50"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="26"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="30"/>
-      <c r="P5" s="27"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="33"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="49"/>
-      <c r="N6" s="49"/>
-      <c r="O6" s="49"/>
-      <c r="P6" s="49"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="46"/>
+      <c r="O6" s="46"/>
+      <c r="P6" s="46"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -7334,7 +7381,9 @@
       <c r="D8" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="E8" s="7"/>
+      <c r="E8" s="7" t="s">
+        <v>104</v>
+      </c>
       <c r="F8" s="9" t="s">
         <v>239</v>
       </c>
@@ -7412,7 +7461,7 @@
         <v>27</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K10" s="7">
         <v>200</v>
@@ -7478,8 +7527,7 @@
       </c>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="73" t="s">
+      <c r="M12" s="26" t="s">
         <v>254</v>
       </c>
       <c r="O12" s="7"/>
@@ -7678,253 +7726,279 @@
       <c r="P18" s="1"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="26"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="30"/>
-      <c r="N19" s="30"/>
-      <c r="O19" s="30"/>
-      <c r="P19" s="27"/>
+      <c r="A19" s="32"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="34"/>
+      <c r="N19" s="34"/>
+      <c r="O19" s="34"/>
+      <c r="P19" s="33"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="70" t="s">
+      <c r="A21" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="71"/>
-      <c r="C21" s="71"/>
-      <c r="D21" s="71"/>
-      <c r="E21" s="71"/>
-      <c r="F21" s="71"/>
-      <c r="G21" s="71"/>
-      <c r="H21" s="71"/>
-      <c r="I21" s="71"/>
-      <c r="J21" s="71"/>
-      <c r="K21" s="71"/>
-      <c r="L21" s="71"/>
-      <c r="M21" s="71"/>
-      <c r="N21" s="71"/>
-      <c r="O21" s="71"/>
-      <c r="P21" s="72"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="59"/>
+      <c r="H21" s="59"/>
+      <c r="I21" s="59"/>
+      <c r="J21" s="59"/>
+      <c r="K21" s="59"/>
+      <c r="L21" s="59"/>
+      <c r="M21" s="59"/>
+      <c r="N21" s="59"/>
+      <c r="O21" s="59"/>
+      <c r="P21" s="60"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="42">
+      <c r="A22" s="27">
         <v>1</v>
       </c>
-      <c r="B22" s="68" t="s">
+      <c r="B22" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="69"/>
-      <c r="D22" s="26" t="s">
+      <c r="C22" s="62"/>
+      <c r="D22" s="32" t="s">
         <v>275</v>
       </c>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
       <c r="G22" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H22" s="26" t="s">
+      <c r="H22" s="32" t="s">
         <v>276</v>
       </c>
-      <c r="I22" s="30"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="62" t="s">
+      <c r="I22" s="34"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="63" t="s">
         <v>58</v>
       </c>
       <c r="L22" s="64"/>
-      <c r="M22" s="50" t="s">
+      <c r="M22" s="51" t="s">
         <v>277</v>
       </c>
-      <c r="N22" s="51"/>
-      <c r="O22" s="51"/>
-      <c r="P22" s="52"/>
+      <c r="N22" s="52"/>
+      <c r="O22" s="52"/>
+      <c r="P22" s="53"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="43"/>
-      <c r="B23" s="68" t="s">
+      <c r="A23" s="28"/>
+      <c r="B23" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="69"/>
-      <c r="D23" s="26" t="s">
+      <c r="C23" s="62"/>
+      <c r="D23" s="32" t="s">
         <v>278</v>
       </c>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
       <c r="G23" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H23" s="26" t="s">
+      <c r="H23" s="32" t="s">
         <v>279</v>
       </c>
-      <c r="I23" s="30"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="62" t="s">
+      <c r="I23" s="34"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="63" t="s">
         <v>66</v>
       </c>
       <c r="L23" s="64"/>
-      <c r="M23" s="50" t="s">
+      <c r="M23" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="N23" s="51"/>
-      <c r="O23" s="51"/>
-      <c r="P23" s="52"/>
+      <c r="N23" s="52"/>
+      <c r="O23" s="52"/>
+      <c r="P23" s="53"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="43"/>
-      <c r="B24" s="68" t="s">
+      <c r="A24" s="28"/>
+      <c r="B24" s="61" t="s">
         <v>98</v>
       </c>
-      <c r="C24" s="69"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
       <c r="G24" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="27"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="33"/>
       <c r="K24" s="15"/>
       <c r="L24" s="16"/>
-      <c r="M24" s="50"/>
-      <c r="N24" s="51"/>
-      <c r="O24" s="51"/>
-      <c r="P24" s="52"/>
+      <c r="M24" s="51"/>
+      <c r="N24" s="52"/>
+      <c r="O24" s="52"/>
+      <c r="P24" s="53"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="43"/>
-      <c r="B25" s="68" t="s">
+      <c r="A25" s="28"/>
+      <c r="B25" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="69"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="62" t="s">
+      <c r="C25" s="62"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="63" t="s">
         <v>9</v>
       </c>
       <c r="L25" s="64"/>
-      <c r="M25" s="50" t="s">
+      <c r="M25" s="51" t="s">
         <v>102</v>
       </c>
-      <c r="N25" s="51"/>
-      <c r="O25" s="51"/>
-      <c r="P25" s="52"/>
+      <c r="N25" s="52"/>
+      <c r="O25" s="52"/>
+      <c r="P25" s="53"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="43"/>
-      <c r="B26" s="53" t="s">
+      <c r="A26" s="28"/>
+      <c r="B26" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="54"/>
-      <c r="G26" s="54"/>
-      <c r="H26" s="54"/>
-      <c r="I26" s="54"/>
-      <c r="J26" s="55"/>
-      <c r="K26" s="53"/>
-      <c r="L26" s="55"/>
-      <c r="M26" s="53"/>
-      <c r="N26" s="54"/>
-      <c r="O26" s="54"/>
-      <c r="P26" s="55"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="68"/>
+      <c r="G26" s="68"/>
+      <c r="H26" s="68"/>
+      <c r="I26" s="68"/>
+      <c r="J26" s="67"/>
+      <c r="K26" s="66"/>
+      <c r="L26" s="67"/>
+      <c r="M26" s="66"/>
+      <c r="N26" s="68"/>
+      <c r="O26" s="68"/>
+      <c r="P26" s="67"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="43"/>
+      <c r="A27" s="28"/>
       <c r="B27" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="62" t="s">
+      <c r="C27" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="D27" s="63"/>
+      <c r="D27" s="72"/>
       <c r="E27" s="64"/>
       <c r="F27" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G27" s="62" t="s">
+      <c r="G27" s="63" t="s">
         <v>17</v>
       </c>
       <c r="H27" s="64"/>
-      <c r="I27" s="62" t="s">
+      <c r="I27" s="63" t="s">
         <v>18</v>
       </c>
       <c r="J27" s="64"/>
-      <c r="K27" s="65"/>
-      <c r="L27" s="66"/>
-      <c r="M27" s="65"/>
-      <c r="N27" s="67"/>
-      <c r="O27" s="67"/>
-      <c r="P27" s="66"/>
+      <c r="K27" s="69"/>
+      <c r="L27" s="71"/>
+      <c r="M27" s="69"/>
+      <c r="N27" s="70"/>
+      <c r="O27" s="70"/>
+      <c r="P27" s="71"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="43"/>
+      <c r="A28" s="28"/>
       <c r="B28" s="8">
         <v>1</v>
       </c>
-      <c r="C28" s="56" t="s">
+      <c r="C28" s="54" t="s">
         <v>280</v>
       </c>
-      <c r="D28" s="57"/>
-      <c r="E28" s="58"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="55"/>
       <c r="F28" s="3"/>
-      <c r="G28" s="56" t="s">
+      <c r="G28" s="54" t="s">
         <v>281</v>
       </c>
-      <c r="H28" s="58"/>
+      <c r="H28" s="55"/>
       <c r="I28" s="3"/>
       <c r="J28" s="4"/>
-      <c r="K28" s="59"/>
-      <c r="L28" s="60"/>
-      <c r="M28" s="59"/>
-      <c r="N28" s="61"/>
-      <c r="O28" s="61"/>
-      <c r="P28" s="60"/>
+      <c r="K28" s="56"/>
+      <c r="L28" s="57"/>
+      <c r="M28" s="56"/>
+      <c r="N28" s="65"/>
+      <c r="O28" s="65"/>
+      <c r="P28" s="57"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="43"/>
-      <c r="B29" s="56"/>
-      <c r="C29" s="57"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="58"/>
+      <c r="A29" s="28"/>
+      <c r="B29" s="54"/>
+      <c r="C29" s="73"/>
+      <c r="D29" s="73"/>
+      <c r="E29" s="55"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="56"/>
-      <c r="H29" s="58"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="55"/>
       <c r="I29" s="3"/>
       <c r="J29" s="4"/>
-      <c r="K29" s="59"/>
-      <c r="L29" s="60"/>
-      <c r="M29" s="59"/>
-      <c r="N29" s="61"/>
-      <c r="O29" s="61"/>
-      <c r="P29" s="60"/>
+      <c r="K29" s="56"/>
+      <c r="L29" s="57"/>
+      <c r="M29" s="56"/>
+      <c r="N29" s="65"/>
+      <c r="O29" s="65"/>
+      <c r="P29" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="G28:H28"/>
     <mergeCell ref="B29:E29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="D25:J25"/>
-    <mergeCell ref="B26:J26"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A19:P19"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:L4"/>
+    <mergeCell ref="A5:P5"/>
     <mergeCell ref="C27:E27"/>
     <mergeCell ref="G27:H27"/>
     <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="D25:J25"/>
+    <mergeCell ref="B26:J26"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="K28:L28"/>
     <mergeCell ref="A21:P21"/>
     <mergeCell ref="A22:A29"/>
     <mergeCell ref="B22:C22"/>
@@ -7939,36 +8013,10 @@
     <mergeCell ref="M23:P23"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="D24:F24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:P29"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A19:P19"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:L4"/>
-    <mergeCell ref="A5:P5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="N12" location="module_status" display="dyn/module-status" xr:uid="{174FD3E6-972E-4559-99B0-FA9A9C9F0A53}"/>
+    <hyperlink ref="M12" location="module_status" display="dyn/module-status" xr:uid="{174FD3E6-972E-4559-99B0-FA9A9C9F0A53}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -7979,7 +8027,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE4711A2-02AD-4A5B-BAC3-D68404A9BB39}">
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="M27" sqref="M27:P27"/>
     </sheetView>
   </sheetViews>
@@ -8000,134 +8048,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="46" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="48" t="s">
         <v>299</v>
       </c>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="48"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="50"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="26"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="27"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="33"/>
       <c r="N1" s="14"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="46" t="s">
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="48" t="s">
         <v>300</v>
       </c>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="48"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="50"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="50" t="s">
+      <c r="I2" s="51" t="s">
         <v>301</v>
       </c>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="53"/>
       <c r="N2" s="13"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="46" t="s">
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="48" t="s">
         <v>302</v>
       </c>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="48"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="50"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="27"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="33"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="48"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="50"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="26"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="30"/>
-      <c r="P5" s="27"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="33"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="49"/>
-      <c r="N6" s="49"/>
-      <c r="O6" s="49"/>
-      <c r="P6" s="49"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="46"/>
+      <c r="O6" s="46"/>
+      <c r="P6" s="46"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -8444,65 +8492,65 @@
       <c r="P15" s="1"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="26"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="30"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="27"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="34"/>
+      <c r="O16" s="34"/>
+      <c r="P16" s="33"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="70" t="s">
+      <c r="A18" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="71"/>
-      <c r="C18" s="71"/>
-      <c r="D18" s="71"/>
-      <c r="E18" s="71"/>
-      <c r="F18" s="71"/>
-      <c r="G18" s="71"/>
-      <c r="H18" s="71"/>
-      <c r="I18" s="71"/>
-      <c r="J18" s="71"/>
-      <c r="K18" s="71"/>
-      <c r="L18" s="71"/>
-      <c r="M18" s="71"/>
-      <c r="N18" s="71"/>
-      <c r="O18" s="71"/>
-      <c r="P18" s="72"/>
+      <c r="B18" s="59"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="59"/>
+      <c r="K18" s="59"/>
+      <c r="L18" s="59"/>
+      <c r="M18" s="59"/>
+      <c r="N18" s="59"/>
+      <c r="O18" s="59"/>
+      <c r="P18" s="60"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="42">
+      <c r="A19" s="27">
         <v>1</v>
       </c>
-      <c r="B19" s="68" t="s">
+      <c r="B19" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="69"/>
-      <c r="D19" s="26" t="s">
+      <c r="C19" s="62"/>
+      <c r="D19" s="32" t="s">
         <v>303</v>
       </c>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
       <c r="G19" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H19" s="26" t="s">
+      <c r="H19" s="32" t="s">
         <v>308</v>
       </c>
-      <c r="I19" s="30"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="62" t="s">
+      <c r="I19" s="34"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="63" t="s">
         <v>58</v>
       </c>
       <c r="L19" s="64"/>
@@ -8514,193 +8562,193 @@
       <c r="P19" s="76"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="43"/>
-      <c r="B20" s="68" t="s">
+      <c r="A20" s="28"/>
+      <c r="B20" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="69"/>
-      <c r="D20" s="26" t="s">
+      <c r="C20" s="62"/>
+      <c r="D20" s="32" t="s">
         <v>305</v>
       </c>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
       <c r="G20" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H20" s="26" t="s">
+      <c r="H20" s="32" t="s">
         <v>306</v>
       </c>
-      <c r="I20" s="30"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="62" t="s">
+      <c r="I20" s="34"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="63" t="s">
         <v>66</v>
       </c>
       <c r="L20" s="64"/>
-      <c r="M20" s="50" t="s">
+      <c r="M20" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="N20" s="51"/>
-      <c r="O20" s="51"/>
-      <c r="P20" s="52"/>
+      <c r="N20" s="52"/>
+      <c r="O20" s="52"/>
+      <c r="P20" s="53"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="43"/>
-      <c r="B21" s="68" t="s">
+      <c r="A21" s="28"/>
+      <c r="B21" s="61" t="s">
         <v>98</v>
       </c>
-      <c r="C21" s="69"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
       <c r="G21" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="27"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="33"/>
       <c r="K21" s="15"/>
       <c r="L21" s="16"/>
-      <c r="M21" s="50"/>
-      <c r="N21" s="51"/>
-      <c r="O21" s="51"/>
-      <c r="P21" s="52"/>
+      <c r="M21" s="51"/>
+      <c r="N21" s="52"/>
+      <c r="O21" s="52"/>
+      <c r="P21" s="53"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="43"/>
-      <c r="B22" s="68" t="s">
+      <c r="A22" s="28"/>
+      <c r="B22" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="69"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="62" t="s">
+      <c r="C22" s="62"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="63" t="s">
         <v>9</v>
       </c>
       <c r="L22" s="64"/>
-      <c r="M22" s="50" t="s">
+      <c r="M22" s="51" t="s">
         <v>143</v>
       </c>
-      <c r="N22" s="51"/>
-      <c r="O22" s="51"/>
-      <c r="P22" s="52"/>
+      <c r="N22" s="52"/>
+      <c r="O22" s="52"/>
+      <c r="P22" s="53"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="43"/>
-      <c r="B23" s="53" t="s">
+      <c r="A23" s="28"/>
+      <c r="B23" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="54"/>
-      <c r="H23" s="54"/>
-      <c r="I23" s="54"/>
-      <c r="J23" s="55"/>
-      <c r="K23" s="53"/>
-      <c r="L23" s="55"/>
-      <c r="M23" s="53"/>
-      <c r="N23" s="54"/>
-      <c r="O23" s="54"/>
-      <c r="P23" s="55"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="68"/>
+      <c r="G23" s="68"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="68"/>
+      <c r="J23" s="67"/>
+      <c r="K23" s="66"/>
+      <c r="L23" s="67"/>
+      <c r="M23" s="66"/>
+      <c r="N23" s="68"/>
+      <c r="O23" s="68"/>
+      <c r="P23" s="67"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="43"/>
+      <c r="A24" s="28"/>
       <c r="B24" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="62" t="s">
+      <c r="C24" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="63"/>
+      <c r="D24" s="72"/>
       <c r="E24" s="64"/>
       <c r="F24" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G24" s="62" t="s">
+      <c r="G24" s="63" t="s">
         <v>17</v>
       </c>
       <c r="H24" s="64"/>
-      <c r="I24" s="62" t="s">
+      <c r="I24" s="63" t="s">
         <v>18</v>
       </c>
       <c r="J24" s="64"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="66"/>
-      <c r="M24" s="65"/>
-      <c r="N24" s="67"/>
-      <c r="O24" s="67"/>
-      <c r="P24" s="66"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="71"/>
+      <c r="M24" s="69"/>
+      <c r="N24" s="70"/>
+      <c r="O24" s="70"/>
+      <c r="P24" s="71"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="43"/>
+      <c r="A25" s="28"/>
       <c r="B25" s="8">
         <v>1</v>
       </c>
-      <c r="C25" s="56" t="s">
+      <c r="C25" s="54" t="s">
         <v>307</v>
       </c>
-      <c r="D25" s="57"/>
-      <c r="E25" s="58"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="55"/>
       <c r="F25" s="3"/>
-      <c r="G25" s="56" t="s">
+      <c r="G25" s="54" t="s">
         <v>307</v>
       </c>
-      <c r="H25" s="58"/>
+      <c r="H25" s="55"/>
       <c r="I25" s="3"/>
       <c r="J25" s="4"/>
-      <c r="K25" s="59"/>
-      <c r="L25" s="60"/>
-      <c r="M25" s="59"/>
-      <c r="N25" s="61"/>
-      <c r="O25" s="61"/>
-      <c r="P25" s="60"/>
+      <c r="K25" s="56"/>
+      <c r="L25" s="57"/>
+      <c r="M25" s="56"/>
+      <c r="N25" s="65"/>
+      <c r="O25" s="65"/>
+      <c r="P25" s="57"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="43"/>
-      <c r="B26" s="56"/>
-      <c r="C26" s="57"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="58"/>
+      <c r="A26" s="28"/>
+      <c r="B26" s="54"/>
+      <c r="C26" s="73"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="55"/>
       <c r="F26" s="3"/>
-      <c r="G26" s="56"/>
-      <c r="H26" s="58"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="55"/>
       <c r="I26" s="3"/>
       <c r="J26" s="4"/>
-      <c r="K26" s="59"/>
-      <c r="L26" s="60"/>
-      <c r="M26" s="59"/>
-      <c r="N26" s="61"/>
-      <c r="O26" s="61"/>
-      <c r="P26" s="60"/>
+      <c r="K26" s="56"/>
+      <c r="L26" s="57"/>
+      <c r="M26" s="56"/>
+      <c r="N26" s="65"/>
+      <c r="O26" s="65"/>
+      <c r="P26" s="57"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="42">
+      <c r="A27" s="27">
         <v>2</v>
       </c>
-      <c r="B27" s="68" t="s">
+      <c r="B27" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="69"/>
-      <c r="D27" s="26" t="s">
+      <c r="C27" s="62"/>
+      <c r="D27" s="32" t="s">
         <v>282</v>
       </c>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
       <c r="G27" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H27" s="26" t="s">
+      <c r="H27" s="32" t="s">
         <v>309</v>
       </c>
-      <c r="I27" s="30"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="62" t="s">
+      <c r="I27" s="34"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="63" t="s">
         <v>58</v>
       </c>
       <c r="L27" s="64"/>
@@ -8712,173 +8760,245 @@
       <c r="P27" s="76"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="43"/>
-      <c r="B28" s="68" t="s">
+      <c r="A28" s="28"/>
+      <c r="B28" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="69"/>
-      <c r="D28" s="26" t="s">
+      <c r="C28" s="62"/>
+      <c r="D28" s="32" t="s">
         <v>310</v>
       </c>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
       <c r="G28" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H28" s="26" t="s">
+      <c r="H28" s="32" t="s">
         <v>311</v>
       </c>
-      <c r="I28" s="30"/>
-      <c r="J28" s="27"/>
-      <c r="K28" s="62" t="s">
+      <c r="I28" s="34"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="63" t="s">
         <v>66</v>
       </c>
       <c r="L28" s="64"/>
-      <c r="M28" s="50" t="s">
+      <c r="M28" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="N28" s="51"/>
-      <c r="O28" s="51"/>
-      <c r="P28" s="52"/>
+      <c r="N28" s="52"/>
+      <c r="O28" s="52"/>
+      <c r="P28" s="53"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="43"/>
-      <c r="B29" s="68" t="s">
+      <c r="A29" s="28"/>
+      <c r="B29" s="61" t="s">
         <v>98</v>
       </c>
-      <c r="C29" s="69"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
       <c r="G29" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="27"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="34"/>
+      <c r="J29" s="33"/>
       <c r="K29" s="15"/>
       <c r="L29" s="16"/>
-      <c r="M29" s="50"/>
-      <c r="N29" s="51"/>
-      <c r="O29" s="51"/>
-      <c r="P29" s="52"/>
+      <c r="M29" s="51"/>
+      <c r="N29" s="52"/>
+      <c r="O29" s="52"/>
+      <c r="P29" s="53"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="43"/>
-      <c r="B30" s="68" t="s">
+      <c r="A30" s="28"/>
+      <c r="B30" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="69"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="27"/>
-      <c r="K30" s="62" t="s">
+      <c r="C30" s="62"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="63" t="s">
         <v>9</v>
       </c>
       <c r="L30" s="64"/>
-      <c r="M30" s="50" t="s">
+      <c r="M30" s="51" t="s">
         <v>143</v>
       </c>
-      <c r="N30" s="51"/>
-      <c r="O30" s="51"/>
-      <c r="P30" s="52"/>
+      <c r="N30" s="52"/>
+      <c r="O30" s="52"/>
+      <c r="P30" s="53"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="43"/>
-      <c r="B31" s="53" t="s">
+      <c r="A31" s="28"/>
+      <c r="B31" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="54"/>
-      <c r="D31" s="54"/>
-      <c r="E31" s="54"/>
-      <c r="F31" s="54"/>
-      <c r="G31" s="54"/>
-      <c r="H31" s="54"/>
-      <c r="I31" s="54"/>
-      <c r="J31" s="55"/>
-      <c r="K31" s="53"/>
-      <c r="L31" s="55"/>
-      <c r="M31" s="53"/>
-      <c r="N31" s="54"/>
-      <c r="O31" s="54"/>
-      <c r="P31" s="55"/>
+      <c r="C31" s="68"/>
+      <c r="D31" s="68"/>
+      <c r="E31" s="68"/>
+      <c r="F31" s="68"/>
+      <c r="G31" s="68"/>
+      <c r="H31" s="68"/>
+      <c r="I31" s="68"/>
+      <c r="J31" s="67"/>
+      <c r="K31" s="66"/>
+      <c r="L31" s="67"/>
+      <c r="M31" s="66"/>
+      <c r="N31" s="68"/>
+      <c r="O31" s="68"/>
+      <c r="P31" s="67"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="43"/>
+      <c r="A32" s="28"/>
       <c r="B32" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C32" s="62" t="s">
+      <c r="C32" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="D32" s="63"/>
+      <c r="D32" s="72"/>
       <c r="E32" s="64"/>
       <c r="F32" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G32" s="62" t="s">
+      <c r="G32" s="63" t="s">
         <v>17</v>
       </c>
       <c r="H32" s="64"/>
-      <c r="I32" s="62" t="s">
+      <c r="I32" s="63" t="s">
         <v>18</v>
       </c>
       <c r="J32" s="64"/>
-      <c r="K32" s="65"/>
-      <c r="L32" s="66"/>
-      <c r="M32" s="65"/>
-      <c r="N32" s="67"/>
-      <c r="O32" s="67"/>
-      <c r="P32" s="66"/>
+      <c r="K32" s="69"/>
+      <c r="L32" s="71"/>
+      <c r="M32" s="69"/>
+      <c r="N32" s="70"/>
+      <c r="O32" s="70"/>
+      <c r="P32" s="71"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A33" s="43"/>
+      <c r="A33" s="28"/>
       <c r="B33" s="8">
         <v>1</v>
       </c>
-      <c r="C33" s="56" t="s">
+      <c r="C33" s="54" t="s">
         <v>281</v>
       </c>
-      <c r="D33" s="57"/>
-      <c r="E33" s="58"/>
+      <c r="D33" s="73"/>
+      <c r="E33" s="55"/>
       <c r="F33" s="3"/>
-      <c r="G33" s="56" t="s">
+      <c r="G33" s="54" t="s">
         <v>281</v>
       </c>
-      <c r="H33" s="58"/>
+      <c r="H33" s="55"/>
       <c r="I33" s="3"/>
       <c r="J33" s="4"/>
-      <c r="K33" s="59"/>
-      <c r="L33" s="60"/>
-      <c r="M33" s="59"/>
-      <c r="N33" s="61"/>
-      <c r="O33" s="61"/>
-      <c r="P33" s="60"/>
+      <c r="K33" s="56"/>
+      <c r="L33" s="57"/>
+      <c r="M33" s="56"/>
+      <c r="N33" s="65"/>
+      <c r="O33" s="65"/>
+      <c r="P33" s="57"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A34" s="43"/>
-      <c r="B34" s="56"/>
-      <c r="C34" s="57"/>
-      <c r="D34" s="57"/>
-      <c r="E34" s="58"/>
+      <c r="A34" s="28"/>
+      <c r="B34" s="54"/>
+      <c r="C34" s="73"/>
+      <c r="D34" s="73"/>
+      <c r="E34" s="55"/>
       <c r="F34" s="3"/>
-      <c r="G34" s="56"/>
-      <c r="H34" s="58"/>
+      <c r="G34" s="54"/>
+      <c r="H34" s="55"/>
       <c r="I34" s="3"/>
       <c r="J34" s="4"/>
-      <c r="K34" s="59"/>
-      <c r="L34" s="60"/>
-      <c r="M34" s="59"/>
-      <c r="N34" s="61"/>
-      <c r="O34" s="61"/>
-      <c r="P34" s="60"/>
+      <c r="K34" s="56"/>
+      <c r="L34" s="57"/>
+      <c r="M34" s="56"/>
+      <c r="N34" s="65"/>
+      <c r="O34" s="65"/>
+      <c r="P34" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="85">
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:L4"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A16:P16"/>
+    <mergeCell ref="A18:P18"/>
+    <mergeCell ref="A19:A26"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="M19:P19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="M20:P20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="B23:J23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="A27:A34"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="B31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:P31"/>
     <mergeCell ref="B34:E34"/>
     <mergeCell ref="G34:H34"/>
     <mergeCell ref="K34:L34"/>
@@ -8892,78 +9012,6 @@
     <mergeCell ref="G33:H33"/>
     <mergeCell ref="K33:L33"/>
     <mergeCell ref="M33:P33"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="B31:J31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:P31"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="M29:P29"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="A27:A34"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="B23:J23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="M20:P20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A16:P16"/>
-    <mergeCell ref="A18:P18"/>
-    <mergeCell ref="A19:A26"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="M19:P19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:L4"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -8979,8 +9027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70090909-6FEC-4A13-BB6C-D86D907DAE18}">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -9000,134 +9048,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="46" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="48" t="s">
         <v>255</v>
       </c>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="48"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="50"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="26"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="27"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="33"/>
       <c r="N1" s="14"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="46" t="s">
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="48" t="s">
         <v>220</v>
       </c>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="48"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="50"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="50" t="s">
+      <c r="I2" s="51" t="s">
         <v>256</v>
       </c>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="53"/>
       <c r="N2" s="13"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="48"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="50"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="27"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="33"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="46" t="s">
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="48" t="s">
         <v>231</v>
       </c>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="48"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="50"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="26"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="30"/>
-      <c r="P5" s="27"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="33"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="49"/>
-      <c r="N6" s="49"/>
-      <c r="O6" s="49"/>
-      <c r="P6" s="49"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="46"/>
+      <c r="O6" s="46"/>
+      <c r="P6" s="46"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -9193,7 +9241,7 @@
         <v>260</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>233</v>
+        <v>104</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>261</v>
@@ -9342,7 +9390,7 @@
         <v>100</v>
       </c>
       <c r="L12" s="7"/>
-      <c r="M12" s="73" t="s">
+      <c r="M12" s="26" t="s">
         <v>263</v>
       </c>
       <c r="N12" s="9"/>
@@ -9702,47 +9750,47 @@
       <c r="P23" s="1"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="70" t="s">
+      <c r="A25" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="71"/>
-      <c r="C25" s="71"/>
-      <c r="D25" s="71"/>
-      <c r="E25" s="71"/>
-      <c r="F25" s="71"/>
-      <c r="G25" s="71"/>
-      <c r="H25" s="71"/>
-      <c r="I25" s="71"/>
-      <c r="J25" s="71"/>
-      <c r="K25" s="71"/>
-      <c r="L25" s="71"/>
-      <c r="M25" s="71"/>
-      <c r="N25" s="71"/>
-      <c r="O25" s="71"/>
-      <c r="P25" s="72"/>
+      <c r="B25" s="59"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="59"/>
+      <c r="I25" s="59"/>
+      <c r="J25" s="59"/>
+      <c r="K25" s="59"/>
+      <c r="L25" s="59"/>
+      <c r="M25" s="59"/>
+      <c r="N25" s="59"/>
+      <c r="O25" s="59"/>
+      <c r="P25" s="60"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="42">
+      <c r="A26" s="27">
         <v>1</v>
       </c>
-      <c r="B26" s="68" t="s">
+      <c r="B26" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="69"/>
-      <c r="D26" s="26" t="s">
+      <c r="C26" s="62"/>
+      <c r="D26" s="32" t="s">
         <v>282</v>
       </c>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
       <c r="G26" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H26" s="26" t="s">
+      <c r="H26" s="32" t="s">
         <v>283</v>
       </c>
-      <c r="I26" s="30"/>
-      <c r="J26" s="27"/>
-      <c r="K26" s="62" t="s">
+      <c r="I26" s="34"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="63" t="s">
         <v>58</v>
       </c>
       <c r="L26" s="64"/>
@@ -9754,193 +9802,186 @@
       <c r="P26" s="76"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="43"/>
-      <c r="B27" s="68" t="s">
+      <c r="A27" s="28"/>
+      <c r="B27" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="69"/>
-      <c r="D27" s="26" t="s">
+      <c r="C27" s="62"/>
+      <c r="D27" s="32" t="s">
         <v>285</v>
       </c>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
       <c r="G27" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H27" s="26" t="s">
+      <c r="H27" s="32" t="s">
         <v>284</v>
       </c>
-      <c r="I27" s="30"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="62" t="s">
+      <c r="I27" s="34"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="63" t="s">
         <v>66</v>
       </c>
       <c r="L27" s="64"/>
-      <c r="M27" s="50" t="s">
+      <c r="M27" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="N27" s="51"/>
-      <c r="O27" s="51"/>
-      <c r="P27" s="52"/>
+      <c r="N27" s="52"/>
+      <c r="O27" s="52"/>
+      <c r="P27" s="53"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="43"/>
-      <c r="B28" s="68" t="s">
+      <c r="A28" s="28"/>
+      <c r="B28" s="61" t="s">
         <v>98</v>
       </c>
-      <c r="C28" s="69"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
       <c r="G28" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="27"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="33"/>
       <c r="K28" s="15"/>
       <c r="L28" s="16"/>
-      <c r="M28" s="50"/>
-      <c r="N28" s="51"/>
-      <c r="O28" s="51"/>
-      <c r="P28" s="52"/>
+      <c r="M28" s="51"/>
+      <c r="N28" s="52"/>
+      <c r="O28" s="52"/>
+      <c r="P28" s="53"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="43"/>
-      <c r="B29" s="68" t="s">
+      <c r="A29" s="28"/>
+      <c r="B29" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="69"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="62" t="s">
+      <c r="C29" s="62"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="34"/>
+      <c r="J29" s="33"/>
+      <c r="K29" s="63" t="s">
         <v>9</v>
       </c>
       <c r="L29" s="64"/>
-      <c r="M29" s="50" t="s">
+      <c r="M29" s="51" t="s">
         <v>143</v>
       </c>
-      <c r="N29" s="51"/>
-      <c r="O29" s="51"/>
-      <c r="P29" s="52"/>
+      <c r="N29" s="52"/>
+      <c r="O29" s="52"/>
+      <c r="P29" s="53"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="43"/>
-      <c r="B30" s="53" t="s">
+      <c r="A30" s="28"/>
+      <c r="B30" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="C30" s="54"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="54"/>
-      <c r="F30" s="54"/>
-      <c r="G30" s="54"/>
-      <c r="H30" s="54"/>
-      <c r="I30" s="54"/>
-      <c r="J30" s="55"/>
-      <c r="K30" s="53"/>
-      <c r="L30" s="55"/>
-      <c r="M30" s="53"/>
-      <c r="N30" s="54"/>
-      <c r="O30" s="54"/>
-      <c r="P30" s="55"/>
+      <c r="C30" s="68"/>
+      <c r="D30" s="68"/>
+      <c r="E30" s="68"/>
+      <c r="F30" s="68"/>
+      <c r="G30" s="68"/>
+      <c r="H30" s="68"/>
+      <c r="I30" s="68"/>
+      <c r="J30" s="67"/>
+      <c r="K30" s="66"/>
+      <c r="L30" s="67"/>
+      <c r="M30" s="66"/>
+      <c r="N30" s="68"/>
+      <c r="O30" s="68"/>
+      <c r="P30" s="67"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="43"/>
+      <c r="A31" s="28"/>
       <c r="B31" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C31" s="62" t="s">
+      <c r="C31" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="D31" s="63"/>
+      <c r="D31" s="72"/>
       <c r="E31" s="64"/>
       <c r="F31" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G31" s="62" t="s">
+      <c r="G31" s="63" t="s">
         <v>17</v>
       </c>
       <c r="H31" s="64"/>
-      <c r="I31" s="62" t="s">
+      <c r="I31" s="63" t="s">
         <v>18</v>
       </c>
       <c r="J31" s="64"/>
-      <c r="K31" s="65"/>
-      <c r="L31" s="66"/>
-      <c r="M31" s="65"/>
-      <c r="N31" s="67"/>
-      <c r="O31" s="67"/>
-      <c r="P31" s="66"/>
+      <c r="K31" s="69"/>
+      <c r="L31" s="71"/>
+      <c r="M31" s="69"/>
+      <c r="N31" s="70"/>
+      <c r="O31" s="70"/>
+      <c r="P31" s="71"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="43"/>
+      <c r="A32" s="28"/>
       <c r="B32" s="8">
         <v>1</v>
       </c>
-      <c r="C32" s="56" t="s">
+      <c r="C32" s="54" t="s">
         <v>281</v>
       </c>
-      <c r="D32" s="57"/>
-      <c r="E32" s="58"/>
+      <c r="D32" s="73"/>
+      <c r="E32" s="55"/>
       <c r="F32" s="3"/>
-      <c r="G32" s="56" t="s">
+      <c r="G32" s="54" t="s">
         <v>281</v>
       </c>
-      <c r="H32" s="58"/>
+      <c r="H32" s="55"/>
       <c r="I32" s="3"/>
       <c r="J32" s="4"/>
-      <c r="K32" s="59"/>
-      <c r="L32" s="60"/>
-      <c r="M32" s="59"/>
-      <c r="N32" s="61"/>
-      <c r="O32" s="61"/>
-      <c r="P32" s="60"/>
+      <c r="K32" s="56"/>
+      <c r="L32" s="57"/>
+      <c r="M32" s="56"/>
+      <c r="N32" s="65"/>
+      <c r="O32" s="65"/>
+      <c r="P32" s="57"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A33" s="43"/>
-      <c r="B33" s="56"/>
-      <c r="C33" s="57"/>
-      <c r="D33" s="57"/>
-      <c r="E33" s="58"/>
+      <c r="A33" s="28"/>
+      <c r="B33" s="54"/>
+      <c r="C33" s="73"/>
+      <c r="D33" s="73"/>
+      <c r="E33" s="55"/>
       <c r="F33" s="3"/>
-      <c r="G33" s="56"/>
-      <c r="H33" s="58"/>
+      <c r="G33" s="54"/>
+      <c r="H33" s="55"/>
       <c r="I33" s="3"/>
       <c r="J33" s="4"/>
-      <c r="K33" s="59"/>
-      <c r="L33" s="60"/>
-      <c r="M33" s="59"/>
-      <c r="N33" s="61"/>
-      <c r="O33" s="61"/>
-      <c r="P33" s="60"/>
+      <c r="K33" s="56"/>
+      <c r="L33" s="57"/>
+      <c r="M33" s="56"/>
+      <c r="N33" s="65"/>
+      <c r="O33" s="65"/>
+      <c r="P33" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:P32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="M33:P33"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:P31"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:P29"/>
-    <mergeCell ref="B30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:L4"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
     <mergeCell ref="A25:P25"/>
     <mergeCell ref="A26:A33"/>
     <mergeCell ref="B26:C26"/>
@@ -9957,19 +9998,26 @@
     <mergeCell ref="D28:F28"/>
     <mergeCell ref="H28:J28"/>
     <mergeCell ref="M28:P28"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:L4"/>
-    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="B30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:P32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="M33:P33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -9986,7 +10034,7 @@
   <dimension ref="A1:P31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -10006,132 +10054,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="46" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="48" t="s">
         <v>322</v>
       </c>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="48"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="50"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="26"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="27"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="33"/>
       <c r="N1" s="14"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="46" t="s">
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="48" t="s">
         <v>323</v>
       </c>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="48"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="50"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="50" t="s">
+      <c r="I2" s="51" t="s">
         <v>324</v>
       </c>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="53"/>
       <c r="N2" s="13"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="48"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="50"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="27"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="33"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="48"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="50"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="26"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="30"/>
-      <c r="P5" s="27"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="33"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="49"/>
-      <c r="N6" s="49"/>
-      <c r="O6" s="49"/>
-      <c r="P6" s="49"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="46"/>
+      <c r="O6" s="46"/>
+      <c r="P6" s="46"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -10197,7 +10245,7 @@
         <v>342</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>233</v>
+        <v>104</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>343</v>
@@ -10344,7 +10392,7 @@
       </c>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
-      <c r="M12" s="73" t="s">
+      <c r="M12" s="26" t="s">
         <v>332</v>
       </c>
       <c r="N12" s="9"/>
@@ -10374,9 +10422,7 @@
       <c r="H13" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="I13" s="7" t="s">
-        <v>27</v>
-      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="9" t="s">
         <v>28</v>
       </c>
@@ -10640,47 +10686,47 @@
       <c r="P21" s="1"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="70" t="s">
+      <c r="A23" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="71"/>
-      <c r="C23" s="71"/>
-      <c r="D23" s="71"/>
-      <c r="E23" s="71"/>
-      <c r="F23" s="71"/>
-      <c r="G23" s="71"/>
-      <c r="H23" s="71"/>
-      <c r="I23" s="71"/>
-      <c r="J23" s="71"/>
-      <c r="K23" s="71"/>
-      <c r="L23" s="71"/>
-      <c r="M23" s="71"/>
-      <c r="N23" s="71"/>
-      <c r="O23" s="71"/>
-      <c r="P23" s="72"/>
+      <c r="B23" s="59"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="59"/>
+      <c r="J23" s="59"/>
+      <c r="K23" s="59"/>
+      <c r="L23" s="59"/>
+      <c r="M23" s="59"/>
+      <c r="N23" s="59"/>
+      <c r="O23" s="59"/>
+      <c r="P23" s="60"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="42">
+      <c r="A24" s="27">
         <v>1</v>
       </c>
-      <c r="B24" s="68" t="s">
+      <c r="B24" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="69"/>
-      <c r="D24" s="26" t="s">
+      <c r="C24" s="62"/>
+      <c r="D24" s="32" t="s">
         <v>282</v>
       </c>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
       <c r="G24" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H24" s="26" t="s">
+      <c r="H24" s="32" t="s">
         <v>283</v>
       </c>
-      <c r="I24" s="30"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="62" t="s">
+      <c r="I24" s="34"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="63" t="s">
         <v>58</v>
       </c>
       <c r="L24" s="64"/>
@@ -10692,173 +10738,209 @@
       <c r="P24" s="76"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="43"/>
-      <c r="B25" s="68" t="s">
+      <c r="A25" s="28"/>
+      <c r="B25" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="69"/>
-      <c r="D25" s="26" t="s">
+      <c r="C25" s="62"/>
+      <c r="D25" s="32" t="s">
         <v>285</v>
       </c>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
       <c r="G25" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H25" s="26" t="s">
+      <c r="H25" s="32" t="s">
         <v>284</v>
       </c>
-      <c r="I25" s="30"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="62" t="s">
+      <c r="I25" s="34"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="63" t="s">
         <v>66</v>
       </c>
       <c r="L25" s="64"/>
-      <c r="M25" s="50" t="s">
+      <c r="M25" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="N25" s="51"/>
-      <c r="O25" s="51"/>
-      <c r="P25" s="52"/>
+      <c r="N25" s="52"/>
+      <c r="O25" s="52"/>
+      <c r="P25" s="53"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="43"/>
-      <c r="B26" s="68" t="s">
+      <c r="A26" s="28"/>
+      <c r="B26" s="61" t="s">
         <v>98</v>
       </c>
-      <c r="C26" s="69"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
       <c r="G26" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="27"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="33"/>
       <c r="K26" s="15"/>
       <c r="L26" s="16"/>
-      <c r="M26" s="50"/>
-      <c r="N26" s="51"/>
-      <c r="O26" s="51"/>
-      <c r="P26" s="52"/>
+      <c r="M26" s="51"/>
+      <c r="N26" s="52"/>
+      <c r="O26" s="52"/>
+      <c r="P26" s="53"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="43"/>
-      <c r="B27" s="68" t="s">
+      <c r="A27" s="28"/>
+      <c r="B27" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="69"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="62" t="s">
+      <c r="C27" s="62"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="63" t="s">
         <v>9</v>
       </c>
       <c r="L27" s="64"/>
-      <c r="M27" s="50" t="s">
+      <c r="M27" s="51" t="s">
         <v>143</v>
       </c>
-      <c r="N27" s="51"/>
-      <c r="O27" s="51"/>
-      <c r="P27" s="52"/>
+      <c r="N27" s="52"/>
+      <c r="O27" s="52"/>
+      <c r="P27" s="53"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="43"/>
-      <c r="B28" s="53" t="s">
+      <c r="A28" s="28"/>
+      <c r="B28" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
-      <c r="G28" s="54"/>
-      <c r="H28" s="54"/>
-      <c r="I28" s="54"/>
-      <c r="J28" s="55"/>
-      <c r="K28" s="53"/>
-      <c r="L28" s="55"/>
-      <c r="M28" s="53"/>
-      <c r="N28" s="54"/>
-      <c r="O28" s="54"/>
-      <c r="P28" s="55"/>
+      <c r="C28" s="68"/>
+      <c r="D28" s="68"/>
+      <c r="E28" s="68"/>
+      <c r="F28" s="68"/>
+      <c r="G28" s="68"/>
+      <c r="H28" s="68"/>
+      <c r="I28" s="68"/>
+      <c r="J28" s="67"/>
+      <c r="K28" s="66"/>
+      <c r="L28" s="67"/>
+      <c r="M28" s="66"/>
+      <c r="N28" s="68"/>
+      <c r="O28" s="68"/>
+      <c r="P28" s="67"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="43"/>
+      <c r="A29" s="28"/>
       <c r="B29" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="62" t="s">
+      <c r="C29" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="63"/>
+      <c r="D29" s="72"/>
       <c r="E29" s="64"/>
       <c r="F29" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G29" s="62" t="s">
+      <c r="G29" s="63" t="s">
         <v>17</v>
       </c>
       <c r="H29" s="64"/>
-      <c r="I29" s="62" t="s">
+      <c r="I29" s="63" t="s">
         <v>18</v>
       </c>
       <c r="J29" s="64"/>
-      <c r="K29" s="65"/>
-      <c r="L29" s="66"/>
-      <c r="M29" s="65"/>
-      <c r="N29" s="67"/>
-      <c r="O29" s="67"/>
-      <c r="P29" s="66"/>
+      <c r="K29" s="69"/>
+      <c r="L29" s="71"/>
+      <c r="M29" s="69"/>
+      <c r="N29" s="70"/>
+      <c r="O29" s="70"/>
+      <c r="P29" s="71"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="43"/>
+      <c r="A30" s="28"/>
       <c r="B30" s="8">
         <v>1</v>
       </c>
-      <c r="C30" s="56" t="s">
+      <c r="C30" s="54" t="s">
         <v>281</v>
       </c>
-      <c r="D30" s="57"/>
-      <c r="E30" s="58"/>
+      <c r="D30" s="73"/>
+      <c r="E30" s="55"/>
       <c r="F30" s="3"/>
-      <c r="G30" s="56" t="s">
+      <c r="G30" s="54" t="s">
         <v>281</v>
       </c>
-      <c r="H30" s="58"/>
+      <c r="H30" s="55"/>
       <c r="I30" s="3"/>
       <c r="J30" s="4"/>
-      <c r="K30" s="59"/>
-      <c r="L30" s="60"/>
-      <c r="M30" s="59"/>
-      <c r="N30" s="61"/>
-      <c r="O30" s="61"/>
-      <c r="P30" s="60"/>
+      <c r="K30" s="56"/>
+      <c r="L30" s="57"/>
+      <c r="M30" s="56"/>
+      <c r="N30" s="65"/>
+      <c r="O30" s="65"/>
+      <c r="P30" s="57"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="43"/>
-      <c r="B31" s="56"/>
-      <c r="C31" s="57"/>
-      <c r="D31" s="57"/>
-      <c r="E31" s="58"/>
+      <c r="A31" s="28"/>
+      <c r="B31" s="54"/>
+      <c r="C31" s="73"/>
+      <c r="D31" s="73"/>
+      <c r="E31" s="55"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="56"/>
-      <c r="H31" s="58"/>
+      <c r="G31" s="54"/>
+      <c r="H31" s="55"/>
       <c r="I31" s="3"/>
       <c r="J31" s="4"/>
-      <c r="K31" s="59"/>
-      <c r="L31" s="60"/>
-      <c r="M31" s="59"/>
-      <c r="N31" s="61"/>
-      <c r="O31" s="61"/>
-      <c r="P31" s="60"/>
+      <c r="K31" s="56"/>
+      <c r="L31" s="57"/>
+      <c r="M31" s="56"/>
+      <c r="N31" s="65"/>
+      <c r="O31" s="65"/>
+      <c r="P31" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:L4"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A23:P23"/>
+    <mergeCell ref="A24:A31"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="B28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:P28"/>
     <mergeCell ref="B31:E31"/>
     <mergeCell ref="G31:H31"/>
     <mergeCell ref="K31:L31"/>
@@ -10872,42 +10954,6 @@
     <mergeCell ref="G30:H30"/>
     <mergeCell ref="K30:L30"/>
     <mergeCell ref="M30:P30"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="B28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A23:P23"/>
-    <mergeCell ref="A24:A31"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:L4"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/nop-dyn/model/nop-dyn.orm.xlsx
+++ b/nop-dyn/model/nop-dyn.orm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-dyn\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D13CFF6E-0ABC-47D6-87BD-F2FF38B75DE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C2D335-7787-4894-931B-9E4FB24AFAE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" firstSheet="6" activeTab="9" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" firstSheet="6" activeTab="6" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="2" r:id="rId1"/>
@@ -1249,10 +1249,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>many-to-many</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>app</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1586,6 +1582,10 @@
   </si>
   <si>
     <t>关联属性标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>many-to-many,no-web</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1933,25 +1933,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1990,7 +1981,13 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2014,40 +2011,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2059,19 +2053,25 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
@@ -2607,7 +2607,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68F89B88-34E8-484E-A694-177B0E94136A}">
   <dimension ref="A1:P42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8:A31"/>
     </sheetView>
   </sheetViews>
@@ -2628,132 +2628,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="48" t="s">
-        <v>336</v>
-      </c>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="50"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="47" t="s">
+        <v>335</v>
+      </c>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="49"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="32"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="33"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="28"/>
       <c r="N1" s="14"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="48" t="s">
-        <v>337</v>
-      </c>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="50"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="47" t="s">
+        <v>336</v>
+      </c>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="49"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="51" t="s">
-        <v>338</v>
-      </c>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="53"/>
+      <c r="I2" s="50" t="s">
+        <v>337</v>
+      </c>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="52"/>
       <c r="N2" s="13"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="50"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="49"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="33"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="28"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="50"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="49"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="32"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="33"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="28"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="46"/>
-      <c r="O6" s="46"/>
-      <c r="P6" s="46"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="53"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="53"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -2816,16 +2816,16 @@
         <v>87</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>104</v>
       </c>
       <c r="F8" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="G8" s="9" t="s">
         <v>340</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>341</v>
       </c>
       <c r="H8" s="9"/>
       <c r="I8" s="7" t="s">
@@ -2852,11 +2852,11 @@
         <v>106</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G9" s="9" t="s">
         <v>14</v>
@@ -2916,14 +2916,14 @@
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="9" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="7" t="s">
@@ -2948,14 +2948,14 @@
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="9" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="9" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H12" s="9"/>
       <c r="I12" s="7" t="s">
@@ -2969,7 +2969,7 @@
       </c>
       <c r="L12" s="7"/>
       <c r="M12" s="9" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N12" s="9"/>
       <c r="O12" s="7"/>
@@ -2982,11 +2982,11 @@
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="9" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="9" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G13" s="9" t="s">
         <v>6</v>
@@ -3012,11 +3012,11 @@
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="9" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G14" s="9" t="s">
         <v>7</v>
@@ -3044,14 +3044,14 @@
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="G15" s="9" t="s">
         <v>355</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>356</v>
       </c>
       <c r="H15" s="9"/>
       <c r="I15" s="7"/>
@@ -3074,14 +3074,14 @@
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="9" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="G16" s="9" t="s">
         <v>365</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>366</v>
       </c>
       <c r="H16" s="9"/>
       <c r="I16" s="7"/>
@@ -3104,11 +3104,11 @@
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="9" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G17" s="9" t="s">
         <v>62</v>
@@ -3123,7 +3123,7 @@
       </c>
       <c r="L17" s="7"/>
       <c r="M17" s="9" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N17" s="9"/>
       <c r="O17" s="7"/>
@@ -3136,14 +3136,14 @@
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="9" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="G18" s="9" t="s">
         <v>378</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>379</v>
       </c>
       <c r="H18" s="9"/>
       <c r="I18" s="7"/>
@@ -3166,14 +3166,14 @@
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="9" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="9" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H19" s="9"/>
       <c r="I19" s="7"/>
@@ -3187,7 +3187,7 @@
       <c r="M19" s="9"/>
       <c r="N19" s="9"/>
       <c r="O19" s="7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="P19" s="1"/>
     </row>
@@ -3198,11 +3198,11 @@
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="9" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="9" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G20" s="9" t="s">
         <v>9</v>
@@ -3228,14 +3228,14 @@
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="9" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="9" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H21" s="9"/>
       <c r="I21" s="7"/>
@@ -3258,11 +3258,11 @@
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="9" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="9" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G22" s="9" t="s">
         <v>57</v>
@@ -3288,14 +3288,14 @@
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="G23" s="9" t="s">
         <v>371</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>372</v>
       </c>
       <c r="H23" s="9"/>
       <c r="I23" s="7"/>
@@ -3318,14 +3318,14 @@
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="G24" s="9" t="s">
         <v>385</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>386</v>
       </c>
       <c r="H24" s="9"/>
       <c r="I24" s="7"/>
@@ -3600,237 +3600,246 @@
       <c r="P32" s="1"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A34" s="58" t="s">
+      <c r="A34" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="59"/>
-      <c r="C34" s="59"/>
-      <c r="D34" s="59"/>
-      <c r="E34" s="59"/>
-      <c r="F34" s="59"/>
-      <c r="G34" s="59"/>
-      <c r="H34" s="59"/>
-      <c r="I34" s="59"/>
-      <c r="J34" s="59"/>
-      <c r="K34" s="59"/>
-      <c r="L34" s="59"/>
-      <c r="M34" s="59"/>
-      <c r="N34" s="59"/>
-      <c r="O34" s="59"/>
-      <c r="P34" s="60"/>
+      <c r="B34" s="72"/>
+      <c r="C34" s="72"/>
+      <c r="D34" s="72"/>
+      <c r="E34" s="72"/>
+      <c r="F34" s="72"/>
+      <c r="G34" s="72"/>
+      <c r="H34" s="72"/>
+      <c r="I34" s="72"/>
+      <c r="J34" s="72"/>
+      <c r="K34" s="72"/>
+      <c r="L34" s="72"/>
+      <c r="M34" s="72"/>
+      <c r="N34" s="72"/>
+      <c r="O34" s="72"/>
+      <c r="P34" s="73"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A35" s="27">
+      <c r="A35" s="43">
         <v>1</v>
       </c>
-      <c r="B35" s="61" t="s">
+      <c r="B35" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="62"/>
-      <c r="D35" s="32" t="s">
-        <v>344</v>
-      </c>
-      <c r="E35" s="34"/>
-      <c r="F35" s="34"/>
+      <c r="C35" s="63"/>
+      <c r="D35" s="27" t="s">
+        <v>343</v>
+      </c>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
       <c r="G35" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H35" s="32" t="s">
+      <c r="H35" s="27" t="s">
+        <v>344</v>
+      </c>
+      <c r="I35" s="31"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="L35" s="59"/>
+      <c r="M35" s="74" t="s">
         <v>345</v>
-      </c>
-      <c r="I35" s="34"/>
-      <c r="J35" s="33"/>
-      <c r="K35" s="63" t="s">
-        <v>58</v>
-      </c>
-      <c r="L35" s="64"/>
-      <c r="M35" s="74" t="s">
-        <v>346</v>
       </c>
       <c r="N35" s="75"/>
       <c r="O35" s="75"/>
       <c r="P35" s="76"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A36" s="28"/>
-      <c r="B36" s="61" t="s">
+      <c r="A36" s="44"/>
+      <c r="B36" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="C36" s="62"/>
-      <c r="D36" s="32" t="s">
+      <c r="C36" s="63"/>
+      <c r="D36" s="27" t="s">
         <v>285</v>
       </c>
-      <c r="E36" s="34"/>
-      <c r="F36" s="34"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
       <c r="G36" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H36" s="32" t="s">
+      <c r="H36" s="27" t="s">
         <v>284</v>
       </c>
-      <c r="I36" s="34"/>
-      <c r="J36" s="33"/>
-      <c r="K36" s="63" t="s">
+      <c r="I36" s="31"/>
+      <c r="J36" s="28"/>
+      <c r="K36" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="L36" s="64"/>
-      <c r="M36" s="51" t="s">
+      <c r="L36" s="59"/>
+      <c r="M36" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="N36" s="52"/>
-      <c r="O36" s="52"/>
-      <c r="P36" s="53"/>
+      <c r="N36" s="51"/>
+      <c r="O36" s="51"/>
+      <c r="P36" s="52"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A37" s="28"/>
-      <c r="B37" s="61" t="s">
+      <c r="A37" s="44"/>
+      <c r="B37" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="C37" s="62"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="34"/>
+      <c r="C37" s="63"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
       <c r="G37" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="H37" s="34"/>
-      <c r="I37" s="34"/>
-      <c r="J37" s="33"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="28"/>
       <c r="K37" s="15"/>
       <c r="L37" s="16"/>
-      <c r="M37" s="51"/>
-      <c r="N37" s="52"/>
-      <c r="O37" s="52"/>
-      <c r="P37" s="53"/>
+      <c r="M37" s="50"/>
+      <c r="N37" s="51"/>
+      <c r="O37" s="51"/>
+      <c r="P37" s="52"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A38" s="28"/>
-      <c r="B38" s="61" t="s">
+      <c r="A38" s="44"/>
+      <c r="B38" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="C38" s="62"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="34"/>
-      <c r="F38" s="34"/>
-      <c r="G38" s="34"/>
-      <c r="H38" s="34"/>
-      <c r="I38" s="34"/>
-      <c r="J38" s="33"/>
-      <c r="K38" s="63" t="s">
+      <c r="C38" s="63"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="28"/>
+      <c r="K38" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="L38" s="64"/>
-      <c r="M38" s="51" t="s">
+      <c r="L38" s="59"/>
+      <c r="M38" s="50" t="s">
         <v>143</v>
       </c>
-      <c r="N38" s="52"/>
-      <c r="O38" s="52"/>
-      <c r="P38" s="53"/>
+      <c r="N38" s="51"/>
+      <c r="O38" s="51"/>
+      <c r="P38" s="52"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A39" s="28"/>
-      <c r="B39" s="66" t="s">
+      <c r="A39" s="44"/>
+      <c r="B39" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="C39" s="68"/>
-      <c r="D39" s="68"/>
-      <c r="E39" s="68"/>
-      <c r="F39" s="68"/>
-      <c r="G39" s="68"/>
-      <c r="H39" s="68"/>
-      <c r="I39" s="68"/>
-      <c r="J39" s="67"/>
-      <c r="K39" s="66"/>
-      <c r="L39" s="67"/>
-      <c r="M39" s="66"/>
-      <c r="N39" s="68"/>
-      <c r="O39" s="68"/>
-      <c r="P39" s="67"/>
+      <c r="C39" s="66"/>
+      <c r="D39" s="66"/>
+      <c r="E39" s="66"/>
+      <c r="F39" s="66"/>
+      <c r="G39" s="66"/>
+      <c r="H39" s="66"/>
+      <c r="I39" s="66"/>
+      <c r="J39" s="65"/>
+      <c r="K39" s="64"/>
+      <c r="L39" s="65"/>
+      <c r="M39" s="64"/>
+      <c r="N39" s="66"/>
+      <c r="O39" s="66"/>
+      <c r="P39" s="65"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A40" s="28"/>
+      <c r="A40" s="44"/>
       <c r="B40" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C40" s="63" t="s">
+      <c r="C40" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="D40" s="72"/>
-      <c r="E40" s="64"/>
+      <c r="D40" s="58"/>
+      <c r="E40" s="59"/>
       <c r="F40" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G40" s="63" t="s">
+      <c r="G40" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="H40" s="64"/>
-      <c r="I40" s="63" t="s">
+      <c r="H40" s="59"/>
+      <c r="I40" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="J40" s="64"/>
-      <c r="K40" s="69"/>
-      <c r="L40" s="71"/>
-      <c r="M40" s="69"/>
+      <c r="J40" s="59"/>
+      <c r="K40" s="60"/>
+      <c r="L40" s="61"/>
+      <c r="M40" s="60"/>
       <c r="N40" s="70"/>
       <c r="O40" s="70"/>
-      <c r="P40" s="71"/>
+      <c r="P40" s="61"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A41" s="28"/>
+      <c r="A41" s="44"/>
       <c r="B41" s="8">
         <v>1</v>
       </c>
       <c r="C41" s="54" t="s">
-        <v>347</v>
-      </c>
-      <c r="D41" s="73"/>
-      <c r="E41" s="55"/>
+        <v>346</v>
+      </c>
+      <c r="D41" s="55"/>
+      <c r="E41" s="56"/>
       <c r="F41" s="3"/>
       <c r="G41" s="54" t="s">
-        <v>347</v>
-      </c>
-      <c r="H41" s="55"/>
+        <v>346</v>
+      </c>
+      <c r="H41" s="56"/>
       <c r="I41" s="3"/>
       <c r="J41" s="4"/>
-      <c r="K41" s="56"/>
-      <c r="L41" s="57"/>
-      <c r="M41" s="56"/>
-      <c r="N41" s="65"/>
-      <c r="O41" s="65"/>
-      <c r="P41" s="57"/>
+      <c r="K41" s="67"/>
+      <c r="L41" s="69"/>
+      <c r="M41" s="67"/>
+      <c r="N41" s="68"/>
+      <c r="O41" s="68"/>
+      <c r="P41" s="69"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A42" s="28"/>
+      <c r="A42" s="44"/>
       <c r="B42" s="54"/>
-      <c r="C42" s="73"/>
-      <c r="D42" s="73"/>
-      <c r="E42" s="55"/>
+      <c r="C42" s="55"/>
+      <c r="D42" s="55"/>
+      <c r="E42" s="56"/>
       <c r="F42" s="3"/>
       <c r="G42" s="54"/>
-      <c r="H42" s="55"/>
+      <c r="H42" s="56"/>
       <c r="I42" s="3"/>
       <c r="J42" s="4"/>
-      <c r="K42" s="56"/>
-      <c r="L42" s="57"/>
-      <c r="M42" s="56"/>
-      <c r="N42" s="65"/>
-      <c r="O42" s="65"/>
-      <c r="P42" s="57"/>
+      <c r="K42" s="67"/>
+      <c r="L42" s="69"/>
+      <c r="M42" s="67"/>
+      <c r="N42" s="68"/>
+      <c r="O42" s="68"/>
+      <c r="P42" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:L4"/>
+    <mergeCell ref="B39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:P39"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="M42:P42"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:P40"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:P41"/>
+    <mergeCell ref="M37:P37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:P38"/>
     <mergeCell ref="A6:P6"/>
     <mergeCell ref="A34:P34"/>
     <mergeCell ref="A35:A42"/>
@@ -3847,27 +3856,18 @@
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="D37:F37"/>
     <mergeCell ref="H37:J37"/>
-    <mergeCell ref="M37:P37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:P38"/>
-    <mergeCell ref="B39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:P39"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="M42:P42"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:P40"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M41:P41"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:L4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -3903,134 +3903,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="48" t="s">
-        <v>312</v>
-      </c>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="50"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="47" t="s">
+        <v>311</v>
+      </c>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="49"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="32"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="33"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="28"/>
       <c r="N1" s="14"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="48" t="s">
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="47" t="s">
         <v>145</v>
       </c>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="50"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="49"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="51" t="s">
+      <c r="I2" s="50" t="s">
         <v>146</v>
       </c>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="53"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="52"/>
       <c r="N2" s="13"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="48" t="s">
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="47" t="s">
         <v>172</v>
       </c>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="50"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="49"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="33"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="28"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="50"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="49"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="32"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="33"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="28"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="46"/>
-      <c r="O6" s="46"/>
-      <c r="P6" s="46"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="53"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="53"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -5127,250 +5127,241 @@
       <c r="P40" s="1"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A42" s="58" t="s">
+      <c r="A42" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="B42" s="59"/>
-      <c r="C42" s="59"/>
-      <c r="D42" s="59"/>
-      <c r="E42" s="59"/>
-      <c r="F42" s="59"/>
-      <c r="G42" s="59"/>
-      <c r="H42" s="59"/>
-      <c r="I42" s="59"/>
-      <c r="J42" s="59"/>
-      <c r="K42" s="59"/>
-      <c r="L42" s="59"/>
-      <c r="M42" s="59"/>
-      <c r="N42" s="59"/>
-      <c r="O42" s="59"/>
-      <c r="P42" s="60"/>
+      <c r="B42" s="72"/>
+      <c r="C42" s="72"/>
+      <c r="D42" s="72"/>
+      <c r="E42" s="72"/>
+      <c r="F42" s="72"/>
+      <c r="G42" s="72"/>
+      <c r="H42" s="72"/>
+      <c r="I42" s="72"/>
+      <c r="J42" s="72"/>
+      <c r="K42" s="72"/>
+      <c r="L42" s="72"/>
+      <c r="M42" s="72"/>
+      <c r="N42" s="72"/>
+      <c r="O42" s="72"/>
+      <c r="P42" s="73"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A43" s="27">
+      <c r="A43" s="43">
         <v>2</v>
       </c>
-      <c r="B43" s="61" t="s">
+      <c r="B43" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="C43" s="62"/>
-      <c r="D43" s="32" t="s">
+      <c r="C43" s="63"/>
+      <c r="D43" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="E43" s="34"/>
-      <c r="F43" s="34"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
       <c r="G43" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H43" s="32" t="s">
+      <c r="H43" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="I43" s="34"/>
-      <c r="J43" s="33"/>
-      <c r="K43" s="63" t="s">
+      <c r="I43" s="31"/>
+      <c r="J43" s="28"/>
+      <c r="K43" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="L43" s="64"/>
-      <c r="M43" s="51" t="s">
-        <v>313</v>
-      </c>
-      <c r="N43" s="52"/>
-      <c r="O43" s="52"/>
-      <c r="P43" s="53"/>
+      <c r="L43" s="59"/>
+      <c r="M43" s="50" t="s">
+        <v>312</v>
+      </c>
+      <c r="N43" s="51"/>
+      <c r="O43" s="51"/>
+      <c r="P43" s="52"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A44" s="28"/>
-      <c r="B44" s="61" t="s">
+      <c r="A44" s="44"/>
+      <c r="B44" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="C44" s="62"/>
-      <c r="D44" s="32" t="s">
+      <c r="C44" s="63"/>
+      <c r="D44" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="E44" s="34"/>
-      <c r="F44" s="34"/>
+      <c r="E44" s="31"/>
+      <c r="F44" s="31"/>
       <c r="G44" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H44" s="32" t="s">
+      <c r="H44" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="I44" s="34"/>
-      <c r="J44" s="33"/>
-      <c r="K44" s="63" t="s">
+      <c r="I44" s="31"/>
+      <c r="J44" s="28"/>
+      <c r="K44" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="L44" s="64"/>
-      <c r="M44" s="51" t="s">
+      <c r="L44" s="59"/>
+      <c r="M44" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="N44" s="52"/>
-      <c r="O44" s="52"/>
-      <c r="P44" s="53"/>
+      <c r="N44" s="51"/>
+      <c r="O44" s="51"/>
+      <c r="P44" s="52"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A45" s="28"/>
-      <c r="B45" s="61" t="s">
+      <c r="A45" s="44"/>
+      <c r="B45" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="C45" s="62"/>
-      <c r="D45" s="32" t="s">
+      <c r="C45" s="63"/>
+      <c r="D45" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="E45" s="34"/>
-      <c r="F45" s="34"/>
+      <c r="E45" s="31"/>
+      <c r="F45" s="31"/>
       <c r="G45" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="H45" s="34" t="s">
+      <c r="H45" s="31" t="s">
         <v>166</v>
       </c>
-      <c r="I45" s="34"/>
-      <c r="J45" s="33"/>
+      <c r="I45" s="31"/>
+      <c r="J45" s="28"/>
       <c r="K45" s="15"/>
       <c r="L45" s="16"/>
-      <c r="M45" s="51"/>
-      <c r="N45" s="52"/>
-      <c r="O45" s="52"/>
-      <c r="P45" s="53"/>
+      <c r="M45" s="50"/>
+      <c r="N45" s="51"/>
+      <c r="O45" s="51"/>
+      <c r="P45" s="52"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A46" s="28"/>
-      <c r="B46" s="61" t="s">
+      <c r="A46" s="44"/>
+      <c r="B46" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="C46" s="62"/>
-      <c r="D46" s="32"/>
-      <c r="E46" s="34"/>
-      <c r="F46" s="34"/>
-      <c r="G46" s="34"/>
-      <c r="H46" s="34"/>
-      <c r="I46" s="34"/>
-      <c r="J46" s="33"/>
-      <c r="K46" s="63" t="s">
+      <c r="C46" s="63"/>
+      <c r="D46" s="27"/>
+      <c r="E46" s="31"/>
+      <c r="F46" s="31"/>
+      <c r="G46" s="31"/>
+      <c r="H46" s="31"/>
+      <c r="I46" s="31"/>
+      <c r="J46" s="28"/>
+      <c r="K46" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="L46" s="64"/>
-      <c r="M46" s="51" t="s">
+      <c r="L46" s="59"/>
+      <c r="M46" s="50" t="s">
         <v>141</v>
       </c>
-      <c r="N46" s="52"/>
-      <c r="O46" s="52"/>
-      <c r="P46" s="53"/>
+      <c r="N46" s="51"/>
+      <c r="O46" s="51"/>
+      <c r="P46" s="52"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A47" s="28"/>
-      <c r="B47" s="66" t="s">
+      <c r="A47" s="44"/>
+      <c r="B47" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="C47" s="68"/>
-      <c r="D47" s="68"/>
-      <c r="E47" s="68"/>
-      <c r="F47" s="68"/>
-      <c r="G47" s="68"/>
-      <c r="H47" s="68"/>
-      <c r="I47" s="68"/>
-      <c r="J47" s="67"/>
-      <c r="K47" s="66"/>
-      <c r="L47" s="67"/>
-      <c r="M47" s="66"/>
-      <c r="N47" s="68"/>
-      <c r="O47" s="68"/>
-      <c r="P47" s="67"/>
+      <c r="C47" s="66"/>
+      <c r="D47" s="66"/>
+      <c r="E47" s="66"/>
+      <c r="F47" s="66"/>
+      <c r="G47" s="66"/>
+      <c r="H47" s="66"/>
+      <c r="I47" s="66"/>
+      <c r="J47" s="65"/>
+      <c r="K47" s="64"/>
+      <c r="L47" s="65"/>
+      <c r="M47" s="64"/>
+      <c r="N47" s="66"/>
+      <c r="O47" s="66"/>
+      <c r="P47" s="65"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A48" s="28"/>
+      <c r="A48" s="44"/>
       <c r="B48" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C48" s="63" t="s">
+      <c r="C48" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="D48" s="72"/>
-      <c r="E48" s="64"/>
+      <c r="D48" s="58"/>
+      <c r="E48" s="59"/>
       <c r="F48" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G48" s="63" t="s">
+      <c r="G48" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="H48" s="64"/>
-      <c r="I48" s="63" t="s">
+      <c r="H48" s="59"/>
+      <c r="I48" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="J48" s="64"/>
-      <c r="K48" s="69"/>
-      <c r="L48" s="71"/>
-      <c r="M48" s="69"/>
+      <c r="J48" s="59"/>
+      <c r="K48" s="60"/>
+      <c r="L48" s="61"/>
+      <c r="M48" s="60"/>
       <c r="N48" s="70"/>
       <c r="O48" s="70"/>
-      <c r="P48" s="71"/>
+      <c r="P48" s="61"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A49" s="28"/>
+      <c r="A49" s="44"/>
       <c r="B49" s="8">
         <v>1</v>
       </c>
       <c r="C49" s="54" t="s">
         <v>167</v>
       </c>
-      <c r="D49" s="73"/>
-      <c r="E49" s="55"/>
+      <c r="D49" s="55"/>
+      <c r="E49" s="56"/>
       <c r="F49" s="3"/>
       <c r="G49" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="H49" s="55"/>
+      <c r="H49" s="56"/>
       <c r="I49" s="3"/>
       <c r="J49" s="4"/>
-      <c r="K49" s="56"/>
-      <c r="L49" s="57"/>
-      <c r="M49" s="56"/>
-      <c r="N49" s="65"/>
-      <c r="O49" s="65"/>
-      <c r="P49" s="57"/>
+      <c r="K49" s="67"/>
+      <c r="L49" s="69"/>
+      <c r="M49" s="67"/>
+      <c r="N49" s="68"/>
+      <c r="O49" s="68"/>
+      <c r="P49" s="69"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A50" s="28"/>
+      <c r="A50" s="44"/>
       <c r="B50" s="54"/>
-      <c r="C50" s="73"/>
-      <c r="D50" s="73"/>
-      <c r="E50" s="55"/>
+      <c r="C50" s="55"/>
+      <c r="D50" s="55"/>
+      <c r="E50" s="56"/>
       <c r="F50" s="3"/>
       <c r="G50" s="54"/>
-      <c r="H50" s="55"/>
+      <c r="H50" s="56"/>
       <c r="I50" s="3"/>
       <c r="J50" s="4"/>
-      <c r="K50" s="56"/>
-      <c r="L50" s="57"/>
-      <c r="M50" s="56"/>
-      <c r="N50" s="65"/>
-      <c r="O50" s="65"/>
-      <c r="P50" s="57"/>
+      <c r="K50" s="67"/>
+      <c r="L50" s="69"/>
+      <c r="M50" s="67"/>
+      <c r="N50" s="68"/>
+      <c r="O50" s="68"/>
+      <c r="P50" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="M49:P49"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="M50:P50"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:J46"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="M47:P47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="M48:P48"/>
-    <mergeCell ref="B47:J47"/>
-    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:L4"/>
     <mergeCell ref="A6:P6"/>
     <mergeCell ref="A42:P42"/>
     <mergeCell ref="M45:P45"/>
@@ -5387,18 +5378,27 @@
     <mergeCell ref="A43:A50"/>
     <mergeCell ref="D44:F44"/>
     <mergeCell ref="H44:J44"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:L4"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="M47:P47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="M48:P48"/>
+    <mergeCell ref="B47:J47"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:J46"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="M49:P49"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="M50:P50"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6027,17 +6027,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="27">
+      <c r="A1" s="43">
         <v>1</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="32" t="s">
+      <c r="C1" s="30"/>
+      <c r="D1" s="27" t="s">
         <v>296</v>
       </c>
-      <c r="E1" s="33"/>
+      <c r="E1" s="28"/>
       <c r="F1" s="18" t="s">
         <v>126</v>
       </c>
@@ -6046,15 +6046,15 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="28"/>
-      <c r="B2" s="30" t="s">
+      <c r="A2" s="44"/>
+      <c r="B2" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="32" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="27" t="s">
         <v>297</v>
       </c>
-      <c r="E2" s="33"/>
+      <c r="E2" s="28"/>
       <c r="F2" s="18" t="s">
         <v>129</v>
       </c>
@@ -6063,29 +6063,29 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="28"/>
-      <c r="B3" s="30" t="s">
+      <c r="A3" s="44"/>
+      <c r="B3" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="33"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="28"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="28"/>
-      <c r="B4" s="35" t="s">
+      <c r="A4" s="44"/>
+      <c r="B4" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="37"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="34"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="28"/>
+      <c r="A5" s="44"/>
       <c r="B5" s="20" t="s">
         <v>132</v>
       </c>
@@ -6106,7 +6106,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="28"/>
+      <c r="A6" s="44"/>
       <c r="B6" s="19">
         <v>1</v>
       </c>
@@ -6123,7 +6123,7 @@
       <c r="G6" s="22"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="28"/>
+      <c r="A7" s="44"/>
       <c r="B7" s="19">
         <v>2</v>
       </c>
@@ -6140,7 +6140,7 @@
       <c r="G7" s="22"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="28"/>
+      <c r="A8" s="44"/>
       <c r="B8" s="19"/>
       <c r="C8" s="23"/>
       <c r="D8" s="22"/>
@@ -6149,26 +6149,26 @@
       <c r="G8" s="22"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="29"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="40"/>
+      <c r="A9" s="45"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="37"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="43">
+      <c r="A10" s="40">
         <v>2</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="C10" s="31"/>
-      <c r="D10" s="32" t="s">
+      <c r="C10" s="30"/>
+      <c r="D10" s="27" t="s">
         <v>251</v>
       </c>
-      <c r="E10" s="33"/>
+      <c r="E10" s="28"/>
       <c r="F10" s="18" t="s">
         <v>126</v>
       </c>
@@ -6177,15 +6177,15 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="44"/>
-      <c r="B11" s="30" t="s">
+      <c r="A11" s="41"/>
+      <c r="B11" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="C11" s="31"/>
-      <c r="D11" s="32" t="s">
+      <c r="C11" s="30"/>
+      <c r="D11" s="27" t="s">
         <v>252</v>
       </c>
-      <c r="E11" s="33"/>
+      <c r="E11" s="28"/>
       <c r="F11" s="18" t="s">
         <v>129</v>
       </c>
@@ -6194,29 +6194,29 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="44"/>
-      <c r="B12" s="30" t="s">
+      <c r="A12" s="41"/>
+      <c r="B12" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="C12" s="31"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="33"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="28"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="44"/>
-      <c r="B13" s="35" t="s">
+      <c r="A13" s="41"/>
+      <c r="B13" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="37"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="34"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="44"/>
+      <c r="A14" s="41"/>
       <c r="B14" s="20" t="s">
         <v>132</v>
       </c>
@@ -6237,7 +6237,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="44"/>
+      <c r="A15" s="41"/>
       <c r="B15" s="19">
         <v>1</v>
       </c>
@@ -6254,7 +6254,7 @@
       <c r="G15" s="22"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="44"/>
+      <c r="A16" s="41"/>
       <c r="B16" s="19">
         <v>2</v>
       </c>
@@ -6271,7 +6271,7 @@
       <c r="G16" s="22"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="44"/>
+      <c r="A17" s="41"/>
       <c r="B17" s="19"/>
       <c r="C17" s="23"/>
       <c r="D17" s="22"/>
@@ -6280,26 +6280,26 @@
       <c r="G17" s="22"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="45"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="40"/>
+      <c r="A18" s="42"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="37"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="27">
+      <c r="A19" s="43">
         <v>3</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="C19" s="31"/>
-      <c r="D19" s="32" t="s">
+      <c r="C19" s="30"/>
+      <c r="D19" s="27" t="s">
         <v>264</v>
       </c>
-      <c r="E19" s="33"/>
+      <c r="E19" s="28"/>
       <c r="F19" s="18" t="s">
         <v>126</v>
       </c>
@@ -6308,15 +6308,15 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="28"/>
-      <c r="B20" s="30" t="s">
+      <c r="A20" s="44"/>
+      <c r="B20" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="C20" s="31"/>
-      <c r="D20" s="32" t="s">
+      <c r="C20" s="30"/>
+      <c r="D20" s="27" t="s">
         <v>265</v>
       </c>
-      <c r="E20" s="33"/>
+      <c r="E20" s="28"/>
       <c r="F20" s="18" t="s">
         <v>129</v>
       </c>
@@ -6325,29 +6325,29 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="28"/>
-      <c r="B21" s="30" t="s">
+      <c r="A21" s="44"/>
+      <c r="B21" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="C21" s="31"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="33"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="28"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="28"/>
-      <c r="B22" s="35" t="s">
+      <c r="A22" s="44"/>
+      <c r="B22" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="37"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="34"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="28"/>
+      <c r="A23" s="44"/>
       <c r="B23" s="20" t="s">
         <v>132</v>
       </c>
@@ -6368,7 +6368,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="28"/>
+      <c r="A24" s="44"/>
       <c r="B24" s="19">
         <v>1</v>
       </c>
@@ -6385,7 +6385,7 @@
       <c r="G24" s="22"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="28"/>
+      <c r="A25" s="44"/>
       <c r="B25" s="19">
         <v>2</v>
       </c>
@@ -6402,7 +6402,7 @@
       <c r="G25" s="22"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="28"/>
+      <c r="A26" s="44"/>
       <c r="B26" s="19">
         <v>3</v>
       </c>
@@ -6413,32 +6413,32 @@
         <v>274</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F26" s="22"/>
       <c r="G26" s="24"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="29"/>
-      <c r="B27" s="38"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="40"/>
+      <c r="A27" s="45"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="37"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="41">
+      <c r="A28" s="38">
         <v>4</v>
       </c>
-      <c r="B28" s="30" t="s">
+      <c r="B28" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="C28" s="31"/>
-      <c r="D28" s="32" t="s">
-        <v>315</v>
-      </c>
-      <c r="E28" s="33"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="27" t="s">
+        <v>314</v>
+      </c>
+      <c r="E28" s="28"/>
       <c r="F28" s="18" t="s">
         <v>126</v>
       </c>
@@ -6447,46 +6447,46 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="42"/>
-      <c r="B29" s="30" t="s">
+      <c r="A29" s="39"/>
+      <c r="B29" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="C29" s="31"/>
-      <c r="D29" s="32" t="s">
-        <v>316</v>
-      </c>
-      <c r="E29" s="33"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="27" t="s">
+        <v>315</v>
+      </c>
+      <c r="E29" s="28"/>
       <c r="F29" s="18" t="s">
         <v>129</v>
       </c>
       <c r="G29" s="19" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="42"/>
-      <c r="B30" s="30" t="s">
+      <c r="A30" s="39"/>
+      <c r="B30" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="C30" s="31"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="33"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="28"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="42"/>
-      <c r="B31" s="35" t="s">
+      <c r="A31" s="39"/>
+      <c r="B31" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="37"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="34"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="42"/>
+      <c r="A32" s="39"/>
       <c r="B32" s="20" t="s">
         <v>132</v>
       </c>
@@ -6507,7 +6507,7 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="42"/>
+      <c r="A33" s="39"/>
       <c r="B33" s="19">
         <v>1</v>
       </c>
@@ -6515,16 +6515,16 @@
         <v>0</v>
       </c>
       <c r="D33" s="22" t="s">
+        <v>317</v>
+      </c>
+      <c r="E33" s="22" t="s">
         <v>318</v>
-      </c>
-      <c r="E33" s="22" t="s">
-        <v>319</v>
       </c>
       <c r="F33" s="22"/>
       <c r="G33" s="22"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="42"/>
+      <c r="A34" s="39"/>
       <c r="B34" s="19">
         <v>2</v>
       </c>
@@ -6532,30 +6532,40 @@
         <v>10</v>
       </c>
       <c r="D34" s="22" t="s">
+        <v>319</v>
+      </c>
+      <c r="E34" s="22" t="s">
         <v>320</v>
-      </c>
-      <c r="E34" s="22" t="s">
-        <v>321</v>
       </c>
       <c r="F34" s="22"/>
       <c r="G34" s="22"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="42"/>
-      <c r="B35" s="38"/>
-      <c r="C35" s="39"/>
-      <c r="D35" s="39"/>
-      <c r="E35" s="39"/>
-      <c r="F35" s="39"/>
-      <c r="G35" s="40"/>
+      <c r="A35" s="39"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="A1:A9"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
     <mergeCell ref="B31:G31"/>
     <mergeCell ref="A28:A35"/>
     <mergeCell ref="B35:G35"/>
@@ -6572,21 +6582,11 @@
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="A1:A9"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B27:G27"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6618,132 +6618,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="48" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="47" t="s">
         <v>286</v>
       </c>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="50"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="49"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="32"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="33"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="28"/>
       <c r="N1" s="14"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="48" t="s">
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="47" t="s">
         <v>287</v>
       </c>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="50"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="49"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="51" t="s">
+      <c r="I2" s="50" t="s">
         <v>288</v>
       </c>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="53"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="52"/>
       <c r="N2" s="13"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="50"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="49"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="33"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="28"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="50"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="49"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="32"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="33"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="28"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="46"/>
-      <c r="O6" s="46"/>
-      <c r="P6" s="46"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="53"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="53"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -7123,31 +7123,25 @@
       <c r="P17" s="1"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="32"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="34"/>
-      <c r="M18" s="34"/>
-      <c r="N18" s="34"/>
-      <c r="O18" s="34"/>
-      <c r="P18" s="33"/>
+      <c r="A18" s="27"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31"/>
+      <c r="P18" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
     <mergeCell ref="A6:P6"/>
     <mergeCell ref="A18:P18"/>
     <mergeCell ref="A3:C3"/>
@@ -7156,6 +7150,12 @@
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="D4:L4"/>
     <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -7191,132 +7191,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="48" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="47" t="s">
         <v>245</v>
       </c>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="50"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="49"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="32"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="33"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="28"/>
       <c r="N1" s="14"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="48" t="s">
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="47" t="s">
         <v>246</v>
       </c>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="50"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="49"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="51" t="s">
+      <c r="I2" s="50" t="s">
         <v>247</v>
       </c>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="53"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="52"/>
       <c r="N2" s="13"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="50"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="49"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="33"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="28"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="50"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="49"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="32"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="33"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="28"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="46"/>
-      <c r="O6" s="46"/>
-      <c r="P6" s="46"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="53"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="53"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -7726,243 +7726,277 @@
       <c r="P18" s="1"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="32"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="34"/>
-      <c r="M19" s="34"/>
-      <c r="N19" s="34"/>
-      <c r="O19" s="34"/>
-      <c r="P19" s="33"/>
+      <c r="A19" s="27"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="31"/>
+      <c r="P19" s="28"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="58" t="s">
+      <c r="A21" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="59"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="59"/>
-      <c r="I21" s="59"/>
-      <c r="J21" s="59"/>
-      <c r="K21" s="59"/>
-      <c r="L21" s="59"/>
-      <c r="M21" s="59"/>
-      <c r="N21" s="59"/>
-      <c r="O21" s="59"/>
-      <c r="P21" s="60"/>
+      <c r="B21" s="72"/>
+      <c r="C21" s="72"/>
+      <c r="D21" s="72"/>
+      <c r="E21" s="72"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="72"/>
+      <c r="H21" s="72"/>
+      <c r="I21" s="72"/>
+      <c r="J21" s="72"/>
+      <c r="K21" s="72"/>
+      <c r="L21" s="72"/>
+      <c r="M21" s="72"/>
+      <c r="N21" s="72"/>
+      <c r="O21" s="72"/>
+      <c r="P21" s="73"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="27">
+      <c r="A22" s="43">
         <v>1</v>
       </c>
-      <c r="B22" s="61" t="s">
+      <c r="B22" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="62"/>
-      <c r="D22" s="32" t="s">
+      <c r="C22" s="63"/>
+      <c r="D22" s="27" t="s">
         <v>275</v>
       </c>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
       <c r="G22" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H22" s="32" t="s">
+      <c r="H22" s="27" t="s">
         <v>276</v>
       </c>
-      <c r="I22" s="34"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="63" t="s">
+      <c r="I22" s="31"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="L22" s="64"/>
-      <c r="M22" s="51" t="s">
+      <c r="L22" s="59"/>
+      <c r="M22" s="50" t="s">
         <v>277</v>
       </c>
-      <c r="N22" s="52"/>
-      <c r="O22" s="52"/>
-      <c r="P22" s="53"/>
+      <c r="N22" s="51"/>
+      <c r="O22" s="51"/>
+      <c r="P22" s="52"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="28"/>
-      <c r="B23" s="61" t="s">
+      <c r="A23" s="44"/>
+      <c r="B23" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="62"/>
-      <c r="D23" s="32" t="s">
+      <c r="C23" s="63"/>
+      <c r="D23" s="27" t="s">
         <v>278</v>
       </c>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
       <c r="G23" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H23" s="32" t="s">
+      <c r="H23" s="27" t="s">
         <v>279</v>
       </c>
-      <c r="I23" s="34"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="63" t="s">
+      <c r="I23" s="31"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="L23" s="64"/>
-      <c r="M23" s="51" t="s">
+      <c r="L23" s="59"/>
+      <c r="M23" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="N23" s="52"/>
-      <c r="O23" s="52"/>
-      <c r="P23" s="53"/>
+      <c r="N23" s="51"/>
+      <c r="O23" s="51"/>
+      <c r="P23" s="52"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="28"/>
-      <c r="B24" s="61" t="s">
+      <c r="A24" s="44"/>
+      <c r="B24" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="C24" s="62"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
       <c r="G24" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="H24" s="34"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="33"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="28"/>
       <c r="K24" s="15"/>
       <c r="L24" s="16"/>
-      <c r="M24" s="51"/>
-      <c r="N24" s="52"/>
-      <c r="O24" s="52"/>
-      <c r="P24" s="53"/>
+      <c r="M24" s="50"/>
+      <c r="N24" s="51"/>
+      <c r="O24" s="51"/>
+      <c r="P24" s="52"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="28"/>
-      <c r="B25" s="61" t="s">
+      <c r="A25" s="44"/>
+      <c r="B25" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="62"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="63" t="s">
+      <c r="C25" s="63"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="L25" s="64"/>
-      <c r="M25" s="51" t="s">
+      <c r="L25" s="59"/>
+      <c r="M25" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="N25" s="52"/>
-      <c r="O25" s="52"/>
-      <c r="P25" s="53"/>
+      <c r="N25" s="51"/>
+      <c r="O25" s="51"/>
+      <c r="P25" s="52"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="28"/>
-      <c r="B26" s="66" t="s">
+      <c r="A26" s="44"/>
+      <c r="B26" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="68"/>
-      <c r="D26" s="68"/>
-      <c r="E26" s="68"/>
-      <c r="F26" s="68"/>
-      <c r="G26" s="68"/>
-      <c r="H26" s="68"/>
-      <c r="I26" s="68"/>
-      <c r="J26" s="67"/>
-      <c r="K26" s="66"/>
-      <c r="L26" s="67"/>
-      <c r="M26" s="66"/>
-      <c r="N26" s="68"/>
-      <c r="O26" s="68"/>
-      <c r="P26" s="67"/>
+      <c r="C26" s="66"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="66"/>
+      <c r="F26" s="66"/>
+      <c r="G26" s="66"/>
+      <c r="H26" s="66"/>
+      <c r="I26" s="66"/>
+      <c r="J26" s="65"/>
+      <c r="K26" s="64"/>
+      <c r="L26" s="65"/>
+      <c r="M26" s="64"/>
+      <c r="N26" s="66"/>
+      <c r="O26" s="66"/>
+      <c r="P26" s="65"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="28"/>
+      <c r="A27" s="44"/>
       <c r="B27" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="63" t="s">
+      <c r="C27" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="D27" s="72"/>
-      <c r="E27" s="64"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="59"/>
       <c r="F27" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G27" s="63" t="s">
+      <c r="G27" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="H27" s="64"/>
-      <c r="I27" s="63" t="s">
+      <c r="H27" s="59"/>
+      <c r="I27" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="J27" s="64"/>
-      <c r="K27" s="69"/>
-      <c r="L27" s="71"/>
-      <c r="M27" s="69"/>
+      <c r="J27" s="59"/>
+      <c r="K27" s="60"/>
+      <c r="L27" s="61"/>
+      <c r="M27" s="60"/>
       <c r="N27" s="70"/>
       <c r="O27" s="70"/>
-      <c r="P27" s="71"/>
+      <c r="P27" s="61"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="28"/>
+      <c r="A28" s="44"/>
       <c r="B28" s="8">
         <v>1</v>
       </c>
       <c r="C28" s="54" t="s">
         <v>280</v>
       </c>
-      <c r="D28" s="73"/>
-      <c r="E28" s="55"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="56"/>
       <c r="F28" s="3"/>
       <c r="G28" s="54" t="s">
         <v>281</v>
       </c>
-      <c r="H28" s="55"/>
+      <c r="H28" s="56"/>
       <c r="I28" s="3"/>
       <c r="J28" s="4"/>
-      <c r="K28" s="56"/>
-      <c r="L28" s="57"/>
-      <c r="M28" s="56"/>
-      <c r="N28" s="65"/>
-      <c r="O28" s="65"/>
-      <c r="P28" s="57"/>
+      <c r="K28" s="67"/>
+      <c r="L28" s="69"/>
+      <c r="M28" s="67"/>
+      <c r="N28" s="68"/>
+      <c r="O28" s="68"/>
+      <c r="P28" s="69"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="28"/>
+      <c r="A29" s="44"/>
       <c r="B29" s="54"/>
-      <c r="C29" s="73"/>
-      <c r="D29" s="73"/>
-      <c r="E29" s="55"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="56"/>
       <c r="F29" s="3"/>
       <c r="G29" s="54"/>
-      <c r="H29" s="55"/>
+      <c r="H29" s="56"/>
       <c r="I29" s="3"/>
       <c r="J29" s="4"/>
-      <c r="K29" s="56"/>
-      <c r="L29" s="57"/>
-      <c r="M29" s="56"/>
-      <c r="N29" s="65"/>
-      <c r="O29" s="65"/>
-      <c r="P29" s="57"/>
+      <c r="K29" s="67"/>
+      <c r="L29" s="69"/>
+      <c r="M29" s="67"/>
+      <c r="N29" s="68"/>
+      <c r="O29" s="68"/>
+      <c r="P29" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="A21:P21"/>
+    <mergeCell ref="A22:A29"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="D25:J25"/>
+    <mergeCell ref="B26:J26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="K25:L25"/>
     <mergeCell ref="B29:E29"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:G1"/>
@@ -7979,40 +8013,6 @@
     <mergeCell ref="D4:L4"/>
     <mergeCell ref="A5:P5"/>
     <mergeCell ref="C27:E27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="D25:J25"/>
-    <mergeCell ref="B26:J26"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:P29"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="A21:P21"/>
-    <mergeCell ref="A22:A29"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -8027,8 +8027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE4711A2-02AD-4A5B-BAC3-D68404A9BB39}">
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27:P27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -8048,134 +8048,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="48" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="47" t="s">
         <v>299</v>
       </c>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="50"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="49"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="32"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="33"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="28"/>
       <c r="N1" s="14"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="48" t="s">
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="47" t="s">
         <v>300</v>
       </c>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="50"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="49"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="51" t="s">
+      <c r="I2" s="50" t="s">
         <v>301</v>
       </c>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="53"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="52"/>
       <c r="N2" s="13"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="48" t="s">
-        <v>302</v>
-      </c>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="50"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="47" t="s">
+        <v>386</v>
+      </c>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="49"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="33"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="28"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="50"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="49"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="32"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="33"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="28"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="46"/>
-      <c r="O6" s="46"/>
-      <c r="P6" s="46"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="53"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="53"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -8492,266 +8492,266 @@
       <c r="P15" s="1"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="32"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="34"/>
-      <c r="L16" s="34"/>
-      <c r="M16" s="34"/>
-      <c r="N16" s="34"/>
-      <c r="O16" s="34"/>
-      <c r="P16" s="33"/>
+      <c r="A16" s="27"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="31"/>
+      <c r="P16" s="28"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="58" t="s">
+      <c r="A18" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="59"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="59"/>
-      <c r="K18" s="59"/>
-      <c r="L18" s="59"/>
-      <c r="M18" s="59"/>
-      <c r="N18" s="59"/>
-      <c r="O18" s="59"/>
-      <c r="P18" s="60"/>
+      <c r="B18" s="72"/>
+      <c r="C18" s="72"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="72"/>
+      <c r="I18" s="72"/>
+      <c r="J18" s="72"/>
+      <c r="K18" s="72"/>
+      <c r="L18" s="72"/>
+      <c r="M18" s="72"/>
+      <c r="N18" s="72"/>
+      <c r="O18" s="72"/>
+      <c r="P18" s="73"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="27">
+      <c r="A19" s="43">
         <v>1</v>
       </c>
-      <c r="B19" s="61" t="s">
+      <c r="B19" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="62"/>
-      <c r="D19" s="32" t="s">
-        <v>303</v>
-      </c>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="27" t="s">
+        <v>302</v>
+      </c>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
       <c r="G19" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H19" s="32" t="s">
-        <v>308</v>
-      </c>
-      <c r="I19" s="34"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="63" t="s">
+      <c r="H19" s="27" t="s">
+        <v>307</v>
+      </c>
+      <c r="I19" s="31"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="L19" s="64"/>
+      <c r="L19" s="59"/>
       <c r="M19" s="74" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="N19" s="75"/>
       <c r="O19" s="75"/>
       <c r="P19" s="76"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="28"/>
-      <c r="B20" s="61" t="s">
+      <c r="A20" s="44"/>
+      <c r="B20" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="62"/>
-      <c r="D20" s="32" t="s">
-        <v>305</v>
-      </c>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="27" t="s">
+        <v>304</v>
+      </c>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
       <c r="G20" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H20" s="32" t="s">
-        <v>306</v>
-      </c>
-      <c r="I20" s="34"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="63" t="s">
+      <c r="H20" s="27" t="s">
+        <v>305</v>
+      </c>
+      <c r="I20" s="31"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="L20" s="64"/>
-      <c r="M20" s="51" t="s">
+      <c r="L20" s="59"/>
+      <c r="M20" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="N20" s="52"/>
-      <c r="O20" s="52"/>
-      <c r="P20" s="53"/>
+      <c r="N20" s="51"/>
+      <c r="O20" s="51"/>
+      <c r="P20" s="52"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="28"/>
-      <c r="B21" s="61" t="s">
+      <c r="A21" s="44"/>
+      <c r="B21" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="C21" s="62"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
       <c r="G21" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="H21" s="34"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="33"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="28"/>
       <c r="K21" s="15"/>
       <c r="L21" s="16"/>
-      <c r="M21" s="51"/>
-      <c r="N21" s="52"/>
-      <c r="O21" s="52"/>
-      <c r="P21" s="53"/>
+      <c r="M21" s="50"/>
+      <c r="N21" s="51"/>
+      <c r="O21" s="51"/>
+      <c r="P21" s="52"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="28"/>
-      <c r="B22" s="61" t="s">
+      <c r="A22" s="44"/>
+      <c r="B22" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="62"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="63" t="s">
+      <c r="C22" s="63"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="L22" s="64"/>
-      <c r="M22" s="51" t="s">
+      <c r="L22" s="59"/>
+      <c r="M22" s="50" t="s">
         <v>143</v>
       </c>
-      <c r="N22" s="52"/>
-      <c r="O22" s="52"/>
-      <c r="P22" s="53"/>
+      <c r="N22" s="51"/>
+      <c r="O22" s="51"/>
+      <c r="P22" s="52"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="28"/>
-      <c r="B23" s="66" t="s">
+      <c r="A23" s="44"/>
+      <c r="B23" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="68"/>
-      <c r="D23" s="68"/>
-      <c r="E23" s="68"/>
-      <c r="F23" s="68"/>
-      <c r="G23" s="68"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="68"/>
-      <c r="J23" s="67"/>
-      <c r="K23" s="66"/>
-      <c r="L23" s="67"/>
-      <c r="M23" s="66"/>
-      <c r="N23" s="68"/>
-      <c r="O23" s="68"/>
-      <c r="P23" s="67"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="66"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="64"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="64"/>
+      <c r="N23" s="66"/>
+      <c r="O23" s="66"/>
+      <c r="P23" s="65"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="28"/>
+      <c r="A24" s="44"/>
       <c r="B24" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="63" t="s">
+      <c r="C24" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="72"/>
-      <c r="E24" s="64"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="59"/>
       <c r="F24" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G24" s="63" t="s">
+      <c r="G24" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="H24" s="64"/>
-      <c r="I24" s="63" t="s">
+      <c r="H24" s="59"/>
+      <c r="I24" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="J24" s="64"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="71"/>
-      <c r="M24" s="69"/>
+      <c r="J24" s="59"/>
+      <c r="K24" s="60"/>
+      <c r="L24" s="61"/>
+      <c r="M24" s="60"/>
       <c r="N24" s="70"/>
       <c r="O24" s="70"/>
-      <c r="P24" s="71"/>
+      <c r="P24" s="61"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="28"/>
+      <c r="A25" s="44"/>
       <c r="B25" s="8">
         <v>1</v>
       </c>
       <c r="C25" s="54" t="s">
-        <v>307</v>
-      </c>
-      <c r="D25" s="73"/>
-      <c r="E25" s="55"/>
+        <v>306</v>
+      </c>
+      <c r="D25" s="55"/>
+      <c r="E25" s="56"/>
       <c r="F25" s="3"/>
       <c r="G25" s="54" t="s">
-        <v>307</v>
-      </c>
-      <c r="H25" s="55"/>
+        <v>306</v>
+      </c>
+      <c r="H25" s="56"/>
       <c r="I25" s="3"/>
       <c r="J25" s="4"/>
-      <c r="K25" s="56"/>
-      <c r="L25" s="57"/>
-      <c r="M25" s="56"/>
-      <c r="N25" s="65"/>
-      <c r="O25" s="65"/>
-      <c r="P25" s="57"/>
+      <c r="K25" s="67"/>
+      <c r="L25" s="69"/>
+      <c r="M25" s="67"/>
+      <c r="N25" s="68"/>
+      <c r="O25" s="68"/>
+      <c r="P25" s="69"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="28"/>
+      <c r="A26" s="44"/>
       <c r="B26" s="54"/>
-      <c r="C26" s="73"/>
-      <c r="D26" s="73"/>
-      <c r="E26" s="55"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="56"/>
       <c r="F26" s="3"/>
       <c r="G26" s="54"/>
-      <c r="H26" s="55"/>
+      <c r="H26" s="56"/>
       <c r="I26" s="3"/>
       <c r="J26" s="4"/>
-      <c r="K26" s="56"/>
-      <c r="L26" s="57"/>
-      <c r="M26" s="56"/>
-      <c r="N26" s="65"/>
-      <c r="O26" s="65"/>
-      <c r="P26" s="57"/>
+      <c r="K26" s="67"/>
+      <c r="L26" s="69"/>
+      <c r="M26" s="67"/>
+      <c r="N26" s="68"/>
+      <c r="O26" s="68"/>
+      <c r="P26" s="69"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="27">
+      <c r="A27" s="43">
         <v>2</v>
       </c>
-      <c r="B27" s="61" t="s">
+      <c r="B27" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="62"/>
-      <c r="D27" s="32" t="s">
+      <c r="C27" s="63"/>
+      <c r="D27" s="27" t="s">
         <v>282</v>
       </c>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
       <c r="G27" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H27" s="32" t="s">
-        <v>309</v>
-      </c>
-      <c r="I27" s="34"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="63" t="s">
+      <c r="H27" s="27" t="s">
+        <v>308</v>
+      </c>
+      <c r="I27" s="31"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="L27" s="64"/>
+      <c r="L27" s="59"/>
       <c r="M27" s="74" t="s">
         <v>277</v>
       </c>
@@ -8760,185 +8760,230 @@
       <c r="P27" s="76"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="28"/>
-      <c r="B28" s="61" t="s">
+      <c r="A28" s="44"/>
+      <c r="B28" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="62"/>
-      <c r="D28" s="32" t="s">
-        <v>310</v>
-      </c>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="27" t="s">
+        <v>309</v>
+      </c>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
       <c r="G28" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H28" s="32" t="s">
-        <v>311</v>
-      </c>
-      <c r="I28" s="34"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="63" t="s">
+      <c r="H28" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="I28" s="31"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="L28" s="64"/>
-      <c r="M28" s="51" t="s">
+      <c r="L28" s="59"/>
+      <c r="M28" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="N28" s="52"/>
-      <c r="O28" s="52"/>
-      <c r="P28" s="53"/>
+      <c r="N28" s="51"/>
+      <c r="O28" s="51"/>
+      <c r="P28" s="52"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="28"/>
-      <c r="B29" s="61" t="s">
+      <c r="A29" s="44"/>
+      <c r="B29" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="C29" s="62"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
       <c r="G29" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="H29" s="34"/>
-      <c r="I29" s="34"/>
-      <c r="J29" s="33"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="28"/>
       <c r="K29" s="15"/>
       <c r="L29" s="16"/>
-      <c r="M29" s="51"/>
-      <c r="N29" s="52"/>
-      <c r="O29" s="52"/>
-      <c r="P29" s="53"/>
+      <c r="M29" s="50"/>
+      <c r="N29" s="51"/>
+      <c r="O29" s="51"/>
+      <c r="P29" s="52"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="28"/>
-      <c r="B30" s="61" t="s">
+      <c r="A30" s="44"/>
+      <c r="B30" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="62"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="34"/>
-      <c r="H30" s="34"/>
-      <c r="I30" s="34"/>
-      <c r="J30" s="33"/>
-      <c r="K30" s="63" t="s">
+      <c r="C30" s="63"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="L30" s="64"/>
-      <c r="M30" s="51" t="s">
+      <c r="L30" s="59"/>
+      <c r="M30" s="50" t="s">
         <v>143</v>
       </c>
-      <c r="N30" s="52"/>
-      <c r="O30" s="52"/>
-      <c r="P30" s="53"/>
+      <c r="N30" s="51"/>
+      <c r="O30" s="51"/>
+      <c r="P30" s="52"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="28"/>
-      <c r="B31" s="66" t="s">
+      <c r="A31" s="44"/>
+      <c r="B31" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="68"/>
-      <c r="D31" s="68"/>
-      <c r="E31" s="68"/>
-      <c r="F31" s="68"/>
-      <c r="G31" s="68"/>
-      <c r="H31" s="68"/>
-      <c r="I31" s="68"/>
-      <c r="J31" s="67"/>
-      <c r="K31" s="66"/>
-      <c r="L31" s="67"/>
-      <c r="M31" s="66"/>
-      <c r="N31" s="68"/>
-      <c r="O31" s="68"/>
-      <c r="P31" s="67"/>
+      <c r="C31" s="66"/>
+      <c r="D31" s="66"/>
+      <c r="E31" s="66"/>
+      <c r="F31" s="66"/>
+      <c r="G31" s="66"/>
+      <c r="H31" s="66"/>
+      <c r="I31" s="66"/>
+      <c r="J31" s="65"/>
+      <c r="K31" s="64"/>
+      <c r="L31" s="65"/>
+      <c r="M31" s="64"/>
+      <c r="N31" s="66"/>
+      <c r="O31" s="66"/>
+      <c r="P31" s="65"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="28"/>
+      <c r="A32" s="44"/>
       <c r="B32" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C32" s="63" t="s">
+      <c r="C32" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="D32" s="72"/>
-      <c r="E32" s="64"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="59"/>
       <c r="F32" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G32" s="63" t="s">
+      <c r="G32" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="H32" s="64"/>
-      <c r="I32" s="63" t="s">
+      <c r="H32" s="59"/>
+      <c r="I32" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="J32" s="64"/>
-      <c r="K32" s="69"/>
-      <c r="L32" s="71"/>
-      <c r="M32" s="69"/>
+      <c r="J32" s="59"/>
+      <c r="K32" s="60"/>
+      <c r="L32" s="61"/>
+      <c r="M32" s="60"/>
       <c r="N32" s="70"/>
       <c r="O32" s="70"/>
-      <c r="P32" s="71"/>
+      <c r="P32" s="61"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A33" s="28"/>
+      <c r="A33" s="44"/>
       <c r="B33" s="8">
         <v>1</v>
       </c>
       <c r="C33" s="54" t="s">
         <v>281</v>
       </c>
-      <c r="D33" s="73"/>
-      <c r="E33" s="55"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="56"/>
       <c r="F33" s="3"/>
       <c r="G33" s="54" t="s">
         <v>281</v>
       </c>
-      <c r="H33" s="55"/>
+      <c r="H33" s="56"/>
       <c r="I33" s="3"/>
       <c r="J33" s="4"/>
-      <c r="K33" s="56"/>
-      <c r="L33" s="57"/>
-      <c r="M33" s="56"/>
-      <c r="N33" s="65"/>
-      <c r="O33" s="65"/>
-      <c r="P33" s="57"/>
+      <c r="K33" s="67"/>
+      <c r="L33" s="69"/>
+      <c r="M33" s="67"/>
+      <c r="N33" s="68"/>
+      <c r="O33" s="68"/>
+      <c r="P33" s="69"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A34" s="28"/>
+      <c r="A34" s="44"/>
       <c r="B34" s="54"/>
-      <c r="C34" s="73"/>
-      <c r="D34" s="73"/>
-      <c r="E34" s="55"/>
+      <c r="C34" s="55"/>
+      <c r="D34" s="55"/>
+      <c r="E34" s="56"/>
       <c r="F34" s="3"/>
       <c r="G34" s="54"/>
-      <c r="H34" s="55"/>
+      <c r="H34" s="56"/>
       <c r="I34" s="3"/>
       <c r="J34" s="4"/>
-      <c r="K34" s="56"/>
-      <c r="L34" s="57"/>
-      <c r="M34" s="56"/>
-      <c r="N34" s="65"/>
-      <c r="O34" s="65"/>
-      <c r="P34" s="57"/>
+      <c r="K34" s="67"/>
+      <c r="L34" s="69"/>
+      <c r="M34" s="67"/>
+      <c r="N34" s="68"/>
+      <c r="O34" s="68"/>
+      <c r="P34" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="85">
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:L4"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="M34:P34"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:P32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="M33:P33"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="B31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="A27:A34"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="B23:J23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
     <mergeCell ref="A6:P6"/>
     <mergeCell ref="A16:P16"/>
     <mergeCell ref="A18:P18"/>
@@ -8955,63 +9000,18 @@
     <mergeCell ref="M20:P20"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="D21:F21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="B23:J23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="A27:A34"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="M29:P29"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="B31:J31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:P31"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="M34:P34"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:P32"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="M33:P33"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:L4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -9048,134 +9048,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="48" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="47" t="s">
         <v>255</v>
       </c>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="50"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="49"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="32"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="33"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="28"/>
       <c r="N1" s="14"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="48" t="s">
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="47" t="s">
         <v>220</v>
       </c>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="50"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="49"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="51" t="s">
+      <c r="I2" s="50" t="s">
         <v>256</v>
       </c>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="53"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="52"/>
       <c r="N2" s="13"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="50"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="49"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="33"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="28"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="48" t="s">
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="47" t="s">
         <v>231</v>
       </c>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="50"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="49"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="32"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="33"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="28"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="46"/>
-      <c r="O6" s="46"/>
-      <c r="P6" s="46"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="53"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="53"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -9750,50 +9750,50 @@
       <c r="P23" s="1"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="58" t="s">
+      <c r="A25" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="59"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="59"/>
-      <c r="H25" s="59"/>
-      <c r="I25" s="59"/>
-      <c r="J25" s="59"/>
-      <c r="K25" s="59"/>
-      <c r="L25" s="59"/>
-      <c r="M25" s="59"/>
-      <c r="N25" s="59"/>
-      <c r="O25" s="59"/>
-      <c r="P25" s="60"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="72"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="72"/>
+      <c r="F25" s="72"/>
+      <c r="G25" s="72"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="72"/>
+      <c r="J25" s="72"/>
+      <c r="K25" s="72"/>
+      <c r="L25" s="72"/>
+      <c r="M25" s="72"/>
+      <c r="N25" s="72"/>
+      <c r="O25" s="72"/>
+      <c r="P25" s="73"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="27">
+      <c r="A26" s="43">
         <v>1</v>
       </c>
-      <c r="B26" s="61" t="s">
+      <c r="B26" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="62"/>
-      <c r="D26" s="32" t="s">
+      <c r="C26" s="63"/>
+      <c r="D26" s="27" t="s">
         <v>282</v>
       </c>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
       <c r="G26" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H26" s="32" t="s">
+      <c r="H26" s="27" t="s">
         <v>283</v>
       </c>
-      <c r="I26" s="34"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="63" t="s">
+      <c r="I26" s="31"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="L26" s="64"/>
+      <c r="L26" s="59"/>
       <c r="M26" s="74" t="s">
         <v>277</v>
       </c>
@@ -9802,186 +9802,193 @@
       <c r="P26" s="76"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="28"/>
-      <c r="B27" s="61" t="s">
+      <c r="A27" s="44"/>
+      <c r="B27" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="62"/>
-      <c r="D27" s="32" t="s">
+      <c r="C27" s="63"/>
+      <c r="D27" s="27" t="s">
         <v>285</v>
       </c>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
       <c r="G27" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H27" s="32" t="s">
+      <c r="H27" s="27" t="s">
         <v>284</v>
       </c>
-      <c r="I27" s="34"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="63" t="s">
+      <c r="I27" s="31"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="L27" s="64"/>
-      <c r="M27" s="51" t="s">
+      <c r="L27" s="59"/>
+      <c r="M27" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="N27" s="52"/>
-      <c r="O27" s="52"/>
-      <c r="P27" s="53"/>
+      <c r="N27" s="51"/>
+      <c r="O27" s="51"/>
+      <c r="P27" s="52"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="28"/>
-      <c r="B28" s="61" t="s">
+      <c r="A28" s="44"/>
+      <c r="B28" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="C28" s="62"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
       <c r="G28" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="H28" s="34"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="33"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="28"/>
       <c r="K28" s="15"/>
       <c r="L28" s="16"/>
-      <c r="M28" s="51"/>
-      <c r="N28" s="52"/>
-      <c r="O28" s="52"/>
-      <c r="P28" s="53"/>
+      <c r="M28" s="50"/>
+      <c r="N28" s="51"/>
+      <c r="O28" s="51"/>
+      <c r="P28" s="52"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="28"/>
-      <c r="B29" s="61" t="s">
+      <c r="A29" s="44"/>
+      <c r="B29" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="62"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="34"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="63" t="s">
+      <c r="C29" s="63"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="L29" s="64"/>
-      <c r="M29" s="51" t="s">
+      <c r="L29" s="59"/>
+      <c r="M29" s="50" t="s">
         <v>143</v>
       </c>
-      <c r="N29" s="52"/>
-      <c r="O29" s="52"/>
-      <c r="P29" s="53"/>
+      <c r="N29" s="51"/>
+      <c r="O29" s="51"/>
+      <c r="P29" s="52"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="28"/>
-      <c r="B30" s="66" t="s">
+      <c r="A30" s="44"/>
+      <c r="B30" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="C30" s="68"/>
-      <c r="D30" s="68"/>
-      <c r="E30" s="68"/>
-      <c r="F30" s="68"/>
-      <c r="G30" s="68"/>
-      <c r="H30" s="68"/>
-      <c r="I30" s="68"/>
-      <c r="J30" s="67"/>
-      <c r="K30" s="66"/>
-      <c r="L30" s="67"/>
-      <c r="M30" s="66"/>
-      <c r="N30" s="68"/>
-      <c r="O30" s="68"/>
-      <c r="P30" s="67"/>
+      <c r="C30" s="66"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="66"/>
+      <c r="F30" s="66"/>
+      <c r="G30" s="66"/>
+      <c r="H30" s="66"/>
+      <c r="I30" s="66"/>
+      <c r="J30" s="65"/>
+      <c r="K30" s="64"/>
+      <c r="L30" s="65"/>
+      <c r="M30" s="64"/>
+      <c r="N30" s="66"/>
+      <c r="O30" s="66"/>
+      <c r="P30" s="65"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="28"/>
+      <c r="A31" s="44"/>
       <c r="B31" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C31" s="63" t="s">
+      <c r="C31" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="D31" s="72"/>
-      <c r="E31" s="64"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="59"/>
       <c r="F31" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G31" s="63" t="s">
+      <c r="G31" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="H31" s="64"/>
-      <c r="I31" s="63" t="s">
+      <c r="H31" s="59"/>
+      <c r="I31" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="J31" s="64"/>
-      <c r="K31" s="69"/>
-      <c r="L31" s="71"/>
-      <c r="M31" s="69"/>
+      <c r="J31" s="59"/>
+      <c r="K31" s="60"/>
+      <c r="L31" s="61"/>
+      <c r="M31" s="60"/>
       <c r="N31" s="70"/>
       <c r="O31" s="70"/>
-      <c r="P31" s="71"/>
+      <c r="P31" s="61"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="28"/>
+      <c r="A32" s="44"/>
       <c r="B32" s="8">
         <v>1</v>
       </c>
       <c r="C32" s="54" t="s">
         <v>281</v>
       </c>
-      <c r="D32" s="73"/>
-      <c r="E32" s="55"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="56"/>
       <c r="F32" s="3"/>
       <c r="G32" s="54" t="s">
         <v>281</v>
       </c>
-      <c r="H32" s="55"/>
+      <c r="H32" s="56"/>
       <c r="I32" s="3"/>
       <c r="J32" s="4"/>
-      <c r="K32" s="56"/>
-      <c r="L32" s="57"/>
-      <c r="M32" s="56"/>
-      <c r="N32" s="65"/>
-      <c r="O32" s="65"/>
-      <c r="P32" s="57"/>
+      <c r="K32" s="67"/>
+      <c r="L32" s="69"/>
+      <c r="M32" s="67"/>
+      <c r="N32" s="68"/>
+      <c r="O32" s="68"/>
+      <c r="P32" s="69"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A33" s="28"/>
+      <c r="A33" s="44"/>
       <c r="B33" s="54"/>
-      <c r="C33" s="73"/>
-      <c r="D33" s="73"/>
-      <c r="E33" s="55"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="56"/>
       <c r="F33" s="3"/>
       <c r="G33" s="54"/>
-      <c r="H33" s="55"/>
+      <c r="H33" s="56"/>
       <c r="I33" s="3"/>
       <c r="J33" s="4"/>
-      <c r="K33" s="56"/>
-      <c r="L33" s="57"/>
-      <c r="M33" s="56"/>
-      <c r="N33" s="65"/>
-      <c r="O33" s="65"/>
-      <c r="P33" s="57"/>
+      <c r="K33" s="67"/>
+      <c r="L33" s="69"/>
+      <c r="M33" s="67"/>
+      <c r="N33" s="68"/>
+      <c r="O33" s="68"/>
+      <c r="P33" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:L4"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:P32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="M33:P33"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="B30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:P30"/>
     <mergeCell ref="A25:P25"/>
     <mergeCell ref="A26:A33"/>
     <mergeCell ref="B26:C26"/>
@@ -9998,26 +10005,19 @@
     <mergeCell ref="D28:F28"/>
     <mergeCell ref="H28:J28"/>
     <mergeCell ref="M28:P28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:P29"/>
-    <mergeCell ref="B30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:P31"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:P32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="M33:P33"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:L4"/>
+    <mergeCell ref="A5:P5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -10054,132 +10054,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="48" t="s">
-        <v>322</v>
-      </c>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="50"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="47" t="s">
+        <v>321</v>
+      </c>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="49"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="32"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="33"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="28"/>
       <c r="N1" s="14"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="48" t="s">
-        <v>323</v>
-      </c>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="50"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="47" t="s">
+        <v>322</v>
+      </c>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="49"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="51" t="s">
-        <v>324</v>
-      </c>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="53"/>
+      <c r="I2" s="50" t="s">
+        <v>323</v>
+      </c>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="52"/>
       <c r="N2" s="13"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="50"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="49"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="33"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="28"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="50"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="49"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="32"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="33"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="28"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="46"/>
-      <c r="O6" s="46"/>
-      <c r="P6" s="46"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="53"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="53"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -10242,16 +10242,16 @@
         <v>87</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>104</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H8" s="9"/>
       <c r="I8" s="7" t="s">
@@ -10310,14 +10310,14 @@
         <v>106</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="G10" s="9" t="s">
         <v>327</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>328</v>
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="7" t="s">
@@ -10374,14 +10374,14 @@
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="G12" s="9" t="s">
         <v>330</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>331</v>
       </c>
       <c r="H12" s="9"/>
       <c r="I12" s="7" t="s">
@@ -10393,7 +10393,7 @@
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
       <c r="M12" s="26" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="N12" s="9"/>
       <c r="O12" s="7"/>
@@ -10408,16 +10408,16 @@
         <v>237</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>104</v>
       </c>
       <c r="F13" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="G13" s="9" t="s">
         <v>334</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>335</v>
       </c>
       <c r="H13" s="9" t="s">
         <v>230</v>
@@ -10686,50 +10686,50 @@
       <c r="P21" s="1"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="58" t="s">
+      <c r="A23" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="59"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="59"/>
-      <c r="G23" s="59"/>
-      <c r="H23" s="59"/>
-      <c r="I23" s="59"/>
-      <c r="J23" s="59"/>
-      <c r="K23" s="59"/>
-      <c r="L23" s="59"/>
-      <c r="M23" s="59"/>
-      <c r="N23" s="59"/>
-      <c r="O23" s="59"/>
-      <c r="P23" s="60"/>
+      <c r="B23" s="72"/>
+      <c r="C23" s="72"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="72"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="72"/>
+      <c r="H23" s="72"/>
+      <c r="I23" s="72"/>
+      <c r="J23" s="72"/>
+      <c r="K23" s="72"/>
+      <c r="L23" s="72"/>
+      <c r="M23" s="72"/>
+      <c r="N23" s="72"/>
+      <c r="O23" s="72"/>
+      <c r="P23" s="73"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="27">
+      <c r="A24" s="43">
         <v>1</v>
       </c>
-      <c r="B24" s="61" t="s">
+      <c r="B24" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="62"/>
-      <c r="D24" s="32" t="s">
+      <c r="C24" s="63"/>
+      <c r="D24" s="27" t="s">
         <v>282</v>
       </c>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
       <c r="G24" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H24" s="32" t="s">
+      <c r="H24" s="27" t="s">
         <v>283</v>
       </c>
-      <c r="I24" s="34"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="63" t="s">
+      <c r="I24" s="31"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="L24" s="64"/>
+      <c r="L24" s="59"/>
       <c r="M24" s="74" t="s">
         <v>277</v>
       </c>
@@ -10738,185 +10738,194 @@
       <c r="P24" s="76"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="28"/>
-      <c r="B25" s="61" t="s">
+      <c r="A25" s="44"/>
+      <c r="B25" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="62"/>
-      <c r="D25" s="32" t="s">
+      <c r="C25" s="63"/>
+      <c r="D25" s="27" t="s">
         <v>285</v>
       </c>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
       <c r="G25" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H25" s="32" t="s">
+      <c r="H25" s="27" t="s">
         <v>284</v>
       </c>
-      <c r="I25" s="34"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="63" t="s">
+      <c r="I25" s="31"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="L25" s="64"/>
-      <c r="M25" s="51" t="s">
+      <c r="L25" s="59"/>
+      <c r="M25" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="N25" s="52"/>
-      <c r="O25" s="52"/>
-      <c r="P25" s="53"/>
+      <c r="N25" s="51"/>
+      <c r="O25" s="51"/>
+      <c r="P25" s="52"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="28"/>
-      <c r="B26" s="61" t="s">
+      <c r="A26" s="44"/>
+      <c r="B26" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="C26" s="62"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
       <c r="G26" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="33"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="28"/>
       <c r="K26" s="15"/>
       <c r="L26" s="16"/>
-      <c r="M26" s="51"/>
-      <c r="N26" s="52"/>
-      <c r="O26" s="52"/>
-      <c r="P26" s="53"/>
+      <c r="M26" s="50"/>
+      <c r="N26" s="51"/>
+      <c r="O26" s="51"/>
+      <c r="P26" s="52"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="28"/>
-      <c r="B27" s="61" t="s">
+      <c r="A27" s="44"/>
+      <c r="B27" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="62"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="63" t="s">
+      <c r="C27" s="63"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="L27" s="64"/>
-      <c r="M27" s="51" t="s">
+      <c r="L27" s="59"/>
+      <c r="M27" s="50" t="s">
         <v>143</v>
       </c>
-      <c r="N27" s="52"/>
-      <c r="O27" s="52"/>
-      <c r="P27" s="53"/>
+      <c r="N27" s="51"/>
+      <c r="O27" s="51"/>
+      <c r="P27" s="52"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="28"/>
-      <c r="B28" s="66" t="s">
+      <c r="A28" s="44"/>
+      <c r="B28" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="68"/>
-      <c r="D28" s="68"/>
-      <c r="E28" s="68"/>
-      <c r="F28" s="68"/>
-      <c r="G28" s="68"/>
-      <c r="H28" s="68"/>
-      <c r="I28" s="68"/>
-      <c r="J28" s="67"/>
-      <c r="K28" s="66"/>
-      <c r="L28" s="67"/>
-      <c r="M28" s="66"/>
-      <c r="N28" s="68"/>
-      <c r="O28" s="68"/>
-      <c r="P28" s="67"/>
+      <c r="C28" s="66"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="66"/>
+      <c r="F28" s="66"/>
+      <c r="G28" s="66"/>
+      <c r="H28" s="66"/>
+      <c r="I28" s="66"/>
+      <c r="J28" s="65"/>
+      <c r="K28" s="64"/>
+      <c r="L28" s="65"/>
+      <c r="M28" s="64"/>
+      <c r="N28" s="66"/>
+      <c r="O28" s="66"/>
+      <c r="P28" s="65"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="28"/>
+      <c r="A29" s="44"/>
       <c r="B29" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="63" t="s">
+      <c r="C29" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="72"/>
-      <c r="E29" s="64"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="59"/>
       <c r="F29" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G29" s="63" t="s">
+      <c r="G29" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="H29" s="64"/>
-      <c r="I29" s="63" t="s">
+      <c r="H29" s="59"/>
+      <c r="I29" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="J29" s="64"/>
-      <c r="K29" s="69"/>
-      <c r="L29" s="71"/>
-      <c r="M29" s="69"/>
+      <c r="J29" s="59"/>
+      <c r="K29" s="60"/>
+      <c r="L29" s="61"/>
+      <c r="M29" s="60"/>
       <c r="N29" s="70"/>
       <c r="O29" s="70"/>
-      <c r="P29" s="71"/>
+      <c r="P29" s="61"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="28"/>
+      <c r="A30" s="44"/>
       <c r="B30" s="8">
         <v>1</v>
       </c>
       <c r="C30" s="54" t="s">
         <v>281</v>
       </c>
-      <c r="D30" s="73"/>
-      <c r="E30" s="55"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="56"/>
       <c r="F30" s="3"/>
       <c r="G30" s="54" t="s">
         <v>281</v>
       </c>
-      <c r="H30" s="55"/>
+      <c r="H30" s="56"/>
       <c r="I30" s="3"/>
       <c r="J30" s="4"/>
-      <c r="K30" s="56"/>
-      <c r="L30" s="57"/>
-      <c r="M30" s="56"/>
-      <c r="N30" s="65"/>
-      <c r="O30" s="65"/>
-      <c r="P30" s="57"/>
+      <c r="K30" s="67"/>
+      <c r="L30" s="69"/>
+      <c r="M30" s="67"/>
+      <c r="N30" s="68"/>
+      <c r="O30" s="68"/>
+      <c r="P30" s="69"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="28"/>
+      <c r="A31" s="44"/>
       <c r="B31" s="54"/>
-      <c r="C31" s="73"/>
-      <c r="D31" s="73"/>
-      <c r="E31" s="55"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="56"/>
       <c r="F31" s="3"/>
       <c r="G31" s="54"/>
-      <c r="H31" s="55"/>
+      <c r="H31" s="56"/>
       <c r="I31" s="3"/>
       <c r="J31" s="4"/>
-      <c r="K31" s="56"/>
-      <c r="L31" s="57"/>
-      <c r="M31" s="56"/>
-      <c r="N31" s="65"/>
-      <c r="O31" s="65"/>
-      <c r="P31" s="57"/>
+      <c r="K31" s="67"/>
+      <c r="L31" s="69"/>
+      <c r="M31" s="67"/>
+      <c r="N31" s="68"/>
+      <c r="O31" s="68"/>
+      <c r="P31" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:L4"/>
+    <mergeCell ref="B28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:P27"/>
     <mergeCell ref="A6:P6"/>
     <mergeCell ref="A23:P23"/>
     <mergeCell ref="A24:A31"/>
@@ -10933,27 +10942,18 @@
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="D26:F26"/>
     <mergeCell ref="H26:J26"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="B28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:P31"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:P29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:L4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/nop-dyn/model/nop-dyn.orm.xlsx
+++ b/nop-dyn/model/nop-dyn.orm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-dyn\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C2D335-7787-4894-931B-9E4FB24AFAE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C7B1E78-78BD-437C-A44B-87082952404B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" firstSheet="6" activeTab="6" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" firstSheet="7" activeTab="8" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1188" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="391">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1586,6 +1586,22 @@
   </si>
   <si>
     <t>many-to-many,no-web</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIZ_OBJ_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BizObjName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TABLE_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TableName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1933,16 +1949,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1981,13 +2006,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2011,37 +2030,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2053,25 +2084,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
@@ -2607,8 +2623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68F89B88-34E8-484E-A694-177B0E94136A}">
   <dimension ref="A1:P42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:A31"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2628,132 +2644,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="47" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="48" t="s">
         <v>335</v>
       </c>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="50"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="27"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="28"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="33"/>
       <c r="N1" s="14"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="47" t="s">
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="48" t="s">
         <v>336</v>
       </c>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="50"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="50" t="s">
+      <c r="I2" s="51" t="s">
         <v>337</v>
       </c>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="53"/>
       <c r="N2" s="13"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="49"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="50"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="28"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="33"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="49"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="50"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="27"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="28"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="33"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="53"/>
-      <c r="N6" s="53"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="46"/>
+      <c r="O6" s="46"/>
+      <c r="P6" s="46"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -3600,50 +3616,50 @@
       <c r="P32" s="1"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A34" s="71" t="s">
+      <c r="A34" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="72"/>
-      <c r="C34" s="72"/>
-      <c r="D34" s="72"/>
-      <c r="E34" s="72"/>
-      <c r="F34" s="72"/>
-      <c r="G34" s="72"/>
-      <c r="H34" s="72"/>
-      <c r="I34" s="72"/>
-      <c r="J34" s="72"/>
-      <c r="K34" s="72"/>
-      <c r="L34" s="72"/>
-      <c r="M34" s="72"/>
-      <c r="N34" s="72"/>
-      <c r="O34" s="72"/>
-      <c r="P34" s="73"/>
+      <c r="B34" s="55"/>
+      <c r="C34" s="55"/>
+      <c r="D34" s="55"/>
+      <c r="E34" s="55"/>
+      <c r="F34" s="55"/>
+      <c r="G34" s="55"/>
+      <c r="H34" s="55"/>
+      <c r="I34" s="55"/>
+      <c r="J34" s="55"/>
+      <c r="K34" s="55"/>
+      <c r="L34" s="55"/>
+      <c r="M34" s="55"/>
+      <c r="N34" s="55"/>
+      <c r="O34" s="55"/>
+      <c r="P34" s="56"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A35" s="43">
+      <c r="A35" s="27">
         <v>1</v>
       </c>
-      <c r="B35" s="62" t="s">
+      <c r="B35" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="63"/>
-      <c r="D35" s="27" t="s">
+      <c r="C35" s="58"/>
+      <c r="D35" s="32" t="s">
         <v>343</v>
       </c>
-      <c r="E35" s="31"/>
-      <c r="F35" s="31"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
       <c r="G35" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H35" s="27" t="s">
+      <c r="H35" s="32" t="s">
         <v>344</v>
       </c>
-      <c r="I35" s="31"/>
-      <c r="J35" s="28"/>
-      <c r="K35" s="57" t="s">
+      <c r="I35" s="34"/>
+      <c r="J35" s="33"/>
+      <c r="K35" s="59" t="s">
         <v>58</v>
       </c>
-      <c r="L35" s="59"/>
+      <c r="L35" s="60"/>
       <c r="M35" s="74" t="s">
         <v>345</v>
       </c>
@@ -3652,173 +3668,206 @@
       <c r="P35" s="76"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A36" s="44"/>
-      <c r="B36" s="62" t="s">
+      <c r="A36" s="28"/>
+      <c r="B36" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="C36" s="63"/>
-      <c r="D36" s="27" t="s">
+      <c r="C36" s="58"/>
+      <c r="D36" s="32" t="s">
         <v>285</v>
       </c>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="34"/>
       <c r="G36" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H36" s="27" t="s">
+      <c r="H36" s="32" t="s">
         <v>284</v>
       </c>
-      <c r="I36" s="31"/>
-      <c r="J36" s="28"/>
-      <c r="K36" s="57" t="s">
+      <c r="I36" s="34"/>
+      <c r="J36" s="33"/>
+      <c r="K36" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="L36" s="59"/>
-      <c r="M36" s="50" t="s">
+      <c r="L36" s="60"/>
+      <c r="M36" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="N36" s="51"/>
-      <c r="O36" s="51"/>
-      <c r="P36" s="52"/>
+      <c r="N36" s="52"/>
+      <c r="O36" s="52"/>
+      <c r="P36" s="53"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A37" s="44"/>
-      <c r="B37" s="62" t="s">
+      <c r="A37" s="28"/>
+      <c r="B37" s="57" t="s">
         <v>98</v>
       </c>
-      <c r="C37" s="63"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="31"/>
+      <c r="C37" s="58"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
       <c r="G37" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="H37" s="31"/>
-      <c r="I37" s="31"/>
-      <c r="J37" s="28"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="34"/>
+      <c r="J37" s="33"/>
       <c r="K37" s="15"/>
       <c r="L37" s="16"/>
-      <c r="M37" s="50"/>
-      <c r="N37" s="51"/>
-      <c r="O37" s="51"/>
-      <c r="P37" s="52"/>
+      <c r="M37" s="51"/>
+      <c r="N37" s="52"/>
+      <c r="O37" s="52"/>
+      <c r="P37" s="53"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A38" s="44"/>
-      <c r="B38" s="62" t="s">
+      <c r="A38" s="28"/>
+      <c r="B38" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="C38" s="63"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="28"/>
-      <c r="K38" s="57" t="s">
+      <c r="C38" s="58"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="34"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="34"/>
+      <c r="J38" s="33"/>
+      <c r="K38" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="L38" s="59"/>
-      <c r="M38" s="50" t="s">
+      <c r="L38" s="60"/>
+      <c r="M38" s="51" t="s">
         <v>143</v>
       </c>
-      <c r="N38" s="51"/>
-      <c r="O38" s="51"/>
-      <c r="P38" s="52"/>
+      <c r="N38" s="52"/>
+      <c r="O38" s="52"/>
+      <c r="P38" s="53"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A39" s="44"/>
-      <c r="B39" s="64" t="s">
+      <c r="A39" s="28"/>
+      <c r="B39" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="C39" s="66"/>
-      <c r="D39" s="66"/>
-      <c r="E39" s="66"/>
-      <c r="F39" s="66"/>
-      <c r="G39" s="66"/>
-      <c r="H39" s="66"/>
-      <c r="I39" s="66"/>
-      <c r="J39" s="65"/>
-      <c r="K39" s="64"/>
-      <c r="L39" s="65"/>
-      <c r="M39" s="64"/>
-      <c r="N39" s="66"/>
-      <c r="O39" s="66"/>
-      <c r="P39" s="65"/>
+      <c r="C39" s="71"/>
+      <c r="D39" s="71"/>
+      <c r="E39" s="71"/>
+      <c r="F39" s="71"/>
+      <c r="G39" s="71"/>
+      <c r="H39" s="71"/>
+      <c r="I39" s="71"/>
+      <c r="J39" s="70"/>
+      <c r="K39" s="69"/>
+      <c r="L39" s="70"/>
+      <c r="M39" s="69"/>
+      <c r="N39" s="71"/>
+      <c r="O39" s="71"/>
+      <c r="P39" s="70"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A40" s="44"/>
+      <c r="A40" s="28"/>
       <c r="B40" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C40" s="57" t="s">
+      <c r="C40" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="D40" s="58"/>
-      <c r="E40" s="59"/>
+      <c r="D40" s="73"/>
+      <c r="E40" s="60"/>
       <c r="F40" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G40" s="57" t="s">
+      <c r="G40" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="H40" s="59"/>
-      <c r="I40" s="57" t="s">
+      <c r="H40" s="60"/>
+      <c r="I40" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="J40" s="59"/>
-      <c r="K40" s="60"/>
-      <c r="L40" s="61"/>
-      <c r="M40" s="60"/>
-      <c r="N40" s="70"/>
-      <c r="O40" s="70"/>
-      <c r="P40" s="61"/>
+      <c r="J40" s="60"/>
+      <c r="K40" s="66"/>
+      <c r="L40" s="68"/>
+      <c r="M40" s="66"/>
+      <c r="N40" s="67"/>
+      <c r="O40" s="67"/>
+      <c r="P40" s="68"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A41" s="44"/>
+      <c r="A41" s="28"/>
       <c r="B41" s="8">
         <v>1</v>
       </c>
-      <c r="C41" s="54" t="s">
+      <c r="C41" s="64" t="s">
         <v>346</v>
       </c>
-      <c r="D41" s="55"/>
-      <c r="E41" s="56"/>
+      <c r="D41" s="72"/>
+      <c r="E41" s="65"/>
       <c r="F41" s="3"/>
-      <c r="G41" s="54" t="s">
+      <c r="G41" s="64" t="s">
         <v>346</v>
       </c>
-      <c r="H41" s="56"/>
+      <c r="H41" s="65"/>
       <c r="I41" s="3"/>
       <c r="J41" s="4"/>
-      <c r="K41" s="67"/>
-      <c r="L41" s="69"/>
-      <c r="M41" s="67"/>
-      <c r="N41" s="68"/>
-      <c r="O41" s="68"/>
-      <c r="P41" s="69"/>
+      <c r="K41" s="61"/>
+      <c r="L41" s="63"/>
+      <c r="M41" s="61"/>
+      <c r="N41" s="62"/>
+      <c r="O41" s="62"/>
+      <c r="P41" s="63"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A42" s="44"/>
-      <c r="B42" s="54"/>
-      <c r="C42" s="55"/>
-      <c r="D42" s="55"/>
-      <c r="E42" s="56"/>
+      <c r="A42" s="28"/>
+      <c r="B42" s="64"/>
+      <c r="C42" s="72"/>
+      <c r="D42" s="72"/>
+      <c r="E42" s="65"/>
       <c r="F42" s="3"/>
-      <c r="G42" s="54"/>
-      <c r="H42" s="56"/>
+      <c r="G42" s="64"/>
+      <c r="H42" s="65"/>
       <c r="I42" s="3"/>
       <c r="J42" s="4"/>
-      <c r="K42" s="67"/>
-      <c r="L42" s="69"/>
-      <c r="M42" s="67"/>
-      <c r="N42" s="68"/>
-      <c r="O42" s="68"/>
-      <c r="P42" s="69"/>
+      <c r="K42" s="61"/>
+      <c r="L42" s="63"/>
+      <c r="M42" s="61"/>
+      <c r="N42" s="62"/>
+      <c r="O42" s="62"/>
+      <c r="P42" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:L4"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A34:P34"/>
+    <mergeCell ref="A35:A42"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="M35:P35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:P36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="M37:P37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:P38"/>
     <mergeCell ref="B39:J39"/>
     <mergeCell ref="K39:L39"/>
     <mergeCell ref="M39:P39"/>
@@ -3835,39 +3884,6 @@
     <mergeCell ref="G41:H41"/>
     <mergeCell ref="K41:L41"/>
     <mergeCell ref="M41:P41"/>
-    <mergeCell ref="M37:P37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:P38"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A34:P34"/>
-    <mergeCell ref="A35:A42"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="M35:P35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:P36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:L4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -3882,7 +3898,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2A916FD-1DF6-4F49-9D99-66DD7EC19D8D}">
   <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
@@ -3903,134 +3919,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="47" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="48" t="s">
         <v>311</v>
       </c>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="50"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="27"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="28"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="33"/>
       <c r="N1" s="14"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="47" t="s">
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="48" t="s">
         <v>145</v>
       </c>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="50"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="50" t="s">
+      <c r="I2" s="51" t="s">
         <v>146</v>
       </c>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="53"/>
       <c r="N2" s="13"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="47" t="s">
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="48" t="s">
         <v>172</v>
       </c>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="50"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="28"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="33"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="49"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="50"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="27"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="28"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="33"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="53"/>
-      <c r="N6" s="53"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="46"/>
+      <c r="O6" s="46"/>
+      <c r="P6" s="46"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -5127,241 +5143,250 @@
       <c r="P40" s="1"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A42" s="71" t="s">
+      <c r="A42" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="B42" s="72"/>
-      <c r="C42" s="72"/>
-      <c r="D42" s="72"/>
-      <c r="E42" s="72"/>
-      <c r="F42" s="72"/>
-      <c r="G42" s="72"/>
-      <c r="H42" s="72"/>
-      <c r="I42" s="72"/>
-      <c r="J42" s="72"/>
-      <c r="K42" s="72"/>
-      <c r="L42" s="72"/>
-      <c r="M42" s="72"/>
-      <c r="N42" s="72"/>
-      <c r="O42" s="72"/>
-      <c r="P42" s="73"/>
+      <c r="B42" s="55"/>
+      <c r="C42" s="55"/>
+      <c r="D42" s="55"/>
+      <c r="E42" s="55"/>
+      <c r="F42" s="55"/>
+      <c r="G42" s="55"/>
+      <c r="H42" s="55"/>
+      <c r="I42" s="55"/>
+      <c r="J42" s="55"/>
+      <c r="K42" s="55"/>
+      <c r="L42" s="55"/>
+      <c r="M42" s="55"/>
+      <c r="N42" s="55"/>
+      <c r="O42" s="55"/>
+      <c r="P42" s="56"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A43" s="43">
+      <c r="A43" s="27">
         <v>2</v>
       </c>
-      <c r="B43" s="62" t="s">
+      <c r="B43" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="C43" s="63"/>
-      <c r="D43" s="27" t="s">
+      <c r="C43" s="58"/>
+      <c r="D43" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="E43" s="31"/>
-      <c r="F43" s="31"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="34"/>
       <c r="G43" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H43" s="27" t="s">
+      <c r="H43" s="32" t="s">
         <v>162</v>
       </c>
-      <c r="I43" s="31"/>
-      <c r="J43" s="28"/>
-      <c r="K43" s="57" t="s">
+      <c r="I43" s="34"/>
+      <c r="J43" s="33"/>
+      <c r="K43" s="59" t="s">
         <v>58</v>
       </c>
-      <c r="L43" s="59"/>
-      <c r="M43" s="50" t="s">
+      <c r="L43" s="60"/>
+      <c r="M43" s="51" t="s">
         <v>312</v>
       </c>
-      <c r="N43" s="51"/>
-      <c r="O43" s="51"/>
-      <c r="P43" s="52"/>
+      <c r="N43" s="52"/>
+      <c r="O43" s="52"/>
+      <c r="P43" s="53"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A44" s="44"/>
-      <c r="B44" s="62" t="s">
+      <c r="A44" s="28"/>
+      <c r="B44" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="C44" s="63"/>
-      <c r="D44" s="27" t="s">
+      <c r="C44" s="58"/>
+      <c r="D44" s="32" t="s">
         <v>163</v>
       </c>
-      <c r="E44" s="31"/>
-      <c r="F44" s="31"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="34"/>
       <c r="G44" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H44" s="27" t="s">
+      <c r="H44" s="32" t="s">
         <v>164</v>
       </c>
-      <c r="I44" s="31"/>
-      <c r="J44" s="28"/>
-      <c r="K44" s="57" t="s">
+      <c r="I44" s="34"/>
+      <c r="J44" s="33"/>
+      <c r="K44" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="L44" s="59"/>
-      <c r="M44" s="50" t="s">
+      <c r="L44" s="60"/>
+      <c r="M44" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="N44" s="51"/>
-      <c r="O44" s="51"/>
-      <c r="P44" s="52"/>
+      <c r="N44" s="52"/>
+      <c r="O44" s="52"/>
+      <c r="P44" s="53"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A45" s="44"/>
-      <c r="B45" s="62" t="s">
+      <c r="A45" s="28"/>
+      <c r="B45" s="57" t="s">
         <v>98</v>
       </c>
-      <c r="C45" s="63"/>
-      <c r="D45" s="27" t="s">
+      <c r="C45" s="58"/>
+      <c r="D45" s="32" t="s">
         <v>165</v>
       </c>
-      <c r="E45" s="31"/>
-      <c r="F45" s="31"/>
+      <c r="E45" s="34"/>
+      <c r="F45" s="34"/>
       <c r="G45" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="H45" s="31" t="s">
+      <c r="H45" s="34" t="s">
         <v>166</v>
       </c>
-      <c r="I45" s="31"/>
-      <c r="J45" s="28"/>
+      <c r="I45" s="34"/>
+      <c r="J45" s="33"/>
       <c r="K45" s="15"/>
       <c r="L45" s="16"/>
-      <c r="M45" s="50"/>
-      <c r="N45" s="51"/>
-      <c r="O45" s="51"/>
-      <c r="P45" s="52"/>
+      <c r="M45" s="51"/>
+      <c r="N45" s="52"/>
+      <c r="O45" s="52"/>
+      <c r="P45" s="53"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A46" s="44"/>
-      <c r="B46" s="62" t="s">
+      <c r="A46" s="28"/>
+      <c r="B46" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="C46" s="63"/>
-      <c r="D46" s="27"/>
-      <c r="E46" s="31"/>
-      <c r="F46" s="31"/>
-      <c r="G46" s="31"/>
-      <c r="H46" s="31"/>
-      <c r="I46" s="31"/>
-      <c r="J46" s="28"/>
-      <c r="K46" s="57" t="s">
+      <c r="C46" s="58"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="34"/>
+      <c r="F46" s="34"/>
+      <c r="G46" s="34"/>
+      <c r="H46" s="34"/>
+      <c r="I46" s="34"/>
+      <c r="J46" s="33"/>
+      <c r="K46" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="L46" s="59"/>
-      <c r="M46" s="50" t="s">
+      <c r="L46" s="60"/>
+      <c r="M46" s="51" t="s">
         <v>141</v>
       </c>
-      <c r="N46" s="51"/>
-      <c r="O46" s="51"/>
-      <c r="P46" s="52"/>
+      <c r="N46" s="52"/>
+      <c r="O46" s="52"/>
+      <c r="P46" s="53"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A47" s="44"/>
-      <c r="B47" s="64" t="s">
+      <c r="A47" s="28"/>
+      <c r="B47" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="C47" s="66"/>
-      <c r="D47" s="66"/>
-      <c r="E47" s="66"/>
-      <c r="F47" s="66"/>
-      <c r="G47" s="66"/>
-      <c r="H47" s="66"/>
-      <c r="I47" s="66"/>
-      <c r="J47" s="65"/>
-      <c r="K47" s="64"/>
-      <c r="L47" s="65"/>
-      <c r="M47" s="64"/>
-      <c r="N47" s="66"/>
-      <c r="O47" s="66"/>
-      <c r="P47" s="65"/>
+      <c r="C47" s="71"/>
+      <c r="D47" s="71"/>
+      <c r="E47" s="71"/>
+      <c r="F47" s="71"/>
+      <c r="G47" s="71"/>
+      <c r="H47" s="71"/>
+      <c r="I47" s="71"/>
+      <c r="J47" s="70"/>
+      <c r="K47" s="69"/>
+      <c r="L47" s="70"/>
+      <c r="M47" s="69"/>
+      <c r="N47" s="71"/>
+      <c r="O47" s="71"/>
+      <c r="P47" s="70"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A48" s="44"/>
+      <c r="A48" s="28"/>
       <c r="B48" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C48" s="57" t="s">
+      <c r="C48" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="D48" s="58"/>
-      <c r="E48" s="59"/>
+      <c r="D48" s="73"/>
+      <c r="E48" s="60"/>
       <c r="F48" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G48" s="57" t="s">
+      <c r="G48" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="H48" s="59"/>
-      <c r="I48" s="57" t="s">
+      <c r="H48" s="60"/>
+      <c r="I48" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="J48" s="59"/>
-      <c r="K48" s="60"/>
-      <c r="L48" s="61"/>
-      <c r="M48" s="60"/>
-      <c r="N48" s="70"/>
-      <c r="O48" s="70"/>
-      <c r="P48" s="61"/>
+      <c r="J48" s="60"/>
+      <c r="K48" s="66"/>
+      <c r="L48" s="68"/>
+      <c r="M48" s="66"/>
+      <c r="N48" s="67"/>
+      <c r="O48" s="67"/>
+      <c r="P48" s="68"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A49" s="44"/>
+      <c r="A49" s="28"/>
       <c r="B49" s="8">
         <v>1</v>
       </c>
-      <c r="C49" s="54" t="s">
+      <c r="C49" s="64" t="s">
         <v>167</v>
       </c>
-      <c r="D49" s="55"/>
-      <c r="E49" s="56"/>
+      <c r="D49" s="72"/>
+      <c r="E49" s="65"/>
       <c r="F49" s="3"/>
-      <c r="G49" s="54" t="s">
+      <c r="G49" s="64" t="s">
         <v>144</v>
       </c>
-      <c r="H49" s="56"/>
+      <c r="H49" s="65"/>
       <c r="I49" s="3"/>
       <c r="J49" s="4"/>
-      <c r="K49" s="67"/>
-      <c r="L49" s="69"/>
-      <c r="M49" s="67"/>
-      <c r="N49" s="68"/>
-      <c r="O49" s="68"/>
-      <c r="P49" s="69"/>
+      <c r="K49" s="61"/>
+      <c r="L49" s="63"/>
+      <c r="M49" s="61"/>
+      <c r="N49" s="62"/>
+      <c r="O49" s="62"/>
+      <c r="P49" s="63"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A50" s="44"/>
-      <c r="B50" s="54"/>
-      <c r="C50" s="55"/>
-      <c r="D50" s="55"/>
-      <c r="E50" s="56"/>
+      <c r="A50" s="28"/>
+      <c r="B50" s="64"/>
+      <c r="C50" s="72"/>
+      <c r="D50" s="72"/>
+      <c r="E50" s="65"/>
       <c r="F50" s="3"/>
-      <c r="G50" s="54"/>
-      <c r="H50" s="56"/>
+      <c r="G50" s="64"/>
+      <c r="H50" s="65"/>
       <c r="I50" s="3"/>
       <c r="J50" s="4"/>
-      <c r="K50" s="67"/>
-      <c r="L50" s="69"/>
-      <c r="M50" s="67"/>
-      <c r="N50" s="68"/>
-      <c r="O50" s="68"/>
-      <c r="P50" s="69"/>
+      <c r="K50" s="61"/>
+      <c r="L50" s="63"/>
+      <c r="M50" s="61"/>
+      <c r="N50" s="62"/>
+      <c r="O50" s="62"/>
+      <c r="P50" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:L4"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="M49:P49"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="M50:P50"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:J46"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="M47:P47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="M48:P48"/>
+    <mergeCell ref="B47:J47"/>
+    <mergeCell ref="C48:E48"/>
     <mergeCell ref="A6:P6"/>
     <mergeCell ref="A42:P42"/>
     <mergeCell ref="M45:P45"/>
@@ -5378,27 +5403,18 @@
     <mergeCell ref="A43:A50"/>
     <mergeCell ref="D44:F44"/>
     <mergeCell ref="H44:J44"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="M47:P47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="M48:P48"/>
-    <mergeCell ref="B47:J47"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:J46"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="M49:P49"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="M50:P50"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:L4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6027,17 +6043,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="43">
+      <c r="A1" s="27">
         <v>1</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="27" t="s">
+      <c r="C1" s="31"/>
+      <c r="D1" s="32" t="s">
         <v>296</v>
       </c>
-      <c r="E1" s="28"/>
+      <c r="E1" s="33"/>
       <c r="F1" s="18" t="s">
         <v>126</v>
       </c>
@@ -6046,15 +6062,15 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="44"/>
-      <c r="B2" s="29" t="s">
+      <c r="A2" s="28"/>
+      <c r="B2" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="27" t="s">
+      <c r="C2" s="31"/>
+      <c r="D2" s="32" t="s">
         <v>297</v>
       </c>
-      <c r="E2" s="28"/>
+      <c r="E2" s="33"/>
       <c r="F2" s="18" t="s">
         <v>129</v>
       </c>
@@ -6063,29 +6079,29 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="44"/>
-      <c r="B3" s="29" t="s">
+      <c r="A3" s="28"/>
+      <c r="B3" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="28"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="33"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="44"/>
-      <c r="B4" s="32" t="s">
+      <c r="A4" s="28"/>
+      <c r="B4" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="34"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="37"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="44"/>
+      <c r="A5" s="28"/>
       <c r="B5" s="20" t="s">
         <v>132</v>
       </c>
@@ -6106,7 +6122,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="44"/>
+      <c r="A6" s="28"/>
       <c r="B6" s="19">
         <v>1</v>
       </c>
@@ -6123,7 +6139,7 @@
       <c r="G6" s="22"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="44"/>
+      <c r="A7" s="28"/>
       <c r="B7" s="19">
         <v>2</v>
       </c>
@@ -6140,7 +6156,7 @@
       <c r="G7" s="22"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="44"/>
+      <c r="A8" s="28"/>
       <c r="B8" s="19"/>
       <c r="C8" s="23"/>
       <c r="D8" s="22"/>
@@ -6149,26 +6165,26 @@
       <c r="G8" s="22"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="45"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="37"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="40"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="40">
+      <c r="A10" s="43">
         <v>2</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="27" t="s">
+      <c r="C10" s="31"/>
+      <c r="D10" s="32" t="s">
         <v>251</v>
       </c>
-      <c r="E10" s="28"/>
+      <c r="E10" s="33"/>
       <c r="F10" s="18" t="s">
         <v>126</v>
       </c>
@@ -6177,15 +6193,15 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="41"/>
-      <c r="B11" s="29" t="s">
+      <c r="A11" s="44"/>
+      <c r="B11" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="27" t="s">
+      <c r="C11" s="31"/>
+      <c r="D11" s="32" t="s">
         <v>252</v>
       </c>
-      <c r="E11" s="28"/>
+      <c r="E11" s="33"/>
       <c r="F11" s="18" t="s">
         <v>129</v>
       </c>
@@ -6194,29 +6210,29 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="41"/>
-      <c r="B12" s="29" t="s">
+      <c r="A12" s="44"/>
+      <c r="B12" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="C12" s="30"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="28"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="33"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="41"/>
-      <c r="B13" s="32" t="s">
+      <c r="A13" s="44"/>
+      <c r="B13" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="34"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="37"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="41"/>
+      <c r="A14" s="44"/>
       <c r="B14" s="20" t="s">
         <v>132</v>
       </c>
@@ -6237,7 +6253,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="41"/>
+      <c r="A15" s="44"/>
       <c r="B15" s="19">
         <v>1</v>
       </c>
@@ -6254,7 +6270,7 @@
       <c r="G15" s="22"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="41"/>
+      <c r="A16" s="44"/>
       <c r="B16" s="19">
         <v>2</v>
       </c>
@@ -6271,7 +6287,7 @@
       <c r="G16" s="22"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="41"/>
+      <c r="A17" s="44"/>
       <c r="B17" s="19"/>
       <c r="C17" s="23"/>
       <c r="D17" s="22"/>
@@ -6280,26 +6296,26 @@
       <c r="G17" s="22"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="42"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="37"/>
+      <c r="A18" s="45"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="40"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="43">
+      <c r="A19" s="27">
         <v>3</v>
       </c>
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="C19" s="30"/>
-      <c r="D19" s="27" t="s">
+      <c r="C19" s="31"/>
+      <c r="D19" s="32" t="s">
         <v>264</v>
       </c>
-      <c r="E19" s="28"/>
+      <c r="E19" s="33"/>
       <c r="F19" s="18" t="s">
         <v>126</v>
       </c>
@@ -6308,15 +6324,15 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="44"/>
-      <c r="B20" s="29" t="s">
+      <c r="A20" s="28"/>
+      <c r="B20" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="C20" s="30"/>
-      <c r="D20" s="27" t="s">
+      <c r="C20" s="31"/>
+      <c r="D20" s="32" t="s">
         <v>265</v>
       </c>
-      <c r="E20" s="28"/>
+      <c r="E20" s="33"/>
       <c r="F20" s="18" t="s">
         <v>129</v>
       </c>
@@ -6325,29 +6341,29 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="44"/>
-      <c r="B21" s="29" t="s">
+      <c r="A21" s="28"/>
+      <c r="B21" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="C21" s="30"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="28"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="33"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="44"/>
-      <c r="B22" s="32" t="s">
+      <c r="A22" s="28"/>
+      <c r="B22" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="34"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="37"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="44"/>
+      <c r="A23" s="28"/>
       <c r="B23" s="20" t="s">
         <v>132</v>
       </c>
@@ -6368,7 +6384,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="44"/>
+      <c r="A24" s="28"/>
       <c r="B24" s="19">
         <v>1</v>
       </c>
@@ -6385,7 +6401,7 @@
       <c r="G24" s="22"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="44"/>
+      <c r="A25" s="28"/>
       <c r="B25" s="19">
         <v>2</v>
       </c>
@@ -6402,7 +6418,7 @@
       <c r="G25" s="22"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="44"/>
+      <c r="A26" s="28"/>
       <c r="B26" s="19">
         <v>3</v>
       </c>
@@ -6419,26 +6435,26 @@
       <c r="G26" s="24"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="45"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="37"/>
+      <c r="A27" s="29"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="40"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="38">
+      <c r="A28" s="41">
         <v>4</v>
       </c>
-      <c r="B28" s="29" t="s">
+      <c r="B28" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="C28" s="30"/>
-      <c r="D28" s="27" t="s">
+      <c r="C28" s="31"/>
+      <c r="D28" s="32" t="s">
         <v>314</v>
       </c>
-      <c r="E28" s="28"/>
+      <c r="E28" s="33"/>
       <c r="F28" s="18" t="s">
         <v>126</v>
       </c>
@@ -6447,15 +6463,15 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="39"/>
-      <c r="B29" s="29" t="s">
+      <c r="A29" s="42"/>
+      <c r="B29" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="C29" s="30"/>
-      <c r="D29" s="27" t="s">
+      <c r="C29" s="31"/>
+      <c r="D29" s="32" t="s">
         <v>315</v>
       </c>
-      <c r="E29" s="28"/>
+      <c r="E29" s="33"/>
       <c r="F29" s="18" t="s">
         <v>129</v>
       </c>
@@ -6464,29 +6480,29 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="39"/>
-      <c r="B30" s="29" t="s">
+      <c r="A30" s="42"/>
+      <c r="B30" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="C30" s="30"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="28"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="33"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="39"/>
-      <c r="B31" s="32" t="s">
+      <c r="A31" s="42"/>
+      <c r="B31" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="34"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="37"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="39"/>
+      <c r="A32" s="42"/>
       <c r="B32" s="20" t="s">
         <v>132</v>
       </c>
@@ -6507,7 +6523,7 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="39"/>
+      <c r="A33" s="42"/>
       <c r="B33" s="19">
         <v>1</v>
       </c>
@@ -6524,7 +6540,7 @@
       <c r="G33" s="22"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="39"/>
+      <c r="A34" s="42"/>
       <c r="B34" s="19">
         <v>2</v>
       </c>
@@ -6541,31 +6557,21 @@
       <c r="G34" s="22"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="39"/>
-      <c r="B35" s="35"/>
-      <c r="C35" s="36"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="36"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="37"/>
+      <c r="A35" s="42"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A1:A9"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B27:G27"/>
     <mergeCell ref="B31:G31"/>
     <mergeCell ref="A28:A35"/>
     <mergeCell ref="B35:G35"/>
@@ -6582,11 +6588,21 @@
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="A1:A9"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B9:G9"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6618,132 +6634,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="47" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="48" t="s">
         <v>286</v>
       </c>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="50"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="27"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="28"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="33"/>
       <c r="N1" s="14"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="47" t="s">
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="48" t="s">
         <v>287</v>
       </c>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="50"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="50" t="s">
+      <c r="I2" s="51" t="s">
         <v>288</v>
       </c>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="53"/>
       <c r="N2" s="13"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="49"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="50"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="28"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="33"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="49"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="50"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="27"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="28"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="33"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="53"/>
-      <c r="N6" s="53"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="46"/>
+      <c r="O6" s="46"/>
+      <c r="P6" s="46"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -7123,25 +7139,31 @@
       <c r="P17" s="1"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="27"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="31"/>
-      <c r="N18" s="31"/>
-      <c r="O18" s="31"/>
-      <c r="P18" s="28"/>
+      <c r="A18" s="32"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="34"/>
+      <c r="O18" s="34"/>
+      <c r="P18" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
     <mergeCell ref="A6:P6"/>
     <mergeCell ref="A18:P18"/>
     <mergeCell ref="A3:C3"/>
@@ -7150,12 +7172,6 @@
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="D4:L4"/>
     <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -7191,132 +7207,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="47" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="48" t="s">
         <v>245</v>
       </c>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="50"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="27"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="28"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="33"/>
       <c r="N1" s="14"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="47" t="s">
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="48" t="s">
         <v>246</v>
       </c>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="50"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="50" t="s">
+      <c r="I2" s="51" t="s">
         <v>247</v>
       </c>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="53"/>
       <c r="N2" s="13"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="49"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="50"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="28"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="33"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="49"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="50"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="27"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="28"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="33"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="53"/>
-      <c r="N6" s="53"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="46"/>
+      <c r="O6" s="46"/>
+      <c r="P6" s="46"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -7726,243 +7742,277 @@
       <c r="P18" s="1"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="27"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="31"/>
-      <c r="P19" s="28"/>
+      <c r="A19" s="32"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="34"/>
+      <c r="N19" s="34"/>
+      <c r="O19" s="34"/>
+      <c r="P19" s="33"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="71" t="s">
+      <c r="A21" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="72"/>
-      <c r="C21" s="72"/>
-      <c r="D21" s="72"/>
-      <c r="E21" s="72"/>
-      <c r="F21" s="72"/>
-      <c r="G21" s="72"/>
-      <c r="H21" s="72"/>
-      <c r="I21" s="72"/>
-      <c r="J21" s="72"/>
-      <c r="K21" s="72"/>
-      <c r="L21" s="72"/>
-      <c r="M21" s="72"/>
-      <c r="N21" s="72"/>
-      <c r="O21" s="72"/>
-      <c r="P21" s="73"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="55"/>
+      <c r="K21" s="55"/>
+      <c r="L21" s="55"/>
+      <c r="M21" s="55"/>
+      <c r="N21" s="55"/>
+      <c r="O21" s="55"/>
+      <c r="P21" s="56"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="43">
+      <c r="A22" s="27">
         <v>1</v>
       </c>
-      <c r="B22" s="62" t="s">
+      <c r="B22" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="63"/>
-      <c r="D22" s="27" t="s">
+      <c r="C22" s="58"/>
+      <c r="D22" s="32" t="s">
         <v>275</v>
       </c>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
       <c r="G22" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H22" s="27" t="s">
+      <c r="H22" s="32" t="s">
         <v>276</v>
       </c>
-      <c r="I22" s="31"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="57" t="s">
+      <c r="I22" s="34"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="59" t="s">
         <v>58</v>
       </c>
-      <c r="L22" s="59"/>
-      <c r="M22" s="50" t="s">
+      <c r="L22" s="60"/>
+      <c r="M22" s="51" t="s">
         <v>277</v>
       </c>
-      <c r="N22" s="51"/>
-      <c r="O22" s="51"/>
-      <c r="P22" s="52"/>
+      <c r="N22" s="52"/>
+      <c r="O22" s="52"/>
+      <c r="P22" s="53"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="44"/>
-      <c r="B23" s="62" t="s">
+      <c r="A23" s="28"/>
+      <c r="B23" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="63"/>
-      <c r="D23" s="27" t="s">
+      <c r="C23" s="58"/>
+      <c r="D23" s="32" t="s">
         <v>278</v>
       </c>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
       <c r="G23" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H23" s="27" t="s">
+      <c r="H23" s="32" t="s">
         <v>279</v>
       </c>
-      <c r="I23" s="31"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="57" t="s">
+      <c r="I23" s="34"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="L23" s="59"/>
-      <c r="M23" s="50" t="s">
+      <c r="L23" s="60"/>
+      <c r="M23" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="N23" s="51"/>
-      <c r="O23" s="51"/>
-      <c r="P23" s="52"/>
+      <c r="N23" s="52"/>
+      <c r="O23" s="52"/>
+      <c r="P23" s="53"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="44"/>
-      <c r="B24" s="62" t="s">
+      <c r="A24" s="28"/>
+      <c r="B24" s="57" t="s">
         <v>98</v>
       </c>
-      <c r="C24" s="63"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
       <c r="G24" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="28"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="33"/>
       <c r="K24" s="15"/>
       <c r="L24" s="16"/>
-      <c r="M24" s="50"/>
-      <c r="N24" s="51"/>
-      <c r="O24" s="51"/>
-      <c r="P24" s="52"/>
+      <c r="M24" s="51"/>
+      <c r="N24" s="52"/>
+      <c r="O24" s="52"/>
+      <c r="P24" s="53"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="44"/>
-      <c r="B25" s="62" t="s">
+      <c r="A25" s="28"/>
+      <c r="B25" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="63"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="57" t="s">
+      <c r="C25" s="58"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="L25" s="59"/>
-      <c r="M25" s="50" t="s">
+      <c r="L25" s="60"/>
+      <c r="M25" s="51" t="s">
         <v>102</v>
       </c>
-      <c r="N25" s="51"/>
-      <c r="O25" s="51"/>
-      <c r="P25" s="52"/>
+      <c r="N25" s="52"/>
+      <c r="O25" s="52"/>
+      <c r="P25" s="53"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="44"/>
-      <c r="B26" s="64" t="s">
+      <c r="A26" s="28"/>
+      <c r="B26" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="66"/>
-      <c r="D26" s="66"/>
-      <c r="E26" s="66"/>
-      <c r="F26" s="66"/>
-      <c r="G26" s="66"/>
-      <c r="H26" s="66"/>
-      <c r="I26" s="66"/>
-      <c r="J26" s="65"/>
-      <c r="K26" s="64"/>
-      <c r="L26" s="65"/>
-      <c r="M26" s="64"/>
-      <c r="N26" s="66"/>
-      <c r="O26" s="66"/>
-      <c r="P26" s="65"/>
+      <c r="C26" s="71"/>
+      <c r="D26" s="71"/>
+      <c r="E26" s="71"/>
+      <c r="F26" s="71"/>
+      <c r="G26" s="71"/>
+      <c r="H26" s="71"/>
+      <c r="I26" s="71"/>
+      <c r="J26" s="70"/>
+      <c r="K26" s="69"/>
+      <c r="L26" s="70"/>
+      <c r="M26" s="69"/>
+      <c r="N26" s="71"/>
+      <c r="O26" s="71"/>
+      <c r="P26" s="70"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="44"/>
+      <c r="A27" s="28"/>
       <c r="B27" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="57" t="s">
+      <c r="C27" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="D27" s="58"/>
-      <c r="E27" s="59"/>
+      <c r="D27" s="73"/>
+      <c r="E27" s="60"/>
       <c r="F27" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G27" s="57" t="s">
+      <c r="G27" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="H27" s="59"/>
-      <c r="I27" s="57" t="s">
+      <c r="H27" s="60"/>
+      <c r="I27" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="J27" s="59"/>
-      <c r="K27" s="60"/>
-      <c r="L27" s="61"/>
-      <c r="M27" s="60"/>
-      <c r="N27" s="70"/>
-      <c r="O27" s="70"/>
-      <c r="P27" s="61"/>
+      <c r="J27" s="60"/>
+      <c r="K27" s="66"/>
+      <c r="L27" s="68"/>
+      <c r="M27" s="66"/>
+      <c r="N27" s="67"/>
+      <c r="O27" s="67"/>
+      <c r="P27" s="68"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="44"/>
+      <c r="A28" s="28"/>
       <c r="B28" s="8">
         <v>1</v>
       </c>
-      <c r="C28" s="54" t="s">
+      <c r="C28" s="64" t="s">
         <v>280</v>
       </c>
-      <c r="D28" s="55"/>
-      <c r="E28" s="56"/>
+      <c r="D28" s="72"/>
+      <c r="E28" s="65"/>
       <c r="F28" s="3"/>
-      <c r="G28" s="54" t="s">
+      <c r="G28" s="64" t="s">
         <v>281</v>
       </c>
-      <c r="H28" s="56"/>
+      <c r="H28" s="65"/>
       <c r="I28" s="3"/>
       <c r="J28" s="4"/>
-      <c r="K28" s="67"/>
-      <c r="L28" s="69"/>
-      <c r="M28" s="67"/>
-      <c r="N28" s="68"/>
-      <c r="O28" s="68"/>
-      <c r="P28" s="69"/>
+      <c r="K28" s="61"/>
+      <c r="L28" s="63"/>
+      <c r="M28" s="61"/>
+      <c r="N28" s="62"/>
+      <c r="O28" s="62"/>
+      <c r="P28" s="63"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="44"/>
-      <c r="B29" s="54"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="56"/>
+      <c r="A29" s="28"/>
+      <c r="B29" s="64"/>
+      <c r="C29" s="72"/>
+      <c r="D29" s="72"/>
+      <c r="E29" s="65"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="54"/>
-      <c r="H29" s="56"/>
+      <c r="G29" s="64"/>
+      <c r="H29" s="65"/>
       <c r="I29" s="3"/>
       <c r="J29" s="4"/>
-      <c r="K29" s="67"/>
-      <c r="L29" s="69"/>
-      <c r="M29" s="67"/>
-      <c r="N29" s="68"/>
-      <c r="O29" s="68"/>
-      <c r="P29" s="69"/>
+      <c r="K29" s="61"/>
+      <c r="L29" s="63"/>
+      <c r="M29" s="61"/>
+      <c r="N29" s="62"/>
+      <c r="O29" s="62"/>
+      <c r="P29" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="D4:L4"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A19:P19"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="D25:J25"/>
+    <mergeCell ref="B26:J26"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
     <mergeCell ref="A21:P21"/>
     <mergeCell ref="A22:A29"/>
     <mergeCell ref="B22:C22"/>
@@ -7979,40 +8029,6 @@
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="H24:J24"/>
     <mergeCell ref="M24:P24"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:P29"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="D25:J25"/>
-    <mergeCell ref="B26:J26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A19:P19"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:L4"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="C27:E27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -8027,7 +8043,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE4711A2-02AD-4A5B-BAC3-D68404A9BB39}">
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3:G3"/>
     </sheetView>
   </sheetViews>
@@ -8048,134 +8064,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="47" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="48" t="s">
         <v>299</v>
       </c>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="50"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="27"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="28"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="33"/>
       <c r="N1" s="14"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="47" t="s">
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="48" t="s">
         <v>300</v>
       </c>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="50"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="50" t="s">
+      <c r="I2" s="51" t="s">
         <v>301</v>
       </c>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="53"/>
       <c r="N2" s="13"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="47" t="s">
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="48" t="s">
         <v>386</v>
       </c>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="50"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="28"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="33"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="49"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="50"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="27"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="28"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="33"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="53"/>
-      <c r="N6" s="53"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="46"/>
+      <c r="O6" s="46"/>
+      <c r="P6" s="46"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -8492,68 +8508,68 @@
       <c r="P15" s="1"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="27"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="31"/>
-      <c r="O16" s="31"/>
-      <c r="P16" s="28"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="34"/>
+      <c r="O16" s="34"/>
+      <c r="P16" s="33"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="71" t="s">
+      <c r="A18" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="72"/>
-      <c r="C18" s="72"/>
-      <c r="D18" s="72"/>
-      <c r="E18" s="72"/>
-      <c r="F18" s="72"/>
-      <c r="G18" s="72"/>
-      <c r="H18" s="72"/>
-      <c r="I18" s="72"/>
-      <c r="J18" s="72"/>
-      <c r="K18" s="72"/>
-      <c r="L18" s="72"/>
-      <c r="M18" s="72"/>
-      <c r="N18" s="72"/>
-      <c r="O18" s="72"/>
-      <c r="P18" s="73"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="55"/>
+      <c r="L18" s="55"/>
+      <c r="M18" s="55"/>
+      <c r="N18" s="55"/>
+      <c r="O18" s="55"/>
+      <c r="P18" s="56"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="43">
+      <c r="A19" s="27">
         <v>1</v>
       </c>
-      <c r="B19" s="62" t="s">
+      <c r="B19" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="63"/>
-      <c r="D19" s="27" t="s">
+      <c r="C19" s="58"/>
+      <c r="D19" s="32" t="s">
         <v>302</v>
       </c>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
       <c r="G19" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H19" s="27" t="s">
+      <c r="H19" s="32" t="s">
         <v>307</v>
       </c>
-      <c r="I19" s="31"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="57" t="s">
+      <c r="I19" s="34"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="59" t="s">
         <v>58</v>
       </c>
-      <c r="L19" s="59"/>
+      <c r="L19" s="60"/>
       <c r="M19" s="74" t="s">
         <v>303</v>
       </c>
@@ -8562,196 +8578,196 @@
       <c r="P19" s="76"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="44"/>
-      <c r="B20" s="62" t="s">
+      <c r="A20" s="28"/>
+      <c r="B20" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="63"/>
-      <c r="D20" s="27" t="s">
+      <c r="C20" s="58"/>
+      <c r="D20" s="32" t="s">
         <v>304</v>
       </c>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
       <c r="G20" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H20" s="27" t="s">
+      <c r="H20" s="32" t="s">
         <v>305</v>
       </c>
-      <c r="I20" s="31"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="57" t="s">
+      <c r="I20" s="34"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="L20" s="59"/>
-      <c r="M20" s="50" t="s">
+      <c r="L20" s="60"/>
+      <c r="M20" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="N20" s="51"/>
-      <c r="O20" s="51"/>
-      <c r="P20" s="52"/>
+      <c r="N20" s="52"/>
+      <c r="O20" s="52"/>
+      <c r="P20" s="53"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="44"/>
-      <c r="B21" s="62" t="s">
+      <c r="A21" s="28"/>
+      <c r="B21" s="57" t="s">
         <v>98</v>
       </c>
-      <c r="C21" s="63"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
       <c r="G21" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="28"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="33"/>
       <c r="K21" s="15"/>
       <c r="L21" s="16"/>
-      <c r="M21" s="50"/>
-      <c r="N21" s="51"/>
-      <c r="O21" s="51"/>
-      <c r="P21" s="52"/>
+      <c r="M21" s="51"/>
+      <c r="N21" s="52"/>
+      <c r="O21" s="52"/>
+      <c r="P21" s="53"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="44"/>
-      <c r="B22" s="62" t="s">
+      <c r="A22" s="28"/>
+      <c r="B22" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="63"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="57" t="s">
+      <c r="C22" s="58"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="L22" s="59"/>
-      <c r="M22" s="50" t="s">
+      <c r="L22" s="60"/>
+      <c r="M22" s="51" t="s">
         <v>143</v>
       </c>
-      <c r="N22" s="51"/>
-      <c r="O22" s="51"/>
-      <c r="P22" s="52"/>
+      <c r="N22" s="52"/>
+      <c r="O22" s="52"/>
+      <c r="P22" s="53"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="44"/>
-      <c r="B23" s="64" t="s">
+      <c r="A23" s="28"/>
+      <c r="B23" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="66"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="66"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="66"/>
-      <c r="I23" s="66"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="64"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="64"/>
-      <c r="N23" s="66"/>
-      <c r="O23" s="66"/>
-      <c r="P23" s="65"/>
+      <c r="C23" s="71"/>
+      <c r="D23" s="71"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="71"/>
+      <c r="H23" s="71"/>
+      <c r="I23" s="71"/>
+      <c r="J23" s="70"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="70"/>
+      <c r="M23" s="69"/>
+      <c r="N23" s="71"/>
+      <c r="O23" s="71"/>
+      <c r="P23" s="70"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="44"/>
+      <c r="A24" s="28"/>
       <c r="B24" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="57" t="s">
+      <c r="C24" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="58"/>
-      <c r="E24" s="59"/>
+      <c r="D24" s="73"/>
+      <c r="E24" s="60"/>
       <c r="F24" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G24" s="57" t="s">
+      <c r="G24" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="H24" s="59"/>
-      <c r="I24" s="57" t="s">
+      <c r="H24" s="60"/>
+      <c r="I24" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="J24" s="59"/>
-      <c r="K24" s="60"/>
-      <c r="L24" s="61"/>
-      <c r="M24" s="60"/>
-      <c r="N24" s="70"/>
-      <c r="O24" s="70"/>
-      <c r="P24" s="61"/>
+      <c r="J24" s="60"/>
+      <c r="K24" s="66"/>
+      <c r="L24" s="68"/>
+      <c r="M24" s="66"/>
+      <c r="N24" s="67"/>
+      <c r="O24" s="67"/>
+      <c r="P24" s="68"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="44"/>
+      <c r="A25" s="28"/>
       <c r="B25" s="8">
         <v>1</v>
       </c>
-      <c r="C25" s="54" t="s">
+      <c r="C25" s="64" t="s">
         <v>306</v>
       </c>
-      <c r="D25" s="55"/>
-      <c r="E25" s="56"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="65"/>
       <c r="F25" s="3"/>
-      <c r="G25" s="54" t="s">
+      <c r="G25" s="64" t="s">
         <v>306</v>
       </c>
-      <c r="H25" s="56"/>
+      <c r="H25" s="65"/>
       <c r="I25" s="3"/>
       <c r="J25" s="4"/>
-      <c r="K25" s="67"/>
-      <c r="L25" s="69"/>
-      <c r="M25" s="67"/>
-      <c r="N25" s="68"/>
-      <c r="O25" s="68"/>
-      <c r="P25" s="69"/>
+      <c r="K25" s="61"/>
+      <c r="L25" s="63"/>
+      <c r="M25" s="61"/>
+      <c r="N25" s="62"/>
+      <c r="O25" s="62"/>
+      <c r="P25" s="63"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="44"/>
-      <c r="B26" s="54"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="56"/>
+      <c r="A26" s="28"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="72"/>
+      <c r="D26" s="72"/>
+      <c r="E26" s="65"/>
       <c r="F26" s="3"/>
-      <c r="G26" s="54"/>
-      <c r="H26" s="56"/>
+      <c r="G26" s="64"/>
+      <c r="H26" s="65"/>
       <c r="I26" s="3"/>
       <c r="J26" s="4"/>
-      <c r="K26" s="67"/>
-      <c r="L26" s="69"/>
-      <c r="M26" s="67"/>
-      <c r="N26" s="68"/>
-      <c r="O26" s="68"/>
-      <c r="P26" s="69"/>
+      <c r="K26" s="61"/>
+      <c r="L26" s="63"/>
+      <c r="M26" s="61"/>
+      <c r="N26" s="62"/>
+      <c r="O26" s="62"/>
+      <c r="P26" s="63"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="43">
+      <c r="A27" s="27">
         <v>2</v>
       </c>
-      <c r="B27" s="62" t="s">
+      <c r="B27" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="63"/>
-      <c r="D27" s="27" t="s">
+      <c r="C27" s="58"/>
+      <c r="D27" s="32" t="s">
         <v>282</v>
       </c>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
       <c r="G27" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H27" s="27" t="s">
+      <c r="H27" s="32" t="s">
         <v>308</v>
       </c>
-      <c r="I27" s="31"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="57" t="s">
+      <c r="I27" s="34"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="59" t="s">
         <v>58</v>
       </c>
-      <c r="L27" s="59"/>
+      <c r="L27" s="60"/>
       <c r="M27" s="74" t="s">
         <v>277</v>
       </c>
@@ -8760,198 +8776,217 @@
       <c r="P27" s="76"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="44"/>
-      <c r="B28" s="62" t="s">
+      <c r="A28" s="28"/>
+      <c r="B28" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="63"/>
-      <c r="D28" s="27" t="s">
+      <c r="C28" s="58"/>
+      <c r="D28" s="32" t="s">
         <v>309</v>
       </c>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
       <c r="G28" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H28" s="27" t="s">
+      <c r="H28" s="32" t="s">
         <v>310</v>
       </c>
-      <c r="I28" s="31"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="57" t="s">
+      <c r="I28" s="34"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="L28" s="59"/>
-      <c r="M28" s="50" t="s">
+      <c r="L28" s="60"/>
+      <c r="M28" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="N28" s="51"/>
-      <c r="O28" s="51"/>
-      <c r="P28" s="52"/>
+      <c r="N28" s="52"/>
+      <c r="O28" s="52"/>
+      <c r="P28" s="53"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="44"/>
-      <c r="B29" s="62" t="s">
+      <c r="A29" s="28"/>
+      <c r="B29" s="57" t="s">
         <v>98</v>
       </c>
-      <c r="C29" s="63"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
+      <c r="C29" s="58"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
       <c r="G29" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="28"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="34"/>
+      <c r="J29" s="33"/>
       <c r="K29" s="15"/>
       <c r="L29" s="16"/>
-      <c r="M29" s="50"/>
-      <c r="N29" s="51"/>
-      <c r="O29" s="51"/>
-      <c r="P29" s="52"/>
+      <c r="M29" s="51"/>
+      <c r="N29" s="52"/>
+      <c r="O29" s="52"/>
+      <c r="P29" s="53"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="44"/>
-      <c r="B30" s="62" t="s">
+      <c r="A30" s="28"/>
+      <c r="B30" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="63"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="57" t="s">
+      <c r="C30" s="58"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="L30" s="59"/>
-      <c r="M30" s="50" t="s">
+      <c r="L30" s="60"/>
+      <c r="M30" s="51" t="s">
         <v>143</v>
       </c>
-      <c r="N30" s="51"/>
-      <c r="O30" s="51"/>
-      <c r="P30" s="52"/>
+      <c r="N30" s="52"/>
+      <c r="O30" s="52"/>
+      <c r="P30" s="53"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="44"/>
-      <c r="B31" s="64" t="s">
+      <c r="A31" s="28"/>
+      <c r="B31" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="66"/>
-      <c r="D31" s="66"/>
-      <c r="E31" s="66"/>
-      <c r="F31" s="66"/>
-      <c r="G31" s="66"/>
-      <c r="H31" s="66"/>
-      <c r="I31" s="66"/>
-      <c r="J31" s="65"/>
-      <c r="K31" s="64"/>
-      <c r="L31" s="65"/>
-      <c r="M31" s="64"/>
-      <c r="N31" s="66"/>
-      <c r="O31" s="66"/>
-      <c r="P31" s="65"/>
+      <c r="C31" s="71"/>
+      <c r="D31" s="71"/>
+      <c r="E31" s="71"/>
+      <c r="F31" s="71"/>
+      <c r="G31" s="71"/>
+      <c r="H31" s="71"/>
+      <c r="I31" s="71"/>
+      <c r="J31" s="70"/>
+      <c r="K31" s="69"/>
+      <c r="L31" s="70"/>
+      <c r="M31" s="69"/>
+      <c r="N31" s="71"/>
+      <c r="O31" s="71"/>
+      <c r="P31" s="70"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="44"/>
+      <c r="A32" s="28"/>
       <c r="B32" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C32" s="57" t="s">
+      <c r="C32" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="D32" s="58"/>
-      <c r="E32" s="59"/>
+      <c r="D32" s="73"/>
+      <c r="E32" s="60"/>
       <c r="F32" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G32" s="57" t="s">
+      <c r="G32" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="H32" s="59"/>
-      <c r="I32" s="57" t="s">
+      <c r="H32" s="60"/>
+      <c r="I32" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="J32" s="59"/>
-      <c r="K32" s="60"/>
-      <c r="L32" s="61"/>
-      <c r="M32" s="60"/>
-      <c r="N32" s="70"/>
-      <c r="O32" s="70"/>
-      <c r="P32" s="61"/>
+      <c r="J32" s="60"/>
+      <c r="K32" s="66"/>
+      <c r="L32" s="68"/>
+      <c r="M32" s="66"/>
+      <c r="N32" s="67"/>
+      <c r="O32" s="67"/>
+      <c r="P32" s="68"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A33" s="44"/>
+      <c r="A33" s="28"/>
       <c r="B33" s="8">
         <v>1</v>
       </c>
-      <c r="C33" s="54" t="s">
+      <c r="C33" s="64" t="s">
         <v>281</v>
       </c>
-      <c r="D33" s="55"/>
-      <c r="E33" s="56"/>
+      <c r="D33" s="72"/>
+      <c r="E33" s="65"/>
       <c r="F33" s="3"/>
-      <c r="G33" s="54" t="s">
+      <c r="G33" s="64" t="s">
         <v>281</v>
       </c>
-      <c r="H33" s="56"/>
+      <c r="H33" s="65"/>
       <c r="I33" s="3"/>
       <c r="J33" s="4"/>
-      <c r="K33" s="67"/>
-      <c r="L33" s="69"/>
-      <c r="M33" s="67"/>
-      <c r="N33" s="68"/>
-      <c r="O33" s="68"/>
-      <c r="P33" s="69"/>
+      <c r="K33" s="61"/>
+      <c r="L33" s="63"/>
+      <c r="M33" s="61"/>
+      <c r="N33" s="62"/>
+      <c r="O33" s="62"/>
+      <c r="P33" s="63"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A34" s="44"/>
-      <c r="B34" s="54"/>
-      <c r="C34" s="55"/>
-      <c r="D34" s="55"/>
-      <c r="E34" s="56"/>
+      <c r="A34" s="28"/>
+      <c r="B34" s="64"/>
+      <c r="C34" s="72"/>
+      <c r="D34" s="72"/>
+      <c r="E34" s="65"/>
       <c r="F34" s="3"/>
-      <c r="G34" s="54"/>
-      <c r="H34" s="56"/>
+      <c r="G34" s="64"/>
+      <c r="H34" s="65"/>
       <c r="I34" s="3"/>
       <c r="J34" s="4"/>
-      <c r="K34" s="67"/>
-      <c r="L34" s="69"/>
-      <c r="M34" s="67"/>
-      <c r="N34" s="68"/>
-      <c r="O34" s="68"/>
-      <c r="P34" s="69"/>
+      <c r="K34" s="61"/>
+      <c r="L34" s="63"/>
+      <c r="M34" s="61"/>
+      <c r="N34" s="62"/>
+      <c r="O34" s="62"/>
+      <c r="P34" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="85">
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="M34:P34"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:P32"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="M33:P33"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="B31:J31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:P31"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:L4"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A16:P16"/>
+    <mergeCell ref="A18:P18"/>
+    <mergeCell ref="A19:A26"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="M19:P19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="M20:P20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="B23:J23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
     <mergeCell ref="K24:L24"/>
     <mergeCell ref="M24:P24"/>
     <mergeCell ref="A27:A34"/>
@@ -8968,50 +9003,31 @@
     <mergeCell ref="K26:L26"/>
     <mergeCell ref="M26:P26"/>
     <mergeCell ref="M27:P27"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="B23:J23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A16:P16"/>
-    <mergeCell ref="A18:P18"/>
-    <mergeCell ref="A19:A26"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="M19:P19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="M20:P20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:L4"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="B31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="M34:P34"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:P32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="M33:P33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -9048,134 +9064,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="47" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="48" t="s">
         <v>255</v>
       </c>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="50"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="27"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="28"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="33"/>
       <c r="N1" s="14"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="47" t="s">
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="48" t="s">
         <v>220</v>
       </c>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="50"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="50" t="s">
+      <c r="I2" s="51" t="s">
         <v>256</v>
       </c>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="53"/>
       <c r="N2" s="13"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="49"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="50"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="28"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="33"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="47" t="s">
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="48" t="s">
         <v>231</v>
       </c>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="50"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="27"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="28"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="33"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="53"/>
-      <c r="N6" s="53"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="46"/>
+      <c r="O6" s="46"/>
+      <c r="P6" s="46"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -9750,50 +9766,50 @@
       <c r="P23" s="1"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="71" t="s">
+      <c r="A25" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="72"/>
-      <c r="C25" s="72"/>
-      <c r="D25" s="72"/>
-      <c r="E25" s="72"/>
-      <c r="F25" s="72"/>
-      <c r="G25" s="72"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="72"/>
-      <c r="J25" s="72"/>
-      <c r="K25" s="72"/>
-      <c r="L25" s="72"/>
-      <c r="M25" s="72"/>
-      <c r="N25" s="72"/>
-      <c r="O25" s="72"/>
-      <c r="P25" s="73"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="55"/>
+      <c r="J25" s="55"/>
+      <c r="K25" s="55"/>
+      <c r="L25" s="55"/>
+      <c r="M25" s="55"/>
+      <c r="N25" s="55"/>
+      <c r="O25" s="55"/>
+      <c r="P25" s="56"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="43">
+      <c r="A26" s="27">
         <v>1</v>
       </c>
-      <c r="B26" s="62" t="s">
+      <c r="B26" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="63"/>
-      <c r="D26" s="27" t="s">
+      <c r="C26" s="58"/>
+      <c r="D26" s="32" t="s">
         <v>282</v>
       </c>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
       <c r="G26" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H26" s="27" t="s">
+      <c r="H26" s="32" t="s">
         <v>283</v>
       </c>
-      <c r="I26" s="31"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="57" t="s">
+      <c r="I26" s="34"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="59" t="s">
         <v>58</v>
       </c>
-      <c r="L26" s="59"/>
+      <c r="L26" s="60"/>
       <c r="M26" s="74" t="s">
         <v>277</v>
       </c>
@@ -9802,193 +9818,186 @@
       <c r="P26" s="76"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="44"/>
-      <c r="B27" s="62" t="s">
+      <c r="A27" s="28"/>
+      <c r="B27" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="63"/>
-      <c r="D27" s="27" t="s">
+      <c r="C27" s="58"/>
+      <c r="D27" s="32" t="s">
         <v>285</v>
       </c>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
       <c r="G27" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H27" s="27" t="s">
+      <c r="H27" s="32" t="s">
         <v>284</v>
       </c>
-      <c r="I27" s="31"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="57" t="s">
+      <c r="I27" s="34"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="L27" s="59"/>
-      <c r="M27" s="50" t="s">
+      <c r="L27" s="60"/>
+      <c r="M27" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="N27" s="51"/>
-      <c r="O27" s="51"/>
-      <c r="P27" s="52"/>
+      <c r="N27" s="52"/>
+      <c r="O27" s="52"/>
+      <c r="P27" s="53"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="44"/>
-      <c r="B28" s="62" t="s">
+      <c r="A28" s="28"/>
+      <c r="B28" s="57" t="s">
         <v>98</v>
       </c>
-      <c r="C28" s="63"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
       <c r="G28" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="H28" s="31"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="28"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="33"/>
       <c r="K28" s="15"/>
       <c r="L28" s="16"/>
-      <c r="M28" s="50"/>
-      <c r="N28" s="51"/>
-      <c r="O28" s="51"/>
-      <c r="P28" s="52"/>
+      <c r="M28" s="51"/>
+      <c r="N28" s="52"/>
+      <c r="O28" s="52"/>
+      <c r="P28" s="53"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="44"/>
-      <c r="B29" s="62" t="s">
+      <c r="A29" s="28"/>
+      <c r="B29" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="63"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="57" t="s">
+      <c r="C29" s="58"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="34"/>
+      <c r="J29" s="33"/>
+      <c r="K29" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="L29" s="59"/>
-      <c r="M29" s="50" t="s">
+      <c r="L29" s="60"/>
+      <c r="M29" s="51" t="s">
         <v>143</v>
       </c>
-      <c r="N29" s="51"/>
-      <c r="O29" s="51"/>
-      <c r="P29" s="52"/>
+      <c r="N29" s="52"/>
+      <c r="O29" s="52"/>
+      <c r="P29" s="53"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="44"/>
-      <c r="B30" s="64" t="s">
+      <c r="A30" s="28"/>
+      <c r="B30" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="C30" s="66"/>
-      <c r="D30" s="66"/>
-      <c r="E30" s="66"/>
-      <c r="F30" s="66"/>
-      <c r="G30" s="66"/>
-      <c r="H30" s="66"/>
-      <c r="I30" s="66"/>
-      <c r="J30" s="65"/>
-      <c r="K30" s="64"/>
-      <c r="L30" s="65"/>
-      <c r="M30" s="64"/>
-      <c r="N30" s="66"/>
-      <c r="O30" s="66"/>
-      <c r="P30" s="65"/>
+      <c r="C30" s="71"/>
+      <c r="D30" s="71"/>
+      <c r="E30" s="71"/>
+      <c r="F30" s="71"/>
+      <c r="G30" s="71"/>
+      <c r="H30" s="71"/>
+      <c r="I30" s="71"/>
+      <c r="J30" s="70"/>
+      <c r="K30" s="69"/>
+      <c r="L30" s="70"/>
+      <c r="M30" s="69"/>
+      <c r="N30" s="71"/>
+      <c r="O30" s="71"/>
+      <c r="P30" s="70"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="44"/>
+      <c r="A31" s="28"/>
       <c r="B31" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C31" s="57" t="s">
+      <c r="C31" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="D31" s="58"/>
-      <c r="E31" s="59"/>
+      <c r="D31" s="73"/>
+      <c r="E31" s="60"/>
       <c r="F31" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G31" s="57" t="s">
+      <c r="G31" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="H31" s="59"/>
-      <c r="I31" s="57" t="s">
+      <c r="H31" s="60"/>
+      <c r="I31" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="J31" s="59"/>
-      <c r="K31" s="60"/>
-      <c r="L31" s="61"/>
-      <c r="M31" s="60"/>
-      <c r="N31" s="70"/>
-      <c r="O31" s="70"/>
-      <c r="P31" s="61"/>
+      <c r="J31" s="60"/>
+      <c r="K31" s="66"/>
+      <c r="L31" s="68"/>
+      <c r="M31" s="66"/>
+      <c r="N31" s="67"/>
+      <c r="O31" s="67"/>
+      <c r="P31" s="68"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="44"/>
+      <c r="A32" s="28"/>
       <c r="B32" s="8">
         <v>1</v>
       </c>
-      <c r="C32" s="54" t="s">
+      <c r="C32" s="64" t="s">
         <v>281</v>
       </c>
-      <c r="D32" s="55"/>
-      <c r="E32" s="56"/>
+      <c r="D32" s="72"/>
+      <c r="E32" s="65"/>
       <c r="F32" s="3"/>
-      <c r="G32" s="54" t="s">
+      <c r="G32" s="64" t="s">
         <v>281</v>
       </c>
-      <c r="H32" s="56"/>
+      <c r="H32" s="65"/>
       <c r="I32" s="3"/>
       <c r="J32" s="4"/>
-      <c r="K32" s="67"/>
-      <c r="L32" s="69"/>
-      <c r="M32" s="67"/>
-      <c r="N32" s="68"/>
-      <c r="O32" s="68"/>
-      <c r="P32" s="69"/>
+      <c r="K32" s="61"/>
+      <c r="L32" s="63"/>
+      <c r="M32" s="61"/>
+      <c r="N32" s="62"/>
+      <c r="O32" s="62"/>
+      <c r="P32" s="63"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A33" s="44"/>
-      <c r="B33" s="54"/>
-      <c r="C33" s="55"/>
-      <c r="D33" s="55"/>
-      <c r="E33" s="56"/>
+      <c r="A33" s="28"/>
+      <c r="B33" s="64"/>
+      <c r="C33" s="72"/>
+      <c r="D33" s="72"/>
+      <c r="E33" s="65"/>
       <c r="F33" s="3"/>
-      <c r="G33" s="54"/>
-      <c r="H33" s="56"/>
+      <c r="G33" s="64"/>
+      <c r="H33" s="65"/>
       <c r="I33" s="3"/>
       <c r="J33" s="4"/>
-      <c r="K33" s="67"/>
-      <c r="L33" s="69"/>
-      <c r="M33" s="67"/>
-      <c r="N33" s="68"/>
-      <c r="O33" s="68"/>
-      <c r="P33" s="69"/>
+      <c r="K33" s="61"/>
+      <c r="L33" s="63"/>
+      <c r="M33" s="61"/>
+      <c r="N33" s="62"/>
+      <c r="O33" s="62"/>
+      <c r="P33" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:P32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="M33:P33"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:P31"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:P29"/>
-    <mergeCell ref="B30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:L4"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
     <mergeCell ref="A25:P25"/>
     <mergeCell ref="A26:A33"/>
     <mergeCell ref="B26:C26"/>
@@ -10005,19 +10014,26 @@
     <mergeCell ref="D28:F28"/>
     <mergeCell ref="H28:J28"/>
     <mergeCell ref="M28:P28"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:L4"/>
-    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="B30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:P32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="M33:P33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -10031,10 +10047,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC0BA8A4-9C3E-4604-A099-A93C4C69087F}">
-  <dimension ref="A1:P31"/>
+  <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -10054,132 +10070,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="47" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="48" t="s">
         <v>321</v>
       </c>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="50"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="27"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="28"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="33"/>
       <c r="N1" s="14"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="47" t="s">
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="48" t="s">
         <v>322</v>
       </c>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="50"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="50" t="s">
+      <c r="I2" s="51" t="s">
         <v>323</v>
       </c>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="53"/>
       <c r="N2" s="13"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="49"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="50"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="28"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="33"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="49"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="50"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="27"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="28"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="33"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="53"/>
-      <c r="N6" s="53"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="46"/>
+      <c r="O6" s="46"/>
+      <c r="P6" s="46"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -10374,27 +10390,25 @@
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="9" t="s">
-        <v>328</v>
+        <v>389</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="9" t="s">
-        <v>329</v>
+        <v>390</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>330</v>
+        <v>0</v>
       </c>
       <c r="H12" s="9"/>
-      <c r="I12" s="7" t="s">
-        <v>27</v>
-      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="K12" s="7"/>
+        <v>28</v>
+      </c>
+      <c r="K12" s="7">
+        <v>100</v>
+      </c>
       <c r="L12" s="7"/>
-      <c r="M12" s="26" t="s">
-        <v>331</v>
-      </c>
+      <c r="M12" s="9"/>
       <c r="N12" s="9"/>
       <c r="O12" s="7"/>
       <c r="P12" s="1"/>
@@ -10404,30 +10418,24 @@
         <v>6</v>
       </c>
       <c r="B13" s="7"/>
-      <c r="C13" s="7" t="s">
-        <v>237</v>
-      </c>
+      <c r="C13" s="7"/>
       <c r="D13" s="9" t="s">
-        <v>332</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>104</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="E13" s="7"/>
       <c r="F13" s="9" t="s">
-        <v>333</v>
+        <v>388</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>230</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="H13" s="9"/>
       <c r="I13" s="7"/>
       <c r="J13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K13" s="7" t="s">
-        <v>135</v>
+      <c r="K13" s="7">
+        <v>100</v>
       </c>
       <c r="L13" s="7"/>
       <c r="M13" s="9"/>
@@ -10442,14 +10450,14 @@
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="9" t="s">
-        <v>33</v>
+        <v>328</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="9" t="s">
-        <v>34</v>
+        <v>329</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>95</v>
+        <v>330</v>
       </c>
       <c r="H14" s="9"/>
       <c r="I14" s="7" t="s">
@@ -10460,8 +10468,8 @@
       </c>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
-      <c r="M14" s="9" t="s">
-        <v>232</v>
+      <c r="M14" s="26" t="s">
+        <v>331</v>
       </c>
       <c r="N14" s="9"/>
       <c r="O14" s="7"/>
@@ -10469,32 +10477,28 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>104</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="E15" s="7"/>
       <c r="F15" s="9" t="s">
-        <v>37</v>
+        <v>360</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>27</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="H15" s="9"/>
+      <c r="I15" s="7"/>
       <c r="J15" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="K15" s="7"/>
+        <v>28</v>
+      </c>
+      <c r="K15" s="7">
+        <v>200</v>
+      </c>
       <c r="L15" s="7"/>
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
@@ -10503,31 +10507,33 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
+      <c r="C16" s="7" t="s">
+        <v>237</v>
+      </c>
       <c r="D16" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="7"/>
+        <v>332</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>104</v>
+      </c>
       <c r="F16" s="9" t="s">
-        <v>40</v>
+        <v>333</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>41</v>
+        <v>334</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>27</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="I16" s="7"/>
       <c r="J16" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K16" s="7">
-        <v>50</v>
+      <c r="K16" s="7" t="s">
+        <v>135</v>
       </c>
       <c r="L16" s="7"/>
       <c r="M16" s="9"/>
@@ -10537,64 +10543,64 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="9" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="9" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>91</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="H17" s="9"/>
       <c r="I17" s="7" t="s">
         <v>27</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
-      <c r="M17" s="9"/>
+      <c r="M17" s="9" t="s">
+        <v>232</v>
+      </c>
       <c r="N17" s="9"/>
       <c r="O17" s="7"/>
       <c r="P17" s="1"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E18" s="7"/>
+        <v>36</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>104</v>
+      </c>
       <c r="F18" s="9" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I18" s="7" t="s">
         <v>27</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K18" s="7">
-        <v>50</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="K18" s="7"/>
       <c r="L18" s="7"/>
       <c r="M18" s="9"/>
       <c r="N18" s="9"/>
@@ -10603,30 +10609,32 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="9" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="9" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="I19" s="7" t="s">
         <v>27</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="K19" s="7"/>
+        <v>28</v>
+      </c>
+      <c r="K19" s="7">
+        <v>50</v>
+      </c>
       <c r="L19" s="7"/>
       <c r="M19" s="9"/>
       <c r="N19" s="9"/>
@@ -10635,32 +10643,30 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>105</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="E20" s="7"/>
       <c r="F20" s="9" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="I20" s="7"/>
+        <v>91</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="J20" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K20" s="7">
-        <v>200</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="K20" s="7"/>
       <c r="L20" s="7"/>
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
@@ -10668,280 +10674,343 @@
       <c r="P20" s="1"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="7"/>
+      <c r="A21" s="7">
+        <v>14</v>
+      </c>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
+      <c r="D21" s="9" t="s">
+        <v>47</v>
+      </c>
       <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
+      <c r="F21" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K21" s="7">
+        <v>50</v>
+      </c>
       <c r="L21" s="7"/>
       <c r="M21" s="9"/>
       <c r="N21" s="9"/>
       <c r="O21" s="7"/>
       <c r="P21" s="1"/>
     </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A22" s="7">
+        <v>15</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="7"/>
+      <c r="F22" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="1"/>
+    </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="71" t="s">
+      <c r="A23" s="7">
+        <v>16</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="I23" s="7"/>
+      <c r="J23" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K23" s="7">
+        <v>200</v>
+      </c>
+      <c r="L23" s="7"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="1"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="1"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A26" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="72"/>
-      <c r="C23" s="72"/>
-      <c r="D23" s="72"/>
-      <c r="E23" s="72"/>
-      <c r="F23" s="72"/>
-      <c r="G23" s="72"/>
-      <c r="H23" s="72"/>
-      <c r="I23" s="72"/>
-      <c r="J23" s="72"/>
-      <c r="K23" s="72"/>
-      <c r="L23" s="72"/>
-      <c r="M23" s="72"/>
-      <c r="N23" s="72"/>
-      <c r="O23" s="72"/>
-      <c r="P23" s="73"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="43">
+      <c r="B26" s="55"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="55"/>
+      <c r="J26" s="55"/>
+      <c r="K26" s="55"/>
+      <c r="L26" s="55"/>
+      <c r="M26" s="55"/>
+      <c r="N26" s="55"/>
+      <c r="O26" s="55"/>
+      <c r="P26" s="56"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A27" s="27">
         <v>1</v>
       </c>
-      <c r="B24" s="62" t="s">
+      <c r="B27" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="63"/>
-      <c r="D24" s="27" t="s">
+      <c r="C27" s="58"/>
+      <c r="D27" s="32" t="s">
         <v>282</v>
       </c>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="2" t="s">
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H24" s="27" t="s">
+      <c r="H27" s="32" t="s">
         <v>283</v>
       </c>
-      <c r="I24" s="31"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="57" t="s">
+      <c r="I27" s="34"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="59" t="s">
         <v>58</v>
       </c>
-      <c r="L24" s="59"/>
-      <c r="M24" s="74" t="s">
+      <c r="L27" s="60"/>
+      <c r="M27" s="74" t="s">
         <v>277</v>
       </c>
-      <c r="N24" s="75"/>
-      <c r="O24" s="75"/>
-      <c r="P24" s="76"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="44"/>
-      <c r="B25" s="62" t="s">
+      <c r="N27" s="75"/>
+      <c r="O27" s="75"/>
+      <c r="P27" s="76"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A28" s="28"/>
+      <c r="B28" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="63"/>
-      <c r="D25" s="27" t="s">
+      <c r="C28" s="58"/>
+      <c r="D28" s="32" t="s">
         <v>285</v>
       </c>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="2" t="s">
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H25" s="27" t="s">
+      <c r="H28" s="32" t="s">
         <v>284</v>
       </c>
-      <c r="I25" s="31"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="57" t="s">
+      <c r="I28" s="34"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="L25" s="59"/>
-      <c r="M25" s="50" t="s">
+      <c r="L28" s="60"/>
+      <c r="M28" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="N25" s="51"/>
-      <c r="O25" s="51"/>
-      <c r="P25" s="52"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="44"/>
-      <c r="B26" s="62" t="s">
+      <c r="N28" s="52"/>
+      <c r="O28" s="52"/>
+      <c r="P28" s="53"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A29" s="28"/>
+      <c r="B29" s="57" t="s">
         <v>98</v>
       </c>
-      <c r="C26" s="63"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="17" t="s">
+      <c r="C29" s="58"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="H26" s="31"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="50"/>
-      <c r="N26" s="51"/>
-      <c r="O26" s="51"/>
-      <c r="P26" s="52"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="44"/>
-      <c r="B27" s="62" t="s">
+      <c r="H29" s="34"/>
+      <c r="I29" s="34"/>
+      <c r="J29" s="33"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="51"/>
+      <c r="N29" s="52"/>
+      <c r="O29" s="52"/>
+      <c r="P29" s="53"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A30" s="28"/>
+      <c r="B30" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="63"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="57" t="s">
+      <c r="C30" s="58"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="L27" s="59"/>
-      <c r="M27" s="50" t="s">
+      <c r="L30" s="60"/>
+      <c r="M30" s="51" t="s">
         <v>143</v>
       </c>
-      <c r="N27" s="51"/>
-      <c r="O27" s="51"/>
-      <c r="P27" s="52"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="44"/>
-      <c r="B28" s="64" t="s">
+      <c r="N30" s="52"/>
+      <c r="O30" s="52"/>
+      <c r="P30" s="53"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A31" s="28"/>
+      <c r="B31" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="66"/>
-      <c r="D28" s="66"/>
-      <c r="E28" s="66"/>
-      <c r="F28" s="66"/>
-      <c r="G28" s="66"/>
-      <c r="H28" s="66"/>
-      <c r="I28" s="66"/>
-      <c r="J28" s="65"/>
-      <c r="K28" s="64"/>
-      <c r="L28" s="65"/>
-      <c r="M28" s="64"/>
-      <c r="N28" s="66"/>
-      <c r="O28" s="66"/>
-      <c r="P28" s="65"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="44"/>
-      <c r="B29" s="12" t="s">
+      <c r="C31" s="71"/>
+      <c r="D31" s="71"/>
+      <c r="E31" s="71"/>
+      <c r="F31" s="71"/>
+      <c r="G31" s="71"/>
+      <c r="H31" s="71"/>
+      <c r="I31" s="71"/>
+      <c r="J31" s="70"/>
+      <c r="K31" s="69"/>
+      <c r="L31" s="70"/>
+      <c r="M31" s="69"/>
+      <c r="N31" s="71"/>
+      <c r="O31" s="71"/>
+      <c r="P31" s="70"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A32" s="28"/>
+      <c r="B32" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="57" t="s">
+      <c r="C32" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="58"/>
-      <c r="E29" s="59"/>
-      <c r="F29" s="15" t="s">
+      <c r="D32" s="73"/>
+      <c r="E32" s="60"/>
+      <c r="F32" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G29" s="57" t="s">
+      <c r="G32" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="H29" s="59"/>
-      <c r="I29" s="57" t="s">
+      <c r="H32" s="60"/>
+      <c r="I32" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="J29" s="59"/>
-      <c r="K29" s="60"/>
-      <c r="L29" s="61"/>
-      <c r="M29" s="60"/>
-      <c r="N29" s="70"/>
-      <c r="O29" s="70"/>
-      <c r="P29" s="61"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="44"/>
-      <c r="B30" s="8">
+      <c r="J32" s="60"/>
+      <c r="K32" s="66"/>
+      <c r="L32" s="68"/>
+      <c r="M32" s="66"/>
+      <c r="N32" s="67"/>
+      <c r="O32" s="67"/>
+      <c r="P32" s="68"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A33" s="28"/>
+      <c r="B33" s="8">
         <v>1</v>
       </c>
-      <c r="C30" s="54" t="s">
+      <c r="C33" s="64" t="s">
         <v>281</v>
       </c>
-      <c r="D30" s="55"/>
-      <c r="E30" s="56"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="54" t="s">
+      <c r="D33" s="72"/>
+      <c r="E33" s="65"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="64" t="s">
         <v>281</v>
       </c>
-      <c r="H30" s="56"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="67"/>
-      <c r="L30" s="69"/>
-      <c r="M30" s="67"/>
-      <c r="N30" s="68"/>
-      <c r="O30" s="68"/>
-      <c r="P30" s="69"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="44"/>
-      <c r="B31" s="54"/>
-      <c r="C31" s="55"/>
-      <c r="D31" s="55"/>
-      <c r="E31" s="56"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="54"/>
-      <c r="H31" s="56"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="67"/>
-      <c r="L31" s="69"/>
-      <c r="M31" s="67"/>
-      <c r="N31" s="68"/>
-      <c r="O31" s="68"/>
-      <c r="P31" s="69"/>
+      <c r="H33" s="65"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="61"/>
+      <c r="L33" s="63"/>
+      <c r="M33" s="61"/>
+      <c r="N33" s="62"/>
+      <c r="O33" s="62"/>
+      <c r="P33" s="63"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A34" s="28"/>
+      <c r="B34" s="64"/>
+      <c r="C34" s="72"/>
+      <c r="D34" s="72"/>
+      <c r="E34" s="65"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="64"/>
+      <c r="H34" s="65"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="61"/>
+      <c r="L34" s="63"/>
+      <c r="M34" s="61"/>
+      <c r="N34" s="62"/>
+      <c r="O34" s="62"/>
+      <c r="P34" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="B28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:P31"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:P29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A23:P23"/>
-    <mergeCell ref="A24:A31"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="H26:J26"/>
     <mergeCell ref="A5:P5"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:G1"/>
@@ -10954,11 +11023,48 @@
     <mergeCell ref="I3:M3"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="D4:L4"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A26:P26"/>
+    <mergeCell ref="A27:A34"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="B31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="M34:P34"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:P32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="M33:P33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="M12" location="entity_store_type" display="dyn/page-schema-type" xr:uid="{A19F2678-1B24-4DCA-AC5A-69335700E3C0}"/>
-    <hyperlink ref="M24:P24" location="nop_dyn_module!A1" display="NopDynModule" xr:uid="{6580E2C8-10D8-477F-BE0A-37F2A03BFA6D}"/>
+    <hyperlink ref="M14" location="entity_store_type" display="dyn/page-schema-type" xr:uid="{A19F2678-1B24-4DCA-AC5A-69335700E3C0}"/>
+    <hyperlink ref="M27:P27" location="nop_dyn_module!A1" display="NopDynModule" xr:uid="{6580E2C8-10D8-477F-BE0A-37F2A03BFA6D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/nop-dyn/model/nop-dyn.orm.xlsx
+++ b/nop-dyn/model/nop-dyn.orm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-dyn\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C7B1E78-78BD-437C-A44B-87082952404B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94E3172E-B1DA-492E-9455-01AC5E54A93C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" firstSheet="7" activeTab="8" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" firstSheet="5" activeTab="7" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,8 @@
     <sheet name="nop_dyn_page" sheetId="29" r:id="rId8"/>
     <sheet name="nop_dyn_entity_meta" sheetId="32" r:id="rId9"/>
     <sheet name="nop_dyn_prop_meta" sheetId="33" r:id="rId10"/>
-    <sheet name="nop_dyn_entity" sheetId="28" r:id="rId11"/>
+    <sheet name="nop_dyn_domain" sheetId="34" r:id="rId11"/>
+    <sheet name="nop_dyn_entity" sheetId="28" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="app_status">字典定义!$A$1:$G$9</definedName>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1334" uniqueCount="421">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1005,18 +1006,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MODULE_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Module Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模块名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>显示名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1465,14 +1454,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Std Domain</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STD_DOMAIN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>core/std-domain</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1602,6 +1583,146 @@
   </si>
   <si>
     <t>TableName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>entityMetas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块实体定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Entity Metas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Module Pages</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>派生模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Derived Modules</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MODULE_VERSION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Module Version</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nop-module-name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nopModuleName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MODULE_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Module Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>obj/NopDynDomain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Domain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOMAIN_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Domain Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据域名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STD_DOMAIN_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Std Domain Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOMAIN_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Domain ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据域ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>domain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NopDynDomain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>domainId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nop_dyn_domain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BASE_PACKAGE_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base Package Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java包名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAVEN_GROUP_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maven Group Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maven组名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2030,15 +2151,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2054,16 +2166,10 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2075,6 +2181,15 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2084,10 +2199,16 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
@@ -2621,10 +2742,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68F89B88-34E8-484E-A694-177B0E94136A}">
-  <dimension ref="A1:P42"/>
+  <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2650,7 +2771,7 @@
       <c r="B1" s="47"/>
       <c r="C1" s="47"/>
       <c r="D1" s="48" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E1" s="49"/>
       <c r="F1" s="49"/>
@@ -2674,7 +2795,7 @@
       <c r="B2" s="47"/>
       <c r="C2" s="47"/>
       <c r="D2" s="48" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E2" s="49"/>
       <c r="F2" s="49"/>
@@ -2683,7 +2804,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="51" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="J2" s="52"/>
       <c r="K2" s="52"/>
@@ -2832,16 +2953,16 @@
         <v>87</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>104</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="H8" s="9"/>
       <c r="I8" s="7" t="s">
@@ -2868,11 +2989,11 @@
         <v>106</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G9" s="9" t="s">
         <v>14</v>
@@ -2907,7 +3028,7 @@
         <v>142</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="7" t="s">
@@ -2932,14 +3053,14 @@
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="9" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="9" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="7" t="s">
@@ -2964,14 +3085,14 @@
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="9" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="9" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="H12" s="9"/>
       <c r="I12" s="7" t="s">
@@ -2985,7 +3106,7 @@
       </c>
       <c r="L12" s="7"/>
       <c r="M12" s="9" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="N12" s="9"/>
       <c r="O12" s="7"/>
@@ -2998,19 +3119,17 @@
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="9" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="9" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G13" s="9" t="s">
         <v>6</v>
       </c>
       <c r="H13" s="9"/>
-      <c r="I13" s="7" t="s">
-        <v>27</v>
-      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="9" t="s">
         <v>29</v>
       </c>
@@ -3028,19 +3147,17 @@
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="9" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="9" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G14" s="9" t="s">
         <v>7</v>
       </c>
       <c r="H14" s="9"/>
-      <c r="I14" s="7" t="s">
-        <v>27</v>
-      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="9" t="s">
         <v>29</v>
       </c>
@@ -3060,14 +3177,14 @@
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="9" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="9" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="H15" s="9"/>
       <c r="I15" s="7"/>
@@ -3090,14 +3207,14 @@
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="9" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="9" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="H16" s="9"/>
       <c r="I16" s="7"/>
@@ -3120,14 +3237,14 @@
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="9" t="s">
-        <v>357</v>
+        <v>408</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="9" t="s">
-        <v>356</v>
+        <v>409</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>62</v>
+        <v>410</v>
       </c>
       <c r="H17" s="9"/>
       <c r="I17" s="7"/>
@@ -3135,11 +3252,11 @@
         <v>28</v>
       </c>
       <c r="K17" s="7">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="L17" s="7"/>
       <c r="M17" s="9" t="s">
-        <v>358</v>
+        <v>401</v>
       </c>
       <c r="N17" s="9"/>
       <c r="O17" s="7"/>
@@ -3152,14 +3269,14 @@
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="9" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="9" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="H18" s="9"/>
       <c r="I18" s="7"/>
@@ -3182,14 +3299,14 @@
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="9" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="9" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="H19" s="9"/>
       <c r="I19" s="7"/>
@@ -3203,7 +3320,7 @@
       <c r="M19" s="9"/>
       <c r="N19" s="9"/>
       <c r="O19" s="7" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="P19" s="1"/>
     </row>
@@ -3214,11 +3331,11 @@
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="9" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="9" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="G20" s="9" t="s">
         <v>9</v>
@@ -3244,14 +3361,14 @@
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="9" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="9" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="H21" s="9"/>
       <c r="I21" s="7"/>
@@ -3274,11 +3391,11 @@
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="9" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="9" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="G22" s="9" t="s">
         <v>57</v>
@@ -3304,14 +3421,14 @@
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="9" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="9" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="H23" s="9"/>
       <c r="I23" s="7"/>
@@ -3334,14 +3451,14 @@
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="9" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="9" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="H24" s="9"/>
       <c r="I24" s="7"/>
@@ -3616,35 +3733,35 @@
       <c r="P32" s="1"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A34" s="54" t="s">
+      <c r="A34" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="55"/>
-      <c r="C34" s="55"/>
-      <c r="D34" s="55"/>
-      <c r="E34" s="55"/>
-      <c r="F34" s="55"/>
-      <c r="G34" s="55"/>
-      <c r="H34" s="55"/>
-      <c r="I34" s="55"/>
-      <c r="J34" s="55"/>
-      <c r="K34" s="55"/>
-      <c r="L34" s="55"/>
-      <c r="M34" s="55"/>
-      <c r="N34" s="55"/>
-      <c r="O34" s="55"/>
-      <c r="P34" s="56"/>
+      <c r="B34" s="72"/>
+      <c r="C34" s="72"/>
+      <c r="D34" s="72"/>
+      <c r="E34" s="72"/>
+      <c r="F34" s="72"/>
+      <c r="G34" s="72"/>
+      <c r="H34" s="72"/>
+      <c r="I34" s="72"/>
+      <c r="J34" s="72"/>
+      <c r="K34" s="72"/>
+      <c r="L34" s="72"/>
+      <c r="M34" s="72"/>
+      <c r="N34" s="72"/>
+      <c r="O34" s="72"/>
+      <c r="P34" s="73"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="27">
         <v>1</v>
       </c>
-      <c r="B35" s="57" t="s">
+      <c r="B35" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="58"/>
+      <c r="C35" s="55"/>
       <c r="D35" s="32" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E35" s="34"/>
       <c r="F35" s="34"/>
@@ -3652,16 +3769,16 @@
         <v>57</v>
       </c>
       <c r="H35" s="32" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="I35" s="34"/>
       <c r="J35" s="33"/>
-      <c r="K35" s="59" t="s">
+      <c r="K35" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="L35" s="60"/>
+      <c r="L35" s="57"/>
       <c r="M35" s="74" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="N35" s="75"/>
       <c r="O35" s="75"/>
@@ -3669,12 +3786,12 @@
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="28"/>
-      <c r="B36" s="57" t="s">
+      <c r="B36" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="C36" s="58"/>
+      <c r="C36" s="55"/>
       <c r="D36" s="32" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E36" s="34"/>
       <c r="F36" s="34"/>
@@ -3682,14 +3799,14 @@
         <v>3</v>
       </c>
       <c r="H36" s="32" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="I36" s="34"/>
       <c r="J36" s="33"/>
-      <c r="K36" s="59" t="s">
+      <c r="K36" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="L36" s="60"/>
+      <c r="L36" s="57"/>
       <c r="M36" s="51" t="s">
         <v>67</v>
       </c>
@@ -3699,10 +3816,10 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="28"/>
-      <c r="B37" s="57" t="s">
+      <c r="B37" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="C37" s="58"/>
+      <c r="C37" s="55"/>
       <c r="D37" s="32"/>
       <c r="E37" s="34"/>
       <c r="F37" s="34"/>
@@ -3721,10 +3838,10 @@
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="28"/>
-      <c r="B38" s="57" t="s">
+      <c r="B38" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="C38" s="58"/>
+      <c r="C38" s="55"/>
       <c r="D38" s="32"/>
       <c r="E38" s="34"/>
       <c r="F38" s="34"/>
@@ -3732,10 +3849,10 @@
       <c r="H38" s="34"/>
       <c r="I38" s="34"/>
       <c r="J38" s="33"/>
-      <c r="K38" s="59" t="s">
+      <c r="K38" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="L38" s="60"/>
+      <c r="L38" s="57"/>
       <c r="M38" s="51" t="s">
         <v>143</v>
       </c>
@@ -3745,51 +3862,51 @@
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="28"/>
-      <c r="B39" s="69" t="s">
+      <c r="B39" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="C39" s="71"/>
-      <c r="D39" s="71"/>
-      <c r="E39" s="71"/>
-      <c r="F39" s="71"/>
-      <c r="G39" s="71"/>
-      <c r="H39" s="71"/>
-      <c r="I39" s="71"/>
-      <c r="J39" s="70"/>
-      <c r="K39" s="69"/>
-      <c r="L39" s="70"/>
-      <c r="M39" s="69"/>
-      <c r="N39" s="71"/>
-      <c r="O39" s="71"/>
-      <c r="P39" s="70"/>
+      <c r="C39" s="69"/>
+      <c r="D39" s="69"/>
+      <c r="E39" s="69"/>
+      <c r="F39" s="69"/>
+      <c r="G39" s="69"/>
+      <c r="H39" s="69"/>
+      <c r="I39" s="69"/>
+      <c r="J39" s="68"/>
+      <c r="K39" s="67"/>
+      <c r="L39" s="68"/>
+      <c r="M39" s="67"/>
+      <c r="N39" s="69"/>
+      <c r="O39" s="69"/>
+      <c r="P39" s="68"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="28"/>
       <c r="B40" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C40" s="59" t="s">
+      <c r="C40" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="D40" s="73"/>
-      <c r="E40" s="60"/>
+      <c r="D40" s="70"/>
+      <c r="E40" s="57"/>
       <c r="F40" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G40" s="59" t="s">
+      <c r="G40" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="H40" s="60"/>
-      <c r="I40" s="59" t="s">
+      <c r="H40" s="57"/>
+      <c r="I40" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="J40" s="60"/>
-      <c r="K40" s="66"/>
-      <c r="L40" s="68"/>
-      <c r="M40" s="66"/>
-      <c r="N40" s="67"/>
-      <c r="O40" s="67"/>
-      <c r="P40" s="68"/>
+      <c r="J40" s="57"/>
+      <c r="K40" s="61"/>
+      <c r="L40" s="63"/>
+      <c r="M40" s="61"/>
+      <c r="N40" s="62"/>
+      <c r="O40" s="62"/>
+      <c r="P40" s="63"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="28"/>
@@ -3797,44 +3914,240 @@
         <v>1</v>
       </c>
       <c r="C41" s="64" t="s">
-        <v>346</v>
-      </c>
-      <c r="D41" s="72"/>
+        <v>343</v>
+      </c>
+      <c r="D41" s="66"/>
       <c r="E41" s="65"/>
       <c r="F41" s="3"/>
       <c r="G41" s="64" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="H41" s="65"/>
       <c r="I41" s="3"/>
       <c r="J41" s="4"/>
-      <c r="K41" s="61"/>
-      <c r="L41" s="63"/>
-      <c r="M41" s="61"/>
-      <c r="N41" s="62"/>
-      <c r="O41" s="62"/>
-      <c r="P41" s="63"/>
+      <c r="K41" s="58"/>
+      <c r="L41" s="59"/>
+      <c r="M41" s="58"/>
+      <c r="N41" s="60"/>
+      <c r="O41" s="60"/>
+      <c r="P41" s="59"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" s="28"/>
       <c r="B42" s="64"/>
-      <c r="C42" s="72"/>
-      <c r="D42" s="72"/>
+      <c r="C42" s="66"/>
+      <c r="D42" s="66"/>
       <c r="E42" s="65"/>
       <c r="F42" s="3"/>
       <c r="G42" s="64"/>
       <c r="H42" s="65"/>
       <c r="I42" s="3"/>
       <c r="J42" s="4"/>
-      <c r="K42" s="61"/>
-      <c r="L42" s="63"/>
-      <c r="M42" s="61"/>
-      <c r="N42" s="62"/>
-      <c r="O42" s="62"/>
-      <c r="P42" s="63"/>
+      <c r="K42" s="58"/>
+      <c r="L42" s="59"/>
+      <c r="M42" s="58"/>
+      <c r="N42" s="60"/>
+      <c r="O42" s="60"/>
+      <c r="P42" s="59"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A43" s="27">
+        <v>2</v>
+      </c>
+      <c r="B43" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" s="55"/>
+      <c r="D43" s="32" t="s">
+        <v>411</v>
+      </c>
+      <c r="E43" s="34"/>
+      <c r="F43" s="34"/>
+      <c r="G43" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H43" s="32"/>
+      <c r="I43" s="34"/>
+      <c r="J43" s="33"/>
+      <c r="K43" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="L43" s="57"/>
+      <c r="M43" s="74" t="s">
+        <v>412</v>
+      </c>
+      <c r="N43" s="75"/>
+      <c r="O43" s="75"/>
+      <c r="P43" s="76"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A44" s="28"/>
+      <c r="B44" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" s="55"/>
+      <c r="D44" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="34"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H44" s="32" t="s">
+        <v>402</v>
+      </c>
+      <c r="I44" s="34"/>
+      <c r="J44" s="33"/>
+      <c r="K44" s="56" t="s">
+        <v>66</v>
+      </c>
+      <c r="L44" s="57"/>
+      <c r="M44" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="N44" s="52"/>
+      <c r="O44" s="52"/>
+      <c r="P44" s="53"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A45" s="28"/>
+      <c r="B45" s="54" t="s">
+        <v>98</v>
+      </c>
+      <c r="C45" s="55"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="34"/>
+      <c r="F45" s="34"/>
+      <c r="G45" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="H45" s="34"/>
+      <c r="I45" s="34"/>
+      <c r="J45" s="33"/>
+      <c r="K45" s="15"/>
+      <c r="L45" s="16"/>
+      <c r="M45" s="51"/>
+      <c r="N45" s="52"/>
+      <c r="O45" s="52"/>
+      <c r="P45" s="53"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A46" s="28"/>
+      <c r="B46" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="55"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="34"/>
+      <c r="F46" s="34"/>
+      <c r="G46" s="34"/>
+      <c r="H46" s="34"/>
+      <c r="I46" s="34"/>
+      <c r="J46" s="33"/>
+      <c r="K46" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="L46" s="57"/>
+      <c r="M46" s="51" t="s">
+        <v>102</v>
+      </c>
+      <c r="N46" s="52"/>
+      <c r="O46" s="52"/>
+      <c r="P46" s="53"/>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A47" s="28"/>
+      <c r="B47" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47" s="69"/>
+      <c r="D47" s="69"/>
+      <c r="E47" s="69"/>
+      <c r="F47" s="69"/>
+      <c r="G47" s="69"/>
+      <c r="H47" s="69"/>
+      <c r="I47" s="69"/>
+      <c r="J47" s="68"/>
+      <c r="K47" s="67"/>
+      <c r="L47" s="68"/>
+      <c r="M47" s="67"/>
+      <c r="N47" s="69"/>
+      <c r="O47" s="69"/>
+      <c r="P47" s="68"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A48" s="28"/>
+      <c r="B48" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C48" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="D48" s="70"/>
+      <c r="E48" s="57"/>
+      <c r="F48" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G48" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="H48" s="57"/>
+      <c r="I48" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="J48" s="57"/>
+      <c r="K48" s="61"/>
+      <c r="L48" s="63"/>
+      <c r="M48" s="61"/>
+      <c r="N48" s="62"/>
+      <c r="O48" s="62"/>
+      <c r="P48" s="63"/>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A49" s="28"/>
+      <c r="B49" s="8">
+        <v>1</v>
+      </c>
+      <c r="C49" s="64" t="s">
+        <v>413</v>
+      </c>
+      <c r="D49" s="66"/>
+      <c r="E49" s="65"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="64" t="s">
+        <v>413</v>
+      </c>
+      <c r="H49" s="65"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="58"/>
+      <c r="L49" s="59"/>
+      <c r="M49" s="58"/>
+      <c r="N49" s="60"/>
+      <c r="O49" s="60"/>
+      <c r="P49" s="59"/>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A50" s="28"/>
+      <c r="B50" s="64"/>
+      <c r="C50" s="66"/>
+      <c r="D50" s="66"/>
+      <c r="E50" s="65"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="64"/>
+      <c r="H50" s="65"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="58"/>
+      <c r="L50" s="59"/>
+      <c r="M50" s="58"/>
+      <c r="N50" s="60"/>
+      <c r="O50" s="60"/>
+      <c r="P50" s="59"/>
     </row>
   </sheetData>
-  <mergeCells count="49">
+  <mergeCells count="84">
     <mergeCell ref="A5:P5"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:G1"/>
@@ -3884,10 +4197,46 @@
     <mergeCell ref="G41:H41"/>
     <mergeCell ref="K41:L41"/>
     <mergeCell ref="M41:P41"/>
+    <mergeCell ref="A43:A50"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="B47:J47"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="M43:P43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="M44:P44"/>
+    <mergeCell ref="M45:P45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:J46"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="M46:P46"/>
+    <mergeCell ref="M47:P47"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="M48:P48"/>
+    <mergeCell ref="M49:P49"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="M50:P50"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="M35:P35" location="nop_dyn_entity_meta!A1" display="NopDynEntityMeta" xr:uid="{33AE4065-0F68-4806-879B-8B3C0D52F0DF}"/>
+    <hyperlink ref="M43:P43" location="nop_dyn_domain!A1" display="NopDynDomain" xr:uid="{5E9AFE7B-6052-4101-8215-3EB9FF91CEF6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -3895,6 +4244,672 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D349AB67-F500-46D9-95AE-D8168334F4A6}">
+  <dimension ref="A1:P21"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.33203125" customWidth="1"/>
+    <col min="2" max="2" width="4.4140625" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.9140625" customWidth="1"/>
+    <col min="5" max="5" width="5.08203125" customWidth="1"/>
+    <col min="6" max="6" width="15.08203125" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="9" max="9" width="4.75" customWidth="1"/>
+    <col min="10" max="10" width="11" customWidth="1"/>
+    <col min="11" max="11" width="6.08203125" customWidth="1"/>
+    <col min="12" max="12" width="8.25" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="48" t="s">
+        <v>414</v>
+      </c>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="32"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="51" t="s">
+        <v>402</v>
+      </c>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="32"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="33"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="46"/>
+      <c r="O6" s="46"/>
+      <c r="P6" s="46"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
+        <v>1</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>408</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="H8" s="9"/>
+      <c r="I8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="7">
+        <v>32</v>
+      </c>
+      <c r="L8" s="7"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="1"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
+        <v>2</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="H9" s="9"/>
+      <c r="I9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="7">
+        <v>50</v>
+      </c>
+      <c r="L9" s="7"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
+        <v>3</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="H10" s="9"/>
+      <c r="I10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" s="7">
+        <v>100</v>
+      </c>
+      <c r="L10" s="7"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="1"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
+        <v>4</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" s="9"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K11" s="7">
+        <v>50</v>
+      </c>
+      <c r="L11" s="7"/>
+      <c r="M11" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="N11" s="9"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="1"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="7">
+        <v>5</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="H12" s="9"/>
+      <c r="I12" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12" s="7">
+        <v>10</v>
+      </c>
+      <c r="L12" s="7"/>
+      <c r="M12" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="N12" s="9"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="1"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="7">
+        <v>6</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" s="9"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="1"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="7">
+        <v>7</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" s="9"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9">
+        <v>0</v>
+      </c>
+      <c r="O14" s="7"/>
+      <c r="P14" s="1"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" s="7">
+        <v>8</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="1"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="7">
+        <v>9</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K16" s="7">
+        <v>50</v>
+      </c>
+      <c r="L16" s="7"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="1"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A17" s="7">
+        <v>10</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="1"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18" s="7">
+        <v>11</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K18" s="7">
+        <v>50</v>
+      </c>
+      <c r="L18" s="7"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="1"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A19" s="7">
+        <v>12</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="1"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A20" s="7">
+        <v>13</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="I20" s="7"/>
+      <c r="J20" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K20" s="7">
+        <v>200</v>
+      </c>
+      <c r="L20" s="7"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="1"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:L4"/>
+    <mergeCell ref="A5:P5"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2A916FD-1DF6-4F49-9D99-66DD7EC19D8D}">
   <dimension ref="A1:P50"/>
   <sheetViews>
@@ -3925,7 +4940,7 @@
       <c r="B1" s="47"/>
       <c r="C1" s="47"/>
       <c r="D1" s="48" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E1" s="49"/>
       <c r="F1" s="49"/>
@@ -5143,33 +6158,33 @@
       <c r="P40" s="1"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A42" s="54" t="s">
+      <c r="A42" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="B42" s="55"/>
-      <c r="C42" s="55"/>
-      <c r="D42" s="55"/>
-      <c r="E42" s="55"/>
-      <c r="F42" s="55"/>
-      <c r="G42" s="55"/>
-      <c r="H42" s="55"/>
-      <c r="I42" s="55"/>
-      <c r="J42" s="55"/>
-      <c r="K42" s="55"/>
-      <c r="L42" s="55"/>
-      <c r="M42" s="55"/>
-      <c r="N42" s="55"/>
-      <c r="O42" s="55"/>
-      <c r="P42" s="56"/>
+      <c r="B42" s="72"/>
+      <c r="C42" s="72"/>
+      <c r="D42" s="72"/>
+      <c r="E42" s="72"/>
+      <c r="F42" s="72"/>
+      <c r="G42" s="72"/>
+      <c r="H42" s="72"/>
+      <c r="I42" s="72"/>
+      <c r="J42" s="72"/>
+      <c r="K42" s="72"/>
+      <c r="L42" s="72"/>
+      <c r="M42" s="72"/>
+      <c r="N42" s="72"/>
+      <c r="O42" s="72"/>
+      <c r="P42" s="73"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" s="27">
         <v>2</v>
       </c>
-      <c r="B43" s="57" t="s">
+      <c r="B43" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="C43" s="58"/>
+      <c r="C43" s="55"/>
       <c r="D43" s="32" t="s">
         <v>161</v>
       </c>
@@ -5183,12 +6198,12 @@
       </c>
       <c r="I43" s="34"/>
       <c r="J43" s="33"/>
-      <c r="K43" s="59" t="s">
+      <c r="K43" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="L43" s="60"/>
+      <c r="L43" s="57"/>
       <c r="M43" s="51" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="N43" s="52"/>
       <c r="O43" s="52"/>
@@ -5196,10 +6211,10 @@
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="28"/>
-      <c r="B44" s="57" t="s">
+      <c r="B44" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="C44" s="58"/>
+      <c r="C44" s="55"/>
       <c r="D44" s="32" t="s">
         <v>163</v>
       </c>
@@ -5213,10 +6228,10 @@
       </c>
       <c r="I44" s="34"/>
       <c r="J44" s="33"/>
-      <c r="K44" s="59" t="s">
+      <c r="K44" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="L44" s="60"/>
+      <c r="L44" s="57"/>
       <c r="M44" s="51" t="s">
         <v>67</v>
       </c>
@@ -5226,10 +6241,10 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" s="28"/>
-      <c r="B45" s="57" t="s">
+      <c r="B45" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="C45" s="58"/>
+      <c r="C45" s="55"/>
       <c r="D45" s="32" t="s">
         <v>165</v>
       </c>
@@ -5252,10 +6267,10 @@
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" s="28"/>
-      <c r="B46" s="57" t="s">
+      <c r="B46" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="C46" s="58"/>
+      <c r="C46" s="55"/>
       <c r="D46" s="32"/>
       <c r="E46" s="34"/>
       <c r="F46" s="34"/>
@@ -5263,10 +6278,10 @@
       <c r="H46" s="34"/>
       <c r="I46" s="34"/>
       <c r="J46" s="33"/>
-      <c r="K46" s="59" t="s">
+      <c r="K46" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="L46" s="60"/>
+      <c r="L46" s="57"/>
       <c r="M46" s="51" t="s">
         <v>141</v>
       </c>
@@ -5276,51 +6291,51 @@
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" s="28"/>
-      <c r="B47" s="69" t="s">
+      <c r="B47" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="C47" s="71"/>
-      <c r="D47" s="71"/>
-      <c r="E47" s="71"/>
-      <c r="F47" s="71"/>
-      <c r="G47" s="71"/>
-      <c r="H47" s="71"/>
-      <c r="I47" s="71"/>
-      <c r="J47" s="70"/>
-      <c r="K47" s="69"/>
-      <c r="L47" s="70"/>
-      <c r="M47" s="69"/>
-      <c r="N47" s="71"/>
-      <c r="O47" s="71"/>
-      <c r="P47" s="70"/>
+      <c r="C47" s="69"/>
+      <c r="D47" s="69"/>
+      <c r="E47" s="69"/>
+      <c r="F47" s="69"/>
+      <c r="G47" s="69"/>
+      <c r="H47" s="69"/>
+      <c r="I47" s="69"/>
+      <c r="J47" s="68"/>
+      <c r="K47" s="67"/>
+      <c r="L47" s="68"/>
+      <c r="M47" s="67"/>
+      <c r="N47" s="69"/>
+      <c r="O47" s="69"/>
+      <c r="P47" s="68"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" s="28"/>
       <c r="B48" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C48" s="59" t="s">
+      <c r="C48" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="D48" s="73"/>
-      <c r="E48" s="60"/>
+      <c r="D48" s="70"/>
+      <c r="E48" s="57"/>
       <c r="F48" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G48" s="59" t="s">
+      <c r="G48" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="H48" s="60"/>
-      <c r="I48" s="59" t="s">
+      <c r="H48" s="57"/>
+      <c r="I48" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="J48" s="60"/>
-      <c r="K48" s="66"/>
-      <c r="L48" s="68"/>
-      <c r="M48" s="66"/>
-      <c r="N48" s="67"/>
-      <c r="O48" s="67"/>
-      <c r="P48" s="68"/>
+      <c r="J48" s="57"/>
+      <c r="K48" s="61"/>
+      <c r="L48" s="63"/>
+      <c r="M48" s="61"/>
+      <c r="N48" s="62"/>
+      <c r="O48" s="62"/>
+      <c r="P48" s="63"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" s="28"/>
@@ -5330,7 +6345,7 @@
       <c r="C49" s="64" t="s">
         <v>167</v>
       </c>
-      <c r="D49" s="72"/>
+      <c r="D49" s="66"/>
       <c r="E49" s="65"/>
       <c r="F49" s="3"/>
       <c r="G49" s="64" t="s">
@@ -5339,30 +6354,30 @@
       <c r="H49" s="65"/>
       <c r="I49" s="3"/>
       <c r="J49" s="4"/>
-      <c r="K49" s="61"/>
-      <c r="L49" s="63"/>
-      <c r="M49" s="61"/>
-      <c r="N49" s="62"/>
-      <c r="O49" s="62"/>
-      <c r="P49" s="63"/>
+      <c r="K49" s="58"/>
+      <c r="L49" s="59"/>
+      <c r="M49" s="58"/>
+      <c r="N49" s="60"/>
+      <c r="O49" s="60"/>
+      <c r="P49" s="59"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50" s="28"/>
       <c r="B50" s="64"/>
-      <c r="C50" s="72"/>
-      <c r="D50" s="72"/>
+      <c r="C50" s="66"/>
+      <c r="D50" s="66"/>
       <c r="E50" s="65"/>
       <c r="F50" s="3"/>
       <c r="G50" s="64"/>
       <c r="H50" s="65"/>
       <c r="I50" s="3"/>
       <c r="J50" s="4"/>
-      <c r="K50" s="61"/>
-      <c r="L50" s="63"/>
-      <c r="M50" s="61"/>
-      <c r="N50" s="62"/>
-      <c r="O50" s="62"/>
-      <c r="P50" s="63"/>
+      <c r="K50" s="58"/>
+      <c r="L50" s="59"/>
+      <c r="M50" s="58"/>
+      <c r="N50" s="60"/>
+      <c r="O50" s="60"/>
+      <c r="P50" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="49">
@@ -5427,7 +6442,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -5464,7 +6479,7 @@
         <v>68</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>74</v>
@@ -5475,7 +6490,7 @@
         <v>85</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>84</v>
@@ -5486,7 +6501,7 @@
         <v>83</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>75</v>
@@ -5508,7 +6523,7 @@
         <v>70</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>77</v>
@@ -5592,12 +6607,14 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.9140625" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
     <col min="5" max="5" width="9.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5965,11 +6982,21 @@
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
+      <c r="A22" s="7">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="1">
+        <v>100</v>
+      </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
@@ -6051,7 +7078,7 @@
       </c>
       <c r="C1" s="31"/>
       <c r="D1" s="32" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E1" s="33"/>
       <c r="F1" s="18" t="s">
@@ -6068,14 +7095,14 @@
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="32" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E2" s="33"/>
       <c r="F2" s="18" t="s">
         <v>129</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -6182,7 +7209,7 @@
       </c>
       <c r="C10" s="31"/>
       <c r="D10" s="32" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E10" s="33"/>
       <c r="F10" s="18" t="s">
@@ -6199,14 +7226,14 @@
       </c>
       <c r="C11" s="31"/>
       <c r="D11" s="32" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E11" s="33"/>
       <c r="F11" s="18" t="s">
         <v>129</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -6313,14 +7340,14 @@
       </c>
       <c r="C19" s="31"/>
       <c r="D19" s="32" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E19" s="33"/>
       <c r="F19" s="18" t="s">
         <v>126</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -6330,14 +7357,14 @@
       </c>
       <c r="C20" s="31"/>
       <c r="D20" s="32" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E20" s="33"/>
       <c r="F20" s="18" t="s">
         <v>129</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -6389,13 +7416,13 @@
         <v>1</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E24" s="22" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F24" s="22"/>
       <c r="G24" s="22"/>
@@ -6406,13 +7433,13 @@
         <v>2</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E25" s="22" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F25" s="22"/>
       <c r="G25" s="22"/>
@@ -6423,13 +7450,13 @@
         <v>3</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F26" s="22"/>
       <c r="G26" s="24"/>
@@ -6452,7 +7479,7 @@
       </c>
       <c r="C28" s="31"/>
       <c r="D28" s="32" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="E28" s="33"/>
       <c r="F28" s="18" t="s">
@@ -6469,14 +7496,14 @@
       </c>
       <c r="C29" s="31"/>
       <c r="D29" s="32" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E29" s="33"/>
       <c r="F29" s="18" t="s">
         <v>129</v>
       </c>
       <c r="G29" s="19" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -6531,10 +7558,10 @@
         <v>0</v>
       </c>
       <c r="D33" s="22" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E33" s="22" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F33" s="22"/>
       <c r="G33" s="22"/>
@@ -6548,10 +7575,10 @@
         <v>10</v>
       </c>
       <c r="D34" s="22" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E34" s="22" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="F34" s="22"/>
       <c r="G34" s="22"/>
@@ -6640,7 +7667,7 @@
       <c r="B1" s="47"/>
       <c r="C1" s="47"/>
       <c r="D1" s="48" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E1" s="49"/>
       <c r="F1" s="49"/>
@@ -6664,7 +7691,7 @@
       <c r="B2" s="47"/>
       <c r="C2" s="47"/>
       <c r="D2" s="48" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E2" s="49"/>
       <c r="F2" s="49"/>
@@ -6673,7 +7700,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="51" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="J2" s="52"/>
       <c r="K2" s="52"/>
@@ -6822,16 +7849,16 @@
         <v>87</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>104</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="H8" s="9"/>
       <c r="I8" s="7" t="s">
@@ -6856,14 +7883,14 @@
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="9" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="7" t="s">
@@ -6897,7 +7924,7 @@
         <v>142</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="7" t="s">
@@ -6941,7 +7968,7 @@
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
       <c r="M11" s="26" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="O11" s="7"/>
       <c r="P11" s="1"/>
@@ -7184,10 +8211,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F0DE455-FF29-43D0-9612-7232A83DF9B7}">
-  <dimension ref="A1:P29"/>
+  <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -7213,7 +8240,7 @@
       <c r="B1" s="47"/>
       <c r="C1" s="47"/>
       <c r="D1" s="48" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E1" s="49"/>
       <c r="F1" s="49"/>
@@ -7237,7 +8264,7 @@
       <c r="B2" s="47"/>
       <c r="C2" s="47"/>
       <c r="D2" s="48" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E2" s="49"/>
       <c r="F2" s="49"/>
@@ -7246,7 +8273,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="51" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="J2" s="52"/>
       <c r="K2" s="52"/>
@@ -7429,16 +8456,18 @@
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="9" t="s">
-        <v>241</v>
+        <v>398</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="9" t="s">
-        <v>242</v>
+        <v>399</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="H9" s="9"/>
+        <v>400</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>397</v>
+      </c>
       <c r="I9" s="7" t="s">
         <v>27</v>
       </c>
@@ -7446,7 +8475,7 @@
         <v>28</v>
       </c>
       <c r="K9" s="7">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L9" s="7"/>
       <c r="M9" s="9"/>
@@ -7459,32 +8488,30 @@
         <v>3</v>
       </c>
       <c r="B10" s="7"/>
-      <c r="C10" s="7" t="s">
-        <v>106</v>
-      </c>
+      <c r="C10" s="7"/>
       <c r="D10" s="9" t="s">
-        <v>60</v>
+        <v>393</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="9" t="s">
-        <v>142</v>
+        <v>394</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>244</v>
+        <v>395</v>
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="7" t="s">
         <v>27</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K10" s="7">
-        <v>200</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="K10" s="7"/>
       <c r="L10" s="7"/>
       <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
+      <c r="N10" s="9">
+        <v>1</v>
+      </c>
       <c r="O10" s="7"/>
       <c r="P10" s="1"/>
     </row>
@@ -7493,24 +8520,28 @@
         <v>4</v>
       </c>
       <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
+      <c r="C11" s="7" t="s">
+        <v>106</v>
+      </c>
       <c r="D11" s="9" t="s">
-        <v>257</v>
+        <v>60</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="9" t="s">
-        <v>258</v>
+        <v>142</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="H11" s="9"/>
-      <c r="I11" s="7"/>
+      <c r="I11" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="J11" s="9" t="s">
         <v>28</v>
       </c>
       <c r="K11" s="7">
-        <v>32</v>
+        <v>200</v>
       </c>
       <c r="L11" s="7"/>
       <c r="M11" s="9"/>
@@ -7525,27 +8556,26 @@
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="9" t="s">
-        <v>33</v>
+        <v>254</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="9" t="s">
-        <v>34</v>
+        <v>255</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>95</v>
+        <v>256</v>
       </c>
       <c r="H12" s="9"/>
-      <c r="I12" s="7" t="s">
-        <v>27</v>
-      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="K12" s="7"/>
+        <v>28</v>
+      </c>
+      <c r="K12" s="7">
+        <v>100</v>
+      </c>
       <c r="L12" s="7"/>
-      <c r="M12" s="26" t="s">
-        <v>254</v>
-      </c>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
       <c r="O12" s="7"/>
       <c r="P12" s="1"/>
     </row>
@@ -7556,27 +8586,23 @@
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>104</v>
-      </c>
+        <v>415</v>
+      </c>
+      <c r="E13" s="7"/>
       <c r="F13" s="9" t="s">
-        <v>37</v>
+        <v>416</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>27</v>
-      </c>
+        <v>417</v>
+      </c>
+      <c r="H13" s="9"/>
+      <c r="I13" s="7"/>
       <c r="J13" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="K13" s="7"/>
+        <v>28</v>
+      </c>
+      <c r="K13" s="7">
+        <v>200</v>
+      </c>
       <c r="L13" s="7"/>
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
@@ -7590,28 +8616,22 @@
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>233</v>
-      </c>
+        <v>418</v>
+      </c>
+      <c r="E14" s="7"/>
       <c r="F14" s="9" t="s">
-        <v>40</v>
+        <v>419</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>27</v>
-      </c>
+        <v>420</v>
+      </c>
+      <c r="H14" s="9"/>
+      <c r="I14" s="7"/>
       <c r="J14" s="9" t="s">
         <v>28</v>
       </c>
       <c r="K14" s="7">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="L14" s="7"/>
       <c r="M14" s="9"/>
@@ -7626,30 +8646,27 @@
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>233</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="E15" s="7"/>
       <c r="F15" s="9" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>91</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="H15" s="9"/>
       <c r="I15" s="7" t="s">
         <v>27</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
+      <c r="M15" s="26" t="s">
+        <v>251</v>
+      </c>
       <c r="O15" s="7"/>
       <c r="P15" s="1"/>
     </row>
@@ -7660,29 +8677,27 @@
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="9" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>233</v>
+        <v>104</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I16" s="7" t="s">
         <v>27</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K16" s="7">
-        <v>50</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="K16" s="7"/>
       <c r="L16" s="7"/>
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
@@ -7696,27 +8711,29 @@
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="9" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>233</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="I17" s="7" t="s">
         <v>27</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="K17" s="7"/>
+        <v>28</v>
+      </c>
+      <c r="K17" s="7">
+        <v>50</v>
+      </c>
       <c r="L17" s="7"/>
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
@@ -7724,16 +8741,32 @@
       <c r="P17" s="1"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="7"/>
+      <c r="A18" s="7">
+        <v>11</v>
+      </c>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="9"/>
+      <c r="D18" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>46</v>
+      </c>
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
       <c r="M18" s="9"/>
@@ -7742,146 +8775,158 @@
       <c r="P18" s="1"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="32"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="34"/>
-      <c r="M19" s="34"/>
-      <c r="N19" s="34"/>
-      <c r="O19" s="34"/>
-      <c r="P19" s="33"/>
+      <c r="A19" s="7">
+        <v>12</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K19" s="7">
+        <v>50</v>
+      </c>
+      <c r="L19" s="7"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="1"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A20" s="7">
+        <v>13</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="1"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="55"/>
-      <c r="C21" s="55"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="55"/>
-      <c r="J21" s="55"/>
-      <c r="K21" s="55"/>
-      <c r="L21" s="55"/>
-      <c r="M21" s="55"/>
-      <c r="N21" s="55"/>
-      <c r="O21" s="55"/>
-      <c r="P21" s="56"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="1"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="27">
-        <v>1</v>
-      </c>
-      <c r="B22" s="57" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="58"/>
-      <c r="D22" s="32" t="s">
-        <v>275</v>
-      </c>
+      <c r="A22" s="32"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
       <c r="E22" s="34"/>
       <c r="F22" s="34"/>
-      <c r="G22" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H22" s="32" t="s">
-        <v>276</v>
-      </c>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
       <c r="I22" s="34"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="59" t="s">
-        <v>58</v>
-      </c>
-      <c r="L22" s="60"/>
-      <c r="M22" s="51" t="s">
-        <v>277</v>
-      </c>
-      <c r="N22" s="52"/>
-      <c r="O22" s="52"/>
-      <c r="P22" s="53"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="28"/>
-      <c r="B23" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" s="58"/>
-      <c r="D23" s="32" t="s">
-        <v>278</v>
-      </c>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H23" s="32" t="s">
-        <v>279</v>
-      </c>
-      <c r="I23" s="34"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="59" t="s">
-        <v>66</v>
-      </c>
-      <c r="L23" s="60"/>
-      <c r="M23" s="51" t="s">
-        <v>67</v>
-      </c>
-      <c r="N23" s="52"/>
-      <c r="O23" s="52"/>
-      <c r="P23" s="53"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="34"/>
+      <c r="M22" s="34"/>
+      <c r="N22" s="34"/>
+      <c r="O22" s="34"/>
+      <c r="P22" s="33"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="28"/>
-      <c r="B24" s="57" t="s">
-        <v>98</v>
-      </c>
-      <c r="C24" s="58"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="H24" s="34"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="51"/>
-      <c r="N24" s="52"/>
-      <c r="O24" s="52"/>
-      <c r="P24" s="53"/>
+      <c r="A24" s="71" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="72"/>
+      <c r="C24" s="72"/>
+      <c r="D24" s="72"/>
+      <c r="E24" s="72"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="72"/>
+      <c r="H24" s="72"/>
+      <c r="I24" s="72"/>
+      <c r="J24" s="72"/>
+      <c r="K24" s="72"/>
+      <c r="L24" s="72"/>
+      <c r="M24" s="72"/>
+      <c r="N24" s="72"/>
+      <c r="O24" s="72"/>
+      <c r="P24" s="73"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="28"/>
-      <c r="B25" s="57" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" s="58"/>
-      <c r="D25" s="32"/>
+      <c r="A25" s="27">
+        <v>1</v>
+      </c>
+      <c r="B25" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="55"/>
+      <c r="D25" s="32" t="s">
+        <v>272</v>
+      </c>
       <c r="E25" s="34"/>
       <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
+      <c r="G25" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H25" s="32" t="s">
+        <v>273</v>
+      </c>
       <c r="I25" s="34"/>
       <c r="J25" s="33"/>
-      <c r="K25" s="59" t="s">
-        <v>9</v>
-      </c>
-      <c r="L25" s="60"/>
+      <c r="K25" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="L25" s="57"/>
       <c r="M25" s="51" t="s">
-        <v>102</v>
+        <v>274</v>
       </c>
       <c r="N25" s="52"/>
       <c r="O25" s="52"/>
@@ -7889,103 +8934,193 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="28"/>
-      <c r="B26" s="69" t="s">
-        <v>19</v>
-      </c>
-      <c r="C26" s="71"/>
-      <c r="D26" s="71"/>
-      <c r="E26" s="71"/>
-      <c r="F26" s="71"/>
-      <c r="G26" s="71"/>
-      <c r="H26" s="71"/>
-      <c r="I26" s="71"/>
-      <c r="J26" s="70"/>
-      <c r="K26" s="69"/>
-      <c r="L26" s="70"/>
-      <c r="M26" s="69"/>
-      <c r="N26" s="71"/>
-      <c r="O26" s="71"/>
-      <c r="P26" s="70"/>
+      <c r="B26" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="55"/>
+      <c r="D26" s="32" t="s">
+        <v>275</v>
+      </c>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H26" s="32" t="s">
+        <v>276</v>
+      </c>
+      <c r="I26" s="34"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="56" t="s">
+        <v>66</v>
+      </c>
+      <c r="L26" s="57"/>
+      <c r="M26" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="N26" s="52"/>
+      <c r="O26" s="52"/>
+      <c r="P26" s="53"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="28"/>
-      <c r="B27" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="D27" s="73"/>
-      <c r="E27" s="60"/>
-      <c r="F27" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G27" s="59" t="s">
-        <v>17</v>
-      </c>
-      <c r="H27" s="60"/>
-      <c r="I27" s="59" t="s">
-        <v>18</v>
-      </c>
-      <c r="J27" s="60"/>
-      <c r="K27" s="66"/>
-      <c r="L27" s="68"/>
-      <c r="M27" s="66"/>
-      <c r="N27" s="67"/>
-      <c r="O27" s="67"/>
-      <c r="P27" s="68"/>
+      <c r="B27" s="54" t="s">
+        <v>98</v>
+      </c>
+      <c r="C27" s="55"/>
+      <c r="D27" s="32" t="s">
+        <v>391</v>
+      </c>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="H27" s="34" t="s">
+        <v>392</v>
+      </c>
+      <c r="I27" s="34"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="51"/>
+      <c r="N27" s="52"/>
+      <c r="O27" s="52"/>
+      <c r="P27" s="53"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="28"/>
-      <c r="B28" s="8">
-        <v>1</v>
-      </c>
-      <c r="C28" s="64" t="s">
-        <v>280</v>
-      </c>
-      <c r="D28" s="72"/>
-      <c r="E28" s="65"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="64" t="s">
-        <v>281</v>
-      </c>
-      <c r="H28" s="65"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="61"/>
-      <c r="L28" s="63"/>
-      <c r="M28" s="61"/>
-      <c r="N28" s="62"/>
-      <c r="O28" s="62"/>
-      <c r="P28" s="63"/>
+      <c r="B28" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="55"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="L28" s="57"/>
+      <c r="M28" s="51" t="s">
+        <v>102</v>
+      </c>
+      <c r="N28" s="52"/>
+      <c r="O28" s="52"/>
+      <c r="P28" s="53"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="28"/>
-      <c r="B29" s="64"/>
-      <c r="C29" s="72"/>
-      <c r="D29" s="72"/>
-      <c r="E29" s="65"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="64"/>
-      <c r="H29" s="65"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="61"/>
-      <c r="L29" s="63"/>
-      <c r="M29" s="61"/>
-      <c r="N29" s="62"/>
-      <c r="O29" s="62"/>
-      <c r="P29" s="63"/>
+      <c r="B29" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="69"/>
+      <c r="D29" s="69"/>
+      <c r="E29" s="69"/>
+      <c r="F29" s="69"/>
+      <c r="G29" s="69"/>
+      <c r="H29" s="69"/>
+      <c r="I29" s="69"/>
+      <c r="J29" s="68"/>
+      <c r="K29" s="67"/>
+      <c r="L29" s="68"/>
+      <c r="M29" s="67"/>
+      <c r="N29" s="69"/>
+      <c r="O29" s="69"/>
+      <c r="P29" s="68"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A30" s="28"/>
+      <c r="B30" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="70"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="H30" s="57"/>
+      <c r="I30" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="J30" s="57"/>
+      <c r="K30" s="61"/>
+      <c r="L30" s="63"/>
+      <c r="M30" s="61"/>
+      <c r="N30" s="62"/>
+      <c r="O30" s="62"/>
+      <c r="P30" s="63"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A31" s="28"/>
+      <c r="B31" s="8">
+        <v>1</v>
+      </c>
+      <c r="C31" s="64" t="s">
+        <v>277</v>
+      </c>
+      <c r="D31" s="66"/>
+      <c r="E31" s="65"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="64" t="s">
+        <v>278</v>
+      </c>
+      <c r="H31" s="65"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="58"/>
+      <c r="L31" s="59"/>
+      <c r="M31" s="58"/>
+      <c r="N31" s="60"/>
+      <c r="O31" s="60"/>
+      <c r="P31" s="59"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A32" s="28"/>
+      <c r="B32" s="64"/>
+      <c r="C32" s="66"/>
+      <c r="D32" s="66"/>
+      <c r="E32" s="65"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="64"/>
+      <c r="H32" s="65"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="58"/>
+      <c r="L32" s="59"/>
+      <c r="M32" s="58"/>
+      <c r="N32" s="60"/>
+      <c r="O32" s="60"/>
+      <c r="P32" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="50">
     <mergeCell ref="D4:L4"/>
     <mergeCell ref="A5:P5"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="D28:J28"/>
+    <mergeCell ref="B29:J29"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="A24:P24"/>
+    <mergeCell ref="A25:A32"/>
     <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="H25:J25"/>
     <mergeCell ref="K25:L25"/>
-    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B32:E32"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="I1:M1"/>
@@ -7993,46 +9128,36 @@
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="I2:M2"/>
     <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A19:P19"/>
+    <mergeCell ref="A22:P22"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="I3:M3"/>
     <mergeCell ref="A4:C4"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:P32"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="M27:P27"/>
     <mergeCell ref="M25:P25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="H26:J26"/>
     <mergeCell ref="K26:L26"/>
     <mergeCell ref="M26:P26"/>
-    <mergeCell ref="D25:J25"/>
-    <mergeCell ref="B26:J26"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:P29"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="A21:P21"/>
-    <mergeCell ref="A22:A29"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="M24:P24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="M12" location="module_status" display="dyn/module-status" xr:uid="{174FD3E6-972E-4559-99B0-FA9A9C9F0A53}"/>
+    <hyperlink ref="M15" location="module_status" display="dyn/module-status" xr:uid="{174FD3E6-972E-4559-99B0-FA9A9C9F0A53}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -8044,7 +9169,7 @@
   <dimension ref="A1:P34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:G3"/>
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -8070,7 +9195,7 @@
       <c r="B1" s="47"/>
       <c r="C1" s="47"/>
       <c r="D1" s="48" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="E1" s="49"/>
       <c r="F1" s="49"/>
@@ -8094,7 +9219,7 @@
       <c r="B2" s="47"/>
       <c r="C2" s="47"/>
       <c r="D2" s="48" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E2" s="49"/>
       <c r="F2" s="49"/>
@@ -8103,7 +9228,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="51" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="J2" s="52"/>
       <c r="K2" s="52"/>
@@ -8120,7 +9245,7 @@
       <c r="B3" s="47"/>
       <c r="C3" s="47"/>
       <c r="D3" s="48" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="E3" s="49"/>
       <c r="F3" s="49"/>
@@ -8254,14 +9379,14 @@
         <v>87</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="9" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="H8" s="9"/>
       <c r="I8" s="7" t="s">
@@ -8526,35 +9651,35 @@
       <c r="P16" s="33"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="54" t="s">
+      <c r="A18" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="55"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="55"/>
-      <c r="J18" s="55"/>
-      <c r="K18" s="55"/>
-      <c r="L18" s="55"/>
-      <c r="M18" s="55"/>
-      <c r="N18" s="55"/>
-      <c r="O18" s="55"/>
-      <c r="P18" s="56"/>
+      <c r="B18" s="72"/>
+      <c r="C18" s="72"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="72"/>
+      <c r="I18" s="72"/>
+      <c r="J18" s="72"/>
+      <c r="K18" s="72"/>
+      <c r="L18" s="72"/>
+      <c r="M18" s="72"/>
+      <c r="N18" s="72"/>
+      <c r="O18" s="72"/>
+      <c r="P18" s="73"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="27">
         <v>1</v>
       </c>
-      <c r="B19" s="57" t="s">
+      <c r="B19" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="58"/>
+      <c r="C19" s="55"/>
       <c r="D19" s="32" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="E19" s="34"/>
       <c r="F19" s="34"/>
@@ -8562,16 +9687,16 @@
         <v>57</v>
       </c>
       <c r="H19" s="32" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="I19" s="34"/>
       <c r="J19" s="33"/>
-      <c r="K19" s="59" t="s">
+      <c r="K19" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="L19" s="60"/>
+      <c r="L19" s="57"/>
       <c r="M19" s="74" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="N19" s="75"/>
       <c r="O19" s="75"/>
@@ -8579,12 +9704,12 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="28"/>
-      <c r="B20" s="57" t="s">
+      <c r="B20" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="58"/>
+      <c r="C20" s="55"/>
       <c r="D20" s="32" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="E20" s="34"/>
       <c r="F20" s="34"/>
@@ -8592,14 +9717,14 @@
         <v>3</v>
       </c>
       <c r="H20" s="32" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="I20" s="34"/>
       <c r="J20" s="33"/>
-      <c r="K20" s="59" t="s">
+      <c r="K20" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="L20" s="60"/>
+      <c r="L20" s="57"/>
       <c r="M20" s="51" t="s">
         <v>67</v>
       </c>
@@ -8609,10 +9734,10 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="28"/>
-      <c r="B21" s="57" t="s">
+      <c r="B21" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="C21" s="58"/>
+      <c r="C21" s="55"/>
       <c r="D21" s="32"/>
       <c r="E21" s="34"/>
       <c r="F21" s="34"/>
@@ -8631,10 +9756,10 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="28"/>
-      <c r="B22" s="57" t="s">
+      <c r="B22" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="58"/>
+      <c r="C22" s="55"/>
       <c r="D22" s="32"/>
       <c r="E22" s="34"/>
       <c r="F22" s="34"/>
@@ -8642,10 +9767,10 @@
       <c r="H22" s="34"/>
       <c r="I22" s="34"/>
       <c r="J22" s="33"/>
-      <c r="K22" s="59" t="s">
+      <c r="K22" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="L22" s="60"/>
+      <c r="L22" s="57"/>
       <c r="M22" s="51" t="s">
         <v>143</v>
       </c>
@@ -8655,51 +9780,51 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="28"/>
-      <c r="B23" s="69" t="s">
+      <c r="B23" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="71"/>
-      <c r="D23" s="71"/>
-      <c r="E23" s="71"/>
-      <c r="F23" s="71"/>
-      <c r="G23" s="71"/>
-      <c r="H23" s="71"/>
-      <c r="I23" s="71"/>
-      <c r="J23" s="70"/>
-      <c r="K23" s="69"/>
-      <c r="L23" s="70"/>
-      <c r="M23" s="69"/>
-      <c r="N23" s="71"/>
-      <c r="O23" s="71"/>
-      <c r="P23" s="70"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="69"/>
+      <c r="H23" s="69"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="68"/>
+      <c r="K23" s="67"/>
+      <c r="L23" s="68"/>
+      <c r="M23" s="67"/>
+      <c r="N23" s="69"/>
+      <c r="O23" s="69"/>
+      <c r="P23" s="68"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="28"/>
       <c r="B24" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="59" t="s">
+      <c r="C24" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="73"/>
-      <c r="E24" s="60"/>
+      <c r="D24" s="70"/>
+      <c r="E24" s="57"/>
       <c r="F24" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G24" s="59" t="s">
+      <c r="G24" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="H24" s="60"/>
-      <c r="I24" s="59" t="s">
+      <c r="H24" s="57"/>
+      <c r="I24" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="J24" s="60"/>
-      <c r="K24" s="66"/>
-      <c r="L24" s="68"/>
-      <c r="M24" s="66"/>
-      <c r="N24" s="67"/>
-      <c r="O24" s="67"/>
-      <c r="P24" s="68"/>
+      <c r="J24" s="57"/>
+      <c r="K24" s="61"/>
+      <c r="L24" s="63"/>
+      <c r="M24" s="61"/>
+      <c r="N24" s="62"/>
+      <c r="O24" s="62"/>
+      <c r="P24" s="63"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="28"/>
@@ -8707,52 +9832,52 @@
         <v>1</v>
       </c>
       <c r="C25" s="64" t="s">
-        <v>306</v>
-      </c>
-      <c r="D25" s="72"/>
+        <v>303</v>
+      </c>
+      <c r="D25" s="66"/>
       <c r="E25" s="65"/>
       <c r="F25" s="3"/>
       <c r="G25" s="64" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="H25" s="65"/>
       <c r="I25" s="3"/>
       <c r="J25" s="4"/>
-      <c r="K25" s="61"/>
-      <c r="L25" s="63"/>
-      <c r="M25" s="61"/>
-      <c r="N25" s="62"/>
-      <c r="O25" s="62"/>
-      <c r="P25" s="63"/>
+      <c r="K25" s="58"/>
+      <c r="L25" s="59"/>
+      <c r="M25" s="58"/>
+      <c r="N25" s="60"/>
+      <c r="O25" s="60"/>
+      <c r="P25" s="59"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="28"/>
       <c r="B26" s="64"/>
-      <c r="C26" s="72"/>
-      <c r="D26" s="72"/>
+      <c r="C26" s="66"/>
+      <c r="D26" s="66"/>
       <c r="E26" s="65"/>
       <c r="F26" s="3"/>
       <c r="G26" s="64"/>
       <c r="H26" s="65"/>
       <c r="I26" s="3"/>
       <c r="J26" s="4"/>
-      <c r="K26" s="61"/>
-      <c r="L26" s="63"/>
-      <c r="M26" s="61"/>
-      <c r="N26" s="62"/>
-      <c r="O26" s="62"/>
-      <c r="P26" s="63"/>
+      <c r="K26" s="58"/>
+      <c r="L26" s="59"/>
+      <c r="M26" s="58"/>
+      <c r="N26" s="60"/>
+      <c r="O26" s="60"/>
+      <c r="P26" s="59"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="27">
         <v>2</v>
       </c>
-      <c r="B27" s="57" t="s">
+      <c r="B27" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="58"/>
+      <c r="C27" s="55"/>
       <c r="D27" s="32" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E27" s="34"/>
       <c r="F27" s="34"/>
@@ -8760,16 +9885,16 @@
         <v>57</v>
       </c>
       <c r="H27" s="32" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="I27" s="34"/>
       <c r="J27" s="33"/>
-      <c r="K27" s="59" t="s">
+      <c r="K27" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="L27" s="60"/>
+      <c r="L27" s="57"/>
       <c r="M27" s="74" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="N27" s="75"/>
       <c r="O27" s="75"/>
@@ -8777,12 +9902,12 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="28"/>
-      <c r="B28" s="57" t="s">
+      <c r="B28" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="58"/>
+      <c r="C28" s="55"/>
       <c r="D28" s="32" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E28" s="34"/>
       <c r="F28" s="34"/>
@@ -8790,14 +9915,14 @@
         <v>3</v>
       </c>
       <c r="H28" s="32" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="I28" s="34"/>
       <c r="J28" s="33"/>
-      <c r="K28" s="59" t="s">
+      <c r="K28" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="L28" s="60"/>
+      <c r="L28" s="57"/>
       <c r="M28" s="51" t="s">
         <v>67</v>
       </c>
@@ -8807,10 +9932,10 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="28"/>
-      <c r="B29" s="57" t="s">
+      <c r="B29" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="C29" s="58"/>
+      <c r="C29" s="55"/>
       <c r="D29" s="32"/>
       <c r="E29" s="34"/>
       <c r="F29" s="34"/>
@@ -8829,10 +9954,10 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="28"/>
-      <c r="B30" s="57" t="s">
+      <c r="B30" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="58"/>
+      <c r="C30" s="55"/>
       <c r="D30" s="32"/>
       <c r="E30" s="34"/>
       <c r="F30" s="34"/>
@@ -8840,10 +9965,10 @@
       <c r="H30" s="34"/>
       <c r="I30" s="34"/>
       <c r="J30" s="33"/>
-      <c r="K30" s="59" t="s">
+      <c r="K30" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="L30" s="60"/>
+      <c r="L30" s="57"/>
       <c r="M30" s="51" t="s">
         <v>143</v>
       </c>
@@ -8853,51 +9978,51 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="28"/>
-      <c r="B31" s="69" t="s">
+      <c r="B31" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="71"/>
-      <c r="D31" s="71"/>
-      <c r="E31" s="71"/>
-      <c r="F31" s="71"/>
-      <c r="G31" s="71"/>
-      <c r="H31" s="71"/>
-      <c r="I31" s="71"/>
-      <c r="J31" s="70"/>
-      <c r="K31" s="69"/>
-      <c r="L31" s="70"/>
-      <c r="M31" s="69"/>
-      <c r="N31" s="71"/>
-      <c r="O31" s="71"/>
-      <c r="P31" s="70"/>
+      <c r="C31" s="69"/>
+      <c r="D31" s="69"/>
+      <c r="E31" s="69"/>
+      <c r="F31" s="69"/>
+      <c r="G31" s="69"/>
+      <c r="H31" s="69"/>
+      <c r="I31" s="69"/>
+      <c r="J31" s="68"/>
+      <c r="K31" s="67"/>
+      <c r="L31" s="68"/>
+      <c r="M31" s="67"/>
+      <c r="N31" s="69"/>
+      <c r="O31" s="69"/>
+      <c r="P31" s="68"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="28"/>
       <c r="B32" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C32" s="59" t="s">
+      <c r="C32" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="D32" s="73"/>
-      <c r="E32" s="60"/>
+      <c r="D32" s="70"/>
+      <c r="E32" s="57"/>
       <c r="F32" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G32" s="59" t="s">
+      <c r="G32" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="H32" s="60"/>
-      <c r="I32" s="59" t="s">
+      <c r="H32" s="57"/>
+      <c r="I32" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="J32" s="60"/>
-      <c r="K32" s="66"/>
-      <c r="L32" s="68"/>
-      <c r="M32" s="66"/>
-      <c r="N32" s="67"/>
-      <c r="O32" s="67"/>
-      <c r="P32" s="68"/>
+      <c r="J32" s="57"/>
+      <c r="K32" s="61"/>
+      <c r="L32" s="63"/>
+      <c r="M32" s="61"/>
+      <c r="N32" s="62"/>
+      <c r="O32" s="62"/>
+      <c r="P32" s="63"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="28"/>
@@ -8905,41 +10030,41 @@
         <v>1</v>
       </c>
       <c r="C33" s="64" t="s">
-        <v>281</v>
-      </c>
-      <c r="D33" s="72"/>
+        <v>278</v>
+      </c>
+      <c r="D33" s="66"/>
       <c r="E33" s="65"/>
       <c r="F33" s="3"/>
       <c r="G33" s="64" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="H33" s="65"/>
       <c r="I33" s="3"/>
       <c r="J33" s="4"/>
-      <c r="K33" s="61"/>
-      <c r="L33" s="63"/>
-      <c r="M33" s="61"/>
-      <c r="N33" s="62"/>
-      <c r="O33" s="62"/>
-      <c r="P33" s="63"/>
+      <c r="K33" s="58"/>
+      <c r="L33" s="59"/>
+      <c r="M33" s="58"/>
+      <c r="N33" s="60"/>
+      <c r="O33" s="60"/>
+      <c r="P33" s="59"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="28"/>
       <c r="B34" s="64"/>
-      <c r="C34" s="72"/>
-      <c r="D34" s="72"/>
+      <c r="C34" s="66"/>
+      <c r="D34" s="66"/>
       <c r="E34" s="65"/>
       <c r="F34" s="3"/>
       <c r="G34" s="64"/>
       <c r="H34" s="65"/>
       <c r="I34" s="3"/>
       <c r="J34" s="4"/>
-      <c r="K34" s="61"/>
-      <c r="L34" s="63"/>
-      <c r="M34" s="61"/>
-      <c r="N34" s="62"/>
-      <c r="O34" s="62"/>
-      <c r="P34" s="63"/>
+      <c r="K34" s="58"/>
+      <c r="L34" s="59"/>
+      <c r="M34" s="58"/>
+      <c r="N34" s="60"/>
+      <c r="O34" s="60"/>
+      <c r="P34" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="85">
@@ -9041,10 +10166,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70090909-6FEC-4A13-BB6C-D86D907DAE18}">
-  <dimension ref="A1:P33"/>
+  <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -9070,7 +10195,7 @@
       <c r="B1" s="47"/>
       <c r="C1" s="47"/>
       <c r="D1" s="48" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E1" s="49"/>
       <c r="F1" s="49"/>
@@ -9103,7 +10228,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="51" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="J2" s="52"/>
       <c r="K2" s="52"/>
@@ -9254,16 +10379,16 @@
         <v>87</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>104</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="H8" s="9"/>
       <c r="I8" s="7" t="s">
@@ -9407,7 +10532,7 @@
       </c>
       <c r="L12" s="7"/>
       <c r="M12" s="26" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="N12" s="9"/>
       <c r="O12" s="7"/>
@@ -9485,30 +10610,32 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="9" t="s">
-        <v>114</v>
+        <v>36</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>104</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>115</v>
+        <v>37</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="H15" s="9"/>
-      <c r="I15" s="7"/>
+        <v>38</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="J15" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K15" s="7">
-        <v>50</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="K15" s="7"/>
       <c r="L15" s="7"/>
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
@@ -9517,24 +10644,26 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>104</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="E16" s="7"/>
       <c r="F16" s="9" t="s">
-        <v>118</v>
+        <v>40</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="H16" s="9"/>
-      <c r="I16" s="7"/>
+        <v>41</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="J16" s="9" t="s">
         <v>28</v>
       </c>
@@ -9549,30 +10678,28 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>104</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="E17" s="7"/>
       <c r="F17" s="9" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I17" s="7" t="s">
         <v>27</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
@@ -9583,22 +10710,22 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="9" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="9" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I18" s="7" t="s">
         <v>27</v>
@@ -9617,22 +10744,22 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="9" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="9" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I19" s="7" t="s">
         <v>27</v>
@@ -9649,31 +10776,31 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E20" s="7"/>
+        <v>53</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>105</v>
+      </c>
       <c r="F20" s="9" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>27</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="I20" s="7"/>
       <c r="J20" s="9" t="s">
         <v>28</v>
       </c>
       <c r="K20" s="7">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="L20" s="7"/>
       <c r="M20" s="9"/>
@@ -9682,30 +10809,16 @@
       <c r="P20" s="1"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="7">
-        <v>14</v>
-      </c>
+      <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
-      <c r="D21" s="9" t="s">
-        <v>50</v>
-      </c>
+      <c r="D21" s="7"/>
       <c r="E21" s="7"/>
-      <c r="F21" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="H21" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J21" s="9" t="s">
-        <v>46</v>
-      </c>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
       <c r="M21" s="9"/>
@@ -9713,135 +10826,133 @@
       <c r="O21" s="7"/>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="7">
-        <v>15</v>
-      </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="I22" s="7"/>
-      <c r="J22" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K22" s="7">
-        <v>200</v>
-      </c>
-      <c r="L22" s="7"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="1"/>
-    </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="1"/>
+      <c r="A23" s="71" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="72"/>
+      <c r="C23" s="72"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="72"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="72"/>
+      <c r="H23" s="72"/>
+      <c r="I23" s="72"/>
+      <c r="J23" s="72"/>
+      <c r="K23" s="72"/>
+      <c r="L23" s="72"/>
+      <c r="M23" s="72"/>
+      <c r="N23" s="72"/>
+      <c r="O23" s="72"/>
+      <c r="P23" s="73"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A24" s="27">
+        <v>1</v>
+      </c>
+      <c r="B24" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="55"/>
+      <c r="D24" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H24" s="32" t="s">
+        <v>280</v>
+      </c>
+      <c r="I24" s="34"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="L24" s="57"/>
+      <c r="M24" s="74" t="s">
+        <v>274</v>
+      </c>
+      <c r="N24" s="75"/>
+      <c r="O24" s="75"/>
+      <c r="P24" s="76"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" s="55"/>
+      <c r="A25" s="28"/>
+      <c r="B25" s="54" t="s">
+        <v>4</v>
+      </c>
       <c r="C25" s="55"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="55"/>
-      <c r="H25" s="55"/>
-      <c r="I25" s="55"/>
-      <c r="J25" s="55"/>
-      <c r="K25" s="55"/>
-      <c r="L25" s="55"/>
-      <c r="M25" s="55"/>
-      <c r="N25" s="55"/>
-      <c r="O25" s="55"/>
-      <c r="P25" s="56"/>
+      <c r="D25" s="32" t="s">
+        <v>282</v>
+      </c>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H25" s="32" t="s">
+        <v>281</v>
+      </c>
+      <c r="I25" s="34"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="56" t="s">
+        <v>66</v>
+      </c>
+      <c r="L25" s="57"/>
+      <c r="M25" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="N25" s="52"/>
+      <c r="O25" s="52"/>
+      <c r="P25" s="53"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="27">
-        <v>1</v>
-      </c>
-      <c r="B26" s="57" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" s="58"/>
+      <c r="A26" s="28"/>
+      <c r="B26" s="54" t="s">
+        <v>98</v>
+      </c>
+      <c r="C26" s="55"/>
       <c r="D26" s="32" t="s">
-        <v>282</v>
+        <v>389</v>
       </c>
       <c r="E26" s="34"/>
       <c r="F26" s="34"/>
-      <c r="G26" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H26" s="32" t="s">
-        <v>283</v>
+      <c r="G26" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="H26" s="34" t="s">
+        <v>390</v>
       </c>
       <c r="I26" s="34"/>
       <c r="J26" s="33"/>
-      <c r="K26" s="59" t="s">
-        <v>58</v>
-      </c>
-      <c r="L26" s="60"/>
-      <c r="M26" s="74" t="s">
-        <v>277</v>
-      </c>
-      <c r="N26" s="75"/>
-      <c r="O26" s="75"/>
-      <c r="P26" s="76"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="51"/>
+      <c r="N26" s="52"/>
+      <c r="O26" s="52"/>
+      <c r="P26" s="53"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="28"/>
-      <c r="B27" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" s="58"/>
-      <c r="D27" s="32" t="s">
-        <v>285</v>
-      </c>
+      <c r="B27" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="55"/>
+      <c r="D27" s="32"/>
       <c r="E27" s="34"/>
       <c r="F27" s="34"/>
-      <c r="G27" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H27" s="32" t="s">
-        <v>284</v>
-      </c>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
       <c r="I27" s="34"/>
       <c r="J27" s="33"/>
-      <c r="K27" s="59" t="s">
-        <v>66</v>
-      </c>
-      <c r="L27" s="60"/>
+      <c r="K27" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="L27" s="57"/>
       <c r="M27" s="51" t="s">
-        <v>67</v>
+        <v>143</v>
       </c>
       <c r="N27" s="52"/>
       <c r="O27" s="52"/>
@@ -9849,139 +10960,93 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="28"/>
-      <c r="B28" s="57" t="s">
-        <v>98</v>
-      </c>
-      <c r="C28" s="58"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="H28" s="34"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="51"/>
-      <c r="N28" s="52"/>
-      <c r="O28" s="52"/>
-      <c r="P28" s="53"/>
+      <c r="B28" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="69"/>
+      <c r="D28" s="69"/>
+      <c r="E28" s="69"/>
+      <c r="F28" s="69"/>
+      <c r="G28" s="69"/>
+      <c r="H28" s="69"/>
+      <c r="I28" s="69"/>
+      <c r="J28" s="68"/>
+      <c r="K28" s="67"/>
+      <c r="L28" s="68"/>
+      <c r="M28" s="67"/>
+      <c r="N28" s="69"/>
+      <c r="O28" s="69"/>
+      <c r="P28" s="68"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="28"/>
-      <c r="B29" s="57" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="58"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="34"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="59" t="s">
-        <v>9</v>
-      </c>
-      <c r="L29" s="60"/>
-      <c r="M29" s="51" t="s">
-        <v>143</v>
-      </c>
-      <c r="N29" s="52"/>
-      <c r="O29" s="52"/>
-      <c r="P29" s="53"/>
+      <c r="B29" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="70"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="H29" s="57"/>
+      <c r="I29" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="J29" s="57"/>
+      <c r="K29" s="61"/>
+      <c r="L29" s="63"/>
+      <c r="M29" s="61"/>
+      <c r="N29" s="62"/>
+      <c r="O29" s="62"/>
+      <c r="P29" s="63"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="28"/>
-      <c r="B30" s="69" t="s">
-        <v>19</v>
-      </c>
-      <c r="C30" s="71"/>
-      <c r="D30" s="71"/>
-      <c r="E30" s="71"/>
-      <c r="F30" s="71"/>
-      <c r="G30" s="71"/>
-      <c r="H30" s="71"/>
-      <c r="I30" s="71"/>
-      <c r="J30" s="70"/>
-      <c r="K30" s="69"/>
-      <c r="L30" s="70"/>
-      <c r="M30" s="69"/>
-      <c r="N30" s="71"/>
-      <c r="O30" s="71"/>
-      <c r="P30" s="70"/>
+      <c r="B30" s="8">
+        <v>1</v>
+      </c>
+      <c r="C30" s="64" t="s">
+        <v>278</v>
+      </c>
+      <c r="D30" s="66"/>
+      <c r="E30" s="65"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="64" t="s">
+        <v>278</v>
+      </c>
+      <c r="H30" s="65"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="58"/>
+      <c r="L30" s="59"/>
+      <c r="M30" s="58"/>
+      <c r="N30" s="60"/>
+      <c r="O30" s="60"/>
+      <c r="P30" s="59"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="28"/>
-      <c r="B31" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C31" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="D31" s="73"/>
-      <c r="E31" s="60"/>
-      <c r="F31" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G31" s="59" t="s">
-        <v>17</v>
-      </c>
-      <c r="H31" s="60"/>
-      <c r="I31" s="59" t="s">
-        <v>18</v>
-      </c>
-      <c r="J31" s="60"/>
-      <c r="K31" s="66"/>
-      <c r="L31" s="68"/>
-      <c r="M31" s="66"/>
-      <c r="N31" s="67"/>
-      <c r="O31" s="67"/>
-      <c r="P31" s="68"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="28"/>
-      <c r="B32" s="8">
-        <v>1</v>
-      </c>
-      <c r="C32" s="64" t="s">
-        <v>281</v>
-      </c>
-      <c r="D32" s="72"/>
-      <c r="E32" s="65"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="64" t="s">
-        <v>281</v>
-      </c>
-      <c r="H32" s="65"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="61"/>
-      <c r="L32" s="63"/>
-      <c r="M32" s="61"/>
-      <c r="N32" s="62"/>
-      <c r="O32" s="62"/>
-      <c r="P32" s="63"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A33" s="28"/>
-      <c r="B33" s="64"/>
-      <c r="C33" s="72"/>
-      <c r="D33" s="72"/>
-      <c r="E33" s="65"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="64"/>
-      <c r="H33" s="65"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="61"/>
-      <c r="L33" s="63"/>
-      <c r="M33" s="61"/>
-      <c r="N33" s="62"/>
-      <c r="O33" s="62"/>
-      <c r="P33" s="63"/>
+      <c r="B31" s="64"/>
+      <c r="C31" s="66"/>
+      <c r="D31" s="66"/>
+      <c r="E31" s="65"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="64"/>
+      <c r="H31" s="65"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="58"/>
+      <c r="L31" s="59"/>
+      <c r="M31" s="58"/>
+      <c r="N31" s="60"/>
+      <c r="O31" s="60"/>
+      <c r="P31" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="49">
@@ -9998,47 +11063,47 @@
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A25:P25"/>
-    <mergeCell ref="A26:A33"/>
+    <mergeCell ref="A23:P23"/>
+    <mergeCell ref="A24:A31"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:P25"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="D26:F26"/>
     <mergeCell ref="H26:J26"/>
-    <mergeCell ref="K26:L26"/>
     <mergeCell ref="M26:P26"/>
     <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="D27:J27"/>
     <mergeCell ref="K27:L27"/>
     <mergeCell ref="M27:P27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="B28:J28"/>
+    <mergeCell ref="K28:L28"/>
     <mergeCell ref="M28:P28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:J29"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
     <mergeCell ref="K29:L29"/>
     <mergeCell ref="M29:P29"/>
-    <mergeCell ref="B30:J30"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="G30:H30"/>
     <mergeCell ref="K30:L30"/>
     <mergeCell ref="M30:P30"/>
-    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="B31:E31"/>
     <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
     <mergeCell ref="K31:L31"/>
     <mergeCell ref="M31:P31"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:P32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="M33:P33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="M12" location="page_schema_type" display="dyn/page-schema-type" xr:uid="{E6B34BC0-5905-43EB-ADC1-2E98A9E5C8D0}"/>
-    <hyperlink ref="M26:P26" location="nop_dyn_module!A1" display="NopDynModule" xr:uid="{A9C3C974-8A76-4304-85E9-DE37172B391C}"/>
+    <hyperlink ref="M24:P24" location="nop_dyn_module!A1" display="NopDynModule" xr:uid="{A9C3C974-8A76-4304-85E9-DE37172B391C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -10049,8 +11114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC0BA8A4-9C3E-4604-A099-A93C4C69087F}">
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:A23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -10076,7 +11141,7 @@
       <c r="B1" s="47"/>
       <c r="C1" s="47"/>
       <c r="D1" s="48" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E1" s="49"/>
       <c r="F1" s="49"/>
@@ -10100,7 +11165,7 @@
       <c r="B2" s="47"/>
       <c r="C2" s="47"/>
       <c r="D2" s="48" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="E2" s="49"/>
       <c r="F2" s="49"/>
@@ -10109,7 +11174,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="51" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="J2" s="52"/>
       <c r="K2" s="52"/>
@@ -10258,16 +11323,16 @@
         <v>87</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>104</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="H8" s="9"/>
       <c r="I8" s="7" t="s">
@@ -10326,14 +11391,14 @@
         <v>106</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="7" t="s">
@@ -10365,7 +11430,7 @@
         <v>142</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="7" t="s">
@@ -10390,11 +11455,11 @@
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="9" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="9" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="G12" s="9" t="s">
         <v>0</v>
@@ -10420,11 +11485,11 @@
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="9" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="9" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="G13" s="9" t="s">
         <v>11</v>
@@ -10450,14 +11515,14 @@
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="9" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="9" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="H14" s="9"/>
       <c r="I14" s="7" t="s">
@@ -10469,7 +11534,7 @@
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
       <c r="M14" s="26" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="N14" s="9"/>
       <c r="O14" s="7"/>
@@ -10482,11 +11547,11 @@
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="9" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="9" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="G15" s="9" t="s">
         <v>9</v>
@@ -10514,16 +11579,16 @@
         <v>237</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>104</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="H16" s="9" t="s">
         <v>230</v>
@@ -10792,35 +11857,35 @@
       <c r="P24" s="1"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="54" t="s">
+      <c r="A26" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="55"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="55"/>
-      <c r="G26" s="55"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="55"/>
-      <c r="J26" s="55"/>
-      <c r="K26" s="55"/>
-      <c r="L26" s="55"/>
-      <c r="M26" s="55"/>
-      <c r="N26" s="55"/>
-      <c r="O26" s="55"/>
-      <c r="P26" s="56"/>
+      <c r="B26" s="72"/>
+      <c r="C26" s="72"/>
+      <c r="D26" s="72"/>
+      <c r="E26" s="72"/>
+      <c r="F26" s="72"/>
+      <c r="G26" s="72"/>
+      <c r="H26" s="72"/>
+      <c r="I26" s="72"/>
+      <c r="J26" s="72"/>
+      <c r="K26" s="72"/>
+      <c r="L26" s="72"/>
+      <c r="M26" s="72"/>
+      <c r="N26" s="72"/>
+      <c r="O26" s="72"/>
+      <c r="P26" s="73"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="27">
         <v>1</v>
       </c>
-      <c r="B27" s="57" t="s">
+      <c r="B27" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="58"/>
+      <c r="C27" s="55"/>
       <c r="D27" s="32" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E27" s="34"/>
       <c r="F27" s="34"/>
@@ -10828,16 +11893,16 @@
         <v>57</v>
       </c>
       <c r="H27" s="32" t="s">
-        <v>283</v>
+        <v>386</v>
       </c>
       <c r="I27" s="34"/>
       <c r="J27" s="33"/>
-      <c r="K27" s="59" t="s">
+      <c r="K27" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="L27" s="60"/>
+      <c r="L27" s="57"/>
       <c r="M27" s="74" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="N27" s="75"/>
       <c r="O27" s="75"/>
@@ -10845,12 +11910,12 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="28"/>
-      <c r="B28" s="57" t="s">
+      <c r="B28" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="58"/>
+      <c r="C28" s="55"/>
       <c r="D28" s="32" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E28" s="34"/>
       <c r="F28" s="34"/>
@@ -10858,14 +11923,14 @@
         <v>3</v>
       </c>
       <c r="H28" s="32" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="I28" s="34"/>
       <c r="J28" s="33"/>
-      <c r="K28" s="59" t="s">
+      <c r="K28" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="L28" s="60"/>
+      <c r="L28" s="57"/>
       <c r="M28" s="51" t="s">
         <v>67</v>
       </c>
@@ -10875,17 +11940,21 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="28"/>
-      <c r="B29" s="57" t="s">
+      <c r="B29" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="C29" s="58"/>
-      <c r="D29" s="32"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="32" t="s">
+        <v>387</v>
+      </c>
       <c r="E29" s="34"/>
       <c r="F29" s="34"/>
       <c r="G29" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="H29" s="34"/>
+      <c r="H29" s="34" t="s">
+        <v>388</v>
+      </c>
       <c r="I29" s="34"/>
       <c r="J29" s="33"/>
       <c r="K29" s="15"/>
@@ -10897,10 +11966,10 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="28"/>
-      <c r="B30" s="57" t="s">
+      <c r="B30" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="58"/>
+      <c r="C30" s="55"/>
       <c r="D30" s="32"/>
       <c r="E30" s="34"/>
       <c r="F30" s="34"/>
@@ -10908,10 +11977,10 @@
       <c r="H30" s="34"/>
       <c r="I30" s="34"/>
       <c r="J30" s="33"/>
-      <c r="K30" s="59" t="s">
+      <c r="K30" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="L30" s="60"/>
+      <c r="L30" s="57"/>
       <c r="M30" s="51" t="s">
         <v>143</v>
       </c>
@@ -10921,51 +11990,51 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="28"/>
-      <c r="B31" s="69" t="s">
+      <c r="B31" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="71"/>
-      <c r="D31" s="71"/>
-      <c r="E31" s="71"/>
-      <c r="F31" s="71"/>
-      <c r="G31" s="71"/>
-      <c r="H31" s="71"/>
-      <c r="I31" s="71"/>
-      <c r="J31" s="70"/>
-      <c r="K31" s="69"/>
-      <c r="L31" s="70"/>
-      <c r="M31" s="69"/>
-      <c r="N31" s="71"/>
-      <c r="O31" s="71"/>
-      <c r="P31" s="70"/>
+      <c r="C31" s="69"/>
+      <c r="D31" s="69"/>
+      <c r="E31" s="69"/>
+      <c r="F31" s="69"/>
+      <c r="G31" s="69"/>
+      <c r="H31" s="69"/>
+      <c r="I31" s="69"/>
+      <c r="J31" s="68"/>
+      <c r="K31" s="67"/>
+      <c r="L31" s="68"/>
+      <c r="M31" s="67"/>
+      <c r="N31" s="69"/>
+      <c r="O31" s="69"/>
+      <c r="P31" s="68"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="28"/>
       <c r="B32" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C32" s="59" t="s">
+      <c r="C32" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="D32" s="73"/>
-      <c r="E32" s="60"/>
+      <c r="D32" s="70"/>
+      <c r="E32" s="57"/>
       <c r="F32" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G32" s="59" t="s">
+      <c r="G32" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="H32" s="60"/>
-      <c r="I32" s="59" t="s">
+      <c r="H32" s="57"/>
+      <c r="I32" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="J32" s="60"/>
-      <c r="K32" s="66"/>
-      <c r="L32" s="68"/>
-      <c r="M32" s="66"/>
-      <c r="N32" s="67"/>
-      <c r="O32" s="67"/>
-      <c r="P32" s="68"/>
+      <c r="J32" s="57"/>
+      <c r="K32" s="61"/>
+      <c r="L32" s="63"/>
+      <c r="M32" s="61"/>
+      <c r="N32" s="62"/>
+      <c r="O32" s="62"/>
+      <c r="P32" s="63"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="28"/>
@@ -10973,41 +12042,41 @@
         <v>1</v>
       </c>
       <c r="C33" s="64" t="s">
-        <v>281</v>
-      </c>
-      <c r="D33" s="72"/>
+        <v>278</v>
+      </c>
+      <c r="D33" s="66"/>
       <c r="E33" s="65"/>
       <c r="F33" s="3"/>
       <c r="G33" s="64" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="H33" s="65"/>
       <c r="I33" s="3"/>
       <c r="J33" s="4"/>
-      <c r="K33" s="61"/>
-      <c r="L33" s="63"/>
-      <c r="M33" s="61"/>
-      <c r="N33" s="62"/>
-      <c r="O33" s="62"/>
-      <c r="P33" s="63"/>
+      <c r="K33" s="58"/>
+      <c r="L33" s="59"/>
+      <c r="M33" s="58"/>
+      <c r="N33" s="60"/>
+      <c r="O33" s="60"/>
+      <c r="P33" s="59"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="28"/>
       <c r="B34" s="64"/>
-      <c r="C34" s="72"/>
-      <c r="D34" s="72"/>
+      <c r="C34" s="66"/>
+      <c r="D34" s="66"/>
       <c r="E34" s="65"/>
       <c r="F34" s="3"/>
       <c r="G34" s="64"/>
       <c r="H34" s="65"/>
       <c r="I34" s="3"/>
       <c r="J34" s="4"/>
-      <c r="K34" s="61"/>
-      <c r="L34" s="63"/>
-      <c r="M34" s="61"/>
-      <c r="N34" s="62"/>
-      <c r="O34" s="62"/>
-      <c r="P34" s="63"/>
+      <c r="K34" s="58"/>
+      <c r="L34" s="59"/>
+      <c r="M34" s="58"/>
+      <c r="N34" s="60"/>
+      <c r="O34" s="60"/>
+      <c r="P34" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="49">

--- a/nop-dyn/model/nop-dyn.orm.xlsx
+++ b/nop-dyn/model/nop-dyn.orm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-dyn\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94E3172E-B1DA-492E-9455-01AC5E54A93C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF1E51C-21B7-4326-9213-E865486858B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" firstSheet="5" activeTab="7" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" firstSheet="7" activeTab="10" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="2" r:id="rId1"/>
@@ -23,8 +23,10 @@
     <sheet name="nop_dyn_page" sheetId="29" r:id="rId8"/>
     <sheet name="nop_dyn_entity_meta" sheetId="32" r:id="rId9"/>
     <sheet name="nop_dyn_prop_meta" sheetId="33" r:id="rId10"/>
-    <sheet name="nop_dyn_domain" sheetId="34" r:id="rId11"/>
-    <sheet name="nop_dyn_entity" sheetId="28" r:id="rId12"/>
+    <sheet name="nop_dyn_entity_relation_meta" sheetId="36" r:id="rId11"/>
+    <sheet name="nop_dyn_domain" sheetId="34" r:id="rId12"/>
+    <sheet name="nop_dyn_entity" sheetId="28" r:id="rId13"/>
+    <sheet name="nop_dyn_entity_relation" sheetId="35" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName name="app_status">字典定义!$A$1:$G$9</definedName>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1334" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1620" uniqueCount="481">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1358,18 +1360,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>META_CONTENT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Meta Content</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>元数据内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>nop_dyn_prop_meta</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1426,14 +1416,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LENGTH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Length</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SCALE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1542,14 +1524,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DYN_FIELD_MAPPING</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dynamic Field Mapping</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>动态实体定义中的每个字段需要映射到NopDynEntity的字段上</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1570,14 +1544,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BIZ_OBJ_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BizObjName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TABLE_NAME</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1723,6 +1689,282 @@
   </si>
   <si>
     <t>Maven组名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IS_PRIMARY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Is Primary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOOLEAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRECISION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Precision</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IS_MANDATORY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Is Mandatory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否非空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEFAULT_VALUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Default Value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DYN_PROP_MAPPING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dynamic Property Mapping</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QUERY_SPACE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Query Space</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询空间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXT_CONFIG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ext Config</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实体关联</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENTITY_NAME1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Entity Name1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实体名称1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENTITY_ID1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Entity Id1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实体ID1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENTITY_NAME2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Entity Name2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实体名称2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENTITY_ID2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Entity ID2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实体ID2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nop_dyn_entity_relation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Entity Relation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RELATION_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Relation Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nop_dyn_entity_relation_meta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实体关联元数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Entity Relation Meta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REL_META_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Relation Meta ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联定义ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENTITY1_META_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Entity1 Meta ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实体1元数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENTITY2_META_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Entity2 Meta ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实体2元数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENTITY1_PROP_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Entity1 Prop Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实体1上属性名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENTITY1_DISPLAY_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Entity1 Display Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实体1上属性显示名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENTITY2_PROP_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENTITY2_DISPLAY_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Entity2 Prop Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Entity2 Display Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实体2上属性名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实体2上属性显示名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>entityMeta1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联实体1元数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Entity1 Meta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>entity1MetaId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>entityMeta2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联实体2元数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Entity2 Meta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>entity2MetaId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2538,7 +2780,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="B2:C12"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2742,10 +2984,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68F89B88-34E8-484E-A694-177B0E94136A}">
-  <dimension ref="A1:P50"/>
+  <dimension ref="A1:P55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:XFD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2771,7 +3013,7 @@
       <c r="B1" s="47"/>
       <c r="C1" s="47"/>
       <c r="D1" s="48" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E1" s="49"/>
       <c r="F1" s="49"/>
@@ -2795,7 +3037,7 @@
       <c r="B2" s="47"/>
       <c r="C2" s="47"/>
       <c r="D2" s="48" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="E2" s="49"/>
       <c r="F2" s="49"/>
@@ -2804,7 +3046,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="51" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="J2" s="52"/>
       <c r="K2" s="52"/>
@@ -2953,16 +3195,16 @@
         <v>87</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>104</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="H8" s="9"/>
       <c r="I8" s="7" t="s">
@@ -2985,18 +3227,16 @@
         <v>2</v>
       </c>
       <c r="B9" s="7"/>
-      <c r="C9" s="7" t="s">
-        <v>106</v>
-      </c>
+      <c r="C9" s="7"/>
       <c r="D9" s="9" t="s">
-        <v>344</v>
-      </c>
-      <c r="E9" s="9"/>
+        <v>335</v>
+      </c>
+      <c r="E9" s="7"/>
       <c r="F9" s="9" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>14</v>
+        <v>321</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="7" t="s">
@@ -3006,7 +3246,7 @@
         <v>28</v>
       </c>
       <c r="K9" s="7">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="L9" s="7"/>
       <c r="M9" s="9"/>
@@ -3021,25 +3261,23 @@
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="9" t="s">
-        <v>60</v>
+        <v>412</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="9" t="s">
-        <v>142</v>
+        <v>413</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>241</v>
+        <v>414</v>
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="7" t="s">
         <v>27</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K10" s="7">
-        <v>100</v>
-      </c>
+        <v>415</v>
+      </c>
+      <c r="K10" s="7"/>
       <c r="L10" s="7"/>
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
@@ -3053,25 +3291,23 @@
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="9" t="s">
-        <v>338</v>
+        <v>418</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="9" t="s">
-        <v>339</v>
+        <v>419</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>321</v>
+        <v>420</v>
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="7" t="s">
         <v>27</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K11" s="7">
-        <v>32</v>
-      </c>
+        <v>415</v>
+      </c>
+      <c r="K11" s="7"/>
       <c r="L11" s="7"/>
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
@@ -3083,16 +3319,18 @@
         <v>5</v>
       </c>
       <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
+      <c r="C12" s="7" t="s">
+        <v>106</v>
+      </c>
       <c r="D12" s="9" t="s">
-        <v>367</v>
-      </c>
-      <c r="E12" s="7"/>
+        <v>341</v>
+      </c>
+      <c r="E12" s="9"/>
       <c r="F12" s="9" t="s">
-        <v>368</v>
+        <v>342</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>370</v>
+        <v>14</v>
       </c>
       <c r="H12" s="9"/>
       <c r="I12" s="7" t="s">
@@ -3102,12 +3340,10 @@
         <v>28</v>
       </c>
       <c r="K12" s="7">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="L12" s="7"/>
-      <c r="M12" s="9" t="s">
-        <v>369</v>
-      </c>
+      <c r="M12" s="9"/>
       <c r="N12" s="9"/>
       <c r="O12" s="7"/>
       <c r="P12" s="1"/>
@@ -3119,21 +3355,25 @@
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="9" t="s">
-        <v>346</v>
+        <v>60</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="9" t="s">
-        <v>347</v>
+        <v>142</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>6</v>
+        <v>241</v>
       </c>
       <c r="H13" s="9"/>
-      <c r="I13" s="7"/>
+      <c r="I13" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="J13" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="K13" s="7"/>
+        <v>28</v>
+      </c>
+      <c r="K13" s="7">
+        <v>100</v>
+      </c>
       <c r="L13" s="7"/>
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
@@ -3147,26 +3387,30 @@
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="9" t="s">
-        <v>348</v>
+        <v>362</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="9" t="s">
-        <v>349</v>
+        <v>363</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>7</v>
+        <v>365</v>
       </c>
       <c r="H14" s="9"/>
-      <c r="I14" s="7"/>
+      <c r="I14" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="J14" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="K14" s="7"/>
+        <v>28</v>
+      </c>
+      <c r="K14" s="7">
+        <v>10</v>
+      </c>
       <c r="L14" s="7"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9">
-        <v>0</v>
-      </c>
+      <c r="M14" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="N14" s="9"/>
       <c r="O14" s="7"/>
       <c r="P14" s="1"/>
     </row>
@@ -3177,23 +3421,21 @@
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="9" t="s">
-        <v>350</v>
+        <v>416</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="9" t="s">
-        <v>351</v>
+        <v>416</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>352</v>
+        <v>6</v>
       </c>
       <c r="H15" s="9"/>
       <c r="I15" s="7"/>
       <c r="J15" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K15" s="7">
-        <v>10</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="K15" s="7"/>
       <c r="L15" s="7"/>
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
@@ -3207,26 +3449,26 @@
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="9" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="9" t="s">
-        <v>359</v>
+        <v>344</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>360</v>
+        <v>7</v>
       </c>
       <c r="H16" s="9"/>
       <c r="I16" s="7"/>
       <c r="J16" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K16" s="7">
-        <v>100</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="K16" s="7"/>
       <c r="L16" s="7"/>
       <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
+      <c r="N16" s="9">
+        <v>0</v>
+      </c>
       <c r="O16" s="7"/>
       <c r="P16" s="1"/>
     </row>
@@ -3237,14 +3479,14 @@
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="9" t="s">
-        <v>408</v>
+        <v>345</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="9" t="s">
-        <v>409</v>
+        <v>346</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>410</v>
+        <v>347</v>
       </c>
       <c r="H17" s="9"/>
       <c r="I17" s="7"/>
@@ -3252,12 +3494,10 @@
         <v>28</v>
       </c>
       <c r="K17" s="7">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="L17" s="7"/>
-      <c r="M17" s="9" t="s">
-        <v>401</v>
-      </c>
+      <c r="M17" s="9"/>
       <c r="N17" s="9"/>
       <c r="O17" s="7"/>
       <c r="P17" s="1"/>
@@ -3269,14 +3509,14 @@
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="9" t="s">
-        <v>371</v>
+        <v>353</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="9" t="s">
-        <v>372</v>
+        <v>354</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="H18" s="9"/>
       <c r="I18" s="7"/>
@@ -3299,14 +3539,14 @@
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="9" t="s">
-        <v>375</v>
+        <v>399</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="9" t="s">
-        <v>376</v>
+        <v>400</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>374</v>
+        <v>401</v>
       </c>
       <c r="H19" s="9"/>
       <c r="I19" s="7"/>
@@ -3314,14 +3554,14 @@
         <v>28</v>
       </c>
       <c r="K19" s="7">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="L19" s="7"/>
-      <c r="M19" s="9"/>
+      <c r="M19" s="9" t="s">
+        <v>392</v>
+      </c>
       <c r="N19" s="9"/>
-      <c r="O19" s="7" t="s">
-        <v>377</v>
-      </c>
+      <c r="O19" s="7"/>
       <c r="P19" s="1"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
@@ -3331,14 +3571,14 @@
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="9" t="s">
-        <v>354</v>
+        <v>397</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="9" t="s">
-        <v>355</v>
+        <v>398</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="H20" s="9"/>
       <c r="I20" s="7"/>
@@ -3346,10 +3586,12 @@
         <v>28</v>
       </c>
       <c r="K20" s="7">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="L20" s="7"/>
-      <c r="M20" s="9"/>
+      <c r="M20" s="9" t="s">
+        <v>348</v>
+      </c>
       <c r="N20" s="9"/>
       <c r="O20" s="7"/>
       <c r="P20" s="1"/>
@@ -3361,14 +3603,14 @@
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="9" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="9" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="H21" s="9"/>
       <c r="I21" s="7"/>
@@ -3376,7 +3618,7 @@
         <v>28</v>
       </c>
       <c r="K21" s="7">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L21" s="7"/>
       <c r="M21" s="9"/>
@@ -3391,14 +3633,14 @@
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="9" t="s">
-        <v>361</v>
+        <v>423</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="9" t="s">
-        <v>362</v>
+        <v>424</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>57</v>
+        <v>369</v>
       </c>
       <c r="H22" s="9"/>
       <c r="I22" s="7"/>
@@ -3411,7 +3653,9 @@
       <c r="L22" s="7"/>
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
-      <c r="O22" s="7"/>
+      <c r="O22" s="7" t="s">
+        <v>370</v>
+      </c>
       <c r="P22" s="1"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
@@ -3421,14 +3665,14 @@
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="9" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="9" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>366</v>
+        <v>9</v>
       </c>
       <c r="H23" s="9"/>
       <c r="I23" s="7"/>
@@ -3436,7 +3680,7 @@
         <v>28</v>
       </c>
       <c r="K23" s="7">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L23" s="7"/>
       <c r="M23" s="9"/>
@@ -3451,14 +3695,14 @@
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="9" t="s">
-        <v>378</v>
+        <v>421</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="9" t="s">
-        <v>379</v>
+        <v>422</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>380</v>
+        <v>97</v>
       </c>
       <c r="H24" s="9"/>
       <c r="I24" s="7"/>
@@ -3466,7 +3710,7 @@
         <v>28</v>
       </c>
       <c r="K24" s="7">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L24" s="7"/>
       <c r="M24" s="9"/>
@@ -3481,27 +3725,25 @@
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="9" t="s">
-        <v>33</v>
+        <v>351</v>
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="9" t="s">
-        <v>34</v>
+        <v>352</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>95</v>
+        <v>358</v>
       </c>
       <c r="H25" s="9"/>
-      <c r="I25" s="7" t="s">
-        <v>27</v>
-      </c>
+      <c r="I25" s="7"/>
       <c r="J25" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="K25" s="7"/>
+        <v>28</v>
+      </c>
+      <c r="K25" s="7">
+        <v>200</v>
+      </c>
       <c r="L25" s="7"/>
-      <c r="M25" s="9" t="s">
-        <v>232</v>
-      </c>
+      <c r="M25" s="9"/>
       <c r="N25" s="9"/>
       <c r="O25" s="7"/>
       <c r="P25" s="1"/>
@@ -3513,27 +3755,23 @@
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>104</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="E26" s="7"/>
       <c r="F26" s="9" t="s">
-        <v>37</v>
+        <v>357</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="I26" s="7" t="s">
-        <v>27</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="H26" s="9"/>
+      <c r="I26" s="7"/>
       <c r="J26" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="K26" s="7"/>
+        <v>28</v>
+      </c>
+      <c r="K26" s="7">
+        <v>100</v>
+      </c>
       <c r="L26" s="7"/>
       <c r="M26" s="9"/>
       <c r="N26" s="9"/>
@@ -3547,28 +3785,22 @@
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>233</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="E27" s="7"/>
       <c r="F27" s="9" t="s">
-        <v>40</v>
+        <v>360</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="H27" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="I27" s="7" t="s">
-        <v>27</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="H27" s="9"/>
+      <c r="I27" s="7"/>
       <c r="J27" s="9" t="s">
         <v>28</v>
       </c>
       <c r="K27" s="7">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L27" s="7"/>
       <c r="M27" s="9"/>
@@ -3583,27 +3815,23 @@
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>233</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="E28" s="7"/>
       <c r="F28" s="9" t="s">
-        <v>44</v>
+        <v>372</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="H28" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="I28" s="7" t="s">
-        <v>27</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="H28" s="9"/>
+      <c r="I28" s="7"/>
       <c r="J28" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="K28" s="7"/>
+        <v>28</v>
+      </c>
+      <c r="K28" s="7">
+        <v>200</v>
+      </c>
       <c r="L28" s="7"/>
       <c r="M28" s="9"/>
       <c r="N28" s="9"/>
@@ -3617,28 +3845,24 @@
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>233</v>
-      </c>
+        <v>428</v>
+      </c>
+      <c r="E29" s="7"/>
       <c r="F29" s="9" t="s">
-        <v>48</v>
+        <v>429</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="I29" s="7" t="s">
-        <v>27</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="I29" s="7"/>
       <c r="J29" s="9" t="s">
         <v>28</v>
       </c>
       <c r="K29" s="7">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="L29" s="7"/>
       <c r="M29" s="9"/>
@@ -3653,29 +3877,27 @@
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>233</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="E30" s="7"/>
       <c r="F30" s="9" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="H30" s="9" t="s">
-        <v>92</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="H30" s="9"/>
       <c r="I30" s="7" t="s">
         <v>27</v>
       </c>
       <c r="J30" s="9" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="K30" s="7"/>
       <c r="L30" s="7"/>
-      <c r="M30" s="9"/>
+      <c r="M30" s="9" t="s">
+        <v>232</v>
+      </c>
       <c r="N30" s="9"/>
       <c r="O30" s="7"/>
       <c r="P30" s="1"/>
@@ -3687,27 +3909,27 @@
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="D31" s="9" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="I31" s="7"/>
+        <v>88</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="J31" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K31" s="7">
-        <v>200</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="K31" s="7"/>
       <c r="L31" s="7"/>
       <c r="M31" s="9"/>
       <c r="N31" s="9"/>
@@ -3715,436 +3937,610 @@
       <c r="P31" s="1"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="7"/>
+      <c r="A32" s="7">
+        <v>25</v>
+      </c>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
+      <c r="D32" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J32" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K32" s="7">
+        <v>50</v>
+      </c>
       <c r="L32" s="7"/>
       <c r="M32" s="9"/>
       <c r="N32" s="9"/>
       <c r="O32" s="7"/>
       <c r="P32" s="1"/>
     </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A33" s="7">
+        <v>26</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J33" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="7"/>
+      <c r="P33" s="1"/>
+    </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A34" s="71" t="s">
+      <c r="A34" s="7">
+        <v>27</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J34" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K34" s="7">
+        <v>50</v>
+      </c>
+      <c r="L34" s="7"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="1"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A35" s="7">
+        <v>28</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J35" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="7"/>
+      <c r="P35" s="1"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A36" s="7">
+        <v>29</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="I36" s="7"/>
+      <c r="J36" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K36" s="7">
+        <v>200</v>
+      </c>
+      <c r="L36" s="7"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="1"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="9"/>
+      <c r="O37" s="7"/>
+      <c r="P37" s="1"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A39" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="72"/>
-      <c r="C34" s="72"/>
-      <c r="D34" s="72"/>
-      <c r="E34" s="72"/>
-      <c r="F34" s="72"/>
-      <c r="G34" s="72"/>
-      <c r="H34" s="72"/>
-      <c r="I34" s="72"/>
-      <c r="J34" s="72"/>
-      <c r="K34" s="72"/>
-      <c r="L34" s="72"/>
-      <c r="M34" s="72"/>
-      <c r="N34" s="72"/>
-      <c r="O34" s="72"/>
-      <c r="P34" s="73"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A35" s="27">
+      <c r="B39" s="72"/>
+      <c r="C39" s="72"/>
+      <c r="D39" s="72"/>
+      <c r="E39" s="72"/>
+      <c r="F39" s="72"/>
+      <c r="G39" s="72"/>
+      <c r="H39" s="72"/>
+      <c r="I39" s="72"/>
+      <c r="J39" s="72"/>
+      <c r="K39" s="72"/>
+      <c r="L39" s="72"/>
+      <c r="M39" s="72"/>
+      <c r="N39" s="72"/>
+      <c r="O39" s="72"/>
+      <c r="P39" s="73"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A40" s="27">
         <v>1</v>
       </c>
-      <c r="B35" s="54" t="s">
+      <c r="B40" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="55"/>
-      <c r="D35" s="32" t="s">
-        <v>340</v>
-      </c>
-      <c r="E35" s="34"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="2" t="s">
+      <c r="C40" s="55"/>
+      <c r="D40" s="32" t="s">
+        <v>337</v>
+      </c>
+      <c r="E40" s="34"/>
+      <c r="F40" s="34"/>
+      <c r="G40" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H35" s="32" t="s">
-        <v>341</v>
-      </c>
-      <c r="I35" s="34"/>
-      <c r="J35" s="33"/>
-      <c r="K35" s="56" t="s">
+      <c r="H40" s="32" t="s">
+        <v>338</v>
+      </c>
+      <c r="I40" s="34"/>
+      <c r="J40" s="33"/>
+      <c r="K40" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="L35" s="57"/>
-      <c r="M35" s="74" t="s">
-        <v>342</v>
-      </c>
-      <c r="N35" s="75"/>
-      <c r="O35" s="75"/>
-      <c r="P35" s="76"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A36" s="28"/>
-      <c r="B36" s="54" t="s">
-        <v>4</v>
-      </c>
-      <c r="C36" s="55"/>
-      <c r="D36" s="32" t="s">
-        <v>282</v>
-      </c>
-      <c r="E36" s="34"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H36" s="32" t="s">
-        <v>281</v>
-      </c>
-      <c r="I36" s="34"/>
-      <c r="J36" s="33"/>
-      <c r="K36" s="56" t="s">
-        <v>66</v>
-      </c>
-      <c r="L36" s="57"/>
-      <c r="M36" s="51" t="s">
-        <v>67</v>
-      </c>
-      <c r="N36" s="52"/>
-      <c r="O36" s="52"/>
-      <c r="P36" s="53"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A37" s="28"/>
-      <c r="B37" s="54" t="s">
-        <v>98</v>
-      </c>
-      <c r="C37" s="55"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="H37" s="34"/>
-      <c r="I37" s="34"/>
-      <c r="J37" s="33"/>
-      <c r="K37" s="15"/>
-      <c r="L37" s="16"/>
-      <c r="M37" s="51"/>
-      <c r="N37" s="52"/>
-      <c r="O37" s="52"/>
-      <c r="P37" s="53"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A38" s="28"/>
-      <c r="B38" s="54" t="s">
-        <v>10</v>
-      </c>
-      <c r="C38" s="55"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="34"/>
-      <c r="F38" s="34"/>
-      <c r="G38" s="34"/>
-      <c r="H38" s="34"/>
-      <c r="I38" s="34"/>
-      <c r="J38" s="33"/>
-      <c r="K38" s="56" t="s">
-        <v>9</v>
-      </c>
-      <c r="L38" s="57"/>
-      <c r="M38" s="51" t="s">
-        <v>143</v>
-      </c>
-      <c r="N38" s="52"/>
-      <c r="O38" s="52"/>
-      <c r="P38" s="53"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A39" s="28"/>
-      <c r="B39" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="C39" s="69"/>
-      <c r="D39" s="69"/>
-      <c r="E39" s="69"/>
-      <c r="F39" s="69"/>
-      <c r="G39" s="69"/>
-      <c r="H39" s="69"/>
-      <c r="I39" s="69"/>
-      <c r="J39" s="68"/>
-      <c r="K39" s="67"/>
-      <c r="L39" s="68"/>
-      <c r="M39" s="67"/>
-      <c r="N39" s="69"/>
-      <c r="O39" s="69"/>
-      <c r="P39" s="68"/>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A40" s="28"/>
-      <c r="B40" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C40" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="D40" s="70"/>
-      <c r="E40" s="57"/>
-      <c r="F40" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G40" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="H40" s="57"/>
-      <c r="I40" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="J40" s="57"/>
-      <c r="K40" s="61"/>
-      <c r="L40" s="63"/>
-      <c r="M40" s="61"/>
-      <c r="N40" s="62"/>
-      <c r="O40" s="62"/>
-      <c r="P40" s="63"/>
+      <c r="L40" s="57"/>
+      <c r="M40" s="74" t="s">
+        <v>339</v>
+      </c>
+      <c r="N40" s="75"/>
+      <c r="O40" s="75"/>
+      <c r="P40" s="76"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="28"/>
-      <c r="B41" s="8">
-        <v>1</v>
-      </c>
-      <c r="C41" s="64" t="s">
-        <v>343</v>
-      </c>
-      <c r="D41" s="66"/>
-      <c r="E41" s="65"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="64" t="s">
-        <v>343</v>
-      </c>
-      <c r="H41" s="65"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="58"/>
-      <c r="L41" s="59"/>
-      <c r="M41" s="58"/>
-      <c r="N41" s="60"/>
-      <c r="O41" s="60"/>
-      <c r="P41" s="59"/>
+      <c r="B41" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" s="55"/>
+      <c r="D41" s="32" t="s">
+        <v>282</v>
+      </c>
+      <c r="E41" s="34"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H41" s="32" t="s">
+        <v>281</v>
+      </c>
+      <c r="I41" s="34"/>
+      <c r="J41" s="33"/>
+      <c r="K41" s="56" t="s">
+        <v>66</v>
+      </c>
+      <c r="L41" s="57"/>
+      <c r="M41" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="N41" s="52"/>
+      <c r="O41" s="52"/>
+      <c r="P41" s="53"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" s="28"/>
-      <c r="B42" s="64"/>
-      <c r="C42" s="66"/>
-      <c r="D42" s="66"/>
-      <c r="E42" s="65"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="64"/>
-      <c r="H42" s="65"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="58"/>
-      <c r="L42" s="59"/>
-      <c r="M42" s="58"/>
-      <c r="N42" s="60"/>
-      <c r="O42" s="60"/>
-      <c r="P42" s="59"/>
+      <c r="B42" s="54" t="s">
+        <v>98</v>
+      </c>
+      <c r="C42" s="55"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="34"/>
+      <c r="F42" s="34"/>
+      <c r="G42" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="H42" s="34"/>
+      <c r="I42" s="34"/>
+      <c r="J42" s="33"/>
+      <c r="K42" s="15"/>
+      <c r="L42" s="16"/>
+      <c r="M42" s="51"/>
+      <c r="N42" s="52"/>
+      <c r="O42" s="52"/>
+      <c r="P42" s="53"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A43" s="27">
-        <v>2</v>
-      </c>
+      <c r="A43" s="28"/>
       <c r="B43" s="54" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C43" s="55"/>
-      <c r="D43" s="32" t="s">
-        <v>411</v>
-      </c>
+      <c r="D43" s="32"/>
       <c r="E43" s="34"/>
       <c r="F43" s="34"/>
-      <c r="G43" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H43" s="32"/>
+      <c r="G43" s="34"/>
+      <c r="H43" s="34"/>
       <c r="I43" s="34"/>
       <c r="J43" s="33"/>
       <c r="K43" s="56" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="L43" s="57"/>
-      <c r="M43" s="74" t="s">
-        <v>412</v>
-      </c>
-      <c r="N43" s="75"/>
-      <c r="O43" s="75"/>
-      <c r="P43" s="76"/>
+      <c r="M43" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="N43" s="52"/>
+      <c r="O43" s="52"/>
+      <c r="P43" s="53"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="28"/>
-      <c r="B44" s="54" t="s">
-        <v>4</v>
-      </c>
-      <c r="C44" s="55"/>
-      <c r="D44" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="E44" s="34"/>
-      <c r="F44" s="34"/>
-      <c r="G44" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H44" s="32" t="s">
-        <v>402</v>
-      </c>
-      <c r="I44" s="34"/>
-      <c r="J44" s="33"/>
-      <c r="K44" s="56" t="s">
-        <v>66</v>
-      </c>
-      <c r="L44" s="57"/>
-      <c r="M44" s="51" t="s">
-        <v>67</v>
-      </c>
-      <c r="N44" s="52"/>
-      <c r="O44" s="52"/>
-      <c r="P44" s="53"/>
+      <c r="B44" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" s="69"/>
+      <c r="D44" s="69"/>
+      <c r="E44" s="69"/>
+      <c r="F44" s="69"/>
+      <c r="G44" s="69"/>
+      <c r="H44" s="69"/>
+      <c r="I44" s="69"/>
+      <c r="J44" s="68"/>
+      <c r="K44" s="67"/>
+      <c r="L44" s="68"/>
+      <c r="M44" s="67"/>
+      <c r="N44" s="69"/>
+      <c r="O44" s="69"/>
+      <c r="P44" s="68"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" s="28"/>
-      <c r="B45" s="54" t="s">
-        <v>98</v>
-      </c>
-      <c r="C45" s="55"/>
-      <c r="D45" s="32"/>
-      <c r="E45" s="34"/>
-      <c r="F45" s="34"/>
-      <c r="G45" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="H45" s="34"/>
-      <c r="I45" s="34"/>
-      <c r="J45" s="33"/>
-      <c r="K45" s="15"/>
-      <c r="L45" s="16"/>
-      <c r="M45" s="51"/>
-      <c r="N45" s="52"/>
-      <c r="O45" s="52"/>
-      <c r="P45" s="53"/>
+      <c r="B45" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C45" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" s="70"/>
+      <c r="E45" s="57"/>
+      <c r="F45" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G45" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="H45" s="57"/>
+      <c r="I45" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="J45" s="57"/>
+      <c r="K45" s="61"/>
+      <c r="L45" s="63"/>
+      <c r="M45" s="61"/>
+      <c r="N45" s="62"/>
+      <c r="O45" s="62"/>
+      <c r="P45" s="63"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" s="28"/>
-      <c r="B46" s="54" t="s">
-        <v>10</v>
-      </c>
-      <c r="C46" s="55"/>
-      <c r="D46" s="32"/>
-      <c r="E46" s="34"/>
-      <c r="F46" s="34"/>
-      <c r="G46" s="34"/>
-      <c r="H46" s="34"/>
-      <c r="I46" s="34"/>
-      <c r="J46" s="33"/>
-      <c r="K46" s="56" t="s">
-        <v>9</v>
-      </c>
-      <c r="L46" s="57"/>
-      <c r="M46" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="N46" s="52"/>
-      <c r="O46" s="52"/>
-      <c r="P46" s="53"/>
+      <c r="B46" s="8">
+        <v>1</v>
+      </c>
+      <c r="C46" s="64" t="s">
+        <v>340</v>
+      </c>
+      <c r="D46" s="66"/>
+      <c r="E46" s="65"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="64" t="s">
+        <v>340</v>
+      </c>
+      <c r="H46" s="65"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="58"/>
+      <c r="L46" s="59"/>
+      <c r="M46" s="58"/>
+      <c r="N46" s="60"/>
+      <c r="O46" s="60"/>
+      <c r="P46" s="59"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" s="28"/>
-      <c r="B47" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="C47" s="69"/>
-      <c r="D47" s="69"/>
-      <c r="E47" s="69"/>
-      <c r="F47" s="69"/>
-      <c r="G47" s="69"/>
-      <c r="H47" s="69"/>
-      <c r="I47" s="69"/>
-      <c r="J47" s="68"/>
-      <c r="K47" s="67"/>
-      <c r="L47" s="68"/>
-      <c r="M47" s="67"/>
-      <c r="N47" s="69"/>
-      <c r="O47" s="69"/>
-      <c r="P47" s="68"/>
+      <c r="B47" s="64"/>
+      <c r="C47" s="66"/>
+      <c r="D47" s="66"/>
+      <c r="E47" s="65"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="64"/>
+      <c r="H47" s="65"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="58"/>
+      <c r="L47" s="59"/>
+      <c r="M47" s="58"/>
+      <c r="N47" s="60"/>
+      <c r="O47" s="60"/>
+      <c r="P47" s="59"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A48" s="28"/>
-      <c r="B48" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C48" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="D48" s="70"/>
-      <c r="E48" s="57"/>
-      <c r="F48" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G48" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="H48" s="57"/>
-      <c r="I48" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="J48" s="57"/>
-      <c r="K48" s="61"/>
-      <c r="L48" s="63"/>
-      <c r="M48" s="61"/>
-      <c r="N48" s="62"/>
-      <c r="O48" s="62"/>
-      <c r="P48" s="63"/>
+      <c r="A48" s="27">
+        <v>2</v>
+      </c>
+      <c r="B48" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" s="55"/>
+      <c r="D48" s="32" t="s">
+        <v>402</v>
+      </c>
+      <c r="E48" s="34"/>
+      <c r="F48" s="34"/>
+      <c r="G48" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H48" s="32"/>
+      <c r="I48" s="34"/>
+      <c r="J48" s="33"/>
+      <c r="K48" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="L48" s="57"/>
+      <c r="M48" s="74" t="s">
+        <v>403</v>
+      </c>
+      <c r="N48" s="75"/>
+      <c r="O48" s="75"/>
+      <c r="P48" s="76"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" s="28"/>
-      <c r="B49" s="8">
-        <v>1</v>
-      </c>
-      <c r="C49" s="64" t="s">
-        <v>413</v>
-      </c>
-      <c r="D49" s="66"/>
-      <c r="E49" s="65"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="64" t="s">
-        <v>413</v>
-      </c>
-      <c r="H49" s="65"/>
-      <c r="I49" s="3"/>
-      <c r="J49" s="4"/>
-      <c r="K49" s="58"/>
-      <c r="L49" s="59"/>
-      <c r="M49" s="58"/>
-      <c r="N49" s="60"/>
-      <c r="O49" s="60"/>
-      <c r="P49" s="59"/>
+      <c r="B49" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" s="55"/>
+      <c r="D49" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" s="34"/>
+      <c r="F49" s="34"/>
+      <c r="G49" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H49" s="32" t="s">
+        <v>393</v>
+      </c>
+      <c r="I49" s="34"/>
+      <c r="J49" s="33"/>
+      <c r="K49" s="56" t="s">
+        <v>66</v>
+      </c>
+      <c r="L49" s="57"/>
+      <c r="M49" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="N49" s="52"/>
+      <c r="O49" s="52"/>
+      <c r="P49" s="53"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50" s="28"/>
-      <c r="B50" s="64"/>
-      <c r="C50" s="66"/>
-      <c r="D50" s="66"/>
-      <c r="E50" s="65"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="64"/>
-      <c r="H50" s="65"/>
-      <c r="I50" s="3"/>
-      <c r="J50" s="4"/>
-      <c r="K50" s="58"/>
-      <c r="L50" s="59"/>
-      <c r="M50" s="58"/>
-      <c r="N50" s="60"/>
-      <c r="O50" s="60"/>
-      <c r="P50" s="59"/>
+      <c r="B50" s="54" t="s">
+        <v>98</v>
+      </c>
+      <c r="C50" s="55"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="34"/>
+      <c r="F50" s="34"/>
+      <c r="G50" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="H50" s="34"/>
+      <c r="I50" s="34"/>
+      <c r="J50" s="33"/>
+      <c r="K50" s="15"/>
+      <c r="L50" s="16"/>
+      <c r="M50" s="51"/>
+      <c r="N50" s="52"/>
+      <c r="O50" s="52"/>
+      <c r="P50" s="53"/>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A51" s="28"/>
+      <c r="B51" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" s="55"/>
+      <c r="D51" s="32"/>
+      <c r="E51" s="34"/>
+      <c r="F51" s="34"/>
+      <c r="G51" s="34"/>
+      <c r="H51" s="34"/>
+      <c r="I51" s="34"/>
+      <c r="J51" s="33"/>
+      <c r="K51" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="L51" s="57"/>
+      <c r="M51" s="51" t="s">
+        <v>102</v>
+      </c>
+      <c r="N51" s="52"/>
+      <c r="O51" s="52"/>
+      <c r="P51" s="53"/>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A52" s="28"/>
+      <c r="B52" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="C52" s="69"/>
+      <c r="D52" s="69"/>
+      <c r="E52" s="69"/>
+      <c r="F52" s="69"/>
+      <c r="G52" s="69"/>
+      <c r="H52" s="69"/>
+      <c r="I52" s="69"/>
+      <c r="J52" s="68"/>
+      <c r="K52" s="67"/>
+      <c r="L52" s="68"/>
+      <c r="M52" s="67"/>
+      <c r="N52" s="69"/>
+      <c r="O52" s="69"/>
+      <c r="P52" s="68"/>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A53" s="28"/>
+      <c r="B53" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C53" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="D53" s="70"/>
+      <c r="E53" s="57"/>
+      <c r="F53" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G53" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="H53" s="57"/>
+      <c r="I53" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="J53" s="57"/>
+      <c r="K53" s="61"/>
+      <c r="L53" s="63"/>
+      <c r="M53" s="61"/>
+      <c r="N53" s="62"/>
+      <c r="O53" s="62"/>
+      <c r="P53" s="63"/>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A54" s="28"/>
+      <c r="B54" s="8">
+        <v>1</v>
+      </c>
+      <c r="C54" s="64" t="s">
+        <v>404</v>
+      </c>
+      <c r="D54" s="66"/>
+      <c r="E54" s="65"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="64" t="s">
+        <v>404</v>
+      </c>
+      <c r="H54" s="65"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="58"/>
+      <c r="L54" s="59"/>
+      <c r="M54" s="58"/>
+      <c r="N54" s="60"/>
+      <c r="O54" s="60"/>
+      <c r="P54" s="59"/>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A55" s="28"/>
+      <c r="B55" s="64"/>
+      <c r="C55" s="66"/>
+      <c r="D55" s="66"/>
+      <c r="E55" s="65"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="64"/>
+      <c r="H55" s="65"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="4"/>
+      <c r="K55" s="58"/>
+      <c r="L55" s="59"/>
+      <c r="M55" s="58"/>
+      <c r="N55" s="60"/>
+      <c r="O55" s="60"/>
+      <c r="P55" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="84">
@@ -4161,82 +4557,82 @@
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="D4:L4"/>
     <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A34:P34"/>
-    <mergeCell ref="A35:A42"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="M35:P35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:P36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="M37:P37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:P38"/>
-    <mergeCell ref="B39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:P39"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="M42:P42"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="A39:P39"/>
+    <mergeCell ref="A40:A47"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="H40:J40"/>
     <mergeCell ref="K40:L40"/>
     <mergeCell ref="M40:P40"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="H41:J41"/>
     <mergeCell ref="K41:L41"/>
     <mergeCell ref="M41:P41"/>
-    <mergeCell ref="A43:A50"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="M42:P42"/>
     <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="D43:J43"/>
     <mergeCell ref="K43:L43"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="B47:J47"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="K49:L49"/>
     <mergeCell ref="M43:P43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="B44:J44"/>
     <mergeCell ref="K44:L44"/>
     <mergeCell ref="M44:P44"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="M47:P47"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="K45:L45"/>
     <mergeCell ref="M45:P45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:J46"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="G46:H46"/>
     <mergeCell ref="K46:L46"/>
     <mergeCell ref="M46:P46"/>
-    <mergeCell ref="M47:P47"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="A48:A55"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="H48:J48"/>
     <mergeCell ref="K48:L48"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="B52:J52"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="K54:L54"/>
     <mergeCell ref="M48:P48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="K49:L49"/>
     <mergeCell ref="M49:P49"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="K50:L50"/>
     <mergeCell ref="M50:P50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:J51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="M51:P51"/>
+    <mergeCell ref="M52:P52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="M53:P53"/>
+    <mergeCell ref="M54:P54"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="M55:P55"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="M35:P35" location="nop_dyn_entity_meta!A1" display="NopDynEntityMeta" xr:uid="{33AE4065-0F68-4806-879B-8B3C0D52F0DF}"/>
-    <hyperlink ref="M43:P43" location="nop_dyn_domain!A1" display="NopDynDomain" xr:uid="{5E9AFE7B-6052-4101-8215-3EB9FF91CEF6}"/>
+    <hyperlink ref="M40:P40" location="nop_dyn_entity_meta!A1" display="NopDynEntityMeta" xr:uid="{33AE4065-0F68-4806-879B-8B3C0D52F0DF}"/>
+    <hyperlink ref="M48:P48" location="nop_dyn_domain!A1" display="NopDynDomain" xr:uid="{5E9AFE7B-6052-4101-8215-3EB9FF91CEF6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -4244,11 +4640,11 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D349AB67-F500-46D9-95AE-D8168334F4A6}">
-  <dimension ref="A1:P21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D66624B-686C-432C-B2AF-E2E183AF36AB}">
+  <dimension ref="A1:P43"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:G1"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4274,7 +4670,7 @@
       <c r="B1" s="47"/>
       <c r="C1" s="47"/>
       <c r="D1" s="48" t="s">
-        <v>414</v>
+        <v>448</v>
       </c>
       <c r="E1" s="49"/>
       <c r="F1" s="49"/>
@@ -4298,7 +4694,7 @@
       <c r="B2" s="47"/>
       <c r="C2" s="47"/>
       <c r="D2" s="48" t="s">
-        <v>8</v>
+        <v>449</v>
       </c>
       <c r="E2" s="49"/>
       <c r="F2" s="49"/>
@@ -4307,7 +4703,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="51" t="s">
-        <v>402</v>
+        <v>450</v>
       </c>
       <c r="J2" s="52"/>
       <c r="K2" s="52"/>
@@ -4456,14 +4852,16 @@
         <v>87</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>408</v>
-      </c>
-      <c r="E8" s="7"/>
+        <v>451</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>104</v>
+      </c>
       <c r="F8" s="9" t="s">
-        <v>409</v>
+        <v>452</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>410</v>
+        <v>453</v>
       </c>
       <c r="H8" s="9"/>
       <c r="I8" s="7" t="s">
@@ -4488,14 +4886,14 @@
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="9" t="s">
-        <v>403</v>
-      </c>
-      <c r="E9" s="7"/>
+        <v>454</v>
+      </c>
+      <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
-        <v>404</v>
+        <v>455</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>405</v>
+        <v>456</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="7" t="s">
@@ -4505,7 +4903,7 @@
         <v>28</v>
       </c>
       <c r="K9" s="7">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="L9" s="7"/>
       <c r="M9" s="9"/>
@@ -4520,14 +4918,14 @@
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="9" t="s">
-        <v>60</v>
+        <v>457</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="9" t="s">
-        <v>142</v>
+        <v>458</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>241</v>
+        <v>459</v>
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="7" t="s">
@@ -4537,7 +4935,7 @@
         <v>28</v>
       </c>
       <c r="K10" s="7">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="L10" s="7"/>
       <c r="M10" s="9"/>
@@ -4552,11 +4950,1288 @@
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="9" t="s">
-        <v>406</v>
+        <v>445</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="9" t="s">
-        <v>407</v>
+        <v>446</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="H11" s="9"/>
+      <c r="I11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K11" s="7">
+        <v>100</v>
+      </c>
+      <c r="L11" s="7"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="1"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="7">
+        <v>5</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="H12" s="9"/>
+      <c r="I12" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12" s="7">
+        <v>100</v>
+      </c>
+      <c r="L12" s="7"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="1"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="7">
+        <v>6</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="H13" s="9"/>
+      <c r="I13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13" s="7">
+        <v>100</v>
+      </c>
+      <c r="L13" s="7"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="1"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="7">
+        <v>7</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="H14" s="9"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K14" s="7">
+        <v>100</v>
+      </c>
+      <c r="L14" s="7"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="1"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" s="7">
+        <v>8</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="H15" s="9"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K15" s="7">
+        <v>100</v>
+      </c>
+      <c r="L15" s="7"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="1"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="7">
+        <v>9</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" s="9"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K16" s="7">
+        <v>200</v>
+      </c>
+      <c r="L16" s="7"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="1"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A17" s="7">
+        <v>10</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="H17" s="9"/>
+      <c r="I17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="1"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18" s="7">
+        <v>11</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="I18" s="7"/>
+      <c r="J18" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K18" s="7">
+        <v>1000</v>
+      </c>
+      <c r="L18" s="7"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="1"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A19" s="7">
+        <v>12</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="1"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A20" s="7">
+        <v>13</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="7"/>
+      <c r="F20" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K20" s="7">
+        <v>50</v>
+      </c>
+      <c r="L20" s="7"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="1"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A21" s="7">
+        <v>14</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="7"/>
+      <c r="F21" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="1"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A22" s="7">
+        <v>15</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" s="7"/>
+      <c r="F22" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K22" s="7">
+        <v>50</v>
+      </c>
+      <c r="L22" s="7"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="1"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A23" s="7">
+        <v>16</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" s="7"/>
+      <c r="F23" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="1"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A24" s="7">
+        <v>17</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="I24" s="7"/>
+      <c r="J24" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K24" s="7">
+        <v>200</v>
+      </c>
+      <c r="L24" s="7"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="1"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="1"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A27" s="71" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="72"/>
+      <c r="C27" s="72"/>
+      <c r="D27" s="72"/>
+      <c r="E27" s="72"/>
+      <c r="F27" s="72"/>
+      <c r="G27" s="72"/>
+      <c r="H27" s="72"/>
+      <c r="I27" s="72"/>
+      <c r="J27" s="72"/>
+      <c r="K27" s="72"/>
+      <c r="L27" s="72"/>
+      <c r="M27" s="72"/>
+      <c r="N27" s="72"/>
+      <c r="O27" s="72"/>
+      <c r="P27" s="73"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A28" s="27">
+        <v>1</v>
+      </c>
+      <c r="B28" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="55"/>
+      <c r="D28" s="32" t="s">
+        <v>473</v>
+      </c>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H28" s="32"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="L28" s="57"/>
+      <c r="M28" s="74" t="s">
+        <v>339</v>
+      </c>
+      <c r="N28" s="75"/>
+      <c r="O28" s="75"/>
+      <c r="P28" s="76"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A29" s="28"/>
+      <c r="B29" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="55"/>
+      <c r="D29" s="32" t="s">
+        <v>474</v>
+      </c>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H29" s="32" t="s">
+        <v>475</v>
+      </c>
+      <c r="I29" s="34"/>
+      <c r="J29" s="33"/>
+      <c r="K29" s="56" t="s">
+        <v>66</v>
+      </c>
+      <c r="L29" s="57"/>
+      <c r="M29" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="N29" s="52"/>
+      <c r="O29" s="52"/>
+      <c r="P29" s="53"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A30" s="28"/>
+      <c r="B30" s="54" t="s">
+        <v>98</v>
+      </c>
+      <c r="C30" s="55"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="H30" s="34"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="51"/>
+      <c r="N30" s="52"/>
+      <c r="O30" s="52"/>
+      <c r="P30" s="53"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A31" s="28"/>
+      <c r="B31" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="55"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="33"/>
+      <c r="K31" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="L31" s="57"/>
+      <c r="M31" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="N31" s="52"/>
+      <c r="O31" s="52"/>
+      <c r="P31" s="53"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A32" s="28"/>
+      <c r="B32" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" s="69"/>
+      <c r="D32" s="69"/>
+      <c r="E32" s="69"/>
+      <c r="F32" s="69"/>
+      <c r="G32" s="69"/>
+      <c r="H32" s="69"/>
+      <c r="I32" s="69"/>
+      <c r="J32" s="68"/>
+      <c r="K32" s="67"/>
+      <c r="L32" s="68"/>
+      <c r="M32" s="67"/>
+      <c r="N32" s="69"/>
+      <c r="O32" s="69"/>
+      <c r="P32" s="68"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A33" s="28"/>
+      <c r="B33" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="70"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="H33" s="57"/>
+      <c r="I33" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="J33" s="57"/>
+      <c r="K33" s="61"/>
+      <c r="L33" s="63"/>
+      <c r="M33" s="61"/>
+      <c r="N33" s="62"/>
+      <c r="O33" s="62"/>
+      <c r="P33" s="63"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A34" s="28"/>
+      <c r="B34" s="8">
+        <v>1</v>
+      </c>
+      <c r="C34" s="64" t="s">
+        <v>476</v>
+      </c>
+      <c r="D34" s="66"/>
+      <c r="E34" s="65"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="64" t="s">
+        <v>340</v>
+      </c>
+      <c r="H34" s="65"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="58"/>
+      <c r="L34" s="59"/>
+      <c r="M34" s="58"/>
+      <c r="N34" s="60"/>
+      <c r="O34" s="60"/>
+      <c r="P34" s="59"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A35" s="28"/>
+      <c r="B35" s="64"/>
+      <c r="C35" s="66"/>
+      <c r="D35" s="66"/>
+      <c r="E35" s="65"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="64"/>
+      <c r="H35" s="65"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="58"/>
+      <c r="L35" s="59"/>
+      <c r="M35" s="58"/>
+      <c r="N35" s="60"/>
+      <c r="O35" s="60"/>
+      <c r="P35" s="59"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A36" s="27">
+        <v>2</v>
+      </c>
+      <c r="B36" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="55"/>
+      <c r="D36" s="32" t="s">
+        <v>477</v>
+      </c>
+      <c r="E36" s="34"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H36" s="32"/>
+      <c r="I36" s="34"/>
+      <c r="J36" s="33"/>
+      <c r="K36" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="L36" s="57"/>
+      <c r="M36" s="74" t="s">
+        <v>339</v>
+      </c>
+      <c r="N36" s="75"/>
+      <c r="O36" s="75"/>
+      <c r="P36" s="76"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A37" s="28"/>
+      <c r="B37" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="55"/>
+      <c r="D37" s="32" t="s">
+        <v>478</v>
+      </c>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H37" s="32" t="s">
+        <v>479</v>
+      </c>
+      <c r="I37" s="34"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="56" t="s">
+        <v>66</v>
+      </c>
+      <c r="L37" s="57"/>
+      <c r="M37" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="N37" s="52"/>
+      <c r="O37" s="52"/>
+      <c r="P37" s="53"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A38" s="28"/>
+      <c r="B38" s="54" t="s">
+        <v>98</v>
+      </c>
+      <c r="C38" s="55"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="H38" s="34"/>
+      <c r="I38" s="34"/>
+      <c r="J38" s="33"/>
+      <c r="K38" s="15"/>
+      <c r="L38" s="16"/>
+      <c r="M38" s="51"/>
+      <c r="N38" s="52"/>
+      <c r="O38" s="52"/>
+      <c r="P38" s="53"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A39" s="28"/>
+      <c r="B39" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="55"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="34"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="34"/>
+      <c r="H39" s="34"/>
+      <c r="I39" s="34"/>
+      <c r="J39" s="33"/>
+      <c r="K39" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="L39" s="57"/>
+      <c r="M39" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="N39" s="52"/>
+      <c r="O39" s="52"/>
+      <c r="P39" s="53"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A40" s="28"/>
+      <c r="B40" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" s="69"/>
+      <c r="D40" s="69"/>
+      <c r="E40" s="69"/>
+      <c r="F40" s="69"/>
+      <c r="G40" s="69"/>
+      <c r="H40" s="69"/>
+      <c r="I40" s="69"/>
+      <c r="J40" s="68"/>
+      <c r="K40" s="67"/>
+      <c r="L40" s="68"/>
+      <c r="M40" s="67"/>
+      <c r="N40" s="69"/>
+      <c r="O40" s="69"/>
+      <c r="P40" s="68"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A41" s="28"/>
+      <c r="B41" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" s="70"/>
+      <c r="E41" s="57"/>
+      <c r="F41" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G41" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="H41" s="57"/>
+      <c r="I41" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="J41" s="57"/>
+      <c r="K41" s="61"/>
+      <c r="L41" s="63"/>
+      <c r="M41" s="61"/>
+      <c r="N41" s="62"/>
+      <c r="O41" s="62"/>
+      <c r="P41" s="63"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A42" s="28"/>
+      <c r="B42" s="8">
+        <v>1</v>
+      </c>
+      <c r="C42" s="64" t="s">
+        <v>480</v>
+      </c>
+      <c r="D42" s="66"/>
+      <c r="E42" s="65"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="64" t="s">
+        <v>340</v>
+      </c>
+      <c r="H42" s="65"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="58"/>
+      <c r="L42" s="59"/>
+      <c r="M42" s="58"/>
+      <c r="N42" s="60"/>
+      <c r="O42" s="60"/>
+      <c r="P42" s="59"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A43" s="28"/>
+      <c r="B43" s="64"/>
+      <c r="C43" s="66"/>
+      <c r="D43" s="66"/>
+      <c r="E43" s="65"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="64"/>
+      <c r="H43" s="65"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="58"/>
+      <c r="L43" s="59"/>
+      <c r="M43" s="58"/>
+      <c r="N43" s="60"/>
+      <c r="O43" s="60"/>
+      <c r="P43" s="59"/>
+    </row>
+  </sheetData>
+  <mergeCells count="84">
+    <mergeCell ref="M42:P42"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="M43:P43"/>
+    <mergeCell ref="M40:P40"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:P41"/>
+    <mergeCell ref="M38:P38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:P39"/>
+    <mergeCell ref="M36:P36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:P37"/>
+    <mergeCell ref="A36:A43"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="B40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:L4"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A27:P27"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="B32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:P32"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="M35:P35"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="M33:P33"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="M34:P34"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="M28:P28" location="nop_dyn_entity_meta!A1" display="NopDynEntityMeta" xr:uid="{47FF5A90-3E8F-4B46-AD4E-21D9C5415D4E}"/>
+    <hyperlink ref="M36:P36" location="nop_dyn_entity_meta!A1" display="NopDynEntityMeta" xr:uid="{D9F0C3B3-C17E-45F1-A5B4-6BB30CE5C867}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D349AB67-F500-46D9-95AE-D8168334F4A6}">
+  <dimension ref="A1:P21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.33203125" customWidth="1"/>
+    <col min="2" max="2" width="4.4140625" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.9140625" customWidth="1"/>
+    <col min="5" max="5" width="5.08203125" customWidth="1"/>
+    <col min="6" max="6" width="15.08203125" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="9" max="9" width="4.75" customWidth="1"/>
+    <col min="10" max="10" width="11" customWidth="1"/>
+    <col min="11" max="11" width="6.08203125" customWidth="1"/>
+    <col min="12" max="12" width="8.25" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="48" t="s">
+        <v>405</v>
+      </c>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="32"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="51" t="s">
+        <v>393</v>
+      </c>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="32"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="33"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="46"/>
+      <c r="O6" s="46"/>
+      <c r="P6" s="46"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
+        <v>1</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="H8" s="9"/>
+      <c r="I8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="7">
+        <v>32</v>
+      </c>
+      <c r="L8" s="7"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="1"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
+        <v>2</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="H9" s="9"/>
+      <c r="I9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="7">
+        <v>50</v>
+      </c>
+      <c r="L9" s="7"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
+        <v>3</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="H10" s="9"/>
+      <c r="I10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" s="7">
+        <v>100</v>
+      </c>
+      <c r="L10" s="7"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="1"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
+        <v>4</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="9" t="s">
+        <v>398</v>
       </c>
       <c r="G11" s="9" t="s">
         <v>62</v>
@@ -4571,7 +6246,7 @@
       </c>
       <c r="L11" s="7"/>
       <c r="M11" s="9" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="N11" s="9"/>
       <c r="O11" s="7"/>
@@ -4584,14 +6259,14 @@
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="9" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="9" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="H12" s="9"/>
       <c r="I12" s="7" t="s">
@@ -4605,7 +6280,7 @@
       </c>
       <c r="L12" s="7"/>
       <c r="M12" s="9" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="N12" s="9"/>
       <c r="O12" s="7"/>
@@ -4618,11 +6293,11 @@
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="9" t="s">
-        <v>346</v>
+        <v>416</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="9" t="s">
-        <v>347</v>
+        <v>417</v>
       </c>
       <c r="G13" s="9" t="s">
         <v>6</v>
@@ -4646,11 +6321,11 @@
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="9" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="9" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="G14" s="9" t="s">
         <v>7</v>
@@ -4909,11 +6584,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2A916FD-1DF6-4F49-9D99-66DD7EC19D8D}">
   <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
@@ -6437,6 +8112,650 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AD7D9E9-B50D-4F1F-8CE6-988661D177E2}">
+  <dimension ref="A1:P20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.33203125" customWidth="1"/>
+    <col min="2" max="2" width="4.4140625" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.9140625" customWidth="1"/>
+    <col min="5" max="5" width="5.08203125" customWidth="1"/>
+    <col min="6" max="6" width="15.08203125" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="9" max="9" width="4.75" customWidth="1"/>
+    <col min="10" max="10" width="11" customWidth="1"/>
+    <col min="11" max="11" width="6.08203125" customWidth="1"/>
+    <col min="12" max="12" width="8.25" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="48" t="s">
+        <v>443</v>
+      </c>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="32"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="48" t="s">
+        <v>430</v>
+      </c>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="51" t="s">
+        <v>444</v>
+      </c>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="32"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="33"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="46"/>
+      <c r="O6" s="46"/>
+      <c r="P6" s="46"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
+        <v>1</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="9"/>
+      <c r="I8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="7">
+        <v>32</v>
+      </c>
+      <c r="L8" s="7"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="1"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
+        <v>2</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="H9" s="9"/>
+      <c r="I9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="7">
+        <v>50</v>
+      </c>
+      <c r="L9" s="7"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
+        <v>3</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="H10" s="9"/>
+      <c r="I10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" s="7">
+        <v>100</v>
+      </c>
+      <c r="L10" s="7"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="1"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
+        <v>4</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="H11" s="9"/>
+      <c r="I11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K11" s="7">
+        <v>50</v>
+      </c>
+      <c r="L11" s="7"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="1"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="7">
+        <v>5</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="H12" s="9"/>
+      <c r="I12" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12" s="7">
+        <v>100</v>
+      </c>
+      <c r="L12" s="7"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="1"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="7">
+        <v>6</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="H13" s="9"/>
+      <c r="I13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13" s="7">
+        <v>50</v>
+      </c>
+      <c r="L13" s="7"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="1"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="7">
+        <v>7</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="1"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" s="7">
+        <v>8</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K15" s="7">
+        <v>50</v>
+      </c>
+      <c r="L15" s="7"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="1"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="7">
+        <v>9</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="1"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A17" s="7">
+        <v>10</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K17" s="7">
+        <v>50</v>
+      </c>
+      <c r="L17" s="7"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="1"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18" s="7">
+        <v>11</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="1"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A19" s="7">
+        <v>12</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="I19" s="7"/>
+      <c r="J19" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K19" s="7">
+        <v>200</v>
+      </c>
+      <c r="L19" s="7"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="1"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:L4"/>
+    <mergeCell ref="A5:P5"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9313AC94-4A2B-4F66-85AD-4A3D79664E62}">
   <dimension ref="A1:C16"/>
@@ -6986,10 +9305,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>28</v>
@@ -8213,8 +10532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F0DE455-FF29-43D0-9612-7232A83DF9B7}">
   <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -8456,17 +10775,17 @@
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="9" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="9" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="I9" s="7" t="s">
         <v>27</v>
@@ -8490,14 +10809,14 @@
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="9" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="9" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="7" t="s">
@@ -8586,14 +10905,14 @@
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="9" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="9" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="H13" s="9"/>
       <c r="I13" s="7"/>
@@ -8616,14 +10935,14 @@
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="9" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="9" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="H14" s="9"/>
       <c r="I14" s="7"/>
@@ -8969,7 +11288,7 @@
       </c>
       <c r="C27" s="55"/>
       <c r="D27" s="32" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="E27" s="34"/>
       <c r="F27" s="34"/>
@@ -8977,7 +11296,7 @@
         <v>99</v>
       </c>
       <c r="H27" s="34" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="I27" s="34"/>
       <c r="J27" s="33"/>
@@ -9245,7 +11564,7 @@
       <c r="B3" s="47"/>
       <c r="C3" s="47"/>
       <c r="D3" s="48" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="E3" s="49"/>
       <c r="F3" s="49"/>
@@ -10168,8 +12487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70090909-6FEC-4A13-BB6C-D86D907DAE18}">
   <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD16"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -10915,7 +13234,7 @@
       </c>
       <c r="C26" s="55"/>
       <c r="D26" s="32" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="E26" s="34"/>
       <c r="F26" s="34"/>
@@ -10923,7 +13242,7 @@
         <v>99</v>
       </c>
       <c r="H26" s="34" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="I26" s="34"/>
       <c r="J26" s="33"/>
@@ -11114,8 +13433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC0BA8A4-9C3E-4604-A099-A93C4C69087F}">
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -11323,13 +13642,13 @@
         <v>87</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>104</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="G8" s="9" t="s">
         <v>321</v>
@@ -11455,11 +13774,11 @@
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="9" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="9" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="G12" s="9" t="s">
         <v>0</v>
@@ -11485,14 +13804,14 @@
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="9" t="s">
-        <v>382</v>
+        <v>425</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="9" t="s">
-        <v>383</v>
+        <v>426</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>11</v>
+        <v>427</v>
       </c>
       <c r="H13" s="9"/>
       <c r="I13" s="7"/>
@@ -11547,11 +13866,11 @@
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="9" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="9" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="G15" s="9" t="s">
         <v>9</v>
@@ -11575,33 +13894,29 @@
         <v>9</v>
       </c>
       <c r="B16" s="7"/>
-      <c r="C16" s="7" t="s">
-        <v>237</v>
-      </c>
+      <c r="C16" s="7"/>
       <c r="D16" s="9" t="s">
-        <v>329</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>104</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="E16" s="7"/>
       <c r="F16" s="9" t="s">
-        <v>330</v>
+        <v>34</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>331</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="I16" s="7"/>
+        <v>95</v>
+      </c>
+      <c r="H16" s="9"/>
+      <c r="I16" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="J16" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>135</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="K16" s="7"/>
       <c r="L16" s="7"/>
-      <c r="M16" s="9"/>
+      <c r="M16" s="9" t="s">
+        <v>232</v>
+      </c>
       <c r="N16" s="9"/>
       <c r="O16" s="7"/>
       <c r="P16" s="1"/>
@@ -11613,27 +13928,27 @@
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="9" t="s">
-        <v>33</v>
+        <v>428</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="9" t="s">
-        <v>34</v>
+        <v>429</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="H17" s="9"/>
-      <c r="I17" s="7" t="s">
-        <v>27</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="I17" s="7"/>
       <c r="J17" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="K17" s="7"/>
+        <v>28</v>
+      </c>
+      <c r="K17" s="7">
+        <v>1000</v>
+      </c>
       <c r="L17" s="7"/>
-      <c r="M17" s="9" t="s">
-        <v>232</v>
-      </c>
+      <c r="M17" s="9"/>
       <c r="N17" s="9"/>
       <c r="O17" s="7"/>
       <c r="P17" s="1"/>
@@ -11893,7 +14208,7 @@
         <v>57</v>
       </c>
       <c r="H27" s="32" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="I27" s="34"/>
       <c r="J27" s="33"/>
@@ -11945,7 +14260,7 @@
       </c>
       <c r="C29" s="55"/>
       <c r="D29" s="32" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="E29" s="34"/>
       <c r="F29" s="34"/>
@@ -11953,7 +14268,7 @@
         <v>99</v>
       </c>
       <c r="H29" s="34" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="I29" s="34"/>
       <c r="J29" s="33"/>

--- a/nop-dyn/model/nop-dyn.orm.xlsx
+++ b/nop-dyn/model/nop-dyn.orm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-dyn\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF1E51C-21B7-4326-9213-E865486858B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF2DAEDD-4CA6-48DC-927C-EA8129F469EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" firstSheet="7" activeTab="10" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" firstSheet="11" activeTab="14" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="2" r:id="rId1"/>
@@ -24,9 +24,10 @@
     <sheet name="nop_dyn_entity_meta" sheetId="32" r:id="rId9"/>
     <sheet name="nop_dyn_prop_meta" sheetId="33" r:id="rId10"/>
     <sheet name="nop_dyn_entity_relation_meta" sheetId="36" r:id="rId11"/>
-    <sheet name="nop_dyn_domain" sheetId="34" r:id="rId12"/>
-    <sheet name="nop_dyn_entity" sheetId="28" r:id="rId13"/>
-    <sheet name="nop_dyn_entity_relation" sheetId="35" r:id="rId14"/>
+    <sheet name="nop_dyn_function_meta" sheetId="37" r:id="rId12"/>
+    <sheet name="nop_dyn_domain" sheetId="34" r:id="rId13"/>
+    <sheet name="nop_dyn_entity" sheetId="28" r:id="rId14"/>
+    <sheet name="nop_dyn_entity_relation" sheetId="35" r:id="rId15"/>
   </sheets>
   <definedNames>
     <definedName name="app_status">字典定义!$A$1:$G$9</definedName>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1620" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1803" uniqueCount="520">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1965,6 +1966,162 @@
   </si>
   <si>
     <t>entity2MetaId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>函数名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实体函数定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>函数类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dyn/function-type</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>函数类型</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Function Type</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>query</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>QUERY</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>mutation</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MUTATION</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>subscription</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>订阅</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUBSCRIPTION</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>loader</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>加载器</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOADER</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Function Meta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nop_dyn_function_meta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FUNC_META_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Function Meta ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>函数定义ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FUNCTION_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Function Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dyn/function-type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOURCE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Source</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>源码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>json-4K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARGS_META</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RETURN_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Return Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>functionMetas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>函数定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Function Metas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录实体之间的多对多关联关系。仅记录关联关系，不记录其他关联属性</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2312,25 +2469,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2369,7 +2517,13 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2393,25 +2547,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2421,36 +2608,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
@@ -3007,132 +3164,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="48" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="47" t="s">
         <v>329</v>
       </c>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="50"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="49"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="32"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="33"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="28"/>
       <c r="N1" s="14"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="48" t="s">
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="47" t="s">
         <v>330</v>
       </c>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="50"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="49"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="51" t="s">
+      <c r="I2" s="50" t="s">
         <v>331</v>
       </c>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="53"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="52"/>
       <c r="N2" s="13"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="50"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="49"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="33"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="28"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="50"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="49"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="32"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="33"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="28"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="46"/>
-      <c r="O6" s="46"/>
-      <c r="P6" s="46"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="53"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="53"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -4129,50 +4286,50 @@
       <c r="P37" s="1"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A39" s="71" t="s">
+      <c r="A39" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="B39" s="72"/>
-      <c r="C39" s="72"/>
-      <c r="D39" s="72"/>
-      <c r="E39" s="72"/>
-      <c r="F39" s="72"/>
-      <c r="G39" s="72"/>
-      <c r="H39" s="72"/>
-      <c r="I39" s="72"/>
-      <c r="J39" s="72"/>
-      <c r="K39" s="72"/>
-      <c r="L39" s="72"/>
-      <c r="M39" s="72"/>
-      <c r="N39" s="72"/>
-      <c r="O39" s="72"/>
-      <c r="P39" s="73"/>
+      <c r="B39" s="69"/>
+      <c r="C39" s="69"/>
+      <c r="D39" s="69"/>
+      <c r="E39" s="69"/>
+      <c r="F39" s="69"/>
+      <c r="G39" s="69"/>
+      <c r="H39" s="69"/>
+      <c r="I39" s="69"/>
+      <c r="J39" s="69"/>
+      <c r="K39" s="69"/>
+      <c r="L39" s="69"/>
+      <c r="M39" s="69"/>
+      <c r="N39" s="69"/>
+      <c r="O39" s="69"/>
+      <c r="P39" s="70"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A40" s="27">
+      <c r="A40" s="43">
         <v>1</v>
       </c>
-      <c r="B40" s="54" t="s">
+      <c r="B40" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="C40" s="55"/>
-      <c r="D40" s="32" t="s">
+      <c r="C40" s="61"/>
+      <c r="D40" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="E40" s="34"/>
-      <c r="F40" s="34"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="31"/>
       <c r="G40" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H40" s="32" t="s">
+      <c r="H40" s="27" t="s">
         <v>338</v>
       </c>
-      <c r="I40" s="34"/>
-      <c r="J40" s="33"/>
-      <c r="K40" s="56" t="s">
+      <c r="I40" s="31"/>
+      <c r="J40" s="28"/>
+      <c r="K40" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="L40" s="57"/>
+      <c r="L40" s="56"/>
       <c r="M40" s="74" t="s">
         <v>339</v>
       </c>
@@ -4181,194 +4338,194 @@
       <c r="P40" s="76"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A41" s="28"/>
-      <c r="B41" s="54" t="s">
+      <c r="A41" s="44"/>
+      <c r="B41" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="C41" s="55"/>
-      <c r="D41" s="32" t="s">
+      <c r="C41" s="61"/>
+      <c r="D41" s="27" t="s">
         <v>282</v>
       </c>
-      <c r="E41" s="34"/>
-      <c r="F41" s="34"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
       <c r="G41" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H41" s="32" t="s">
+      <c r="H41" s="27" t="s">
         <v>281</v>
       </c>
-      <c r="I41" s="34"/>
-      <c r="J41" s="33"/>
-      <c r="K41" s="56" t="s">
+      <c r="I41" s="31"/>
+      <c r="J41" s="28"/>
+      <c r="K41" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="L41" s="57"/>
-      <c r="M41" s="51" t="s">
+      <c r="L41" s="56"/>
+      <c r="M41" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="N41" s="52"/>
-      <c r="O41" s="52"/>
-      <c r="P41" s="53"/>
+      <c r="N41" s="51"/>
+      <c r="O41" s="51"/>
+      <c r="P41" s="52"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A42" s="28"/>
-      <c r="B42" s="54" t="s">
+      <c r="A42" s="44"/>
+      <c r="B42" s="60" t="s">
         <v>98</v>
       </c>
-      <c r="C42" s="55"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="34"/>
-      <c r="F42" s="34"/>
+      <c r="C42" s="61"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
       <c r="G42" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="H42" s="34"/>
-      <c r="I42" s="34"/>
-      <c r="J42" s="33"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="28"/>
       <c r="K42" s="15"/>
       <c r="L42" s="16"/>
-      <c r="M42" s="51"/>
-      <c r="N42" s="52"/>
-      <c r="O42" s="52"/>
-      <c r="P42" s="53"/>
+      <c r="M42" s="50"/>
+      <c r="N42" s="51"/>
+      <c r="O42" s="51"/>
+      <c r="P42" s="52"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A43" s="28"/>
-      <c r="B43" s="54" t="s">
+      <c r="A43" s="44"/>
+      <c r="B43" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="C43" s="55"/>
-      <c r="D43" s="32"/>
-      <c r="E43" s="34"/>
-      <c r="F43" s="34"/>
-      <c r="G43" s="34"/>
-      <c r="H43" s="34"/>
-      <c r="I43" s="34"/>
-      <c r="J43" s="33"/>
-      <c r="K43" s="56" t="s">
+      <c r="C43" s="61"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="28"/>
+      <c r="K43" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="L43" s="57"/>
-      <c r="M43" s="51" t="s">
+      <c r="L43" s="56"/>
+      <c r="M43" s="50" t="s">
         <v>143</v>
       </c>
-      <c r="N43" s="52"/>
-      <c r="O43" s="52"/>
-      <c r="P43" s="53"/>
+      <c r="N43" s="51"/>
+      <c r="O43" s="51"/>
+      <c r="P43" s="52"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A44" s="28"/>
-      <c r="B44" s="67" t="s">
+      <c r="A44" s="44"/>
+      <c r="B44" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="C44" s="69"/>
-      <c r="D44" s="69"/>
-      <c r="E44" s="69"/>
-      <c r="F44" s="69"/>
-      <c r="G44" s="69"/>
-      <c r="H44" s="69"/>
-      <c r="I44" s="69"/>
-      <c r="J44" s="68"/>
-      <c r="K44" s="67"/>
-      <c r="L44" s="68"/>
-      <c r="M44" s="67"/>
-      <c r="N44" s="69"/>
-      <c r="O44" s="69"/>
-      <c r="P44" s="68"/>
+      <c r="C44" s="63"/>
+      <c r="D44" s="63"/>
+      <c r="E44" s="63"/>
+      <c r="F44" s="63"/>
+      <c r="G44" s="63"/>
+      <c r="H44" s="63"/>
+      <c r="I44" s="63"/>
+      <c r="J44" s="64"/>
+      <c r="K44" s="62"/>
+      <c r="L44" s="64"/>
+      <c r="M44" s="62"/>
+      <c r="N44" s="63"/>
+      <c r="O44" s="63"/>
+      <c r="P44" s="64"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A45" s="28"/>
+      <c r="A45" s="44"/>
       <c r="B45" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C45" s="56" t="s">
+      <c r="C45" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="D45" s="70"/>
-      <c r="E45" s="57"/>
+      <c r="D45" s="55"/>
+      <c r="E45" s="56"/>
       <c r="F45" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G45" s="56" t="s">
+      <c r="G45" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="H45" s="57"/>
-      <c r="I45" s="56" t="s">
+      <c r="H45" s="56"/>
+      <c r="I45" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="J45" s="57"/>
-      <c r="K45" s="61"/>
-      <c r="L45" s="63"/>
-      <c r="M45" s="61"/>
-      <c r="N45" s="62"/>
-      <c r="O45" s="62"/>
-      <c r="P45" s="63"/>
+      <c r="J45" s="56"/>
+      <c r="K45" s="71"/>
+      <c r="L45" s="73"/>
+      <c r="M45" s="71"/>
+      <c r="N45" s="72"/>
+      <c r="O45" s="72"/>
+      <c r="P45" s="73"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A46" s="28"/>
+      <c r="A46" s="44"/>
       <c r="B46" s="8">
         <v>1</v>
       </c>
-      <c r="C46" s="64" t="s">
+      <c r="C46" s="57" t="s">
         <v>340</v>
       </c>
-      <c r="D46" s="66"/>
-      <c r="E46" s="65"/>
+      <c r="D46" s="58"/>
+      <c r="E46" s="59"/>
       <c r="F46" s="3"/>
-      <c r="G46" s="64" t="s">
+      <c r="G46" s="57" t="s">
         <v>340</v>
       </c>
-      <c r="H46" s="65"/>
+      <c r="H46" s="59"/>
       <c r="I46" s="3"/>
       <c r="J46" s="4"/>
-      <c r="K46" s="58"/>
-      <c r="L46" s="59"/>
-      <c r="M46" s="58"/>
-      <c r="N46" s="60"/>
-      <c r="O46" s="60"/>
-      <c r="P46" s="59"/>
+      <c r="K46" s="65"/>
+      <c r="L46" s="67"/>
+      <c r="M46" s="65"/>
+      <c r="N46" s="66"/>
+      <c r="O46" s="66"/>
+      <c r="P46" s="67"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A47" s="28"/>
-      <c r="B47" s="64"/>
-      <c r="C47" s="66"/>
-      <c r="D47" s="66"/>
-      <c r="E47" s="65"/>
+      <c r="A47" s="44"/>
+      <c r="B47" s="57"/>
+      <c r="C47" s="58"/>
+      <c r="D47" s="58"/>
+      <c r="E47" s="59"/>
       <c r="F47" s="3"/>
-      <c r="G47" s="64"/>
-      <c r="H47" s="65"/>
+      <c r="G47" s="57"/>
+      <c r="H47" s="59"/>
       <c r="I47" s="3"/>
       <c r="J47" s="4"/>
-      <c r="K47" s="58"/>
-      <c r="L47" s="59"/>
-      <c r="M47" s="58"/>
-      <c r="N47" s="60"/>
-      <c r="O47" s="60"/>
-      <c r="P47" s="59"/>
+      <c r="K47" s="65"/>
+      <c r="L47" s="67"/>
+      <c r="M47" s="65"/>
+      <c r="N47" s="66"/>
+      <c r="O47" s="66"/>
+      <c r="P47" s="67"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A48" s="27">
+      <c r="A48" s="43">
         <v>2</v>
       </c>
-      <c r="B48" s="54" t="s">
+      <c r="B48" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="C48" s="55"/>
-      <c r="D48" s="32" t="s">
+      <c r="C48" s="61"/>
+      <c r="D48" s="27" t="s">
         <v>402</v>
       </c>
-      <c r="E48" s="34"/>
-      <c r="F48" s="34"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="31"/>
       <c r="G48" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H48" s="32"/>
-      <c r="I48" s="34"/>
-      <c r="J48" s="33"/>
-      <c r="K48" s="56" t="s">
+      <c r="H48" s="27"/>
+      <c r="I48" s="31"/>
+      <c r="J48" s="28"/>
+      <c r="K48" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="L48" s="57"/>
+      <c r="L48" s="56"/>
       <c r="M48" s="74" t="s">
         <v>403</v>
       </c>
@@ -4377,185 +4534,229 @@
       <c r="P48" s="76"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A49" s="28"/>
-      <c r="B49" s="54" t="s">
+      <c r="A49" s="44"/>
+      <c r="B49" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="C49" s="55"/>
-      <c r="D49" s="32" t="s">
+      <c r="C49" s="61"/>
+      <c r="D49" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="E49" s="34"/>
-      <c r="F49" s="34"/>
+      <c r="E49" s="31"/>
+      <c r="F49" s="31"/>
       <c r="G49" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H49" s="32" t="s">
+      <c r="H49" s="27" t="s">
         <v>393</v>
       </c>
-      <c r="I49" s="34"/>
-      <c r="J49" s="33"/>
-      <c r="K49" s="56" t="s">
+      <c r="I49" s="31"/>
+      <c r="J49" s="28"/>
+      <c r="K49" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="L49" s="57"/>
-      <c r="M49" s="51" t="s">
+      <c r="L49" s="56"/>
+      <c r="M49" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="N49" s="52"/>
-      <c r="O49" s="52"/>
-      <c r="P49" s="53"/>
+      <c r="N49" s="51"/>
+      <c r="O49" s="51"/>
+      <c r="P49" s="52"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A50" s="28"/>
-      <c r="B50" s="54" t="s">
+      <c r="A50" s="44"/>
+      <c r="B50" s="60" t="s">
         <v>98</v>
       </c>
-      <c r="C50" s="55"/>
-      <c r="D50" s="32"/>
-      <c r="E50" s="34"/>
-      <c r="F50" s="34"/>
+      <c r="C50" s="61"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="31"/>
       <c r="G50" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="H50" s="34"/>
-      <c r="I50" s="34"/>
-      <c r="J50" s="33"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="31"/>
+      <c r="J50" s="28"/>
       <c r="K50" s="15"/>
       <c r="L50" s="16"/>
-      <c r="M50" s="51"/>
-      <c r="N50" s="52"/>
-      <c r="O50" s="52"/>
-      <c r="P50" s="53"/>
+      <c r="M50" s="50"/>
+      <c r="N50" s="51"/>
+      <c r="O50" s="51"/>
+      <c r="P50" s="52"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A51" s="28"/>
-      <c r="B51" s="54" t="s">
+      <c r="A51" s="44"/>
+      <c r="B51" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="C51" s="55"/>
-      <c r="D51" s="32"/>
-      <c r="E51" s="34"/>
-      <c r="F51" s="34"/>
-      <c r="G51" s="34"/>
-      <c r="H51" s="34"/>
-      <c r="I51" s="34"/>
-      <c r="J51" s="33"/>
-      <c r="K51" s="56" t="s">
+      <c r="C51" s="61"/>
+      <c r="D51" s="27"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="31"/>
+      <c r="I51" s="31"/>
+      <c r="J51" s="28"/>
+      <c r="K51" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="L51" s="57"/>
-      <c r="M51" s="51" t="s">
+      <c r="L51" s="56"/>
+      <c r="M51" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="N51" s="52"/>
-      <c r="O51" s="52"/>
-      <c r="P51" s="53"/>
+      <c r="N51" s="51"/>
+      <c r="O51" s="51"/>
+      <c r="P51" s="52"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A52" s="28"/>
-      <c r="B52" s="67" t="s">
+      <c r="A52" s="44"/>
+      <c r="B52" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="C52" s="69"/>
-      <c r="D52" s="69"/>
-      <c r="E52" s="69"/>
-      <c r="F52" s="69"/>
-      <c r="G52" s="69"/>
-      <c r="H52" s="69"/>
-      <c r="I52" s="69"/>
-      <c r="J52" s="68"/>
-      <c r="K52" s="67"/>
-      <c r="L52" s="68"/>
-      <c r="M52" s="67"/>
-      <c r="N52" s="69"/>
-      <c r="O52" s="69"/>
-      <c r="P52" s="68"/>
+      <c r="C52" s="63"/>
+      <c r="D52" s="63"/>
+      <c r="E52" s="63"/>
+      <c r="F52" s="63"/>
+      <c r="G52" s="63"/>
+      <c r="H52" s="63"/>
+      <c r="I52" s="63"/>
+      <c r="J52" s="64"/>
+      <c r="K52" s="62"/>
+      <c r="L52" s="64"/>
+      <c r="M52" s="62"/>
+      <c r="N52" s="63"/>
+      <c r="O52" s="63"/>
+      <c r="P52" s="64"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A53" s="28"/>
+      <c r="A53" s="44"/>
       <c r="B53" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C53" s="56" t="s">
+      <c r="C53" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="D53" s="70"/>
-      <c r="E53" s="57"/>
+      <c r="D53" s="55"/>
+      <c r="E53" s="56"/>
       <c r="F53" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G53" s="56" t="s">
+      <c r="G53" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="H53" s="57"/>
-      <c r="I53" s="56" t="s">
+      <c r="H53" s="56"/>
+      <c r="I53" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="J53" s="57"/>
-      <c r="K53" s="61"/>
-      <c r="L53" s="63"/>
-      <c r="M53" s="61"/>
-      <c r="N53" s="62"/>
-      <c r="O53" s="62"/>
-      <c r="P53" s="63"/>
+      <c r="J53" s="56"/>
+      <c r="K53" s="71"/>
+      <c r="L53" s="73"/>
+      <c r="M53" s="71"/>
+      <c r="N53" s="72"/>
+      <c r="O53" s="72"/>
+      <c r="P53" s="73"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A54" s="28"/>
+      <c r="A54" s="44"/>
       <c r="B54" s="8">
         <v>1</v>
       </c>
-      <c r="C54" s="64" t="s">
+      <c r="C54" s="57" t="s">
         <v>404</v>
       </c>
-      <c r="D54" s="66"/>
-      <c r="E54" s="65"/>
+      <c r="D54" s="58"/>
+      <c r="E54" s="59"/>
       <c r="F54" s="3"/>
-      <c r="G54" s="64" t="s">
+      <c r="G54" s="57" t="s">
         <v>404</v>
       </c>
-      <c r="H54" s="65"/>
+      <c r="H54" s="59"/>
       <c r="I54" s="3"/>
       <c r="J54" s="4"/>
-      <c r="K54" s="58"/>
-      <c r="L54" s="59"/>
-      <c r="M54" s="58"/>
-      <c r="N54" s="60"/>
-      <c r="O54" s="60"/>
-      <c r="P54" s="59"/>
+      <c r="K54" s="65"/>
+      <c r="L54" s="67"/>
+      <c r="M54" s="65"/>
+      <c r="N54" s="66"/>
+      <c r="O54" s="66"/>
+      <c r="P54" s="67"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A55" s="28"/>
-      <c r="B55" s="64"/>
-      <c r="C55" s="66"/>
-      <c r="D55" s="66"/>
-      <c r="E55" s="65"/>
+      <c r="A55" s="44"/>
+      <c r="B55" s="57"/>
+      <c r="C55" s="58"/>
+      <c r="D55" s="58"/>
+      <c r="E55" s="59"/>
       <c r="F55" s="3"/>
-      <c r="G55" s="64"/>
-      <c r="H55" s="65"/>
+      <c r="G55" s="57"/>
+      <c r="H55" s="59"/>
       <c r="I55" s="3"/>
       <c r="J55" s="4"/>
-      <c r="K55" s="58"/>
-      <c r="L55" s="59"/>
-      <c r="M55" s="58"/>
-      <c r="N55" s="60"/>
-      <c r="O55" s="60"/>
-      <c r="P55" s="59"/>
+      <c r="K55" s="65"/>
+      <c r="L55" s="67"/>
+      <c r="M55" s="65"/>
+      <c r="N55" s="66"/>
+      <c r="O55" s="66"/>
+      <c r="P55" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:L4"/>
+    <mergeCell ref="M54:P54"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="M55:P55"/>
+    <mergeCell ref="M52:P52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="M53:P53"/>
+    <mergeCell ref="M50:P50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:J51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="M51:P51"/>
+    <mergeCell ref="M48:P48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="M49:P49"/>
+    <mergeCell ref="A48:A55"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="B52:J52"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="B44:J44"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="M44:P44"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="M47:P47"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="M45:P45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="M46:P46"/>
+    <mergeCell ref="M42:P42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:J43"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="M43:P43"/>
     <mergeCell ref="A6:P6"/>
     <mergeCell ref="A39:P39"/>
     <mergeCell ref="A40:A47"/>
@@ -4572,62 +4773,18 @@
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="D42:F42"/>
     <mergeCell ref="H42:J42"/>
-    <mergeCell ref="M42:P42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:J43"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="M43:P43"/>
-    <mergeCell ref="B44:J44"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="M44:P44"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="M47:P47"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="M45:P45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="M46:P46"/>
-    <mergeCell ref="A48:A55"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="B52:J52"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="M48:P48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="M49:P49"/>
-    <mergeCell ref="M50:P50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:J51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="M51:P51"/>
-    <mergeCell ref="M52:P52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="M53:P53"/>
-    <mergeCell ref="M54:P54"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="M55:P55"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:L4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -4643,7 +4800,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D66624B-686C-432C-B2AF-E2E183AF36AB}">
   <dimension ref="A1:P43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
@@ -4664,132 +4821,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="48" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="47" t="s">
         <v>448</v>
       </c>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="50"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="49"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="32"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="33"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="28"/>
       <c r="N1" s="14"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="48" t="s">
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="47" t="s">
         <v>449</v>
       </c>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="50"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="49"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="51" t="s">
+      <c r="I2" s="50" t="s">
         <v>450</v>
       </c>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="53"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="52"/>
       <c r="N2" s="13"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="50"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="49"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="33"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="28"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="50"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="49"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="32"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="33"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="28"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="46"/>
-      <c r="O6" s="46"/>
-      <c r="P6" s="46"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="53"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="53"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -5410,48 +5567,48 @@
       <c r="P25" s="1"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="71" t="s">
+      <c r="A27" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="72"/>
-      <c r="C27" s="72"/>
-      <c r="D27" s="72"/>
-      <c r="E27" s="72"/>
-      <c r="F27" s="72"/>
-      <c r="G27" s="72"/>
-      <c r="H27" s="72"/>
-      <c r="I27" s="72"/>
-      <c r="J27" s="72"/>
-      <c r="K27" s="72"/>
-      <c r="L27" s="72"/>
-      <c r="M27" s="72"/>
-      <c r="N27" s="72"/>
-      <c r="O27" s="72"/>
-      <c r="P27" s="73"/>
+      <c r="B27" s="69"/>
+      <c r="C27" s="69"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="69"/>
+      <c r="G27" s="69"/>
+      <c r="H27" s="69"/>
+      <c r="I27" s="69"/>
+      <c r="J27" s="69"/>
+      <c r="K27" s="69"/>
+      <c r="L27" s="69"/>
+      <c r="M27" s="69"/>
+      <c r="N27" s="69"/>
+      <c r="O27" s="69"/>
+      <c r="P27" s="70"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="27">
+      <c r="A28" s="43">
         <v>1</v>
       </c>
-      <c r="B28" s="54" t="s">
+      <c r="B28" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="55"/>
-      <c r="D28" s="32" t="s">
+      <c r="C28" s="61"/>
+      <c r="D28" s="27" t="s">
         <v>473</v>
       </c>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
       <c r="G28" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H28" s="32"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="56" t="s">
+      <c r="H28" s="27"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="L28" s="57"/>
+      <c r="L28" s="56"/>
       <c r="M28" s="74" t="s">
         <v>339</v>
       </c>
@@ -5460,194 +5617,194 @@
       <c r="P28" s="76"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="28"/>
-      <c r="B29" s="54" t="s">
+      <c r="A29" s="44"/>
+      <c r="B29" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="55"/>
-      <c r="D29" s="32" t="s">
+      <c r="C29" s="61"/>
+      <c r="D29" s="27" t="s">
         <v>474</v>
       </c>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
       <c r="G29" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H29" s="32" t="s">
+      <c r="H29" s="27" t="s">
         <v>475</v>
       </c>
-      <c r="I29" s="34"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="56" t="s">
+      <c r="I29" s="31"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="L29" s="57"/>
-      <c r="M29" s="51" t="s">
+      <c r="L29" s="56"/>
+      <c r="M29" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="N29" s="52"/>
-      <c r="O29" s="52"/>
-      <c r="P29" s="53"/>
+      <c r="N29" s="51"/>
+      <c r="O29" s="51"/>
+      <c r="P29" s="52"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="28"/>
-      <c r="B30" s="54" t="s">
+      <c r="A30" s="44"/>
+      <c r="B30" s="60" t="s">
         <v>98</v>
       </c>
-      <c r="C30" s="55"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="34"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
       <c r="G30" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="H30" s="34"/>
-      <c r="I30" s="34"/>
-      <c r="J30" s="33"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="28"/>
       <c r="K30" s="15"/>
       <c r="L30" s="16"/>
-      <c r="M30" s="51"/>
-      <c r="N30" s="52"/>
-      <c r="O30" s="52"/>
-      <c r="P30" s="53"/>
+      <c r="M30" s="50"/>
+      <c r="N30" s="51"/>
+      <c r="O30" s="51"/>
+      <c r="P30" s="52"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="28"/>
-      <c r="B31" s="54" t="s">
+      <c r="A31" s="44"/>
+      <c r="B31" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="55"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="34"/>
-      <c r="J31" s="33"/>
-      <c r="K31" s="56" t="s">
+      <c r="C31" s="61"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="28"/>
+      <c r="K31" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="L31" s="57"/>
-      <c r="M31" s="51" t="s">
+      <c r="L31" s="56"/>
+      <c r="M31" s="50" t="s">
         <v>143</v>
       </c>
-      <c r="N31" s="52"/>
-      <c r="O31" s="52"/>
-      <c r="P31" s="53"/>
+      <c r="N31" s="51"/>
+      <c r="O31" s="51"/>
+      <c r="P31" s="52"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="28"/>
-      <c r="B32" s="67" t="s">
+      <c r="A32" s="44"/>
+      <c r="B32" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="C32" s="69"/>
-      <c r="D32" s="69"/>
-      <c r="E32" s="69"/>
-      <c r="F32" s="69"/>
-      <c r="G32" s="69"/>
-      <c r="H32" s="69"/>
-      <c r="I32" s="69"/>
-      <c r="J32" s="68"/>
-      <c r="K32" s="67"/>
-      <c r="L32" s="68"/>
-      <c r="M32" s="67"/>
-      <c r="N32" s="69"/>
-      <c r="O32" s="69"/>
-      <c r="P32" s="68"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="63"/>
+      <c r="G32" s="63"/>
+      <c r="H32" s="63"/>
+      <c r="I32" s="63"/>
+      <c r="J32" s="64"/>
+      <c r="K32" s="62"/>
+      <c r="L32" s="64"/>
+      <c r="M32" s="62"/>
+      <c r="N32" s="63"/>
+      <c r="O32" s="63"/>
+      <c r="P32" s="64"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A33" s="28"/>
+      <c r="A33" s="44"/>
       <c r="B33" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="56" t="s">
+      <c r="C33" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="D33" s="70"/>
-      <c r="E33" s="57"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="56"/>
       <c r="F33" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G33" s="56" t="s">
+      <c r="G33" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="H33" s="57"/>
-      <c r="I33" s="56" t="s">
+      <c r="H33" s="56"/>
+      <c r="I33" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="J33" s="57"/>
-      <c r="K33" s="61"/>
-      <c r="L33" s="63"/>
-      <c r="M33" s="61"/>
-      <c r="N33" s="62"/>
-      <c r="O33" s="62"/>
-      <c r="P33" s="63"/>
+      <c r="J33" s="56"/>
+      <c r="K33" s="71"/>
+      <c r="L33" s="73"/>
+      <c r="M33" s="71"/>
+      <c r="N33" s="72"/>
+      <c r="O33" s="72"/>
+      <c r="P33" s="73"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A34" s="28"/>
+      <c r="A34" s="44"/>
       <c r="B34" s="8">
         <v>1</v>
       </c>
-      <c r="C34" s="64" t="s">
+      <c r="C34" s="57" t="s">
         <v>476</v>
       </c>
-      <c r="D34" s="66"/>
-      <c r="E34" s="65"/>
+      <c r="D34" s="58"/>
+      <c r="E34" s="59"/>
       <c r="F34" s="3"/>
-      <c r="G34" s="64" t="s">
+      <c r="G34" s="57" t="s">
         <v>340</v>
       </c>
-      <c r="H34" s="65"/>
+      <c r="H34" s="59"/>
       <c r="I34" s="3"/>
       <c r="J34" s="4"/>
-      <c r="K34" s="58"/>
-      <c r="L34" s="59"/>
-      <c r="M34" s="58"/>
-      <c r="N34" s="60"/>
-      <c r="O34" s="60"/>
-      <c r="P34" s="59"/>
+      <c r="K34" s="65"/>
+      <c r="L34" s="67"/>
+      <c r="M34" s="65"/>
+      <c r="N34" s="66"/>
+      <c r="O34" s="66"/>
+      <c r="P34" s="67"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A35" s="28"/>
-      <c r="B35" s="64"/>
-      <c r="C35" s="66"/>
-      <c r="D35" s="66"/>
-      <c r="E35" s="65"/>
+      <c r="A35" s="44"/>
+      <c r="B35" s="57"/>
+      <c r="C35" s="58"/>
+      <c r="D35" s="58"/>
+      <c r="E35" s="59"/>
       <c r="F35" s="3"/>
-      <c r="G35" s="64"/>
-      <c r="H35" s="65"/>
+      <c r="G35" s="57"/>
+      <c r="H35" s="59"/>
       <c r="I35" s="3"/>
       <c r="J35" s="4"/>
-      <c r="K35" s="58"/>
-      <c r="L35" s="59"/>
-      <c r="M35" s="58"/>
-      <c r="N35" s="60"/>
-      <c r="O35" s="60"/>
-      <c r="P35" s="59"/>
+      <c r="K35" s="65"/>
+      <c r="L35" s="67"/>
+      <c r="M35" s="65"/>
+      <c r="N35" s="66"/>
+      <c r="O35" s="66"/>
+      <c r="P35" s="67"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A36" s="27">
+      <c r="A36" s="43">
         <v>2</v>
       </c>
-      <c r="B36" s="54" t="s">
+      <c r="B36" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="55"/>
-      <c r="D36" s="32" t="s">
+      <c r="C36" s="61"/>
+      <c r="D36" s="27" t="s">
         <v>477</v>
       </c>
-      <c r="E36" s="34"/>
-      <c r="F36" s="34"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
       <c r="G36" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H36" s="32"/>
-      <c r="I36" s="34"/>
-      <c r="J36" s="33"/>
-      <c r="K36" s="56" t="s">
+      <c r="H36" s="27"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="28"/>
+      <c r="K36" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="L36" s="57"/>
+      <c r="L36" s="56"/>
       <c r="M36" s="74" t="s">
         <v>339</v>
       </c>
@@ -5656,220 +5813,194 @@
       <c r="P36" s="76"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A37" s="28"/>
-      <c r="B37" s="54" t="s">
+      <c r="A37" s="44"/>
+      <c r="B37" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="C37" s="55"/>
-      <c r="D37" s="32" t="s">
+      <c r="C37" s="61"/>
+      <c r="D37" s="27" t="s">
         <v>478</v>
       </c>
-      <c r="E37" s="34"/>
-      <c r="F37" s="34"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
       <c r="G37" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H37" s="32" t="s">
+      <c r="H37" s="27" t="s">
         <v>479</v>
       </c>
-      <c r="I37" s="34"/>
-      <c r="J37" s="33"/>
-      <c r="K37" s="56" t="s">
+      <c r="I37" s="31"/>
+      <c r="J37" s="28"/>
+      <c r="K37" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="L37" s="57"/>
-      <c r="M37" s="51" t="s">
+      <c r="L37" s="56"/>
+      <c r="M37" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="N37" s="52"/>
-      <c r="O37" s="52"/>
-      <c r="P37" s="53"/>
+      <c r="N37" s="51"/>
+      <c r="O37" s="51"/>
+      <c r="P37" s="52"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A38" s="28"/>
-      <c r="B38" s="54" t="s">
+      <c r="A38" s="44"/>
+      <c r="B38" s="60" t="s">
         <v>98</v>
       </c>
-      <c r="C38" s="55"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="34"/>
-      <c r="F38" s="34"/>
+      <c r="C38" s="61"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
       <c r="G38" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="H38" s="34"/>
-      <c r="I38" s="34"/>
-      <c r="J38" s="33"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="28"/>
       <c r="K38" s="15"/>
       <c r="L38" s="16"/>
-      <c r="M38" s="51"/>
-      <c r="N38" s="52"/>
-      <c r="O38" s="52"/>
-      <c r="P38" s="53"/>
+      <c r="M38" s="50"/>
+      <c r="N38" s="51"/>
+      <c r="O38" s="51"/>
+      <c r="P38" s="52"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A39" s="28"/>
-      <c r="B39" s="54" t="s">
+      <c r="A39" s="44"/>
+      <c r="B39" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="C39" s="55"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="34"/>
-      <c r="F39" s="34"/>
-      <c r="G39" s="34"/>
-      <c r="H39" s="34"/>
-      <c r="I39" s="34"/>
-      <c r="J39" s="33"/>
-      <c r="K39" s="56" t="s">
+      <c r="C39" s="61"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="28"/>
+      <c r="K39" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="L39" s="57"/>
-      <c r="M39" s="51" t="s">
+      <c r="L39" s="56"/>
+      <c r="M39" s="50" t="s">
         <v>143</v>
       </c>
-      <c r="N39" s="52"/>
-      <c r="O39" s="52"/>
-      <c r="P39" s="53"/>
+      <c r="N39" s="51"/>
+      <c r="O39" s="51"/>
+      <c r="P39" s="52"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A40" s="28"/>
-      <c r="B40" s="67" t="s">
+      <c r="A40" s="44"/>
+      <c r="B40" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="C40" s="69"/>
-      <c r="D40" s="69"/>
-      <c r="E40" s="69"/>
-      <c r="F40" s="69"/>
-      <c r="G40" s="69"/>
-      <c r="H40" s="69"/>
-      <c r="I40" s="69"/>
-      <c r="J40" s="68"/>
-      <c r="K40" s="67"/>
-      <c r="L40" s="68"/>
-      <c r="M40" s="67"/>
-      <c r="N40" s="69"/>
-      <c r="O40" s="69"/>
-      <c r="P40" s="68"/>
+      <c r="C40" s="63"/>
+      <c r="D40" s="63"/>
+      <c r="E40" s="63"/>
+      <c r="F40" s="63"/>
+      <c r="G40" s="63"/>
+      <c r="H40" s="63"/>
+      <c r="I40" s="63"/>
+      <c r="J40" s="64"/>
+      <c r="K40" s="62"/>
+      <c r="L40" s="64"/>
+      <c r="M40" s="62"/>
+      <c r="N40" s="63"/>
+      <c r="O40" s="63"/>
+      <c r="P40" s="64"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A41" s="28"/>
+      <c r="A41" s="44"/>
       <c r="B41" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C41" s="56" t="s">
+      <c r="C41" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="D41" s="70"/>
-      <c r="E41" s="57"/>
+      <c r="D41" s="55"/>
+      <c r="E41" s="56"/>
       <c r="F41" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G41" s="56" t="s">
+      <c r="G41" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="H41" s="57"/>
-      <c r="I41" s="56" t="s">
+      <c r="H41" s="56"/>
+      <c r="I41" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="J41" s="57"/>
-      <c r="K41" s="61"/>
-      <c r="L41" s="63"/>
-      <c r="M41" s="61"/>
-      <c r="N41" s="62"/>
-      <c r="O41" s="62"/>
-      <c r="P41" s="63"/>
+      <c r="J41" s="56"/>
+      <c r="K41" s="71"/>
+      <c r="L41" s="73"/>
+      <c r="M41" s="71"/>
+      <c r="N41" s="72"/>
+      <c r="O41" s="72"/>
+      <c r="P41" s="73"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A42" s="28"/>
+      <c r="A42" s="44"/>
       <c r="B42" s="8">
         <v>1</v>
       </c>
-      <c r="C42" s="64" t="s">
+      <c r="C42" s="57" t="s">
         <v>480</v>
       </c>
-      <c r="D42" s="66"/>
-      <c r="E42" s="65"/>
+      <c r="D42" s="58"/>
+      <c r="E42" s="59"/>
       <c r="F42" s="3"/>
-      <c r="G42" s="64" t="s">
+      <c r="G42" s="57" t="s">
         <v>340</v>
       </c>
-      <c r="H42" s="65"/>
+      <c r="H42" s="59"/>
       <c r="I42" s="3"/>
       <c r="J42" s="4"/>
-      <c r="K42" s="58"/>
-      <c r="L42" s="59"/>
-      <c r="M42" s="58"/>
-      <c r="N42" s="60"/>
-      <c r="O42" s="60"/>
-      <c r="P42" s="59"/>
+      <c r="K42" s="65"/>
+      <c r="L42" s="67"/>
+      <c r="M42" s="65"/>
+      <c r="N42" s="66"/>
+      <c r="O42" s="66"/>
+      <c r="P42" s="67"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A43" s="28"/>
-      <c r="B43" s="64"/>
-      <c r="C43" s="66"/>
-      <c r="D43" s="66"/>
-      <c r="E43" s="65"/>
+      <c r="A43" s="44"/>
+      <c r="B43" s="57"/>
+      <c r="C43" s="58"/>
+      <c r="D43" s="58"/>
+      <c r="E43" s="59"/>
       <c r="F43" s="3"/>
-      <c r="G43" s="64"/>
-      <c r="H43" s="65"/>
+      <c r="G43" s="57"/>
+      <c r="H43" s="59"/>
       <c r="I43" s="3"/>
       <c r="J43" s="4"/>
-      <c r="K43" s="58"/>
-      <c r="L43" s="59"/>
-      <c r="M43" s="58"/>
-      <c r="N43" s="60"/>
-      <c r="O43" s="60"/>
-      <c r="P43" s="59"/>
+      <c r="K43" s="65"/>
+      <c r="L43" s="67"/>
+      <c r="M43" s="65"/>
+      <c r="N43" s="66"/>
+      <c r="O43" s="66"/>
+      <c r="P43" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="M42:P42"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="M43:P43"/>
-    <mergeCell ref="M40:P40"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M41:P41"/>
-    <mergeCell ref="M38:P38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:P39"/>
-    <mergeCell ref="M36:P36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:P37"/>
-    <mergeCell ref="A36:A43"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="B40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:L4"/>
+    <mergeCell ref="B32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:P32"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="M35:P35"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="M33:P33"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="M34:P34"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:P31"/>
     <mergeCell ref="A6:P6"/>
     <mergeCell ref="A27:P27"/>
     <mergeCell ref="A28:A35"/>
@@ -5886,27 +6017,53 @@
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="D30:F30"/>
     <mergeCell ref="H30:J30"/>
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:J31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:P31"/>
-    <mergeCell ref="B32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:P32"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="M35:P35"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="M33:P33"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="M34:P34"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:L4"/>
+    <mergeCell ref="A36:A43"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="B40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="M36:P36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:P37"/>
+    <mergeCell ref="M38:P38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:P39"/>
+    <mergeCell ref="M40:P40"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:P41"/>
+    <mergeCell ref="M42:P42"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="M43:P43"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -5919,6 +6076,1047 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F8B8ED6-4E67-4ACD-A9CD-16C476AFAB9F}">
+  <dimension ref="A1:P34"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J40" sqref="J40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.33203125" customWidth="1"/>
+    <col min="2" max="2" width="4.4140625" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.9140625" customWidth="1"/>
+    <col min="5" max="5" width="5.08203125" customWidth="1"/>
+    <col min="6" max="6" width="15.08203125" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="9" max="9" width="4.75" customWidth="1"/>
+    <col min="10" max="10" width="11" customWidth="1"/>
+    <col min="11" max="11" width="6.08203125" customWidth="1"/>
+    <col min="12" max="12" width="8.25" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="47" t="s">
+        <v>500</v>
+      </c>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="27"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="47" t="s">
+        <v>482</v>
+      </c>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="50" t="s">
+        <v>499</v>
+      </c>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="27"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="28"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="53"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="53"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
+        <v>1</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>503</v>
+      </c>
+      <c r="H8" s="9"/>
+      <c r="I8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="7">
+        <v>32</v>
+      </c>
+      <c r="L8" s="7"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="1"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
+        <v>2</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="H9" s="9"/>
+      <c r="I9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="7">
+        <v>32</v>
+      </c>
+      <c r="L9" s="7"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
+        <v>3</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>481</v>
+      </c>
+      <c r="H10" s="9"/>
+      <c r="I10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" s="7">
+        <v>50</v>
+      </c>
+      <c r="L10" s="7"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="1"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
+        <v>4</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="H11" s="9"/>
+      <c r="I11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K11" s="7">
+        <v>100</v>
+      </c>
+      <c r="L11" s="7"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="1"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="7">
+        <v>5</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="9" t="s">
+        <v>504</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="H12" s="9"/>
+      <c r="I12" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12" s="7">
+        <v>10</v>
+      </c>
+      <c r="L12" s="7"/>
+      <c r="M12" s="9" t="s">
+        <v>506</v>
+      </c>
+      <c r="N12" s="9"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="1"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="7">
+        <v>6</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="9" t="s">
+        <v>511</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="9" t="s">
+        <v>511</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>512</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13" s="7">
+        <v>4000</v>
+      </c>
+      <c r="L13" s="7"/>
+      <c r="M13" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="N13" s="9"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="1"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="7">
+        <v>7</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="9" t="s">
+        <v>513</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="9" t="s">
+        <v>514</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>515</v>
+      </c>
+      <c r="H14" s="9"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K14" s="7">
+        <v>100</v>
+      </c>
+      <c r="L14" s="7"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="1"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" s="7">
+        <v>8</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" s="9"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K15" s="7">
+        <v>200</v>
+      </c>
+      <c r="L15" s="7"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="1"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="7">
+        <v>9</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="9" t="s">
+        <v>507</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="I16" s="7"/>
+      <c r="J16" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K16" s="7">
+        <v>4000</v>
+      </c>
+      <c r="L16" s="7"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="1"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A17" s="7">
+        <v>10</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="H17" s="9"/>
+      <c r="I17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="N17" s="9"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="1"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18" s="7">
+        <v>11</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="1"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A19" s="7">
+        <v>12</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K19" s="7">
+        <v>50</v>
+      </c>
+      <c r="L19" s="7"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="1"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A20" s="7">
+        <v>13</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="1"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A21" s="7">
+        <v>14</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K21" s="7">
+        <v>50</v>
+      </c>
+      <c r="L21" s="7"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="1"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A22" s="7">
+        <v>15</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="1"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A23" s="7">
+        <v>16</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="I23" s="7"/>
+      <c r="J23" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K23" s="7">
+        <v>200</v>
+      </c>
+      <c r="L23" s="7"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="1"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="1"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A26" s="68" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="69"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="69"/>
+      <c r="G26" s="69"/>
+      <c r="H26" s="69"/>
+      <c r="I26" s="69"/>
+      <c r="J26" s="69"/>
+      <c r="K26" s="69"/>
+      <c r="L26" s="69"/>
+      <c r="M26" s="69"/>
+      <c r="N26" s="69"/>
+      <c r="O26" s="69"/>
+      <c r="P26" s="70"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A27" s="43">
+        <v>1</v>
+      </c>
+      <c r="B27" s="60" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="61"/>
+      <c r="D27" s="27" t="s">
+        <v>337</v>
+      </c>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H27" s="27" t="s">
+        <v>516</v>
+      </c>
+      <c r="I27" s="31"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="L27" s="56"/>
+      <c r="M27" s="74" t="s">
+        <v>339</v>
+      </c>
+      <c r="N27" s="75"/>
+      <c r="O27" s="75"/>
+      <c r="P27" s="76"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A28" s="44"/>
+      <c r="B28" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="61"/>
+      <c r="D28" s="27" t="s">
+        <v>282</v>
+      </c>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H28" s="27" t="s">
+        <v>281</v>
+      </c>
+      <c r="I28" s="31"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="54" t="s">
+        <v>66</v>
+      </c>
+      <c r="L28" s="56"/>
+      <c r="M28" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="N28" s="51"/>
+      <c r="O28" s="51"/>
+      <c r="P28" s="52"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A29" s="44"/>
+      <c r="B29" s="60" t="s">
+        <v>98</v>
+      </c>
+      <c r="C29" s="61"/>
+      <c r="D29" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="H29" s="31" t="s">
+        <v>518</v>
+      </c>
+      <c r="I29" s="31"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="50"/>
+      <c r="N29" s="51"/>
+      <c r="O29" s="51"/>
+      <c r="P29" s="52"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A30" s="44"/>
+      <c r="B30" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="61"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="L30" s="56"/>
+      <c r="M30" s="50" t="s">
+        <v>143</v>
+      </c>
+      <c r="N30" s="51"/>
+      <c r="O30" s="51"/>
+      <c r="P30" s="52"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A31" s="44"/>
+      <c r="B31" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="63"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="63"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="63"/>
+      <c r="J31" s="64"/>
+      <c r="K31" s="62"/>
+      <c r="L31" s="64"/>
+      <c r="M31" s="62"/>
+      <c r="N31" s="63"/>
+      <c r="O31" s="63"/>
+      <c r="P31" s="64"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A32" s="44"/>
+      <c r="B32" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" s="55"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="H32" s="56"/>
+      <c r="I32" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="J32" s="56"/>
+      <c r="K32" s="71"/>
+      <c r="L32" s="73"/>
+      <c r="M32" s="71"/>
+      <c r="N32" s="72"/>
+      <c r="O32" s="72"/>
+      <c r="P32" s="73"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A33" s="44"/>
+      <c r="B33" s="8">
+        <v>1</v>
+      </c>
+      <c r="C33" s="57" t="s">
+        <v>340</v>
+      </c>
+      <c r="D33" s="58"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="57" t="s">
+        <v>340</v>
+      </c>
+      <c r="H33" s="59"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="65"/>
+      <c r="L33" s="67"/>
+      <c r="M33" s="65"/>
+      <c r="N33" s="66"/>
+      <c r="O33" s="66"/>
+      <c r="P33" s="67"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A34" s="44"/>
+      <c r="B34" s="57"/>
+      <c r="C34" s="58"/>
+      <c r="D34" s="58"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="57"/>
+      <c r="H34" s="59"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="65"/>
+      <c r="L34" s="67"/>
+      <c r="M34" s="65"/>
+      <c r="N34" s="66"/>
+      <c r="O34" s="66"/>
+      <c r="P34" s="67"/>
+    </row>
+  </sheetData>
+  <mergeCells count="49">
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="M34:P34"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:P32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="M33:P33"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="B31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A26:P26"/>
+    <mergeCell ref="A27:A34"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:L4"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="M27:P27" location="nop_dyn_entity_meta!A1" display="NopDynEntityMeta" xr:uid="{3E02BAC1-4D93-477F-9C6E-196C326CCB2A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D349AB67-F500-46D9-95AE-D8168334F4A6}">
   <dimension ref="A1:P21"/>
   <sheetViews>
@@ -5943,132 +7141,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="48" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="47" t="s">
         <v>405</v>
       </c>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="50"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="49"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="32"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="33"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="28"/>
       <c r="N1" s="14"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="48" t="s">
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="50"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="49"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="51" t="s">
+      <c r="I2" s="50" t="s">
         <v>393</v>
       </c>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="53"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="52"/>
       <c r="N2" s="13"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="50"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="49"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="33"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="28"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="50"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="49"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="32"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="33"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="28"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="46"/>
-      <c r="O6" s="46"/>
-      <c r="P6" s="46"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="53"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="53"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -6564,12 +7762,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
     <mergeCell ref="A6:P6"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:G3"/>
@@ -6577,6 +7769,12 @@
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="D4:L4"/>
     <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6584,7 +7782,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2A916FD-1DF6-4F49-9D99-66DD7EC19D8D}">
   <dimension ref="A1:P50"/>
   <sheetViews>
@@ -6609,134 +7807,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="48" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="47" t="s">
         <v>308</v>
       </c>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="50"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="49"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="32"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="33"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="28"/>
       <c r="N1" s="14"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="48" t="s">
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="47" t="s">
         <v>145</v>
       </c>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="50"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="49"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="51" t="s">
+      <c r="I2" s="50" t="s">
         <v>146</v>
       </c>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="53"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="52"/>
       <c r="N2" s="13"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="48" t="s">
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="47" t="s">
         <v>172</v>
       </c>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="50"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="49"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="33"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="28"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="50"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="49"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="32"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="33"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="28"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="46"/>
-      <c r="O6" s="46"/>
-      <c r="P6" s="46"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="53"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="53"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -7833,250 +9031,241 @@
       <c r="P40" s="1"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A42" s="71" t="s">
+      <c r="A42" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="B42" s="72"/>
-      <c r="C42" s="72"/>
-      <c r="D42" s="72"/>
-      <c r="E42" s="72"/>
-      <c r="F42" s="72"/>
-      <c r="G42" s="72"/>
-      <c r="H42" s="72"/>
-      <c r="I42" s="72"/>
-      <c r="J42" s="72"/>
-      <c r="K42" s="72"/>
-      <c r="L42" s="72"/>
-      <c r="M42" s="72"/>
-      <c r="N42" s="72"/>
-      <c r="O42" s="72"/>
-      <c r="P42" s="73"/>
+      <c r="B42" s="69"/>
+      <c r="C42" s="69"/>
+      <c r="D42" s="69"/>
+      <c r="E42" s="69"/>
+      <c r="F42" s="69"/>
+      <c r="G42" s="69"/>
+      <c r="H42" s="69"/>
+      <c r="I42" s="69"/>
+      <c r="J42" s="69"/>
+      <c r="K42" s="69"/>
+      <c r="L42" s="69"/>
+      <c r="M42" s="69"/>
+      <c r="N42" s="69"/>
+      <c r="O42" s="69"/>
+      <c r="P42" s="70"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A43" s="27">
+      <c r="A43" s="43">
         <v>2</v>
       </c>
-      <c r="B43" s="54" t="s">
+      <c r="B43" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="C43" s="55"/>
-      <c r="D43" s="32" t="s">
+      <c r="C43" s="61"/>
+      <c r="D43" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="E43" s="34"/>
-      <c r="F43" s="34"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
       <c r="G43" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H43" s="32" t="s">
+      <c r="H43" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="I43" s="34"/>
-      <c r="J43" s="33"/>
-      <c r="K43" s="56" t="s">
+      <c r="I43" s="31"/>
+      <c r="J43" s="28"/>
+      <c r="K43" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="L43" s="57"/>
-      <c r="M43" s="51" t="s">
+      <c r="L43" s="56"/>
+      <c r="M43" s="50" t="s">
         <v>309</v>
       </c>
-      <c r="N43" s="52"/>
-      <c r="O43" s="52"/>
-      <c r="P43" s="53"/>
+      <c r="N43" s="51"/>
+      <c r="O43" s="51"/>
+      <c r="P43" s="52"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A44" s="28"/>
-      <c r="B44" s="54" t="s">
+      <c r="A44" s="44"/>
+      <c r="B44" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="C44" s="55"/>
-      <c r="D44" s="32" t="s">
+      <c r="C44" s="61"/>
+      <c r="D44" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="E44" s="34"/>
-      <c r="F44" s="34"/>
+      <c r="E44" s="31"/>
+      <c r="F44" s="31"/>
       <c r="G44" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H44" s="32" t="s">
+      <c r="H44" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="I44" s="34"/>
-      <c r="J44" s="33"/>
-      <c r="K44" s="56" t="s">
+      <c r="I44" s="31"/>
+      <c r="J44" s="28"/>
+      <c r="K44" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="L44" s="57"/>
-      <c r="M44" s="51" t="s">
+      <c r="L44" s="56"/>
+      <c r="M44" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="N44" s="52"/>
-      <c r="O44" s="52"/>
-      <c r="P44" s="53"/>
+      <c r="N44" s="51"/>
+      <c r="O44" s="51"/>
+      <c r="P44" s="52"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A45" s="28"/>
-      <c r="B45" s="54" t="s">
+      <c r="A45" s="44"/>
+      <c r="B45" s="60" t="s">
         <v>98</v>
       </c>
-      <c r="C45" s="55"/>
-      <c r="D45" s="32" t="s">
+      <c r="C45" s="61"/>
+      <c r="D45" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="E45" s="34"/>
-      <c r="F45" s="34"/>
+      <c r="E45" s="31"/>
+      <c r="F45" s="31"/>
       <c r="G45" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="H45" s="34" t="s">
+      <c r="H45" s="31" t="s">
         <v>166</v>
       </c>
-      <c r="I45" s="34"/>
-      <c r="J45" s="33"/>
+      <c r="I45" s="31"/>
+      <c r="J45" s="28"/>
       <c r="K45" s="15"/>
       <c r="L45" s="16"/>
-      <c r="M45" s="51"/>
-      <c r="N45" s="52"/>
-      <c r="O45" s="52"/>
-      <c r="P45" s="53"/>
+      <c r="M45" s="50"/>
+      <c r="N45" s="51"/>
+      <c r="O45" s="51"/>
+      <c r="P45" s="52"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A46" s="28"/>
-      <c r="B46" s="54" t="s">
+      <c r="A46" s="44"/>
+      <c r="B46" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="C46" s="55"/>
-      <c r="D46" s="32"/>
-      <c r="E46" s="34"/>
-      <c r="F46" s="34"/>
-      <c r="G46" s="34"/>
-      <c r="H46" s="34"/>
-      <c r="I46" s="34"/>
-      <c r="J46" s="33"/>
-      <c r="K46" s="56" t="s">
+      <c r="C46" s="61"/>
+      <c r="D46" s="27"/>
+      <c r="E46" s="31"/>
+      <c r="F46" s="31"/>
+      <c r="G46" s="31"/>
+      <c r="H46" s="31"/>
+      <c r="I46" s="31"/>
+      <c r="J46" s="28"/>
+      <c r="K46" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="L46" s="57"/>
-      <c r="M46" s="51" t="s">
+      <c r="L46" s="56"/>
+      <c r="M46" s="50" t="s">
         <v>141</v>
       </c>
-      <c r="N46" s="52"/>
-      <c r="O46" s="52"/>
-      <c r="P46" s="53"/>
+      <c r="N46" s="51"/>
+      <c r="O46" s="51"/>
+      <c r="P46" s="52"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A47" s="28"/>
-      <c r="B47" s="67" t="s">
+      <c r="A47" s="44"/>
+      <c r="B47" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="C47" s="69"/>
-      <c r="D47" s="69"/>
-      <c r="E47" s="69"/>
-      <c r="F47" s="69"/>
-      <c r="G47" s="69"/>
-      <c r="H47" s="69"/>
-      <c r="I47" s="69"/>
-      <c r="J47" s="68"/>
-      <c r="K47" s="67"/>
-      <c r="L47" s="68"/>
-      <c r="M47" s="67"/>
-      <c r="N47" s="69"/>
-      <c r="O47" s="69"/>
-      <c r="P47" s="68"/>
+      <c r="C47" s="63"/>
+      <c r="D47" s="63"/>
+      <c r="E47" s="63"/>
+      <c r="F47" s="63"/>
+      <c r="G47" s="63"/>
+      <c r="H47" s="63"/>
+      <c r="I47" s="63"/>
+      <c r="J47" s="64"/>
+      <c r="K47" s="62"/>
+      <c r="L47" s="64"/>
+      <c r="M47" s="62"/>
+      <c r="N47" s="63"/>
+      <c r="O47" s="63"/>
+      <c r="P47" s="64"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A48" s="28"/>
+      <c r="A48" s="44"/>
       <c r="B48" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C48" s="56" t="s">
+      <c r="C48" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="D48" s="70"/>
-      <c r="E48" s="57"/>
+      <c r="D48" s="55"/>
+      <c r="E48" s="56"/>
       <c r="F48" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G48" s="56" t="s">
+      <c r="G48" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="H48" s="57"/>
-      <c r="I48" s="56" t="s">
+      <c r="H48" s="56"/>
+      <c r="I48" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="J48" s="57"/>
-      <c r="K48" s="61"/>
-      <c r="L48" s="63"/>
-      <c r="M48" s="61"/>
-      <c r="N48" s="62"/>
-      <c r="O48" s="62"/>
-      <c r="P48" s="63"/>
+      <c r="J48" s="56"/>
+      <c r="K48" s="71"/>
+      <c r="L48" s="73"/>
+      <c r="M48" s="71"/>
+      <c r="N48" s="72"/>
+      <c r="O48" s="72"/>
+      <c r="P48" s="73"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A49" s="28"/>
+      <c r="A49" s="44"/>
       <c r="B49" s="8">
         <v>1</v>
       </c>
-      <c r="C49" s="64" t="s">
+      <c r="C49" s="57" t="s">
         <v>167</v>
       </c>
-      <c r="D49" s="66"/>
-      <c r="E49" s="65"/>
+      <c r="D49" s="58"/>
+      <c r="E49" s="59"/>
       <c r="F49" s="3"/>
-      <c r="G49" s="64" t="s">
+      <c r="G49" s="57" t="s">
         <v>144</v>
       </c>
-      <c r="H49" s="65"/>
+      <c r="H49" s="59"/>
       <c r="I49" s="3"/>
       <c r="J49" s="4"/>
-      <c r="K49" s="58"/>
-      <c r="L49" s="59"/>
-      <c r="M49" s="58"/>
-      <c r="N49" s="60"/>
-      <c r="O49" s="60"/>
-      <c r="P49" s="59"/>
+      <c r="K49" s="65"/>
+      <c r="L49" s="67"/>
+      <c r="M49" s="65"/>
+      <c r="N49" s="66"/>
+      <c r="O49" s="66"/>
+      <c r="P49" s="67"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A50" s="28"/>
-      <c r="B50" s="64"/>
-      <c r="C50" s="66"/>
-      <c r="D50" s="66"/>
-      <c r="E50" s="65"/>
+      <c r="A50" s="44"/>
+      <c r="B50" s="57"/>
+      <c r="C50" s="58"/>
+      <c r="D50" s="58"/>
+      <c r="E50" s="59"/>
       <c r="F50" s="3"/>
-      <c r="G50" s="64"/>
-      <c r="H50" s="65"/>
+      <c r="G50" s="57"/>
+      <c r="H50" s="59"/>
       <c r="I50" s="3"/>
       <c r="J50" s="4"/>
-      <c r="K50" s="58"/>
-      <c r="L50" s="59"/>
-      <c r="M50" s="58"/>
-      <c r="N50" s="60"/>
-      <c r="O50" s="60"/>
-      <c r="P50" s="59"/>
+      <c r="K50" s="65"/>
+      <c r="L50" s="67"/>
+      <c r="M50" s="65"/>
+      <c r="N50" s="66"/>
+      <c r="O50" s="66"/>
+      <c r="P50" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="M49:P49"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="M50:P50"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:J46"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="M47:P47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="M48:P48"/>
-    <mergeCell ref="B47:J47"/>
-    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:L4"/>
     <mergeCell ref="A6:P6"/>
     <mergeCell ref="A42:P42"/>
     <mergeCell ref="M45:P45"/>
@@ -8093,18 +9282,27 @@
     <mergeCell ref="A43:A50"/>
     <mergeCell ref="D44:F44"/>
     <mergeCell ref="H44:J44"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:L4"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="M47:P47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="M48:P48"/>
+    <mergeCell ref="B47:J47"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:J46"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="M49:P49"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="M50:P50"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8112,12 +9310,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AD7D9E9-B50D-4F1F-8CE6-988661D177E2}">
   <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -8137,132 +9335,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="48" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="47" t="s">
         <v>443</v>
       </c>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="50"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="49"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="32"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="33"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="28"/>
       <c r="N1" s="14"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="48" t="s">
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="47" t="s">
         <v>430</v>
       </c>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="50"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="49"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="51" t="s">
+      <c r="I2" s="50" t="s">
         <v>444</v>
       </c>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="53"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="52"/>
       <c r="N2" s="13"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="50"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="49"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="33"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="28"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="50"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="47" t="s">
+        <v>519</v>
+      </c>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="49"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="32"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="33"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="28"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="46"/>
-      <c r="O6" s="46"/>
-      <c r="P6" s="46"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="53"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="53"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -8736,12 +9936,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
     <mergeCell ref="A6:P6"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:G3"/>
@@ -8749,6 +9943,12 @@
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="D4:L4"/>
     <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8923,10 +10123,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF6B1C0B-16AE-459C-999C-D9C9CBAA7576}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -9269,7 +10469,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>230</v>
+        <v>510</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>94</v>
@@ -9277,8 +10477,8 @@
       <c r="D20" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E20" t="s">
-        <v>135</v>
+      <c r="E20">
+        <v>4000</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -9288,14 +10488,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C21" s="1"/>
+        <v>230</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="D21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="1">
-        <v>200</v>
+      <c r="E21" t="s">
+        <v>135</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -9305,26 +10507,34 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>387</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="C22" s="1"/>
       <c r="D22" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E22" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
+      <c r="A23" s="7">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="1">
+        <v>100</v>
+      </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
@@ -9364,6 +10574,15 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9372,10 +10591,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC07AC33-2EAE-4B58-8A81-8419FBBDDE80}">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G9"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45:G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -9389,17 +10608,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="27">
+      <c r="A1" s="43">
         <v>1</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="32" t="s">
+      <c r="C1" s="30"/>
+      <c r="D1" s="27" t="s">
         <v>293</v>
       </c>
-      <c r="E1" s="33"/>
+      <c r="E1" s="28"/>
       <c r="F1" s="18" t="s">
         <v>126</v>
       </c>
@@ -9408,15 +10627,15 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="28"/>
-      <c r="B2" s="30" t="s">
+      <c r="A2" s="44"/>
+      <c r="B2" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="32" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="27" t="s">
         <v>294</v>
       </c>
-      <c r="E2" s="33"/>
+      <c r="E2" s="28"/>
       <c r="F2" s="18" t="s">
         <v>129</v>
       </c>
@@ -9425,29 +10644,29 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="28"/>
-      <c r="B3" s="30" t="s">
+      <c r="A3" s="44"/>
+      <c r="B3" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="33"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="28"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="28"/>
-      <c r="B4" s="35" t="s">
+      <c r="A4" s="44"/>
+      <c r="B4" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="37"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="34"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="28"/>
+      <c r="A5" s="44"/>
       <c r="B5" s="20" t="s">
         <v>132</v>
       </c>
@@ -9468,7 +10687,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="28"/>
+      <c r="A6" s="44"/>
       <c r="B6" s="19">
         <v>1</v>
       </c>
@@ -9485,7 +10704,7 @@
       <c r="G6" s="22"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="28"/>
+      <c r="A7" s="44"/>
       <c r="B7" s="19">
         <v>2</v>
       </c>
@@ -9502,7 +10721,7 @@
       <c r="G7" s="22"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="28"/>
+      <c r="A8" s="44"/>
       <c r="B8" s="19"/>
       <c r="C8" s="23"/>
       <c r="D8" s="22"/>
@@ -9511,26 +10730,26 @@
       <c r="G8" s="22"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="29"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="40"/>
+      <c r="A9" s="45"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="37"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="43">
+      <c r="A10" s="40">
         <v>2</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="C10" s="31"/>
-      <c r="D10" s="32" t="s">
+      <c r="C10" s="30"/>
+      <c r="D10" s="27" t="s">
         <v>248</v>
       </c>
-      <c r="E10" s="33"/>
+      <c r="E10" s="28"/>
       <c r="F10" s="18" t="s">
         <v>126</v>
       </c>
@@ -9539,15 +10758,15 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="44"/>
-      <c r="B11" s="30" t="s">
+      <c r="A11" s="41"/>
+      <c r="B11" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="C11" s="31"/>
-      <c r="D11" s="32" t="s">
+      <c r="C11" s="30"/>
+      <c r="D11" s="27" t="s">
         <v>249</v>
       </c>
-      <c r="E11" s="33"/>
+      <c r="E11" s="28"/>
       <c r="F11" s="18" t="s">
         <v>129</v>
       </c>
@@ -9556,29 +10775,29 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="44"/>
-      <c r="B12" s="30" t="s">
+      <c r="A12" s="41"/>
+      <c r="B12" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="C12" s="31"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="33"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="28"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="44"/>
-      <c r="B13" s="35" t="s">
+      <c r="A13" s="41"/>
+      <c r="B13" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="37"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="34"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="44"/>
+      <c r="A14" s="41"/>
       <c r="B14" s="20" t="s">
         <v>132</v>
       </c>
@@ -9599,7 +10818,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="44"/>
+      <c r="A15" s="41"/>
       <c r="B15" s="19">
         <v>1</v>
       </c>
@@ -9616,7 +10835,7 @@
       <c r="G15" s="22"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="44"/>
+      <c r="A16" s="41"/>
       <c r="B16" s="19">
         <v>2</v>
       </c>
@@ -9633,7 +10852,7 @@
       <c r="G16" s="22"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="44"/>
+      <c r="A17" s="41"/>
       <c r="B17" s="19"/>
       <c r="C17" s="23"/>
       <c r="D17" s="22"/>
@@ -9642,26 +10861,26 @@
       <c r="G17" s="22"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="45"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="40"/>
+      <c r="A18" s="42"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="37"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="27">
+      <c r="A19" s="43">
         <v>3</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="C19" s="31"/>
-      <c r="D19" s="32" t="s">
+      <c r="C19" s="30"/>
+      <c r="D19" s="27" t="s">
         <v>261</v>
       </c>
-      <c r="E19" s="33"/>
+      <c r="E19" s="28"/>
       <c r="F19" s="18" t="s">
         <v>126</v>
       </c>
@@ -9670,15 +10889,15 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="28"/>
-      <c r="B20" s="30" t="s">
+      <c r="A20" s="44"/>
+      <c r="B20" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="C20" s="31"/>
-      <c r="D20" s="32" t="s">
+      <c r="C20" s="30"/>
+      <c r="D20" s="27" t="s">
         <v>262</v>
       </c>
-      <c r="E20" s="33"/>
+      <c r="E20" s="28"/>
       <c r="F20" s="18" t="s">
         <v>129</v>
       </c>
@@ -9687,29 +10906,29 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="28"/>
-      <c r="B21" s="30" t="s">
+      <c r="A21" s="44"/>
+      <c r="B21" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="C21" s="31"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="33"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="28"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="28"/>
-      <c r="B22" s="35" t="s">
+      <c r="A22" s="44"/>
+      <c r="B22" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="37"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="34"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="28"/>
+      <c r="A23" s="44"/>
       <c r="B23" s="20" t="s">
         <v>132</v>
       </c>
@@ -9730,7 +10949,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="28"/>
+      <c r="A24" s="44"/>
       <c r="B24" s="19">
         <v>1</v>
       </c>
@@ -9747,7 +10966,7 @@
       <c r="G24" s="22"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="28"/>
+      <c r="A25" s="44"/>
       <c r="B25" s="19">
         <v>2</v>
       </c>
@@ -9764,7 +10983,7 @@
       <c r="G25" s="22"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="28"/>
+      <c r="A26" s="44"/>
       <c r="B26" s="19">
         <v>3</v>
       </c>
@@ -9781,26 +11000,26 @@
       <c r="G26" s="24"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="29"/>
-      <c r="B27" s="38"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="40"/>
+      <c r="A27" s="45"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="37"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="41">
+      <c r="A28" s="38">
         <v>4</v>
       </c>
-      <c r="B28" s="30" t="s">
+      <c r="B28" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="C28" s="31"/>
-      <c r="D28" s="32" t="s">
+      <c r="C28" s="30"/>
+      <c r="D28" s="27" t="s">
         <v>311</v>
       </c>
-      <c r="E28" s="33"/>
+      <c r="E28" s="28"/>
       <c r="F28" s="18" t="s">
         <v>126</v>
       </c>
@@ -9809,15 +11028,15 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="42"/>
-      <c r="B29" s="30" t="s">
+      <c r="A29" s="39"/>
+      <c r="B29" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="C29" s="31"/>
-      <c r="D29" s="32" t="s">
+      <c r="C29" s="30"/>
+      <c r="D29" s="27" t="s">
         <v>312</v>
       </c>
-      <c r="E29" s="33"/>
+      <c r="E29" s="28"/>
       <c r="F29" s="18" t="s">
         <v>129</v>
       </c>
@@ -9826,29 +11045,29 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="42"/>
-      <c r="B30" s="30" t="s">
+      <c r="A30" s="39"/>
+      <c r="B30" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="C30" s="31"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="33"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="28"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="42"/>
-      <c r="B31" s="35" t="s">
+      <c r="A31" s="39"/>
+      <c r="B31" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="37"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="34"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="42"/>
+      <c r="A32" s="39"/>
       <c r="B32" s="20" t="s">
         <v>132</v>
       </c>
@@ -9869,7 +11088,7 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="42"/>
+      <c r="A33" s="39"/>
       <c r="B33" s="19">
         <v>1</v>
       </c>
@@ -9886,7 +11105,7 @@
       <c r="G33" s="22"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="42"/>
+      <c r="A34" s="39"/>
       <c r="B34" s="19">
         <v>2</v>
       </c>
@@ -9903,21 +11122,196 @@
       <c r="G34" s="22"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="42"/>
-      <c r="B35" s="38"/>
-      <c r="C35" s="39"/>
-      <c r="D35" s="39"/>
-      <c r="E35" s="39"/>
-      <c r="F35" s="39"/>
-      <c r="G35" s="40"/>
+      <c r="A35" s="39"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="37"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="43">
+        <v>5</v>
+      </c>
+      <c r="B36" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="C36" s="30"/>
+      <c r="D36" s="27" t="s">
+        <v>484</v>
+      </c>
+      <c r="E36" s="28"/>
+      <c r="F36" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="G36" s="14" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="44"/>
+      <c r="B37" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="C37" s="30"/>
+      <c r="D37" s="27" t="s">
+        <v>485</v>
+      </c>
+      <c r="E37" s="28"/>
+      <c r="F37" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="G37" s="19" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="44"/>
+      <c r="B38" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="C38" s="30"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="28"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="44"/>
+      <c r="B39" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="C39" s="33"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="34"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="44"/>
+      <c r="B40" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="C40" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="D40" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="E40" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="F40" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="G40" s="21" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="44"/>
+      <c r="B41" s="19">
+        <v>1</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>487</v>
+      </c>
+      <c r="D41" s="22" t="s">
+        <v>488</v>
+      </c>
+      <c r="E41" s="22" t="s">
+        <v>489</v>
+      </c>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="44"/>
+      <c r="B42" s="19">
+        <v>2</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>490</v>
+      </c>
+      <c r="D42" s="22" t="s">
+        <v>491</v>
+      </c>
+      <c r="E42" s="22" t="s">
+        <v>492</v>
+      </c>
+      <c r="F42" s="22"/>
+      <c r="G42" s="22"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="44"/>
+      <c r="B43" s="19">
+        <v>3</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>493</v>
+      </c>
+      <c r="D43" s="22" t="s">
+        <v>494</v>
+      </c>
+      <c r="E43" s="22" t="s">
+        <v>495</v>
+      </c>
+      <c r="F43" s="22"/>
+      <c r="G43" s="24"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="44"/>
+      <c r="B44" s="19">
+        <v>4</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>496</v>
+      </c>
+      <c r="D44" s="22" t="s">
+        <v>497</v>
+      </c>
+      <c r="E44" s="22" t="s">
+        <v>498</v>
+      </c>
+      <c r="F44" s="22"/>
+      <c r="G44" s="24"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="45"/>
+      <c r="B45" s="35"/>
+      <c r="C45" s="36"/>
+      <c r="D45" s="36"/>
+      <c r="E45" s="36"/>
+      <c r="F45" s="36"/>
+      <c r="G45" s="37"/>
     </row>
   </sheetData>
-  <mergeCells count="36">
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B27:G27"/>
+  <mergeCells count="45">
+    <mergeCell ref="A36:A45"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="B45:G45"/>
+    <mergeCell ref="A1:A9"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
     <mergeCell ref="B31:G31"/>
     <mergeCell ref="A28:A35"/>
     <mergeCell ref="B35:G35"/>
@@ -9934,21 +11328,11 @@
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="A1:A9"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B27:G27"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9980,132 +11364,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="48" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="47" t="s">
         <v>283</v>
       </c>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="50"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="49"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="32"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="33"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="28"/>
       <c r="N1" s="14"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="48" t="s">
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="47" t="s">
         <v>284</v>
       </c>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="50"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="49"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="51" t="s">
+      <c r="I2" s="50" t="s">
         <v>285</v>
       </c>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="53"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="52"/>
       <c r="N2" s="13"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="50"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="49"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="33"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="28"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="50"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="49"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="32"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="33"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="28"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="46"/>
-      <c r="O6" s="46"/>
-      <c r="P6" s="46"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="53"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="53"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -10485,31 +11869,25 @@
       <c r="P17" s="1"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="32"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="34"/>
-      <c r="M18" s="34"/>
-      <c r="N18" s="34"/>
-      <c r="O18" s="34"/>
-      <c r="P18" s="33"/>
+      <c r="A18" s="27"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31"/>
+      <c r="P18" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
     <mergeCell ref="A6:P6"/>
     <mergeCell ref="A18:P18"/>
     <mergeCell ref="A3:C3"/>
@@ -10518,6 +11896,12 @@
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="D4:L4"/>
     <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -10553,132 +11937,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="48" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="47" t="s">
         <v>242</v>
       </c>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="50"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="49"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="32"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="33"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="28"/>
       <c r="N1" s="14"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="48" t="s">
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="47" t="s">
         <v>243</v>
       </c>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="50"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="49"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="51" t="s">
+      <c r="I2" s="50" t="s">
         <v>244</v>
       </c>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="53"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="52"/>
       <c r="N2" s="13"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="50"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="49"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="33"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="28"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="50"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="49"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="32"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="33"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="28"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="46"/>
-      <c r="O6" s="46"/>
-      <c r="P6" s="46"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="53"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="53"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -11182,247 +12566,281 @@
       <c r="P21" s="1"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="32"/>
-      <c r="B22" s="34"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="34"/>
-      <c r="M22" s="34"/>
-      <c r="N22" s="34"/>
-      <c r="O22" s="34"/>
-      <c r="P22" s="33"/>
+      <c r="A22" s="27"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="31"/>
+      <c r="P22" s="28"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="71" t="s">
+      <c r="A24" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="72"/>
-      <c r="C24" s="72"/>
-      <c r="D24" s="72"/>
-      <c r="E24" s="72"/>
-      <c r="F24" s="72"/>
-      <c r="G24" s="72"/>
-      <c r="H24" s="72"/>
-      <c r="I24" s="72"/>
-      <c r="J24" s="72"/>
-      <c r="K24" s="72"/>
-      <c r="L24" s="72"/>
-      <c r="M24" s="72"/>
-      <c r="N24" s="72"/>
-      <c r="O24" s="72"/>
-      <c r="P24" s="73"/>
+      <c r="B24" s="69"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="69"/>
+      <c r="H24" s="69"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="69"/>
+      <c r="N24" s="69"/>
+      <c r="O24" s="69"/>
+      <c r="P24" s="70"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="27">
+      <c r="A25" s="43">
         <v>1</v>
       </c>
-      <c r="B25" s="54" t="s">
+      <c r="B25" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="55"/>
-      <c r="D25" s="32" t="s">
+      <c r="C25" s="61"/>
+      <c r="D25" s="27" t="s">
         <v>272</v>
       </c>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
       <c r="G25" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H25" s="32" t="s">
+      <c r="H25" s="27" t="s">
         <v>273</v>
       </c>
-      <c r="I25" s="34"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="56" t="s">
+      <c r="I25" s="31"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="L25" s="57"/>
-      <c r="M25" s="51" t="s">
+      <c r="L25" s="56"/>
+      <c r="M25" s="50" t="s">
         <v>274</v>
       </c>
-      <c r="N25" s="52"/>
-      <c r="O25" s="52"/>
-      <c r="P25" s="53"/>
+      <c r="N25" s="51"/>
+      <c r="O25" s="51"/>
+      <c r="P25" s="52"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="28"/>
-      <c r="B26" s="54" t="s">
+      <c r="A26" s="44"/>
+      <c r="B26" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="55"/>
-      <c r="D26" s="32" t="s">
+      <c r="C26" s="61"/>
+      <c r="D26" s="27" t="s">
         <v>275</v>
       </c>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
       <c r="G26" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H26" s="32" t="s">
+      <c r="H26" s="27" t="s">
         <v>276</v>
       </c>
-      <c r="I26" s="34"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="56" t="s">
+      <c r="I26" s="31"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="L26" s="57"/>
-      <c r="M26" s="51" t="s">
+      <c r="L26" s="56"/>
+      <c r="M26" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="N26" s="52"/>
-      <c r="O26" s="52"/>
-      <c r="P26" s="53"/>
+      <c r="N26" s="51"/>
+      <c r="O26" s="51"/>
+      <c r="P26" s="52"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="28"/>
-      <c r="B27" s="54" t="s">
+      <c r="A27" s="44"/>
+      <c r="B27" s="60" t="s">
         <v>98</v>
       </c>
-      <c r="C27" s="55"/>
-      <c r="D27" s="32" t="s">
+      <c r="C27" s="61"/>
+      <c r="D27" s="27" t="s">
         <v>382</v>
       </c>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
       <c r="G27" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="H27" s="34" t="s">
+      <c r="H27" s="31" t="s">
         <v>383</v>
       </c>
-      <c r="I27" s="34"/>
-      <c r="J27" s="33"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="28"/>
       <c r="K27" s="15"/>
       <c r="L27" s="16"/>
-      <c r="M27" s="51"/>
-      <c r="N27" s="52"/>
-      <c r="O27" s="52"/>
-      <c r="P27" s="53"/>
+      <c r="M27" s="50"/>
+      <c r="N27" s="51"/>
+      <c r="O27" s="51"/>
+      <c r="P27" s="52"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="28"/>
-      <c r="B28" s="54" t="s">
+      <c r="A28" s="44"/>
+      <c r="B28" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="55"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="56" t="s">
+      <c r="C28" s="61"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="L28" s="57"/>
-      <c r="M28" s="51" t="s">
+      <c r="L28" s="56"/>
+      <c r="M28" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="N28" s="52"/>
-      <c r="O28" s="52"/>
-      <c r="P28" s="53"/>
+      <c r="N28" s="51"/>
+      <c r="O28" s="51"/>
+      <c r="P28" s="52"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="28"/>
-      <c r="B29" s="67" t="s">
+      <c r="A29" s="44"/>
+      <c r="B29" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="69"/>
-      <c r="D29" s="69"/>
-      <c r="E29" s="69"/>
-      <c r="F29" s="69"/>
-      <c r="G29" s="69"/>
-      <c r="H29" s="69"/>
-      <c r="I29" s="69"/>
-      <c r="J29" s="68"/>
-      <c r="K29" s="67"/>
-      <c r="L29" s="68"/>
-      <c r="M29" s="67"/>
-      <c r="N29" s="69"/>
-      <c r="O29" s="69"/>
-      <c r="P29" s="68"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="63"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="63"/>
+      <c r="J29" s="64"/>
+      <c r="K29" s="62"/>
+      <c r="L29" s="64"/>
+      <c r="M29" s="62"/>
+      <c r="N29" s="63"/>
+      <c r="O29" s="63"/>
+      <c r="P29" s="64"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="28"/>
+      <c r="A30" s="44"/>
       <c r="B30" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="56" t="s">
+      <c r="C30" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="70"/>
-      <c r="E30" s="57"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="56"/>
       <c r="F30" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G30" s="56" t="s">
+      <c r="G30" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="H30" s="57"/>
-      <c r="I30" s="56" t="s">
+      <c r="H30" s="56"/>
+      <c r="I30" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="J30" s="57"/>
-      <c r="K30" s="61"/>
-      <c r="L30" s="63"/>
-      <c r="M30" s="61"/>
-      <c r="N30" s="62"/>
-      <c r="O30" s="62"/>
-      <c r="P30" s="63"/>
+      <c r="J30" s="56"/>
+      <c r="K30" s="71"/>
+      <c r="L30" s="73"/>
+      <c r="M30" s="71"/>
+      <c r="N30" s="72"/>
+      <c r="O30" s="72"/>
+      <c r="P30" s="73"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="28"/>
+      <c r="A31" s="44"/>
       <c r="B31" s="8">
         <v>1</v>
       </c>
-      <c r="C31" s="64" t="s">
+      <c r="C31" s="57" t="s">
         <v>277</v>
       </c>
-      <c r="D31" s="66"/>
-      <c r="E31" s="65"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="59"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="64" t="s">
+      <c r="G31" s="57" t="s">
         <v>278</v>
       </c>
-      <c r="H31" s="65"/>
+      <c r="H31" s="59"/>
       <c r="I31" s="3"/>
       <c r="J31" s="4"/>
-      <c r="K31" s="58"/>
-      <c r="L31" s="59"/>
-      <c r="M31" s="58"/>
-      <c r="N31" s="60"/>
-      <c r="O31" s="60"/>
-      <c r="P31" s="59"/>
+      <c r="K31" s="65"/>
+      <c r="L31" s="67"/>
+      <c r="M31" s="65"/>
+      <c r="N31" s="66"/>
+      <c r="O31" s="66"/>
+      <c r="P31" s="67"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="28"/>
-      <c r="B32" s="64"/>
-      <c r="C32" s="66"/>
-      <c r="D32" s="66"/>
-      <c r="E32" s="65"/>
+      <c r="A32" s="44"/>
+      <c r="B32" s="57"/>
+      <c r="C32" s="58"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="59"/>
       <c r="F32" s="3"/>
-      <c r="G32" s="64"/>
-      <c r="H32" s="65"/>
+      <c r="G32" s="57"/>
+      <c r="H32" s="59"/>
       <c r="I32" s="3"/>
       <c r="J32" s="4"/>
-      <c r="K32" s="58"/>
-      <c r="L32" s="59"/>
-      <c r="M32" s="58"/>
-      <c r="N32" s="60"/>
-      <c r="O32" s="60"/>
-      <c r="P32" s="59"/>
+      <c r="K32" s="65"/>
+      <c r="L32" s="67"/>
+      <c r="M32" s="65"/>
+      <c r="N32" s="66"/>
+      <c r="O32" s="66"/>
+      <c r="P32" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:P32"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A22:P22"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:P29"/>
     <mergeCell ref="D4:L4"/>
     <mergeCell ref="A5:P5"/>
     <mergeCell ref="C30:E30"/>
@@ -11439,40 +12857,6 @@
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="H25:J25"/>
     <mergeCell ref="K25:L25"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A22:P22"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:P29"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:P32"/>
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:P26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -11508,134 +12892,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="48" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="47" t="s">
         <v>296</v>
       </c>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="50"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="49"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="32"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="33"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="28"/>
       <c r="N1" s="14"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="48" t="s">
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="47" t="s">
         <v>297</v>
       </c>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="50"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="49"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="51" t="s">
+      <c r="I2" s="50" t="s">
         <v>298</v>
       </c>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="53"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="52"/>
       <c r="N2" s="13"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="48" t="s">
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="47" t="s">
         <v>374</v>
       </c>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="50"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="49"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="33"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="28"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="50"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="49"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="32"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="33"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="28"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="46"/>
-      <c r="O6" s="46"/>
-      <c r="P6" s="46"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="53"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="53"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -11952,68 +13336,68 @@
       <c r="P15" s="1"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="32"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="34"/>
-      <c r="L16" s="34"/>
-      <c r="M16" s="34"/>
-      <c r="N16" s="34"/>
-      <c r="O16" s="34"/>
-      <c r="P16" s="33"/>
+      <c r="A16" s="27"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="31"/>
+      <c r="P16" s="28"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="71" t="s">
+      <c r="A18" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="72"/>
-      <c r="C18" s="72"/>
-      <c r="D18" s="72"/>
-      <c r="E18" s="72"/>
-      <c r="F18" s="72"/>
-      <c r="G18" s="72"/>
-      <c r="H18" s="72"/>
-      <c r="I18" s="72"/>
-      <c r="J18" s="72"/>
-      <c r="K18" s="72"/>
-      <c r="L18" s="72"/>
-      <c r="M18" s="72"/>
-      <c r="N18" s="72"/>
-      <c r="O18" s="72"/>
-      <c r="P18" s="73"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="69"/>
+      <c r="J18" s="69"/>
+      <c r="K18" s="69"/>
+      <c r="L18" s="69"/>
+      <c r="M18" s="69"/>
+      <c r="N18" s="69"/>
+      <c r="O18" s="69"/>
+      <c r="P18" s="70"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="27">
+      <c r="A19" s="43">
         <v>1</v>
       </c>
-      <c r="B19" s="54" t="s">
+      <c r="B19" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="55"/>
-      <c r="D19" s="32" t="s">
+      <c r="C19" s="61"/>
+      <c r="D19" s="27" t="s">
         <v>299</v>
       </c>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
       <c r="G19" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H19" s="32" t="s">
+      <c r="H19" s="27" t="s">
         <v>304</v>
       </c>
-      <c r="I19" s="34"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="56" t="s">
+      <c r="I19" s="31"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="L19" s="57"/>
+      <c r="L19" s="56"/>
       <c r="M19" s="74" t="s">
         <v>300</v>
       </c>
@@ -12022,196 +13406,196 @@
       <c r="P19" s="76"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="28"/>
-      <c r="B20" s="54" t="s">
+      <c r="A20" s="44"/>
+      <c r="B20" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="55"/>
-      <c r="D20" s="32" t="s">
+      <c r="C20" s="61"/>
+      <c r="D20" s="27" t="s">
         <v>301</v>
       </c>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
       <c r="G20" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H20" s="32" t="s">
+      <c r="H20" s="27" t="s">
         <v>302</v>
       </c>
-      <c r="I20" s="34"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="56" t="s">
+      <c r="I20" s="31"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="L20" s="57"/>
-      <c r="M20" s="51" t="s">
+      <c r="L20" s="56"/>
+      <c r="M20" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="N20" s="52"/>
-      <c r="O20" s="52"/>
-      <c r="P20" s="53"/>
+      <c r="N20" s="51"/>
+      <c r="O20" s="51"/>
+      <c r="P20" s="52"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="28"/>
-      <c r="B21" s="54" t="s">
+      <c r="A21" s="44"/>
+      <c r="B21" s="60" t="s">
         <v>98</v>
       </c>
-      <c r="C21" s="55"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
       <c r="G21" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="H21" s="34"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="33"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="28"/>
       <c r="K21" s="15"/>
       <c r="L21" s="16"/>
-      <c r="M21" s="51"/>
-      <c r="N21" s="52"/>
-      <c r="O21" s="52"/>
-      <c r="P21" s="53"/>
+      <c r="M21" s="50"/>
+      <c r="N21" s="51"/>
+      <c r="O21" s="51"/>
+      <c r="P21" s="52"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="28"/>
-      <c r="B22" s="54" t="s">
+      <c r="A22" s="44"/>
+      <c r="B22" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="55"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="56" t="s">
+      <c r="C22" s="61"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="L22" s="57"/>
-      <c r="M22" s="51" t="s">
+      <c r="L22" s="56"/>
+      <c r="M22" s="50" t="s">
         <v>143</v>
       </c>
-      <c r="N22" s="52"/>
-      <c r="O22" s="52"/>
-      <c r="P22" s="53"/>
+      <c r="N22" s="51"/>
+      <c r="O22" s="51"/>
+      <c r="P22" s="52"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="28"/>
-      <c r="B23" s="67" t="s">
+      <c r="A23" s="44"/>
+      <c r="B23" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="69"/>
-      <c r="H23" s="69"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="68"/>
-      <c r="K23" s="67"/>
-      <c r="L23" s="68"/>
-      <c r="M23" s="67"/>
-      <c r="N23" s="69"/>
-      <c r="O23" s="69"/>
-      <c r="P23" s="68"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="63"/>
+      <c r="G23" s="63"/>
+      <c r="H23" s="63"/>
+      <c r="I23" s="63"/>
+      <c r="J23" s="64"/>
+      <c r="K23" s="62"/>
+      <c r="L23" s="64"/>
+      <c r="M23" s="62"/>
+      <c r="N23" s="63"/>
+      <c r="O23" s="63"/>
+      <c r="P23" s="64"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="28"/>
+      <c r="A24" s="44"/>
       <c r="B24" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="56" t="s">
+      <c r="C24" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="70"/>
-      <c r="E24" s="57"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="56"/>
       <c r="F24" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G24" s="56" t="s">
+      <c r="G24" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="H24" s="57"/>
-      <c r="I24" s="56" t="s">
+      <c r="H24" s="56"/>
+      <c r="I24" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="J24" s="57"/>
-      <c r="K24" s="61"/>
-      <c r="L24" s="63"/>
-      <c r="M24" s="61"/>
-      <c r="N24" s="62"/>
-      <c r="O24" s="62"/>
-      <c r="P24" s="63"/>
+      <c r="J24" s="56"/>
+      <c r="K24" s="71"/>
+      <c r="L24" s="73"/>
+      <c r="M24" s="71"/>
+      <c r="N24" s="72"/>
+      <c r="O24" s="72"/>
+      <c r="P24" s="73"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="28"/>
+      <c r="A25" s="44"/>
       <c r="B25" s="8">
         <v>1</v>
       </c>
-      <c r="C25" s="64" t="s">
+      <c r="C25" s="57" t="s">
         <v>303</v>
       </c>
-      <c r="D25" s="66"/>
-      <c r="E25" s="65"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="59"/>
       <c r="F25" s="3"/>
-      <c r="G25" s="64" t="s">
+      <c r="G25" s="57" t="s">
         <v>303</v>
       </c>
-      <c r="H25" s="65"/>
+      <c r="H25" s="59"/>
       <c r="I25" s="3"/>
       <c r="J25" s="4"/>
-      <c r="K25" s="58"/>
-      <c r="L25" s="59"/>
-      <c r="M25" s="58"/>
-      <c r="N25" s="60"/>
-      <c r="O25" s="60"/>
-      <c r="P25" s="59"/>
+      <c r="K25" s="65"/>
+      <c r="L25" s="67"/>
+      <c r="M25" s="65"/>
+      <c r="N25" s="66"/>
+      <c r="O25" s="66"/>
+      <c r="P25" s="67"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="28"/>
-      <c r="B26" s="64"/>
-      <c r="C26" s="66"/>
-      <c r="D26" s="66"/>
-      <c r="E26" s="65"/>
+      <c r="A26" s="44"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="59"/>
       <c r="F26" s="3"/>
-      <c r="G26" s="64"/>
-      <c r="H26" s="65"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="59"/>
       <c r="I26" s="3"/>
       <c r="J26" s="4"/>
-      <c r="K26" s="58"/>
-      <c r="L26" s="59"/>
-      <c r="M26" s="58"/>
-      <c r="N26" s="60"/>
-      <c r="O26" s="60"/>
-      <c r="P26" s="59"/>
+      <c r="K26" s="65"/>
+      <c r="L26" s="67"/>
+      <c r="M26" s="65"/>
+      <c r="N26" s="66"/>
+      <c r="O26" s="66"/>
+      <c r="P26" s="67"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="27">
+      <c r="A27" s="43">
         <v>2</v>
       </c>
-      <c r="B27" s="54" t="s">
+      <c r="B27" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="55"/>
-      <c r="D27" s="32" t="s">
+      <c r="C27" s="61"/>
+      <c r="D27" s="27" t="s">
         <v>279</v>
       </c>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
       <c r="G27" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H27" s="32" t="s">
+      <c r="H27" s="27" t="s">
         <v>305</v>
       </c>
-      <c r="I27" s="34"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="56" t="s">
+      <c r="I27" s="31"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="L27" s="57"/>
+      <c r="L27" s="56"/>
       <c r="M27" s="74" t="s">
         <v>274</v>
       </c>
@@ -12220,185 +13604,230 @@
       <c r="P27" s="76"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="28"/>
-      <c r="B28" s="54" t="s">
+      <c r="A28" s="44"/>
+      <c r="B28" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="55"/>
-      <c r="D28" s="32" t="s">
+      <c r="C28" s="61"/>
+      <c r="D28" s="27" t="s">
         <v>306</v>
       </c>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
       <c r="G28" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H28" s="32" t="s">
+      <c r="H28" s="27" t="s">
         <v>307</v>
       </c>
-      <c r="I28" s="34"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="56" t="s">
+      <c r="I28" s="31"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="L28" s="57"/>
-      <c r="M28" s="51" t="s">
+      <c r="L28" s="56"/>
+      <c r="M28" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="N28" s="52"/>
-      <c r="O28" s="52"/>
-      <c r="P28" s="53"/>
+      <c r="N28" s="51"/>
+      <c r="O28" s="51"/>
+      <c r="P28" s="52"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="28"/>
-      <c r="B29" s="54" t="s">
+      <c r="A29" s="44"/>
+      <c r="B29" s="60" t="s">
         <v>98</v>
       </c>
-      <c r="C29" s="55"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
+      <c r="C29" s="61"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
       <c r="G29" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="H29" s="34"/>
-      <c r="I29" s="34"/>
-      <c r="J29" s="33"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="28"/>
       <c r="K29" s="15"/>
       <c r="L29" s="16"/>
-      <c r="M29" s="51"/>
-      <c r="N29" s="52"/>
-      <c r="O29" s="52"/>
-      <c r="P29" s="53"/>
+      <c r="M29" s="50"/>
+      <c r="N29" s="51"/>
+      <c r="O29" s="51"/>
+      <c r="P29" s="52"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="28"/>
-      <c r="B30" s="54" t="s">
+      <c r="A30" s="44"/>
+      <c r="B30" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="55"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="34"/>
-      <c r="H30" s="34"/>
-      <c r="I30" s="34"/>
-      <c r="J30" s="33"/>
-      <c r="K30" s="56" t="s">
+      <c r="C30" s="61"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="L30" s="57"/>
-      <c r="M30" s="51" t="s">
+      <c r="L30" s="56"/>
+      <c r="M30" s="50" t="s">
         <v>143</v>
       </c>
-      <c r="N30" s="52"/>
-      <c r="O30" s="52"/>
-      <c r="P30" s="53"/>
+      <c r="N30" s="51"/>
+      <c r="O30" s="51"/>
+      <c r="P30" s="52"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="28"/>
-      <c r="B31" s="67" t="s">
+      <c r="A31" s="44"/>
+      <c r="B31" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="69"/>
-      <c r="D31" s="69"/>
-      <c r="E31" s="69"/>
-      <c r="F31" s="69"/>
-      <c r="G31" s="69"/>
-      <c r="H31" s="69"/>
-      <c r="I31" s="69"/>
-      <c r="J31" s="68"/>
-      <c r="K31" s="67"/>
-      <c r="L31" s="68"/>
-      <c r="M31" s="67"/>
-      <c r="N31" s="69"/>
-      <c r="O31" s="69"/>
-      <c r="P31" s="68"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="63"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="63"/>
+      <c r="J31" s="64"/>
+      <c r="K31" s="62"/>
+      <c r="L31" s="64"/>
+      <c r="M31" s="62"/>
+      <c r="N31" s="63"/>
+      <c r="O31" s="63"/>
+      <c r="P31" s="64"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="28"/>
+      <c r="A32" s="44"/>
       <c r="B32" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C32" s="56" t="s">
+      <c r="C32" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="D32" s="70"/>
-      <c r="E32" s="57"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="56"/>
       <c r="F32" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G32" s="56" t="s">
+      <c r="G32" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="H32" s="57"/>
-      <c r="I32" s="56" t="s">
+      <c r="H32" s="56"/>
+      <c r="I32" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="J32" s="57"/>
-      <c r="K32" s="61"/>
-      <c r="L32" s="63"/>
-      <c r="M32" s="61"/>
-      <c r="N32" s="62"/>
-      <c r="O32" s="62"/>
-      <c r="P32" s="63"/>
+      <c r="J32" s="56"/>
+      <c r="K32" s="71"/>
+      <c r="L32" s="73"/>
+      <c r="M32" s="71"/>
+      <c r="N32" s="72"/>
+      <c r="O32" s="72"/>
+      <c r="P32" s="73"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A33" s="28"/>
+      <c r="A33" s="44"/>
       <c r="B33" s="8">
         <v>1</v>
       </c>
-      <c r="C33" s="64" t="s">
+      <c r="C33" s="57" t="s">
         <v>278</v>
       </c>
-      <c r="D33" s="66"/>
-      <c r="E33" s="65"/>
+      <c r="D33" s="58"/>
+      <c r="E33" s="59"/>
       <c r="F33" s="3"/>
-      <c r="G33" s="64" t="s">
+      <c r="G33" s="57" t="s">
         <v>278</v>
       </c>
-      <c r="H33" s="65"/>
+      <c r="H33" s="59"/>
       <c r="I33" s="3"/>
       <c r="J33" s="4"/>
-      <c r="K33" s="58"/>
-      <c r="L33" s="59"/>
-      <c r="M33" s="58"/>
-      <c r="N33" s="60"/>
-      <c r="O33" s="60"/>
-      <c r="P33" s="59"/>
+      <c r="K33" s="65"/>
+      <c r="L33" s="67"/>
+      <c r="M33" s="65"/>
+      <c r="N33" s="66"/>
+      <c r="O33" s="66"/>
+      <c r="P33" s="67"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A34" s="28"/>
-      <c r="B34" s="64"/>
-      <c r="C34" s="66"/>
-      <c r="D34" s="66"/>
-      <c r="E34" s="65"/>
+      <c r="A34" s="44"/>
+      <c r="B34" s="57"/>
+      <c r="C34" s="58"/>
+      <c r="D34" s="58"/>
+      <c r="E34" s="59"/>
       <c r="F34" s="3"/>
-      <c r="G34" s="64"/>
-      <c r="H34" s="65"/>
+      <c r="G34" s="57"/>
+      <c r="H34" s="59"/>
       <c r="I34" s="3"/>
       <c r="J34" s="4"/>
-      <c r="K34" s="58"/>
-      <c r="L34" s="59"/>
-      <c r="M34" s="58"/>
-      <c r="N34" s="60"/>
-      <c r="O34" s="60"/>
-      <c r="P34" s="59"/>
+      <c r="K34" s="65"/>
+      <c r="L34" s="67"/>
+      <c r="M34" s="65"/>
+      <c r="N34" s="66"/>
+      <c r="O34" s="66"/>
+      <c r="P34" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="85">
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:L4"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="M34:P34"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:P32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="M33:P33"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="B31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="A27:A34"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="B23:J23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
     <mergeCell ref="A6:P6"/>
     <mergeCell ref="A16:P16"/>
     <mergeCell ref="A18:P18"/>
@@ -12415,63 +13844,18 @@
     <mergeCell ref="M20:P20"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="D21:F21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="B23:J23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="A27:A34"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="M29:P29"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="B31:J31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:P31"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="M34:P34"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:P32"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="M33:P33"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:L4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -12508,134 +13892,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="48" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="47" t="s">
         <v>252</v>
       </c>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="50"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="49"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="32"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="33"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="28"/>
       <c r="N1" s="14"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="48" t="s">
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="47" t="s">
         <v>220</v>
       </c>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="50"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="49"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="51" t="s">
+      <c r="I2" s="50" t="s">
         <v>253</v>
       </c>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="53"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="52"/>
       <c r="N2" s="13"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="50"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="49"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="33"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="28"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="48" t="s">
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="47" t="s">
         <v>231</v>
       </c>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="50"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="49"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="32"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="33"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="28"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="46"/>
-      <c r="O6" s="46"/>
-      <c r="P6" s="46"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="53"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="53"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -13146,50 +14530,50 @@
       <c r="P21" s="1"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="71" t="s">
+      <c r="A23" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="72"/>
-      <c r="C23" s="72"/>
-      <c r="D23" s="72"/>
-      <c r="E23" s="72"/>
-      <c r="F23" s="72"/>
-      <c r="G23" s="72"/>
-      <c r="H23" s="72"/>
-      <c r="I23" s="72"/>
-      <c r="J23" s="72"/>
-      <c r="K23" s="72"/>
-      <c r="L23" s="72"/>
-      <c r="M23" s="72"/>
-      <c r="N23" s="72"/>
-      <c r="O23" s="72"/>
-      <c r="P23" s="73"/>
+      <c r="B23" s="69"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="69"/>
+      <c r="H23" s="69"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="69"/>
+      <c r="M23" s="69"/>
+      <c r="N23" s="69"/>
+      <c r="O23" s="69"/>
+      <c r="P23" s="70"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="27">
+      <c r="A24" s="43">
         <v>1</v>
       </c>
-      <c r="B24" s="54" t="s">
+      <c r="B24" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="55"/>
-      <c r="D24" s="32" t="s">
+      <c r="C24" s="61"/>
+      <c r="D24" s="27" t="s">
         <v>279</v>
       </c>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
       <c r="G24" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H24" s="32" t="s">
+      <c r="H24" s="27" t="s">
         <v>280</v>
       </c>
-      <c r="I24" s="34"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="56" t="s">
+      <c r="I24" s="31"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="L24" s="57"/>
+      <c r="L24" s="56"/>
       <c r="M24" s="74" t="s">
         <v>274</v>
       </c>
@@ -13198,190 +14582,197 @@
       <c r="P24" s="76"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="28"/>
-      <c r="B25" s="54" t="s">
+      <c r="A25" s="44"/>
+      <c r="B25" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="55"/>
-      <c r="D25" s="32" t="s">
+      <c r="C25" s="61"/>
+      <c r="D25" s="27" t="s">
         <v>282</v>
       </c>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
       <c r="G25" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H25" s="32" t="s">
+      <c r="H25" s="27" t="s">
         <v>281</v>
       </c>
-      <c r="I25" s="34"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="56" t="s">
+      <c r="I25" s="31"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="L25" s="57"/>
-      <c r="M25" s="51" t="s">
+      <c r="L25" s="56"/>
+      <c r="M25" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="N25" s="52"/>
-      <c r="O25" s="52"/>
-      <c r="P25" s="53"/>
+      <c r="N25" s="51"/>
+      <c r="O25" s="51"/>
+      <c r="P25" s="52"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="28"/>
-      <c r="B26" s="54" t="s">
+      <c r="A26" s="44"/>
+      <c r="B26" s="60" t="s">
         <v>98</v>
       </c>
-      <c r="C26" s="55"/>
-      <c r="D26" s="32" t="s">
+      <c r="C26" s="61"/>
+      <c r="D26" s="27" t="s">
         <v>380</v>
       </c>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
       <c r="G26" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="H26" s="34" t="s">
+      <c r="H26" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="I26" s="34"/>
-      <c r="J26" s="33"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="28"/>
       <c r="K26" s="15"/>
       <c r="L26" s="16"/>
-      <c r="M26" s="51"/>
-      <c r="N26" s="52"/>
-      <c r="O26" s="52"/>
-      <c r="P26" s="53"/>
+      <c r="M26" s="50"/>
+      <c r="N26" s="51"/>
+      <c r="O26" s="51"/>
+      <c r="P26" s="52"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="28"/>
-      <c r="B27" s="54" t="s">
+      <c r="A27" s="44"/>
+      <c r="B27" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="55"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="56" t="s">
+      <c r="C27" s="61"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="L27" s="57"/>
-      <c r="M27" s="51" t="s">
+      <c r="L27" s="56"/>
+      <c r="M27" s="50" t="s">
         <v>143</v>
       </c>
-      <c r="N27" s="52"/>
-      <c r="O27" s="52"/>
-      <c r="P27" s="53"/>
+      <c r="N27" s="51"/>
+      <c r="O27" s="51"/>
+      <c r="P27" s="52"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="28"/>
-      <c r="B28" s="67" t="s">
+      <c r="A28" s="44"/>
+      <c r="B28" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="69"/>
-      <c r="D28" s="69"/>
-      <c r="E28" s="69"/>
-      <c r="F28" s="69"/>
-      <c r="G28" s="69"/>
-      <c r="H28" s="69"/>
-      <c r="I28" s="69"/>
-      <c r="J28" s="68"/>
-      <c r="K28" s="67"/>
-      <c r="L28" s="68"/>
-      <c r="M28" s="67"/>
-      <c r="N28" s="69"/>
-      <c r="O28" s="69"/>
-      <c r="P28" s="68"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="63"/>
+      <c r="G28" s="63"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="63"/>
+      <c r="J28" s="64"/>
+      <c r="K28" s="62"/>
+      <c r="L28" s="64"/>
+      <c r="M28" s="62"/>
+      <c r="N28" s="63"/>
+      <c r="O28" s="63"/>
+      <c r="P28" s="64"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="28"/>
+      <c r="A29" s="44"/>
       <c r="B29" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="56" t="s">
+      <c r="C29" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="70"/>
-      <c r="E29" s="57"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="56"/>
       <c r="F29" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G29" s="56" t="s">
+      <c r="G29" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="H29" s="57"/>
-      <c r="I29" s="56" t="s">
+      <c r="H29" s="56"/>
+      <c r="I29" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="J29" s="57"/>
-      <c r="K29" s="61"/>
-      <c r="L29" s="63"/>
-      <c r="M29" s="61"/>
-      <c r="N29" s="62"/>
-      <c r="O29" s="62"/>
-      <c r="P29" s="63"/>
+      <c r="J29" s="56"/>
+      <c r="K29" s="71"/>
+      <c r="L29" s="73"/>
+      <c r="M29" s="71"/>
+      <c r="N29" s="72"/>
+      <c r="O29" s="72"/>
+      <c r="P29" s="73"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="28"/>
+      <c r="A30" s="44"/>
       <c r="B30" s="8">
         <v>1</v>
       </c>
-      <c r="C30" s="64" t="s">
+      <c r="C30" s="57" t="s">
         <v>278</v>
       </c>
-      <c r="D30" s="66"/>
-      <c r="E30" s="65"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="59"/>
       <c r="F30" s="3"/>
-      <c r="G30" s="64" t="s">
+      <c r="G30" s="57" t="s">
         <v>278</v>
       </c>
-      <c r="H30" s="65"/>
+      <c r="H30" s="59"/>
       <c r="I30" s="3"/>
       <c r="J30" s="4"/>
-      <c r="K30" s="58"/>
-      <c r="L30" s="59"/>
-      <c r="M30" s="58"/>
-      <c r="N30" s="60"/>
-      <c r="O30" s="60"/>
-      <c r="P30" s="59"/>
+      <c r="K30" s="65"/>
+      <c r="L30" s="67"/>
+      <c r="M30" s="65"/>
+      <c r="N30" s="66"/>
+      <c r="O30" s="66"/>
+      <c r="P30" s="67"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="28"/>
-      <c r="B31" s="64"/>
-      <c r="C31" s="66"/>
-      <c r="D31" s="66"/>
-      <c r="E31" s="65"/>
+      <c r="A31" s="44"/>
+      <c r="B31" s="57"/>
+      <c r="C31" s="58"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="59"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="64"/>
-      <c r="H31" s="65"/>
+      <c r="G31" s="57"/>
+      <c r="H31" s="59"/>
       <c r="I31" s="3"/>
       <c r="J31" s="4"/>
-      <c r="K31" s="58"/>
-      <c r="L31" s="59"/>
-      <c r="M31" s="58"/>
-      <c r="N31" s="60"/>
-      <c r="O31" s="60"/>
-      <c r="P31" s="59"/>
+      <c r="K31" s="65"/>
+      <c r="L31" s="67"/>
+      <c r="M31" s="65"/>
+      <c r="N31" s="66"/>
+      <c r="O31" s="66"/>
+      <c r="P31" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:L4"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="B28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:P28"/>
     <mergeCell ref="A23:P23"/>
     <mergeCell ref="A24:A31"/>
     <mergeCell ref="B24:C24"/>
@@ -13398,26 +14789,19 @@
     <mergeCell ref="D26:F26"/>
     <mergeCell ref="H26:J26"/>
     <mergeCell ref="M26:P26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="B28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:P29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:L4"/>
+    <mergeCell ref="A5:P5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -13454,132 +14838,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="48" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="47" t="s">
         <v>318</v>
       </c>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="50"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="49"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="32"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="33"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="28"/>
       <c r="N1" s="14"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="48" t="s">
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="47" t="s">
         <v>319</v>
       </c>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="50"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="49"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="51" t="s">
+      <c r="I2" s="50" t="s">
         <v>320</v>
       </c>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="53"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="52"/>
       <c r="N2" s="13"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="50"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="49"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="33"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="28"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="50"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="49"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="32"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="33"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="28"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="46"/>
-      <c r="O6" s="46"/>
-      <c r="P6" s="46"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="53"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="53"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -14172,50 +15556,50 @@
       <c r="P24" s="1"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="71" t="s">
+      <c r="A26" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="72"/>
-      <c r="C26" s="72"/>
-      <c r="D26" s="72"/>
-      <c r="E26" s="72"/>
-      <c r="F26" s="72"/>
-      <c r="G26" s="72"/>
-      <c r="H26" s="72"/>
-      <c r="I26" s="72"/>
-      <c r="J26" s="72"/>
-      <c r="K26" s="72"/>
-      <c r="L26" s="72"/>
-      <c r="M26" s="72"/>
-      <c r="N26" s="72"/>
-      <c r="O26" s="72"/>
-      <c r="P26" s="73"/>
+      <c r="B26" s="69"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="69"/>
+      <c r="G26" s="69"/>
+      <c r="H26" s="69"/>
+      <c r="I26" s="69"/>
+      <c r="J26" s="69"/>
+      <c r="K26" s="69"/>
+      <c r="L26" s="69"/>
+      <c r="M26" s="69"/>
+      <c r="N26" s="69"/>
+      <c r="O26" s="69"/>
+      <c r="P26" s="70"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="27">
+      <c r="A27" s="43">
         <v>1</v>
       </c>
-      <c r="B27" s="54" t="s">
+      <c r="B27" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="55"/>
-      <c r="D27" s="32" t="s">
+      <c r="C27" s="61"/>
+      <c r="D27" s="27" t="s">
         <v>279</v>
       </c>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
       <c r="G27" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H27" s="32" t="s">
+      <c r="H27" s="27" t="s">
         <v>377</v>
       </c>
-      <c r="I27" s="34"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="56" t="s">
+      <c r="I27" s="31"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="L27" s="57"/>
+      <c r="L27" s="56"/>
       <c r="M27" s="74" t="s">
         <v>274</v>
       </c>
@@ -14224,189 +15608,198 @@
       <c r="P27" s="76"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="28"/>
-      <c r="B28" s="54" t="s">
+      <c r="A28" s="44"/>
+      <c r="B28" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="55"/>
-      <c r="D28" s="32" t="s">
+      <c r="C28" s="61"/>
+      <c r="D28" s="27" t="s">
         <v>282</v>
       </c>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
       <c r="G28" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H28" s="32" t="s">
+      <c r="H28" s="27" t="s">
         <v>281</v>
       </c>
-      <c r="I28" s="34"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="56" t="s">
+      <c r="I28" s="31"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="L28" s="57"/>
-      <c r="M28" s="51" t="s">
+      <c r="L28" s="56"/>
+      <c r="M28" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="N28" s="52"/>
-      <c r="O28" s="52"/>
-      <c r="P28" s="53"/>
+      <c r="N28" s="51"/>
+      <c r="O28" s="51"/>
+      <c r="P28" s="52"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="28"/>
-      <c r="B29" s="54" t="s">
+      <c r="A29" s="44"/>
+      <c r="B29" s="60" t="s">
         <v>98</v>
       </c>
-      <c r="C29" s="55"/>
-      <c r="D29" s="32" t="s">
+      <c r="C29" s="61"/>
+      <c r="D29" s="27" t="s">
         <v>378</v>
       </c>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
       <c r="G29" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="H29" s="34" t="s">
+      <c r="H29" s="31" t="s">
         <v>379</v>
       </c>
-      <c r="I29" s="34"/>
-      <c r="J29" s="33"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="28"/>
       <c r="K29" s="15"/>
       <c r="L29" s="16"/>
-      <c r="M29" s="51"/>
-      <c r="N29" s="52"/>
-      <c r="O29" s="52"/>
-      <c r="P29" s="53"/>
+      <c r="M29" s="50"/>
+      <c r="N29" s="51"/>
+      <c r="O29" s="51"/>
+      <c r="P29" s="52"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="28"/>
-      <c r="B30" s="54" t="s">
+      <c r="A30" s="44"/>
+      <c r="B30" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="55"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="34"/>
-      <c r="H30" s="34"/>
-      <c r="I30" s="34"/>
-      <c r="J30" s="33"/>
-      <c r="K30" s="56" t="s">
+      <c r="C30" s="61"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="L30" s="57"/>
-      <c r="M30" s="51" t="s">
+      <c r="L30" s="56"/>
+      <c r="M30" s="50" t="s">
         <v>143</v>
       </c>
-      <c r="N30" s="52"/>
-      <c r="O30" s="52"/>
-      <c r="P30" s="53"/>
+      <c r="N30" s="51"/>
+      <c r="O30" s="51"/>
+      <c r="P30" s="52"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="28"/>
-      <c r="B31" s="67" t="s">
+      <c r="A31" s="44"/>
+      <c r="B31" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="69"/>
-      <c r="D31" s="69"/>
-      <c r="E31" s="69"/>
-      <c r="F31" s="69"/>
-      <c r="G31" s="69"/>
-      <c r="H31" s="69"/>
-      <c r="I31" s="69"/>
-      <c r="J31" s="68"/>
-      <c r="K31" s="67"/>
-      <c r="L31" s="68"/>
-      <c r="M31" s="67"/>
-      <c r="N31" s="69"/>
-      <c r="O31" s="69"/>
-      <c r="P31" s="68"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="63"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="63"/>
+      <c r="J31" s="64"/>
+      <c r="K31" s="62"/>
+      <c r="L31" s="64"/>
+      <c r="M31" s="62"/>
+      <c r="N31" s="63"/>
+      <c r="O31" s="63"/>
+      <c r="P31" s="64"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="28"/>
+      <c r="A32" s="44"/>
       <c r="B32" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C32" s="56" t="s">
+      <c r="C32" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="D32" s="70"/>
-      <c r="E32" s="57"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="56"/>
       <c r="F32" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G32" s="56" t="s">
+      <c r="G32" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="H32" s="57"/>
-      <c r="I32" s="56" t="s">
+      <c r="H32" s="56"/>
+      <c r="I32" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="J32" s="57"/>
-      <c r="K32" s="61"/>
-      <c r="L32" s="63"/>
-      <c r="M32" s="61"/>
-      <c r="N32" s="62"/>
-      <c r="O32" s="62"/>
-      <c r="P32" s="63"/>
+      <c r="J32" s="56"/>
+      <c r="K32" s="71"/>
+      <c r="L32" s="73"/>
+      <c r="M32" s="71"/>
+      <c r="N32" s="72"/>
+      <c r="O32" s="72"/>
+      <c r="P32" s="73"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A33" s="28"/>
+      <c r="A33" s="44"/>
       <c r="B33" s="8">
         <v>1</v>
       </c>
-      <c r="C33" s="64" t="s">
+      <c r="C33" s="57" t="s">
         <v>278</v>
       </c>
-      <c r="D33" s="66"/>
-      <c r="E33" s="65"/>
+      <c r="D33" s="58"/>
+      <c r="E33" s="59"/>
       <c r="F33" s="3"/>
-      <c r="G33" s="64" t="s">
+      <c r="G33" s="57" t="s">
         <v>278</v>
       </c>
-      <c r="H33" s="65"/>
+      <c r="H33" s="59"/>
       <c r="I33" s="3"/>
       <c r="J33" s="4"/>
-      <c r="K33" s="58"/>
-      <c r="L33" s="59"/>
-      <c r="M33" s="58"/>
-      <c r="N33" s="60"/>
-      <c r="O33" s="60"/>
-      <c r="P33" s="59"/>
+      <c r="K33" s="65"/>
+      <c r="L33" s="67"/>
+      <c r="M33" s="65"/>
+      <c r="N33" s="66"/>
+      <c r="O33" s="66"/>
+      <c r="P33" s="67"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A34" s="28"/>
-      <c r="B34" s="64"/>
-      <c r="C34" s="66"/>
-      <c r="D34" s="66"/>
-      <c r="E34" s="65"/>
+      <c r="A34" s="44"/>
+      <c r="B34" s="57"/>
+      <c r="C34" s="58"/>
+      <c r="D34" s="58"/>
+      <c r="E34" s="59"/>
       <c r="F34" s="3"/>
-      <c r="G34" s="64"/>
-      <c r="H34" s="65"/>
+      <c r="G34" s="57"/>
+      <c r="H34" s="59"/>
       <c r="I34" s="3"/>
       <c r="J34" s="4"/>
-      <c r="K34" s="58"/>
-      <c r="L34" s="59"/>
-      <c r="M34" s="58"/>
-      <c r="N34" s="60"/>
-      <c r="O34" s="60"/>
-      <c r="P34" s="59"/>
+      <c r="K34" s="65"/>
+      <c r="L34" s="67"/>
+      <c r="M34" s="65"/>
+      <c r="N34" s="66"/>
+      <c r="O34" s="66"/>
+      <c r="P34" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:L4"/>
+    <mergeCell ref="B31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="M34:P34"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:P32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="M33:P33"/>
+    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:P30"/>
     <mergeCell ref="A6:P6"/>
     <mergeCell ref="A26:P26"/>
     <mergeCell ref="A27:A34"/>
@@ -14423,27 +15816,18 @@
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="D29:F29"/>
     <mergeCell ref="H29:J29"/>
-    <mergeCell ref="M29:P29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="B31:J31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:P31"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="M34:P34"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:P32"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="M33:P33"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:L4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/nop-dyn/model/nop-dyn.orm.xlsx
+++ b/nop-dyn/model/nop-dyn.orm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-dyn\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF2DAEDD-4CA6-48DC-927C-EA8129F469EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6660D145-F268-4063-B938-81BB9C5F9290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" firstSheet="11" activeTab="14" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" firstSheet="11" activeTab="12" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="2" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1803" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1804" uniqueCount="521">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2122,6 +2122,10 @@
   </si>
   <si>
     <t>记录实体之间的多对多关联关系。仅记录关联关系，不记录其他关联属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dict</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2469,16 +2473,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2517,13 +2530,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2547,49 +2554,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2599,15 +2612,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
@@ -3164,132 +3168,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="47" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="48" t="s">
         <v>329</v>
       </c>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="50"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="27"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="28"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="33"/>
       <c r="N1" s="14"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="47" t="s">
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="48" t="s">
         <v>330</v>
       </c>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="50"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="50" t="s">
+      <c r="I2" s="51" t="s">
         <v>331</v>
       </c>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="53"/>
       <c r="N2" s="13"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="49"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="50"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="28"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="33"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="49"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="50"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="27"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="28"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="33"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="53"/>
-      <c r="N6" s="53"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="46"/>
+      <c r="O6" s="46"/>
+      <c r="P6" s="46"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -4286,50 +4290,50 @@
       <c r="P37" s="1"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A39" s="68" t="s">
+      <c r="A39" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="B39" s="69"/>
-      <c r="C39" s="69"/>
-      <c r="D39" s="69"/>
-      <c r="E39" s="69"/>
-      <c r="F39" s="69"/>
-      <c r="G39" s="69"/>
-      <c r="H39" s="69"/>
-      <c r="I39" s="69"/>
-      <c r="J39" s="69"/>
-      <c r="K39" s="69"/>
-      <c r="L39" s="69"/>
-      <c r="M39" s="69"/>
-      <c r="N39" s="69"/>
-      <c r="O39" s="69"/>
-      <c r="P39" s="70"/>
+      <c r="B39" s="72"/>
+      <c r="C39" s="72"/>
+      <c r="D39" s="72"/>
+      <c r="E39" s="72"/>
+      <c r="F39" s="72"/>
+      <c r="G39" s="72"/>
+      <c r="H39" s="72"/>
+      <c r="I39" s="72"/>
+      <c r="J39" s="72"/>
+      <c r="K39" s="72"/>
+      <c r="L39" s="72"/>
+      <c r="M39" s="72"/>
+      <c r="N39" s="72"/>
+      <c r="O39" s="72"/>
+      <c r="P39" s="73"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A40" s="43">
+      <c r="A40" s="27">
         <v>1</v>
       </c>
-      <c r="B40" s="60" t="s">
+      <c r="B40" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="C40" s="61"/>
-      <c r="D40" s="27" t="s">
+      <c r="C40" s="55"/>
+      <c r="D40" s="32" t="s">
         <v>337</v>
       </c>
-      <c r="E40" s="31"/>
-      <c r="F40" s="31"/>
+      <c r="E40" s="34"/>
+      <c r="F40" s="34"/>
       <c r="G40" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H40" s="27" t="s">
+      <c r="H40" s="32" t="s">
         <v>338</v>
       </c>
-      <c r="I40" s="31"/>
-      <c r="J40" s="28"/>
-      <c r="K40" s="54" t="s">
+      <c r="I40" s="34"/>
+      <c r="J40" s="33"/>
+      <c r="K40" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="L40" s="56"/>
+      <c r="L40" s="57"/>
       <c r="M40" s="74" t="s">
         <v>339</v>
       </c>
@@ -4338,194 +4342,194 @@
       <c r="P40" s="76"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A41" s="44"/>
-      <c r="B41" s="60" t="s">
+      <c r="A41" s="28"/>
+      <c r="B41" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="C41" s="61"/>
-      <c r="D41" s="27" t="s">
+      <c r="C41" s="55"/>
+      <c r="D41" s="32" t="s">
         <v>282</v>
       </c>
-      <c r="E41" s="31"/>
-      <c r="F41" s="31"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="34"/>
       <c r="G41" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H41" s="27" t="s">
+      <c r="H41" s="32" t="s">
         <v>281</v>
       </c>
-      <c r="I41" s="31"/>
-      <c r="J41" s="28"/>
-      <c r="K41" s="54" t="s">
+      <c r="I41" s="34"/>
+      <c r="J41" s="33"/>
+      <c r="K41" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="L41" s="56"/>
-      <c r="M41" s="50" t="s">
+      <c r="L41" s="57"/>
+      <c r="M41" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="N41" s="51"/>
-      <c r="O41" s="51"/>
-      <c r="P41" s="52"/>
+      <c r="N41" s="52"/>
+      <c r="O41" s="52"/>
+      <c r="P41" s="53"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A42" s="44"/>
-      <c r="B42" s="60" t="s">
+      <c r="A42" s="28"/>
+      <c r="B42" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="C42" s="61"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="31"/>
-      <c r="F42" s="31"/>
+      <c r="C42" s="55"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="34"/>
+      <c r="F42" s="34"/>
       <c r="G42" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="H42" s="31"/>
-      <c r="I42" s="31"/>
-      <c r="J42" s="28"/>
+      <c r="H42" s="34"/>
+      <c r="I42" s="34"/>
+      <c r="J42" s="33"/>
       <c r="K42" s="15"/>
       <c r="L42" s="16"/>
-      <c r="M42" s="50"/>
-      <c r="N42" s="51"/>
-      <c r="O42" s="51"/>
-      <c r="P42" s="52"/>
+      <c r="M42" s="51"/>
+      <c r="N42" s="52"/>
+      <c r="O42" s="52"/>
+      <c r="P42" s="53"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A43" s="44"/>
-      <c r="B43" s="60" t="s">
+      <c r="A43" s="28"/>
+      <c r="B43" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="C43" s="61"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="31"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="31"/>
-      <c r="H43" s="31"/>
-      <c r="I43" s="31"/>
-      <c r="J43" s="28"/>
-      <c r="K43" s="54" t="s">
+      <c r="C43" s="55"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="34"/>
+      <c r="G43" s="34"/>
+      <c r="H43" s="34"/>
+      <c r="I43" s="34"/>
+      <c r="J43" s="33"/>
+      <c r="K43" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="L43" s="56"/>
-      <c r="M43" s="50" t="s">
+      <c r="L43" s="57"/>
+      <c r="M43" s="51" t="s">
         <v>143</v>
       </c>
-      <c r="N43" s="51"/>
-      <c r="O43" s="51"/>
-      <c r="P43" s="52"/>
+      <c r="N43" s="52"/>
+      <c r="O43" s="52"/>
+      <c r="P43" s="53"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A44" s="44"/>
-      <c r="B44" s="62" t="s">
+      <c r="A44" s="28"/>
+      <c r="B44" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="C44" s="63"/>
-      <c r="D44" s="63"/>
-      <c r="E44" s="63"/>
-      <c r="F44" s="63"/>
-      <c r="G44" s="63"/>
-      <c r="H44" s="63"/>
-      <c r="I44" s="63"/>
-      <c r="J44" s="64"/>
-      <c r="K44" s="62"/>
-      <c r="L44" s="64"/>
-      <c r="M44" s="62"/>
-      <c r="N44" s="63"/>
-      <c r="O44" s="63"/>
-      <c r="P44" s="64"/>
+      <c r="C44" s="69"/>
+      <c r="D44" s="69"/>
+      <c r="E44" s="69"/>
+      <c r="F44" s="69"/>
+      <c r="G44" s="69"/>
+      <c r="H44" s="69"/>
+      <c r="I44" s="69"/>
+      <c r="J44" s="68"/>
+      <c r="K44" s="67"/>
+      <c r="L44" s="68"/>
+      <c r="M44" s="67"/>
+      <c r="N44" s="69"/>
+      <c r="O44" s="69"/>
+      <c r="P44" s="68"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A45" s="44"/>
+      <c r="A45" s="28"/>
       <c r="B45" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C45" s="54" t="s">
+      <c r="C45" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="D45" s="55"/>
-      <c r="E45" s="56"/>
+      <c r="D45" s="70"/>
+      <c r="E45" s="57"/>
       <c r="F45" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G45" s="54" t="s">
+      <c r="G45" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="H45" s="56"/>
-      <c r="I45" s="54" t="s">
+      <c r="H45" s="57"/>
+      <c r="I45" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="J45" s="56"/>
-      <c r="K45" s="71"/>
-      <c r="L45" s="73"/>
-      <c r="M45" s="71"/>
-      <c r="N45" s="72"/>
-      <c r="O45" s="72"/>
-      <c r="P45" s="73"/>
+      <c r="J45" s="57"/>
+      <c r="K45" s="61"/>
+      <c r="L45" s="63"/>
+      <c r="M45" s="61"/>
+      <c r="N45" s="62"/>
+      <c r="O45" s="62"/>
+      <c r="P45" s="63"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A46" s="44"/>
+      <c r="A46" s="28"/>
       <c r="B46" s="8">
         <v>1</v>
       </c>
-      <c r="C46" s="57" t="s">
+      <c r="C46" s="64" t="s">
         <v>340</v>
       </c>
-      <c r="D46" s="58"/>
-      <c r="E46" s="59"/>
+      <c r="D46" s="66"/>
+      <c r="E46" s="65"/>
       <c r="F46" s="3"/>
-      <c r="G46" s="57" t="s">
+      <c r="G46" s="64" t="s">
         <v>340</v>
       </c>
-      <c r="H46" s="59"/>
+      <c r="H46" s="65"/>
       <c r="I46" s="3"/>
       <c r="J46" s="4"/>
-      <c r="K46" s="65"/>
-      <c r="L46" s="67"/>
-      <c r="M46" s="65"/>
-      <c r="N46" s="66"/>
-      <c r="O46" s="66"/>
-      <c r="P46" s="67"/>
+      <c r="K46" s="58"/>
+      <c r="L46" s="59"/>
+      <c r="M46" s="58"/>
+      <c r="N46" s="60"/>
+      <c r="O46" s="60"/>
+      <c r="P46" s="59"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A47" s="44"/>
-      <c r="B47" s="57"/>
-      <c r="C47" s="58"/>
-      <c r="D47" s="58"/>
-      <c r="E47" s="59"/>
+      <c r="A47" s="28"/>
+      <c r="B47" s="64"/>
+      <c r="C47" s="66"/>
+      <c r="D47" s="66"/>
+      <c r="E47" s="65"/>
       <c r="F47" s="3"/>
-      <c r="G47" s="57"/>
-      <c r="H47" s="59"/>
+      <c r="G47" s="64"/>
+      <c r="H47" s="65"/>
       <c r="I47" s="3"/>
       <c r="J47" s="4"/>
-      <c r="K47" s="65"/>
-      <c r="L47" s="67"/>
-      <c r="M47" s="65"/>
-      <c r="N47" s="66"/>
-      <c r="O47" s="66"/>
-      <c r="P47" s="67"/>
+      <c r="K47" s="58"/>
+      <c r="L47" s="59"/>
+      <c r="M47" s="58"/>
+      <c r="N47" s="60"/>
+      <c r="O47" s="60"/>
+      <c r="P47" s="59"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A48" s="43">
+      <c r="A48" s="27">
         <v>2</v>
       </c>
-      <c r="B48" s="60" t="s">
+      <c r="B48" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="C48" s="61"/>
-      <c r="D48" s="27" t="s">
+      <c r="C48" s="55"/>
+      <c r="D48" s="32" t="s">
         <v>402</v>
       </c>
-      <c r="E48" s="31"/>
-      <c r="F48" s="31"/>
+      <c r="E48" s="34"/>
+      <c r="F48" s="34"/>
       <c r="G48" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H48" s="27"/>
-      <c r="I48" s="31"/>
-      <c r="J48" s="28"/>
-      <c r="K48" s="54" t="s">
+      <c r="H48" s="32"/>
+      <c r="I48" s="34"/>
+      <c r="J48" s="33"/>
+      <c r="K48" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="L48" s="56"/>
+      <c r="L48" s="57"/>
       <c r="M48" s="74" t="s">
         <v>403</v>
       </c>
@@ -4534,208 +4538,206 @@
       <c r="P48" s="76"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A49" s="44"/>
-      <c r="B49" s="60" t="s">
+      <c r="A49" s="28"/>
+      <c r="B49" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="C49" s="61"/>
-      <c r="D49" s="27" t="s">
+      <c r="C49" s="55"/>
+      <c r="D49" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="E49" s="31"/>
-      <c r="F49" s="31"/>
+      <c r="E49" s="34"/>
+      <c r="F49" s="34"/>
       <c r="G49" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H49" s="27" t="s">
+      <c r="H49" s="32" t="s">
         <v>393</v>
       </c>
-      <c r="I49" s="31"/>
-      <c r="J49" s="28"/>
-      <c r="K49" s="54" t="s">
+      <c r="I49" s="34"/>
+      <c r="J49" s="33"/>
+      <c r="K49" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="L49" s="56"/>
-      <c r="M49" s="50" t="s">
+      <c r="L49" s="57"/>
+      <c r="M49" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="N49" s="51"/>
-      <c r="O49" s="51"/>
-      <c r="P49" s="52"/>
+      <c r="N49" s="52"/>
+      <c r="O49" s="52"/>
+      <c r="P49" s="53"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A50" s="44"/>
-      <c r="B50" s="60" t="s">
+      <c r="A50" s="28"/>
+      <c r="B50" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="C50" s="61"/>
-      <c r="D50" s="27"/>
-      <c r="E50" s="31"/>
-      <c r="F50" s="31"/>
+      <c r="C50" s="55"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="34"/>
+      <c r="F50" s="34"/>
       <c r="G50" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="H50" s="31"/>
-      <c r="I50" s="31"/>
-      <c r="J50" s="28"/>
+      <c r="H50" s="34"/>
+      <c r="I50" s="34"/>
+      <c r="J50" s="33"/>
       <c r="K50" s="15"/>
       <c r="L50" s="16"/>
-      <c r="M50" s="50"/>
-      <c r="N50" s="51"/>
-      <c r="O50" s="51"/>
-      <c r="P50" s="52"/>
+      <c r="M50" s="51"/>
+      <c r="N50" s="52"/>
+      <c r="O50" s="52"/>
+      <c r="P50" s="53"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A51" s="44"/>
-      <c r="B51" s="60" t="s">
+      <c r="A51" s="28"/>
+      <c r="B51" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="C51" s="61"/>
-      <c r="D51" s="27"/>
-      <c r="E51" s="31"/>
-      <c r="F51" s="31"/>
-      <c r="G51" s="31"/>
-      <c r="H51" s="31"/>
-      <c r="I51" s="31"/>
-      <c r="J51" s="28"/>
-      <c r="K51" s="54" t="s">
+      <c r="C51" s="55"/>
+      <c r="D51" s="32"/>
+      <c r="E51" s="34"/>
+      <c r="F51" s="34"/>
+      <c r="G51" s="34"/>
+      <c r="H51" s="34"/>
+      <c r="I51" s="34"/>
+      <c r="J51" s="33"/>
+      <c r="K51" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="L51" s="56"/>
-      <c r="M51" s="50" t="s">
+      <c r="L51" s="57"/>
+      <c r="M51" s="51" t="s">
         <v>102</v>
       </c>
-      <c r="N51" s="51"/>
-      <c r="O51" s="51"/>
-      <c r="P51" s="52"/>
+      <c r="N51" s="52"/>
+      <c r="O51" s="52"/>
+      <c r="P51" s="53"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A52" s="44"/>
-      <c r="B52" s="62" t="s">
+      <c r="A52" s="28"/>
+      <c r="B52" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="C52" s="63"/>
-      <c r="D52" s="63"/>
-      <c r="E52" s="63"/>
-      <c r="F52" s="63"/>
-      <c r="G52" s="63"/>
-      <c r="H52" s="63"/>
-      <c r="I52" s="63"/>
-      <c r="J52" s="64"/>
-      <c r="K52" s="62"/>
-      <c r="L52" s="64"/>
-      <c r="M52" s="62"/>
-      <c r="N52" s="63"/>
-      <c r="O52" s="63"/>
-      <c r="P52" s="64"/>
+      <c r="C52" s="69"/>
+      <c r="D52" s="69"/>
+      <c r="E52" s="69"/>
+      <c r="F52" s="69"/>
+      <c r="G52" s="69"/>
+      <c r="H52" s="69"/>
+      <c r="I52" s="69"/>
+      <c r="J52" s="68"/>
+      <c r="K52" s="67"/>
+      <c r="L52" s="68"/>
+      <c r="M52" s="67"/>
+      <c r="N52" s="69"/>
+      <c r="O52" s="69"/>
+      <c r="P52" s="68"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A53" s="44"/>
+      <c r="A53" s="28"/>
       <c r="B53" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C53" s="54" t="s">
+      <c r="C53" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="D53" s="55"/>
-      <c r="E53" s="56"/>
+      <c r="D53" s="70"/>
+      <c r="E53" s="57"/>
       <c r="F53" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G53" s="54" t="s">
+      <c r="G53" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="H53" s="56"/>
-      <c r="I53" s="54" t="s">
+      <c r="H53" s="57"/>
+      <c r="I53" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="J53" s="56"/>
-      <c r="K53" s="71"/>
-      <c r="L53" s="73"/>
-      <c r="M53" s="71"/>
-      <c r="N53" s="72"/>
-      <c r="O53" s="72"/>
-      <c r="P53" s="73"/>
+      <c r="J53" s="57"/>
+      <c r="K53" s="61"/>
+      <c r="L53" s="63"/>
+      <c r="M53" s="61"/>
+      <c r="N53" s="62"/>
+      <c r="O53" s="62"/>
+      <c r="P53" s="63"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A54" s="44"/>
+      <c r="A54" s="28"/>
       <c r="B54" s="8">
         <v>1</v>
       </c>
-      <c r="C54" s="57" t="s">
+      <c r="C54" s="64" t="s">
         <v>404</v>
       </c>
-      <c r="D54" s="58"/>
-      <c r="E54" s="59"/>
+      <c r="D54" s="66"/>
+      <c r="E54" s="65"/>
       <c r="F54" s="3"/>
-      <c r="G54" s="57" t="s">
+      <c r="G54" s="64" t="s">
         <v>404</v>
       </c>
-      <c r="H54" s="59"/>
+      <c r="H54" s="65"/>
       <c r="I54" s="3"/>
       <c r="J54" s="4"/>
-      <c r="K54" s="65"/>
-      <c r="L54" s="67"/>
-      <c r="M54" s="65"/>
-      <c r="N54" s="66"/>
-      <c r="O54" s="66"/>
-      <c r="P54" s="67"/>
+      <c r="K54" s="58"/>
+      <c r="L54" s="59"/>
+      <c r="M54" s="58"/>
+      <c r="N54" s="60"/>
+      <c r="O54" s="60"/>
+      <c r="P54" s="59"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A55" s="44"/>
-      <c r="B55" s="57"/>
-      <c r="C55" s="58"/>
-      <c r="D55" s="58"/>
-      <c r="E55" s="59"/>
+      <c r="A55" s="28"/>
+      <c r="B55" s="64"/>
+      <c r="C55" s="66"/>
+      <c r="D55" s="66"/>
+      <c r="E55" s="65"/>
       <c r="F55" s="3"/>
-      <c r="G55" s="57"/>
-      <c r="H55" s="59"/>
+      <c r="G55" s="64"/>
+      <c r="H55" s="65"/>
       <c r="I55" s="3"/>
       <c r="J55" s="4"/>
-      <c r="K55" s="65"/>
-      <c r="L55" s="67"/>
-      <c r="M55" s="65"/>
-      <c r="N55" s="66"/>
-      <c r="O55" s="66"/>
-      <c r="P55" s="67"/>
+      <c r="K55" s="58"/>
+      <c r="L55" s="59"/>
+      <c r="M55" s="58"/>
+      <c r="N55" s="60"/>
+      <c r="O55" s="60"/>
+      <c r="P55" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="M54:P54"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="M55:P55"/>
-    <mergeCell ref="M52:P52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="M53:P53"/>
-    <mergeCell ref="M50:P50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:J51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="M51:P51"/>
-    <mergeCell ref="M48:P48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="M49:P49"/>
-    <mergeCell ref="A48:A55"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="B52:J52"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:L4"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A39:P39"/>
+    <mergeCell ref="A40:A47"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:P40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:P41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="M42:P42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:J43"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="M43:P43"/>
     <mergeCell ref="B44:J44"/>
     <mergeCell ref="K44:L44"/>
     <mergeCell ref="M44:P44"/>
@@ -4752,39 +4754,41 @@
     <mergeCell ref="G46:H46"/>
     <mergeCell ref="K46:L46"/>
     <mergeCell ref="M46:P46"/>
-    <mergeCell ref="M42:P42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:J43"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="M43:P43"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A39:P39"/>
-    <mergeCell ref="A40:A47"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:P40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M41:P41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:L4"/>
+    <mergeCell ref="A48:A55"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="B52:J52"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="M48:P48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="M49:P49"/>
+    <mergeCell ref="M50:P50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:J51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="M51:P51"/>
+    <mergeCell ref="M52:P52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="M53:P53"/>
+    <mergeCell ref="M54:P54"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="M55:P55"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -4821,132 +4825,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="47" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="48" t="s">
         <v>448</v>
       </c>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="50"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="27"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="28"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="33"/>
       <c r="N1" s="14"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="47" t="s">
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="48" t="s">
         <v>449</v>
       </c>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="50"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="50" t="s">
+      <c r="I2" s="51" t="s">
         <v>450</v>
       </c>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="53"/>
       <c r="N2" s="13"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="49"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="50"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="28"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="33"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="49"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="50"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="27"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="28"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="33"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="53"/>
-      <c r="N6" s="53"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="46"/>
+      <c r="O6" s="46"/>
+      <c r="P6" s="46"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -5567,48 +5571,48 @@
       <c r="P25" s="1"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="68" t="s">
+      <c r="A27" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="69"/>
-      <c r="C27" s="69"/>
-      <c r="D27" s="69"/>
-      <c r="E27" s="69"/>
-      <c r="F27" s="69"/>
-      <c r="G27" s="69"/>
-      <c r="H27" s="69"/>
-      <c r="I27" s="69"/>
-      <c r="J27" s="69"/>
-      <c r="K27" s="69"/>
-      <c r="L27" s="69"/>
-      <c r="M27" s="69"/>
-      <c r="N27" s="69"/>
-      <c r="O27" s="69"/>
-      <c r="P27" s="70"/>
+      <c r="B27" s="72"/>
+      <c r="C27" s="72"/>
+      <c r="D27" s="72"/>
+      <c r="E27" s="72"/>
+      <c r="F27" s="72"/>
+      <c r="G27" s="72"/>
+      <c r="H27" s="72"/>
+      <c r="I27" s="72"/>
+      <c r="J27" s="72"/>
+      <c r="K27" s="72"/>
+      <c r="L27" s="72"/>
+      <c r="M27" s="72"/>
+      <c r="N27" s="72"/>
+      <c r="O27" s="72"/>
+      <c r="P27" s="73"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="43">
+      <c r="A28" s="27">
         <v>1</v>
       </c>
-      <c r="B28" s="60" t="s">
+      <c r="B28" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="61"/>
-      <c r="D28" s="27" t="s">
+      <c r="C28" s="55"/>
+      <c r="D28" s="32" t="s">
         <v>473</v>
       </c>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
       <c r="G28" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H28" s="27"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="54" t="s">
+      <c r="H28" s="32"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="L28" s="56"/>
+      <c r="L28" s="57"/>
       <c r="M28" s="74" t="s">
         <v>339</v>
       </c>
@@ -5617,194 +5621,194 @@
       <c r="P28" s="76"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="44"/>
-      <c r="B29" s="60" t="s">
+      <c r="A29" s="28"/>
+      <c r="B29" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="61"/>
-      <c r="D29" s="27" t="s">
+      <c r="C29" s="55"/>
+      <c r="D29" s="32" t="s">
         <v>474</v>
       </c>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
       <c r="G29" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H29" s="27" t="s">
+      <c r="H29" s="32" t="s">
         <v>475</v>
       </c>
-      <c r="I29" s="31"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="54" t="s">
+      <c r="I29" s="34"/>
+      <c r="J29" s="33"/>
+      <c r="K29" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="L29" s="56"/>
-      <c r="M29" s="50" t="s">
+      <c r="L29" s="57"/>
+      <c r="M29" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="N29" s="51"/>
-      <c r="O29" s="51"/>
-      <c r="P29" s="52"/>
+      <c r="N29" s="52"/>
+      <c r="O29" s="52"/>
+      <c r="P29" s="53"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="44"/>
-      <c r="B30" s="60" t="s">
+      <c r="A30" s="28"/>
+      <c r="B30" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="C30" s="61"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="34"/>
       <c r="G30" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="H30" s="31"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="28"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="33"/>
       <c r="K30" s="15"/>
       <c r="L30" s="16"/>
-      <c r="M30" s="50"/>
-      <c r="N30" s="51"/>
-      <c r="O30" s="51"/>
-      <c r="P30" s="52"/>
+      <c r="M30" s="51"/>
+      <c r="N30" s="52"/>
+      <c r="O30" s="52"/>
+      <c r="P30" s="53"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="44"/>
-      <c r="B31" s="60" t="s">
+      <c r="A31" s="28"/>
+      <c r="B31" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="61"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="31"/>
-      <c r="I31" s="31"/>
-      <c r="J31" s="28"/>
-      <c r="K31" s="54" t="s">
+      <c r="C31" s="55"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="33"/>
+      <c r="K31" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="L31" s="56"/>
-      <c r="M31" s="50" t="s">
+      <c r="L31" s="57"/>
+      <c r="M31" s="51" t="s">
         <v>143</v>
       </c>
-      <c r="N31" s="51"/>
-      <c r="O31" s="51"/>
-      <c r="P31" s="52"/>
+      <c r="N31" s="52"/>
+      <c r="O31" s="52"/>
+      <c r="P31" s="53"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="44"/>
-      <c r="B32" s="62" t="s">
+      <c r="A32" s="28"/>
+      <c r="B32" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="C32" s="63"/>
-      <c r="D32" s="63"/>
-      <c r="E32" s="63"/>
-      <c r="F32" s="63"/>
-      <c r="G32" s="63"/>
-      <c r="H32" s="63"/>
-      <c r="I32" s="63"/>
-      <c r="J32" s="64"/>
-      <c r="K32" s="62"/>
-      <c r="L32" s="64"/>
-      <c r="M32" s="62"/>
-      <c r="N32" s="63"/>
-      <c r="O32" s="63"/>
-      <c r="P32" s="64"/>
+      <c r="C32" s="69"/>
+      <c r="D32" s="69"/>
+      <c r="E32" s="69"/>
+      <c r="F32" s="69"/>
+      <c r="G32" s="69"/>
+      <c r="H32" s="69"/>
+      <c r="I32" s="69"/>
+      <c r="J32" s="68"/>
+      <c r="K32" s="67"/>
+      <c r="L32" s="68"/>
+      <c r="M32" s="67"/>
+      <c r="N32" s="69"/>
+      <c r="O32" s="69"/>
+      <c r="P32" s="68"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A33" s="44"/>
+      <c r="A33" s="28"/>
       <c r="B33" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="54" t="s">
+      <c r="C33" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="D33" s="55"/>
-      <c r="E33" s="56"/>
+      <c r="D33" s="70"/>
+      <c r="E33" s="57"/>
       <c r="F33" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G33" s="54" t="s">
+      <c r="G33" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="H33" s="56"/>
-      <c r="I33" s="54" t="s">
+      <c r="H33" s="57"/>
+      <c r="I33" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="J33" s="56"/>
-      <c r="K33" s="71"/>
-      <c r="L33" s="73"/>
-      <c r="M33" s="71"/>
-      <c r="N33" s="72"/>
-      <c r="O33" s="72"/>
-      <c r="P33" s="73"/>
+      <c r="J33" s="57"/>
+      <c r="K33" s="61"/>
+      <c r="L33" s="63"/>
+      <c r="M33" s="61"/>
+      <c r="N33" s="62"/>
+      <c r="O33" s="62"/>
+      <c r="P33" s="63"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A34" s="44"/>
+      <c r="A34" s="28"/>
       <c r="B34" s="8">
         <v>1</v>
       </c>
-      <c r="C34" s="57" t="s">
+      <c r="C34" s="64" t="s">
         <v>476</v>
       </c>
-      <c r="D34" s="58"/>
-      <c r="E34" s="59"/>
+      <c r="D34" s="66"/>
+      <c r="E34" s="65"/>
       <c r="F34" s="3"/>
-      <c r="G34" s="57" t="s">
+      <c r="G34" s="64" t="s">
         <v>340</v>
       </c>
-      <c r="H34" s="59"/>
+      <c r="H34" s="65"/>
       <c r="I34" s="3"/>
       <c r="J34" s="4"/>
-      <c r="K34" s="65"/>
-      <c r="L34" s="67"/>
-      <c r="M34" s="65"/>
-      <c r="N34" s="66"/>
-      <c r="O34" s="66"/>
-      <c r="P34" s="67"/>
+      <c r="K34" s="58"/>
+      <c r="L34" s="59"/>
+      <c r="M34" s="58"/>
+      <c r="N34" s="60"/>
+      <c r="O34" s="60"/>
+      <c r="P34" s="59"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A35" s="44"/>
-      <c r="B35" s="57"/>
-      <c r="C35" s="58"/>
-      <c r="D35" s="58"/>
-      <c r="E35" s="59"/>
+      <c r="A35" s="28"/>
+      <c r="B35" s="64"/>
+      <c r="C35" s="66"/>
+      <c r="D35" s="66"/>
+      <c r="E35" s="65"/>
       <c r="F35" s="3"/>
-      <c r="G35" s="57"/>
-      <c r="H35" s="59"/>
+      <c r="G35" s="64"/>
+      <c r="H35" s="65"/>
       <c r="I35" s="3"/>
       <c r="J35" s="4"/>
-      <c r="K35" s="65"/>
-      <c r="L35" s="67"/>
-      <c r="M35" s="65"/>
-      <c r="N35" s="66"/>
-      <c r="O35" s="66"/>
-      <c r="P35" s="67"/>
+      <c r="K35" s="58"/>
+      <c r="L35" s="59"/>
+      <c r="M35" s="58"/>
+      <c r="N35" s="60"/>
+      <c r="O35" s="60"/>
+      <c r="P35" s="59"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A36" s="43">
+      <c r="A36" s="27">
         <v>2</v>
       </c>
-      <c r="B36" s="60" t="s">
+      <c r="B36" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="61"/>
-      <c r="D36" s="27" t="s">
+      <c r="C36" s="55"/>
+      <c r="D36" s="32" t="s">
         <v>477</v>
       </c>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="34"/>
       <c r="G36" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H36" s="27"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="28"/>
-      <c r="K36" s="54" t="s">
+      <c r="H36" s="32"/>
+      <c r="I36" s="34"/>
+      <c r="J36" s="33"/>
+      <c r="K36" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="L36" s="56"/>
+      <c r="L36" s="57"/>
       <c r="M36" s="74" t="s">
         <v>339</v>
       </c>
@@ -5813,173 +5817,241 @@
       <c r="P36" s="76"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A37" s="44"/>
-      <c r="B37" s="60" t="s">
+      <c r="A37" s="28"/>
+      <c r="B37" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="C37" s="61"/>
-      <c r="D37" s="27" t="s">
+      <c r="C37" s="55"/>
+      <c r="D37" s="32" t="s">
         <v>478</v>
       </c>
-      <c r="E37" s="31"/>
-      <c r="F37" s="31"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
       <c r="G37" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H37" s="27" t="s">
+      <c r="H37" s="32" t="s">
         <v>479</v>
       </c>
-      <c r="I37" s="31"/>
-      <c r="J37" s="28"/>
-      <c r="K37" s="54" t="s">
+      <c r="I37" s="34"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="L37" s="56"/>
-      <c r="M37" s="50" t="s">
+      <c r="L37" s="57"/>
+      <c r="M37" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="N37" s="51"/>
-      <c r="O37" s="51"/>
-      <c r="P37" s="52"/>
+      <c r="N37" s="52"/>
+      <c r="O37" s="52"/>
+      <c r="P37" s="53"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A38" s="44"/>
-      <c r="B38" s="60" t="s">
+      <c r="A38" s="28"/>
+      <c r="B38" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="C38" s="61"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
+      <c r="C38" s="55"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="34"/>
       <c r="G38" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="H38" s="31"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="28"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="34"/>
+      <c r="J38" s="33"/>
       <c r="K38" s="15"/>
       <c r="L38" s="16"/>
-      <c r="M38" s="50"/>
-      <c r="N38" s="51"/>
-      <c r="O38" s="51"/>
-      <c r="P38" s="52"/>
+      <c r="M38" s="51"/>
+      <c r="N38" s="52"/>
+      <c r="O38" s="52"/>
+      <c r="P38" s="53"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A39" s="44"/>
-      <c r="B39" s="60" t="s">
+      <c r="A39" s="28"/>
+      <c r="B39" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="C39" s="61"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="31"/>
-      <c r="H39" s="31"/>
-      <c r="I39" s="31"/>
-      <c r="J39" s="28"/>
-      <c r="K39" s="54" t="s">
+      <c r="C39" s="55"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="34"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="34"/>
+      <c r="H39" s="34"/>
+      <c r="I39" s="34"/>
+      <c r="J39" s="33"/>
+      <c r="K39" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="L39" s="56"/>
-      <c r="M39" s="50" t="s">
+      <c r="L39" s="57"/>
+      <c r="M39" s="51" t="s">
         <v>143</v>
       </c>
-      <c r="N39" s="51"/>
-      <c r="O39" s="51"/>
-      <c r="P39" s="52"/>
+      <c r="N39" s="52"/>
+      <c r="O39" s="52"/>
+      <c r="P39" s="53"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A40" s="44"/>
-      <c r="B40" s="62" t="s">
+      <c r="A40" s="28"/>
+      <c r="B40" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="C40" s="63"/>
-      <c r="D40" s="63"/>
-      <c r="E40" s="63"/>
-      <c r="F40" s="63"/>
-      <c r="G40" s="63"/>
-      <c r="H40" s="63"/>
-      <c r="I40" s="63"/>
-      <c r="J40" s="64"/>
-      <c r="K40" s="62"/>
-      <c r="L40" s="64"/>
-      <c r="M40" s="62"/>
-      <c r="N40" s="63"/>
-      <c r="O40" s="63"/>
-      <c r="P40" s="64"/>
+      <c r="C40" s="69"/>
+      <c r="D40" s="69"/>
+      <c r="E40" s="69"/>
+      <c r="F40" s="69"/>
+      <c r="G40" s="69"/>
+      <c r="H40" s="69"/>
+      <c r="I40" s="69"/>
+      <c r="J40" s="68"/>
+      <c r="K40" s="67"/>
+      <c r="L40" s="68"/>
+      <c r="M40" s="67"/>
+      <c r="N40" s="69"/>
+      <c r="O40" s="69"/>
+      <c r="P40" s="68"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A41" s="44"/>
+      <c r="A41" s="28"/>
       <c r="B41" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C41" s="54" t="s">
+      <c r="C41" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="D41" s="55"/>
-      <c r="E41" s="56"/>
+      <c r="D41" s="70"/>
+      <c r="E41" s="57"/>
       <c r="F41" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G41" s="54" t="s">
+      <c r="G41" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="H41" s="56"/>
-      <c r="I41" s="54" t="s">
+      <c r="H41" s="57"/>
+      <c r="I41" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="J41" s="56"/>
-      <c r="K41" s="71"/>
-      <c r="L41" s="73"/>
-      <c r="M41" s="71"/>
-      <c r="N41" s="72"/>
-      <c r="O41" s="72"/>
-      <c r="P41" s="73"/>
+      <c r="J41" s="57"/>
+      <c r="K41" s="61"/>
+      <c r="L41" s="63"/>
+      <c r="M41" s="61"/>
+      <c r="N41" s="62"/>
+      <c r="O41" s="62"/>
+      <c r="P41" s="63"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A42" s="44"/>
+      <c r="A42" s="28"/>
       <c r="B42" s="8">
         <v>1</v>
       </c>
-      <c r="C42" s="57" t="s">
+      <c r="C42" s="64" t="s">
         <v>480</v>
       </c>
-      <c r="D42" s="58"/>
-      <c r="E42" s="59"/>
+      <c r="D42" s="66"/>
+      <c r="E42" s="65"/>
       <c r="F42" s="3"/>
-      <c r="G42" s="57" t="s">
+      <c r="G42" s="64" t="s">
         <v>340</v>
       </c>
-      <c r="H42" s="59"/>
+      <c r="H42" s="65"/>
       <c r="I42" s="3"/>
       <c r="J42" s="4"/>
-      <c r="K42" s="65"/>
-      <c r="L42" s="67"/>
-      <c r="M42" s="65"/>
-      <c r="N42" s="66"/>
-      <c r="O42" s="66"/>
-      <c r="P42" s="67"/>
+      <c r="K42" s="58"/>
+      <c r="L42" s="59"/>
+      <c r="M42" s="58"/>
+      <c r="N42" s="60"/>
+      <c r="O42" s="60"/>
+      <c r="P42" s="59"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A43" s="44"/>
-      <c r="B43" s="57"/>
-      <c r="C43" s="58"/>
-      <c r="D43" s="58"/>
-      <c r="E43" s="59"/>
+      <c r="A43" s="28"/>
+      <c r="B43" s="64"/>
+      <c r="C43" s="66"/>
+      <c r="D43" s="66"/>
+      <c r="E43" s="65"/>
       <c r="F43" s="3"/>
-      <c r="G43" s="57"/>
-      <c r="H43" s="59"/>
+      <c r="G43" s="64"/>
+      <c r="H43" s="65"/>
       <c r="I43" s="3"/>
       <c r="J43" s="4"/>
-      <c r="K43" s="65"/>
-      <c r="L43" s="67"/>
-      <c r="M43" s="65"/>
-      <c r="N43" s="66"/>
-      <c r="O43" s="66"/>
-      <c r="P43" s="67"/>
+      <c r="K43" s="58"/>
+      <c r="L43" s="59"/>
+      <c r="M43" s="58"/>
+      <c r="N43" s="60"/>
+      <c r="O43" s="60"/>
+      <c r="P43" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="84">
+    <mergeCell ref="M42:P42"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="M43:P43"/>
+    <mergeCell ref="M40:P40"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:P41"/>
+    <mergeCell ref="M38:P38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:P39"/>
+    <mergeCell ref="M36:P36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:P37"/>
+    <mergeCell ref="A36:A43"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="B40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:L4"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A27:P27"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:P31"/>
     <mergeCell ref="B32:J32"/>
     <mergeCell ref="K32:L32"/>
     <mergeCell ref="M32:P32"/>
@@ -5996,74 +6068,6 @@
     <mergeCell ref="G34:H34"/>
     <mergeCell ref="K34:L34"/>
     <mergeCell ref="M34:P34"/>
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:J31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:P31"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A27:P27"/>
-    <mergeCell ref="A28:A35"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:P29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:L4"/>
-    <mergeCell ref="A36:A43"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="B40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="M36:P36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:P37"/>
-    <mergeCell ref="M38:P38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:P39"/>
-    <mergeCell ref="M40:P40"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M41:P41"/>
-    <mergeCell ref="M42:P42"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="M43:P43"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -6100,132 +6104,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="47" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="48" t="s">
         <v>500</v>
       </c>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="50"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="27"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="28"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="33"/>
       <c r="N1" s="14"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="47" t="s">
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="48" t="s">
         <v>482</v>
       </c>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="50"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="50" t="s">
+      <c r="I2" s="51" t="s">
         <v>499</v>
       </c>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="53"/>
       <c r="N2" s="13"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="49"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="50"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="28"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="33"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="49"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="50"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="27"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="28"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="33"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="53"/>
-      <c r="N6" s="53"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="46"/>
+      <c r="O6" s="46"/>
+      <c r="P6" s="46"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -6834,50 +6838,50 @@
       <c r="P24" s="1"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="68" t="s">
+      <c r="A26" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="69"/>
-      <c r="C26" s="69"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
-      <c r="G26" s="69"/>
-      <c r="H26" s="69"/>
-      <c r="I26" s="69"/>
-      <c r="J26" s="69"/>
-      <c r="K26" s="69"/>
-      <c r="L26" s="69"/>
-      <c r="M26" s="69"/>
-      <c r="N26" s="69"/>
-      <c r="O26" s="69"/>
-      <c r="P26" s="70"/>
+      <c r="B26" s="72"/>
+      <c r="C26" s="72"/>
+      <c r="D26" s="72"/>
+      <c r="E26" s="72"/>
+      <c r="F26" s="72"/>
+      <c r="G26" s="72"/>
+      <c r="H26" s="72"/>
+      <c r="I26" s="72"/>
+      <c r="J26" s="72"/>
+      <c r="K26" s="72"/>
+      <c r="L26" s="72"/>
+      <c r="M26" s="72"/>
+      <c r="N26" s="72"/>
+      <c r="O26" s="72"/>
+      <c r="P26" s="73"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="43">
+      <c r="A27" s="27">
         <v>1</v>
       </c>
-      <c r="B27" s="60" t="s">
+      <c r="B27" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="61"/>
-      <c r="D27" s="27" t="s">
+      <c r="C27" s="55"/>
+      <c r="D27" s="32" t="s">
         <v>337</v>
       </c>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
       <c r="G27" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H27" s="27" t="s">
+      <c r="H27" s="32" t="s">
         <v>516</v>
       </c>
-      <c r="I27" s="31"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="54" t="s">
+      <c r="I27" s="34"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="L27" s="56"/>
+      <c r="L27" s="57"/>
       <c r="M27" s="74" t="s">
         <v>339</v>
       </c>
@@ -6886,177 +6890,213 @@
       <c r="P27" s="76"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="44"/>
-      <c r="B28" s="60" t="s">
+      <c r="A28" s="28"/>
+      <c r="B28" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="61"/>
-      <c r="D28" s="27" t="s">
+      <c r="C28" s="55"/>
+      <c r="D28" s="32" t="s">
         <v>282</v>
       </c>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
       <c r="G28" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H28" s="27" t="s">
+      <c r="H28" s="32" t="s">
         <v>281</v>
       </c>
-      <c r="I28" s="31"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="54" t="s">
+      <c r="I28" s="34"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="L28" s="56"/>
-      <c r="M28" s="50" t="s">
+      <c r="L28" s="57"/>
+      <c r="M28" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="N28" s="51"/>
-      <c r="O28" s="51"/>
-      <c r="P28" s="52"/>
+      <c r="N28" s="52"/>
+      <c r="O28" s="52"/>
+      <c r="P28" s="53"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="44"/>
-      <c r="B29" s="60" t="s">
+      <c r="A29" s="28"/>
+      <c r="B29" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="C29" s="61"/>
-      <c r="D29" s="27" t="s">
+      <c r="C29" s="55"/>
+      <c r="D29" s="32" t="s">
         <v>517</v>
       </c>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
       <c r="G29" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="H29" s="31" t="s">
+      <c r="H29" s="34" t="s">
         <v>518</v>
       </c>
-      <c r="I29" s="31"/>
-      <c r="J29" s="28"/>
+      <c r="I29" s="34"/>
+      <c r="J29" s="33"/>
       <c r="K29" s="15"/>
       <c r="L29" s="16"/>
-      <c r="M29" s="50"/>
-      <c r="N29" s="51"/>
-      <c r="O29" s="51"/>
-      <c r="P29" s="52"/>
+      <c r="M29" s="51"/>
+      <c r="N29" s="52"/>
+      <c r="O29" s="52"/>
+      <c r="P29" s="53"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="44"/>
-      <c r="B30" s="60" t="s">
+      <c r="A30" s="28"/>
+      <c r="B30" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="61"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="54" t="s">
+      <c r="C30" s="55"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="L30" s="56"/>
-      <c r="M30" s="50" t="s">
+      <c r="L30" s="57"/>
+      <c r="M30" s="51" t="s">
         <v>143</v>
       </c>
-      <c r="N30" s="51"/>
-      <c r="O30" s="51"/>
-      <c r="P30" s="52"/>
+      <c r="N30" s="52"/>
+      <c r="O30" s="52"/>
+      <c r="P30" s="53"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="44"/>
-      <c r="B31" s="62" t="s">
+      <c r="A31" s="28"/>
+      <c r="B31" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="63"/>
-      <c r="D31" s="63"/>
-      <c r="E31" s="63"/>
-      <c r="F31" s="63"/>
-      <c r="G31" s="63"/>
-      <c r="H31" s="63"/>
-      <c r="I31" s="63"/>
-      <c r="J31" s="64"/>
-      <c r="K31" s="62"/>
-      <c r="L31" s="64"/>
-      <c r="M31" s="62"/>
-      <c r="N31" s="63"/>
-      <c r="O31" s="63"/>
-      <c r="P31" s="64"/>
+      <c r="C31" s="69"/>
+      <c r="D31" s="69"/>
+      <c r="E31" s="69"/>
+      <c r="F31" s="69"/>
+      <c r="G31" s="69"/>
+      <c r="H31" s="69"/>
+      <c r="I31" s="69"/>
+      <c r="J31" s="68"/>
+      <c r="K31" s="67"/>
+      <c r="L31" s="68"/>
+      <c r="M31" s="67"/>
+      <c r="N31" s="69"/>
+      <c r="O31" s="69"/>
+      <c r="P31" s="68"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="44"/>
+      <c r="A32" s="28"/>
       <c r="B32" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C32" s="54" t="s">
+      <c r="C32" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="D32" s="55"/>
-      <c r="E32" s="56"/>
+      <c r="D32" s="70"/>
+      <c r="E32" s="57"/>
       <c r="F32" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G32" s="54" t="s">
+      <c r="G32" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="H32" s="56"/>
-      <c r="I32" s="54" t="s">
+      <c r="H32" s="57"/>
+      <c r="I32" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="J32" s="56"/>
-      <c r="K32" s="71"/>
-      <c r="L32" s="73"/>
-      <c r="M32" s="71"/>
-      <c r="N32" s="72"/>
-      <c r="O32" s="72"/>
-      <c r="P32" s="73"/>
+      <c r="J32" s="57"/>
+      <c r="K32" s="61"/>
+      <c r="L32" s="63"/>
+      <c r="M32" s="61"/>
+      <c r="N32" s="62"/>
+      <c r="O32" s="62"/>
+      <c r="P32" s="63"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A33" s="44"/>
+      <c r="A33" s="28"/>
       <c r="B33" s="8">
         <v>1</v>
       </c>
-      <c r="C33" s="57" t="s">
+      <c r="C33" s="64" t="s">
         <v>340</v>
       </c>
-      <c r="D33" s="58"/>
-      <c r="E33" s="59"/>
+      <c r="D33" s="66"/>
+      <c r="E33" s="65"/>
       <c r="F33" s="3"/>
-      <c r="G33" s="57" t="s">
+      <c r="G33" s="64" t="s">
         <v>340</v>
       </c>
-      <c r="H33" s="59"/>
+      <c r="H33" s="65"/>
       <c r="I33" s="3"/>
       <c r="J33" s="4"/>
-      <c r="K33" s="65"/>
-      <c r="L33" s="67"/>
-      <c r="M33" s="65"/>
-      <c r="N33" s="66"/>
-      <c r="O33" s="66"/>
-      <c r="P33" s="67"/>
+      <c r="K33" s="58"/>
+      <c r="L33" s="59"/>
+      <c r="M33" s="58"/>
+      <c r="N33" s="60"/>
+      <c r="O33" s="60"/>
+      <c r="P33" s="59"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A34" s="44"/>
-      <c r="B34" s="57"/>
-      <c r="C34" s="58"/>
-      <c r="D34" s="58"/>
-      <c r="E34" s="59"/>
+      <c r="A34" s="28"/>
+      <c r="B34" s="64"/>
+      <c r="C34" s="66"/>
+      <c r="D34" s="66"/>
+      <c r="E34" s="65"/>
       <c r="F34" s="3"/>
-      <c r="G34" s="57"/>
-      <c r="H34" s="59"/>
+      <c r="G34" s="64"/>
+      <c r="H34" s="65"/>
       <c r="I34" s="3"/>
       <c r="J34" s="4"/>
-      <c r="K34" s="65"/>
-      <c r="L34" s="67"/>
-      <c r="M34" s="65"/>
-      <c r="N34" s="66"/>
-      <c r="O34" s="66"/>
-      <c r="P34" s="67"/>
+      <c r="K34" s="58"/>
+      <c r="L34" s="59"/>
+      <c r="M34" s="58"/>
+      <c r="N34" s="60"/>
+      <c r="O34" s="60"/>
+      <c r="P34" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:L4"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A26:P26"/>
+    <mergeCell ref="A27:A34"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="B31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:P31"/>
     <mergeCell ref="B34:E34"/>
     <mergeCell ref="G34:H34"/>
     <mergeCell ref="K34:L34"/>
@@ -7070,42 +7110,6 @@
     <mergeCell ref="G33:H33"/>
     <mergeCell ref="K33:L33"/>
     <mergeCell ref="M33:P33"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="B31:J31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:P31"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="M29:P29"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A26:P26"/>
-    <mergeCell ref="A27:A34"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:L4"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -7120,8 +7124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D349AB67-F500-46D9-95AE-D8168334F4A6}">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -7141,132 +7145,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="47" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="48" t="s">
         <v>405</v>
       </c>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="50"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="27"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="28"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="33"/>
       <c r="N1" s="14"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="47" t="s">
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="50"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="50" t="s">
+      <c r="I2" s="51" t="s">
         <v>393</v>
       </c>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="53"/>
       <c r="N2" s="13"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="49"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="48" t="s">
+        <v>520</v>
+      </c>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="50"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="28"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="33"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="49"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="50"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="27"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="28"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="33"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="53"/>
-      <c r="N6" s="53"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="46"/>
+      <c r="O6" s="46"/>
+      <c r="P6" s="46"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -7762,6 +7768,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
     <mergeCell ref="A6:P6"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:G3"/>
@@ -7769,12 +7781,6 @@
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="D4:L4"/>
     <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7807,134 +7813,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="47" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="48" t="s">
         <v>308</v>
       </c>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="50"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="27"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="28"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="33"/>
       <c r="N1" s="14"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="47" t="s">
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="48" t="s">
         <v>145</v>
       </c>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="50"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="50" t="s">
+      <c r="I2" s="51" t="s">
         <v>146</v>
       </c>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="53"/>
       <c r="N2" s="13"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="47" t="s">
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="48" t="s">
         <v>172</v>
       </c>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="50"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="28"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="33"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="49"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="50"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="27"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="28"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="33"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="53"/>
-      <c r="N6" s="53"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="46"/>
+      <c r="O6" s="46"/>
+      <c r="P6" s="46"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -9031,241 +9037,250 @@
       <c r="P40" s="1"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A42" s="68" t="s">
+      <c r="A42" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="B42" s="69"/>
-      <c r="C42" s="69"/>
-      <c r="D42" s="69"/>
-      <c r="E42" s="69"/>
-      <c r="F42" s="69"/>
-      <c r="G42" s="69"/>
-      <c r="H42" s="69"/>
-      <c r="I42" s="69"/>
-      <c r="J42" s="69"/>
-      <c r="K42" s="69"/>
-      <c r="L42" s="69"/>
-      <c r="M42" s="69"/>
-      <c r="N42" s="69"/>
-      <c r="O42" s="69"/>
-      <c r="P42" s="70"/>
+      <c r="B42" s="72"/>
+      <c r="C42" s="72"/>
+      <c r="D42" s="72"/>
+      <c r="E42" s="72"/>
+      <c r="F42" s="72"/>
+      <c r="G42" s="72"/>
+      <c r="H42" s="72"/>
+      <c r="I42" s="72"/>
+      <c r="J42" s="72"/>
+      <c r="K42" s="72"/>
+      <c r="L42" s="72"/>
+      <c r="M42" s="72"/>
+      <c r="N42" s="72"/>
+      <c r="O42" s="72"/>
+      <c r="P42" s="73"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A43" s="43">
+      <c r="A43" s="27">
         <v>2</v>
       </c>
-      <c r="B43" s="60" t="s">
+      <c r="B43" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="C43" s="61"/>
-      <c r="D43" s="27" t="s">
+      <c r="C43" s="55"/>
+      <c r="D43" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="E43" s="31"/>
-      <c r="F43" s="31"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="34"/>
       <c r="G43" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H43" s="27" t="s">
+      <c r="H43" s="32" t="s">
         <v>162</v>
       </c>
-      <c r="I43" s="31"/>
-      <c r="J43" s="28"/>
-      <c r="K43" s="54" t="s">
+      <c r="I43" s="34"/>
+      <c r="J43" s="33"/>
+      <c r="K43" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="L43" s="56"/>
-      <c r="M43" s="50" t="s">
+      <c r="L43" s="57"/>
+      <c r="M43" s="51" t="s">
         <v>309</v>
       </c>
-      <c r="N43" s="51"/>
-      <c r="O43" s="51"/>
-      <c r="P43" s="52"/>
+      <c r="N43" s="52"/>
+      <c r="O43" s="52"/>
+      <c r="P43" s="53"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A44" s="44"/>
-      <c r="B44" s="60" t="s">
+      <c r="A44" s="28"/>
+      <c r="B44" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="C44" s="61"/>
-      <c r="D44" s="27" t="s">
+      <c r="C44" s="55"/>
+      <c r="D44" s="32" t="s">
         <v>163</v>
       </c>
-      <c r="E44" s="31"/>
-      <c r="F44" s="31"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="34"/>
       <c r="G44" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H44" s="27" t="s">
+      <c r="H44" s="32" t="s">
         <v>164</v>
       </c>
-      <c r="I44" s="31"/>
-      <c r="J44" s="28"/>
-      <c r="K44" s="54" t="s">
+      <c r="I44" s="34"/>
+      <c r="J44" s="33"/>
+      <c r="K44" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="L44" s="56"/>
-      <c r="M44" s="50" t="s">
+      <c r="L44" s="57"/>
+      <c r="M44" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="N44" s="51"/>
-      <c r="O44" s="51"/>
-      <c r="P44" s="52"/>
+      <c r="N44" s="52"/>
+      <c r="O44" s="52"/>
+      <c r="P44" s="53"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A45" s="44"/>
-      <c r="B45" s="60" t="s">
+      <c r="A45" s="28"/>
+      <c r="B45" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="C45" s="61"/>
-      <c r="D45" s="27" t="s">
+      <c r="C45" s="55"/>
+      <c r="D45" s="32" t="s">
         <v>165</v>
       </c>
-      <c r="E45" s="31"/>
-      <c r="F45" s="31"/>
+      <c r="E45" s="34"/>
+      <c r="F45" s="34"/>
       <c r="G45" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="H45" s="31" t="s">
+      <c r="H45" s="34" t="s">
         <v>166</v>
       </c>
-      <c r="I45" s="31"/>
-      <c r="J45" s="28"/>
+      <c r="I45" s="34"/>
+      <c r="J45" s="33"/>
       <c r="K45" s="15"/>
       <c r="L45" s="16"/>
-      <c r="M45" s="50"/>
-      <c r="N45" s="51"/>
-      <c r="O45" s="51"/>
-      <c r="P45" s="52"/>
+      <c r="M45" s="51"/>
+      <c r="N45" s="52"/>
+      <c r="O45" s="52"/>
+      <c r="P45" s="53"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A46" s="44"/>
-      <c r="B46" s="60" t="s">
+      <c r="A46" s="28"/>
+      <c r="B46" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="C46" s="61"/>
-      <c r="D46" s="27"/>
-      <c r="E46" s="31"/>
-      <c r="F46" s="31"/>
-      <c r="G46" s="31"/>
-      <c r="H46" s="31"/>
-      <c r="I46" s="31"/>
-      <c r="J46" s="28"/>
-      <c r="K46" s="54" t="s">
+      <c r="C46" s="55"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="34"/>
+      <c r="F46" s="34"/>
+      <c r="G46" s="34"/>
+      <c r="H46" s="34"/>
+      <c r="I46" s="34"/>
+      <c r="J46" s="33"/>
+      <c r="K46" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="L46" s="56"/>
-      <c r="M46" s="50" t="s">
+      <c r="L46" s="57"/>
+      <c r="M46" s="51" t="s">
         <v>141</v>
       </c>
-      <c r="N46" s="51"/>
-      <c r="O46" s="51"/>
-      <c r="P46" s="52"/>
+      <c r="N46" s="52"/>
+      <c r="O46" s="52"/>
+      <c r="P46" s="53"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A47" s="44"/>
-      <c r="B47" s="62" t="s">
+      <c r="A47" s="28"/>
+      <c r="B47" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="C47" s="63"/>
-      <c r="D47" s="63"/>
-      <c r="E47" s="63"/>
-      <c r="F47" s="63"/>
-      <c r="G47" s="63"/>
-      <c r="H47" s="63"/>
-      <c r="I47" s="63"/>
-      <c r="J47" s="64"/>
-      <c r="K47" s="62"/>
-      <c r="L47" s="64"/>
-      <c r="M47" s="62"/>
-      <c r="N47" s="63"/>
-      <c r="O47" s="63"/>
-      <c r="P47" s="64"/>
+      <c r="C47" s="69"/>
+      <c r="D47" s="69"/>
+      <c r="E47" s="69"/>
+      <c r="F47" s="69"/>
+      <c r="G47" s="69"/>
+      <c r="H47" s="69"/>
+      <c r="I47" s="69"/>
+      <c r="J47" s="68"/>
+      <c r="K47" s="67"/>
+      <c r="L47" s="68"/>
+      <c r="M47" s="67"/>
+      <c r="N47" s="69"/>
+      <c r="O47" s="69"/>
+      <c r="P47" s="68"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A48" s="44"/>
+      <c r="A48" s="28"/>
       <c r="B48" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C48" s="54" t="s">
+      <c r="C48" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="D48" s="55"/>
-      <c r="E48" s="56"/>
+      <c r="D48" s="70"/>
+      <c r="E48" s="57"/>
       <c r="F48" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G48" s="54" t="s">
+      <c r="G48" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="H48" s="56"/>
-      <c r="I48" s="54" t="s">
+      <c r="H48" s="57"/>
+      <c r="I48" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="J48" s="56"/>
-      <c r="K48" s="71"/>
-      <c r="L48" s="73"/>
-      <c r="M48" s="71"/>
-      <c r="N48" s="72"/>
-      <c r="O48" s="72"/>
-      <c r="P48" s="73"/>
+      <c r="J48" s="57"/>
+      <c r="K48" s="61"/>
+      <c r="L48" s="63"/>
+      <c r="M48" s="61"/>
+      <c r="N48" s="62"/>
+      <c r="O48" s="62"/>
+      <c r="P48" s="63"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A49" s="44"/>
+      <c r="A49" s="28"/>
       <c r="B49" s="8">
         <v>1</v>
       </c>
-      <c r="C49" s="57" t="s">
+      <c r="C49" s="64" t="s">
         <v>167</v>
       </c>
-      <c r="D49" s="58"/>
-      <c r="E49" s="59"/>
+      <c r="D49" s="66"/>
+      <c r="E49" s="65"/>
       <c r="F49" s="3"/>
-      <c r="G49" s="57" t="s">
+      <c r="G49" s="64" t="s">
         <v>144</v>
       </c>
-      <c r="H49" s="59"/>
+      <c r="H49" s="65"/>
       <c r="I49" s="3"/>
       <c r="J49" s="4"/>
-      <c r="K49" s="65"/>
-      <c r="L49" s="67"/>
-      <c r="M49" s="65"/>
-      <c r="N49" s="66"/>
-      <c r="O49" s="66"/>
-      <c r="P49" s="67"/>
+      <c r="K49" s="58"/>
+      <c r="L49" s="59"/>
+      <c r="M49" s="58"/>
+      <c r="N49" s="60"/>
+      <c r="O49" s="60"/>
+      <c r="P49" s="59"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A50" s="44"/>
-      <c r="B50" s="57"/>
-      <c r="C50" s="58"/>
-      <c r="D50" s="58"/>
-      <c r="E50" s="59"/>
+      <c r="A50" s="28"/>
+      <c r="B50" s="64"/>
+      <c r="C50" s="66"/>
+      <c r="D50" s="66"/>
+      <c r="E50" s="65"/>
       <c r="F50" s="3"/>
-      <c r="G50" s="57"/>
-      <c r="H50" s="59"/>
+      <c r="G50" s="64"/>
+      <c r="H50" s="65"/>
       <c r="I50" s="3"/>
       <c r="J50" s="4"/>
-      <c r="K50" s="65"/>
-      <c r="L50" s="67"/>
-      <c r="M50" s="65"/>
-      <c r="N50" s="66"/>
-      <c r="O50" s="66"/>
-      <c r="P50" s="67"/>
+      <c r="K50" s="58"/>
+      <c r="L50" s="59"/>
+      <c r="M50" s="58"/>
+      <c r="N50" s="60"/>
+      <c r="O50" s="60"/>
+      <c r="P50" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:L4"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="M49:P49"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="M50:P50"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:J46"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="M47:P47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="M48:P48"/>
+    <mergeCell ref="B47:J47"/>
+    <mergeCell ref="C48:E48"/>
     <mergeCell ref="A6:P6"/>
     <mergeCell ref="A42:P42"/>
     <mergeCell ref="M45:P45"/>
@@ -9282,27 +9297,18 @@
     <mergeCell ref="A43:A50"/>
     <mergeCell ref="D44:F44"/>
     <mergeCell ref="H44:J44"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="M47:P47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="M48:P48"/>
-    <mergeCell ref="B47:J47"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:J46"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="M49:P49"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="M50:P50"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:L4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9314,7 +9320,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AD7D9E9-B50D-4F1F-8CE6-988661D177E2}">
   <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4:L4"/>
     </sheetView>
   </sheetViews>
@@ -9335,134 +9341,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="47" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="48" t="s">
         <v>443</v>
       </c>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="50"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="27"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="28"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="33"/>
       <c r="N1" s="14"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="47" t="s">
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="48" t="s">
         <v>430</v>
       </c>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="50"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="50" t="s">
+      <c r="I2" s="51" t="s">
         <v>444</v>
       </c>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="53"/>
       <c r="N2" s="13"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="49"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="50"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="28"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="33"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="47" t="s">
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="48" t="s">
         <v>519</v>
       </c>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="50"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="27"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="28"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="33"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="53"/>
-      <c r="N6" s="53"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="46"/>
+      <c r="O6" s="46"/>
+      <c r="P6" s="46"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -9936,6 +9942,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
     <mergeCell ref="A6:P6"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:G3"/>
@@ -9943,12 +9955,6 @@
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="D4:L4"/>
     <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10608,17 +10614,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="43">
+      <c r="A1" s="27">
         <v>1</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="27" t="s">
+      <c r="C1" s="31"/>
+      <c r="D1" s="32" t="s">
         <v>293</v>
       </c>
-      <c r="E1" s="28"/>
+      <c r="E1" s="33"/>
       <c r="F1" s="18" t="s">
         <v>126</v>
       </c>
@@ -10627,15 +10633,15 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="44"/>
-      <c r="B2" s="29" t="s">
+      <c r="A2" s="28"/>
+      <c r="B2" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="27" t="s">
+      <c r="C2" s="31"/>
+      <c r="D2" s="32" t="s">
         <v>294</v>
       </c>
-      <c r="E2" s="28"/>
+      <c r="E2" s="33"/>
       <c r="F2" s="18" t="s">
         <v>129</v>
       </c>
@@ -10644,29 +10650,29 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="44"/>
-      <c r="B3" s="29" t="s">
+      <c r="A3" s="28"/>
+      <c r="B3" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="28"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="33"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="44"/>
-      <c r="B4" s="32" t="s">
+      <c r="A4" s="28"/>
+      <c r="B4" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="34"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="37"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="44"/>
+      <c r="A5" s="28"/>
       <c r="B5" s="20" t="s">
         <v>132</v>
       </c>
@@ -10687,7 +10693,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="44"/>
+      <c r="A6" s="28"/>
       <c r="B6" s="19">
         <v>1</v>
       </c>
@@ -10704,7 +10710,7 @@
       <c r="G6" s="22"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="44"/>
+      <c r="A7" s="28"/>
       <c r="B7" s="19">
         <v>2</v>
       </c>
@@ -10721,7 +10727,7 @@
       <c r="G7" s="22"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="44"/>
+      <c r="A8" s="28"/>
       <c r="B8" s="19"/>
       <c r="C8" s="23"/>
       <c r="D8" s="22"/>
@@ -10730,26 +10736,26 @@
       <c r="G8" s="22"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="45"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="37"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="40"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="40">
+      <c r="A10" s="43">
         <v>2</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="27" t="s">
+      <c r="C10" s="31"/>
+      <c r="D10" s="32" t="s">
         <v>248</v>
       </c>
-      <c r="E10" s="28"/>
+      <c r="E10" s="33"/>
       <c r="F10" s="18" t="s">
         <v>126</v>
       </c>
@@ -10758,15 +10764,15 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="41"/>
-      <c r="B11" s="29" t="s">
+      <c r="A11" s="44"/>
+      <c r="B11" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="27" t="s">
+      <c r="C11" s="31"/>
+      <c r="D11" s="32" t="s">
         <v>249</v>
       </c>
-      <c r="E11" s="28"/>
+      <c r="E11" s="33"/>
       <c r="F11" s="18" t="s">
         <v>129</v>
       </c>
@@ -10775,29 +10781,29 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="41"/>
-      <c r="B12" s="29" t="s">
+      <c r="A12" s="44"/>
+      <c r="B12" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="C12" s="30"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="28"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="33"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="41"/>
-      <c r="B13" s="32" t="s">
+      <c r="A13" s="44"/>
+      <c r="B13" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="34"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="37"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="41"/>
+      <c r="A14" s="44"/>
       <c r="B14" s="20" t="s">
         <v>132</v>
       </c>
@@ -10818,7 +10824,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="41"/>
+      <c r="A15" s="44"/>
       <c r="B15" s="19">
         <v>1</v>
       </c>
@@ -10835,7 +10841,7 @@
       <c r="G15" s="22"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="41"/>
+      <c r="A16" s="44"/>
       <c r="B16" s="19">
         <v>2</v>
       </c>
@@ -10852,7 +10858,7 @@
       <c r="G16" s="22"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="41"/>
+      <c r="A17" s="44"/>
       <c r="B17" s="19"/>
       <c r="C17" s="23"/>
       <c r="D17" s="22"/>
@@ -10861,26 +10867,26 @@
       <c r="G17" s="22"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="42"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="37"/>
+      <c r="A18" s="45"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="40"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="43">
+      <c r="A19" s="27">
         <v>3</v>
       </c>
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="C19" s="30"/>
-      <c r="D19" s="27" t="s">
+      <c r="C19" s="31"/>
+      <c r="D19" s="32" t="s">
         <v>261</v>
       </c>
-      <c r="E19" s="28"/>
+      <c r="E19" s="33"/>
       <c r="F19" s="18" t="s">
         <v>126</v>
       </c>
@@ -10889,15 +10895,15 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="44"/>
-      <c r="B20" s="29" t="s">
+      <c r="A20" s="28"/>
+      <c r="B20" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="C20" s="30"/>
-      <c r="D20" s="27" t="s">
+      <c r="C20" s="31"/>
+      <c r="D20" s="32" t="s">
         <v>262</v>
       </c>
-      <c r="E20" s="28"/>
+      <c r="E20" s="33"/>
       <c r="F20" s="18" t="s">
         <v>129</v>
       </c>
@@ -10906,29 +10912,29 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="44"/>
-      <c r="B21" s="29" t="s">
+      <c r="A21" s="28"/>
+      <c r="B21" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="C21" s="30"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="28"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="33"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="44"/>
-      <c r="B22" s="32" t="s">
+      <c r="A22" s="28"/>
+      <c r="B22" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="34"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="37"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="44"/>
+      <c r="A23" s="28"/>
       <c r="B23" s="20" t="s">
         <v>132</v>
       </c>
@@ -10949,7 +10955,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="44"/>
+      <c r="A24" s="28"/>
       <c r="B24" s="19">
         <v>1</v>
       </c>
@@ -10966,7 +10972,7 @@
       <c r="G24" s="22"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="44"/>
+      <c r="A25" s="28"/>
       <c r="B25" s="19">
         <v>2</v>
       </c>
@@ -10983,7 +10989,7 @@
       <c r="G25" s="22"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="44"/>
+      <c r="A26" s="28"/>
       <c r="B26" s="19">
         <v>3</v>
       </c>
@@ -11000,26 +11006,26 @@
       <c r="G26" s="24"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="45"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="37"/>
+      <c r="A27" s="29"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="40"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="38">
+      <c r="A28" s="41">
         <v>4</v>
       </c>
-      <c r="B28" s="29" t="s">
+      <c r="B28" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="C28" s="30"/>
-      <c r="D28" s="27" t="s">
+      <c r="C28" s="31"/>
+      <c r="D28" s="32" t="s">
         <v>311</v>
       </c>
-      <c r="E28" s="28"/>
+      <c r="E28" s="33"/>
       <c r="F28" s="18" t="s">
         <v>126</v>
       </c>
@@ -11028,15 +11034,15 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="39"/>
-      <c r="B29" s="29" t="s">
+      <c r="A29" s="42"/>
+      <c r="B29" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="C29" s="30"/>
-      <c r="D29" s="27" t="s">
+      <c r="C29" s="31"/>
+      <c r="D29" s="32" t="s">
         <v>312</v>
       </c>
-      <c r="E29" s="28"/>
+      <c r="E29" s="33"/>
       <c r="F29" s="18" t="s">
         <v>129</v>
       </c>
@@ -11045,29 +11051,29 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="39"/>
-      <c r="B30" s="29" t="s">
+      <c r="A30" s="42"/>
+      <c r="B30" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="C30" s="30"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="28"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="33"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="39"/>
-      <c r="B31" s="32" t="s">
+      <c r="A31" s="42"/>
+      <c r="B31" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="34"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="37"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="39"/>
+      <c r="A32" s="42"/>
       <c r="B32" s="20" t="s">
         <v>132</v>
       </c>
@@ -11088,7 +11094,7 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="39"/>
+      <c r="A33" s="42"/>
       <c r="B33" s="19">
         <v>1</v>
       </c>
@@ -11105,7 +11111,7 @@
       <c r="G33" s="22"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="39"/>
+      <c r="A34" s="42"/>
       <c r="B34" s="19">
         <v>2</v>
       </c>
@@ -11122,26 +11128,26 @@
       <c r="G34" s="22"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="39"/>
-      <c r="B35" s="35"/>
-      <c r="C35" s="36"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="36"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="37"/>
+      <c r="A35" s="42"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="40"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="43">
+      <c r="A36" s="27">
         <v>5</v>
       </c>
-      <c r="B36" s="29" t="s">
+      <c r="B36" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="C36" s="30"/>
-      <c r="D36" s="27" t="s">
+      <c r="C36" s="31"/>
+      <c r="D36" s="32" t="s">
         <v>484</v>
       </c>
-      <c r="E36" s="28"/>
+      <c r="E36" s="33"/>
       <c r="F36" s="18" t="s">
         <v>126</v>
       </c>
@@ -11150,15 +11156,15 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="44"/>
-      <c r="B37" s="29" t="s">
+      <c r="A37" s="28"/>
+      <c r="B37" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="C37" s="30"/>
-      <c r="D37" s="27" t="s">
+      <c r="C37" s="31"/>
+      <c r="D37" s="32" t="s">
         <v>485</v>
       </c>
-      <c r="E37" s="28"/>
+      <c r="E37" s="33"/>
       <c r="F37" s="18" t="s">
         <v>129</v>
       </c>
@@ -11167,29 +11173,29 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="44"/>
-      <c r="B38" s="29" t="s">
+      <c r="A38" s="28"/>
+      <c r="B38" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="C38" s="30"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="28"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="33"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="44"/>
-      <c r="B39" s="32" t="s">
+      <c r="A39" s="28"/>
+      <c r="B39" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="C39" s="33"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="33"/>
-      <c r="G39" s="34"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="37"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="44"/>
+      <c r="A40" s="28"/>
       <c r="B40" s="20" t="s">
         <v>132</v>
       </c>
@@ -11210,7 +11216,7 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="44"/>
+      <c r="A41" s="28"/>
       <c r="B41" s="19">
         <v>1</v>
       </c>
@@ -11227,7 +11233,7 @@
       <c r="G41" s="22"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="44"/>
+      <c r="A42" s="28"/>
       <c r="B42" s="19">
         <v>2</v>
       </c>
@@ -11244,7 +11250,7 @@
       <c r="G42" s="22"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="44"/>
+      <c r="A43" s="28"/>
       <c r="B43" s="19">
         <v>3</v>
       </c>
@@ -11261,7 +11267,7 @@
       <c r="G43" s="24"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="44"/>
+      <c r="A44" s="28"/>
       <c r="B44" s="19">
         <v>4</v>
       </c>
@@ -11278,40 +11284,21 @@
       <c r="G44" s="24"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="45"/>
-      <c r="B45" s="35"/>
-      <c r="C45" s="36"/>
-      <c r="D45" s="36"/>
-      <c r="E45" s="36"/>
-      <c r="F45" s="36"/>
-      <c r="G45" s="37"/>
+      <c r="A45" s="29"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="39"/>
+      <c r="D45" s="39"/>
+      <c r="E45" s="39"/>
+      <c r="F45" s="39"/>
+      <c r="G45" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="A36:A45"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="B45:G45"/>
-    <mergeCell ref="A1:A9"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B27:G27"/>
     <mergeCell ref="B31:G31"/>
     <mergeCell ref="A28:A35"/>
     <mergeCell ref="B35:G35"/>
@@ -11328,11 +11315,30 @@
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="A1:A9"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="A36:A45"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="B45:G45"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11364,132 +11370,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="47" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="48" t="s">
         <v>283</v>
       </c>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="50"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="27"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="28"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="33"/>
       <c r="N1" s="14"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="47" t="s">
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="48" t="s">
         <v>284</v>
       </c>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="50"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="50" t="s">
+      <c r="I2" s="51" t="s">
         <v>285</v>
       </c>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="53"/>
       <c r="N2" s="13"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="49"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="50"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="28"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="33"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="49"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="50"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="27"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="28"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="33"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="53"/>
-      <c r="N6" s="53"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="46"/>
+      <c r="O6" s="46"/>
+      <c r="P6" s="46"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -11869,25 +11875,31 @@
       <c r="P17" s="1"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="27"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="31"/>
-      <c r="N18" s="31"/>
-      <c r="O18" s="31"/>
-      <c r="P18" s="28"/>
+      <c r="A18" s="32"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="34"/>
+      <c r="O18" s="34"/>
+      <c r="P18" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
     <mergeCell ref="A6:P6"/>
     <mergeCell ref="A18:P18"/>
     <mergeCell ref="A3:C3"/>
@@ -11896,12 +11908,6 @@
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="D4:L4"/>
     <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -11937,132 +11943,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="47" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="48" t="s">
         <v>242</v>
       </c>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="50"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="27"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="28"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="33"/>
       <c r="N1" s="14"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="47" t="s">
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="48" t="s">
         <v>243</v>
       </c>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="50"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="50" t="s">
+      <c r="I2" s="51" t="s">
         <v>244</v>
       </c>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="53"/>
       <c r="N2" s="13"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="49"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="50"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="28"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="33"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="49"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="50"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="27"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="28"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="33"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="53"/>
-      <c r="N6" s="53"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="46"/>
+      <c r="O6" s="46"/>
+      <c r="P6" s="46"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -12566,265 +12572,263 @@
       <c r="P21" s="1"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="27"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="31"/>
-      <c r="M22" s="31"/>
-      <c r="N22" s="31"/>
-      <c r="O22" s="31"/>
-      <c r="P22" s="28"/>
+      <c r="A22" s="32"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="34"/>
+      <c r="M22" s="34"/>
+      <c r="N22" s="34"/>
+      <c r="O22" s="34"/>
+      <c r="P22" s="33"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="68" t="s">
+      <c r="A24" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="69"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="69"/>
-      <c r="H24" s="69"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="69"/>
-      <c r="M24" s="69"/>
-      <c r="N24" s="69"/>
-      <c r="O24" s="69"/>
-      <c r="P24" s="70"/>
+      <c r="B24" s="72"/>
+      <c r="C24" s="72"/>
+      <c r="D24" s="72"/>
+      <c r="E24" s="72"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="72"/>
+      <c r="H24" s="72"/>
+      <c r="I24" s="72"/>
+      <c r="J24" s="72"/>
+      <c r="K24" s="72"/>
+      <c r="L24" s="72"/>
+      <c r="M24" s="72"/>
+      <c r="N24" s="72"/>
+      <c r="O24" s="72"/>
+      <c r="P24" s="73"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="43">
+      <c r="A25" s="27">
         <v>1</v>
       </c>
-      <c r="B25" s="60" t="s">
+      <c r="B25" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="61"/>
-      <c r="D25" s="27" t="s">
+      <c r="C25" s="55"/>
+      <c r="D25" s="32" t="s">
         <v>272</v>
       </c>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
       <c r="G25" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H25" s="27" t="s">
+      <c r="H25" s="32" t="s">
         <v>273</v>
       </c>
-      <c r="I25" s="31"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="54" t="s">
+      <c r="I25" s="34"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="L25" s="56"/>
-      <c r="M25" s="50" t="s">
+      <c r="L25" s="57"/>
+      <c r="M25" s="51" t="s">
         <v>274</v>
       </c>
-      <c r="N25" s="51"/>
-      <c r="O25" s="51"/>
-      <c r="P25" s="52"/>
+      <c r="N25" s="52"/>
+      <c r="O25" s="52"/>
+      <c r="P25" s="53"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="44"/>
-      <c r="B26" s="60" t="s">
+      <c r="A26" s="28"/>
+      <c r="B26" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="61"/>
-      <c r="D26" s="27" t="s">
+      <c r="C26" s="55"/>
+      <c r="D26" s="32" t="s">
         <v>275</v>
       </c>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
       <c r="G26" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H26" s="27" t="s">
+      <c r="H26" s="32" t="s">
         <v>276</v>
       </c>
-      <c r="I26" s="31"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="54" t="s">
+      <c r="I26" s="34"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="L26" s="56"/>
-      <c r="M26" s="50" t="s">
+      <c r="L26" s="57"/>
+      <c r="M26" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="N26" s="51"/>
-      <c r="O26" s="51"/>
-      <c r="P26" s="52"/>
+      <c r="N26" s="52"/>
+      <c r="O26" s="52"/>
+      <c r="P26" s="53"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="44"/>
-      <c r="B27" s="60" t="s">
+      <c r="A27" s="28"/>
+      <c r="B27" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="C27" s="61"/>
-      <c r="D27" s="27" t="s">
+      <c r="C27" s="55"/>
+      <c r="D27" s="32" t="s">
         <v>382</v>
       </c>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
       <c r="G27" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="H27" s="31" t="s">
+      <c r="H27" s="34" t="s">
         <v>383</v>
       </c>
-      <c r="I27" s="31"/>
-      <c r="J27" s="28"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="33"/>
       <c r="K27" s="15"/>
       <c r="L27" s="16"/>
-      <c r="M27" s="50"/>
-      <c r="N27" s="51"/>
-      <c r="O27" s="51"/>
-      <c r="P27" s="52"/>
+      <c r="M27" s="51"/>
+      <c r="N27" s="52"/>
+      <c r="O27" s="52"/>
+      <c r="P27" s="53"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="44"/>
-      <c r="B28" s="60" t="s">
+      <c r="A28" s="28"/>
+      <c r="B28" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="61"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="54" t="s">
+      <c r="C28" s="55"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="L28" s="56"/>
-      <c r="M28" s="50" t="s">
+      <c r="L28" s="57"/>
+      <c r="M28" s="51" t="s">
         <v>102</v>
       </c>
-      <c r="N28" s="51"/>
-      <c r="O28" s="51"/>
-      <c r="P28" s="52"/>
+      <c r="N28" s="52"/>
+      <c r="O28" s="52"/>
+      <c r="P28" s="53"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="44"/>
-      <c r="B29" s="62" t="s">
+      <c r="A29" s="28"/>
+      <c r="B29" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="63"/>
-      <c r="D29" s="63"/>
-      <c r="E29" s="63"/>
-      <c r="F29" s="63"/>
-      <c r="G29" s="63"/>
-      <c r="H29" s="63"/>
-      <c r="I29" s="63"/>
-      <c r="J29" s="64"/>
-      <c r="K29" s="62"/>
-      <c r="L29" s="64"/>
-      <c r="M29" s="62"/>
-      <c r="N29" s="63"/>
-      <c r="O29" s="63"/>
-      <c r="P29" s="64"/>
+      <c r="C29" s="69"/>
+      <c r="D29" s="69"/>
+      <c r="E29" s="69"/>
+      <c r="F29" s="69"/>
+      <c r="G29" s="69"/>
+      <c r="H29" s="69"/>
+      <c r="I29" s="69"/>
+      <c r="J29" s="68"/>
+      <c r="K29" s="67"/>
+      <c r="L29" s="68"/>
+      <c r="M29" s="67"/>
+      <c r="N29" s="69"/>
+      <c r="O29" s="69"/>
+      <c r="P29" s="68"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="44"/>
+      <c r="A30" s="28"/>
       <c r="B30" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="54" t="s">
+      <c r="C30" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="55"/>
-      <c r="E30" s="56"/>
+      <c r="D30" s="70"/>
+      <c r="E30" s="57"/>
       <c r="F30" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G30" s="54" t="s">
+      <c r="G30" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="H30" s="56"/>
-      <c r="I30" s="54" t="s">
+      <c r="H30" s="57"/>
+      <c r="I30" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="J30" s="56"/>
-      <c r="K30" s="71"/>
-      <c r="L30" s="73"/>
-      <c r="M30" s="71"/>
-      <c r="N30" s="72"/>
-      <c r="O30" s="72"/>
-      <c r="P30" s="73"/>
+      <c r="J30" s="57"/>
+      <c r="K30" s="61"/>
+      <c r="L30" s="63"/>
+      <c r="M30" s="61"/>
+      <c r="N30" s="62"/>
+      <c r="O30" s="62"/>
+      <c r="P30" s="63"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="44"/>
+      <c r="A31" s="28"/>
       <c r="B31" s="8">
         <v>1</v>
       </c>
-      <c r="C31" s="57" t="s">
+      <c r="C31" s="64" t="s">
         <v>277</v>
       </c>
-      <c r="D31" s="58"/>
-      <c r="E31" s="59"/>
+      <c r="D31" s="66"/>
+      <c r="E31" s="65"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="57" t="s">
+      <c r="G31" s="64" t="s">
         <v>278</v>
       </c>
-      <c r="H31" s="59"/>
+      <c r="H31" s="65"/>
       <c r="I31" s="3"/>
       <c r="J31" s="4"/>
-      <c r="K31" s="65"/>
-      <c r="L31" s="67"/>
-      <c r="M31" s="65"/>
-      <c r="N31" s="66"/>
-      <c r="O31" s="66"/>
-      <c r="P31" s="67"/>
+      <c r="K31" s="58"/>
+      <c r="L31" s="59"/>
+      <c r="M31" s="58"/>
+      <c r="N31" s="60"/>
+      <c r="O31" s="60"/>
+      <c r="P31" s="59"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="44"/>
-      <c r="B32" s="57"/>
-      <c r="C32" s="58"/>
-      <c r="D32" s="58"/>
-      <c r="E32" s="59"/>
+      <c r="A32" s="28"/>
+      <c r="B32" s="64"/>
+      <c r="C32" s="66"/>
+      <c r="D32" s="66"/>
+      <c r="E32" s="65"/>
       <c r="F32" s="3"/>
-      <c r="G32" s="57"/>
-      <c r="H32" s="59"/>
+      <c r="G32" s="64"/>
+      <c r="H32" s="65"/>
       <c r="I32" s="3"/>
       <c r="J32" s="4"/>
-      <c r="K32" s="65"/>
-      <c r="L32" s="67"/>
-      <c r="M32" s="65"/>
-      <c r="N32" s="66"/>
-      <c r="O32" s="66"/>
-      <c r="P32" s="67"/>
+      <c r="K32" s="58"/>
+      <c r="L32" s="59"/>
+      <c r="M32" s="58"/>
+      <c r="N32" s="60"/>
+      <c r="O32" s="60"/>
+      <c r="P32" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:P32"/>
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="D4:L4"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="D28:J28"/>
+    <mergeCell ref="B29:J29"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="A24:P24"/>
+    <mergeCell ref="A25:A32"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="K25:L25"/>
     <mergeCell ref="B32:E32"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:G1"/>
@@ -12841,22 +12845,24 @@
     <mergeCell ref="M28:P28"/>
     <mergeCell ref="K29:L29"/>
     <mergeCell ref="M29:P29"/>
-    <mergeCell ref="D4:L4"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="D28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="M31:P31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="A24:P24"/>
-    <mergeCell ref="A25:A32"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:P32"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:P26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -12892,134 +12898,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="47" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="48" t="s">
         <v>296</v>
       </c>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="50"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="27"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="28"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="33"/>
       <c r="N1" s="14"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="47" t="s">
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="48" t="s">
         <v>297</v>
       </c>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="50"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="50" t="s">
+      <c r="I2" s="51" t="s">
         <v>298</v>
       </c>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="53"/>
       <c r="N2" s="13"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="47" t="s">
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="48" t="s">
         <v>374</v>
       </c>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="50"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="28"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="33"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="49"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="50"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="27"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="28"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="33"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="53"/>
-      <c r="N6" s="53"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="46"/>
+      <c r="O6" s="46"/>
+      <c r="P6" s="46"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -13336,68 +13342,68 @@
       <c r="P15" s="1"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="27"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="31"/>
-      <c r="O16" s="31"/>
-      <c r="P16" s="28"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="34"/>
+      <c r="O16" s="34"/>
+      <c r="P16" s="33"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="68" t="s">
+      <c r="A18" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="69"/>
-      <c r="C18" s="69"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="69"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="69"/>
-      <c r="J18" s="69"/>
-      <c r="K18" s="69"/>
-      <c r="L18" s="69"/>
-      <c r="M18" s="69"/>
-      <c r="N18" s="69"/>
-      <c r="O18" s="69"/>
-      <c r="P18" s="70"/>
+      <c r="B18" s="72"/>
+      <c r="C18" s="72"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="72"/>
+      <c r="I18" s="72"/>
+      <c r="J18" s="72"/>
+      <c r="K18" s="72"/>
+      <c r="L18" s="72"/>
+      <c r="M18" s="72"/>
+      <c r="N18" s="72"/>
+      <c r="O18" s="72"/>
+      <c r="P18" s="73"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="43">
+      <c r="A19" s="27">
         <v>1</v>
       </c>
-      <c r="B19" s="60" t="s">
+      <c r="B19" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="61"/>
-      <c r="D19" s="27" t="s">
+      <c r="C19" s="55"/>
+      <c r="D19" s="32" t="s">
         <v>299</v>
       </c>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
       <c r="G19" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H19" s="27" t="s">
+      <c r="H19" s="32" t="s">
         <v>304</v>
       </c>
-      <c r="I19" s="31"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="54" t="s">
+      <c r="I19" s="34"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="L19" s="56"/>
+      <c r="L19" s="57"/>
       <c r="M19" s="74" t="s">
         <v>300</v>
       </c>
@@ -13406,196 +13412,196 @@
       <c r="P19" s="76"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="44"/>
-      <c r="B20" s="60" t="s">
+      <c r="A20" s="28"/>
+      <c r="B20" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="61"/>
-      <c r="D20" s="27" t="s">
+      <c r="C20" s="55"/>
+      <c r="D20" s="32" t="s">
         <v>301</v>
       </c>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
       <c r="G20" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H20" s="27" t="s">
+      <c r="H20" s="32" t="s">
         <v>302</v>
       </c>
-      <c r="I20" s="31"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="54" t="s">
+      <c r="I20" s="34"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="L20" s="56"/>
-      <c r="M20" s="50" t="s">
+      <c r="L20" s="57"/>
+      <c r="M20" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="N20" s="51"/>
-      <c r="O20" s="51"/>
-      <c r="P20" s="52"/>
+      <c r="N20" s="52"/>
+      <c r="O20" s="52"/>
+      <c r="P20" s="53"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="44"/>
-      <c r="B21" s="60" t="s">
+      <c r="A21" s="28"/>
+      <c r="B21" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="C21" s="61"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
       <c r="G21" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="28"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="33"/>
       <c r="K21" s="15"/>
       <c r="L21" s="16"/>
-      <c r="M21" s="50"/>
-      <c r="N21" s="51"/>
-      <c r="O21" s="51"/>
-      <c r="P21" s="52"/>
+      <c r="M21" s="51"/>
+      <c r="N21" s="52"/>
+      <c r="O21" s="52"/>
+      <c r="P21" s="53"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="44"/>
-      <c r="B22" s="60" t="s">
+      <c r="A22" s="28"/>
+      <c r="B22" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="61"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="54" t="s">
+      <c r="C22" s="55"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="L22" s="56"/>
-      <c r="M22" s="50" t="s">
+      <c r="L22" s="57"/>
+      <c r="M22" s="51" t="s">
         <v>143</v>
       </c>
-      <c r="N22" s="51"/>
-      <c r="O22" s="51"/>
-      <c r="P22" s="52"/>
+      <c r="N22" s="52"/>
+      <c r="O22" s="52"/>
+      <c r="P22" s="53"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="44"/>
-      <c r="B23" s="62" t="s">
+      <c r="A23" s="28"/>
+      <c r="B23" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="63"/>
-      <c r="D23" s="63"/>
-      <c r="E23" s="63"/>
-      <c r="F23" s="63"/>
-      <c r="G23" s="63"/>
-      <c r="H23" s="63"/>
-      <c r="I23" s="63"/>
-      <c r="J23" s="64"/>
-      <c r="K23" s="62"/>
-      <c r="L23" s="64"/>
-      <c r="M23" s="62"/>
-      <c r="N23" s="63"/>
-      <c r="O23" s="63"/>
-      <c r="P23" s="64"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="69"/>
+      <c r="H23" s="69"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="68"/>
+      <c r="K23" s="67"/>
+      <c r="L23" s="68"/>
+      <c r="M23" s="67"/>
+      <c r="N23" s="69"/>
+      <c r="O23" s="69"/>
+      <c r="P23" s="68"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="44"/>
+      <c r="A24" s="28"/>
       <c r="B24" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="54" t="s">
+      <c r="C24" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="55"/>
-      <c r="E24" s="56"/>
+      <c r="D24" s="70"/>
+      <c r="E24" s="57"/>
       <c r="F24" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G24" s="54" t="s">
+      <c r="G24" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="H24" s="56"/>
-      <c r="I24" s="54" t="s">
+      <c r="H24" s="57"/>
+      <c r="I24" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="J24" s="56"/>
-      <c r="K24" s="71"/>
-      <c r="L24" s="73"/>
-      <c r="M24" s="71"/>
-      <c r="N24" s="72"/>
-      <c r="O24" s="72"/>
-      <c r="P24" s="73"/>
+      <c r="J24" s="57"/>
+      <c r="K24" s="61"/>
+      <c r="L24" s="63"/>
+      <c r="M24" s="61"/>
+      <c r="N24" s="62"/>
+      <c r="O24" s="62"/>
+      <c r="P24" s="63"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="44"/>
+      <c r="A25" s="28"/>
       <c r="B25" s="8">
         <v>1</v>
       </c>
-      <c r="C25" s="57" t="s">
+      <c r="C25" s="64" t="s">
         <v>303</v>
       </c>
-      <c r="D25" s="58"/>
-      <c r="E25" s="59"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="65"/>
       <c r="F25" s="3"/>
-      <c r="G25" s="57" t="s">
+      <c r="G25" s="64" t="s">
         <v>303</v>
       </c>
-      <c r="H25" s="59"/>
+      <c r="H25" s="65"/>
       <c r="I25" s="3"/>
       <c r="J25" s="4"/>
-      <c r="K25" s="65"/>
-      <c r="L25" s="67"/>
-      <c r="M25" s="65"/>
-      <c r="N25" s="66"/>
-      <c r="O25" s="66"/>
-      <c r="P25" s="67"/>
+      <c r="K25" s="58"/>
+      <c r="L25" s="59"/>
+      <c r="M25" s="58"/>
+      <c r="N25" s="60"/>
+      <c r="O25" s="60"/>
+      <c r="P25" s="59"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="44"/>
-      <c r="B26" s="57"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="58"/>
-      <c r="E26" s="59"/>
+      <c r="A26" s="28"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="66"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="65"/>
       <c r="F26" s="3"/>
-      <c r="G26" s="57"/>
-      <c r="H26" s="59"/>
+      <c r="G26" s="64"/>
+      <c r="H26" s="65"/>
       <c r="I26" s="3"/>
       <c r="J26" s="4"/>
-      <c r="K26" s="65"/>
-      <c r="L26" s="67"/>
-      <c r="M26" s="65"/>
-      <c r="N26" s="66"/>
-      <c r="O26" s="66"/>
-      <c r="P26" s="67"/>
+      <c r="K26" s="58"/>
+      <c r="L26" s="59"/>
+      <c r="M26" s="58"/>
+      <c r="N26" s="60"/>
+      <c r="O26" s="60"/>
+      <c r="P26" s="59"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="43">
+      <c r="A27" s="27">
         <v>2</v>
       </c>
-      <c r="B27" s="60" t="s">
+      <c r="B27" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="61"/>
-      <c r="D27" s="27" t="s">
+      <c r="C27" s="55"/>
+      <c r="D27" s="32" t="s">
         <v>279</v>
       </c>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
       <c r="G27" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H27" s="27" t="s">
+      <c r="H27" s="32" t="s">
         <v>305</v>
       </c>
-      <c r="I27" s="31"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="54" t="s">
+      <c r="I27" s="34"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="L27" s="56"/>
+      <c r="L27" s="57"/>
       <c r="M27" s="74" t="s">
         <v>274</v>
       </c>
@@ -13604,198 +13610,217 @@
       <c r="P27" s="76"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="44"/>
-      <c r="B28" s="60" t="s">
+      <c r="A28" s="28"/>
+      <c r="B28" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="61"/>
-      <c r="D28" s="27" t="s">
+      <c r="C28" s="55"/>
+      <c r="D28" s="32" t="s">
         <v>306</v>
       </c>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
       <c r="G28" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H28" s="27" t="s">
+      <c r="H28" s="32" t="s">
         <v>307</v>
       </c>
-      <c r="I28" s="31"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="54" t="s">
+      <c r="I28" s="34"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="L28" s="56"/>
-      <c r="M28" s="50" t="s">
+      <c r="L28" s="57"/>
+      <c r="M28" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="N28" s="51"/>
-      <c r="O28" s="51"/>
-      <c r="P28" s="52"/>
+      <c r="N28" s="52"/>
+      <c r="O28" s="52"/>
+      <c r="P28" s="53"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="44"/>
-      <c r="B29" s="60" t="s">
+      <c r="A29" s="28"/>
+      <c r="B29" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="C29" s="61"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
       <c r="G29" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="28"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="34"/>
+      <c r="J29" s="33"/>
       <c r="K29" s="15"/>
       <c r="L29" s="16"/>
-      <c r="M29" s="50"/>
-      <c r="N29" s="51"/>
-      <c r="O29" s="51"/>
-      <c r="P29" s="52"/>
+      <c r="M29" s="51"/>
+      <c r="N29" s="52"/>
+      <c r="O29" s="52"/>
+      <c r="P29" s="53"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="44"/>
-      <c r="B30" s="60" t="s">
+      <c r="A30" s="28"/>
+      <c r="B30" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="61"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="54" t="s">
+      <c r="C30" s="55"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="L30" s="56"/>
-      <c r="M30" s="50" t="s">
+      <c r="L30" s="57"/>
+      <c r="M30" s="51" t="s">
         <v>143</v>
       </c>
-      <c r="N30" s="51"/>
-      <c r="O30" s="51"/>
-      <c r="P30" s="52"/>
+      <c r="N30" s="52"/>
+      <c r="O30" s="52"/>
+      <c r="P30" s="53"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="44"/>
-      <c r="B31" s="62" t="s">
+      <c r="A31" s="28"/>
+      <c r="B31" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="63"/>
-      <c r="D31" s="63"/>
-      <c r="E31" s="63"/>
-      <c r="F31" s="63"/>
-      <c r="G31" s="63"/>
-      <c r="H31" s="63"/>
-      <c r="I31" s="63"/>
-      <c r="J31" s="64"/>
-      <c r="K31" s="62"/>
-      <c r="L31" s="64"/>
-      <c r="M31" s="62"/>
-      <c r="N31" s="63"/>
-      <c r="O31" s="63"/>
-      <c r="P31" s="64"/>
+      <c r="C31" s="69"/>
+      <c r="D31" s="69"/>
+      <c r="E31" s="69"/>
+      <c r="F31" s="69"/>
+      <c r="G31" s="69"/>
+      <c r="H31" s="69"/>
+      <c r="I31" s="69"/>
+      <c r="J31" s="68"/>
+      <c r="K31" s="67"/>
+      <c r="L31" s="68"/>
+      <c r="M31" s="67"/>
+      <c r="N31" s="69"/>
+      <c r="O31" s="69"/>
+      <c r="P31" s="68"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="44"/>
+      <c r="A32" s="28"/>
       <c r="B32" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C32" s="54" t="s">
+      <c r="C32" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="D32" s="55"/>
-      <c r="E32" s="56"/>
+      <c r="D32" s="70"/>
+      <c r="E32" s="57"/>
       <c r="F32" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G32" s="54" t="s">
+      <c r="G32" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="H32" s="56"/>
-      <c r="I32" s="54" t="s">
+      <c r="H32" s="57"/>
+      <c r="I32" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="J32" s="56"/>
-      <c r="K32" s="71"/>
-      <c r="L32" s="73"/>
-      <c r="M32" s="71"/>
-      <c r="N32" s="72"/>
-      <c r="O32" s="72"/>
-      <c r="P32" s="73"/>
+      <c r="J32" s="57"/>
+      <c r="K32" s="61"/>
+      <c r="L32" s="63"/>
+      <c r="M32" s="61"/>
+      <c r="N32" s="62"/>
+      <c r="O32" s="62"/>
+      <c r="P32" s="63"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A33" s="44"/>
+      <c r="A33" s="28"/>
       <c r="B33" s="8">
         <v>1</v>
       </c>
-      <c r="C33" s="57" t="s">
+      <c r="C33" s="64" t="s">
         <v>278</v>
       </c>
-      <c r="D33" s="58"/>
-      <c r="E33" s="59"/>
+      <c r="D33" s="66"/>
+      <c r="E33" s="65"/>
       <c r="F33" s="3"/>
-      <c r="G33" s="57" t="s">
+      <c r="G33" s="64" t="s">
         <v>278</v>
       </c>
-      <c r="H33" s="59"/>
+      <c r="H33" s="65"/>
       <c r="I33" s="3"/>
       <c r="J33" s="4"/>
-      <c r="K33" s="65"/>
-      <c r="L33" s="67"/>
-      <c r="M33" s="65"/>
-      <c r="N33" s="66"/>
-      <c r="O33" s="66"/>
-      <c r="P33" s="67"/>
+      <c r="K33" s="58"/>
+      <c r="L33" s="59"/>
+      <c r="M33" s="58"/>
+      <c r="N33" s="60"/>
+      <c r="O33" s="60"/>
+      <c r="P33" s="59"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A34" s="44"/>
-      <c r="B34" s="57"/>
-      <c r="C34" s="58"/>
-      <c r="D34" s="58"/>
-      <c r="E34" s="59"/>
+      <c r="A34" s="28"/>
+      <c r="B34" s="64"/>
+      <c r="C34" s="66"/>
+      <c r="D34" s="66"/>
+      <c r="E34" s="65"/>
       <c r="F34" s="3"/>
-      <c r="G34" s="57"/>
-      <c r="H34" s="59"/>
+      <c r="G34" s="64"/>
+      <c r="H34" s="65"/>
       <c r="I34" s="3"/>
       <c r="J34" s="4"/>
-      <c r="K34" s="65"/>
-      <c r="L34" s="67"/>
-      <c r="M34" s="65"/>
-      <c r="N34" s="66"/>
-      <c r="O34" s="66"/>
-      <c r="P34" s="67"/>
+      <c r="K34" s="58"/>
+      <c r="L34" s="59"/>
+      <c r="M34" s="58"/>
+      <c r="N34" s="60"/>
+      <c r="O34" s="60"/>
+      <c r="P34" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="85">
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="M34:P34"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:P32"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="M33:P33"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="B31:J31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:P31"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:L4"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A16:P16"/>
+    <mergeCell ref="A18:P18"/>
+    <mergeCell ref="A19:A26"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="M19:P19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="M20:P20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="B23:J23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
     <mergeCell ref="K24:L24"/>
     <mergeCell ref="M24:P24"/>
     <mergeCell ref="A27:A34"/>
@@ -13812,50 +13837,31 @@
     <mergeCell ref="K26:L26"/>
     <mergeCell ref="M26:P26"/>
     <mergeCell ref="M27:P27"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="B23:J23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A16:P16"/>
-    <mergeCell ref="A18:P18"/>
-    <mergeCell ref="A19:A26"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="M19:P19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="M20:P20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:L4"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="B31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="M34:P34"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:P32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="M33:P33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -13892,134 +13898,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="47" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="48" t="s">
         <v>252</v>
       </c>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="50"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="27"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="28"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="33"/>
       <c r="N1" s="14"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="47" t="s">
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="48" t="s">
         <v>220</v>
       </c>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="50"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="50" t="s">
+      <c r="I2" s="51" t="s">
         <v>253</v>
       </c>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="53"/>
       <c r="N2" s="13"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="49"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="50"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="28"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="33"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="47" t="s">
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="48" t="s">
         <v>231</v>
       </c>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="50"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="27"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="28"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="33"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="53"/>
-      <c r="N6" s="53"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="46"/>
+      <c r="O6" s="46"/>
+      <c r="P6" s="46"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -14530,50 +14536,50 @@
       <c r="P21" s="1"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="68" t="s">
+      <c r="A23" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="69"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="69"/>
-      <c r="H23" s="69"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="69"/>
-      <c r="K23" s="69"/>
-      <c r="L23" s="69"/>
-      <c r="M23" s="69"/>
-      <c r="N23" s="69"/>
-      <c r="O23" s="69"/>
-      <c r="P23" s="70"/>
+      <c r="B23" s="72"/>
+      <c r="C23" s="72"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="72"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="72"/>
+      <c r="H23" s="72"/>
+      <c r="I23" s="72"/>
+      <c r="J23" s="72"/>
+      <c r="K23" s="72"/>
+      <c r="L23" s="72"/>
+      <c r="M23" s="72"/>
+      <c r="N23" s="72"/>
+      <c r="O23" s="72"/>
+      <c r="P23" s="73"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="43">
+      <c r="A24" s="27">
         <v>1</v>
       </c>
-      <c r="B24" s="60" t="s">
+      <c r="B24" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="61"/>
-      <c r="D24" s="27" t="s">
+      <c r="C24" s="55"/>
+      <c r="D24" s="32" t="s">
         <v>279</v>
       </c>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
       <c r="G24" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H24" s="27" t="s">
+      <c r="H24" s="32" t="s">
         <v>280</v>
       </c>
-      <c r="I24" s="31"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="54" t="s">
+      <c r="I24" s="34"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="L24" s="56"/>
+      <c r="L24" s="57"/>
       <c r="M24" s="74" t="s">
         <v>274</v>
       </c>
@@ -14582,197 +14588,190 @@
       <c r="P24" s="76"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="44"/>
-      <c r="B25" s="60" t="s">
+      <c r="A25" s="28"/>
+      <c r="B25" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="61"/>
-      <c r="D25" s="27" t="s">
+      <c r="C25" s="55"/>
+      <c r="D25" s="32" t="s">
         <v>282</v>
       </c>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
       <c r="G25" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H25" s="27" t="s">
+      <c r="H25" s="32" t="s">
         <v>281</v>
       </c>
-      <c r="I25" s="31"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="54" t="s">
+      <c r="I25" s="34"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="L25" s="56"/>
-      <c r="M25" s="50" t="s">
+      <c r="L25" s="57"/>
+      <c r="M25" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="N25" s="51"/>
-      <c r="O25" s="51"/>
-      <c r="P25" s="52"/>
+      <c r="N25" s="52"/>
+      <c r="O25" s="52"/>
+      <c r="P25" s="53"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="44"/>
-      <c r="B26" s="60" t="s">
+      <c r="A26" s="28"/>
+      <c r="B26" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="C26" s="61"/>
-      <c r="D26" s="27" t="s">
+      <c r="C26" s="55"/>
+      <c r="D26" s="32" t="s">
         <v>380</v>
       </c>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
       <c r="G26" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="H26" s="31" t="s">
+      <c r="H26" s="34" t="s">
         <v>381</v>
       </c>
-      <c r="I26" s="31"/>
-      <c r="J26" s="28"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="33"/>
       <c r="K26" s="15"/>
       <c r="L26" s="16"/>
-      <c r="M26" s="50"/>
-      <c r="N26" s="51"/>
-      <c r="O26" s="51"/>
-      <c r="P26" s="52"/>
+      <c r="M26" s="51"/>
+      <c r="N26" s="52"/>
+      <c r="O26" s="52"/>
+      <c r="P26" s="53"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="44"/>
-      <c r="B27" s="60" t="s">
+      <c r="A27" s="28"/>
+      <c r="B27" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="61"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="54" t="s">
+      <c r="C27" s="55"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="L27" s="56"/>
-      <c r="M27" s="50" t="s">
+      <c r="L27" s="57"/>
+      <c r="M27" s="51" t="s">
         <v>143</v>
       </c>
-      <c r="N27" s="51"/>
-      <c r="O27" s="51"/>
-      <c r="P27" s="52"/>
+      <c r="N27" s="52"/>
+      <c r="O27" s="52"/>
+      <c r="P27" s="53"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="44"/>
-      <c r="B28" s="62" t="s">
+      <c r="A28" s="28"/>
+      <c r="B28" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="63"/>
-      <c r="D28" s="63"/>
-      <c r="E28" s="63"/>
-      <c r="F28" s="63"/>
-      <c r="G28" s="63"/>
-      <c r="H28" s="63"/>
-      <c r="I28" s="63"/>
-      <c r="J28" s="64"/>
-      <c r="K28" s="62"/>
-      <c r="L28" s="64"/>
-      <c r="M28" s="62"/>
-      <c r="N28" s="63"/>
-      <c r="O28" s="63"/>
-      <c r="P28" s="64"/>
+      <c r="C28" s="69"/>
+      <c r="D28" s="69"/>
+      <c r="E28" s="69"/>
+      <c r="F28" s="69"/>
+      <c r="G28" s="69"/>
+      <c r="H28" s="69"/>
+      <c r="I28" s="69"/>
+      <c r="J28" s="68"/>
+      <c r="K28" s="67"/>
+      <c r="L28" s="68"/>
+      <c r="M28" s="67"/>
+      <c r="N28" s="69"/>
+      <c r="O28" s="69"/>
+      <c r="P28" s="68"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="44"/>
+      <c r="A29" s="28"/>
       <c r="B29" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="54" t="s">
+      <c r="C29" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="55"/>
-      <c r="E29" s="56"/>
+      <c r="D29" s="70"/>
+      <c r="E29" s="57"/>
       <c r="F29" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G29" s="54" t="s">
+      <c r="G29" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="H29" s="56"/>
-      <c r="I29" s="54" t="s">
+      <c r="H29" s="57"/>
+      <c r="I29" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="J29" s="56"/>
-      <c r="K29" s="71"/>
-      <c r="L29" s="73"/>
-      <c r="M29" s="71"/>
-      <c r="N29" s="72"/>
-      <c r="O29" s="72"/>
-      <c r="P29" s="73"/>
+      <c r="J29" s="57"/>
+      <c r="K29" s="61"/>
+      <c r="L29" s="63"/>
+      <c r="M29" s="61"/>
+      <c r="N29" s="62"/>
+      <c r="O29" s="62"/>
+      <c r="P29" s="63"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="44"/>
+      <c r="A30" s="28"/>
       <c r="B30" s="8">
         <v>1</v>
       </c>
-      <c r="C30" s="57" t="s">
+      <c r="C30" s="64" t="s">
         <v>278</v>
       </c>
-      <c r="D30" s="58"/>
-      <c r="E30" s="59"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="65"/>
       <c r="F30" s="3"/>
-      <c r="G30" s="57" t="s">
+      <c r="G30" s="64" t="s">
         <v>278</v>
       </c>
-      <c r="H30" s="59"/>
+      <c r="H30" s="65"/>
       <c r="I30" s="3"/>
       <c r="J30" s="4"/>
-      <c r="K30" s="65"/>
-      <c r="L30" s="67"/>
-      <c r="M30" s="65"/>
-      <c r="N30" s="66"/>
-      <c r="O30" s="66"/>
-      <c r="P30" s="67"/>
+      <c r="K30" s="58"/>
+      <c r="L30" s="59"/>
+      <c r="M30" s="58"/>
+      <c r="N30" s="60"/>
+      <c r="O30" s="60"/>
+      <c r="P30" s="59"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="44"/>
-      <c r="B31" s="57"/>
-      <c r="C31" s="58"/>
-      <c r="D31" s="58"/>
-      <c r="E31" s="59"/>
+      <c r="A31" s="28"/>
+      <c r="B31" s="64"/>
+      <c r="C31" s="66"/>
+      <c r="D31" s="66"/>
+      <c r="E31" s="65"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="57"/>
-      <c r="H31" s="59"/>
+      <c r="G31" s="64"/>
+      <c r="H31" s="65"/>
       <c r="I31" s="3"/>
       <c r="J31" s="4"/>
-      <c r="K31" s="65"/>
-      <c r="L31" s="67"/>
-      <c r="M31" s="65"/>
-      <c r="N31" s="66"/>
-      <c r="O31" s="66"/>
-      <c r="P31" s="67"/>
+      <c r="K31" s="58"/>
+      <c r="L31" s="59"/>
+      <c r="M31" s="58"/>
+      <c r="N31" s="60"/>
+      <c r="O31" s="60"/>
+      <c r="P31" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:P31"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:P29"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="B28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:L4"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
     <mergeCell ref="A23:P23"/>
     <mergeCell ref="A24:A31"/>
     <mergeCell ref="B24:C24"/>
@@ -14789,19 +14788,26 @@
     <mergeCell ref="D26:F26"/>
     <mergeCell ref="H26:J26"/>
     <mergeCell ref="M26:P26"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:L4"/>
-    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="B28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:P31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -14838,132 +14844,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="47" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="48" t="s">
         <v>318</v>
       </c>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="50"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="27"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="28"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="33"/>
       <c r="N1" s="14"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="47" t="s">
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="48" t="s">
         <v>319</v>
       </c>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="50"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="50" t="s">
+      <c r="I2" s="51" t="s">
         <v>320</v>
       </c>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="53"/>
       <c r="N2" s="13"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="49"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="50"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="28"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="33"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="49"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="50"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="27"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="28"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="33"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="53"/>
-      <c r="N6" s="53"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="46"/>
+      <c r="O6" s="46"/>
+      <c r="P6" s="46"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -15556,50 +15562,50 @@
       <c r="P24" s="1"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="68" t="s">
+      <c r="A26" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="69"/>
-      <c r="C26" s="69"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
-      <c r="G26" s="69"/>
-      <c r="H26" s="69"/>
-      <c r="I26" s="69"/>
-      <c r="J26" s="69"/>
-      <c r="K26" s="69"/>
-      <c r="L26" s="69"/>
-      <c r="M26" s="69"/>
-      <c r="N26" s="69"/>
-      <c r="O26" s="69"/>
-      <c r="P26" s="70"/>
+      <c r="B26" s="72"/>
+      <c r="C26" s="72"/>
+      <c r="D26" s="72"/>
+      <c r="E26" s="72"/>
+      <c r="F26" s="72"/>
+      <c r="G26" s="72"/>
+      <c r="H26" s="72"/>
+      <c r="I26" s="72"/>
+      <c r="J26" s="72"/>
+      <c r="K26" s="72"/>
+      <c r="L26" s="72"/>
+      <c r="M26" s="72"/>
+      <c r="N26" s="72"/>
+      <c r="O26" s="72"/>
+      <c r="P26" s="73"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="43">
+      <c r="A27" s="27">
         <v>1</v>
       </c>
-      <c r="B27" s="60" t="s">
+      <c r="B27" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="61"/>
-      <c r="D27" s="27" t="s">
+      <c r="C27" s="55"/>
+      <c r="D27" s="32" t="s">
         <v>279</v>
       </c>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
       <c r="G27" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H27" s="27" t="s">
+      <c r="H27" s="32" t="s">
         <v>377</v>
       </c>
-      <c r="I27" s="31"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="54" t="s">
+      <c r="I27" s="34"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="L27" s="56"/>
+      <c r="L27" s="57"/>
       <c r="M27" s="74" t="s">
         <v>274</v>
       </c>
@@ -15608,177 +15614,210 @@
       <c r="P27" s="76"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="44"/>
-      <c r="B28" s="60" t="s">
+      <c r="A28" s="28"/>
+      <c r="B28" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="61"/>
-      <c r="D28" s="27" t="s">
+      <c r="C28" s="55"/>
+      <c r="D28" s="32" t="s">
         <v>282</v>
       </c>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
       <c r="G28" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H28" s="27" t="s">
+      <c r="H28" s="32" t="s">
         <v>281</v>
       </c>
-      <c r="I28" s="31"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="54" t="s">
+      <c r="I28" s="34"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="L28" s="56"/>
-      <c r="M28" s="50" t="s">
+      <c r="L28" s="57"/>
+      <c r="M28" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="N28" s="51"/>
-      <c r="O28" s="51"/>
-      <c r="P28" s="52"/>
+      <c r="N28" s="52"/>
+      <c r="O28" s="52"/>
+      <c r="P28" s="53"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="44"/>
-      <c r="B29" s="60" t="s">
+      <c r="A29" s="28"/>
+      <c r="B29" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="C29" s="61"/>
-      <c r="D29" s="27" t="s">
+      <c r="C29" s="55"/>
+      <c r="D29" s="32" t="s">
         <v>378</v>
       </c>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
       <c r="G29" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="H29" s="31" t="s">
+      <c r="H29" s="34" t="s">
         <v>379</v>
       </c>
-      <c r="I29" s="31"/>
-      <c r="J29" s="28"/>
+      <c r="I29" s="34"/>
+      <c r="J29" s="33"/>
       <c r="K29" s="15"/>
       <c r="L29" s="16"/>
-      <c r="M29" s="50"/>
-      <c r="N29" s="51"/>
-      <c r="O29" s="51"/>
-      <c r="P29" s="52"/>
+      <c r="M29" s="51"/>
+      <c r="N29" s="52"/>
+      <c r="O29" s="52"/>
+      <c r="P29" s="53"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="44"/>
-      <c r="B30" s="60" t="s">
+      <c r="A30" s="28"/>
+      <c r="B30" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="61"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="54" t="s">
+      <c r="C30" s="55"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="L30" s="56"/>
-      <c r="M30" s="50" t="s">
+      <c r="L30" s="57"/>
+      <c r="M30" s="51" t="s">
         <v>143</v>
       </c>
-      <c r="N30" s="51"/>
-      <c r="O30" s="51"/>
-      <c r="P30" s="52"/>
+      <c r="N30" s="52"/>
+      <c r="O30" s="52"/>
+      <c r="P30" s="53"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="44"/>
-      <c r="B31" s="62" t="s">
+      <c r="A31" s="28"/>
+      <c r="B31" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="63"/>
-      <c r="D31" s="63"/>
-      <c r="E31" s="63"/>
-      <c r="F31" s="63"/>
-      <c r="G31" s="63"/>
-      <c r="H31" s="63"/>
-      <c r="I31" s="63"/>
-      <c r="J31" s="64"/>
-      <c r="K31" s="62"/>
-      <c r="L31" s="64"/>
-      <c r="M31" s="62"/>
-      <c r="N31" s="63"/>
-      <c r="O31" s="63"/>
-      <c r="P31" s="64"/>
+      <c r="C31" s="69"/>
+      <c r="D31" s="69"/>
+      <c r="E31" s="69"/>
+      <c r="F31" s="69"/>
+      <c r="G31" s="69"/>
+      <c r="H31" s="69"/>
+      <c r="I31" s="69"/>
+      <c r="J31" s="68"/>
+      <c r="K31" s="67"/>
+      <c r="L31" s="68"/>
+      <c r="M31" s="67"/>
+      <c r="N31" s="69"/>
+      <c r="O31" s="69"/>
+      <c r="P31" s="68"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="44"/>
+      <c r="A32" s="28"/>
       <c r="B32" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C32" s="54" t="s">
+      <c r="C32" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="D32" s="55"/>
-      <c r="E32" s="56"/>
+      <c r="D32" s="70"/>
+      <c r="E32" s="57"/>
       <c r="F32" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G32" s="54" t="s">
+      <c r="G32" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="H32" s="56"/>
-      <c r="I32" s="54" t="s">
+      <c r="H32" s="57"/>
+      <c r="I32" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="J32" s="56"/>
-      <c r="K32" s="71"/>
-      <c r="L32" s="73"/>
-      <c r="M32" s="71"/>
-      <c r="N32" s="72"/>
-      <c r="O32" s="72"/>
-      <c r="P32" s="73"/>
+      <c r="J32" s="57"/>
+      <c r="K32" s="61"/>
+      <c r="L32" s="63"/>
+      <c r="M32" s="61"/>
+      <c r="N32" s="62"/>
+      <c r="O32" s="62"/>
+      <c r="P32" s="63"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A33" s="44"/>
+      <c r="A33" s="28"/>
       <c r="B33" s="8">
         <v>1</v>
       </c>
-      <c r="C33" s="57" t="s">
+      <c r="C33" s="64" t="s">
         <v>278</v>
       </c>
-      <c r="D33" s="58"/>
-      <c r="E33" s="59"/>
+      <c r="D33" s="66"/>
+      <c r="E33" s="65"/>
       <c r="F33" s="3"/>
-      <c r="G33" s="57" t="s">
+      <c r="G33" s="64" t="s">
         <v>278</v>
       </c>
-      <c r="H33" s="59"/>
+      <c r="H33" s="65"/>
       <c r="I33" s="3"/>
       <c r="J33" s="4"/>
-      <c r="K33" s="65"/>
-      <c r="L33" s="67"/>
-      <c r="M33" s="65"/>
-      <c r="N33" s="66"/>
-      <c r="O33" s="66"/>
-      <c r="P33" s="67"/>
+      <c r="K33" s="58"/>
+      <c r="L33" s="59"/>
+      <c r="M33" s="58"/>
+      <c r="N33" s="60"/>
+      <c r="O33" s="60"/>
+      <c r="P33" s="59"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A34" s="44"/>
-      <c r="B34" s="57"/>
-      <c r="C34" s="58"/>
-      <c r="D34" s="58"/>
-      <c r="E34" s="59"/>
+      <c r="A34" s="28"/>
+      <c r="B34" s="64"/>
+      <c r="C34" s="66"/>
+      <c r="D34" s="66"/>
+      <c r="E34" s="65"/>
       <c r="F34" s="3"/>
-      <c r="G34" s="57"/>
-      <c r="H34" s="59"/>
+      <c r="G34" s="64"/>
+      <c r="H34" s="65"/>
       <c r="I34" s="3"/>
       <c r="J34" s="4"/>
-      <c r="K34" s="65"/>
-      <c r="L34" s="67"/>
-      <c r="M34" s="65"/>
-      <c r="N34" s="66"/>
-      <c r="O34" s="66"/>
-      <c r="P34" s="67"/>
+      <c r="K34" s="58"/>
+      <c r="L34" s="59"/>
+      <c r="M34" s="58"/>
+      <c r="N34" s="60"/>
+      <c r="O34" s="60"/>
+      <c r="P34" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:L4"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A26:P26"/>
+    <mergeCell ref="A27:A34"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:P30"/>
     <mergeCell ref="B31:J31"/>
     <mergeCell ref="K31:L31"/>
     <mergeCell ref="M31:P31"/>
@@ -15795,39 +15834,6 @@
     <mergeCell ref="G33:H33"/>
     <mergeCell ref="K33:L33"/>
     <mergeCell ref="M33:P33"/>
-    <mergeCell ref="M29:P29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A26:P26"/>
-    <mergeCell ref="A27:A34"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:L4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/nop-dyn/model/nop-dyn.orm.xlsx
+++ b/nop-dyn/model/nop-dyn.orm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-dyn\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6660D145-F268-4063-B938-81BB9C5F9290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16715C56-E3E9-4F2D-9EFA-0792C06B9C7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" firstSheet="11" activeTab="12" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" firstSheet="11" activeTab="13" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="2" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1804" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1799" uniqueCount="518">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -721,10 +721,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>OBJ_TYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Object Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1693,18 +1689,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>IS_PRIMARY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Is Primary</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否主键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BOOLEAN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2126,6 +2110,10 @@
   </si>
   <si>
     <t>dict</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOP_OBJ_TYPE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3145,10 +3133,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68F89B88-34E8-484E-A694-177B0E94136A}">
-  <dimension ref="A1:P55"/>
+  <dimension ref="A1:P54"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:XFD29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3174,7 +3162,7 @@
       <c r="B1" s="47"/>
       <c r="C1" s="47"/>
       <c r="D1" s="48" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E1" s="49"/>
       <c r="F1" s="49"/>
@@ -3198,7 +3186,7 @@
       <c r="B2" s="47"/>
       <c r="C2" s="47"/>
       <c r="D2" s="48" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E2" s="49"/>
       <c r="F2" s="49"/>
@@ -3207,7 +3195,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="51" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="J2" s="52"/>
       <c r="K2" s="52"/>
@@ -3356,16 +3344,16 @@
         <v>87</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>104</v>
       </c>
       <c r="F8" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="G8" s="9" t="s">
         <v>333</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>334</v>
       </c>
       <c r="H8" s="9"/>
       <c r="I8" s="7" t="s">
@@ -3390,14 +3378,14 @@
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="9" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="7" t="s">
@@ -3422,21 +3410,21 @@
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="9" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="9" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="7" t="s">
         <v>27</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
@@ -3450,25 +3438,29 @@
         <v>4</v>
       </c>
       <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
+      <c r="C11" s="7" t="s">
+        <v>106</v>
+      </c>
       <c r="D11" s="9" t="s">
-        <v>418</v>
-      </c>
-      <c r="E11" s="7"/>
+        <v>340</v>
+      </c>
+      <c r="E11" s="9"/>
       <c r="F11" s="9" t="s">
-        <v>419</v>
+        <v>341</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>420</v>
+        <v>14</v>
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="7" t="s">
         <v>27</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>415</v>
-      </c>
-      <c r="K11" s="7"/>
+        <v>28</v>
+      </c>
+      <c r="K11" s="7">
+        <v>50</v>
+      </c>
       <c r="L11" s="7"/>
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
@@ -3480,18 +3472,16 @@
         <v>5</v>
       </c>
       <c r="B12" s="7"/>
-      <c r="C12" s="7" t="s">
-        <v>106</v>
-      </c>
+      <c r="C12" s="7"/>
       <c r="D12" s="9" t="s">
-        <v>341</v>
-      </c>
-      <c r="E12" s="9"/>
+        <v>60</v>
+      </c>
+      <c r="E12" s="7"/>
       <c r="F12" s="9" t="s">
-        <v>342</v>
+        <v>142</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>14</v>
+        <v>240</v>
       </c>
       <c r="H12" s="9"/>
       <c r="I12" s="7" t="s">
@@ -3501,7 +3491,7 @@
         <v>28</v>
       </c>
       <c r="K12" s="7">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L12" s="7"/>
       <c r="M12" s="9"/>
@@ -3516,14 +3506,14 @@
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="9" t="s">
-        <v>60</v>
+        <v>361</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="9" t="s">
-        <v>142</v>
+        <v>362</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>241</v>
+        <v>364</v>
       </c>
       <c r="H13" s="9"/>
       <c r="I13" s="7" t="s">
@@ -3533,10 +3523,12 @@
         <v>28</v>
       </c>
       <c r="K13" s="7">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="L13" s="7"/>
-      <c r="M13" s="9"/>
+      <c r="M13" s="9" t="s">
+        <v>363</v>
+      </c>
       <c r="N13" s="9"/>
       <c r="O13" s="7"/>
       <c r="P13" s="1"/>
@@ -3548,29 +3540,23 @@
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="9" t="s">
-        <v>362</v>
+        <v>412</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="9" t="s">
-        <v>363</v>
+        <v>412</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>365</v>
+        <v>6</v>
       </c>
       <c r="H14" s="9"/>
-      <c r="I14" s="7" t="s">
-        <v>27</v>
-      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K14" s="7">
-        <v>10</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="K14" s="7"/>
       <c r="L14" s="7"/>
-      <c r="M14" s="9" t="s">
-        <v>364</v>
-      </c>
+      <c r="M14" s="9"/>
       <c r="N14" s="9"/>
       <c r="O14" s="7"/>
       <c r="P14" s="1"/>
@@ -3582,14 +3568,14 @@
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="9" t="s">
-        <v>416</v>
+        <v>342</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="9" t="s">
-        <v>416</v>
+        <v>343</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H15" s="9"/>
       <c r="I15" s="7"/>
@@ -3599,7 +3585,9 @@
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
       <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
+      <c r="N15" s="9">
+        <v>0</v>
+      </c>
       <c r="O15" s="7"/>
       <c r="P15" s="1"/>
     </row>
@@ -3610,26 +3598,26 @@
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="9" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="9" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>7</v>
+        <v>346</v>
       </c>
       <c r="H16" s="9"/>
       <c r="I16" s="7"/>
       <c r="J16" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="K16" s="7"/>
+        <v>28</v>
+      </c>
+      <c r="K16" s="7">
+        <v>10</v>
+      </c>
       <c r="L16" s="7"/>
       <c r="M16" s="9"/>
-      <c r="N16" s="9">
-        <v>0</v>
-      </c>
+      <c r="N16" s="9"/>
       <c r="O16" s="7"/>
       <c r="P16" s="1"/>
     </row>
@@ -3640,14 +3628,14 @@
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="9" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="9" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="H17" s="9"/>
       <c r="I17" s="7"/>
@@ -3655,7 +3643,7 @@
         <v>28</v>
       </c>
       <c r="K17" s="7">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="L17" s="7"/>
       <c r="M17" s="9"/>
@@ -3670,14 +3658,14 @@
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="9" t="s">
-        <v>353</v>
+        <v>398</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="9" t="s">
-        <v>354</v>
+        <v>399</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>355</v>
+        <v>400</v>
       </c>
       <c r="H18" s="9"/>
       <c r="I18" s="7"/>
@@ -3685,10 +3673,12 @@
         <v>28</v>
       </c>
       <c r="K18" s="7">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="L18" s="7"/>
-      <c r="M18" s="9"/>
+      <c r="M18" s="9" t="s">
+        <v>391</v>
+      </c>
       <c r="N18" s="9"/>
       <c r="O18" s="7"/>
       <c r="P18" s="1"/>
@@ -3700,14 +3690,14 @@
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="9" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="9" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>401</v>
+        <v>62</v>
       </c>
       <c r="H19" s="9"/>
       <c r="I19" s="7"/>
@@ -3715,11 +3705,11 @@
         <v>28</v>
       </c>
       <c r="K19" s="7">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="L19" s="7"/>
       <c r="M19" s="9" t="s">
-        <v>392</v>
+        <v>347</v>
       </c>
       <c r="N19" s="9"/>
       <c r="O19" s="7"/>
@@ -3732,14 +3722,14 @@
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="9" t="s">
-        <v>397</v>
+        <v>365</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="9" t="s">
-        <v>398</v>
+        <v>366</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>62</v>
+        <v>367</v>
       </c>
       <c r="H20" s="9"/>
       <c r="I20" s="7"/>
@@ -3747,12 +3737,10 @@
         <v>28</v>
       </c>
       <c r="K20" s="7">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L20" s="7"/>
-      <c r="M20" s="9" t="s">
-        <v>348</v>
-      </c>
+      <c r="M20" s="9"/>
       <c r="N20" s="9"/>
       <c r="O20" s="7"/>
       <c r="P20" s="1"/>
@@ -3764,11 +3752,11 @@
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="9" t="s">
-        <v>366</v>
+        <v>419</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="9" t="s">
-        <v>367</v>
+        <v>420</v>
       </c>
       <c r="G21" s="9" t="s">
         <v>368</v>
@@ -3784,7 +3772,9 @@
       <c r="L21" s="7"/>
       <c r="M21" s="9"/>
       <c r="N21" s="9"/>
-      <c r="O21" s="7"/>
+      <c r="O21" s="7" t="s">
+        <v>369</v>
+      </c>
       <c r="P21" s="1"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
@@ -3794,14 +3784,14 @@
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="9" t="s">
-        <v>423</v>
+        <v>348</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="9" t="s">
-        <v>424</v>
+        <v>349</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>369</v>
+        <v>9</v>
       </c>
       <c r="H22" s="9"/>
       <c r="I22" s="7"/>
@@ -3809,14 +3799,12 @@
         <v>28</v>
       </c>
       <c r="K22" s="7">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L22" s="7"/>
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
-      <c r="O22" s="7" t="s">
-        <v>370</v>
-      </c>
+      <c r="O22" s="7"/>
       <c r="P22" s="1"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
@@ -3826,14 +3814,14 @@
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="9" t="s">
-        <v>349</v>
+        <v>417</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="9" t="s">
-        <v>350</v>
+        <v>418</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="H23" s="9"/>
       <c r="I23" s="7"/>
@@ -3841,7 +3829,7 @@
         <v>28</v>
       </c>
       <c r="K23" s="7">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L23" s="7"/>
       <c r="M23" s="9"/>
@@ -3856,14 +3844,14 @@
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="9" t="s">
-        <v>421</v>
+        <v>350</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="9" t="s">
-        <v>422</v>
+        <v>351</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>97</v>
+        <v>357</v>
       </c>
       <c r="H24" s="9"/>
       <c r="I24" s="7"/>
@@ -3871,7 +3859,7 @@
         <v>28</v>
       </c>
       <c r="K24" s="7">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L24" s="7"/>
       <c r="M24" s="9"/>
@@ -3886,14 +3874,14 @@
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="9" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="9" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>358</v>
+        <v>57</v>
       </c>
       <c r="H25" s="9"/>
       <c r="I25" s="7"/>
@@ -3901,7 +3889,7 @@
         <v>28</v>
       </c>
       <c r="K25" s="7">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L25" s="7"/>
       <c r="M25" s="9"/>
@@ -3916,14 +3904,14 @@
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="9" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E26" s="7"/>
       <c r="F26" s="9" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>57</v>
+        <v>360</v>
       </c>
       <c r="H26" s="9"/>
       <c r="I26" s="7"/>
@@ -3946,14 +3934,14 @@
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="9" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="9" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="H27" s="9"/>
       <c r="I27" s="7"/>
@@ -3961,7 +3949,7 @@
         <v>28</v>
       </c>
       <c r="K27" s="7">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L27" s="7"/>
       <c r="M27" s="9"/>
@@ -3976,22 +3964,24 @@
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="9" t="s">
-        <v>371</v>
+        <v>424</v>
       </c>
       <c r="E28" s="7"/>
       <c r="F28" s="9" t="s">
-        <v>372</v>
+        <v>425</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>373</v>
-      </c>
-      <c r="H28" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>100</v>
+      </c>
       <c r="I28" s="7"/>
       <c r="J28" s="9" t="s">
         <v>28</v>
       </c>
       <c r="K28" s="7">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="L28" s="7"/>
       <c r="M28" s="9"/>
@@ -4006,27 +3996,27 @@
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="9" t="s">
-        <v>428</v>
+        <v>33</v>
       </c>
       <c r="E29" s="7"/>
       <c r="F29" s="9" t="s">
-        <v>429</v>
+        <v>34</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H29" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="I29" s="7"/>
+        <v>95</v>
+      </c>
+      <c r="H29" s="9"/>
+      <c r="I29" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="J29" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K29" s="7">
-        <v>1000</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="K29" s="7"/>
       <c r="L29" s="7"/>
-      <c r="M29" s="9"/>
+      <c r="M29" s="9" t="s">
+        <v>231</v>
+      </c>
       <c r="N29" s="9"/>
       <c r="O29" s="7"/>
       <c r="P29" s="1"/>
@@ -4038,16 +4028,20 @@
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E30" s="7"/>
+        <v>36</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>104</v>
+      </c>
       <c r="F30" s="9" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="H30" s="9"/>
+        <v>38</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>88</v>
+      </c>
       <c r="I30" s="7" t="s">
         <v>27</v>
       </c>
@@ -4056,9 +4050,7 @@
       </c>
       <c r="K30" s="7"/>
       <c r="L30" s="7"/>
-      <c r="M30" s="9" t="s">
-        <v>232</v>
-      </c>
+      <c r="M30" s="9"/>
       <c r="N30" s="9"/>
       <c r="O30" s="7"/>
       <c r="P30" s="1"/>
@@ -4070,27 +4062,29 @@
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="D31" s="9" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>104</v>
+        <v>232</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I31" s="7" t="s">
         <v>27</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="K31" s="7"/>
+        <v>28</v>
+      </c>
+      <c r="K31" s="7">
+        <v>50</v>
+      </c>
       <c r="L31" s="7"/>
       <c r="M31" s="9"/>
       <c r="N31" s="9"/>
@@ -4104,29 +4098,27 @@
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
       <c r="D32" s="9" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I32" s="7" t="s">
         <v>27</v>
       </c>
       <c r="J32" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K32" s="7">
-        <v>50</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="K32" s="7"/>
       <c r="L32" s="7"/>
       <c r="M32" s="9"/>
       <c r="N32" s="9"/>
@@ -4140,27 +4132,29 @@
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
       <c r="D33" s="9" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H33" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I33" s="7" t="s">
         <v>27</v>
       </c>
       <c r="J33" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="K33" s="7"/>
+        <v>28</v>
+      </c>
+      <c r="K33" s="7">
+        <v>50</v>
+      </c>
       <c r="L33" s="7"/>
       <c r="M33" s="9"/>
       <c r="N33" s="9"/>
@@ -4174,29 +4168,27 @@
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
       <c r="D34" s="9" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="I34" s="7" t="s">
         <v>27</v>
       </c>
       <c r="J34" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K34" s="7">
-        <v>50</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="K34" s="7"/>
       <c r="L34" s="7"/>
       <c r="M34" s="9"/>
       <c r="N34" s="9"/>
@@ -4210,27 +4202,27 @@
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
       <c r="D35" s="9" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>233</v>
+        <v>105</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="I35" s="7" t="s">
-        <v>27</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="I35" s="7"/>
       <c r="J35" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="K35" s="7"/>
+        <v>28</v>
+      </c>
+      <c r="K35" s="7">
+        <v>200</v>
+      </c>
       <c r="L35" s="7"/>
       <c r="M35" s="9"/>
       <c r="N35" s="9"/>
@@ -4238,135 +4230,123 @@
       <c r="P35" s="1"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A36" s="7">
-        <v>29</v>
-      </c>
+      <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
-      <c r="D36" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F36" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="G36" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H36" s="9" t="s">
-        <v>101</v>
-      </c>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
       <c r="I36" s="7"/>
-      <c r="J36" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K36" s="7">
-        <v>200</v>
-      </c>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
       <c r="L36" s="7"/>
       <c r="M36" s="9"/>
       <c r="N36" s="9"/>
       <c r="O36" s="7"/>
       <c r="P36" s="1"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="7"/>
-      <c r="L37" s="7"/>
-      <c r="M37" s="9"/>
-      <c r="N37" s="9"/>
-      <c r="O37" s="7"/>
-      <c r="P37" s="1"/>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A38" s="71" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38" s="72"/>
+      <c r="C38" s="72"/>
+      <c r="D38" s="72"/>
+      <c r="E38" s="72"/>
+      <c r="F38" s="72"/>
+      <c r="G38" s="72"/>
+      <c r="H38" s="72"/>
+      <c r="I38" s="72"/>
+      <c r="J38" s="72"/>
+      <c r="K38" s="72"/>
+      <c r="L38" s="72"/>
+      <c r="M38" s="72"/>
+      <c r="N38" s="72"/>
+      <c r="O38" s="72"/>
+      <c r="P38" s="73"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A39" s="71" t="s">
-        <v>13</v>
-      </c>
-      <c r="B39" s="72"/>
-      <c r="C39" s="72"/>
-      <c r="D39" s="72"/>
-      <c r="E39" s="72"/>
-      <c r="F39" s="72"/>
-      <c r="G39" s="72"/>
-      <c r="H39" s="72"/>
-      <c r="I39" s="72"/>
-      <c r="J39" s="72"/>
-      <c r="K39" s="72"/>
-      <c r="L39" s="72"/>
-      <c r="M39" s="72"/>
-      <c r="N39" s="72"/>
-      <c r="O39" s="72"/>
-      <c r="P39" s="73"/>
+      <c r="A39" s="27">
+        <v>1</v>
+      </c>
+      <c r="B39" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" s="55"/>
+      <c r="D39" s="32" t="s">
+        <v>336</v>
+      </c>
+      <c r="E39" s="34"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H39" s="32" t="s">
+        <v>337</v>
+      </c>
+      <c r="I39" s="34"/>
+      <c r="J39" s="33"/>
+      <c r="K39" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="L39" s="57"/>
+      <c r="M39" s="74" t="s">
+        <v>338</v>
+      </c>
+      <c r="N39" s="75"/>
+      <c r="O39" s="75"/>
+      <c r="P39" s="76"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A40" s="27">
-        <v>1</v>
-      </c>
+      <c r="A40" s="28"/>
       <c r="B40" s="54" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C40" s="55"/>
       <c r="D40" s="32" t="s">
-        <v>337</v>
+        <v>281</v>
       </c>
       <c r="E40" s="34"/>
       <c r="F40" s="34"/>
       <c r="G40" s="2" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="H40" s="32" t="s">
-        <v>338</v>
+        <v>280</v>
       </c>
       <c r="I40" s="34"/>
       <c r="J40" s="33"/>
       <c r="K40" s="56" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="L40" s="57"/>
-      <c r="M40" s="74" t="s">
-        <v>339</v>
-      </c>
-      <c r="N40" s="75"/>
-      <c r="O40" s="75"/>
-      <c r="P40" s="76"/>
+      <c r="M40" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="N40" s="52"/>
+      <c r="O40" s="52"/>
+      <c r="P40" s="53"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="28"/>
       <c r="B41" s="54" t="s">
-        <v>4</v>
+        <v>98</v>
       </c>
       <c r="C41" s="55"/>
-      <c r="D41" s="32" t="s">
-        <v>282</v>
-      </c>
+      <c r="D41" s="32"/>
       <c r="E41" s="34"/>
       <c r="F41" s="34"/>
-      <c r="G41" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H41" s="32" t="s">
-        <v>281</v>
-      </c>
+      <c r="G41" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="H41" s="34"/>
       <c r="I41" s="34"/>
       <c r="J41" s="33"/>
-      <c r="K41" s="56" t="s">
-        <v>66</v>
-      </c>
-      <c r="L41" s="57"/>
-      <c r="M41" s="51" t="s">
-        <v>67</v>
-      </c>
+      <c r="K41" s="15"/>
+      <c r="L41" s="16"/>
+      <c r="M41" s="51"/>
       <c r="N41" s="52"/>
       <c r="O41" s="52"/>
       <c r="P41" s="53"/>
@@ -4374,111 +4354,107 @@
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" s="28"/>
       <c r="B42" s="54" t="s">
-        <v>98</v>
+        <v>10</v>
       </c>
       <c r="C42" s="55"/>
       <c r="D42" s="32"/>
       <c r="E42" s="34"/>
       <c r="F42" s="34"/>
-      <c r="G42" s="17" t="s">
-        <v>99</v>
-      </c>
+      <c r="G42" s="34"/>
       <c r="H42" s="34"/>
       <c r="I42" s="34"/>
       <c r="J42" s="33"/>
-      <c r="K42" s="15"/>
-      <c r="L42" s="16"/>
-      <c r="M42" s="51"/>
+      <c r="K42" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="L42" s="57"/>
+      <c r="M42" s="51" t="s">
+        <v>143</v>
+      </c>
       <c r="N42" s="52"/>
       <c r="O42" s="52"/>
       <c r="P42" s="53"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" s="28"/>
-      <c r="B43" s="54" t="s">
-        <v>10</v>
-      </c>
-      <c r="C43" s="55"/>
-      <c r="D43" s="32"/>
-      <c r="E43" s="34"/>
-      <c r="F43" s="34"/>
-      <c r="G43" s="34"/>
-      <c r="H43" s="34"/>
-      <c r="I43" s="34"/>
-      <c r="J43" s="33"/>
-      <c r="K43" s="56" t="s">
-        <v>9</v>
-      </c>
-      <c r="L43" s="57"/>
-      <c r="M43" s="51" t="s">
-        <v>143</v>
-      </c>
-      <c r="N43" s="52"/>
-      <c r="O43" s="52"/>
-      <c r="P43" s="53"/>
+      <c r="B43" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43" s="69"/>
+      <c r="D43" s="69"/>
+      <c r="E43" s="69"/>
+      <c r="F43" s="69"/>
+      <c r="G43" s="69"/>
+      <c r="H43" s="69"/>
+      <c r="I43" s="69"/>
+      <c r="J43" s="68"/>
+      <c r="K43" s="67"/>
+      <c r="L43" s="68"/>
+      <c r="M43" s="67"/>
+      <c r="N43" s="69"/>
+      <c r="O43" s="69"/>
+      <c r="P43" s="68"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="28"/>
-      <c r="B44" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="C44" s="69"/>
-      <c r="D44" s="69"/>
-      <c r="E44" s="69"/>
-      <c r="F44" s="69"/>
-      <c r="G44" s="69"/>
-      <c r="H44" s="69"/>
-      <c r="I44" s="69"/>
-      <c r="J44" s="68"/>
-      <c r="K44" s="67"/>
-      <c r="L44" s="68"/>
-      <c r="M44" s="67"/>
-      <c r="N44" s="69"/>
-      <c r="O44" s="69"/>
-      <c r="P44" s="68"/>
+      <c r="B44" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C44" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" s="70"/>
+      <c r="E44" s="57"/>
+      <c r="F44" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G44" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="H44" s="57"/>
+      <c r="I44" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="J44" s="57"/>
+      <c r="K44" s="61"/>
+      <c r="L44" s="63"/>
+      <c r="M44" s="61"/>
+      <c r="N44" s="62"/>
+      <c r="O44" s="62"/>
+      <c r="P44" s="63"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" s="28"/>
-      <c r="B45" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C45" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="D45" s="70"/>
-      <c r="E45" s="57"/>
-      <c r="F45" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G45" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="H45" s="57"/>
-      <c r="I45" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="J45" s="57"/>
-      <c r="K45" s="61"/>
-      <c r="L45" s="63"/>
-      <c r="M45" s="61"/>
-      <c r="N45" s="62"/>
-      <c r="O45" s="62"/>
-      <c r="P45" s="63"/>
+      <c r="B45" s="8">
+        <v>1</v>
+      </c>
+      <c r="C45" s="64" t="s">
+        <v>339</v>
+      </c>
+      <c r="D45" s="66"/>
+      <c r="E45" s="65"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="64" t="s">
+        <v>339</v>
+      </c>
+      <c r="H45" s="65"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="58"/>
+      <c r="L45" s="59"/>
+      <c r="M45" s="58"/>
+      <c r="N45" s="60"/>
+      <c r="O45" s="60"/>
+      <c r="P45" s="59"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" s="28"/>
-      <c r="B46" s="8">
-        <v>1</v>
-      </c>
-      <c r="C46" s="64" t="s">
-        <v>340</v>
-      </c>
+      <c r="B46" s="64"/>
+      <c r="C46" s="66"/>
       <c r="D46" s="66"/>
       <c r="E46" s="65"/>
       <c r="F46" s="3"/>
-      <c r="G46" s="64" t="s">
-        <v>340</v>
-      </c>
+      <c r="G46" s="64"/>
       <c r="H46" s="65"/>
       <c r="I46" s="3"/>
       <c r="J46" s="4"/>
@@ -4490,79 +4466,83 @@
       <c r="P46" s="59"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A47" s="28"/>
-      <c r="B47" s="64"/>
-      <c r="C47" s="66"/>
-      <c r="D47" s="66"/>
-      <c r="E47" s="65"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="64"/>
-      <c r="H47" s="65"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="4"/>
-      <c r="K47" s="58"/>
-      <c r="L47" s="59"/>
-      <c r="M47" s="58"/>
-      <c r="N47" s="60"/>
-      <c r="O47" s="60"/>
-      <c r="P47" s="59"/>
+      <c r="A47" s="27">
+        <v>2</v>
+      </c>
+      <c r="B47" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" s="55"/>
+      <c r="D47" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="E47" s="34"/>
+      <c r="F47" s="34"/>
+      <c r="G47" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H47" s="32"/>
+      <c r="I47" s="34"/>
+      <c r="J47" s="33"/>
+      <c r="K47" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="L47" s="57"/>
+      <c r="M47" s="74" t="s">
+        <v>402</v>
+      </c>
+      <c r="N47" s="75"/>
+      <c r="O47" s="75"/>
+      <c r="P47" s="76"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A48" s="27">
-        <v>2</v>
-      </c>
+      <c r="A48" s="28"/>
       <c r="B48" s="54" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C48" s="55"/>
       <c r="D48" s="32" t="s">
-        <v>402</v>
+        <v>8</v>
       </c>
       <c r="E48" s="34"/>
       <c r="F48" s="34"/>
       <c r="G48" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H48" s="32"/>
+        <v>3</v>
+      </c>
+      <c r="H48" s="32" t="s">
+        <v>392</v>
+      </c>
       <c r="I48" s="34"/>
       <c r="J48" s="33"/>
       <c r="K48" s="56" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="L48" s="57"/>
-      <c r="M48" s="74" t="s">
-        <v>403</v>
-      </c>
-      <c r="N48" s="75"/>
-      <c r="O48" s="75"/>
-      <c r="P48" s="76"/>
+      <c r="M48" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="N48" s="52"/>
+      <c r="O48" s="52"/>
+      <c r="P48" s="53"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" s="28"/>
       <c r="B49" s="54" t="s">
-        <v>4</v>
+        <v>98</v>
       </c>
       <c r="C49" s="55"/>
-      <c r="D49" s="32" t="s">
-        <v>8</v>
-      </c>
+      <c r="D49" s="32"/>
       <c r="E49" s="34"/>
       <c r="F49" s="34"/>
-      <c r="G49" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H49" s="32" t="s">
-        <v>393</v>
-      </c>
+      <c r="G49" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="H49" s="34"/>
       <c r="I49" s="34"/>
       <c r="J49" s="33"/>
-      <c r="K49" s="56" t="s">
-        <v>66</v>
-      </c>
-      <c r="L49" s="57"/>
-      <c r="M49" s="51" t="s">
-        <v>67</v>
-      </c>
+      <c r="K49" s="15"/>
+      <c r="L49" s="16"/>
+      <c r="M49" s="51"/>
       <c r="N49" s="52"/>
       <c r="O49" s="52"/>
       <c r="P49" s="53"/>
@@ -4570,111 +4550,107 @@
     <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50" s="28"/>
       <c r="B50" s="54" t="s">
-        <v>98</v>
+        <v>10</v>
       </c>
       <c r="C50" s="55"/>
       <c r="D50" s="32"/>
       <c r="E50" s="34"/>
       <c r="F50" s="34"/>
-      <c r="G50" s="17" t="s">
-        <v>99</v>
-      </c>
+      <c r="G50" s="34"/>
       <c r="H50" s="34"/>
       <c r="I50" s="34"/>
       <c r="J50" s="33"/>
-      <c r="K50" s="15"/>
-      <c r="L50" s="16"/>
-      <c r="M50" s="51"/>
+      <c r="K50" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="L50" s="57"/>
+      <c r="M50" s="51" t="s">
+        <v>102</v>
+      </c>
       <c r="N50" s="52"/>
       <c r="O50" s="52"/>
       <c r="P50" s="53"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51" s="28"/>
-      <c r="B51" s="54" t="s">
-        <v>10</v>
-      </c>
-      <c r="C51" s="55"/>
-      <c r="D51" s="32"/>
-      <c r="E51" s="34"/>
-      <c r="F51" s="34"/>
-      <c r="G51" s="34"/>
-      <c r="H51" s="34"/>
-      <c r="I51" s="34"/>
-      <c r="J51" s="33"/>
-      <c r="K51" s="56" t="s">
-        <v>9</v>
-      </c>
-      <c r="L51" s="57"/>
-      <c r="M51" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="N51" s="52"/>
-      <c r="O51" s="52"/>
-      <c r="P51" s="53"/>
+      <c r="B51" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="C51" s="69"/>
+      <c r="D51" s="69"/>
+      <c r="E51" s="69"/>
+      <c r="F51" s="69"/>
+      <c r="G51" s="69"/>
+      <c r="H51" s="69"/>
+      <c r="I51" s="69"/>
+      <c r="J51" s="68"/>
+      <c r="K51" s="67"/>
+      <c r="L51" s="68"/>
+      <c r="M51" s="67"/>
+      <c r="N51" s="69"/>
+      <c r="O51" s="69"/>
+      <c r="P51" s="68"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52" s="28"/>
-      <c r="B52" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="C52" s="69"/>
-      <c r="D52" s="69"/>
-      <c r="E52" s="69"/>
-      <c r="F52" s="69"/>
-      <c r="G52" s="69"/>
-      <c r="H52" s="69"/>
-      <c r="I52" s="69"/>
-      <c r="J52" s="68"/>
-      <c r="K52" s="67"/>
-      <c r="L52" s="68"/>
-      <c r="M52" s="67"/>
-      <c r="N52" s="69"/>
-      <c r="O52" s="69"/>
-      <c r="P52" s="68"/>
+      <c r="B52" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C52" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="D52" s="70"/>
+      <c r="E52" s="57"/>
+      <c r="F52" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G52" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="H52" s="57"/>
+      <c r="I52" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="J52" s="57"/>
+      <c r="K52" s="61"/>
+      <c r="L52" s="63"/>
+      <c r="M52" s="61"/>
+      <c r="N52" s="62"/>
+      <c r="O52" s="62"/>
+      <c r="P52" s="63"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53" s="28"/>
-      <c r="B53" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C53" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="D53" s="70"/>
-      <c r="E53" s="57"/>
-      <c r="F53" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G53" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="H53" s="57"/>
-      <c r="I53" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="J53" s="57"/>
-      <c r="K53" s="61"/>
-      <c r="L53" s="63"/>
-      <c r="M53" s="61"/>
-      <c r="N53" s="62"/>
-      <c r="O53" s="62"/>
-      <c r="P53" s="63"/>
+      <c r="B53" s="8">
+        <v>1</v>
+      </c>
+      <c r="C53" s="64" t="s">
+        <v>403</v>
+      </c>
+      <c r="D53" s="66"/>
+      <c r="E53" s="65"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="64" t="s">
+        <v>403</v>
+      </c>
+      <c r="H53" s="65"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="58"/>
+      <c r="L53" s="59"/>
+      <c r="M53" s="58"/>
+      <c r="N53" s="60"/>
+      <c r="O53" s="60"/>
+      <c r="P53" s="59"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54" s="28"/>
-      <c r="B54" s="8">
-        <v>1</v>
-      </c>
-      <c r="C54" s="64" t="s">
-        <v>404</v>
-      </c>
+      <c r="B54" s="64"/>
+      <c r="C54" s="66"/>
       <c r="D54" s="66"/>
       <c r="E54" s="65"/>
       <c r="F54" s="3"/>
-      <c r="G54" s="64" t="s">
-        <v>404</v>
-      </c>
+      <c r="G54" s="64"/>
       <c r="H54" s="65"/>
       <c r="I54" s="3"/>
       <c r="J54" s="4"/>
@@ -4684,24 +4660,6 @@
       <c r="N54" s="60"/>
       <c r="O54" s="60"/>
       <c r="P54" s="59"/>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A55" s="28"/>
-      <c r="B55" s="64"/>
-      <c r="C55" s="66"/>
-      <c r="D55" s="66"/>
-      <c r="E55" s="65"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="64"/>
-      <c r="H55" s="65"/>
-      <c r="I55" s="3"/>
-      <c r="J55" s="4"/>
-      <c r="K55" s="58"/>
-      <c r="L55" s="59"/>
-      <c r="M55" s="58"/>
-      <c r="N55" s="60"/>
-      <c r="O55" s="60"/>
-      <c r="P55" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="84">
@@ -4718,8 +4676,13 @@
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="D4:L4"/>
     <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A39:P39"/>
-    <mergeCell ref="A40:A47"/>
+    <mergeCell ref="A38:P38"/>
+    <mergeCell ref="A39:A46"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:P39"/>
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="D40:F40"/>
     <mergeCell ref="H40:J40"/>
@@ -4728,72 +4691,67 @@
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="D41:F41"/>
     <mergeCell ref="H41:J41"/>
-    <mergeCell ref="K41:L41"/>
     <mergeCell ref="M41:P41"/>
     <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="D42:J42"/>
+    <mergeCell ref="K42:L42"/>
     <mergeCell ref="M42:P42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:J43"/>
+    <mergeCell ref="B43:J43"/>
     <mergeCell ref="K43:L43"/>
     <mergeCell ref="M43:P43"/>
-    <mergeCell ref="B44:J44"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="M44:P44"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="M47:P47"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="M45:P45"/>
-    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="B46:E46"/>
     <mergeCell ref="G46:H46"/>
     <mergeCell ref="K46:L46"/>
     <mergeCell ref="M46:P46"/>
-    <mergeCell ref="A48:A55"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="M44:P44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="M45:P45"/>
+    <mergeCell ref="A47:A54"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="B51:J51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="M47:P47"/>
     <mergeCell ref="B48:C48"/>
     <mergeCell ref="D48:F48"/>
     <mergeCell ref="H48:J48"/>
     <mergeCell ref="K48:L48"/>
+    <mergeCell ref="M48:P48"/>
+    <mergeCell ref="M49:P49"/>
     <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="B52:J52"/>
+    <mergeCell ref="D50:J50"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="M50:P50"/>
+    <mergeCell ref="M51:P51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="I52:J52"/>
     <mergeCell ref="K52:L52"/>
-    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="M52:P52"/>
+    <mergeCell ref="M53:P53"/>
+    <mergeCell ref="B54:E54"/>
     <mergeCell ref="G54:H54"/>
     <mergeCell ref="K54:L54"/>
-    <mergeCell ref="M48:P48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="M49:P49"/>
-    <mergeCell ref="M50:P50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:J51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="M51:P51"/>
-    <mergeCell ref="M52:P52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="M53:P53"/>
     <mergeCell ref="M54:P54"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="M55:P55"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="M40:P40" location="nop_dyn_entity_meta!A1" display="NopDynEntityMeta" xr:uid="{33AE4065-0F68-4806-879B-8B3C0D52F0DF}"/>
-    <hyperlink ref="M48:P48" location="nop_dyn_domain!A1" display="NopDynDomain" xr:uid="{5E9AFE7B-6052-4101-8215-3EB9FF91CEF6}"/>
+    <hyperlink ref="M39:P39" location="nop_dyn_entity_meta!A1" display="NopDynEntityMeta" xr:uid="{33AE4065-0F68-4806-879B-8B3C0D52F0DF}"/>
+    <hyperlink ref="M47:P47" location="nop_dyn_domain!A1" display="NopDynDomain" xr:uid="{5E9AFE7B-6052-4101-8215-3EB9FF91CEF6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -4831,7 +4789,7 @@
       <c r="B1" s="47"/>
       <c r="C1" s="47"/>
       <c r="D1" s="48" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="E1" s="49"/>
       <c r="F1" s="49"/>
@@ -4855,7 +4813,7 @@
       <c r="B2" s="47"/>
       <c r="C2" s="47"/>
       <c r="D2" s="48" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="E2" s="49"/>
       <c r="F2" s="49"/>
@@ -4864,7 +4822,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="51" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="J2" s="52"/>
       <c r="K2" s="52"/>
@@ -5013,16 +4971,16 @@
         <v>87</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>104</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="H8" s="9"/>
       <c r="I8" s="7" t="s">
@@ -5047,14 +5005,14 @@
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="9" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="7" t="s">
@@ -5079,14 +5037,14 @@
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="9" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="9" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="7" t="s">
@@ -5111,14 +5069,14 @@
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="9" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="9" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="7" t="s">
@@ -5143,14 +5101,14 @@
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="9" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="9" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="H12" s="9"/>
       <c r="I12" s="7" t="s">
@@ -5175,14 +5133,14 @@
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="9" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="9" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H13" s="9"/>
       <c r="I13" s="7" t="s">
@@ -5207,14 +5165,14 @@
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="9" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="9" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H14" s="9"/>
       <c r="I14" s="7"/>
@@ -5237,14 +5195,14 @@
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="9" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="9" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="H15" s="9"/>
       <c r="I15" s="7"/>
@@ -5267,11 +5225,11 @@
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="9" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="9" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G16" s="9" t="s">
         <v>9</v>
@@ -5327,11 +5285,11 @@
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="9" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="9" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="G18" s="9" t="s">
         <v>12</v>
@@ -5599,7 +5557,7 @@
       </c>
       <c r="C28" s="55"/>
       <c r="D28" s="32" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="E28" s="34"/>
       <c r="F28" s="34"/>
@@ -5614,7 +5572,7 @@
       </c>
       <c r="L28" s="57"/>
       <c r="M28" s="74" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="N28" s="75"/>
       <c r="O28" s="75"/>
@@ -5627,7 +5585,7 @@
       </c>
       <c r="C29" s="55"/>
       <c r="D29" s="32" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="E29" s="34"/>
       <c r="F29" s="34"/>
@@ -5635,7 +5593,7 @@
         <v>3</v>
       </c>
       <c r="H29" s="32" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="I29" s="34"/>
       <c r="J29" s="33"/>
@@ -5750,13 +5708,13 @@
         <v>1</v>
       </c>
       <c r="C34" s="64" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="D34" s="66"/>
       <c r="E34" s="65"/>
       <c r="F34" s="3"/>
       <c r="G34" s="64" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H34" s="65"/>
       <c r="I34" s="3"/>
@@ -5795,7 +5753,7 @@
       </c>
       <c r="C36" s="55"/>
       <c r="D36" s="32" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="E36" s="34"/>
       <c r="F36" s="34"/>
@@ -5810,7 +5768,7 @@
       </c>
       <c r="L36" s="57"/>
       <c r="M36" s="74" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="N36" s="75"/>
       <c r="O36" s="75"/>
@@ -5823,7 +5781,7 @@
       </c>
       <c r="C37" s="55"/>
       <c r="D37" s="32" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="E37" s="34"/>
       <c r="F37" s="34"/>
@@ -5831,7 +5789,7 @@
         <v>3</v>
       </c>
       <c r="H37" s="32" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="I37" s="34"/>
       <c r="J37" s="33"/>
@@ -5946,13 +5904,13 @@
         <v>1</v>
       </c>
       <c r="C42" s="64" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="D42" s="66"/>
       <c r="E42" s="65"/>
       <c r="F42" s="3"/>
       <c r="G42" s="64" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H42" s="65"/>
       <c r="I42" s="3"/>
@@ -6110,7 +6068,7 @@
       <c r="B1" s="47"/>
       <c r="C1" s="47"/>
       <c r="D1" s="48" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="E1" s="49"/>
       <c r="F1" s="49"/>
@@ -6134,7 +6092,7 @@
       <c r="B2" s="47"/>
       <c r="C2" s="47"/>
       <c r="D2" s="48" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="E2" s="49"/>
       <c r="F2" s="49"/>
@@ -6143,7 +6101,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="51" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="J2" s="52"/>
       <c r="K2" s="52"/>
@@ -6292,16 +6250,16 @@
         <v>87</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>104</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="H8" s="9"/>
       <c r="I8" s="7" t="s">
@@ -6326,14 +6284,14 @@
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="9" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="7" t="s">
@@ -6367,7 +6325,7 @@
         <v>148</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="7" t="s">
@@ -6399,7 +6357,7 @@
         <v>142</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="7" t="s">
@@ -6424,14 +6382,14 @@
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="9" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="9" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="H12" s="9"/>
       <c r="I12" s="7" t="s">
@@ -6445,7 +6403,7 @@
       </c>
       <c r="L12" s="7"/>
       <c r="M12" s="9" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="N12" s="9"/>
       <c r="O12" s="7"/>
@@ -6458,17 +6416,17 @@
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="9" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="9" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="I13" s="7" t="s">
         <v>27</v>
@@ -6481,7 +6439,7 @@
       </c>
       <c r="L13" s="7"/>
       <c r="M13" s="9" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="N13" s="9"/>
       <c r="O13" s="7"/>
@@ -6494,14 +6452,14 @@
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="9" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="9" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="H14" s="9"/>
       <c r="I14" s="7"/>
@@ -6524,11 +6482,11 @@
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="9" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="9" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G15" s="9" t="s">
         <v>9</v>
@@ -6554,17 +6512,17 @@
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="9" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="9" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="I16" s="7"/>
       <c r="J16" s="9" t="s">
@@ -6605,7 +6563,7 @@
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
       <c r="M17" s="9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="N17" s="9"/>
       <c r="O17" s="7"/>
@@ -6655,7 +6613,7 @@
         <v>39</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F19" s="9" t="s">
         <v>40</v>
@@ -6691,7 +6649,7 @@
         <v>43</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F20" s="9" t="s">
         <v>44</v>
@@ -6725,7 +6683,7 @@
         <v>47</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F21" s="9" t="s">
         <v>48</v>
@@ -6761,7 +6719,7 @@
         <v>50</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F22" s="9" t="s">
         <v>51</v>
@@ -6866,7 +6824,7 @@
       </c>
       <c r="C27" s="55"/>
       <c r="D27" s="32" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E27" s="34"/>
       <c r="F27" s="34"/>
@@ -6874,7 +6832,7 @@
         <v>57</v>
       </c>
       <c r="H27" s="32" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="I27" s="34"/>
       <c r="J27" s="33"/>
@@ -6883,7 +6841,7 @@
       </c>
       <c r="L27" s="57"/>
       <c r="M27" s="74" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="N27" s="75"/>
       <c r="O27" s="75"/>
@@ -6896,7 +6854,7 @@
       </c>
       <c r="C28" s="55"/>
       <c r="D28" s="32" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E28" s="34"/>
       <c r="F28" s="34"/>
@@ -6904,7 +6862,7 @@
         <v>3</v>
       </c>
       <c r="H28" s="32" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I28" s="34"/>
       <c r="J28" s="33"/>
@@ -6926,7 +6884,7 @@
       </c>
       <c r="C29" s="55"/>
       <c r="D29" s="32" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="E29" s="34"/>
       <c r="F29" s="34"/>
@@ -6934,7 +6892,7 @@
         <v>99</v>
       </c>
       <c r="H29" s="34" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="I29" s="34"/>
       <c r="J29" s="33"/>
@@ -7023,13 +6981,13 @@
         <v>1</v>
       </c>
       <c r="C33" s="64" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D33" s="66"/>
       <c r="E33" s="65"/>
       <c r="F33" s="3"/>
       <c r="G33" s="64" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H33" s="65"/>
       <c r="I33" s="3"/>
@@ -7124,7 +7082,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D349AB67-F500-46D9-95AE-D8168334F4A6}">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4:L4"/>
     </sheetView>
   </sheetViews>
@@ -7151,7 +7109,7 @@
       <c r="B1" s="47"/>
       <c r="C1" s="47"/>
       <c r="D1" s="48" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E1" s="49"/>
       <c r="F1" s="49"/>
@@ -7184,7 +7142,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="51" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="J2" s="52"/>
       <c r="K2" s="52"/>
@@ -7201,7 +7159,7 @@
       <c r="B3" s="47"/>
       <c r="C3" s="47"/>
       <c r="D3" s="48" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="E3" s="49"/>
       <c r="F3" s="49"/>
@@ -7335,14 +7293,14 @@
         <v>87</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="G8" s="9" t="s">
         <v>400</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>401</v>
       </c>
       <c r="H8" s="9"/>
       <c r="I8" s="7" t="s">
@@ -7367,14 +7325,14 @@
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="9" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="G9" s="9" t="s">
         <v>395</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>396</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="7" t="s">
@@ -7406,7 +7364,7 @@
         <v>142</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="7" t="s">
@@ -7431,11 +7389,11 @@
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="9" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="9" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G11" s="9" t="s">
         <v>62</v>
@@ -7450,7 +7408,7 @@
       </c>
       <c r="L11" s="7"/>
       <c r="M11" s="9" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="N11" s="9"/>
       <c r="O11" s="7"/>
@@ -7463,14 +7421,14 @@
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="9" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="9" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H12" s="9"/>
       <c r="I12" s="7" t="s">
@@ -7484,7 +7442,7 @@
       </c>
       <c r="L12" s="7"/>
       <c r="M12" s="9" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="N12" s="9"/>
       <c r="O12" s="7"/>
@@ -7497,11 +7455,11 @@
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="9" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="9" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="G13" s="9" t="s">
         <v>6</v>
@@ -7525,11 +7483,11 @@
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="9" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="9" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G14" s="9" t="s">
         <v>7</v>
@@ -7792,8 +7750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2A916FD-1DF6-4F49-9D99-66DD7EC19D8D}">
   <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -7819,7 +7777,7 @@
       <c r="B1" s="47"/>
       <c r="C1" s="47"/>
       <c r="D1" s="48" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E1" s="49"/>
       <c r="F1" s="49"/>
@@ -7869,7 +7827,7 @@
       <c r="B3" s="47"/>
       <c r="C3" s="47"/>
       <c r="D3" s="48" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E3" s="49"/>
       <c r="F3" s="49"/>
@@ -8035,11 +7993,11 @@
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="9" t="s">
-        <v>169</v>
+        <v>517</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G9" s="9" t="s">
         <v>168</v>
@@ -8157,7 +8115,7 @@
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="9" t="s">
@@ -8187,14 +8145,14 @@
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="G14" s="9" t="s">
         <v>218</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>219</v>
       </c>
       <c r="H14" s="9"/>
       <c r="I14" s="7"/>
@@ -8215,7 +8173,7 @@
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="9" t="s">
@@ -8377,16 +8335,16 @@
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>104</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H20" s="9"/>
       <c r="I20" s="7"/>
@@ -8409,16 +8367,16 @@
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>104</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H21" s="9"/>
       <c r="I21" s="7"/>
@@ -8443,16 +8401,16 @@
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>104</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H22" s="9"/>
       <c r="I22" s="7"/>
@@ -8473,16 +8431,16 @@
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>104</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H23" s="9"/>
       <c r="I23" s="7"/>
@@ -8503,16 +8461,16 @@
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>104</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H24" s="9"/>
       <c r="I24" s="7"/>
@@ -8533,16 +8491,16 @@
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>104</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H25" s="9"/>
       <c r="I25" s="7"/>
@@ -8563,19 +8521,19 @@
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>104</v>
       </c>
       <c r="F26" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="G26" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="G26" s="9" t="s">
+      <c r="H26" s="9" t="s">
         <v>205</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>206</v>
       </c>
       <c r="I26" s="7"/>
       <c r="J26" s="9" t="s">
@@ -8597,16 +8555,16 @@
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>104</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H27" s="9"/>
       <c r="I27" s="7"/>
@@ -8629,16 +8587,16 @@
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>104</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H28" s="9"/>
       <c r="I28" s="7"/>
@@ -8663,16 +8621,16 @@
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>104</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H29" s="9"/>
       <c r="I29" s="7"/>
@@ -8693,16 +8651,16 @@
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>104</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H30" s="9"/>
       <c r="I30" s="7"/>
@@ -8723,16 +8681,16 @@
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="D31" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>104</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H31" s="9"/>
       <c r="I31" s="7"/>
@@ -8753,16 +8711,16 @@
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
       <c r="D32" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>104</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H32" s="9"/>
       <c r="I32" s="7"/>
@@ -8783,19 +8741,19 @@
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
       <c r="D33" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>104</v>
       </c>
       <c r="F33" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="G33" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="G33" s="9" t="s">
-        <v>209</v>
-      </c>
       <c r="H33" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I33" s="7"/>
       <c r="J33" s="9" t="s">
@@ -9082,7 +9040,7 @@
       </c>
       <c r="L43" s="57"/>
       <c r="M43" s="51" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N43" s="52"/>
       <c r="O43" s="52"/>
@@ -9347,7 +9305,7 @@
       <c r="B1" s="47"/>
       <c r="C1" s="47"/>
       <c r="D1" s="48" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="E1" s="49"/>
       <c r="F1" s="49"/>
@@ -9371,7 +9329,7 @@
       <c r="B2" s="47"/>
       <c r="C2" s="47"/>
       <c r="D2" s="48" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="E2" s="49"/>
       <c r="F2" s="49"/>
@@ -9380,7 +9338,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="51" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="J2" s="52"/>
       <c r="K2" s="52"/>
@@ -9417,7 +9375,7 @@
       <c r="B4" s="47"/>
       <c r="C4" s="47"/>
       <c r="D4" s="48" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="E4" s="49"/>
       <c r="F4" s="49"/>
@@ -9561,14 +9519,14 @@
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="9" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="9" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="7" t="s">
@@ -9593,14 +9551,14 @@
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="9" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="9" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="7" t="s">
@@ -9625,14 +9583,14 @@
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="9" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="9" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="7" t="s">
@@ -9657,14 +9615,14 @@
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="9" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="9" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="H12" s="9"/>
       <c r="I12" s="7" t="s">
@@ -9689,14 +9647,14 @@
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="9" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="9" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="H13" s="9"/>
       <c r="I13" s="7" t="s">
@@ -10004,7 +9962,7 @@
         <v>68</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>74</v>
@@ -10015,7 +9973,7 @@
         <v>85</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>84</v>
@@ -10026,7 +9984,7 @@
         <v>83</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>75</v>
@@ -10048,7 +10006,7 @@
         <v>70</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>77</v>
@@ -10191,7 +10149,7 @@
         <v>31</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>28</v>
@@ -10207,10 +10165,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>28</v>
@@ -10475,7 +10433,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>94</v>
@@ -10494,7 +10452,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>94</v>
@@ -10530,10 +10488,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>28</v>
@@ -10622,7 +10580,7 @@
       </c>
       <c r="C1" s="31"/>
       <c r="D1" s="32" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E1" s="33"/>
       <c r="F1" s="18" t="s">
@@ -10639,14 +10597,14 @@
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="32" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E2" s="33"/>
       <c r="F2" s="18" t="s">
         <v>129</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -10753,7 +10711,7 @@
       </c>
       <c r="C10" s="31"/>
       <c r="D10" s="32" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E10" s="33"/>
       <c r="F10" s="18" t="s">
@@ -10770,14 +10728,14 @@
       </c>
       <c r="C11" s="31"/>
       <c r="D11" s="32" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E11" s="33"/>
       <c r="F11" s="18" t="s">
         <v>129</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -10884,14 +10842,14 @@
       </c>
       <c r="C19" s="31"/>
       <c r="D19" s="32" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E19" s="33"/>
       <c r="F19" s="18" t="s">
         <v>126</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -10901,14 +10859,14 @@
       </c>
       <c r="C20" s="31"/>
       <c r="D20" s="32" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E20" s="33"/>
       <c r="F20" s="18" t="s">
         <v>129</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -10960,13 +10918,13 @@
         <v>1</v>
       </c>
       <c r="C24" s="19" t="s">
+        <v>264</v>
+      </c>
+      <c r="D24" s="22" t="s">
         <v>265</v>
       </c>
-      <c r="D24" s="22" t="s">
-        <v>266</v>
-      </c>
       <c r="E24" s="22" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F24" s="22"/>
       <c r="G24" s="22"/>
@@ -10977,13 +10935,13 @@
         <v>2</v>
       </c>
       <c r="C25" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="D25" s="22" t="s">
         <v>267</v>
       </c>
-      <c r="D25" s="22" t="s">
+      <c r="E25" s="22" t="s">
         <v>268</v>
-      </c>
-      <c r="E25" s="22" t="s">
-        <v>269</v>
       </c>
       <c r="F25" s="22"/>
       <c r="G25" s="22"/>
@@ -10994,13 +10952,13 @@
         <v>3</v>
       </c>
       <c r="C26" s="19" t="s">
+        <v>269</v>
+      </c>
+      <c r="D26" s="22" t="s">
         <v>270</v>
       </c>
-      <c r="D26" s="22" t="s">
-        <v>271</v>
-      </c>
       <c r="E26" s="22" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F26" s="22"/>
       <c r="G26" s="24"/>
@@ -11023,7 +10981,7 @@
       </c>
       <c r="C28" s="31"/>
       <c r="D28" s="32" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E28" s="33"/>
       <c r="F28" s="18" t="s">
@@ -11040,14 +10998,14 @@
       </c>
       <c r="C29" s="31"/>
       <c r="D29" s="32" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E29" s="33"/>
       <c r="F29" s="18" t="s">
         <v>129</v>
       </c>
       <c r="G29" s="19" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -11102,10 +11060,10 @@
         <v>0</v>
       </c>
       <c r="D33" s="22" t="s">
+        <v>313</v>
+      </c>
+      <c r="E33" s="22" t="s">
         <v>314</v>
-      </c>
-      <c r="E33" s="22" t="s">
-        <v>315</v>
       </c>
       <c r="F33" s="22"/>
       <c r="G33" s="22"/>
@@ -11119,10 +11077,10 @@
         <v>10</v>
       </c>
       <c r="D34" s="22" t="s">
+        <v>315</v>
+      </c>
+      <c r="E34" s="22" t="s">
         <v>316</v>
-      </c>
-      <c r="E34" s="22" t="s">
-        <v>317</v>
       </c>
       <c r="F34" s="22"/>
       <c r="G34" s="22"/>
@@ -11145,14 +11103,14 @@
       </c>
       <c r="C36" s="31"/>
       <c r="D36" s="32" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="E36" s="33"/>
       <c r="F36" s="18" t="s">
         <v>126</v>
       </c>
       <c r="G36" s="14" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -11162,14 +11120,14 @@
       </c>
       <c r="C37" s="31"/>
       <c r="D37" s="32" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="E37" s="33"/>
       <c r="F37" s="18" t="s">
         <v>129</v>
       </c>
       <c r="G37" s="19" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
@@ -11221,13 +11179,13 @@
         <v>1</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="D41" s="22" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="E41" s="22" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="F41" s="22"/>
       <c r="G41" s="22"/>
@@ -11238,13 +11196,13 @@
         <v>2</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="D42" s="22" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="E42" s="22" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="F42" s="22"/>
       <c r="G42" s="22"/>
@@ -11255,13 +11213,13 @@
         <v>3</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D43" s="22" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="E43" s="22" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="F43" s="22"/>
       <c r="G43" s="24"/>
@@ -11272,13 +11230,13 @@
         <v>4</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="D44" s="22" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="E44" s="22" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="F44" s="22"/>
       <c r="G44" s="24"/>
@@ -11376,7 +11334,7 @@
       <c r="B1" s="47"/>
       <c r="C1" s="47"/>
       <c r="D1" s="48" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E1" s="49"/>
       <c r="F1" s="49"/>
@@ -11400,7 +11358,7 @@
       <c r="B2" s="47"/>
       <c r="C2" s="47"/>
       <c r="D2" s="48" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E2" s="49"/>
       <c r="F2" s="49"/>
@@ -11409,7 +11367,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="51" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J2" s="52"/>
       <c r="K2" s="52"/>
@@ -11558,16 +11516,16 @@
         <v>87</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>104</v>
       </c>
       <c r="F8" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="G8" s="9" t="s">
         <v>287</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>288</v>
       </c>
       <c r="H8" s="9"/>
       <c r="I8" s="7" t="s">
@@ -11592,14 +11550,14 @@
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="G9" s="9" t="s">
         <v>290</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>291</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="7" t="s">
@@ -11633,7 +11591,7 @@
         <v>142</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="7" t="s">
@@ -11677,7 +11635,7 @@
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
       <c r="M11" s="26" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="O11" s="7"/>
       <c r="P11" s="1"/>
@@ -11726,7 +11684,7 @@
         <v>39</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F13" s="9" t="s">
         <v>40</v>
@@ -11762,7 +11720,7 @@
         <v>43</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F14" s="9" t="s">
         <v>44</v>
@@ -11796,7 +11754,7 @@
         <v>47</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F15" s="9" t="s">
         <v>48</v>
@@ -11832,7 +11790,7 @@
         <v>50</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F16" s="9" t="s">
         <v>51</v>
@@ -11949,7 +11907,7 @@
       <c r="B1" s="47"/>
       <c r="C1" s="47"/>
       <c r="D1" s="48" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E1" s="49"/>
       <c r="F1" s="49"/>
@@ -11973,7 +11931,7 @@
       <c r="B2" s="47"/>
       <c r="C2" s="47"/>
       <c r="D2" s="48" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E2" s="49"/>
       <c r="F2" s="49"/>
@@ -11982,7 +11940,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="51" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J2" s="52"/>
       <c r="K2" s="52"/>
@@ -12131,16 +12089,16 @@
         <v>87</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>104</v>
       </c>
       <c r="F8" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="G8" s="9" t="s">
         <v>239</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>240</v>
       </c>
       <c r="H8" s="9"/>
       <c r="I8" s="7" t="s">
@@ -12165,17 +12123,17 @@
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="G9" s="9" t="s">
         <v>390</v>
       </c>
-      <c r="G9" s="9" t="s">
-        <v>391</v>
-      </c>
       <c r="H9" s="9" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I9" s="7" t="s">
         <v>27</v>
@@ -12199,14 +12157,14 @@
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="G10" s="9" t="s">
         <v>385</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>386</v>
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="7" t="s">
@@ -12240,7 +12198,7 @@
         <v>142</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="7" t="s">
@@ -12265,14 +12223,14 @@
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="G12" s="9" t="s">
         <v>255</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>256</v>
       </c>
       <c r="H12" s="9"/>
       <c r="I12" s="7"/>
@@ -12295,14 +12253,14 @@
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="9" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="G13" s="9" t="s">
         <v>407</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>408</v>
       </c>
       <c r="H13" s="9"/>
       <c r="I13" s="7"/>
@@ -12325,14 +12283,14 @@
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="9" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="G14" s="9" t="s">
         <v>410</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>411</v>
       </c>
       <c r="H14" s="9"/>
       <c r="I14" s="7"/>
@@ -12374,7 +12332,7 @@
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
       <c r="M15" s="26" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O15" s="7"/>
       <c r="P15" s="1"/>
@@ -12423,7 +12381,7 @@
         <v>39</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F17" s="9" t="s">
         <v>40</v>
@@ -12459,7 +12417,7 @@
         <v>43</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F18" s="9" t="s">
         <v>44</v>
@@ -12493,7 +12451,7 @@
         <v>47</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F19" s="9" t="s">
         <v>48</v>
@@ -12529,7 +12487,7 @@
         <v>50</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F20" s="9" t="s">
         <v>51</v>
@@ -12618,7 +12576,7 @@
       </c>
       <c r="C25" s="55"/>
       <c r="D25" s="32" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E25" s="34"/>
       <c r="F25" s="34"/>
@@ -12626,7 +12584,7 @@
         <v>57</v>
       </c>
       <c r="H25" s="32" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I25" s="34"/>
       <c r="J25" s="33"/>
@@ -12635,7 +12593,7 @@
       </c>
       <c r="L25" s="57"/>
       <c r="M25" s="51" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="N25" s="52"/>
       <c r="O25" s="52"/>
@@ -12648,7 +12606,7 @@
       </c>
       <c r="C26" s="55"/>
       <c r="D26" s="32" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E26" s="34"/>
       <c r="F26" s="34"/>
@@ -12656,7 +12614,7 @@
         <v>3</v>
       </c>
       <c r="H26" s="32" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I26" s="34"/>
       <c r="J26" s="33"/>
@@ -12678,7 +12636,7 @@
       </c>
       <c r="C27" s="55"/>
       <c r="D27" s="32" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E27" s="34"/>
       <c r="F27" s="34"/>
@@ -12686,7 +12644,7 @@
         <v>99</v>
       </c>
       <c r="H27" s="34" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I27" s="34"/>
       <c r="J27" s="33"/>
@@ -12775,13 +12733,13 @@
         <v>1</v>
       </c>
       <c r="C31" s="64" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D31" s="66"/>
       <c r="E31" s="65"/>
       <c r="F31" s="3"/>
       <c r="G31" s="64" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H31" s="65"/>
       <c r="I31" s="3"/>
@@ -12904,7 +12862,7 @@
       <c r="B1" s="47"/>
       <c r="C1" s="47"/>
       <c r="D1" s="48" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E1" s="49"/>
       <c r="F1" s="49"/>
@@ -12928,7 +12886,7 @@
       <c r="B2" s="47"/>
       <c r="C2" s="47"/>
       <c r="D2" s="48" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E2" s="49"/>
       <c r="F2" s="49"/>
@@ -12937,7 +12895,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="51" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J2" s="52"/>
       <c r="K2" s="52"/>
@@ -12954,7 +12912,7 @@
       <c r="B3" s="47"/>
       <c r="C3" s="47"/>
       <c r="D3" s="48" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E3" s="49"/>
       <c r="F3" s="49"/>
@@ -13088,14 +13046,14 @@
         <v>87</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="G8" s="9" t="s">
         <v>287</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>288</v>
       </c>
       <c r="H8" s="9"/>
       <c r="I8" s="7" t="s">
@@ -13124,14 +13082,14 @@
         <v>87</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="G9" s="9" t="s">
         <v>239</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>240</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="7" t="s">
@@ -13193,7 +13151,7 @@
         <v>39</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F11" s="9" t="s">
         <v>40</v>
@@ -13229,7 +13187,7 @@
         <v>43</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F12" s="9" t="s">
         <v>44</v>
@@ -13263,7 +13221,7 @@
         <v>47</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F13" s="9" t="s">
         <v>48</v>
@@ -13299,7 +13257,7 @@
         <v>50</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F14" s="9" t="s">
         <v>51</v>
@@ -13388,7 +13346,7 @@
       </c>
       <c r="C19" s="55"/>
       <c r="D19" s="32" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E19" s="34"/>
       <c r="F19" s="34"/>
@@ -13396,7 +13354,7 @@
         <v>57</v>
       </c>
       <c r="H19" s="32" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I19" s="34"/>
       <c r="J19" s="33"/>
@@ -13405,7 +13363,7 @@
       </c>
       <c r="L19" s="57"/>
       <c r="M19" s="74" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N19" s="75"/>
       <c r="O19" s="75"/>
@@ -13418,7 +13376,7 @@
       </c>
       <c r="C20" s="55"/>
       <c r="D20" s="32" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E20" s="34"/>
       <c r="F20" s="34"/>
@@ -13426,7 +13384,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="32" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I20" s="34"/>
       <c r="J20" s="33"/>
@@ -13541,13 +13499,13 @@
         <v>1</v>
       </c>
       <c r="C25" s="64" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D25" s="66"/>
       <c r="E25" s="65"/>
       <c r="F25" s="3"/>
       <c r="G25" s="64" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H25" s="65"/>
       <c r="I25" s="3"/>
@@ -13586,7 +13544,7 @@
       </c>
       <c r="C27" s="55"/>
       <c r="D27" s="32" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E27" s="34"/>
       <c r="F27" s="34"/>
@@ -13594,7 +13552,7 @@
         <v>57</v>
       </c>
       <c r="H27" s="32" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I27" s="34"/>
       <c r="J27" s="33"/>
@@ -13603,7 +13561,7 @@
       </c>
       <c r="L27" s="57"/>
       <c r="M27" s="74" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="N27" s="75"/>
       <c r="O27" s="75"/>
@@ -13616,7 +13574,7 @@
       </c>
       <c r="C28" s="55"/>
       <c r="D28" s="32" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E28" s="34"/>
       <c r="F28" s="34"/>
@@ -13624,7 +13582,7 @@
         <v>3</v>
       </c>
       <c r="H28" s="32" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I28" s="34"/>
       <c r="J28" s="33"/>
@@ -13739,13 +13697,13 @@
         <v>1</v>
       </c>
       <c r="C33" s="64" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D33" s="66"/>
       <c r="E33" s="65"/>
       <c r="F33" s="3"/>
       <c r="G33" s="64" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H33" s="65"/>
       <c r="I33" s="3"/>
@@ -13904,7 +13862,7 @@
       <c r="B1" s="47"/>
       <c r="C1" s="47"/>
       <c r="D1" s="48" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E1" s="49"/>
       <c r="F1" s="49"/>
@@ -13928,7 +13886,7 @@
       <c r="B2" s="47"/>
       <c r="C2" s="47"/>
       <c r="D2" s="48" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E2" s="49"/>
       <c r="F2" s="49"/>
@@ -13937,7 +13895,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="51" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J2" s="52"/>
       <c r="K2" s="52"/>
@@ -13974,7 +13932,7 @@
       <c r="B4" s="47"/>
       <c r="C4" s="47"/>
       <c r="D4" s="48" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E4" s="49"/>
       <c r="F4" s="49"/>
@@ -14088,16 +14046,16 @@
         <v>87</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>104</v>
       </c>
       <c r="F8" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="G8" s="9" t="s">
         <v>258</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>259</v>
       </c>
       <c r="H8" s="9"/>
       <c r="I8" s="7" t="s">
@@ -14122,14 +14080,14 @@
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="G9" s="9" t="s">
         <v>239</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>240</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="7" t="s">
@@ -14156,14 +14114,14 @@
         <v>106</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="G10" s="9" t="s">
         <v>222</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>223</v>
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="7" t="s">
@@ -14188,14 +14146,14 @@
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="G11" s="9" t="s">
         <v>225</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>226</v>
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="7" t="s">
@@ -14220,14 +14178,14 @@
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="G12" s="9" t="s">
         <v>235</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>236</v>
       </c>
       <c r="H12" s="9"/>
       <c r="I12" s="7" t="s">
@@ -14241,7 +14199,7 @@
       </c>
       <c r="L12" s="7"/>
       <c r="M12" s="26" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="N12" s="9"/>
       <c r="O12" s="7"/>
@@ -14253,22 +14211,22 @@
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>104</v>
       </c>
       <c r="F13" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="G13" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="H13" s="9" t="s">
         <v>229</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>230</v>
       </c>
       <c r="I13" s="7" t="s">
         <v>27</v>
@@ -14311,7 +14269,7 @@
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
       <c r="M14" s="9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="N14" s="9"/>
       <c r="O14" s="7"/>
@@ -14564,7 +14522,7 @@
       </c>
       <c r="C24" s="55"/>
       <c r="D24" s="32" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E24" s="34"/>
       <c r="F24" s="34"/>
@@ -14572,7 +14530,7 @@
         <v>57</v>
       </c>
       <c r="H24" s="32" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I24" s="34"/>
       <c r="J24" s="33"/>
@@ -14581,7 +14539,7 @@
       </c>
       <c r="L24" s="57"/>
       <c r="M24" s="74" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="N24" s="75"/>
       <c r="O24" s="75"/>
@@ -14594,7 +14552,7 @@
       </c>
       <c r="C25" s="55"/>
       <c r="D25" s="32" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E25" s="34"/>
       <c r="F25" s="34"/>
@@ -14602,7 +14560,7 @@
         <v>3</v>
       </c>
       <c r="H25" s="32" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I25" s="34"/>
       <c r="J25" s="33"/>
@@ -14624,7 +14582,7 @@
       </c>
       <c r="C26" s="55"/>
       <c r="D26" s="32" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E26" s="34"/>
       <c r="F26" s="34"/>
@@ -14632,7 +14590,7 @@
         <v>99</v>
       </c>
       <c r="H26" s="34" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I26" s="34"/>
       <c r="J26" s="33"/>
@@ -14721,13 +14679,13 @@
         <v>1</v>
       </c>
       <c r="C30" s="64" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D30" s="66"/>
       <c r="E30" s="65"/>
       <c r="F30" s="3"/>
       <c r="G30" s="64" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H30" s="65"/>
       <c r="I30" s="3"/>
@@ -14850,7 +14808,7 @@
       <c r="B1" s="47"/>
       <c r="C1" s="47"/>
       <c r="D1" s="48" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E1" s="49"/>
       <c r="F1" s="49"/>
@@ -14874,7 +14832,7 @@
       <c r="B2" s="47"/>
       <c r="C2" s="47"/>
       <c r="D2" s="48" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E2" s="49"/>
       <c r="F2" s="49"/>
@@ -14883,7 +14841,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="51" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J2" s="52"/>
       <c r="K2" s="52"/>
@@ -15032,16 +14990,16 @@
         <v>87</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>104</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H8" s="9"/>
       <c r="I8" s="7" t="s">
@@ -15066,14 +15024,14 @@
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="G9" s="9" t="s">
         <v>239</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>240</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="7" t="s">
@@ -15100,14 +15058,14 @@
         <v>106</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="G10" s="9" t="s">
         <v>323</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>324</v>
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="7" t="s">
@@ -15139,7 +15097,7 @@
         <v>142</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="7" t="s">
@@ -15164,11 +15122,11 @@
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="9" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="9" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G12" s="9" t="s">
         <v>0</v>
@@ -15194,14 +15152,14 @@
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="9" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="9" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="H13" s="9"/>
       <c r="I13" s="7"/>
@@ -15224,14 +15182,14 @@
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="9" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="G14" s="9" t="s">
         <v>326</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>327</v>
       </c>
       <c r="H14" s="9"/>
       <c r="I14" s="7" t="s">
@@ -15243,7 +15201,7 @@
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
       <c r="M14" s="26" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="N14" s="9"/>
       <c r="O14" s="7"/>
@@ -15256,11 +15214,11 @@
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="9" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="9" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G15" s="9" t="s">
         <v>9</v>
@@ -15305,7 +15263,7 @@
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
       <c r="M16" s="9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="N16" s="9"/>
       <c r="O16" s="7"/>
@@ -15318,11 +15276,11 @@
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="9" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="9" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="G17" s="9" t="s">
         <v>12</v>
@@ -15590,7 +15548,7 @@
       </c>
       <c r="C27" s="55"/>
       <c r="D27" s="32" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E27" s="34"/>
       <c r="F27" s="34"/>
@@ -15598,7 +15556,7 @@
         <v>57</v>
       </c>
       <c r="H27" s="32" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I27" s="34"/>
       <c r="J27" s="33"/>
@@ -15607,7 +15565,7 @@
       </c>
       <c r="L27" s="57"/>
       <c r="M27" s="74" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="N27" s="75"/>
       <c r="O27" s="75"/>
@@ -15620,7 +15578,7 @@
       </c>
       <c r="C28" s="55"/>
       <c r="D28" s="32" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E28" s="34"/>
       <c r="F28" s="34"/>
@@ -15628,7 +15586,7 @@
         <v>3</v>
       </c>
       <c r="H28" s="32" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I28" s="34"/>
       <c r="J28" s="33"/>
@@ -15650,7 +15608,7 @@
       </c>
       <c r="C29" s="55"/>
       <c r="D29" s="32" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E29" s="34"/>
       <c r="F29" s="34"/>
@@ -15658,7 +15616,7 @@
         <v>99</v>
       </c>
       <c r="H29" s="34" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I29" s="34"/>
       <c r="J29" s="33"/>
@@ -15747,13 +15705,13 @@
         <v>1</v>
       </c>
       <c r="C33" s="64" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D33" s="66"/>
       <c r="E33" s="65"/>
       <c r="F33" s="3"/>
       <c r="G33" s="64" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H33" s="65"/>
       <c r="I33" s="3"/>

--- a/nop-dyn/model/nop-dyn.orm.xlsx
+++ b/nop-dyn/model/nop-dyn.orm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-dyn\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16715C56-E3E9-4F2D-9EFA-0792C06B9C7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8F04102-4AC7-4A9B-A743-79B03BD6F2BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" firstSheet="11" activeTab="13" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" firstSheet="9" activeTab="11" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="2" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1799" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1806" uniqueCount="524">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2073,14 +2073,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ARGS_META</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数定义</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>RETURN_TYPE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2114,6 +2106,38 @@
   </si>
   <si>
     <t>NOP_OBJ_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RETURN_GQL_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Return GraphQL Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GraphQL返回类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IS_EXTERNAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Is External</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否外部实体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FUNC_META</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>函数元数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3135,8 +3159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68F89B88-34E8-484E-A694-177B0E94136A}">
   <dimension ref="A1:P54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:A35"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -6039,10 +6063,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F8B8ED6-4E67-4ACD-A9CD-16C476AFAB9F}">
-  <dimension ref="A1:P34"/>
+  <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -6416,21 +6440,19 @@
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="9" t="s">
-        <v>507</v>
+        <v>522</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="9" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>508</v>
+        <v>523</v>
       </c>
       <c r="H13" s="9" t="s">
         <v>506</v>
       </c>
-      <c r="I13" s="7" t="s">
-        <v>27</v>
-      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="9" t="s">
         <v>28</v>
       </c>
@@ -6452,14 +6474,14 @@
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="9" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="9" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="H14" s="9"/>
       <c r="I14" s="7"/>
@@ -6482,14 +6504,14 @@
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="9" t="s">
-        <v>348</v>
+        <v>516</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="9" t="s">
-        <v>349</v>
+        <v>517</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>9</v>
+        <v>518</v>
       </c>
       <c r="H15" s="9"/>
       <c r="I15" s="7"/>
@@ -6497,7 +6519,7 @@
         <v>28</v>
       </c>
       <c r="K15" s="7">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L15" s="7"/>
       <c r="M15" s="9"/>
@@ -6512,24 +6534,22 @@
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="9" t="s">
-        <v>503</v>
+        <v>348</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="9" t="s">
-        <v>504</v>
+        <v>349</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>505</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>506</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="H16" s="9"/>
       <c r="I16" s="7"/>
       <c r="J16" s="9" t="s">
         <v>28</v>
       </c>
       <c r="K16" s="7">
-        <v>4000</v>
+        <v>200</v>
       </c>
       <c r="L16" s="7"/>
       <c r="M16" s="9"/>
@@ -6544,27 +6564,27 @@
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="9" t="s">
-        <v>33</v>
+        <v>503</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="9" t="s">
-        <v>34</v>
+        <v>504</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="H17" s="9"/>
-      <c r="I17" s="7" t="s">
-        <v>27</v>
-      </c>
+        <v>505</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>506</v>
+      </c>
+      <c r="I17" s="7"/>
       <c r="J17" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="K17" s="7"/>
+        <v>28</v>
+      </c>
+      <c r="K17" s="7">
+        <v>4000</v>
+      </c>
       <c r="L17" s="7"/>
-      <c r="M17" s="9" t="s">
-        <v>231</v>
-      </c>
+      <c r="M17" s="9"/>
       <c r="N17" s="9"/>
       <c r="O17" s="7"/>
       <c r="P17" s="1"/>
@@ -6576,20 +6596,16 @@
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>104</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="E18" s="7"/>
       <c r="F18" s="9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>88</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="H18" s="9"/>
       <c r="I18" s="7" t="s">
         <v>27</v>
       </c>
@@ -6598,7 +6614,9 @@
       </c>
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
-      <c r="M18" s="9"/>
+      <c r="M18" s="9" t="s">
+        <v>231</v>
+      </c>
       <c r="N18" s="9"/>
       <c r="O18" s="7"/>
       <c r="P18" s="1"/>
@@ -6610,29 +6628,27 @@
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>232</v>
+        <v>104</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I19" s="7" t="s">
         <v>27</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K19" s="7">
-        <v>50</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="K19" s="7"/>
       <c r="L19" s="7"/>
       <c r="M19" s="9"/>
       <c r="N19" s="9"/>
@@ -6646,27 +6662,29 @@
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>232</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I20" s="7" t="s">
         <v>27</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="K20" s="7"/>
+        <v>28</v>
+      </c>
+      <c r="K20" s="7">
+        <v>50</v>
+      </c>
       <c r="L20" s="7"/>
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
@@ -6680,29 +6698,27 @@
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="9" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>232</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I21" s="7" t="s">
         <v>27</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K21" s="7">
-        <v>50</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="K21" s="7"/>
       <c r="L21" s="7"/>
       <c r="M21" s="9"/>
       <c r="N21" s="9"/>
@@ -6716,27 +6732,29 @@
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>232</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I22" s="7" t="s">
         <v>27</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="K22" s="7"/>
+        <v>28</v>
+      </c>
+      <c r="K22" s="7">
+        <v>50</v>
+      </c>
       <c r="L22" s="7"/>
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
@@ -6750,27 +6768,27 @@
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>105</v>
+        <v>232</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="I23" s="7"/>
+        <v>92</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="J23" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K23" s="7">
-        <v>200</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="K23" s="7"/>
       <c r="L23" s="7"/>
       <c r="M23" s="9"/>
       <c r="N23" s="9"/>
@@ -6778,127 +6796,135 @@
       <c r="P23" s="1"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="7"/>
+      <c r="A24" s="7">
+        <v>17</v>
+      </c>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
+      <c r="D24" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>101</v>
+      </c>
       <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
+      <c r="J24" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K24" s="7">
+        <v>200</v>
+      </c>
       <c r="L24" s="7"/>
       <c r="M24" s="9"/>
       <c r="N24" s="9"/>
       <c r="O24" s="7"/>
       <c r="P24" s="1"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="71" t="s">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="1"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A27" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="72"/>
-      <c r="C26" s="72"/>
-      <c r="D26" s="72"/>
-      <c r="E26" s="72"/>
-      <c r="F26" s="72"/>
-      <c r="G26" s="72"/>
-      <c r="H26" s="72"/>
-      <c r="I26" s="72"/>
-      <c r="J26" s="72"/>
-      <c r="K26" s="72"/>
-      <c r="L26" s="72"/>
-      <c r="M26" s="72"/>
-      <c r="N26" s="72"/>
-      <c r="O26" s="72"/>
-      <c r="P26" s="73"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="27">
+      <c r="B27" s="72"/>
+      <c r="C27" s="72"/>
+      <c r="D27" s="72"/>
+      <c r="E27" s="72"/>
+      <c r="F27" s="72"/>
+      <c r="G27" s="72"/>
+      <c r="H27" s="72"/>
+      <c r="I27" s="72"/>
+      <c r="J27" s="72"/>
+      <c r="K27" s="72"/>
+      <c r="L27" s="72"/>
+      <c r="M27" s="72"/>
+      <c r="N27" s="72"/>
+      <c r="O27" s="72"/>
+      <c r="P27" s="73"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A28" s="27">
         <v>1</v>
       </c>
-      <c r="B27" s="54" t="s">
+      <c r="B28" s="54" t="s">
         <v>14</v>
-      </c>
-      <c r="C27" s="55"/>
-      <c r="D27" s="32" t="s">
-        <v>336</v>
-      </c>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H27" s="32" t="s">
-        <v>512</v>
-      </c>
-      <c r="I27" s="34"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="56" t="s">
-        <v>58</v>
-      </c>
-      <c r="L27" s="57"/>
-      <c r="M27" s="74" t="s">
-        <v>338</v>
-      </c>
-      <c r="N27" s="75"/>
-      <c r="O27" s="75"/>
-      <c r="P27" s="76"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="28"/>
-      <c r="B28" s="54" t="s">
-        <v>4</v>
       </c>
       <c r="C28" s="55"/>
       <c r="D28" s="32" t="s">
-        <v>281</v>
+        <v>336</v>
       </c>
       <c r="E28" s="34"/>
       <c r="F28" s="34"/>
       <c r="G28" s="2" t="s">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="H28" s="32" t="s">
-        <v>280</v>
+        <v>510</v>
       </c>
       <c r="I28" s="34"/>
       <c r="J28" s="33"/>
       <c r="K28" s="56" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="L28" s="57"/>
-      <c r="M28" s="51" t="s">
-        <v>67</v>
-      </c>
-      <c r="N28" s="52"/>
-      <c r="O28" s="52"/>
-      <c r="P28" s="53"/>
+      <c r="M28" s="74" t="s">
+        <v>338</v>
+      </c>
+      <c r="N28" s="75"/>
+      <c r="O28" s="75"/>
+      <c r="P28" s="76"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="28"/>
       <c r="B29" s="54" t="s">
-        <v>98</v>
+        <v>4</v>
       </c>
       <c r="C29" s="55"/>
       <c r="D29" s="32" t="s">
-        <v>513</v>
+        <v>281</v>
       </c>
       <c r="E29" s="34"/>
       <c r="F29" s="34"/>
-      <c r="G29" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="H29" s="34" t="s">
-        <v>514</v>
+      <c r="G29" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H29" s="32" t="s">
+        <v>280</v>
       </c>
       <c r="I29" s="34"/>
       <c r="J29" s="33"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="16"/>
-      <c r="M29" s="51"/>
+      <c r="K29" s="56" t="s">
+        <v>66</v>
+      </c>
+      <c r="L29" s="57"/>
+      <c r="M29" s="51" t="s">
+        <v>67</v>
+      </c>
       <c r="N29" s="52"/>
       <c r="O29" s="52"/>
       <c r="P29" s="53"/>
@@ -6906,107 +6932,115 @@
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="28"/>
       <c r="B30" s="54" t="s">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="C30" s="55"/>
-      <c r="D30" s="32"/>
+      <c r="D30" s="32" t="s">
+        <v>511</v>
+      </c>
       <c r="E30" s="34"/>
       <c r="F30" s="34"/>
-      <c r="G30" s="34"/>
-      <c r="H30" s="34"/>
+      <c r="G30" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="H30" s="34" t="s">
+        <v>512</v>
+      </c>
       <c r="I30" s="34"/>
       <c r="J30" s="33"/>
-      <c r="K30" s="56" t="s">
-        <v>9</v>
-      </c>
-      <c r="L30" s="57"/>
-      <c r="M30" s="51" t="s">
-        <v>143</v>
-      </c>
+      <c r="K30" s="15"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="51"/>
       <c r="N30" s="52"/>
       <c r="O30" s="52"/>
       <c r="P30" s="53"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="28"/>
-      <c r="B31" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="C31" s="69"/>
-      <c r="D31" s="69"/>
-      <c r="E31" s="69"/>
-      <c r="F31" s="69"/>
-      <c r="G31" s="69"/>
-      <c r="H31" s="69"/>
-      <c r="I31" s="69"/>
-      <c r="J31" s="68"/>
-      <c r="K31" s="67"/>
-      <c r="L31" s="68"/>
-      <c r="M31" s="67"/>
-      <c r="N31" s="69"/>
-      <c r="O31" s="69"/>
-      <c r="P31" s="68"/>
+      <c r="B31" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="55"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="33"/>
+      <c r="K31" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="L31" s="57"/>
+      <c r="M31" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="N31" s="52"/>
+      <c r="O31" s="52"/>
+      <c r="P31" s="53"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="28"/>
-      <c r="B32" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C32" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="D32" s="70"/>
-      <c r="E32" s="57"/>
-      <c r="F32" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G32" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="H32" s="57"/>
-      <c r="I32" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="J32" s="57"/>
-      <c r="K32" s="61"/>
-      <c r="L32" s="63"/>
-      <c r="M32" s="61"/>
-      <c r="N32" s="62"/>
-      <c r="O32" s="62"/>
-      <c r="P32" s="63"/>
+      <c r="B32" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" s="69"/>
+      <c r="D32" s="69"/>
+      <c r="E32" s="69"/>
+      <c r="F32" s="69"/>
+      <c r="G32" s="69"/>
+      <c r="H32" s="69"/>
+      <c r="I32" s="69"/>
+      <c r="J32" s="68"/>
+      <c r="K32" s="67"/>
+      <c r="L32" s="68"/>
+      <c r="M32" s="67"/>
+      <c r="N32" s="69"/>
+      <c r="O32" s="69"/>
+      <c r="P32" s="68"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="28"/>
-      <c r="B33" s="8">
-        <v>1</v>
-      </c>
-      <c r="C33" s="64" t="s">
-        <v>339</v>
-      </c>
-      <c r="D33" s="66"/>
-      <c r="E33" s="65"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="64" t="s">
-        <v>339</v>
-      </c>
-      <c r="H33" s="65"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="58"/>
-      <c r="L33" s="59"/>
-      <c r="M33" s="58"/>
-      <c r="N33" s="60"/>
-      <c r="O33" s="60"/>
-      <c r="P33" s="59"/>
+      <c r="B33" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="70"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="H33" s="57"/>
+      <c r="I33" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="J33" s="57"/>
+      <c r="K33" s="61"/>
+      <c r="L33" s="63"/>
+      <c r="M33" s="61"/>
+      <c r="N33" s="62"/>
+      <c r="O33" s="62"/>
+      <c r="P33" s="63"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="28"/>
-      <c r="B34" s="64"/>
-      <c r="C34" s="66"/>
+      <c r="B34" s="8">
+        <v>1</v>
+      </c>
+      <c r="C34" s="64" t="s">
+        <v>339</v>
+      </c>
       <c r="D34" s="66"/>
       <c r="E34" s="65"/>
       <c r="F34" s="3"/>
-      <c r="G34" s="64"/>
+      <c r="G34" s="64" t="s">
+        <v>339</v>
+      </c>
       <c r="H34" s="65"/>
       <c r="I34" s="3"/>
       <c r="J34" s="4"/>
@@ -7016,6 +7050,24 @@
       <c r="N34" s="60"/>
       <c r="O34" s="60"/>
       <c r="P34" s="59"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A35" s="28"/>
+      <c r="B35" s="64"/>
+      <c r="C35" s="66"/>
+      <c r="D35" s="66"/>
+      <c r="E35" s="65"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="64"/>
+      <c r="H35" s="65"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="58"/>
+      <c r="L35" s="59"/>
+      <c r="M35" s="58"/>
+      <c r="N35" s="60"/>
+      <c r="O35" s="60"/>
+      <c r="P35" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="49">
@@ -7032,13 +7084,8 @@
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="D4:L4"/>
     <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A26:P26"/>
-    <mergeCell ref="A27:A34"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="A27:P27"/>
+    <mergeCell ref="A28:A35"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="D28:F28"/>
     <mergeCell ref="H28:J28"/>
@@ -7047,31 +7094,36 @@
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="D29:F29"/>
     <mergeCell ref="H29:J29"/>
+    <mergeCell ref="K29:L29"/>
     <mergeCell ref="M29:P29"/>
     <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:J30"/>
-    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="H30:J30"/>
     <mergeCell ref="M30:P30"/>
-    <mergeCell ref="B31:J31"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:J31"/>
     <mergeCell ref="K31:L31"/>
     <mergeCell ref="M31:P31"/>
-    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:P32"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="M35:P35"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="M33:P33"/>
+    <mergeCell ref="C34:E34"/>
     <mergeCell ref="G34:H34"/>
     <mergeCell ref="K34:L34"/>
     <mergeCell ref="M34:P34"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:P32"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="M33:P33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="M27:P27" location="nop_dyn_entity_meta!A1" display="NopDynEntityMeta" xr:uid="{3E02BAC1-4D93-477F-9C6E-196C326CCB2A}"/>
+    <hyperlink ref="M28:P28" location="nop_dyn_entity_meta!A1" display="NopDynEntityMeta" xr:uid="{3E02BAC1-4D93-477F-9C6E-196C326CCB2A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -7159,7 +7211,7 @@
       <c r="B3" s="47"/>
       <c r="C3" s="47"/>
       <c r="D3" s="48" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="E3" s="49"/>
       <c r="F3" s="49"/>
@@ -7750,8 +7802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2A916FD-1DF6-4F49-9D99-66DD7EC19D8D}">
   <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -7993,7 +8045,7 @@
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="9" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="9" t="s">
@@ -8035,9 +8087,7 @@
         <v>61</v>
       </c>
       <c r="H10" s="9"/>
-      <c r="I10" s="7" t="s">
-        <v>27</v>
-      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="9" t="s">
         <v>28</v>
       </c>
@@ -9375,7 +9425,7 @@
       <c r="B4" s="47"/>
       <c r="C4" s="47"/>
       <c r="D4" s="48" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E4" s="49"/>
       <c r="F4" s="49"/>
@@ -14779,10 +14829,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC0BA8A4-9C3E-4604-A099-A93C4C69087F}">
-  <dimension ref="A1:P34"/>
+  <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -15244,27 +15294,25 @@
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="9" t="s">
-        <v>33</v>
+        <v>519</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="9" t="s">
-        <v>34</v>
+        <v>520</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>95</v>
+        <v>521</v>
       </c>
       <c r="H16" s="9"/>
       <c r="I16" s="7" t="s">
         <v>27</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>29</v>
+        <v>411</v>
       </c>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
-      <c r="M16" s="9" t="s">
-        <v>231</v>
-      </c>
+      <c r="M16" s="9"/>
       <c r="N16" s="9"/>
       <c r="O16" s="7"/>
       <c r="P16" s="1"/>
@@ -15276,27 +15324,27 @@
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="9" t="s">
-        <v>424</v>
+        <v>33</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="9" t="s">
-        <v>425</v>
+        <v>34</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="I17" s="7"/>
+        <v>95</v>
+      </c>
+      <c r="H17" s="9"/>
+      <c r="I17" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="J17" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K17" s="7">
-        <v>1000</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="K17" s="7"/>
       <c r="L17" s="7"/>
-      <c r="M17" s="9"/>
+      <c r="M17" s="9" t="s">
+        <v>231</v>
+      </c>
       <c r="N17" s="9"/>
       <c r="O17" s="7"/>
       <c r="P17" s="1"/>
@@ -15308,27 +15356,25 @@
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>104</v>
-      </c>
+        <v>424</v>
+      </c>
+      <c r="E18" s="7"/>
       <c r="F18" s="9" t="s">
-        <v>37</v>
+        <v>425</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>27</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="I18" s="7"/>
       <c r="J18" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="K18" s="7"/>
+        <v>28</v>
+      </c>
+      <c r="K18" s="7">
+        <v>1000</v>
+      </c>
       <c r="L18" s="7"/>
       <c r="M18" s="9"/>
       <c r="N18" s="9"/>
@@ -15342,27 +15388,27 @@
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" s="7"/>
+        <v>36</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>104</v>
+      </c>
       <c r="F19" s="9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I19" s="7" t="s">
         <v>27</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K19" s="7">
-        <v>50</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="K19" s="7"/>
       <c r="L19" s="7"/>
       <c r="M19" s="9"/>
       <c r="N19" s="9"/>
@@ -15376,25 +15422,27 @@
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="9" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I20" s="7" t="s">
         <v>27</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="K20" s="7"/>
+        <v>28</v>
+      </c>
+      <c r="K20" s="7">
+        <v>50</v>
+      </c>
       <c r="L20" s="7"/>
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
@@ -15408,27 +15456,25 @@
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="9" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="9" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I21" s="7" t="s">
         <v>27</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K21" s="7">
-        <v>50</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="K21" s="7"/>
       <c r="L21" s="7"/>
       <c r="M21" s="9"/>
       <c r="N21" s="9"/>
@@ -15442,25 +15488,27 @@
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I22" s="7" t="s">
         <v>27</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="K22" s="7"/>
+        <v>28</v>
+      </c>
+      <c r="K22" s="7">
+        <v>50</v>
+      </c>
       <c r="L22" s="7"/>
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
@@ -15474,27 +15522,25 @@
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>105</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="E23" s="7"/>
       <c r="F23" s="9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="I23" s="7"/>
+        <v>92</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="J23" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K23" s="7">
-        <v>200</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="K23" s="7"/>
       <c r="L23" s="7"/>
       <c r="M23" s="9"/>
       <c r="N23" s="9"/>
@@ -15502,127 +15548,135 @@
       <c r="P23" s="1"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="7"/>
+      <c r="A24" s="7">
+        <v>17</v>
+      </c>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
+      <c r="D24" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>101</v>
+      </c>
       <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
+      <c r="J24" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K24" s="7">
+        <v>200</v>
+      </c>
       <c r="L24" s="7"/>
       <c r="M24" s="9"/>
       <c r="N24" s="9"/>
       <c r="O24" s="7"/>
       <c r="P24" s="1"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="71" t="s">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="1"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A27" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="72"/>
-      <c r="C26" s="72"/>
-      <c r="D26" s="72"/>
-      <c r="E26" s="72"/>
-      <c r="F26" s="72"/>
-      <c r="G26" s="72"/>
-      <c r="H26" s="72"/>
-      <c r="I26" s="72"/>
-      <c r="J26" s="72"/>
-      <c r="K26" s="72"/>
-      <c r="L26" s="72"/>
-      <c r="M26" s="72"/>
-      <c r="N26" s="72"/>
-      <c r="O26" s="72"/>
-      <c r="P26" s="73"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="27">
+      <c r="B27" s="72"/>
+      <c r="C27" s="72"/>
+      <c r="D27" s="72"/>
+      <c r="E27" s="72"/>
+      <c r="F27" s="72"/>
+      <c r="G27" s="72"/>
+      <c r="H27" s="72"/>
+      <c r="I27" s="72"/>
+      <c r="J27" s="72"/>
+      <c r="K27" s="72"/>
+      <c r="L27" s="72"/>
+      <c r="M27" s="72"/>
+      <c r="N27" s="72"/>
+      <c r="O27" s="72"/>
+      <c r="P27" s="73"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A28" s="27">
         <v>1</v>
       </c>
-      <c r="B27" s="54" t="s">
+      <c r="B28" s="54" t="s">
         <v>14</v>
-      </c>
-      <c r="C27" s="55"/>
-      <c r="D27" s="32" t="s">
-        <v>278</v>
-      </c>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H27" s="32" t="s">
-        <v>376</v>
-      </c>
-      <c r="I27" s="34"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="56" t="s">
-        <v>58</v>
-      </c>
-      <c r="L27" s="57"/>
-      <c r="M27" s="74" t="s">
-        <v>273</v>
-      </c>
-      <c r="N27" s="75"/>
-      <c r="O27" s="75"/>
-      <c r="P27" s="76"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="28"/>
-      <c r="B28" s="54" t="s">
-        <v>4</v>
       </c>
       <c r="C28" s="55"/>
       <c r="D28" s="32" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E28" s="34"/>
       <c r="F28" s="34"/>
       <c r="G28" s="2" t="s">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="H28" s="32" t="s">
-        <v>280</v>
+        <v>376</v>
       </c>
       <c r="I28" s="34"/>
       <c r="J28" s="33"/>
       <c r="K28" s="56" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="L28" s="57"/>
-      <c r="M28" s="51" t="s">
-        <v>67</v>
-      </c>
-      <c r="N28" s="52"/>
-      <c r="O28" s="52"/>
-      <c r="P28" s="53"/>
+      <c r="M28" s="74" t="s">
+        <v>273</v>
+      </c>
+      <c r="N28" s="75"/>
+      <c r="O28" s="75"/>
+      <c r="P28" s="76"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="28"/>
       <c r="B29" s="54" t="s">
-        <v>98</v>
+        <v>4</v>
       </c>
       <c r="C29" s="55"/>
       <c r="D29" s="32" t="s">
-        <v>377</v>
+        <v>281</v>
       </c>
       <c r="E29" s="34"/>
       <c r="F29" s="34"/>
-      <c r="G29" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="H29" s="34" t="s">
-        <v>378</v>
+      <c r="G29" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H29" s="32" t="s">
+        <v>280</v>
       </c>
       <c r="I29" s="34"/>
       <c r="J29" s="33"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="16"/>
-      <c r="M29" s="51"/>
+      <c r="K29" s="56" t="s">
+        <v>66</v>
+      </c>
+      <c r="L29" s="57"/>
+      <c r="M29" s="51" t="s">
+        <v>67</v>
+      </c>
       <c r="N29" s="52"/>
       <c r="O29" s="52"/>
       <c r="P29" s="53"/>
@@ -15630,107 +15684,115 @@
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="28"/>
       <c r="B30" s="54" t="s">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="C30" s="55"/>
-      <c r="D30" s="32"/>
+      <c r="D30" s="32" t="s">
+        <v>377</v>
+      </c>
       <c r="E30" s="34"/>
       <c r="F30" s="34"/>
-      <c r="G30" s="34"/>
-      <c r="H30" s="34"/>
+      <c r="G30" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="H30" s="34" t="s">
+        <v>378</v>
+      </c>
       <c r="I30" s="34"/>
       <c r="J30" s="33"/>
-      <c r="K30" s="56" t="s">
-        <v>9</v>
-      </c>
-      <c r="L30" s="57"/>
-      <c r="M30" s="51" t="s">
-        <v>143</v>
-      </c>
+      <c r="K30" s="15"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="51"/>
       <c r="N30" s="52"/>
       <c r="O30" s="52"/>
       <c r="P30" s="53"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="28"/>
-      <c r="B31" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="C31" s="69"/>
-      <c r="D31" s="69"/>
-      <c r="E31" s="69"/>
-      <c r="F31" s="69"/>
-      <c r="G31" s="69"/>
-      <c r="H31" s="69"/>
-      <c r="I31" s="69"/>
-      <c r="J31" s="68"/>
-      <c r="K31" s="67"/>
-      <c r="L31" s="68"/>
-      <c r="M31" s="67"/>
-      <c r="N31" s="69"/>
-      <c r="O31" s="69"/>
-      <c r="P31" s="68"/>
+      <c r="B31" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="55"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="33"/>
+      <c r="K31" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="L31" s="57"/>
+      <c r="M31" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="N31" s="52"/>
+      <c r="O31" s="52"/>
+      <c r="P31" s="53"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="28"/>
-      <c r="B32" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C32" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="D32" s="70"/>
-      <c r="E32" s="57"/>
-      <c r="F32" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G32" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="H32" s="57"/>
-      <c r="I32" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="J32" s="57"/>
-      <c r="K32" s="61"/>
-      <c r="L32" s="63"/>
-      <c r="M32" s="61"/>
-      <c r="N32" s="62"/>
-      <c r="O32" s="62"/>
-      <c r="P32" s="63"/>
+      <c r="B32" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" s="69"/>
+      <c r="D32" s="69"/>
+      <c r="E32" s="69"/>
+      <c r="F32" s="69"/>
+      <c r="G32" s="69"/>
+      <c r="H32" s="69"/>
+      <c r="I32" s="69"/>
+      <c r="J32" s="68"/>
+      <c r="K32" s="67"/>
+      <c r="L32" s="68"/>
+      <c r="M32" s="67"/>
+      <c r="N32" s="69"/>
+      <c r="O32" s="69"/>
+      <c r="P32" s="68"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="28"/>
-      <c r="B33" s="8">
-        <v>1</v>
-      </c>
-      <c r="C33" s="64" t="s">
-        <v>277</v>
-      </c>
-      <c r="D33" s="66"/>
-      <c r="E33" s="65"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="64" t="s">
-        <v>277</v>
-      </c>
-      <c r="H33" s="65"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="58"/>
-      <c r="L33" s="59"/>
-      <c r="M33" s="58"/>
-      <c r="N33" s="60"/>
-      <c r="O33" s="60"/>
-      <c r="P33" s="59"/>
+      <c r="B33" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="70"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="H33" s="57"/>
+      <c r="I33" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="J33" s="57"/>
+      <c r="K33" s="61"/>
+      <c r="L33" s="63"/>
+      <c r="M33" s="61"/>
+      <c r="N33" s="62"/>
+      <c r="O33" s="62"/>
+      <c r="P33" s="63"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="28"/>
-      <c r="B34" s="64"/>
-      <c r="C34" s="66"/>
+      <c r="B34" s="8">
+        <v>1</v>
+      </c>
+      <c r="C34" s="64" t="s">
+        <v>277</v>
+      </c>
       <c r="D34" s="66"/>
       <c r="E34" s="65"/>
       <c r="F34" s="3"/>
-      <c r="G34" s="64"/>
+      <c r="G34" s="64" t="s">
+        <v>277</v>
+      </c>
       <c r="H34" s="65"/>
       <c r="I34" s="3"/>
       <c r="J34" s="4"/>
@@ -15740,6 +15802,24 @@
       <c r="N34" s="60"/>
       <c r="O34" s="60"/>
       <c r="P34" s="59"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A35" s="28"/>
+      <c r="B35" s="64"/>
+      <c r="C35" s="66"/>
+      <c r="D35" s="66"/>
+      <c r="E35" s="65"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="64"/>
+      <c r="H35" s="65"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="58"/>
+      <c r="L35" s="59"/>
+      <c r="M35" s="58"/>
+      <c r="N35" s="60"/>
+      <c r="O35" s="60"/>
+      <c r="P35" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="49">
@@ -15756,13 +15836,8 @@
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="D4:L4"/>
     <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A26:P26"/>
-    <mergeCell ref="A27:A34"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="A27:P27"/>
+    <mergeCell ref="A28:A35"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="D28:F28"/>
     <mergeCell ref="H28:J28"/>
@@ -15771,32 +15846,37 @@
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="D29:F29"/>
     <mergeCell ref="H29:J29"/>
+    <mergeCell ref="K29:L29"/>
     <mergeCell ref="M29:P29"/>
     <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:J30"/>
-    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="H30:J30"/>
     <mergeCell ref="M30:P30"/>
-    <mergeCell ref="B31:J31"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:J31"/>
     <mergeCell ref="K31:L31"/>
     <mergeCell ref="M31:P31"/>
-    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:P32"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="M35:P35"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="M33:P33"/>
+    <mergeCell ref="C34:E34"/>
     <mergeCell ref="G34:H34"/>
     <mergeCell ref="K34:L34"/>
     <mergeCell ref="M34:P34"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:P32"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="M33:P33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="M14" location="entity_store_type" display="dyn/page-schema-type" xr:uid="{A19F2678-1B24-4DCA-AC5A-69335700E3C0}"/>
-    <hyperlink ref="M27:P27" location="nop_dyn_module!A1" display="NopDynModule" xr:uid="{6580E2C8-10D8-477F-BE0A-37F2A03BFA6D}"/>
+    <hyperlink ref="M28:P28" location="nop_dyn_module!A1" display="NopDynModule" xr:uid="{6580E2C8-10D8-477F-BE0A-37F2A03BFA6D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/nop-dyn/model/nop-dyn.orm.xlsx
+++ b/nop-dyn/model/nop-dyn.orm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-dyn\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8F04102-4AC7-4A9B-A743-79B03BD6F2BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5186B07B-A8E4-471F-AFBD-6B7AC3398D73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" firstSheet="9" activeTab="11" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" firstSheet="3" activeTab="5" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="2" r:id="rId1"/>
@@ -2485,25 +2485,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2542,7 +2533,13 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2566,25 +2563,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2594,36 +2624,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
@@ -3180,132 +3180,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="48" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="47" t="s">
         <v>328</v>
       </c>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="50"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="49"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="32"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="33"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="28"/>
       <c r="N1" s="14"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="48" t="s">
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="47" t="s">
         <v>329</v>
       </c>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="50"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="49"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="51" t="s">
+      <c r="I2" s="50" t="s">
         <v>330</v>
       </c>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="53"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="52"/>
       <c r="N2" s="13"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="50"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="49"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="33"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="28"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="50"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="49"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="32"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="33"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="28"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="46"/>
-      <c r="O6" s="46"/>
-      <c r="P6" s="46"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="53"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="53"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -4272,50 +4272,50 @@
       <c r="P36" s="1"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A38" s="71" t="s">
+      <c r="A38" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="B38" s="72"/>
-      <c r="C38" s="72"/>
-      <c r="D38" s="72"/>
-      <c r="E38" s="72"/>
-      <c r="F38" s="72"/>
-      <c r="G38" s="72"/>
-      <c r="H38" s="72"/>
-      <c r="I38" s="72"/>
-      <c r="J38" s="72"/>
-      <c r="K38" s="72"/>
-      <c r="L38" s="72"/>
-      <c r="M38" s="72"/>
-      <c r="N38" s="72"/>
-      <c r="O38" s="72"/>
-      <c r="P38" s="73"/>
+      <c r="B38" s="69"/>
+      <c r="C38" s="69"/>
+      <c r="D38" s="69"/>
+      <c r="E38" s="69"/>
+      <c r="F38" s="69"/>
+      <c r="G38" s="69"/>
+      <c r="H38" s="69"/>
+      <c r="I38" s="69"/>
+      <c r="J38" s="69"/>
+      <c r="K38" s="69"/>
+      <c r="L38" s="69"/>
+      <c r="M38" s="69"/>
+      <c r="N38" s="69"/>
+      <c r="O38" s="69"/>
+      <c r="P38" s="70"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A39" s="27">
+      <c r="A39" s="43">
         <v>1</v>
       </c>
-      <c r="B39" s="54" t="s">
+      <c r="B39" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="C39" s="55"/>
-      <c r="D39" s="32" t="s">
+      <c r="C39" s="61"/>
+      <c r="D39" s="27" t="s">
         <v>336</v>
       </c>
-      <c r="E39" s="34"/>
-      <c r="F39" s="34"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="31"/>
       <c r="G39" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H39" s="32" t="s">
+      <c r="H39" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="I39" s="34"/>
-      <c r="J39" s="33"/>
-      <c r="K39" s="56" t="s">
+      <c r="I39" s="31"/>
+      <c r="J39" s="28"/>
+      <c r="K39" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="L39" s="57"/>
+      <c r="L39" s="56"/>
       <c r="M39" s="74" t="s">
         <v>338</v>
       </c>
@@ -4324,194 +4324,194 @@
       <c r="P39" s="76"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A40" s="28"/>
-      <c r="B40" s="54" t="s">
+      <c r="A40" s="44"/>
+      <c r="B40" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="C40" s="55"/>
-      <c r="D40" s="32" t="s">
+      <c r="C40" s="61"/>
+      <c r="D40" s="27" t="s">
         <v>281</v>
       </c>
-      <c r="E40" s="34"/>
-      <c r="F40" s="34"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="31"/>
       <c r="G40" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H40" s="32" t="s">
+      <c r="H40" s="27" t="s">
         <v>280</v>
       </c>
-      <c r="I40" s="34"/>
-      <c r="J40" s="33"/>
-      <c r="K40" s="56" t="s">
+      <c r="I40" s="31"/>
+      <c r="J40" s="28"/>
+      <c r="K40" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="L40" s="57"/>
-      <c r="M40" s="51" t="s">
+      <c r="L40" s="56"/>
+      <c r="M40" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="N40" s="52"/>
-      <c r="O40" s="52"/>
-      <c r="P40" s="53"/>
+      <c r="N40" s="51"/>
+      <c r="O40" s="51"/>
+      <c r="P40" s="52"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A41" s="28"/>
-      <c r="B41" s="54" t="s">
+      <c r="A41" s="44"/>
+      <c r="B41" s="60" t="s">
         <v>98</v>
       </c>
-      <c r="C41" s="55"/>
-      <c r="D41" s="32"/>
-      <c r="E41" s="34"/>
-      <c r="F41" s="34"/>
+      <c r="C41" s="61"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
       <c r="G41" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="H41" s="34"/>
-      <c r="I41" s="34"/>
-      <c r="J41" s="33"/>
+      <c r="H41" s="31"/>
+      <c r="I41" s="31"/>
+      <c r="J41" s="28"/>
       <c r="K41" s="15"/>
       <c r="L41" s="16"/>
-      <c r="M41" s="51"/>
-      <c r="N41" s="52"/>
-      <c r="O41" s="52"/>
-      <c r="P41" s="53"/>
+      <c r="M41" s="50"/>
+      <c r="N41" s="51"/>
+      <c r="O41" s="51"/>
+      <c r="P41" s="52"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A42" s="28"/>
-      <c r="B42" s="54" t="s">
+      <c r="A42" s="44"/>
+      <c r="B42" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="C42" s="55"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="34"/>
-      <c r="F42" s="34"/>
-      <c r="G42" s="34"/>
-      <c r="H42" s="34"/>
-      <c r="I42" s="34"/>
-      <c r="J42" s="33"/>
-      <c r="K42" s="56" t="s">
+      <c r="C42" s="61"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="28"/>
+      <c r="K42" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="L42" s="57"/>
-      <c r="M42" s="51" t="s">
+      <c r="L42" s="56"/>
+      <c r="M42" s="50" t="s">
         <v>143</v>
       </c>
-      <c r="N42" s="52"/>
-      <c r="O42" s="52"/>
-      <c r="P42" s="53"/>
+      <c r="N42" s="51"/>
+      <c r="O42" s="51"/>
+      <c r="P42" s="52"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A43" s="28"/>
-      <c r="B43" s="67" t="s">
+      <c r="A43" s="44"/>
+      <c r="B43" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="C43" s="69"/>
-      <c r="D43" s="69"/>
-      <c r="E43" s="69"/>
-      <c r="F43" s="69"/>
-      <c r="G43" s="69"/>
-      <c r="H43" s="69"/>
-      <c r="I43" s="69"/>
-      <c r="J43" s="68"/>
-      <c r="K43" s="67"/>
-      <c r="L43" s="68"/>
-      <c r="M43" s="67"/>
-      <c r="N43" s="69"/>
-      <c r="O43" s="69"/>
-      <c r="P43" s="68"/>
+      <c r="C43" s="63"/>
+      <c r="D43" s="63"/>
+      <c r="E43" s="63"/>
+      <c r="F43" s="63"/>
+      <c r="G43" s="63"/>
+      <c r="H43" s="63"/>
+      <c r="I43" s="63"/>
+      <c r="J43" s="64"/>
+      <c r="K43" s="62"/>
+      <c r="L43" s="64"/>
+      <c r="M43" s="62"/>
+      <c r="N43" s="63"/>
+      <c r="O43" s="63"/>
+      <c r="P43" s="64"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A44" s="28"/>
+      <c r="A44" s="44"/>
       <c r="B44" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C44" s="56" t="s">
+      <c r="C44" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="D44" s="70"/>
-      <c r="E44" s="57"/>
+      <c r="D44" s="55"/>
+      <c r="E44" s="56"/>
       <c r="F44" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G44" s="56" t="s">
+      <c r="G44" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="H44" s="57"/>
-      <c r="I44" s="56" t="s">
+      <c r="H44" s="56"/>
+      <c r="I44" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="J44" s="57"/>
-      <c r="K44" s="61"/>
-      <c r="L44" s="63"/>
-      <c r="M44" s="61"/>
-      <c r="N44" s="62"/>
-      <c r="O44" s="62"/>
-      <c r="P44" s="63"/>
+      <c r="J44" s="56"/>
+      <c r="K44" s="71"/>
+      <c r="L44" s="73"/>
+      <c r="M44" s="71"/>
+      <c r="N44" s="72"/>
+      <c r="O44" s="72"/>
+      <c r="P44" s="73"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A45" s="28"/>
+      <c r="A45" s="44"/>
       <c r="B45" s="8">
         <v>1</v>
       </c>
-      <c r="C45" s="64" t="s">
+      <c r="C45" s="57" t="s">
         <v>339</v>
       </c>
-      <c r="D45" s="66"/>
-      <c r="E45" s="65"/>
+      <c r="D45" s="58"/>
+      <c r="E45" s="59"/>
       <c r="F45" s="3"/>
-      <c r="G45" s="64" t="s">
+      <c r="G45" s="57" t="s">
         <v>339</v>
       </c>
-      <c r="H45" s="65"/>
+      <c r="H45" s="59"/>
       <c r="I45" s="3"/>
       <c r="J45" s="4"/>
-      <c r="K45" s="58"/>
-      <c r="L45" s="59"/>
-      <c r="M45" s="58"/>
-      <c r="N45" s="60"/>
-      <c r="O45" s="60"/>
-      <c r="P45" s="59"/>
+      <c r="K45" s="65"/>
+      <c r="L45" s="67"/>
+      <c r="M45" s="65"/>
+      <c r="N45" s="66"/>
+      <c r="O45" s="66"/>
+      <c r="P45" s="67"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A46" s="28"/>
-      <c r="B46" s="64"/>
-      <c r="C46" s="66"/>
-      <c r="D46" s="66"/>
-      <c r="E46" s="65"/>
+      <c r="A46" s="44"/>
+      <c r="B46" s="57"/>
+      <c r="C46" s="58"/>
+      <c r="D46" s="58"/>
+      <c r="E46" s="59"/>
       <c r="F46" s="3"/>
-      <c r="G46" s="64"/>
-      <c r="H46" s="65"/>
+      <c r="G46" s="57"/>
+      <c r="H46" s="59"/>
       <c r="I46" s="3"/>
       <c r="J46" s="4"/>
-      <c r="K46" s="58"/>
-      <c r="L46" s="59"/>
-      <c r="M46" s="58"/>
-      <c r="N46" s="60"/>
-      <c r="O46" s="60"/>
-      <c r="P46" s="59"/>
+      <c r="K46" s="65"/>
+      <c r="L46" s="67"/>
+      <c r="M46" s="65"/>
+      <c r="N46" s="66"/>
+      <c r="O46" s="66"/>
+      <c r="P46" s="67"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A47" s="27">
+      <c r="A47" s="43">
         <v>2</v>
       </c>
-      <c r="B47" s="54" t="s">
+      <c r="B47" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="C47" s="55"/>
-      <c r="D47" s="32" t="s">
+      <c r="C47" s="61"/>
+      <c r="D47" s="27" t="s">
         <v>401</v>
       </c>
-      <c r="E47" s="34"/>
-      <c r="F47" s="34"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="31"/>
       <c r="G47" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H47" s="32"/>
-      <c r="I47" s="34"/>
-      <c r="J47" s="33"/>
-      <c r="K47" s="56" t="s">
+      <c r="H47" s="27"/>
+      <c r="I47" s="31"/>
+      <c r="J47" s="28"/>
+      <c r="K47" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="L47" s="57"/>
+      <c r="L47" s="56"/>
       <c r="M47" s="74" t="s">
         <v>402</v>
       </c>
@@ -4520,185 +4520,229 @@
       <c r="P47" s="76"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A48" s="28"/>
-      <c r="B48" s="54" t="s">
+      <c r="A48" s="44"/>
+      <c r="B48" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="C48" s="55"/>
-      <c r="D48" s="32" t="s">
+      <c r="C48" s="61"/>
+      <c r="D48" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="E48" s="34"/>
-      <c r="F48" s="34"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="31"/>
       <c r="G48" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H48" s="32" t="s">
+      <c r="H48" s="27" t="s">
         <v>392</v>
       </c>
-      <c r="I48" s="34"/>
-      <c r="J48" s="33"/>
-      <c r="K48" s="56" t="s">
+      <c r="I48" s="31"/>
+      <c r="J48" s="28"/>
+      <c r="K48" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="L48" s="57"/>
-      <c r="M48" s="51" t="s">
+      <c r="L48" s="56"/>
+      <c r="M48" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="N48" s="52"/>
-      <c r="O48" s="52"/>
-      <c r="P48" s="53"/>
+      <c r="N48" s="51"/>
+      <c r="O48" s="51"/>
+      <c r="P48" s="52"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A49" s="28"/>
-      <c r="B49" s="54" t="s">
+      <c r="A49" s="44"/>
+      <c r="B49" s="60" t="s">
         <v>98</v>
       </c>
-      <c r="C49" s="55"/>
-      <c r="D49" s="32"/>
-      <c r="E49" s="34"/>
-      <c r="F49" s="34"/>
+      <c r="C49" s="61"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="31"/>
+      <c r="F49" s="31"/>
       <c r="G49" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="H49" s="34"/>
-      <c r="I49" s="34"/>
-      <c r="J49" s="33"/>
+      <c r="H49" s="31"/>
+      <c r="I49" s="31"/>
+      <c r="J49" s="28"/>
       <c r="K49" s="15"/>
       <c r="L49" s="16"/>
-      <c r="M49" s="51"/>
-      <c r="N49" s="52"/>
-      <c r="O49" s="52"/>
-      <c r="P49" s="53"/>
+      <c r="M49" s="50"/>
+      <c r="N49" s="51"/>
+      <c r="O49" s="51"/>
+      <c r="P49" s="52"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A50" s="28"/>
-      <c r="B50" s="54" t="s">
+      <c r="A50" s="44"/>
+      <c r="B50" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="C50" s="55"/>
-      <c r="D50" s="32"/>
-      <c r="E50" s="34"/>
-      <c r="F50" s="34"/>
-      <c r="G50" s="34"/>
-      <c r="H50" s="34"/>
-      <c r="I50" s="34"/>
-      <c r="J50" s="33"/>
-      <c r="K50" s="56" t="s">
+      <c r="C50" s="61"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="31"/>
+      <c r="G50" s="31"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="31"/>
+      <c r="J50" s="28"/>
+      <c r="K50" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="L50" s="57"/>
-      <c r="M50" s="51" t="s">
+      <c r="L50" s="56"/>
+      <c r="M50" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="N50" s="52"/>
-      <c r="O50" s="52"/>
-      <c r="P50" s="53"/>
+      <c r="N50" s="51"/>
+      <c r="O50" s="51"/>
+      <c r="P50" s="52"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A51" s="28"/>
-      <c r="B51" s="67" t="s">
+      <c r="A51" s="44"/>
+      <c r="B51" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="C51" s="69"/>
-      <c r="D51" s="69"/>
-      <c r="E51" s="69"/>
-      <c r="F51" s="69"/>
-      <c r="G51" s="69"/>
-      <c r="H51" s="69"/>
-      <c r="I51" s="69"/>
-      <c r="J51" s="68"/>
-      <c r="K51" s="67"/>
-      <c r="L51" s="68"/>
-      <c r="M51" s="67"/>
-      <c r="N51" s="69"/>
-      <c r="O51" s="69"/>
-      <c r="P51" s="68"/>
+      <c r="C51" s="63"/>
+      <c r="D51" s="63"/>
+      <c r="E51" s="63"/>
+      <c r="F51" s="63"/>
+      <c r="G51" s="63"/>
+      <c r="H51" s="63"/>
+      <c r="I51" s="63"/>
+      <c r="J51" s="64"/>
+      <c r="K51" s="62"/>
+      <c r="L51" s="64"/>
+      <c r="M51" s="62"/>
+      <c r="N51" s="63"/>
+      <c r="O51" s="63"/>
+      <c r="P51" s="64"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A52" s="28"/>
+      <c r="A52" s="44"/>
       <c r="B52" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C52" s="56" t="s">
+      <c r="C52" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="D52" s="70"/>
-      <c r="E52" s="57"/>
+      <c r="D52" s="55"/>
+      <c r="E52" s="56"/>
       <c r="F52" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G52" s="56" t="s">
+      <c r="G52" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="H52" s="57"/>
-      <c r="I52" s="56" t="s">
+      <c r="H52" s="56"/>
+      <c r="I52" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="J52" s="57"/>
-      <c r="K52" s="61"/>
-      <c r="L52" s="63"/>
-      <c r="M52" s="61"/>
-      <c r="N52" s="62"/>
-      <c r="O52" s="62"/>
-      <c r="P52" s="63"/>
+      <c r="J52" s="56"/>
+      <c r="K52" s="71"/>
+      <c r="L52" s="73"/>
+      <c r="M52" s="71"/>
+      <c r="N52" s="72"/>
+      <c r="O52" s="72"/>
+      <c r="P52" s="73"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A53" s="28"/>
+      <c r="A53" s="44"/>
       <c r="B53" s="8">
         <v>1</v>
       </c>
-      <c r="C53" s="64" t="s">
+      <c r="C53" s="57" t="s">
         <v>403</v>
       </c>
-      <c r="D53" s="66"/>
-      <c r="E53" s="65"/>
+      <c r="D53" s="58"/>
+      <c r="E53" s="59"/>
       <c r="F53" s="3"/>
-      <c r="G53" s="64" t="s">
+      <c r="G53" s="57" t="s">
         <v>403</v>
       </c>
-      <c r="H53" s="65"/>
+      <c r="H53" s="59"/>
       <c r="I53" s="3"/>
       <c r="J53" s="4"/>
-      <c r="K53" s="58"/>
-      <c r="L53" s="59"/>
-      <c r="M53" s="58"/>
-      <c r="N53" s="60"/>
-      <c r="O53" s="60"/>
-      <c r="P53" s="59"/>
+      <c r="K53" s="65"/>
+      <c r="L53" s="67"/>
+      <c r="M53" s="65"/>
+      <c r="N53" s="66"/>
+      <c r="O53" s="66"/>
+      <c r="P53" s="67"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A54" s="28"/>
-      <c r="B54" s="64"/>
-      <c r="C54" s="66"/>
-      <c r="D54" s="66"/>
-      <c r="E54" s="65"/>
+      <c r="A54" s="44"/>
+      <c r="B54" s="57"/>
+      <c r="C54" s="58"/>
+      <c r="D54" s="58"/>
+      <c r="E54" s="59"/>
       <c r="F54" s="3"/>
-      <c r="G54" s="64"/>
-      <c r="H54" s="65"/>
+      <c r="G54" s="57"/>
+      <c r="H54" s="59"/>
       <c r="I54" s="3"/>
       <c r="J54" s="4"/>
-      <c r="K54" s="58"/>
-      <c r="L54" s="59"/>
-      <c r="M54" s="58"/>
-      <c r="N54" s="60"/>
-      <c r="O54" s="60"/>
-      <c r="P54" s="59"/>
+      <c r="K54" s="65"/>
+      <c r="L54" s="67"/>
+      <c r="M54" s="65"/>
+      <c r="N54" s="66"/>
+      <c r="O54" s="66"/>
+      <c r="P54" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:L4"/>
+    <mergeCell ref="M53:P53"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="M54:P54"/>
+    <mergeCell ref="M51:P51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="M52:P52"/>
+    <mergeCell ref="M49:P49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:J50"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="M50:P50"/>
+    <mergeCell ref="M47:P47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="M48:P48"/>
+    <mergeCell ref="A47:A54"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="B51:J51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="B43:J43"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="M43:P43"/>
+    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="M46:P46"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="M44:P44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="M45:P45"/>
+    <mergeCell ref="M41:P41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:J42"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="M42:P42"/>
     <mergeCell ref="A6:P6"/>
     <mergeCell ref="A38:P38"/>
     <mergeCell ref="A39:A46"/>
@@ -4715,62 +4759,18 @@
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="D41:F41"/>
     <mergeCell ref="H41:J41"/>
-    <mergeCell ref="M41:P41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:J42"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="M42:P42"/>
-    <mergeCell ref="B43:J43"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="M43:P43"/>
-    <mergeCell ref="B46:E46"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="M46:P46"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="M44:P44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="M45:P45"/>
-    <mergeCell ref="A47:A54"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="B51:J51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="M47:P47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="M48:P48"/>
-    <mergeCell ref="M49:P49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:J50"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="M50:P50"/>
-    <mergeCell ref="M51:P51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="M52:P52"/>
-    <mergeCell ref="M53:P53"/>
-    <mergeCell ref="B54:E54"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="M54:P54"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:L4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -4807,132 +4807,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="48" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="47" t="s">
         <v>444</v>
       </c>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="50"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="49"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="32"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="33"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="28"/>
       <c r="N1" s="14"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="48" t="s">
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="47" t="s">
         <v>445</v>
       </c>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="50"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="49"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="51" t="s">
+      <c r="I2" s="50" t="s">
         <v>446</v>
       </c>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="53"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="52"/>
       <c r="N2" s="13"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="50"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="49"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="33"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="28"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="50"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="49"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="32"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="33"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="28"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="46"/>
-      <c r="O6" s="46"/>
-      <c r="P6" s="46"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="53"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="53"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -5553,48 +5553,48 @@
       <c r="P25" s="1"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="71" t="s">
+      <c r="A27" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="72"/>
-      <c r="C27" s="72"/>
-      <c r="D27" s="72"/>
-      <c r="E27" s="72"/>
-      <c r="F27" s="72"/>
-      <c r="G27" s="72"/>
-      <c r="H27" s="72"/>
-      <c r="I27" s="72"/>
-      <c r="J27" s="72"/>
-      <c r="K27" s="72"/>
-      <c r="L27" s="72"/>
-      <c r="M27" s="72"/>
-      <c r="N27" s="72"/>
-      <c r="O27" s="72"/>
-      <c r="P27" s="73"/>
+      <c r="B27" s="69"/>
+      <c r="C27" s="69"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="69"/>
+      <c r="G27" s="69"/>
+      <c r="H27" s="69"/>
+      <c r="I27" s="69"/>
+      <c r="J27" s="69"/>
+      <c r="K27" s="69"/>
+      <c r="L27" s="69"/>
+      <c r="M27" s="69"/>
+      <c r="N27" s="69"/>
+      <c r="O27" s="69"/>
+      <c r="P27" s="70"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="27">
+      <c r="A28" s="43">
         <v>1</v>
       </c>
-      <c r="B28" s="54" t="s">
+      <c r="B28" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="55"/>
-      <c r="D28" s="32" t="s">
+      <c r="C28" s="61"/>
+      <c r="D28" s="27" t="s">
         <v>469</v>
       </c>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
       <c r="G28" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H28" s="32"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="56" t="s">
+      <c r="H28" s="27"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="L28" s="57"/>
+      <c r="L28" s="56"/>
       <c r="M28" s="74" t="s">
         <v>338</v>
       </c>
@@ -5603,194 +5603,194 @@
       <c r="P28" s="76"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="28"/>
-      <c r="B29" s="54" t="s">
+      <c r="A29" s="44"/>
+      <c r="B29" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="55"/>
-      <c r="D29" s="32" t="s">
+      <c r="C29" s="61"/>
+      <c r="D29" s="27" t="s">
         <v>470</v>
       </c>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
       <c r="G29" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H29" s="32" t="s">
+      <c r="H29" s="27" t="s">
         <v>471</v>
       </c>
-      <c r="I29" s="34"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="56" t="s">
+      <c r="I29" s="31"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="L29" s="57"/>
-      <c r="M29" s="51" t="s">
+      <c r="L29" s="56"/>
+      <c r="M29" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="N29" s="52"/>
-      <c r="O29" s="52"/>
-      <c r="P29" s="53"/>
+      <c r="N29" s="51"/>
+      <c r="O29" s="51"/>
+      <c r="P29" s="52"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="28"/>
-      <c r="B30" s="54" t="s">
+      <c r="A30" s="44"/>
+      <c r="B30" s="60" t="s">
         <v>98</v>
       </c>
-      <c r="C30" s="55"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="34"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
       <c r="G30" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="H30" s="34"/>
-      <c r="I30" s="34"/>
-      <c r="J30" s="33"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="28"/>
       <c r="K30" s="15"/>
       <c r="L30" s="16"/>
-      <c r="M30" s="51"/>
-      <c r="N30" s="52"/>
-      <c r="O30" s="52"/>
-      <c r="P30" s="53"/>
+      <c r="M30" s="50"/>
+      <c r="N30" s="51"/>
+      <c r="O30" s="51"/>
+      <c r="P30" s="52"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="28"/>
-      <c r="B31" s="54" t="s">
+      <c r="A31" s="44"/>
+      <c r="B31" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="55"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="34"/>
-      <c r="J31" s="33"/>
-      <c r="K31" s="56" t="s">
+      <c r="C31" s="61"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="28"/>
+      <c r="K31" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="L31" s="57"/>
-      <c r="M31" s="51" t="s">
+      <c r="L31" s="56"/>
+      <c r="M31" s="50" t="s">
         <v>143</v>
       </c>
-      <c r="N31" s="52"/>
-      <c r="O31" s="52"/>
-      <c r="P31" s="53"/>
+      <c r="N31" s="51"/>
+      <c r="O31" s="51"/>
+      <c r="P31" s="52"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="28"/>
-      <c r="B32" s="67" t="s">
+      <c r="A32" s="44"/>
+      <c r="B32" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="C32" s="69"/>
-      <c r="D32" s="69"/>
-      <c r="E32" s="69"/>
-      <c r="F32" s="69"/>
-      <c r="G32" s="69"/>
-      <c r="H32" s="69"/>
-      <c r="I32" s="69"/>
-      <c r="J32" s="68"/>
-      <c r="K32" s="67"/>
-      <c r="L32" s="68"/>
-      <c r="M32" s="67"/>
-      <c r="N32" s="69"/>
-      <c r="O32" s="69"/>
-      <c r="P32" s="68"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="63"/>
+      <c r="G32" s="63"/>
+      <c r="H32" s="63"/>
+      <c r="I32" s="63"/>
+      <c r="J32" s="64"/>
+      <c r="K32" s="62"/>
+      <c r="L32" s="64"/>
+      <c r="M32" s="62"/>
+      <c r="N32" s="63"/>
+      <c r="O32" s="63"/>
+      <c r="P32" s="64"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A33" s="28"/>
+      <c r="A33" s="44"/>
       <c r="B33" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="56" t="s">
+      <c r="C33" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="D33" s="70"/>
-      <c r="E33" s="57"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="56"/>
       <c r="F33" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G33" s="56" t="s">
+      <c r="G33" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="H33" s="57"/>
-      <c r="I33" s="56" t="s">
+      <c r="H33" s="56"/>
+      <c r="I33" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="J33" s="57"/>
-      <c r="K33" s="61"/>
-      <c r="L33" s="63"/>
-      <c r="M33" s="61"/>
-      <c r="N33" s="62"/>
-      <c r="O33" s="62"/>
-      <c r="P33" s="63"/>
+      <c r="J33" s="56"/>
+      <c r="K33" s="71"/>
+      <c r="L33" s="73"/>
+      <c r="M33" s="71"/>
+      <c r="N33" s="72"/>
+      <c r="O33" s="72"/>
+      <c r="P33" s="73"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A34" s="28"/>
+      <c r="A34" s="44"/>
       <c r="B34" s="8">
         <v>1</v>
       </c>
-      <c r="C34" s="64" t="s">
+      <c r="C34" s="57" t="s">
         <v>472</v>
       </c>
-      <c r="D34" s="66"/>
-      <c r="E34" s="65"/>
+      <c r="D34" s="58"/>
+      <c r="E34" s="59"/>
       <c r="F34" s="3"/>
-      <c r="G34" s="64" t="s">
+      <c r="G34" s="57" t="s">
         <v>339</v>
       </c>
-      <c r="H34" s="65"/>
+      <c r="H34" s="59"/>
       <c r="I34" s="3"/>
       <c r="J34" s="4"/>
-      <c r="K34" s="58"/>
-      <c r="L34" s="59"/>
-      <c r="M34" s="58"/>
-      <c r="N34" s="60"/>
-      <c r="O34" s="60"/>
-      <c r="P34" s="59"/>
+      <c r="K34" s="65"/>
+      <c r="L34" s="67"/>
+      <c r="M34" s="65"/>
+      <c r="N34" s="66"/>
+      <c r="O34" s="66"/>
+      <c r="P34" s="67"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A35" s="28"/>
-      <c r="B35" s="64"/>
-      <c r="C35" s="66"/>
-      <c r="D35" s="66"/>
-      <c r="E35" s="65"/>
+      <c r="A35" s="44"/>
+      <c r="B35" s="57"/>
+      <c r="C35" s="58"/>
+      <c r="D35" s="58"/>
+      <c r="E35" s="59"/>
       <c r="F35" s="3"/>
-      <c r="G35" s="64"/>
-      <c r="H35" s="65"/>
+      <c r="G35" s="57"/>
+      <c r="H35" s="59"/>
       <c r="I35" s="3"/>
       <c r="J35" s="4"/>
-      <c r="K35" s="58"/>
-      <c r="L35" s="59"/>
-      <c r="M35" s="58"/>
-      <c r="N35" s="60"/>
-      <c r="O35" s="60"/>
-      <c r="P35" s="59"/>
+      <c r="K35" s="65"/>
+      <c r="L35" s="67"/>
+      <c r="M35" s="65"/>
+      <c r="N35" s="66"/>
+      <c r="O35" s="66"/>
+      <c r="P35" s="67"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A36" s="27">
+      <c r="A36" s="43">
         <v>2</v>
       </c>
-      <c r="B36" s="54" t="s">
+      <c r="B36" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="55"/>
-      <c r="D36" s="32" t="s">
+      <c r="C36" s="61"/>
+      <c r="D36" s="27" t="s">
         <v>473</v>
       </c>
-      <c r="E36" s="34"/>
-      <c r="F36" s="34"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
       <c r="G36" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H36" s="32"/>
-      <c r="I36" s="34"/>
-      <c r="J36" s="33"/>
-      <c r="K36" s="56" t="s">
+      <c r="H36" s="27"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="28"/>
+      <c r="K36" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="L36" s="57"/>
+      <c r="L36" s="56"/>
       <c r="M36" s="74" t="s">
         <v>338</v>
       </c>
@@ -5799,220 +5799,194 @@
       <c r="P36" s="76"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A37" s="28"/>
-      <c r="B37" s="54" t="s">
+      <c r="A37" s="44"/>
+      <c r="B37" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="C37" s="55"/>
-      <c r="D37" s="32" t="s">
+      <c r="C37" s="61"/>
+      <c r="D37" s="27" t="s">
         <v>474</v>
       </c>
-      <c r="E37" s="34"/>
-      <c r="F37" s="34"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
       <c r="G37" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H37" s="32" t="s">
+      <c r="H37" s="27" t="s">
         <v>475</v>
       </c>
-      <c r="I37" s="34"/>
-      <c r="J37" s="33"/>
-      <c r="K37" s="56" t="s">
+      <c r="I37" s="31"/>
+      <c r="J37" s="28"/>
+      <c r="K37" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="L37" s="57"/>
-      <c r="M37" s="51" t="s">
+      <c r="L37" s="56"/>
+      <c r="M37" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="N37" s="52"/>
-      <c r="O37" s="52"/>
-      <c r="P37" s="53"/>
+      <c r="N37" s="51"/>
+      <c r="O37" s="51"/>
+      <c r="P37" s="52"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A38" s="28"/>
-      <c r="B38" s="54" t="s">
+      <c r="A38" s="44"/>
+      <c r="B38" s="60" t="s">
         <v>98</v>
       </c>
-      <c r="C38" s="55"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="34"/>
-      <c r="F38" s="34"/>
+      <c r="C38" s="61"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
       <c r="G38" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="H38" s="34"/>
-      <c r="I38" s="34"/>
-      <c r="J38" s="33"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="28"/>
       <c r="K38" s="15"/>
       <c r="L38" s="16"/>
-      <c r="M38" s="51"/>
-      <c r="N38" s="52"/>
-      <c r="O38" s="52"/>
-      <c r="P38" s="53"/>
+      <c r="M38" s="50"/>
+      <c r="N38" s="51"/>
+      <c r="O38" s="51"/>
+      <c r="P38" s="52"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A39" s="28"/>
-      <c r="B39" s="54" t="s">
+      <c r="A39" s="44"/>
+      <c r="B39" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="C39" s="55"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="34"/>
-      <c r="F39" s="34"/>
-      <c r="G39" s="34"/>
-      <c r="H39" s="34"/>
-      <c r="I39" s="34"/>
-      <c r="J39" s="33"/>
-      <c r="K39" s="56" t="s">
+      <c r="C39" s="61"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="28"/>
+      <c r="K39" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="L39" s="57"/>
-      <c r="M39" s="51" t="s">
+      <c r="L39" s="56"/>
+      <c r="M39" s="50" t="s">
         <v>143</v>
       </c>
-      <c r="N39" s="52"/>
-      <c r="O39" s="52"/>
-      <c r="P39" s="53"/>
+      <c r="N39" s="51"/>
+      <c r="O39" s="51"/>
+      <c r="P39" s="52"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A40" s="28"/>
-      <c r="B40" s="67" t="s">
+      <c r="A40" s="44"/>
+      <c r="B40" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="C40" s="69"/>
-      <c r="D40" s="69"/>
-      <c r="E40" s="69"/>
-      <c r="F40" s="69"/>
-      <c r="G40" s="69"/>
-      <c r="H40" s="69"/>
-      <c r="I40" s="69"/>
-      <c r="J40" s="68"/>
-      <c r="K40" s="67"/>
-      <c r="L40" s="68"/>
-      <c r="M40" s="67"/>
-      <c r="N40" s="69"/>
-      <c r="O40" s="69"/>
-      <c r="P40" s="68"/>
+      <c r="C40" s="63"/>
+      <c r="D40" s="63"/>
+      <c r="E40" s="63"/>
+      <c r="F40" s="63"/>
+      <c r="G40" s="63"/>
+      <c r="H40" s="63"/>
+      <c r="I40" s="63"/>
+      <c r="J40" s="64"/>
+      <c r="K40" s="62"/>
+      <c r="L40" s="64"/>
+      <c r="M40" s="62"/>
+      <c r="N40" s="63"/>
+      <c r="O40" s="63"/>
+      <c r="P40" s="64"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A41" s="28"/>
+      <c r="A41" s="44"/>
       <c r="B41" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C41" s="56" t="s">
+      <c r="C41" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="D41" s="70"/>
-      <c r="E41" s="57"/>
+      <c r="D41" s="55"/>
+      <c r="E41" s="56"/>
       <c r="F41" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G41" s="56" t="s">
+      <c r="G41" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="H41" s="57"/>
-      <c r="I41" s="56" t="s">
+      <c r="H41" s="56"/>
+      <c r="I41" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="J41" s="57"/>
-      <c r="K41" s="61"/>
-      <c r="L41" s="63"/>
-      <c r="M41" s="61"/>
-      <c r="N41" s="62"/>
-      <c r="O41" s="62"/>
-      <c r="P41" s="63"/>
+      <c r="J41" s="56"/>
+      <c r="K41" s="71"/>
+      <c r="L41" s="73"/>
+      <c r="M41" s="71"/>
+      <c r="N41" s="72"/>
+      <c r="O41" s="72"/>
+      <c r="P41" s="73"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A42" s="28"/>
+      <c r="A42" s="44"/>
       <c r="B42" s="8">
         <v>1</v>
       </c>
-      <c r="C42" s="64" t="s">
+      <c r="C42" s="57" t="s">
         <v>476</v>
       </c>
-      <c r="D42" s="66"/>
-      <c r="E42" s="65"/>
+      <c r="D42" s="58"/>
+      <c r="E42" s="59"/>
       <c r="F42" s="3"/>
-      <c r="G42" s="64" t="s">
+      <c r="G42" s="57" t="s">
         <v>339</v>
       </c>
-      <c r="H42" s="65"/>
+      <c r="H42" s="59"/>
       <c r="I42" s="3"/>
       <c r="J42" s="4"/>
-      <c r="K42" s="58"/>
-      <c r="L42" s="59"/>
-      <c r="M42" s="58"/>
-      <c r="N42" s="60"/>
-      <c r="O42" s="60"/>
-      <c r="P42" s="59"/>
+      <c r="K42" s="65"/>
+      <c r="L42" s="67"/>
+      <c r="M42" s="65"/>
+      <c r="N42" s="66"/>
+      <c r="O42" s="66"/>
+      <c r="P42" s="67"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A43" s="28"/>
-      <c r="B43" s="64"/>
-      <c r="C43" s="66"/>
-      <c r="D43" s="66"/>
-      <c r="E43" s="65"/>
+      <c r="A43" s="44"/>
+      <c r="B43" s="57"/>
+      <c r="C43" s="58"/>
+      <c r="D43" s="58"/>
+      <c r="E43" s="59"/>
       <c r="F43" s="3"/>
-      <c r="G43" s="64"/>
-      <c r="H43" s="65"/>
+      <c r="G43" s="57"/>
+      <c r="H43" s="59"/>
       <c r="I43" s="3"/>
       <c r="J43" s="4"/>
-      <c r="K43" s="58"/>
-      <c r="L43" s="59"/>
-      <c r="M43" s="58"/>
-      <c r="N43" s="60"/>
-      <c r="O43" s="60"/>
-      <c r="P43" s="59"/>
+      <c r="K43" s="65"/>
+      <c r="L43" s="67"/>
+      <c r="M43" s="65"/>
+      <c r="N43" s="66"/>
+      <c r="O43" s="66"/>
+      <c r="P43" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="M42:P42"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="M43:P43"/>
-    <mergeCell ref="M40:P40"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M41:P41"/>
-    <mergeCell ref="M38:P38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:P39"/>
-    <mergeCell ref="M36:P36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:P37"/>
-    <mergeCell ref="A36:A43"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="B40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:L4"/>
+    <mergeCell ref="B32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:P32"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="M35:P35"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="M33:P33"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="M34:P34"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:P31"/>
     <mergeCell ref="A6:P6"/>
     <mergeCell ref="A27:P27"/>
     <mergeCell ref="A28:A35"/>
@@ -6029,27 +6003,53 @@
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="D30:F30"/>
     <mergeCell ref="H30:J30"/>
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:J31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:P31"/>
-    <mergeCell ref="B32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:P32"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="M35:P35"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="M33:P33"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="M34:P34"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:L4"/>
+    <mergeCell ref="A36:A43"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="B40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="M36:P36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:P37"/>
+    <mergeCell ref="M38:P38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:P39"/>
+    <mergeCell ref="M40:P40"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:P41"/>
+    <mergeCell ref="M42:P42"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="M43:P43"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -6065,7 +6065,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F8B8ED6-4E67-4ACD-A9CD-16C476AFAB9F}">
   <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
@@ -6086,132 +6086,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="48" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="47" t="s">
         <v>496</v>
       </c>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="50"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="49"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="32"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="33"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="28"/>
       <c r="N1" s="14"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="48" t="s">
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="47" t="s">
         <v>478</v>
       </c>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="50"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="49"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="51" t="s">
+      <c r="I2" s="50" t="s">
         <v>495</v>
       </c>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="53"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="52"/>
       <c r="N2" s="13"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="50"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="49"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="33"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="28"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="50"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="49"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="32"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="33"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="28"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="46"/>
-      <c r="O6" s="46"/>
-      <c r="P6" s="46"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="53"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="53"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -6848,50 +6848,50 @@
       <c r="P25" s="1"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="71" t="s">
+      <c r="A27" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="72"/>
-      <c r="C27" s="72"/>
-      <c r="D27" s="72"/>
-      <c r="E27" s="72"/>
-      <c r="F27" s="72"/>
-      <c r="G27" s="72"/>
-      <c r="H27" s="72"/>
-      <c r="I27" s="72"/>
-      <c r="J27" s="72"/>
-      <c r="K27" s="72"/>
-      <c r="L27" s="72"/>
-      <c r="M27" s="72"/>
-      <c r="N27" s="72"/>
-      <c r="O27" s="72"/>
-      <c r="P27" s="73"/>
+      <c r="B27" s="69"/>
+      <c r="C27" s="69"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="69"/>
+      <c r="G27" s="69"/>
+      <c r="H27" s="69"/>
+      <c r="I27" s="69"/>
+      <c r="J27" s="69"/>
+      <c r="K27" s="69"/>
+      <c r="L27" s="69"/>
+      <c r="M27" s="69"/>
+      <c r="N27" s="69"/>
+      <c r="O27" s="69"/>
+      <c r="P27" s="70"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="27">
+      <c r="A28" s="43">
         <v>1</v>
       </c>
-      <c r="B28" s="54" t="s">
+      <c r="B28" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="55"/>
-      <c r="D28" s="32" t="s">
+      <c r="C28" s="61"/>
+      <c r="D28" s="27" t="s">
         <v>336</v>
       </c>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
       <c r="G28" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H28" s="32" t="s">
+      <c r="H28" s="27" t="s">
         <v>510</v>
       </c>
-      <c r="I28" s="34"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="56" t="s">
+      <c r="I28" s="31"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="L28" s="57"/>
+      <c r="L28" s="56"/>
       <c r="M28" s="74" t="s">
         <v>338</v>
       </c>
@@ -6900,189 +6900,198 @@
       <c r="P28" s="76"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="28"/>
-      <c r="B29" s="54" t="s">
+      <c r="A29" s="44"/>
+      <c r="B29" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="55"/>
-      <c r="D29" s="32" t="s">
+      <c r="C29" s="61"/>
+      <c r="D29" s="27" t="s">
         <v>281</v>
       </c>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
       <c r="G29" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H29" s="32" t="s">
+      <c r="H29" s="27" t="s">
         <v>280</v>
       </c>
-      <c r="I29" s="34"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="56" t="s">
+      <c r="I29" s="31"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="L29" s="57"/>
-      <c r="M29" s="51" t="s">
+      <c r="L29" s="56"/>
+      <c r="M29" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="N29" s="52"/>
-      <c r="O29" s="52"/>
-      <c r="P29" s="53"/>
+      <c r="N29" s="51"/>
+      <c r="O29" s="51"/>
+      <c r="P29" s="52"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="28"/>
-      <c r="B30" s="54" t="s">
+      <c r="A30" s="44"/>
+      <c r="B30" s="60" t="s">
         <v>98</v>
       </c>
-      <c r="C30" s="55"/>
-      <c r="D30" s="32" t="s">
+      <c r="C30" s="61"/>
+      <c r="D30" s="27" t="s">
         <v>511</v>
       </c>
-      <c r="E30" s="34"/>
-      <c r="F30" s="34"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
       <c r="G30" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="H30" s="34" t="s">
+      <c r="H30" s="31" t="s">
         <v>512</v>
       </c>
-      <c r="I30" s="34"/>
-      <c r="J30" s="33"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="28"/>
       <c r="K30" s="15"/>
       <c r="L30" s="16"/>
-      <c r="M30" s="51"/>
-      <c r="N30" s="52"/>
-      <c r="O30" s="52"/>
-      <c r="P30" s="53"/>
+      <c r="M30" s="50"/>
+      <c r="N30" s="51"/>
+      <c r="O30" s="51"/>
+      <c r="P30" s="52"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="28"/>
-      <c r="B31" s="54" t="s">
+      <c r="A31" s="44"/>
+      <c r="B31" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="55"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="34"/>
-      <c r="J31" s="33"/>
-      <c r="K31" s="56" t="s">
+      <c r="C31" s="61"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="28"/>
+      <c r="K31" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="L31" s="57"/>
-      <c r="M31" s="51" t="s">
+      <c r="L31" s="56"/>
+      <c r="M31" s="50" t="s">
         <v>143</v>
       </c>
-      <c r="N31" s="52"/>
-      <c r="O31" s="52"/>
-      <c r="P31" s="53"/>
+      <c r="N31" s="51"/>
+      <c r="O31" s="51"/>
+      <c r="P31" s="52"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="28"/>
-      <c r="B32" s="67" t="s">
+      <c r="A32" s="44"/>
+      <c r="B32" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="C32" s="69"/>
-      <c r="D32" s="69"/>
-      <c r="E32" s="69"/>
-      <c r="F32" s="69"/>
-      <c r="G32" s="69"/>
-      <c r="H32" s="69"/>
-      <c r="I32" s="69"/>
-      <c r="J32" s="68"/>
-      <c r="K32" s="67"/>
-      <c r="L32" s="68"/>
-      <c r="M32" s="67"/>
-      <c r="N32" s="69"/>
-      <c r="O32" s="69"/>
-      <c r="P32" s="68"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="63"/>
+      <c r="G32" s="63"/>
+      <c r="H32" s="63"/>
+      <c r="I32" s="63"/>
+      <c r="J32" s="64"/>
+      <c r="K32" s="62"/>
+      <c r="L32" s="64"/>
+      <c r="M32" s="62"/>
+      <c r="N32" s="63"/>
+      <c r="O32" s="63"/>
+      <c r="P32" s="64"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A33" s="28"/>
+      <c r="A33" s="44"/>
       <c r="B33" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="56" t="s">
+      <c r="C33" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="D33" s="70"/>
-      <c r="E33" s="57"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="56"/>
       <c r="F33" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G33" s="56" t="s">
+      <c r="G33" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="H33" s="57"/>
-      <c r="I33" s="56" t="s">
+      <c r="H33" s="56"/>
+      <c r="I33" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="J33" s="57"/>
-      <c r="K33" s="61"/>
-      <c r="L33" s="63"/>
-      <c r="M33" s="61"/>
-      <c r="N33" s="62"/>
-      <c r="O33" s="62"/>
-      <c r="P33" s="63"/>
+      <c r="J33" s="56"/>
+      <c r="K33" s="71"/>
+      <c r="L33" s="73"/>
+      <c r="M33" s="71"/>
+      <c r="N33" s="72"/>
+      <c r="O33" s="72"/>
+      <c r="P33" s="73"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A34" s="28"/>
+      <c r="A34" s="44"/>
       <c r="B34" s="8">
         <v>1</v>
       </c>
-      <c r="C34" s="64" t="s">
+      <c r="C34" s="57" t="s">
         <v>339</v>
       </c>
-      <c r="D34" s="66"/>
-      <c r="E34" s="65"/>
+      <c r="D34" s="58"/>
+      <c r="E34" s="59"/>
       <c r="F34" s="3"/>
-      <c r="G34" s="64" t="s">
+      <c r="G34" s="57" t="s">
         <v>339</v>
       </c>
-      <c r="H34" s="65"/>
+      <c r="H34" s="59"/>
       <c r="I34" s="3"/>
       <c r="J34" s="4"/>
-      <c r="K34" s="58"/>
-      <c r="L34" s="59"/>
-      <c r="M34" s="58"/>
-      <c r="N34" s="60"/>
-      <c r="O34" s="60"/>
-      <c r="P34" s="59"/>
+      <c r="K34" s="65"/>
+      <c r="L34" s="67"/>
+      <c r="M34" s="65"/>
+      <c r="N34" s="66"/>
+      <c r="O34" s="66"/>
+      <c r="P34" s="67"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A35" s="28"/>
-      <c r="B35" s="64"/>
-      <c r="C35" s="66"/>
-      <c r="D35" s="66"/>
-      <c r="E35" s="65"/>
+      <c r="A35" s="44"/>
+      <c r="B35" s="57"/>
+      <c r="C35" s="58"/>
+      <c r="D35" s="58"/>
+      <c r="E35" s="59"/>
       <c r="F35" s="3"/>
-      <c r="G35" s="64"/>
-      <c r="H35" s="65"/>
+      <c r="G35" s="57"/>
+      <c r="H35" s="59"/>
       <c r="I35" s="3"/>
       <c r="J35" s="4"/>
-      <c r="K35" s="58"/>
-      <c r="L35" s="59"/>
-      <c r="M35" s="58"/>
-      <c r="N35" s="60"/>
-      <c r="O35" s="60"/>
-      <c r="P35" s="59"/>
+      <c r="K35" s="65"/>
+      <c r="L35" s="67"/>
+      <c r="M35" s="65"/>
+      <c r="N35" s="66"/>
+      <c r="O35" s="66"/>
+      <c r="P35" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:L4"/>
+    <mergeCell ref="B32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:P32"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="M35:P35"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="M33:P33"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="M34:P34"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:P31"/>
     <mergeCell ref="A6:P6"/>
     <mergeCell ref="A27:P27"/>
     <mergeCell ref="A28:A35"/>
@@ -7099,27 +7108,18 @@
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="D30:F30"/>
     <mergeCell ref="H30:J30"/>
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:J31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:P31"/>
-    <mergeCell ref="B32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:P32"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="M35:P35"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="M33:P33"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="M34:P34"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:L4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -7155,134 +7155,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="48" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="47" t="s">
         <v>404</v>
       </c>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="50"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="49"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="32"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="33"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="28"/>
       <c r="N1" s="14"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="48" t="s">
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="50"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="49"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="51" t="s">
+      <c r="I2" s="50" t="s">
         <v>392</v>
       </c>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="53"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="52"/>
       <c r="N2" s="13"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="48" t="s">
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="47" t="s">
         <v>514</v>
       </c>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="50"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="49"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="33"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="28"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="50"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="49"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="32"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="33"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="28"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="46"/>
-      <c r="O6" s="46"/>
-      <c r="P6" s="46"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="53"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="53"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -7778,12 +7778,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
     <mergeCell ref="A6:P6"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:G3"/>
@@ -7791,6 +7785,12 @@
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="D4:L4"/>
     <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7823,134 +7823,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="48" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="47" t="s">
         <v>307</v>
       </c>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="50"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="49"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="32"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="33"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="28"/>
       <c r="N1" s="14"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="48" t="s">
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="47" t="s">
         <v>145</v>
       </c>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="50"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="49"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="51" t="s">
+      <c r="I2" s="50" t="s">
         <v>146</v>
       </c>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="53"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="52"/>
       <c r="N2" s="13"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="48" t="s">
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="47" t="s">
         <v>171</v>
       </c>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="50"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="49"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="33"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="28"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="50"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="49"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="32"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="33"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="28"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="46"/>
-      <c r="O6" s="46"/>
-      <c r="P6" s="46"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="53"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="53"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -9045,250 +9045,241 @@
       <c r="P40" s="1"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A42" s="71" t="s">
+      <c r="A42" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="B42" s="72"/>
-      <c r="C42" s="72"/>
-      <c r="D42" s="72"/>
-      <c r="E42" s="72"/>
-      <c r="F42" s="72"/>
-      <c r="G42" s="72"/>
-      <c r="H42" s="72"/>
-      <c r="I42" s="72"/>
-      <c r="J42" s="72"/>
-      <c r="K42" s="72"/>
-      <c r="L42" s="72"/>
-      <c r="M42" s="72"/>
-      <c r="N42" s="72"/>
-      <c r="O42" s="72"/>
-      <c r="P42" s="73"/>
+      <c r="B42" s="69"/>
+      <c r="C42" s="69"/>
+      <c r="D42" s="69"/>
+      <c r="E42" s="69"/>
+      <c r="F42" s="69"/>
+      <c r="G42" s="69"/>
+      <c r="H42" s="69"/>
+      <c r="I42" s="69"/>
+      <c r="J42" s="69"/>
+      <c r="K42" s="69"/>
+      <c r="L42" s="69"/>
+      <c r="M42" s="69"/>
+      <c r="N42" s="69"/>
+      <c r="O42" s="69"/>
+      <c r="P42" s="70"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A43" s="27">
+      <c r="A43" s="43">
         <v>2</v>
       </c>
-      <c r="B43" s="54" t="s">
+      <c r="B43" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="C43" s="55"/>
-      <c r="D43" s="32" t="s">
+      <c r="C43" s="61"/>
+      <c r="D43" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="E43" s="34"/>
-      <c r="F43" s="34"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
       <c r="G43" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H43" s="32" t="s">
+      <c r="H43" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="I43" s="34"/>
-      <c r="J43" s="33"/>
-      <c r="K43" s="56" t="s">
+      <c r="I43" s="31"/>
+      <c r="J43" s="28"/>
+      <c r="K43" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="L43" s="57"/>
-      <c r="M43" s="51" t="s">
+      <c r="L43" s="56"/>
+      <c r="M43" s="50" t="s">
         <v>308</v>
       </c>
-      <c r="N43" s="52"/>
-      <c r="O43" s="52"/>
-      <c r="P43" s="53"/>
+      <c r="N43" s="51"/>
+      <c r="O43" s="51"/>
+      <c r="P43" s="52"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A44" s="28"/>
-      <c r="B44" s="54" t="s">
+      <c r="A44" s="44"/>
+      <c r="B44" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="C44" s="55"/>
-      <c r="D44" s="32" t="s">
+      <c r="C44" s="61"/>
+      <c r="D44" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="E44" s="34"/>
-      <c r="F44" s="34"/>
+      <c r="E44" s="31"/>
+      <c r="F44" s="31"/>
       <c r="G44" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H44" s="32" t="s">
+      <c r="H44" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="I44" s="34"/>
-      <c r="J44" s="33"/>
-      <c r="K44" s="56" t="s">
+      <c r="I44" s="31"/>
+      <c r="J44" s="28"/>
+      <c r="K44" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="L44" s="57"/>
-      <c r="M44" s="51" t="s">
+      <c r="L44" s="56"/>
+      <c r="M44" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="N44" s="52"/>
-      <c r="O44" s="52"/>
-      <c r="P44" s="53"/>
+      <c r="N44" s="51"/>
+      <c r="O44" s="51"/>
+      <c r="P44" s="52"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A45" s="28"/>
-      <c r="B45" s="54" t="s">
+      <c r="A45" s="44"/>
+      <c r="B45" s="60" t="s">
         <v>98</v>
       </c>
-      <c r="C45" s="55"/>
-      <c r="D45" s="32" t="s">
+      <c r="C45" s="61"/>
+      <c r="D45" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="E45" s="34"/>
-      <c r="F45" s="34"/>
+      <c r="E45" s="31"/>
+      <c r="F45" s="31"/>
       <c r="G45" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="H45" s="34" t="s">
+      <c r="H45" s="31" t="s">
         <v>166</v>
       </c>
-      <c r="I45" s="34"/>
-      <c r="J45" s="33"/>
+      <c r="I45" s="31"/>
+      <c r="J45" s="28"/>
       <c r="K45" s="15"/>
       <c r="L45" s="16"/>
-      <c r="M45" s="51"/>
-      <c r="N45" s="52"/>
-      <c r="O45" s="52"/>
-      <c r="P45" s="53"/>
+      <c r="M45" s="50"/>
+      <c r="N45" s="51"/>
+      <c r="O45" s="51"/>
+      <c r="P45" s="52"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A46" s="28"/>
-      <c r="B46" s="54" t="s">
+      <c r="A46" s="44"/>
+      <c r="B46" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="C46" s="55"/>
-      <c r="D46" s="32"/>
-      <c r="E46" s="34"/>
-      <c r="F46" s="34"/>
-      <c r="G46" s="34"/>
-      <c r="H46" s="34"/>
-      <c r="I46" s="34"/>
-      <c r="J46" s="33"/>
-      <c r="K46" s="56" t="s">
+      <c r="C46" s="61"/>
+      <c r="D46" s="27"/>
+      <c r="E46" s="31"/>
+      <c r="F46" s="31"/>
+      <c r="G46" s="31"/>
+      <c r="H46" s="31"/>
+      <c r="I46" s="31"/>
+      <c r="J46" s="28"/>
+      <c r="K46" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="L46" s="57"/>
-      <c r="M46" s="51" t="s">
+      <c r="L46" s="56"/>
+      <c r="M46" s="50" t="s">
         <v>141</v>
       </c>
-      <c r="N46" s="52"/>
-      <c r="O46" s="52"/>
-      <c r="P46" s="53"/>
+      <c r="N46" s="51"/>
+      <c r="O46" s="51"/>
+      <c r="P46" s="52"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A47" s="28"/>
-      <c r="B47" s="67" t="s">
+      <c r="A47" s="44"/>
+      <c r="B47" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="C47" s="69"/>
-      <c r="D47" s="69"/>
-      <c r="E47" s="69"/>
-      <c r="F47" s="69"/>
-      <c r="G47" s="69"/>
-      <c r="H47" s="69"/>
-      <c r="I47" s="69"/>
-      <c r="J47" s="68"/>
-      <c r="K47" s="67"/>
-      <c r="L47" s="68"/>
-      <c r="M47" s="67"/>
-      <c r="N47" s="69"/>
-      <c r="O47" s="69"/>
-      <c r="P47" s="68"/>
+      <c r="C47" s="63"/>
+      <c r="D47" s="63"/>
+      <c r="E47" s="63"/>
+      <c r="F47" s="63"/>
+      <c r="G47" s="63"/>
+      <c r="H47" s="63"/>
+      <c r="I47" s="63"/>
+      <c r="J47" s="64"/>
+      <c r="K47" s="62"/>
+      <c r="L47" s="64"/>
+      <c r="M47" s="62"/>
+      <c r="N47" s="63"/>
+      <c r="O47" s="63"/>
+      <c r="P47" s="64"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A48" s="28"/>
+      <c r="A48" s="44"/>
       <c r="B48" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C48" s="56" t="s">
+      <c r="C48" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="D48" s="70"/>
-      <c r="E48" s="57"/>
+      <c r="D48" s="55"/>
+      <c r="E48" s="56"/>
       <c r="F48" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G48" s="56" t="s">
+      <c r="G48" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="H48" s="57"/>
-      <c r="I48" s="56" t="s">
+      <c r="H48" s="56"/>
+      <c r="I48" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="J48" s="57"/>
-      <c r="K48" s="61"/>
-      <c r="L48" s="63"/>
-      <c r="M48" s="61"/>
-      <c r="N48" s="62"/>
-      <c r="O48" s="62"/>
-      <c r="P48" s="63"/>
+      <c r="J48" s="56"/>
+      <c r="K48" s="71"/>
+      <c r="L48" s="73"/>
+      <c r="M48" s="71"/>
+      <c r="N48" s="72"/>
+      <c r="O48" s="72"/>
+      <c r="P48" s="73"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A49" s="28"/>
+      <c r="A49" s="44"/>
       <c r="B49" s="8">
         <v>1</v>
       </c>
-      <c r="C49" s="64" t="s">
+      <c r="C49" s="57" t="s">
         <v>167</v>
       </c>
-      <c r="D49" s="66"/>
-      <c r="E49" s="65"/>
+      <c r="D49" s="58"/>
+      <c r="E49" s="59"/>
       <c r="F49" s="3"/>
-      <c r="G49" s="64" t="s">
+      <c r="G49" s="57" t="s">
         <v>144</v>
       </c>
-      <c r="H49" s="65"/>
+      <c r="H49" s="59"/>
       <c r="I49" s="3"/>
       <c r="J49" s="4"/>
-      <c r="K49" s="58"/>
-      <c r="L49" s="59"/>
-      <c r="M49" s="58"/>
-      <c r="N49" s="60"/>
-      <c r="O49" s="60"/>
-      <c r="P49" s="59"/>
+      <c r="K49" s="65"/>
+      <c r="L49" s="67"/>
+      <c r="M49" s="65"/>
+      <c r="N49" s="66"/>
+      <c r="O49" s="66"/>
+      <c r="P49" s="67"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A50" s="28"/>
-      <c r="B50" s="64"/>
-      <c r="C50" s="66"/>
-      <c r="D50" s="66"/>
-      <c r="E50" s="65"/>
+      <c r="A50" s="44"/>
+      <c r="B50" s="57"/>
+      <c r="C50" s="58"/>
+      <c r="D50" s="58"/>
+      <c r="E50" s="59"/>
       <c r="F50" s="3"/>
-      <c r="G50" s="64"/>
-      <c r="H50" s="65"/>
+      <c r="G50" s="57"/>
+      <c r="H50" s="59"/>
       <c r="I50" s="3"/>
       <c r="J50" s="4"/>
-      <c r="K50" s="58"/>
-      <c r="L50" s="59"/>
-      <c r="M50" s="58"/>
-      <c r="N50" s="60"/>
-      <c r="O50" s="60"/>
-      <c r="P50" s="59"/>
+      <c r="K50" s="65"/>
+      <c r="L50" s="67"/>
+      <c r="M50" s="65"/>
+      <c r="N50" s="66"/>
+      <c r="O50" s="66"/>
+      <c r="P50" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="M49:P49"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="M50:P50"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:J46"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="M47:P47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="M48:P48"/>
-    <mergeCell ref="B47:J47"/>
-    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:L4"/>
     <mergeCell ref="A6:P6"/>
     <mergeCell ref="A42:P42"/>
     <mergeCell ref="M45:P45"/>
@@ -9305,18 +9296,27 @@
     <mergeCell ref="A43:A50"/>
     <mergeCell ref="D44:F44"/>
     <mergeCell ref="H44:J44"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:L4"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="M47:P47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="M48:P48"/>
+    <mergeCell ref="B47:J47"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:J46"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="M49:P49"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="M50:P50"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9349,134 +9349,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="48" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="47" t="s">
         <v>439</v>
       </c>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="50"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="49"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="32"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="33"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="28"/>
       <c r="N1" s="14"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="48" t="s">
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="47" t="s">
         <v>426</v>
       </c>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="50"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="49"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="51" t="s">
+      <c r="I2" s="50" t="s">
         <v>440</v>
       </c>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="53"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="52"/>
       <c r="N2" s="13"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="50"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="49"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="33"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="28"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="48" t="s">
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="47" t="s">
         <v>513</v>
       </c>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="50"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="49"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="32"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="33"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="28"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="46"/>
-      <c r="O6" s="46"/>
-      <c r="P6" s="46"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="53"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="53"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -9950,12 +9950,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
     <mergeCell ref="A6:P6"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:G3"/>
@@ -9963,6 +9957,12 @@
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="D4:L4"/>
     <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10622,17 +10622,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="27">
+      <c r="A1" s="43">
         <v>1</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="32" t="s">
+      <c r="C1" s="30"/>
+      <c r="D1" s="27" t="s">
         <v>292</v>
       </c>
-      <c r="E1" s="33"/>
+      <c r="E1" s="28"/>
       <c r="F1" s="18" t="s">
         <v>126</v>
       </c>
@@ -10641,15 +10641,15 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="28"/>
-      <c r="B2" s="30" t="s">
+      <c r="A2" s="44"/>
+      <c r="B2" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="32" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="27" t="s">
         <v>293</v>
       </c>
-      <c r="E2" s="33"/>
+      <c r="E2" s="28"/>
       <c r="F2" s="18" t="s">
         <v>129</v>
       </c>
@@ -10658,29 +10658,29 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="28"/>
-      <c r="B3" s="30" t="s">
+      <c r="A3" s="44"/>
+      <c r="B3" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="33"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="28"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="28"/>
-      <c r="B4" s="35" t="s">
+      <c r="A4" s="44"/>
+      <c r="B4" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="37"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="34"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="28"/>
+      <c r="A5" s="44"/>
       <c r="B5" s="20" t="s">
         <v>132</v>
       </c>
@@ -10701,7 +10701,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="28"/>
+      <c r="A6" s="44"/>
       <c r="B6" s="19">
         <v>1</v>
       </c>
@@ -10718,7 +10718,7 @@
       <c r="G6" s="22"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="28"/>
+      <c r="A7" s="44"/>
       <c r="B7" s="19">
         <v>2</v>
       </c>
@@ -10735,7 +10735,7 @@
       <c r="G7" s="22"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="28"/>
+      <c r="A8" s="44"/>
       <c r="B8" s="19"/>
       <c r="C8" s="23"/>
       <c r="D8" s="22"/>
@@ -10744,26 +10744,26 @@
       <c r="G8" s="22"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="29"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="40"/>
+      <c r="A9" s="45"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="37"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="43">
+      <c r="A10" s="40">
         <v>2</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="C10" s="31"/>
-      <c r="D10" s="32" t="s">
+      <c r="C10" s="30"/>
+      <c r="D10" s="27" t="s">
         <v>247</v>
       </c>
-      <c r="E10" s="33"/>
+      <c r="E10" s="28"/>
       <c r="F10" s="18" t="s">
         <v>126</v>
       </c>
@@ -10772,15 +10772,15 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="44"/>
-      <c r="B11" s="30" t="s">
+      <c r="A11" s="41"/>
+      <c r="B11" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="C11" s="31"/>
-      <c r="D11" s="32" t="s">
+      <c r="C11" s="30"/>
+      <c r="D11" s="27" t="s">
         <v>248</v>
       </c>
-      <c r="E11" s="33"/>
+      <c r="E11" s="28"/>
       <c r="F11" s="18" t="s">
         <v>129</v>
       </c>
@@ -10789,29 +10789,29 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="44"/>
-      <c r="B12" s="30" t="s">
+      <c r="A12" s="41"/>
+      <c r="B12" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="C12" s="31"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="33"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="28"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="44"/>
-      <c r="B13" s="35" t="s">
+      <c r="A13" s="41"/>
+      <c r="B13" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="37"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="34"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="44"/>
+      <c r="A14" s="41"/>
       <c r="B14" s="20" t="s">
         <v>132</v>
       </c>
@@ -10832,7 +10832,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="44"/>
+      <c r="A15" s="41"/>
       <c r="B15" s="19">
         <v>1</v>
       </c>
@@ -10849,7 +10849,7 @@
       <c r="G15" s="22"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="44"/>
+      <c r="A16" s="41"/>
       <c r="B16" s="19">
         <v>2</v>
       </c>
@@ -10866,7 +10866,7 @@
       <c r="G16" s="22"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="44"/>
+      <c r="A17" s="41"/>
       <c r="B17" s="19"/>
       <c r="C17" s="23"/>
       <c r="D17" s="22"/>
@@ -10875,26 +10875,26 @@
       <c r="G17" s="22"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="45"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="40"/>
+      <c r="A18" s="42"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="37"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="27">
+      <c r="A19" s="43">
         <v>3</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="C19" s="31"/>
-      <c r="D19" s="32" t="s">
+      <c r="C19" s="30"/>
+      <c r="D19" s="27" t="s">
         <v>260</v>
       </c>
-      <c r="E19" s="33"/>
+      <c r="E19" s="28"/>
       <c r="F19" s="18" t="s">
         <v>126</v>
       </c>
@@ -10903,15 +10903,15 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="28"/>
-      <c r="B20" s="30" t="s">
+      <c r="A20" s="44"/>
+      <c r="B20" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="C20" s="31"/>
-      <c r="D20" s="32" t="s">
+      <c r="C20" s="30"/>
+      <c r="D20" s="27" t="s">
         <v>261</v>
       </c>
-      <c r="E20" s="33"/>
+      <c r="E20" s="28"/>
       <c r="F20" s="18" t="s">
         <v>129</v>
       </c>
@@ -10920,29 +10920,29 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="28"/>
-      <c r="B21" s="30" t="s">
+      <c r="A21" s="44"/>
+      <c r="B21" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="C21" s="31"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="33"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="28"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="28"/>
-      <c r="B22" s="35" t="s">
+      <c r="A22" s="44"/>
+      <c r="B22" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="37"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="34"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="28"/>
+      <c r="A23" s="44"/>
       <c r="B23" s="20" t="s">
         <v>132</v>
       </c>
@@ -10963,7 +10963,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="28"/>
+      <c r="A24" s="44"/>
       <c r="B24" s="19">
         <v>1</v>
       </c>
@@ -10980,7 +10980,7 @@
       <c r="G24" s="22"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="28"/>
+      <c r="A25" s="44"/>
       <c r="B25" s="19">
         <v>2</v>
       </c>
@@ -10997,7 +10997,7 @@
       <c r="G25" s="22"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="28"/>
+      <c r="A26" s="44"/>
       <c r="B26" s="19">
         <v>3</v>
       </c>
@@ -11014,26 +11014,26 @@
       <c r="G26" s="24"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="29"/>
-      <c r="B27" s="38"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="40"/>
+      <c r="A27" s="45"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="37"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="41">
+      <c r="A28" s="38">
         <v>4</v>
       </c>
-      <c r="B28" s="30" t="s">
+      <c r="B28" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="C28" s="31"/>
-      <c r="D28" s="32" t="s">
+      <c r="C28" s="30"/>
+      <c r="D28" s="27" t="s">
         <v>310</v>
       </c>
-      <c r="E28" s="33"/>
+      <c r="E28" s="28"/>
       <c r="F28" s="18" t="s">
         <v>126</v>
       </c>
@@ -11042,15 +11042,15 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="42"/>
-      <c r="B29" s="30" t="s">
+      <c r="A29" s="39"/>
+      <c r="B29" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="C29" s="31"/>
-      <c r="D29" s="32" t="s">
+      <c r="C29" s="30"/>
+      <c r="D29" s="27" t="s">
         <v>311</v>
       </c>
-      <c r="E29" s="33"/>
+      <c r="E29" s="28"/>
       <c r="F29" s="18" t="s">
         <v>129</v>
       </c>
@@ -11059,29 +11059,29 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="42"/>
-      <c r="B30" s="30" t="s">
+      <c r="A30" s="39"/>
+      <c r="B30" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="C30" s="31"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="33"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="28"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="42"/>
-      <c r="B31" s="35" t="s">
+      <c r="A31" s="39"/>
+      <c r="B31" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="37"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="34"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="42"/>
+      <c r="A32" s="39"/>
       <c r="B32" s="20" t="s">
         <v>132</v>
       </c>
@@ -11102,7 +11102,7 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="42"/>
+      <c r="A33" s="39"/>
       <c r="B33" s="19">
         <v>1</v>
       </c>
@@ -11119,7 +11119,7 @@
       <c r="G33" s="22"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="42"/>
+      <c r="A34" s="39"/>
       <c r="B34" s="19">
         <v>2</v>
       </c>
@@ -11136,26 +11136,26 @@
       <c r="G34" s="22"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="42"/>
-      <c r="B35" s="38"/>
-      <c r="C35" s="39"/>
-      <c r="D35" s="39"/>
-      <c r="E35" s="39"/>
-      <c r="F35" s="39"/>
-      <c r="G35" s="40"/>
+      <c r="A35" s="39"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="37"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="27">
+      <c r="A36" s="43">
         <v>5</v>
       </c>
-      <c r="B36" s="30" t="s">
+      <c r="B36" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="C36" s="31"/>
-      <c r="D36" s="32" t="s">
+      <c r="C36" s="30"/>
+      <c r="D36" s="27" t="s">
         <v>480</v>
       </c>
-      <c r="E36" s="33"/>
+      <c r="E36" s="28"/>
       <c r="F36" s="18" t="s">
         <v>126</v>
       </c>
@@ -11164,15 +11164,15 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="28"/>
-      <c r="B37" s="30" t="s">
+      <c r="A37" s="44"/>
+      <c r="B37" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="C37" s="31"/>
-      <c r="D37" s="32" t="s">
+      <c r="C37" s="30"/>
+      <c r="D37" s="27" t="s">
         <v>481</v>
       </c>
-      <c r="E37" s="33"/>
+      <c r="E37" s="28"/>
       <c r="F37" s="18" t="s">
         <v>129</v>
       </c>
@@ -11181,29 +11181,29 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="28"/>
-      <c r="B38" s="30" t="s">
+      <c r="A38" s="44"/>
+      <c r="B38" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="C38" s="31"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="34"/>
-      <c r="F38" s="34"/>
-      <c r="G38" s="33"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="28"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="28"/>
-      <c r="B39" s="35" t="s">
+      <c r="A39" s="44"/>
+      <c r="B39" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="C39" s="36"/>
-      <c r="D39" s="36"/>
-      <c r="E39" s="36"/>
-      <c r="F39" s="36"/>
-      <c r="G39" s="37"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="34"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="28"/>
+      <c r="A40" s="44"/>
       <c r="B40" s="20" t="s">
         <v>132</v>
       </c>
@@ -11224,7 +11224,7 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="28"/>
+      <c r="A41" s="44"/>
       <c r="B41" s="19">
         <v>1</v>
       </c>
@@ -11241,7 +11241,7 @@
       <c r="G41" s="22"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="28"/>
+      <c r="A42" s="44"/>
       <c r="B42" s="19">
         <v>2</v>
       </c>
@@ -11258,7 +11258,7 @@
       <c r="G42" s="22"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="28"/>
+      <c r="A43" s="44"/>
       <c r="B43" s="19">
         <v>3</v>
       </c>
@@ -11275,7 +11275,7 @@
       <c r="G43" s="24"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="28"/>
+      <c r="A44" s="44"/>
       <c r="B44" s="19">
         <v>4</v>
       </c>
@@ -11292,21 +11292,40 @@
       <c r="G44" s="24"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="29"/>
-      <c r="B45" s="38"/>
-      <c r="C45" s="39"/>
-      <c r="D45" s="39"/>
-      <c r="E45" s="39"/>
-      <c r="F45" s="39"/>
-      <c r="G45" s="40"/>
+      <c r="A45" s="45"/>
+      <c r="B45" s="35"/>
+      <c r="C45" s="36"/>
+      <c r="D45" s="36"/>
+      <c r="E45" s="36"/>
+      <c r="F45" s="36"/>
+      <c r="G45" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="A36:A45"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="B45:G45"/>
+    <mergeCell ref="A1:A9"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
     <mergeCell ref="B31:G31"/>
     <mergeCell ref="A28:A35"/>
     <mergeCell ref="B35:G35"/>
@@ -11323,30 +11342,11 @@
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="A1:A9"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="A36:A45"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="B45:G45"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B27:G27"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11378,132 +11378,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="48" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="47" t="s">
         <v>282</v>
       </c>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="50"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="49"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="32"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="33"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="28"/>
       <c r="N1" s="14"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="48" t="s">
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="47" t="s">
         <v>283</v>
       </c>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="50"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="49"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="51" t="s">
+      <c r="I2" s="50" t="s">
         <v>284</v>
       </c>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="53"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="52"/>
       <c r="N2" s="13"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="50"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="49"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="33"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="28"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="50"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="49"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="32"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="33"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="28"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="46"/>
-      <c r="O6" s="46"/>
-      <c r="P6" s="46"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="53"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="53"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -11883,31 +11883,25 @@
       <c r="P17" s="1"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="32"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="34"/>
-      <c r="M18" s="34"/>
-      <c r="N18" s="34"/>
-      <c r="O18" s="34"/>
-      <c r="P18" s="33"/>
+      <c r="A18" s="27"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31"/>
+      <c r="P18" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
     <mergeCell ref="A6:P6"/>
     <mergeCell ref="A18:P18"/>
     <mergeCell ref="A3:C3"/>
@@ -11916,6 +11910,12 @@
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="D4:L4"/>
     <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -11930,8 +11930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F0DE455-FF29-43D0-9612-7232A83DF9B7}">
   <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -11951,132 +11951,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="48" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="47" t="s">
         <v>241</v>
       </c>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="50"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="49"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="32"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="33"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="28"/>
       <c r="N1" s="14"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="48" t="s">
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="47" t="s">
         <v>242</v>
       </c>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="50"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="49"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="51" t="s">
+      <c r="I2" s="50" t="s">
         <v>243</v>
       </c>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="53"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="52"/>
       <c r="N2" s="13"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="50"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="49"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="33"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="28"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="50"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="49"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="32"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="33"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="28"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="46"/>
-      <c r="O6" s="46"/>
-      <c r="P6" s="46"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="53"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="53"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -12580,247 +12580,281 @@
       <c r="P21" s="1"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="32"/>
-      <c r="B22" s="34"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="34"/>
-      <c r="M22" s="34"/>
-      <c r="N22" s="34"/>
-      <c r="O22" s="34"/>
-      <c r="P22" s="33"/>
+      <c r="A22" s="27"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="31"/>
+      <c r="P22" s="28"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="71" t="s">
+      <c r="A24" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="72"/>
-      <c r="C24" s="72"/>
-      <c r="D24" s="72"/>
-      <c r="E24" s="72"/>
-      <c r="F24" s="72"/>
-      <c r="G24" s="72"/>
-      <c r="H24" s="72"/>
-      <c r="I24" s="72"/>
-      <c r="J24" s="72"/>
-      <c r="K24" s="72"/>
-      <c r="L24" s="72"/>
-      <c r="M24" s="72"/>
-      <c r="N24" s="72"/>
-      <c r="O24" s="72"/>
-      <c r="P24" s="73"/>
+      <c r="B24" s="69"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="69"/>
+      <c r="H24" s="69"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="69"/>
+      <c r="N24" s="69"/>
+      <c r="O24" s="69"/>
+      <c r="P24" s="70"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="27">
+      <c r="A25" s="43">
         <v>1</v>
       </c>
-      <c r="B25" s="54" t="s">
+      <c r="B25" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="55"/>
-      <c r="D25" s="32" t="s">
+      <c r="C25" s="61"/>
+      <c r="D25" s="27" t="s">
         <v>271</v>
       </c>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
       <c r="G25" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H25" s="32" t="s">
+      <c r="H25" s="27" t="s">
         <v>272</v>
       </c>
-      <c r="I25" s="34"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="56" t="s">
+      <c r="I25" s="31"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="L25" s="57"/>
-      <c r="M25" s="51" t="s">
+      <c r="L25" s="56"/>
+      <c r="M25" s="50" t="s">
         <v>273</v>
       </c>
-      <c r="N25" s="52"/>
-      <c r="O25" s="52"/>
-      <c r="P25" s="53"/>
+      <c r="N25" s="51"/>
+      <c r="O25" s="51"/>
+      <c r="P25" s="52"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="28"/>
-      <c r="B26" s="54" t="s">
+      <c r="A26" s="44"/>
+      <c r="B26" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="55"/>
-      <c r="D26" s="32" t="s">
+      <c r="C26" s="61"/>
+      <c r="D26" s="27" t="s">
         <v>274</v>
       </c>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
       <c r="G26" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H26" s="32" t="s">
+      <c r="H26" s="27" t="s">
         <v>275</v>
       </c>
-      <c r="I26" s="34"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="56" t="s">
+      <c r="I26" s="31"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="L26" s="57"/>
-      <c r="M26" s="51" t="s">
+      <c r="L26" s="56"/>
+      <c r="M26" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="N26" s="52"/>
-      <c r="O26" s="52"/>
-      <c r="P26" s="53"/>
+      <c r="N26" s="51"/>
+      <c r="O26" s="51"/>
+      <c r="P26" s="52"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="28"/>
-      <c r="B27" s="54" t="s">
+      <c r="A27" s="44"/>
+      <c r="B27" s="60" t="s">
         <v>98</v>
       </c>
-      <c r="C27" s="55"/>
-      <c r="D27" s="32" t="s">
+      <c r="C27" s="61"/>
+      <c r="D27" s="27" t="s">
         <v>381</v>
       </c>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
       <c r="G27" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="H27" s="34" t="s">
+      <c r="H27" s="31" t="s">
         <v>382</v>
       </c>
-      <c r="I27" s="34"/>
-      <c r="J27" s="33"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="28"/>
       <c r="K27" s="15"/>
       <c r="L27" s="16"/>
-      <c r="M27" s="51"/>
-      <c r="N27" s="52"/>
-      <c r="O27" s="52"/>
-      <c r="P27" s="53"/>
+      <c r="M27" s="50"/>
+      <c r="N27" s="51"/>
+      <c r="O27" s="51"/>
+      <c r="P27" s="52"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="28"/>
-      <c r="B28" s="54" t="s">
+      <c r="A28" s="44"/>
+      <c r="B28" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="55"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="56" t="s">
+      <c r="C28" s="61"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="L28" s="57"/>
-      <c r="M28" s="51" t="s">
+      <c r="L28" s="56"/>
+      <c r="M28" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="N28" s="52"/>
-      <c r="O28" s="52"/>
-      <c r="P28" s="53"/>
+      <c r="N28" s="51"/>
+      <c r="O28" s="51"/>
+      <c r="P28" s="52"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="28"/>
-      <c r="B29" s="67" t="s">
+      <c r="A29" s="44"/>
+      <c r="B29" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="69"/>
-      <c r="D29" s="69"/>
-      <c r="E29" s="69"/>
-      <c r="F29" s="69"/>
-      <c r="G29" s="69"/>
-      <c r="H29" s="69"/>
-      <c r="I29" s="69"/>
-      <c r="J29" s="68"/>
-      <c r="K29" s="67"/>
-      <c r="L29" s="68"/>
-      <c r="M29" s="67"/>
-      <c r="N29" s="69"/>
-      <c r="O29" s="69"/>
-      <c r="P29" s="68"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="63"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="63"/>
+      <c r="J29" s="64"/>
+      <c r="K29" s="62"/>
+      <c r="L29" s="64"/>
+      <c r="M29" s="62"/>
+      <c r="N29" s="63"/>
+      <c r="O29" s="63"/>
+      <c r="P29" s="64"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="28"/>
+      <c r="A30" s="44"/>
       <c r="B30" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="56" t="s">
+      <c r="C30" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="70"/>
-      <c r="E30" s="57"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="56"/>
       <c r="F30" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G30" s="56" t="s">
+      <c r="G30" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="H30" s="57"/>
-      <c r="I30" s="56" t="s">
+      <c r="H30" s="56"/>
+      <c r="I30" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="J30" s="57"/>
-      <c r="K30" s="61"/>
-      <c r="L30" s="63"/>
-      <c r="M30" s="61"/>
-      <c r="N30" s="62"/>
-      <c r="O30" s="62"/>
-      <c r="P30" s="63"/>
+      <c r="J30" s="56"/>
+      <c r="K30" s="71"/>
+      <c r="L30" s="73"/>
+      <c r="M30" s="71"/>
+      <c r="N30" s="72"/>
+      <c r="O30" s="72"/>
+      <c r="P30" s="73"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="28"/>
+      <c r="A31" s="44"/>
       <c r="B31" s="8">
         <v>1</v>
       </c>
-      <c r="C31" s="64" t="s">
+      <c r="C31" s="57" t="s">
         <v>276</v>
       </c>
-      <c r="D31" s="66"/>
-      <c r="E31" s="65"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="59"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="64" t="s">
+      <c r="G31" s="57" t="s">
         <v>277</v>
       </c>
-      <c r="H31" s="65"/>
+      <c r="H31" s="59"/>
       <c r="I31" s="3"/>
       <c r="J31" s="4"/>
-      <c r="K31" s="58"/>
-      <c r="L31" s="59"/>
-      <c r="M31" s="58"/>
-      <c r="N31" s="60"/>
-      <c r="O31" s="60"/>
-      <c r="P31" s="59"/>
+      <c r="K31" s="65"/>
+      <c r="L31" s="67"/>
+      <c r="M31" s="65"/>
+      <c r="N31" s="66"/>
+      <c r="O31" s="66"/>
+      <c r="P31" s="67"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="28"/>
-      <c r="B32" s="64"/>
-      <c r="C32" s="66"/>
-      <c r="D32" s="66"/>
-      <c r="E32" s="65"/>
+      <c r="A32" s="44"/>
+      <c r="B32" s="57"/>
+      <c r="C32" s="58"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="59"/>
       <c r="F32" s="3"/>
-      <c r="G32" s="64"/>
-      <c r="H32" s="65"/>
+      <c r="G32" s="57"/>
+      <c r="H32" s="59"/>
       <c r="I32" s="3"/>
       <c r="J32" s="4"/>
-      <c r="K32" s="58"/>
-      <c r="L32" s="59"/>
-      <c r="M32" s="58"/>
-      <c r="N32" s="60"/>
-      <c r="O32" s="60"/>
-      <c r="P32" s="59"/>
+      <c r="K32" s="65"/>
+      <c r="L32" s="67"/>
+      <c r="M32" s="65"/>
+      <c r="N32" s="66"/>
+      <c r="O32" s="66"/>
+      <c r="P32" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:P32"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A22:P22"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:P29"/>
     <mergeCell ref="D4:L4"/>
     <mergeCell ref="A5:P5"/>
     <mergeCell ref="C30:E30"/>
@@ -12837,40 +12871,6 @@
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="H25:J25"/>
     <mergeCell ref="K25:L25"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A22:P22"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:P29"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:P32"/>
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:P26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -12906,134 +12906,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="48" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="47" t="s">
         <v>295</v>
       </c>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="50"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="49"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="32"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="33"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="28"/>
       <c r="N1" s="14"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="48" t="s">
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="47" t="s">
         <v>296</v>
       </c>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="50"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="49"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="51" t="s">
+      <c r="I2" s="50" t="s">
         <v>297</v>
       </c>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="53"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="52"/>
       <c r="N2" s="13"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="48" t="s">
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="47" t="s">
         <v>373</v>
       </c>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="50"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="49"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="33"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="28"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="50"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="49"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="32"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="33"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="28"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="46"/>
-      <c r="O6" s="46"/>
-      <c r="P6" s="46"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="53"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="53"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -13350,68 +13350,68 @@
       <c r="P15" s="1"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="32"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="34"/>
-      <c r="L16" s="34"/>
-      <c r="M16" s="34"/>
-      <c r="N16" s="34"/>
-      <c r="O16" s="34"/>
-      <c r="P16" s="33"/>
+      <c r="A16" s="27"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="31"/>
+      <c r="P16" s="28"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="71" t="s">
+      <c r="A18" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="72"/>
-      <c r="C18" s="72"/>
-      <c r="D18" s="72"/>
-      <c r="E18" s="72"/>
-      <c r="F18" s="72"/>
-      <c r="G18" s="72"/>
-      <c r="H18" s="72"/>
-      <c r="I18" s="72"/>
-      <c r="J18" s="72"/>
-      <c r="K18" s="72"/>
-      <c r="L18" s="72"/>
-      <c r="M18" s="72"/>
-      <c r="N18" s="72"/>
-      <c r="O18" s="72"/>
-      <c r="P18" s="73"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="69"/>
+      <c r="J18" s="69"/>
+      <c r="K18" s="69"/>
+      <c r="L18" s="69"/>
+      <c r="M18" s="69"/>
+      <c r="N18" s="69"/>
+      <c r="O18" s="69"/>
+      <c r="P18" s="70"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="27">
+      <c r="A19" s="43">
         <v>1</v>
       </c>
-      <c r="B19" s="54" t="s">
+      <c r="B19" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="55"/>
-      <c r="D19" s="32" t="s">
+      <c r="C19" s="61"/>
+      <c r="D19" s="27" t="s">
         <v>298</v>
       </c>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
       <c r="G19" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H19" s="32" t="s">
+      <c r="H19" s="27" t="s">
         <v>303</v>
       </c>
-      <c r="I19" s="34"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="56" t="s">
+      <c r="I19" s="31"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="L19" s="57"/>
+      <c r="L19" s="56"/>
       <c r="M19" s="74" t="s">
         <v>299</v>
       </c>
@@ -13420,196 +13420,196 @@
       <c r="P19" s="76"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="28"/>
-      <c r="B20" s="54" t="s">
+      <c r="A20" s="44"/>
+      <c r="B20" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="55"/>
-      <c r="D20" s="32" t="s">
+      <c r="C20" s="61"/>
+      <c r="D20" s="27" t="s">
         <v>300</v>
       </c>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
       <c r="G20" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H20" s="32" t="s">
+      <c r="H20" s="27" t="s">
         <v>301</v>
       </c>
-      <c r="I20" s="34"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="56" t="s">
+      <c r="I20" s="31"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="L20" s="57"/>
-      <c r="M20" s="51" t="s">
+      <c r="L20" s="56"/>
+      <c r="M20" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="N20" s="52"/>
-      <c r="O20" s="52"/>
-      <c r="P20" s="53"/>
+      <c r="N20" s="51"/>
+      <c r="O20" s="51"/>
+      <c r="P20" s="52"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="28"/>
-      <c r="B21" s="54" t="s">
+      <c r="A21" s="44"/>
+      <c r="B21" s="60" t="s">
         <v>98</v>
       </c>
-      <c r="C21" s="55"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
       <c r="G21" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="H21" s="34"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="33"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="28"/>
       <c r="K21" s="15"/>
       <c r="L21" s="16"/>
-      <c r="M21" s="51"/>
-      <c r="N21" s="52"/>
-      <c r="O21" s="52"/>
-      <c r="P21" s="53"/>
+      <c r="M21" s="50"/>
+      <c r="N21" s="51"/>
+      <c r="O21" s="51"/>
+      <c r="P21" s="52"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="28"/>
-      <c r="B22" s="54" t="s">
+      <c r="A22" s="44"/>
+      <c r="B22" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="55"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="56" t="s">
+      <c r="C22" s="61"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="L22" s="57"/>
-      <c r="M22" s="51" t="s">
+      <c r="L22" s="56"/>
+      <c r="M22" s="50" t="s">
         <v>143</v>
       </c>
-      <c r="N22" s="52"/>
-      <c r="O22" s="52"/>
-      <c r="P22" s="53"/>
+      <c r="N22" s="51"/>
+      <c r="O22" s="51"/>
+      <c r="P22" s="52"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="28"/>
-      <c r="B23" s="67" t="s">
+      <c r="A23" s="44"/>
+      <c r="B23" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="69"/>
-      <c r="H23" s="69"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="68"/>
-      <c r="K23" s="67"/>
-      <c r="L23" s="68"/>
-      <c r="M23" s="67"/>
-      <c r="N23" s="69"/>
-      <c r="O23" s="69"/>
-      <c r="P23" s="68"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="63"/>
+      <c r="G23" s="63"/>
+      <c r="H23" s="63"/>
+      <c r="I23" s="63"/>
+      <c r="J23" s="64"/>
+      <c r="K23" s="62"/>
+      <c r="L23" s="64"/>
+      <c r="M23" s="62"/>
+      <c r="N23" s="63"/>
+      <c r="O23" s="63"/>
+      <c r="P23" s="64"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="28"/>
+      <c r="A24" s="44"/>
       <c r="B24" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="56" t="s">
+      <c r="C24" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="70"/>
-      <c r="E24" s="57"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="56"/>
       <c r="F24" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G24" s="56" t="s">
+      <c r="G24" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="H24" s="57"/>
-      <c r="I24" s="56" t="s">
+      <c r="H24" s="56"/>
+      <c r="I24" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="J24" s="57"/>
-      <c r="K24" s="61"/>
-      <c r="L24" s="63"/>
-      <c r="M24" s="61"/>
-      <c r="N24" s="62"/>
-      <c r="O24" s="62"/>
-      <c r="P24" s="63"/>
+      <c r="J24" s="56"/>
+      <c r="K24" s="71"/>
+      <c r="L24" s="73"/>
+      <c r="M24" s="71"/>
+      <c r="N24" s="72"/>
+      <c r="O24" s="72"/>
+      <c r="P24" s="73"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="28"/>
+      <c r="A25" s="44"/>
       <c r="B25" s="8">
         <v>1</v>
       </c>
-      <c r="C25" s="64" t="s">
+      <c r="C25" s="57" t="s">
         <v>302</v>
       </c>
-      <c r="D25" s="66"/>
-      <c r="E25" s="65"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="59"/>
       <c r="F25" s="3"/>
-      <c r="G25" s="64" t="s">
+      <c r="G25" s="57" t="s">
         <v>302</v>
       </c>
-      <c r="H25" s="65"/>
+      <c r="H25" s="59"/>
       <c r="I25" s="3"/>
       <c r="J25" s="4"/>
-      <c r="K25" s="58"/>
-      <c r="L25" s="59"/>
-      <c r="M25" s="58"/>
-      <c r="N25" s="60"/>
-      <c r="O25" s="60"/>
-      <c r="P25" s="59"/>
+      <c r="K25" s="65"/>
+      <c r="L25" s="67"/>
+      <c r="M25" s="65"/>
+      <c r="N25" s="66"/>
+      <c r="O25" s="66"/>
+      <c r="P25" s="67"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="28"/>
-      <c r="B26" s="64"/>
-      <c r="C26" s="66"/>
-      <c r="D26" s="66"/>
-      <c r="E26" s="65"/>
+      <c r="A26" s="44"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="59"/>
       <c r="F26" s="3"/>
-      <c r="G26" s="64"/>
-      <c r="H26" s="65"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="59"/>
       <c r="I26" s="3"/>
       <c r="J26" s="4"/>
-      <c r="K26" s="58"/>
-      <c r="L26" s="59"/>
-      <c r="M26" s="58"/>
-      <c r="N26" s="60"/>
-      <c r="O26" s="60"/>
-      <c r="P26" s="59"/>
+      <c r="K26" s="65"/>
+      <c r="L26" s="67"/>
+      <c r="M26" s="65"/>
+      <c r="N26" s="66"/>
+      <c r="O26" s="66"/>
+      <c r="P26" s="67"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="27">
+      <c r="A27" s="43">
         <v>2</v>
       </c>
-      <c r="B27" s="54" t="s">
+      <c r="B27" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="55"/>
-      <c r="D27" s="32" t="s">
+      <c r="C27" s="61"/>
+      <c r="D27" s="27" t="s">
         <v>278</v>
       </c>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
       <c r="G27" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H27" s="32" t="s">
+      <c r="H27" s="27" t="s">
         <v>304</v>
       </c>
-      <c r="I27" s="34"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="56" t="s">
+      <c r="I27" s="31"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="L27" s="57"/>
+      <c r="L27" s="56"/>
       <c r="M27" s="74" t="s">
         <v>273</v>
       </c>
@@ -13618,185 +13618,230 @@
       <c r="P27" s="76"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="28"/>
-      <c r="B28" s="54" t="s">
+      <c r="A28" s="44"/>
+      <c r="B28" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="55"/>
-      <c r="D28" s="32" t="s">
+      <c r="C28" s="61"/>
+      <c r="D28" s="27" t="s">
         <v>305</v>
       </c>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
       <c r="G28" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H28" s="32" t="s">
+      <c r="H28" s="27" t="s">
         <v>306</v>
       </c>
-      <c r="I28" s="34"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="56" t="s">
+      <c r="I28" s="31"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="L28" s="57"/>
-      <c r="M28" s="51" t="s">
+      <c r="L28" s="56"/>
+      <c r="M28" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="N28" s="52"/>
-      <c r="O28" s="52"/>
-      <c r="P28" s="53"/>
+      <c r="N28" s="51"/>
+      <c r="O28" s="51"/>
+      <c r="P28" s="52"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="28"/>
-      <c r="B29" s="54" t="s">
+      <c r="A29" s="44"/>
+      <c r="B29" s="60" t="s">
         <v>98</v>
       </c>
-      <c r="C29" s="55"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
+      <c r="C29" s="61"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
       <c r="G29" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="H29" s="34"/>
-      <c r="I29" s="34"/>
-      <c r="J29" s="33"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="28"/>
       <c r="K29" s="15"/>
       <c r="L29" s="16"/>
-      <c r="M29" s="51"/>
-      <c r="N29" s="52"/>
-      <c r="O29" s="52"/>
-      <c r="P29" s="53"/>
+      <c r="M29" s="50"/>
+      <c r="N29" s="51"/>
+      <c r="O29" s="51"/>
+      <c r="P29" s="52"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="28"/>
-      <c r="B30" s="54" t="s">
+      <c r="A30" s="44"/>
+      <c r="B30" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="55"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="34"/>
-      <c r="H30" s="34"/>
-      <c r="I30" s="34"/>
-      <c r="J30" s="33"/>
-      <c r="K30" s="56" t="s">
+      <c r="C30" s="61"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="L30" s="57"/>
-      <c r="M30" s="51" t="s">
+      <c r="L30" s="56"/>
+      <c r="M30" s="50" t="s">
         <v>143</v>
       </c>
-      <c r="N30" s="52"/>
-      <c r="O30" s="52"/>
-      <c r="P30" s="53"/>
+      <c r="N30" s="51"/>
+      <c r="O30" s="51"/>
+      <c r="P30" s="52"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="28"/>
-      <c r="B31" s="67" t="s">
+      <c r="A31" s="44"/>
+      <c r="B31" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="69"/>
-      <c r="D31" s="69"/>
-      <c r="E31" s="69"/>
-      <c r="F31" s="69"/>
-      <c r="G31" s="69"/>
-      <c r="H31" s="69"/>
-      <c r="I31" s="69"/>
-      <c r="J31" s="68"/>
-      <c r="K31" s="67"/>
-      <c r="L31" s="68"/>
-      <c r="M31" s="67"/>
-      <c r="N31" s="69"/>
-      <c r="O31" s="69"/>
-      <c r="P31" s="68"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="63"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="63"/>
+      <c r="J31" s="64"/>
+      <c r="K31" s="62"/>
+      <c r="L31" s="64"/>
+      <c r="M31" s="62"/>
+      <c r="N31" s="63"/>
+      <c r="O31" s="63"/>
+      <c r="P31" s="64"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="28"/>
+      <c r="A32" s="44"/>
       <c r="B32" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C32" s="56" t="s">
+      <c r="C32" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="D32" s="70"/>
-      <c r="E32" s="57"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="56"/>
       <c r="F32" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G32" s="56" t="s">
+      <c r="G32" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="H32" s="57"/>
-      <c r="I32" s="56" t="s">
+      <c r="H32" s="56"/>
+      <c r="I32" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="J32" s="57"/>
-      <c r="K32" s="61"/>
-      <c r="L32" s="63"/>
-      <c r="M32" s="61"/>
-      <c r="N32" s="62"/>
-      <c r="O32" s="62"/>
-      <c r="P32" s="63"/>
+      <c r="J32" s="56"/>
+      <c r="K32" s="71"/>
+      <c r="L32" s="73"/>
+      <c r="M32" s="71"/>
+      <c r="N32" s="72"/>
+      <c r="O32" s="72"/>
+      <c r="P32" s="73"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A33" s="28"/>
+      <c r="A33" s="44"/>
       <c r="B33" s="8">
         <v>1</v>
       </c>
-      <c r="C33" s="64" t="s">
+      <c r="C33" s="57" t="s">
         <v>277</v>
       </c>
-      <c r="D33" s="66"/>
-      <c r="E33" s="65"/>
+      <c r="D33" s="58"/>
+      <c r="E33" s="59"/>
       <c r="F33" s="3"/>
-      <c r="G33" s="64" t="s">
+      <c r="G33" s="57" t="s">
         <v>277</v>
       </c>
-      <c r="H33" s="65"/>
+      <c r="H33" s="59"/>
       <c r="I33" s="3"/>
       <c r="J33" s="4"/>
-      <c r="K33" s="58"/>
-      <c r="L33" s="59"/>
-      <c r="M33" s="58"/>
-      <c r="N33" s="60"/>
-      <c r="O33" s="60"/>
-      <c r="P33" s="59"/>
+      <c r="K33" s="65"/>
+      <c r="L33" s="67"/>
+      <c r="M33" s="65"/>
+      <c r="N33" s="66"/>
+      <c r="O33" s="66"/>
+      <c r="P33" s="67"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A34" s="28"/>
-      <c r="B34" s="64"/>
-      <c r="C34" s="66"/>
-      <c r="D34" s="66"/>
-      <c r="E34" s="65"/>
+      <c r="A34" s="44"/>
+      <c r="B34" s="57"/>
+      <c r="C34" s="58"/>
+      <c r="D34" s="58"/>
+      <c r="E34" s="59"/>
       <c r="F34" s="3"/>
-      <c r="G34" s="64"/>
-      <c r="H34" s="65"/>
+      <c r="G34" s="57"/>
+      <c r="H34" s="59"/>
       <c r="I34" s="3"/>
       <c r="J34" s="4"/>
-      <c r="K34" s="58"/>
-      <c r="L34" s="59"/>
-      <c r="M34" s="58"/>
-      <c r="N34" s="60"/>
-      <c r="O34" s="60"/>
-      <c r="P34" s="59"/>
+      <c r="K34" s="65"/>
+      <c r="L34" s="67"/>
+      <c r="M34" s="65"/>
+      <c r="N34" s="66"/>
+      <c r="O34" s="66"/>
+      <c r="P34" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="85">
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:L4"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="M34:P34"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:P32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="M33:P33"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="B31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="A27:A34"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="B23:J23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
     <mergeCell ref="A6:P6"/>
     <mergeCell ref="A16:P16"/>
     <mergeCell ref="A18:P18"/>
@@ -13813,63 +13858,18 @@
     <mergeCell ref="M20:P20"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="D21:F21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="B23:J23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="A27:A34"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="M29:P29"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="B31:J31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:P31"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="M34:P34"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:P32"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="M33:P33"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:L4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -13906,134 +13906,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="48" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="47" t="s">
         <v>251</v>
       </c>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="50"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="49"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="32"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="33"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="28"/>
       <c r="N1" s="14"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="48" t="s">
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="47" t="s">
         <v>219</v>
       </c>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="50"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="49"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="51" t="s">
+      <c r="I2" s="50" t="s">
         <v>252</v>
       </c>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="53"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="52"/>
       <c r="N2" s="13"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="50"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="49"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="33"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="28"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="48" t="s">
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="47" t="s">
         <v>230</v>
       </c>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="50"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="49"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="32"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="33"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="28"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="46"/>
-      <c r="O6" s="46"/>
-      <c r="P6" s="46"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="53"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="53"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -14544,50 +14544,50 @@
       <c r="P21" s="1"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="71" t="s">
+      <c r="A23" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="72"/>
-      <c r="C23" s="72"/>
-      <c r="D23" s="72"/>
-      <c r="E23" s="72"/>
-      <c r="F23" s="72"/>
-      <c r="G23" s="72"/>
-      <c r="H23" s="72"/>
-      <c r="I23" s="72"/>
-      <c r="J23" s="72"/>
-      <c r="K23" s="72"/>
-      <c r="L23" s="72"/>
-      <c r="M23" s="72"/>
-      <c r="N23" s="72"/>
-      <c r="O23" s="72"/>
-      <c r="P23" s="73"/>
+      <c r="B23" s="69"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="69"/>
+      <c r="H23" s="69"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="69"/>
+      <c r="M23" s="69"/>
+      <c r="N23" s="69"/>
+      <c r="O23" s="69"/>
+      <c r="P23" s="70"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="27">
+      <c r="A24" s="43">
         <v>1</v>
       </c>
-      <c r="B24" s="54" t="s">
+      <c r="B24" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="55"/>
-      <c r="D24" s="32" t="s">
+      <c r="C24" s="61"/>
+      <c r="D24" s="27" t="s">
         <v>278</v>
       </c>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
       <c r="G24" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H24" s="32" t="s">
+      <c r="H24" s="27" t="s">
         <v>279</v>
       </c>
-      <c r="I24" s="34"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="56" t="s">
+      <c r="I24" s="31"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="L24" s="57"/>
+      <c r="L24" s="56"/>
       <c r="M24" s="74" t="s">
         <v>273</v>
       </c>
@@ -14596,190 +14596,197 @@
       <c r="P24" s="76"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="28"/>
-      <c r="B25" s="54" t="s">
+      <c r="A25" s="44"/>
+      <c r="B25" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="55"/>
-      <c r="D25" s="32" t="s">
+      <c r="C25" s="61"/>
+      <c r="D25" s="27" t="s">
         <v>281</v>
       </c>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
       <c r="G25" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H25" s="32" t="s">
+      <c r="H25" s="27" t="s">
         <v>280</v>
       </c>
-      <c r="I25" s="34"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="56" t="s">
+      <c r="I25" s="31"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="L25" s="57"/>
-      <c r="M25" s="51" t="s">
+      <c r="L25" s="56"/>
+      <c r="M25" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="N25" s="52"/>
-      <c r="O25" s="52"/>
-      <c r="P25" s="53"/>
+      <c r="N25" s="51"/>
+      <c r="O25" s="51"/>
+      <c r="P25" s="52"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="28"/>
-      <c r="B26" s="54" t="s">
+      <c r="A26" s="44"/>
+      <c r="B26" s="60" t="s">
         <v>98</v>
       </c>
-      <c r="C26" s="55"/>
-      <c r="D26" s="32" t="s">
+      <c r="C26" s="61"/>
+      <c r="D26" s="27" t="s">
         <v>379</v>
       </c>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
       <c r="G26" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="H26" s="34" t="s">
+      <c r="H26" s="31" t="s">
         <v>380</v>
       </c>
-      <c r="I26" s="34"/>
-      <c r="J26" s="33"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="28"/>
       <c r="K26" s="15"/>
       <c r="L26" s="16"/>
-      <c r="M26" s="51"/>
-      <c r="N26" s="52"/>
-      <c r="O26" s="52"/>
-      <c r="P26" s="53"/>
+      <c r="M26" s="50"/>
+      <c r="N26" s="51"/>
+      <c r="O26" s="51"/>
+      <c r="P26" s="52"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="28"/>
-      <c r="B27" s="54" t="s">
+      <c r="A27" s="44"/>
+      <c r="B27" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="55"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="56" t="s">
+      <c r="C27" s="61"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="L27" s="57"/>
-      <c r="M27" s="51" t="s">
+      <c r="L27" s="56"/>
+      <c r="M27" s="50" t="s">
         <v>143</v>
       </c>
-      <c r="N27" s="52"/>
-      <c r="O27" s="52"/>
-      <c r="P27" s="53"/>
+      <c r="N27" s="51"/>
+      <c r="O27" s="51"/>
+      <c r="P27" s="52"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="28"/>
-      <c r="B28" s="67" t="s">
+      <c r="A28" s="44"/>
+      <c r="B28" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="69"/>
-      <c r="D28" s="69"/>
-      <c r="E28" s="69"/>
-      <c r="F28" s="69"/>
-      <c r="G28" s="69"/>
-      <c r="H28" s="69"/>
-      <c r="I28" s="69"/>
-      <c r="J28" s="68"/>
-      <c r="K28" s="67"/>
-      <c r="L28" s="68"/>
-      <c r="M28" s="67"/>
-      <c r="N28" s="69"/>
-      <c r="O28" s="69"/>
-      <c r="P28" s="68"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="63"/>
+      <c r="G28" s="63"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="63"/>
+      <c r="J28" s="64"/>
+      <c r="K28" s="62"/>
+      <c r="L28" s="64"/>
+      <c r="M28" s="62"/>
+      <c r="N28" s="63"/>
+      <c r="O28" s="63"/>
+      <c r="P28" s="64"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="28"/>
+      <c r="A29" s="44"/>
       <c r="B29" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="56" t="s">
+      <c r="C29" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="70"/>
-      <c r="E29" s="57"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="56"/>
       <c r="F29" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G29" s="56" t="s">
+      <c r="G29" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="H29" s="57"/>
-      <c r="I29" s="56" t="s">
+      <c r="H29" s="56"/>
+      <c r="I29" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="J29" s="57"/>
-      <c r="K29" s="61"/>
-      <c r="L29" s="63"/>
-      <c r="M29" s="61"/>
-      <c r="N29" s="62"/>
-      <c r="O29" s="62"/>
-      <c r="P29" s="63"/>
+      <c r="J29" s="56"/>
+      <c r="K29" s="71"/>
+      <c r="L29" s="73"/>
+      <c r="M29" s="71"/>
+      <c r="N29" s="72"/>
+      <c r="O29" s="72"/>
+      <c r="P29" s="73"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="28"/>
+      <c r="A30" s="44"/>
       <c r="B30" s="8">
         <v>1</v>
       </c>
-      <c r="C30" s="64" t="s">
+      <c r="C30" s="57" t="s">
         <v>277</v>
       </c>
-      <c r="D30" s="66"/>
-      <c r="E30" s="65"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="59"/>
       <c r="F30" s="3"/>
-      <c r="G30" s="64" t="s">
+      <c r="G30" s="57" t="s">
         <v>277</v>
       </c>
-      <c r="H30" s="65"/>
+      <c r="H30" s="59"/>
       <c r="I30" s="3"/>
       <c r="J30" s="4"/>
-      <c r="K30" s="58"/>
-      <c r="L30" s="59"/>
-      <c r="M30" s="58"/>
-      <c r="N30" s="60"/>
-      <c r="O30" s="60"/>
-      <c r="P30" s="59"/>
+      <c r="K30" s="65"/>
+      <c r="L30" s="67"/>
+      <c r="M30" s="65"/>
+      <c r="N30" s="66"/>
+      <c r="O30" s="66"/>
+      <c r="P30" s="67"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="28"/>
-      <c r="B31" s="64"/>
-      <c r="C31" s="66"/>
-      <c r="D31" s="66"/>
-      <c r="E31" s="65"/>
+      <c r="A31" s="44"/>
+      <c r="B31" s="57"/>
+      <c r="C31" s="58"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="59"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="64"/>
-      <c r="H31" s="65"/>
+      <c r="G31" s="57"/>
+      <c r="H31" s="59"/>
       <c r="I31" s="3"/>
       <c r="J31" s="4"/>
-      <c r="K31" s="58"/>
-      <c r="L31" s="59"/>
-      <c r="M31" s="58"/>
-      <c r="N31" s="60"/>
-      <c r="O31" s="60"/>
-      <c r="P31" s="59"/>
+      <c r="K31" s="65"/>
+      <c r="L31" s="67"/>
+      <c r="M31" s="65"/>
+      <c r="N31" s="66"/>
+      <c r="O31" s="66"/>
+      <c r="P31" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:L4"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="B28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:P28"/>
     <mergeCell ref="A23:P23"/>
     <mergeCell ref="A24:A31"/>
     <mergeCell ref="B24:C24"/>
@@ -14796,26 +14803,19 @@
     <mergeCell ref="D26:F26"/>
     <mergeCell ref="H26:J26"/>
     <mergeCell ref="M26:P26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="B28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:P29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:L4"/>
+    <mergeCell ref="A5:P5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -14852,132 +14852,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="48" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="47" t="s">
         <v>317</v>
       </c>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="50"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="49"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="32"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="33"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="28"/>
       <c r="N1" s="14"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="48" t="s">
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="47" t="s">
         <v>318</v>
       </c>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="50"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="49"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="51" t="s">
+      <c r="I2" s="50" t="s">
         <v>319</v>
       </c>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="53"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="52"/>
       <c r="N2" s="13"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="50"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="49"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="33"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="28"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="50"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="49"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="32"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="33"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="28"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="46"/>
-      <c r="O6" s="46"/>
-      <c r="P6" s="46"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="53"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="53"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -15600,50 +15600,50 @@
       <c r="P25" s="1"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="71" t="s">
+      <c r="A27" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="72"/>
-      <c r="C27" s="72"/>
-      <c r="D27" s="72"/>
-      <c r="E27" s="72"/>
-      <c r="F27" s="72"/>
-      <c r="G27" s="72"/>
-      <c r="H27" s="72"/>
-      <c r="I27" s="72"/>
-      <c r="J27" s="72"/>
-      <c r="K27" s="72"/>
-      <c r="L27" s="72"/>
-      <c r="M27" s="72"/>
-      <c r="N27" s="72"/>
-      <c r="O27" s="72"/>
-      <c r="P27" s="73"/>
+      <c r="B27" s="69"/>
+      <c r="C27" s="69"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="69"/>
+      <c r="G27" s="69"/>
+      <c r="H27" s="69"/>
+      <c r="I27" s="69"/>
+      <c r="J27" s="69"/>
+      <c r="K27" s="69"/>
+      <c r="L27" s="69"/>
+      <c r="M27" s="69"/>
+      <c r="N27" s="69"/>
+      <c r="O27" s="69"/>
+      <c r="P27" s="70"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="27">
+      <c r="A28" s="43">
         <v>1</v>
       </c>
-      <c r="B28" s="54" t="s">
+      <c r="B28" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="55"/>
-      <c r="D28" s="32" t="s">
+      <c r="C28" s="61"/>
+      <c r="D28" s="27" t="s">
         <v>278</v>
       </c>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
       <c r="G28" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H28" s="32" t="s">
+      <c r="H28" s="27" t="s">
         <v>376</v>
       </c>
-      <c r="I28" s="34"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="56" t="s">
+      <c r="I28" s="31"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="L28" s="57"/>
+      <c r="L28" s="56"/>
       <c r="M28" s="74" t="s">
         <v>273</v>
       </c>
@@ -15652,189 +15652,198 @@
       <c r="P28" s="76"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="28"/>
-      <c r="B29" s="54" t="s">
+      <c r="A29" s="44"/>
+      <c r="B29" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="55"/>
-      <c r="D29" s="32" t="s">
+      <c r="C29" s="61"/>
+      <c r="D29" s="27" t="s">
         <v>281</v>
       </c>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
       <c r="G29" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H29" s="32" t="s">
+      <c r="H29" s="27" t="s">
         <v>280</v>
       </c>
-      <c r="I29" s="34"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="56" t="s">
+      <c r="I29" s="31"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="L29" s="57"/>
-      <c r="M29" s="51" t="s">
+      <c r="L29" s="56"/>
+      <c r="M29" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="N29" s="52"/>
-      <c r="O29" s="52"/>
-      <c r="P29" s="53"/>
+      <c r="N29" s="51"/>
+      <c r="O29" s="51"/>
+      <c r="P29" s="52"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="28"/>
-      <c r="B30" s="54" t="s">
+      <c r="A30" s="44"/>
+      <c r="B30" s="60" t="s">
         <v>98</v>
       </c>
-      <c r="C30" s="55"/>
-      <c r="D30" s="32" t="s">
+      <c r="C30" s="61"/>
+      <c r="D30" s="27" t="s">
         <v>377</v>
       </c>
-      <c r="E30" s="34"/>
-      <c r="F30" s="34"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
       <c r="G30" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="H30" s="34" t="s">
+      <c r="H30" s="31" t="s">
         <v>378</v>
       </c>
-      <c r="I30" s="34"/>
-      <c r="J30" s="33"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="28"/>
       <c r="K30" s="15"/>
       <c r="L30" s="16"/>
-      <c r="M30" s="51"/>
-      <c r="N30" s="52"/>
-      <c r="O30" s="52"/>
-      <c r="P30" s="53"/>
+      <c r="M30" s="50"/>
+      <c r="N30" s="51"/>
+      <c r="O30" s="51"/>
+      <c r="P30" s="52"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="28"/>
-      <c r="B31" s="54" t="s">
+      <c r="A31" s="44"/>
+      <c r="B31" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="55"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="34"/>
-      <c r="J31" s="33"/>
-      <c r="K31" s="56" t="s">
+      <c r="C31" s="61"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="28"/>
+      <c r="K31" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="L31" s="57"/>
-      <c r="M31" s="51" t="s">
+      <c r="L31" s="56"/>
+      <c r="M31" s="50" t="s">
         <v>143</v>
       </c>
-      <c r="N31" s="52"/>
-      <c r="O31" s="52"/>
-      <c r="P31" s="53"/>
+      <c r="N31" s="51"/>
+      <c r="O31" s="51"/>
+      <c r="P31" s="52"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="28"/>
-      <c r="B32" s="67" t="s">
+      <c r="A32" s="44"/>
+      <c r="B32" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="C32" s="69"/>
-      <c r="D32" s="69"/>
-      <c r="E32" s="69"/>
-      <c r="F32" s="69"/>
-      <c r="G32" s="69"/>
-      <c r="H32" s="69"/>
-      <c r="I32" s="69"/>
-      <c r="J32" s="68"/>
-      <c r="K32" s="67"/>
-      <c r="L32" s="68"/>
-      <c r="M32" s="67"/>
-      <c r="N32" s="69"/>
-      <c r="O32" s="69"/>
-      <c r="P32" s="68"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="63"/>
+      <c r="G32" s="63"/>
+      <c r="H32" s="63"/>
+      <c r="I32" s="63"/>
+      <c r="J32" s="64"/>
+      <c r="K32" s="62"/>
+      <c r="L32" s="64"/>
+      <c r="M32" s="62"/>
+      <c r="N32" s="63"/>
+      <c r="O32" s="63"/>
+      <c r="P32" s="64"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A33" s="28"/>
+      <c r="A33" s="44"/>
       <c r="B33" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="56" t="s">
+      <c r="C33" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="D33" s="70"/>
-      <c r="E33" s="57"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="56"/>
       <c r="F33" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G33" s="56" t="s">
+      <c r="G33" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="H33" s="57"/>
-      <c r="I33" s="56" t="s">
+      <c r="H33" s="56"/>
+      <c r="I33" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="J33" s="57"/>
-      <c r="K33" s="61"/>
-      <c r="L33" s="63"/>
-      <c r="M33" s="61"/>
-      <c r="N33" s="62"/>
-      <c r="O33" s="62"/>
-      <c r="P33" s="63"/>
+      <c r="J33" s="56"/>
+      <c r="K33" s="71"/>
+      <c r="L33" s="73"/>
+      <c r="M33" s="71"/>
+      <c r="N33" s="72"/>
+      <c r="O33" s="72"/>
+      <c r="P33" s="73"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A34" s="28"/>
+      <c r="A34" s="44"/>
       <c r="B34" s="8">
         <v>1</v>
       </c>
-      <c r="C34" s="64" t="s">
+      <c r="C34" s="57" t="s">
         <v>277</v>
       </c>
-      <c r="D34" s="66"/>
-      <c r="E34" s="65"/>
+      <c r="D34" s="58"/>
+      <c r="E34" s="59"/>
       <c r="F34" s="3"/>
-      <c r="G34" s="64" t="s">
+      <c r="G34" s="57" t="s">
         <v>277</v>
       </c>
-      <c r="H34" s="65"/>
+      <c r="H34" s="59"/>
       <c r="I34" s="3"/>
       <c r="J34" s="4"/>
-      <c r="K34" s="58"/>
-      <c r="L34" s="59"/>
-      <c r="M34" s="58"/>
-      <c r="N34" s="60"/>
-      <c r="O34" s="60"/>
-      <c r="P34" s="59"/>
+      <c r="K34" s="65"/>
+      <c r="L34" s="67"/>
+      <c r="M34" s="65"/>
+      <c r="N34" s="66"/>
+      <c r="O34" s="66"/>
+      <c r="P34" s="67"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A35" s="28"/>
-      <c r="B35" s="64"/>
-      <c r="C35" s="66"/>
-      <c r="D35" s="66"/>
-      <c r="E35" s="65"/>
+      <c r="A35" s="44"/>
+      <c r="B35" s="57"/>
+      <c r="C35" s="58"/>
+      <c r="D35" s="58"/>
+      <c r="E35" s="59"/>
       <c r="F35" s="3"/>
-      <c r="G35" s="64"/>
-      <c r="H35" s="65"/>
+      <c r="G35" s="57"/>
+      <c r="H35" s="59"/>
       <c r="I35" s="3"/>
       <c r="J35" s="4"/>
-      <c r="K35" s="58"/>
-      <c r="L35" s="59"/>
-      <c r="M35" s="58"/>
-      <c r="N35" s="60"/>
-      <c r="O35" s="60"/>
-      <c r="P35" s="59"/>
+      <c r="K35" s="65"/>
+      <c r="L35" s="67"/>
+      <c r="M35" s="65"/>
+      <c r="N35" s="66"/>
+      <c r="O35" s="66"/>
+      <c r="P35" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:L4"/>
+    <mergeCell ref="B32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:P32"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="M35:P35"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="M33:P33"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="M34:P34"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:P31"/>
     <mergeCell ref="A6:P6"/>
     <mergeCell ref="A27:P27"/>
     <mergeCell ref="A28:A35"/>
@@ -15851,27 +15860,18 @@
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="D30:F30"/>
     <mergeCell ref="H30:J30"/>
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:J31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:P31"/>
-    <mergeCell ref="B32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:P32"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="M35:P35"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="M33:P33"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="M34:P34"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:L4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/nop-dyn/model/nop-dyn.orm.xlsx
+++ b/nop-dyn/model/nop-dyn.orm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-dyn\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5186B07B-A8E4-471F-AFBD-6B7AC3398D73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7858DDB-DB3F-4E79-AB3C-3043737E8C47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" firstSheet="3" activeTab="5" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" firstSheet="4" activeTab="5" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="2" r:id="rId1"/>
@@ -18,16 +18,17 @@
     <sheet name="域定义" sheetId="15" r:id="rId3"/>
     <sheet name="字典定义" sheetId="23" r:id="rId4"/>
     <sheet name="nop_dyn_app" sheetId="30" r:id="rId5"/>
-    <sheet name="nop_dyn_module" sheetId="22" r:id="rId6"/>
-    <sheet name="nop_dyn_app_module" sheetId="31" r:id="rId7"/>
-    <sheet name="nop_dyn_page" sheetId="29" r:id="rId8"/>
-    <sheet name="nop_dyn_entity_meta" sheetId="32" r:id="rId9"/>
-    <sheet name="nop_dyn_prop_meta" sheetId="33" r:id="rId10"/>
-    <sheet name="nop_dyn_entity_relation_meta" sheetId="36" r:id="rId11"/>
-    <sheet name="nop_dyn_function_meta" sheetId="37" r:id="rId12"/>
-    <sheet name="nop_dyn_domain" sheetId="34" r:id="rId13"/>
-    <sheet name="nop_dyn_entity" sheetId="28" r:id="rId14"/>
-    <sheet name="nop_dyn_entity_relation" sheetId="35" r:id="rId15"/>
+    <sheet name="nop_dyn_module_dep" sheetId="38" r:id="rId6"/>
+    <sheet name="nop_dyn_module" sheetId="22" r:id="rId7"/>
+    <sheet name="nop_dyn_app_module" sheetId="31" r:id="rId8"/>
+    <sheet name="nop_dyn_page" sheetId="29" r:id="rId9"/>
+    <sheet name="nop_dyn_entity_meta" sheetId="32" r:id="rId10"/>
+    <sheet name="nop_dyn_prop_meta" sheetId="33" r:id="rId11"/>
+    <sheet name="nop_dyn_entity_relation_meta" sheetId="36" r:id="rId12"/>
+    <sheet name="nop_dyn_function_meta" sheetId="37" r:id="rId13"/>
+    <sheet name="nop_dyn_domain" sheetId="34" r:id="rId14"/>
+    <sheet name="nop_dyn_entity" sheetId="28" r:id="rId15"/>
+    <sheet name="nop_dyn_entity_relation" sheetId="35" r:id="rId16"/>
   </sheets>
   <definedNames>
     <definedName name="app_status">字典定义!$A$1:$G$9</definedName>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1806" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1932" uniqueCount="534">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2138,6 +2139,46 @@
   </si>
   <si>
     <t>函数元数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nop_dyn_module_dep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块依赖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Module Dependency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被依赖模块ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>depModule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dependent Module</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEP_MODULE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dep Module ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>depModuleId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2566,6 +2607,24 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2575,13 +2634,13 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2599,14 +2658,14 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2616,24 +2675,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3156,6 +3197,1062 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC0BA8A4-9C3E-4604-A099-A93C4C69087F}">
+  <dimension ref="A1:P35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.33203125" customWidth="1"/>
+    <col min="2" max="2" width="4.4140625" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.9140625" customWidth="1"/>
+    <col min="5" max="5" width="5.08203125" customWidth="1"/>
+    <col min="6" max="6" width="15.08203125" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="9" max="9" width="4.75" customWidth="1"/>
+    <col min="10" max="10" width="11" customWidth="1"/>
+    <col min="11" max="11" width="6.08203125" customWidth="1"/>
+    <col min="12" max="12" width="8.25" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="47" t="s">
+        <v>317</v>
+      </c>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="27"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="47" t="s">
+        <v>318</v>
+      </c>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="50" t="s">
+        <v>319</v>
+      </c>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="27"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="28"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="53"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="53"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
+        <v>1</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="H8" s="9"/>
+      <c r="I8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="7">
+        <v>32</v>
+      </c>
+      <c r="L8" s="7"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="1"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
+        <v>2</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="H9" s="9"/>
+      <c r="I9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="7">
+        <v>32</v>
+      </c>
+      <c r="L9" s="7"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
+        <v>3</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="H10" s="9"/>
+      <c r="I10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" s="7">
+        <v>200</v>
+      </c>
+      <c r="L10" s="7"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="1"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
+        <v>4</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="H11" s="9"/>
+      <c r="I11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K11" s="7">
+        <v>100</v>
+      </c>
+      <c r="L11" s="7"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="1"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="7">
+        <v>5</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" s="9"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12" s="7">
+        <v>100</v>
+      </c>
+      <c r="L12" s="7"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="1"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="7">
+        <v>6</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="H13" s="9"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13" s="7">
+        <v>100</v>
+      </c>
+      <c r="L13" s="7"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="1"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="7">
+        <v>7</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="H14" s="9"/>
+      <c r="I14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="N14" s="9"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="1"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" s="7">
+        <v>8</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" s="9"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K15" s="7">
+        <v>200</v>
+      </c>
+      <c r="L15" s="7"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="1"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="7">
+        <v>9</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="9" t="s">
+        <v>519</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="9" t="s">
+        <v>520</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>521</v>
+      </c>
+      <c r="H16" s="9"/>
+      <c r="I16" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="1"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A17" s="7">
+        <v>10</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="H17" s="9"/>
+      <c r="I17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="N17" s="9"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="1"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18" s="7">
+        <v>11</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="I18" s="7"/>
+      <c r="J18" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K18" s="7">
+        <v>1000</v>
+      </c>
+      <c r="L18" s="7"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="1"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A19" s="7">
+        <v>12</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="1"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A20" s="7">
+        <v>13</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="7"/>
+      <c r="F20" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K20" s="7">
+        <v>50</v>
+      </c>
+      <c r="L20" s="7"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="1"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A21" s="7">
+        <v>14</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="7"/>
+      <c r="F21" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="1"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A22" s="7">
+        <v>15</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" s="7"/>
+      <c r="F22" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K22" s="7">
+        <v>50</v>
+      </c>
+      <c r="L22" s="7"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="1"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A23" s="7">
+        <v>16</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" s="7"/>
+      <c r="F23" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="1"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A24" s="7">
+        <v>17</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="I24" s="7"/>
+      <c r="J24" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K24" s="7">
+        <v>200</v>
+      </c>
+      <c r="L24" s="7"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="1"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="1"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A27" s="74" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="75"/>
+      <c r="C27" s="75"/>
+      <c r="D27" s="75"/>
+      <c r="E27" s="75"/>
+      <c r="F27" s="75"/>
+      <c r="G27" s="75"/>
+      <c r="H27" s="75"/>
+      <c r="I27" s="75"/>
+      <c r="J27" s="75"/>
+      <c r="K27" s="75"/>
+      <c r="L27" s="75"/>
+      <c r="M27" s="75"/>
+      <c r="N27" s="75"/>
+      <c r="O27" s="75"/>
+      <c r="P27" s="76"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A28" s="43">
+        <v>1</v>
+      </c>
+      <c r="B28" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="67"/>
+      <c r="D28" s="27" t="s">
+        <v>278</v>
+      </c>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H28" s="27" t="s">
+        <v>376</v>
+      </c>
+      <c r="I28" s="31"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="60" t="s">
+        <v>58</v>
+      </c>
+      <c r="L28" s="62"/>
+      <c r="M28" s="71" t="s">
+        <v>273</v>
+      </c>
+      <c r="N28" s="72"/>
+      <c r="O28" s="72"/>
+      <c r="P28" s="73"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A29" s="44"/>
+      <c r="B29" s="66" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="67"/>
+      <c r="D29" s="27" t="s">
+        <v>281</v>
+      </c>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H29" s="27" t="s">
+        <v>280</v>
+      </c>
+      <c r="I29" s="31"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="60" t="s">
+        <v>66</v>
+      </c>
+      <c r="L29" s="62"/>
+      <c r="M29" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="N29" s="51"/>
+      <c r="O29" s="51"/>
+      <c r="P29" s="52"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A30" s="44"/>
+      <c r="B30" s="66" t="s">
+        <v>98</v>
+      </c>
+      <c r="C30" s="67"/>
+      <c r="D30" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="H30" s="31" t="s">
+        <v>378</v>
+      </c>
+      <c r="I30" s="31"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="50"/>
+      <c r="N30" s="51"/>
+      <c r="O30" s="51"/>
+      <c r="P30" s="52"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A31" s="44"/>
+      <c r="B31" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="67"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="28"/>
+      <c r="K31" s="60" t="s">
+        <v>9</v>
+      </c>
+      <c r="L31" s="62"/>
+      <c r="M31" s="50" t="s">
+        <v>143</v>
+      </c>
+      <c r="N31" s="51"/>
+      <c r="O31" s="51"/>
+      <c r="P31" s="52"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A32" s="44"/>
+      <c r="B32" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" s="69"/>
+      <c r="D32" s="69"/>
+      <c r="E32" s="69"/>
+      <c r="F32" s="69"/>
+      <c r="G32" s="69"/>
+      <c r="H32" s="69"/>
+      <c r="I32" s="69"/>
+      <c r="J32" s="70"/>
+      <c r="K32" s="68"/>
+      <c r="L32" s="70"/>
+      <c r="M32" s="68"/>
+      <c r="N32" s="69"/>
+      <c r="O32" s="69"/>
+      <c r="P32" s="70"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A33" s="44"/>
+      <c r="B33" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="61"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="H33" s="62"/>
+      <c r="I33" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="J33" s="62"/>
+      <c r="K33" s="63"/>
+      <c r="L33" s="64"/>
+      <c r="M33" s="63"/>
+      <c r="N33" s="65"/>
+      <c r="O33" s="65"/>
+      <c r="P33" s="64"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A34" s="44"/>
+      <c r="B34" s="8">
+        <v>1</v>
+      </c>
+      <c r="C34" s="54" t="s">
+        <v>277</v>
+      </c>
+      <c r="D34" s="55"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="54" t="s">
+        <v>277</v>
+      </c>
+      <c r="H34" s="56"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="57"/>
+      <c r="L34" s="58"/>
+      <c r="M34" s="57"/>
+      <c r="N34" s="59"/>
+      <c r="O34" s="59"/>
+      <c r="P34" s="58"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A35" s="44"/>
+      <c r="B35" s="54"/>
+      <c r="C35" s="55"/>
+      <c r="D35" s="55"/>
+      <c r="E35" s="56"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="54"/>
+      <c r="H35" s="56"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="57"/>
+      <c r="L35" s="58"/>
+      <c r="M35" s="57"/>
+      <c r="N35" s="59"/>
+      <c r="O35" s="59"/>
+      <c r="P35" s="58"/>
+    </row>
+  </sheetData>
+  <mergeCells count="49">
+    <mergeCell ref="B32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:P32"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="M35:P35"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="M33:P33"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="M34:P34"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A27:P27"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:L4"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="M14" location="entity_store_type" display="dyn/page-schema-type" xr:uid="{A19F2678-1B24-4DCA-AC5A-69335700E3C0}"/>
+    <hyperlink ref="M28:P28" location="nop_dyn_module!A1" display="NopDynModule" xr:uid="{6580E2C8-10D8-477F-BE0A-37F2A03BFA6D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68F89B88-34E8-484E-A694-177B0E94136A}">
   <dimension ref="A1:P54"/>
   <sheetViews>
@@ -4272,33 +5369,33 @@
       <c r="P36" s="1"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A38" s="68" t="s">
+      <c r="A38" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="B38" s="69"/>
-      <c r="C38" s="69"/>
-      <c r="D38" s="69"/>
-      <c r="E38" s="69"/>
-      <c r="F38" s="69"/>
-      <c r="G38" s="69"/>
-      <c r="H38" s="69"/>
-      <c r="I38" s="69"/>
-      <c r="J38" s="69"/>
-      <c r="K38" s="69"/>
-      <c r="L38" s="69"/>
-      <c r="M38" s="69"/>
-      <c r="N38" s="69"/>
-      <c r="O38" s="69"/>
-      <c r="P38" s="70"/>
+      <c r="B38" s="75"/>
+      <c r="C38" s="75"/>
+      <c r="D38" s="75"/>
+      <c r="E38" s="75"/>
+      <c r="F38" s="75"/>
+      <c r="G38" s="75"/>
+      <c r="H38" s="75"/>
+      <c r="I38" s="75"/>
+      <c r="J38" s="75"/>
+      <c r="K38" s="75"/>
+      <c r="L38" s="75"/>
+      <c r="M38" s="75"/>
+      <c r="N38" s="75"/>
+      <c r="O38" s="75"/>
+      <c r="P38" s="76"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="43">
         <v>1</v>
       </c>
-      <c r="B39" s="60" t="s">
+      <c r="B39" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="C39" s="61"/>
+      <c r="C39" s="67"/>
       <c r="D39" s="27" t="s">
         <v>336</v>
       </c>
@@ -4312,23 +5409,23 @@
       </c>
       <c r="I39" s="31"/>
       <c r="J39" s="28"/>
-      <c r="K39" s="54" t="s">
+      <c r="K39" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="L39" s="56"/>
-      <c r="M39" s="74" t="s">
+      <c r="L39" s="62"/>
+      <c r="M39" s="71" t="s">
         <v>338</v>
       </c>
-      <c r="N39" s="75"/>
-      <c r="O39" s="75"/>
-      <c r="P39" s="76"/>
+      <c r="N39" s="72"/>
+      <c r="O39" s="72"/>
+      <c r="P39" s="73"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="44"/>
-      <c r="B40" s="60" t="s">
+      <c r="B40" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="C40" s="61"/>
+      <c r="C40" s="67"/>
       <c r="D40" s="27" t="s">
         <v>281</v>
       </c>
@@ -4342,10 +5439,10 @@
       </c>
       <c r="I40" s="31"/>
       <c r="J40" s="28"/>
-      <c r="K40" s="54" t="s">
+      <c r="K40" s="60" t="s">
         <v>66</v>
       </c>
-      <c r="L40" s="56"/>
+      <c r="L40" s="62"/>
       <c r="M40" s="50" t="s">
         <v>67</v>
       </c>
@@ -4355,10 +5452,10 @@
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="44"/>
-      <c r="B41" s="60" t="s">
+      <c r="B41" s="66" t="s">
         <v>98</v>
       </c>
-      <c r="C41" s="61"/>
+      <c r="C41" s="67"/>
       <c r="D41" s="27"/>
       <c r="E41" s="31"/>
       <c r="F41" s="31"/>
@@ -4377,10 +5474,10 @@
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" s="44"/>
-      <c r="B42" s="60" t="s">
+      <c r="B42" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="C42" s="61"/>
+      <c r="C42" s="67"/>
       <c r="D42" s="27"/>
       <c r="E42" s="31"/>
       <c r="F42" s="31"/>
@@ -4388,10 +5485,10 @@
       <c r="H42" s="31"/>
       <c r="I42" s="31"/>
       <c r="J42" s="28"/>
-      <c r="K42" s="54" t="s">
+      <c r="K42" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="L42" s="56"/>
+      <c r="L42" s="62"/>
       <c r="M42" s="50" t="s">
         <v>143</v>
       </c>
@@ -4401,102 +5498,102 @@
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" s="44"/>
-      <c r="B43" s="62" t="s">
+      <c r="B43" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="C43" s="63"/>
-      <c r="D43" s="63"/>
-      <c r="E43" s="63"/>
-      <c r="F43" s="63"/>
-      <c r="G43" s="63"/>
-      <c r="H43" s="63"/>
-      <c r="I43" s="63"/>
-      <c r="J43" s="64"/>
-      <c r="K43" s="62"/>
-      <c r="L43" s="64"/>
-      <c r="M43" s="62"/>
-      <c r="N43" s="63"/>
-      <c r="O43" s="63"/>
-      <c r="P43" s="64"/>
+      <c r="C43" s="69"/>
+      <c r="D43" s="69"/>
+      <c r="E43" s="69"/>
+      <c r="F43" s="69"/>
+      <c r="G43" s="69"/>
+      <c r="H43" s="69"/>
+      <c r="I43" s="69"/>
+      <c r="J43" s="70"/>
+      <c r="K43" s="68"/>
+      <c r="L43" s="70"/>
+      <c r="M43" s="68"/>
+      <c r="N43" s="69"/>
+      <c r="O43" s="69"/>
+      <c r="P43" s="70"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="44"/>
       <c r="B44" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C44" s="54" t="s">
+      <c r="C44" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="D44" s="55"/>
-      <c r="E44" s="56"/>
+      <c r="D44" s="61"/>
+      <c r="E44" s="62"/>
       <c r="F44" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G44" s="54" t="s">
+      <c r="G44" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="H44" s="56"/>
-      <c r="I44" s="54" t="s">
+      <c r="H44" s="62"/>
+      <c r="I44" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="J44" s="56"/>
-      <c r="K44" s="71"/>
-      <c r="L44" s="73"/>
-      <c r="M44" s="71"/>
-      <c r="N44" s="72"/>
-      <c r="O44" s="72"/>
-      <c r="P44" s="73"/>
+      <c r="J44" s="62"/>
+      <c r="K44" s="63"/>
+      <c r="L44" s="64"/>
+      <c r="M44" s="63"/>
+      <c r="N44" s="65"/>
+      <c r="O44" s="65"/>
+      <c r="P44" s="64"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" s="44"/>
       <c r="B45" s="8">
         <v>1</v>
       </c>
-      <c r="C45" s="57" t="s">
+      <c r="C45" s="54" t="s">
         <v>339</v>
       </c>
-      <c r="D45" s="58"/>
-      <c r="E45" s="59"/>
+      <c r="D45" s="55"/>
+      <c r="E45" s="56"/>
       <c r="F45" s="3"/>
-      <c r="G45" s="57" t="s">
+      <c r="G45" s="54" t="s">
         <v>339</v>
       </c>
-      <c r="H45" s="59"/>
+      <c r="H45" s="56"/>
       <c r="I45" s="3"/>
       <c r="J45" s="4"/>
-      <c r="K45" s="65"/>
-      <c r="L45" s="67"/>
-      <c r="M45" s="65"/>
-      <c r="N45" s="66"/>
-      <c r="O45" s="66"/>
-      <c r="P45" s="67"/>
+      <c r="K45" s="57"/>
+      <c r="L45" s="58"/>
+      <c r="M45" s="57"/>
+      <c r="N45" s="59"/>
+      <c r="O45" s="59"/>
+      <c r="P45" s="58"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" s="44"/>
-      <c r="B46" s="57"/>
-      <c r="C46" s="58"/>
-      <c r="D46" s="58"/>
-      <c r="E46" s="59"/>
+      <c r="B46" s="54"/>
+      <c r="C46" s="55"/>
+      <c r="D46" s="55"/>
+      <c r="E46" s="56"/>
       <c r="F46" s="3"/>
-      <c r="G46" s="57"/>
-      <c r="H46" s="59"/>
+      <c r="G46" s="54"/>
+      <c r="H46" s="56"/>
       <c r="I46" s="3"/>
       <c r="J46" s="4"/>
-      <c r="K46" s="65"/>
-      <c r="L46" s="67"/>
-      <c r="M46" s="65"/>
-      <c r="N46" s="66"/>
-      <c r="O46" s="66"/>
-      <c r="P46" s="67"/>
+      <c r="K46" s="57"/>
+      <c r="L46" s="58"/>
+      <c r="M46" s="57"/>
+      <c r="N46" s="59"/>
+      <c r="O46" s="59"/>
+      <c r="P46" s="58"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" s="43">
         <v>2</v>
       </c>
-      <c r="B47" s="60" t="s">
+      <c r="B47" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="C47" s="61"/>
+      <c r="C47" s="67"/>
       <c r="D47" s="27" t="s">
         <v>401</v>
       </c>
@@ -4508,23 +5605,23 @@
       <c r="H47" s="27"/>
       <c r="I47" s="31"/>
       <c r="J47" s="28"/>
-      <c r="K47" s="54" t="s">
+      <c r="K47" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="L47" s="56"/>
-      <c r="M47" s="74" t="s">
+      <c r="L47" s="62"/>
+      <c r="M47" s="71" t="s">
         <v>402</v>
       </c>
-      <c r="N47" s="75"/>
-      <c r="O47" s="75"/>
-      <c r="P47" s="76"/>
+      <c r="N47" s="72"/>
+      <c r="O47" s="72"/>
+      <c r="P47" s="73"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" s="44"/>
-      <c r="B48" s="60" t="s">
+      <c r="B48" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="C48" s="61"/>
+      <c r="C48" s="67"/>
       <c r="D48" s="27" t="s">
         <v>8</v>
       </c>
@@ -4538,10 +5635,10 @@
       </c>
       <c r="I48" s="31"/>
       <c r="J48" s="28"/>
-      <c r="K48" s="54" t="s">
+      <c r="K48" s="60" t="s">
         <v>66</v>
       </c>
-      <c r="L48" s="56"/>
+      <c r="L48" s="62"/>
       <c r="M48" s="50" t="s">
         <v>67</v>
       </c>
@@ -4551,10 +5648,10 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" s="44"/>
-      <c r="B49" s="60" t="s">
+      <c r="B49" s="66" t="s">
         <v>98</v>
       </c>
-      <c r="C49" s="61"/>
+      <c r="C49" s="67"/>
       <c r="D49" s="27"/>
       <c r="E49" s="31"/>
       <c r="F49" s="31"/>
@@ -4573,10 +5670,10 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50" s="44"/>
-      <c r="B50" s="60" t="s">
+      <c r="B50" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="C50" s="61"/>
+      <c r="C50" s="67"/>
       <c r="D50" s="27"/>
       <c r="E50" s="31"/>
       <c r="F50" s="31"/>
@@ -4584,10 +5681,10 @@
       <c r="H50" s="31"/>
       <c r="I50" s="31"/>
       <c r="J50" s="28"/>
-      <c r="K50" s="54" t="s">
+      <c r="K50" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="L50" s="56"/>
+      <c r="L50" s="62"/>
       <c r="M50" s="50" t="s">
         <v>102</v>
       </c>
@@ -4597,93 +5694,93 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51" s="44"/>
-      <c r="B51" s="62" t="s">
+      <c r="B51" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="C51" s="63"/>
-      <c r="D51" s="63"/>
-      <c r="E51" s="63"/>
-      <c r="F51" s="63"/>
-      <c r="G51" s="63"/>
-      <c r="H51" s="63"/>
-      <c r="I51" s="63"/>
-      <c r="J51" s="64"/>
-      <c r="K51" s="62"/>
-      <c r="L51" s="64"/>
-      <c r="M51" s="62"/>
-      <c r="N51" s="63"/>
-      <c r="O51" s="63"/>
-      <c r="P51" s="64"/>
+      <c r="C51" s="69"/>
+      <c r="D51" s="69"/>
+      <c r="E51" s="69"/>
+      <c r="F51" s="69"/>
+      <c r="G51" s="69"/>
+      <c r="H51" s="69"/>
+      <c r="I51" s="69"/>
+      <c r="J51" s="70"/>
+      <c r="K51" s="68"/>
+      <c r="L51" s="70"/>
+      <c r="M51" s="68"/>
+      <c r="N51" s="69"/>
+      <c r="O51" s="69"/>
+      <c r="P51" s="70"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52" s="44"/>
       <c r="B52" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C52" s="54" t="s">
+      <c r="C52" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="D52" s="55"/>
-      <c r="E52" s="56"/>
+      <c r="D52" s="61"/>
+      <c r="E52" s="62"/>
       <c r="F52" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G52" s="54" t="s">
+      <c r="G52" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="H52" s="56"/>
-      <c r="I52" s="54" t="s">
+      <c r="H52" s="62"/>
+      <c r="I52" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="J52" s="56"/>
-      <c r="K52" s="71"/>
-      <c r="L52" s="73"/>
-      <c r="M52" s="71"/>
-      <c r="N52" s="72"/>
-      <c r="O52" s="72"/>
-      <c r="P52" s="73"/>
+      <c r="J52" s="62"/>
+      <c r="K52" s="63"/>
+      <c r="L52" s="64"/>
+      <c r="M52" s="63"/>
+      <c r="N52" s="65"/>
+      <c r="O52" s="65"/>
+      <c r="P52" s="64"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53" s="44"/>
       <c r="B53" s="8">
         <v>1</v>
       </c>
-      <c r="C53" s="57" t="s">
+      <c r="C53" s="54" t="s">
         <v>403</v>
       </c>
-      <c r="D53" s="58"/>
-      <c r="E53" s="59"/>
+      <c r="D53" s="55"/>
+      <c r="E53" s="56"/>
       <c r="F53" s="3"/>
-      <c r="G53" s="57" t="s">
+      <c r="G53" s="54" t="s">
         <v>403</v>
       </c>
-      <c r="H53" s="59"/>
+      <c r="H53" s="56"/>
       <c r="I53" s="3"/>
       <c r="J53" s="4"/>
-      <c r="K53" s="65"/>
-      <c r="L53" s="67"/>
-      <c r="M53" s="65"/>
-      <c r="N53" s="66"/>
-      <c r="O53" s="66"/>
-      <c r="P53" s="67"/>
+      <c r="K53" s="57"/>
+      <c r="L53" s="58"/>
+      <c r="M53" s="57"/>
+      <c r="N53" s="59"/>
+      <c r="O53" s="59"/>
+      <c r="P53" s="58"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54" s="44"/>
-      <c r="B54" s="57"/>
-      <c r="C54" s="58"/>
-      <c r="D54" s="58"/>
-      <c r="E54" s="59"/>
+      <c r="B54" s="54"/>
+      <c r="C54" s="55"/>
+      <c r="D54" s="55"/>
+      <c r="E54" s="56"/>
       <c r="F54" s="3"/>
-      <c r="G54" s="57"/>
-      <c r="H54" s="59"/>
+      <c r="G54" s="54"/>
+      <c r="H54" s="56"/>
       <c r="I54" s="3"/>
       <c r="J54" s="4"/>
-      <c r="K54" s="65"/>
-      <c r="L54" s="67"/>
-      <c r="M54" s="65"/>
-      <c r="N54" s="66"/>
-      <c r="O54" s="66"/>
-      <c r="P54" s="67"/>
+      <c r="K54" s="57"/>
+      <c r="L54" s="58"/>
+      <c r="M54" s="57"/>
+      <c r="N54" s="59"/>
+      <c r="O54" s="59"/>
+      <c r="P54" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="84">
@@ -4782,7 +5879,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D66624B-686C-432C-B2AF-E2E183AF36AB}">
   <dimension ref="A1:P43"/>
   <sheetViews>
@@ -5553,33 +6650,33 @@
       <c r="P25" s="1"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="68" t="s">
+      <c r="A27" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="69"/>
-      <c r="C27" s="69"/>
-      <c r="D27" s="69"/>
-      <c r="E27" s="69"/>
-      <c r="F27" s="69"/>
-      <c r="G27" s="69"/>
-      <c r="H27" s="69"/>
-      <c r="I27" s="69"/>
-      <c r="J27" s="69"/>
-      <c r="K27" s="69"/>
-      <c r="L27" s="69"/>
-      <c r="M27" s="69"/>
-      <c r="N27" s="69"/>
-      <c r="O27" s="69"/>
-      <c r="P27" s="70"/>
+      <c r="B27" s="75"/>
+      <c r="C27" s="75"/>
+      <c r="D27" s="75"/>
+      <c r="E27" s="75"/>
+      <c r="F27" s="75"/>
+      <c r="G27" s="75"/>
+      <c r="H27" s="75"/>
+      <c r="I27" s="75"/>
+      <c r="J27" s="75"/>
+      <c r="K27" s="75"/>
+      <c r="L27" s="75"/>
+      <c r="M27" s="75"/>
+      <c r="N27" s="75"/>
+      <c r="O27" s="75"/>
+      <c r="P27" s="76"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="43">
         <v>1</v>
       </c>
-      <c r="B28" s="60" t="s">
+      <c r="B28" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="61"/>
+      <c r="C28" s="67"/>
       <c r="D28" s="27" t="s">
         <v>469</v>
       </c>
@@ -5591,23 +6688,23 @@
       <c r="H28" s="27"/>
       <c r="I28" s="31"/>
       <c r="J28" s="28"/>
-      <c r="K28" s="54" t="s">
+      <c r="K28" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="L28" s="56"/>
-      <c r="M28" s="74" t="s">
+      <c r="L28" s="62"/>
+      <c r="M28" s="71" t="s">
         <v>338</v>
       </c>
-      <c r="N28" s="75"/>
-      <c r="O28" s="75"/>
-      <c r="P28" s="76"/>
+      <c r="N28" s="72"/>
+      <c r="O28" s="72"/>
+      <c r="P28" s="73"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="44"/>
-      <c r="B29" s="60" t="s">
+      <c r="B29" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="61"/>
+      <c r="C29" s="67"/>
       <c r="D29" s="27" t="s">
         <v>470</v>
       </c>
@@ -5621,10 +6718,10 @@
       </c>
       <c r="I29" s="31"/>
       <c r="J29" s="28"/>
-      <c r="K29" s="54" t="s">
+      <c r="K29" s="60" t="s">
         <v>66</v>
       </c>
-      <c r="L29" s="56"/>
+      <c r="L29" s="62"/>
       <c r="M29" s="50" t="s">
         <v>67</v>
       </c>
@@ -5634,10 +6731,10 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="44"/>
-      <c r="B30" s="60" t="s">
+      <c r="B30" s="66" t="s">
         <v>98</v>
       </c>
-      <c r="C30" s="61"/>
+      <c r="C30" s="67"/>
       <c r="D30" s="27"/>
       <c r="E30" s="31"/>
       <c r="F30" s="31"/>
@@ -5656,10 +6753,10 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="44"/>
-      <c r="B31" s="60" t="s">
+      <c r="B31" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="61"/>
+      <c r="C31" s="67"/>
       <c r="D31" s="27"/>
       <c r="E31" s="31"/>
       <c r="F31" s="31"/>
@@ -5667,10 +6764,10 @@
       <c r="H31" s="31"/>
       <c r="I31" s="31"/>
       <c r="J31" s="28"/>
-      <c r="K31" s="54" t="s">
+      <c r="K31" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="L31" s="56"/>
+      <c r="L31" s="62"/>
       <c r="M31" s="50" t="s">
         <v>143</v>
       </c>
@@ -5680,102 +6777,102 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="44"/>
-      <c r="B32" s="62" t="s">
+      <c r="B32" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="C32" s="63"/>
-      <c r="D32" s="63"/>
-      <c r="E32" s="63"/>
-      <c r="F32" s="63"/>
-      <c r="G32" s="63"/>
-      <c r="H32" s="63"/>
-      <c r="I32" s="63"/>
-      <c r="J32" s="64"/>
-      <c r="K32" s="62"/>
-      <c r="L32" s="64"/>
-      <c r="M32" s="62"/>
-      <c r="N32" s="63"/>
-      <c r="O32" s="63"/>
-      <c r="P32" s="64"/>
+      <c r="C32" s="69"/>
+      <c r="D32" s="69"/>
+      <c r="E32" s="69"/>
+      <c r="F32" s="69"/>
+      <c r="G32" s="69"/>
+      <c r="H32" s="69"/>
+      <c r="I32" s="69"/>
+      <c r="J32" s="70"/>
+      <c r="K32" s="68"/>
+      <c r="L32" s="70"/>
+      <c r="M32" s="68"/>
+      <c r="N32" s="69"/>
+      <c r="O32" s="69"/>
+      <c r="P32" s="70"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="44"/>
       <c r="B33" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="54" t="s">
+      <c r="C33" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="D33" s="55"/>
-      <c r="E33" s="56"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="62"/>
       <c r="F33" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G33" s="54" t="s">
+      <c r="G33" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="H33" s="56"/>
-      <c r="I33" s="54" t="s">
+      <c r="H33" s="62"/>
+      <c r="I33" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="J33" s="56"/>
-      <c r="K33" s="71"/>
-      <c r="L33" s="73"/>
-      <c r="M33" s="71"/>
-      <c r="N33" s="72"/>
-      <c r="O33" s="72"/>
-      <c r="P33" s="73"/>
+      <c r="J33" s="62"/>
+      <c r="K33" s="63"/>
+      <c r="L33" s="64"/>
+      <c r="M33" s="63"/>
+      <c r="N33" s="65"/>
+      <c r="O33" s="65"/>
+      <c r="P33" s="64"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="44"/>
       <c r="B34" s="8">
         <v>1</v>
       </c>
-      <c r="C34" s="57" t="s">
+      <c r="C34" s="54" t="s">
         <v>472</v>
       </c>
-      <c r="D34" s="58"/>
-      <c r="E34" s="59"/>
+      <c r="D34" s="55"/>
+      <c r="E34" s="56"/>
       <c r="F34" s="3"/>
-      <c r="G34" s="57" t="s">
+      <c r="G34" s="54" t="s">
         <v>339</v>
       </c>
-      <c r="H34" s="59"/>
+      <c r="H34" s="56"/>
       <c r="I34" s="3"/>
       <c r="J34" s="4"/>
-      <c r="K34" s="65"/>
-      <c r="L34" s="67"/>
-      <c r="M34" s="65"/>
-      <c r="N34" s="66"/>
-      <c r="O34" s="66"/>
-      <c r="P34" s="67"/>
+      <c r="K34" s="57"/>
+      <c r="L34" s="58"/>
+      <c r="M34" s="57"/>
+      <c r="N34" s="59"/>
+      <c r="O34" s="59"/>
+      <c r="P34" s="58"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="44"/>
-      <c r="B35" s="57"/>
-      <c r="C35" s="58"/>
-      <c r="D35" s="58"/>
-      <c r="E35" s="59"/>
+      <c r="B35" s="54"/>
+      <c r="C35" s="55"/>
+      <c r="D35" s="55"/>
+      <c r="E35" s="56"/>
       <c r="F35" s="3"/>
-      <c r="G35" s="57"/>
-      <c r="H35" s="59"/>
+      <c r="G35" s="54"/>
+      <c r="H35" s="56"/>
       <c r="I35" s="3"/>
       <c r="J35" s="4"/>
-      <c r="K35" s="65"/>
-      <c r="L35" s="67"/>
-      <c r="M35" s="65"/>
-      <c r="N35" s="66"/>
-      <c r="O35" s="66"/>
-      <c r="P35" s="67"/>
+      <c r="K35" s="57"/>
+      <c r="L35" s="58"/>
+      <c r="M35" s="57"/>
+      <c r="N35" s="59"/>
+      <c r="O35" s="59"/>
+      <c r="P35" s="58"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="43">
         <v>2</v>
       </c>
-      <c r="B36" s="60" t="s">
+      <c r="B36" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="61"/>
+      <c r="C36" s="67"/>
       <c r="D36" s="27" t="s">
         <v>473</v>
       </c>
@@ -5787,23 +6884,23 @@
       <c r="H36" s="27"/>
       <c r="I36" s="31"/>
       <c r="J36" s="28"/>
-      <c r="K36" s="54" t="s">
+      <c r="K36" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="L36" s="56"/>
-      <c r="M36" s="74" t="s">
+      <c r="L36" s="62"/>
+      <c r="M36" s="71" t="s">
         <v>338</v>
       </c>
-      <c r="N36" s="75"/>
-      <c r="O36" s="75"/>
-      <c r="P36" s="76"/>
+      <c r="N36" s="72"/>
+      <c r="O36" s="72"/>
+      <c r="P36" s="73"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="44"/>
-      <c r="B37" s="60" t="s">
+      <c r="B37" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="C37" s="61"/>
+      <c r="C37" s="67"/>
       <c r="D37" s="27" t="s">
         <v>474</v>
       </c>
@@ -5817,10 +6914,10 @@
       </c>
       <c r="I37" s="31"/>
       <c r="J37" s="28"/>
-      <c r="K37" s="54" t="s">
+      <c r="K37" s="60" t="s">
         <v>66</v>
       </c>
-      <c r="L37" s="56"/>
+      <c r="L37" s="62"/>
       <c r="M37" s="50" t="s">
         <v>67</v>
       </c>
@@ -5830,10 +6927,10 @@
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="44"/>
-      <c r="B38" s="60" t="s">
+      <c r="B38" s="66" t="s">
         <v>98</v>
       </c>
-      <c r="C38" s="61"/>
+      <c r="C38" s="67"/>
       <c r="D38" s="27"/>
       <c r="E38" s="31"/>
       <c r="F38" s="31"/>
@@ -5852,10 +6949,10 @@
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="44"/>
-      <c r="B39" s="60" t="s">
+      <c r="B39" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="C39" s="61"/>
+      <c r="C39" s="67"/>
       <c r="D39" s="27"/>
       <c r="E39" s="31"/>
       <c r="F39" s="31"/>
@@ -5863,10 +6960,10 @@
       <c r="H39" s="31"/>
       <c r="I39" s="31"/>
       <c r="J39" s="28"/>
-      <c r="K39" s="54" t="s">
+      <c r="K39" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="L39" s="56"/>
+      <c r="L39" s="62"/>
       <c r="M39" s="50" t="s">
         <v>143</v>
       </c>
@@ -5876,93 +6973,93 @@
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="44"/>
-      <c r="B40" s="62" t="s">
+      <c r="B40" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="C40" s="63"/>
-      <c r="D40" s="63"/>
-      <c r="E40" s="63"/>
-      <c r="F40" s="63"/>
-      <c r="G40" s="63"/>
-      <c r="H40" s="63"/>
-      <c r="I40" s="63"/>
-      <c r="J40" s="64"/>
-      <c r="K40" s="62"/>
-      <c r="L40" s="64"/>
-      <c r="M40" s="62"/>
-      <c r="N40" s="63"/>
-      <c r="O40" s="63"/>
-      <c r="P40" s="64"/>
+      <c r="C40" s="69"/>
+      <c r="D40" s="69"/>
+      <c r="E40" s="69"/>
+      <c r="F40" s="69"/>
+      <c r="G40" s="69"/>
+      <c r="H40" s="69"/>
+      <c r="I40" s="69"/>
+      <c r="J40" s="70"/>
+      <c r="K40" s="68"/>
+      <c r="L40" s="70"/>
+      <c r="M40" s="68"/>
+      <c r="N40" s="69"/>
+      <c r="O40" s="69"/>
+      <c r="P40" s="70"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="44"/>
       <c r="B41" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C41" s="54" t="s">
+      <c r="C41" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="D41" s="55"/>
-      <c r="E41" s="56"/>
+      <c r="D41" s="61"/>
+      <c r="E41" s="62"/>
       <c r="F41" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G41" s="54" t="s">
+      <c r="G41" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="H41" s="56"/>
-      <c r="I41" s="54" t="s">
+      <c r="H41" s="62"/>
+      <c r="I41" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="J41" s="56"/>
-      <c r="K41" s="71"/>
-      <c r="L41" s="73"/>
-      <c r="M41" s="71"/>
-      <c r="N41" s="72"/>
-      <c r="O41" s="72"/>
-      <c r="P41" s="73"/>
+      <c r="J41" s="62"/>
+      <c r="K41" s="63"/>
+      <c r="L41" s="64"/>
+      <c r="M41" s="63"/>
+      <c r="N41" s="65"/>
+      <c r="O41" s="65"/>
+      <c r="P41" s="64"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" s="44"/>
       <c r="B42" s="8">
         <v>1</v>
       </c>
-      <c r="C42" s="57" t="s">
+      <c r="C42" s="54" t="s">
         <v>476</v>
       </c>
-      <c r="D42" s="58"/>
-      <c r="E42" s="59"/>
+      <c r="D42" s="55"/>
+      <c r="E42" s="56"/>
       <c r="F42" s="3"/>
-      <c r="G42" s="57" t="s">
+      <c r="G42" s="54" t="s">
         <v>339</v>
       </c>
-      <c r="H42" s="59"/>
+      <c r="H42" s="56"/>
       <c r="I42" s="3"/>
       <c r="J42" s="4"/>
-      <c r="K42" s="65"/>
-      <c r="L42" s="67"/>
-      <c r="M42" s="65"/>
-      <c r="N42" s="66"/>
-      <c r="O42" s="66"/>
-      <c r="P42" s="67"/>
+      <c r="K42" s="57"/>
+      <c r="L42" s="58"/>
+      <c r="M42" s="57"/>
+      <c r="N42" s="59"/>
+      <c r="O42" s="59"/>
+      <c r="P42" s="58"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" s="44"/>
-      <c r="B43" s="57"/>
-      <c r="C43" s="58"/>
-      <c r="D43" s="58"/>
-      <c r="E43" s="59"/>
+      <c r="B43" s="54"/>
+      <c r="C43" s="55"/>
+      <c r="D43" s="55"/>
+      <c r="E43" s="56"/>
       <c r="F43" s="3"/>
-      <c r="G43" s="57"/>
-      <c r="H43" s="59"/>
+      <c r="G43" s="54"/>
+      <c r="H43" s="56"/>
       <c r="I43" s="3"/>
       <c r="J43" s="4"/>
-      <c r="K43" s="65"/>
-      <c r="L43" s="67"/>
-      <c r="M43" s="65"/>
-      <c r="N43" s="66"/>
-      <c r="O43" s="66"/>
-      <c r="P43" s="67"/>
+      <c r="K43" s="57"/>
+      <c r="L43" s="58"/>
+      <c r="M43" s="57"/>
+      <c r="N43" s="59"/>
+      <c r="O43" s="59"/>
+      <c r="P43" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="84">
@@ -6061,7 +7158,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F8B8ED6-4E67-4ACD-A9CD-16C476AFAB9F}">
   <dimension ref="A1:P35"/>
   <sheetViews>
@@ -6848,33 +7945,33 @@
       <c r="P25" s="1"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="68" t="s">
+      <c r="A27" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="69"/>
-      <c r="C27" s="69"/>
-      <c r="D27" s="69"/>
-      <c r="E27" s="69"/>
-      <c r="F27" s="69"/>
-      <c r="G27" s="69"/>
-      <c r="H27" s="69"/>
-      <c r="I27" s="69"/>
-      <c r="J27" s="69"/>
-      <c r="K27" s="69"/>
-      <c r="L27" s="69"/>
-      <c r="M27" s="69"/>
-      <c r="N27" s="69"/>
-      <c r="O27" s="69"/>
-      <c r="P27" s="70"/>
+      <c r="B27" s="75"/>
+      <c r="C27" s="75"/>
+      <c r="D27" s="75"/>
+      <c r="E27" s="75"/>
+      <c r="F27" s="75"/>
+      <c r="G27" s="75"/>
+      <c r="H27" s="75"/>
+      <c r="I27" s="75"/>
+      <c r="J27" s="75"/>
+      <c r="K27" s="75"/>
+      <c r="L27" s="75"/>
+      <c r="M27" s="75"/>
+      <c r="N27" s="75"/>
+      <c r="O27" s="75"/>
+      <c r="P27" s="76"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="43">
         <v>1</v>
       </c>
-      <c r="B28" s="60" t="s">
+      <c r="B28" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="61"/>
+      <c r="C28" s="67"/>
       <c r="D28" s="27" t="s">
         <v>336</v>
       </c>
@@ -6888,23 +7985,23 @@
       </c>
       <c r="I28" s="31"/>
       <c r="J28" s="28"/>
-      <c r="K28" s="54" t="s">
+      <c r="K28" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="L28" s="56"/>
-      <c r="M28" s="74" t="s">
+      <c r="L28" s="62"/>
+      <c r="M28" s="71" t="s">
         <v>338</v>
       </c>
-      <c r="N28" s="75"/>
-      <c r="O28" s="75"/>
-      <c r="P28" s="76"/>
+      <c r="N28" s="72"/>
+      <c r="O28" s="72"/>
+      <c r="P28" s="73"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="44"/>
-      <c r="B29" s="60" t="s">
+      <c r="B29" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="61"/>
+      <c r="C29" s="67"/>
       <c r="D29" s="27" t="s">
         <v>281</v>
       </c>
@@ -6918,10 +8015,10 @@
       </c>
       <c r="I29" s="31"/>
       <c r="J29" s="28"/>
-      <c r="K29" s="54" t="s">
+      <c r="K29" s="60" t="s">
         <v>66</v>
       </c>
-      <c r="L29" s="56"/>
+      <c r="L29" s="62"/>
       <c r="M29" s="50" t="s">
         <v>67</v>
       </c>
@@ -6931,10 +8028,10 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="44"/>
-      <c r="B30" s="60" t="s">
+      <c r="B30" s="66" t="s">
         <v>98</v>
       </c>
-      <c r="C30" s="61"/>
+      <c r="C30" s="67"/>
       <c r="D30" s="27" t="s">
         <v>511</v>
       </c>
@@ -6957,10 +8054,10 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="44"/>
-      <c r="B31" s="60" t="s">
+      <c r="B31" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="61"/>
+      <c r="C31" s="67"/>
       <c r="D31" s="27"/>
       <c r="E31" s="31"/>
       <c r="F31" s="31"/>
@@ -6968,10 +8065,10 @@
       <c r="H31" s="31"/>
       <c r="I31" s="31"/>
       <c r="J31" s="28"/>
-      <c r="K31" s="54" t="s">
+      <c r="K31" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="L31" s="56"/>
+      <c r="L31" s="62"/>
       <c r="M31" s="50" t="s">
         <v>143</v>
       </c>
@@ -6981,93 +8078,93 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="44"/>
-      <c r="B32" s="62" t="s">
+      <c r="B32" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="C32" s="63"/>
-      <c r="D32" s="63"/>
-      <c r="E32" s="63"/>
-      <c r="F32" s="63"/>
-      <c r="G32" s="63"/>
-      <c r="H32" s="63"/>
-      <c r="I32" s="63"/>
-      <c r="J32" s="64"/>
-      <c r="K32" s="62"/>
-      <c r="L32" s="64"/>
-      <c r="M32" s="62"/>
-      <c r="N32" s="63"/>
-      <c r="O32" s="63"/>
-      <c r="P32" s="64"/>
+      <c r="C32" s="69"/>
+      <c r="D32" s="69"/>
+      <c r="E32" s="69"/>
+      <c r="F32" s="69"/>
+      <c r="G32" s="69"/>
+      <c r="H32" s="69"/>
+      <c r="I32" s="69"/>
+      <c r="J32" s="70"/>
+      <c r="K32" s="68"/>
+      <c r="L32" s="70"/>
+      <c r="M32" s="68"/>
+      <c r="N32" s="69"/>
+      <c r="O32" s="69"/>
+      <c r="P32" s="70"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="44"/>
       <c r="B33" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="54" t="s">
+      <c r="C33" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="D33" s="55"/>
-      <c r="E33" s="56"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="62"/>
       <c r="F33" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G33" s="54" t="s">
+      <c r="G33" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="H33" s="56"/>
-      <c r="I33" s="54" t="s">
+      <c r="H33" s="62"/>
+      <c r="I33" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="J33" s="56"/>
-      <c r="K33" s="71"/>
-      <c r="L33" s="73"/>
-      <c r="M33" s="71"/>
-      <c r="N33" s="72"/>
-      <c r="O33" s="72"/>
-      <c r="P33" s="73"/>
+      <c r="J33" s="62"/>
+      <c r="K33" s="63"/>
+      <c r="L33" s="64"/>
+      <c r="M33" s="63"/>
+      <c r="N33" s="65"/>
+      <c r="O33" s="65"/>
+      <c r="P33" s="64"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="44"/>
       <c r="B34" s="8">
         <v>1</v>
       </c>
-      <c r="C34" s="57" t="s">
+      <c r="C34" s="54" t="s">
         <v>339</v>
       </c>
-      <c r="D34" s="58"/>
-      <c r="E34" s="59"/>
+      <c r="D34" s="55"/>
+      <c r="E34" s="56"/>
       <c r="F34" s="3"/>
-      <c r="G34" s="57" t="s">
+      <c r="G34" s="54" t="s">
         <v>339</v>
       </c>
-      <c r="H34" s="59"/>
+      <c r="H34" s="56"/>
       <c r="I34" s="3"/>
       <c r="J34" s="4"/>
-      <c r="K34" s="65"/>
-      <c r="L34" s="67"/>
-      <c r="M34" s="65"/>
-      <c r="N34" s="66"/>
-      <c r="O34" s="66"/>
-      <c r="P34" s="67"/>
+      <c r="K34" s="57"/>
+      <c r="L34" s="58"/>
+      <c r="M34" s="57"/>
+      <c r="N34" s="59"/>
+      <c r="O34" s="59"/>
+      <c r="P34" s="58"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="44"/>
-      <c r="B35" s="57"/>
-      <c r="C35" s="58"/>
-      <c r="D35" s="58"/>
-      <c r="E35" s="59"/>
+      <c r="B35" s="54"/>
+      <c r="C35" s="55"/>
+      <c r="D35" s="55"/>
+      <c r="E35" s="56"/>
       <c r="F35" s="3"/>
-      <c r="G35" s="57"/>
-      <c r="H35" s="59"/>
+      <c r="G35" s="54"/>
+      <c r="H35" s="56"/>
       <c r="I35" s="3"/>
       <c r="J35" s="4"/>
-      <c r="K35" s="65"/>
-      <c r="L35" s="67"/>
-      <c r="M35" s="65"/>
-      <c r="N35" s="66"/>
-      <c r="O35" s="66"/>
-      <c r="P35" s="67"/>
+      <c r="K35" s="57"/>
+      <c r="L35" s="58"/>
+      <c r="M35" s="57"/>
+      <c r="N35" s="59"/>
+      <c r="O35" s="59"/>
+      <c r="P35" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="49">
@@ -7130,7 +8227,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D349AB67-F500-46D9-95AE-D8168334F4A6}">
   <dimension ref="A1:P21"/>
   <sheetViews>
@@ -7798,11 +8895,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2A916FD-1DF6-4F49-9D99-66DD7EC19D8D}">
   <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
@@ -9045,33 +10142,33 @@
       <c r="P40" s="1"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A42" s="68" t="s">
+      <c r="A42" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="B42" s="69"/>
-      <c r="C42" s="69"/>
-      <c r="D42" s="69"/>
-      <c r="E42" s="69"/>
-      <c r="F42" s="69"/>
-      <c r="G42" s="69"/>
-      <c r="H42" s="69"/>
-      <c r="I42" s="69"/>
-      <c r="J42" s="69"/>
-      <c r="K42" s="69"/>
-      <c r="L42" s="69"/>
-      <c r="M42" s="69"/>
-      <c r="N42" s="69"/>
-      <c r="O42" s="69"/>
-      <c r="P42" s="70"/>
+      <c r="B42" s="75"/>
+      <c r="C42" s="75"/>
+      <c r="D42" s="75"/>
+      <c r="E42" s="75"/>
+      <c r="F42" s="75"/>
+      <c r="G42" s="75"/>
+      <c r="H42" s="75"/>
+      <c r="I42" s="75"/>
+      <c r="J42" s="75"/>
+      <c r="K42" s="75"/>
+      <c r="L42" s="75"/>
+      <c r="M42" s="75"/>
+      <c r="N42" s="75"/>
+      <c r="O42" s="75"/>
+      <c r="P42" s="76"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" s="43">
         <v>2</v>
       </c>
-      <c r="B43" s="60" t="s">
+      <c r="B43" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="C43" s="61"/>
+      <c r="C43" s="67"/>
       <c r="D43" s="27" t="s">
         <v>161</v>
       </c>
@@ -9085,10 +10182,10 @@
       </c>
       <c r="I43" s="31"/>
       <c r="J43" s="28"/>
-      <c r="K43" s="54" t="s">
+      <c r="K43" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="L43" s="56"/>
+      <c r="L43" s="62"/>
       <c r="M43" s="50" t="s">
         <v>308</v>
       </c>
@@ -9098,10 +10195,10 @@
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="44"/>
-      <c r="B44" s="60" t="s">
+      <c r="B44" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="C44" s="61"/>
+      <c r="C44" s="67"/>
       <c r="D44" s="27" t="s">
         <v>163</v>
       </c>
@@ -9115,10 +10212,10 @@
       </c>
       <c r="I44" s="31"/>
       <c r="J44" s="28"/>
-      <c r="K44" s="54" t="s">
+      <c r="K44" s="60" t="s">
         <v>66</v>
       </c>
-      <c r="L44" s="56"/>
+      <c r="L44" s="62"/>
       <c r="M44" s="50" t="s">
         <v>67</v>
       </c>
@@ -9128,10 +10225,10 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" s="44"/>
-      <c r="B45" s="60" t="s">
+      <c r="B45" s="66" t="s">
         <v>98</v>
       </c>
-      <c r="C45" s="61"/>
+      <c r="C45" s="67"/>
       <c r="D45" s="27" t="s">
         <v>165</v>
       </c>
@@ -9154,10 +10251,10 @@
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" s="44"/>
-      <c r="B46" s="60" t="s">
+      <c r="B46" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="C46" s="61"/>
+      <c r="C46" s="67"/>
       <c r="D46" s="27"/>
       <c r="E46" s="31"/>
       <c r="F46" s="31"/>
@@ -9165,10 +10262,10 @@
       <c r="H46" s="31"/>
       <c r="I46" s="31"/>
       <c r="J46" s="28"/>
-      <c r="K46" s="54" t="s">
+      <c r="K46" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="L46" s="56"/>
+      <c r="L46" s="62"/>
       <c r="M46" s="50" t="s">
         <v>141</v>
       </c>
@@ -9178,93 +10275,93 @@
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" s="44"/>
-      <c r="B47" s="62" t="s">
+      <c r="B47" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="C47" s="63"/>
-      <c r="D47" s="63"/>
-      <c r="E47" s="63"/>
-      <c r="F47" s="63"/>
-      <c r="G47" s="63"/>
-      <c r="H47" s="63"/>
-      <c r="I47" s="63"/>
-      <c r="J47" s="64"/>
-      <c r="K47" s="62"/>
-      <c r="L47" s="64"/>
-      <c r="M47" s="62"/>
-      <c r="N47" s="63"/>
-      <c r="O47" s="63"/>
-      <c r="P47" s="64"/>
+      <c r="C47" s="69"/>
+      <c r="D47" s="69"/>
+      <c r="E47" s="69"/>
+      <c r="F47" s="69"/>
+      <c r="G47" s="69"/>
+      <c r="H47" s="69"/>
+      <c r="I47" s="69"/>
+      <c r="J47" s="70"/>
+      <c r="K47" s="68"/>
+      <c r="L47" s="70"/>
+      <c r="M47" s="68"/>
+      <c r="N47" s="69"/>
+      <c r="O47" s="69"/>
+      <c r="P47" s="70"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" s="44"/>
       <c r="B48" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C48" s="54" t="s">
+      <c r="C48" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="D48" s="55"/>
-      <c r="E48" s="56"/>
+      <c r="D48" s="61"/>
+      <c r="E48" s="62"/>
       <c r="F48" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G48" s="54" t="s">
+      <c r="G48" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="H48" s="56"/>
-      <c r="I48" s="54" t="s">
+      <c r="H48" s="62"/>
+      <c r="I48" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="J48" s="56"/>
-      <c r="K48" s="71"/>
-      <c r="L48" s="73"/>
-      <c r="M48" s="71"/>
-      <c r="N48" s="72"/>
-      <c r="O48" s="72"/>
-      <c r="P48" s="73"/>
+      <c r="J48" s="62"/>
+      <c r="K48" s="63"/>
+      <c r="L48" s="64"/>
+      <c r="M48" s="63"/>
+      <c r="N48" s="65"/>
+      <c r="O48" s="65"/>
+      <c r="P48" s="64"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" s="44"/>
       <c r="B49" s="8">
         <v>1</v>
       </c>
-      <c r="C49" s="57" t="s">
+      <c r="C49" s="54" t="s">
         <v>167</v>
       </c>
-      <c r="D49" s="58"/>
-      <c r="E49" s="59"/>
+      <c r="D49" s="55"/>
+      <c r="E49" s="56"/>
       <c r="F49" s="3"/>
-      <c r="G49" s="57" t="s">
+      <c r="G49" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="H49" s="59"/>
+      <c r="H49" s="56"/>
       <c r="I49" s="3"/>
       <c r="J49" s="4"/>
-      <c r="K49" s="65"/>
-      <c r="L49" s="67"/>
-      <c r="M49" s="65"/>
-      <c r="N49" s="66"/>
-      <c r="O49" s="66"/>
-      <c r="P49" s="67"/>
+      <c r="K49" s="57"/>
+      <c r="L49" s="58"/>
+      <c r="M49" s="57"/>
+      <c r="N49" s="59"/>
+      <c r="O49" s="59"/>
+      <c r="P49" s="58"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50" s="44"/>
-      <c r="B50" s="57"/>
-      <c r="C50" s="58"/>
-      <c r="D50" s="58"/>
-      <c r="E50" s="59"/>
+      <c r="B50" s="54"/>
+      <c r="C50" s="55"/>
+      <c r="D50" s="55"/>
+      <c r="E50" s="56"/>
       <c r="F50" s="3"/>
-      <c r="G50" s="57"/>
-      <c r="H50" s="59"/>
+      <c r="G50" s="54"/>
+      <c r="H50" s="56"/>
       <c r="I50" s="3"/>
       <c r="J50" s="4"/>
-      <c r="K50" s="65"/>
-      <c r="L50" s="67"/>
-      <c r="M50" s="65"/>
-      <c r="N50" s="66"/>
-      <c r="O50" s="66"/>
-      <c r="P50" s="67"/>
+      <c r="K50" s="57"/>
+      <c r="L50" s="58"/>
+      <c r="M50" s="57"/>
+      <c r="N50" s="59"/>
+      <c r="O50" s="59"/>
+      <c r="P50" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="49">
@@ -9324,7 +10421,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AD7D9E9-B50D-4F1F-8CE6-988661D177E2}">
   <dimension ref="A1:P20"/>
   <sheetViews>
@@ -11927,11 +13024,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F0DE455-FF29-43D0-9612-7232A83DF9B7}">
-  <dimension ref="A1:P32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E24B2EA-F9B2-4CC8-9728-7CD095AB02A3}">
+  <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34:E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -11957,7 +13054,7 @@
       <c r="B1" s="46"/>
       <c r="C1" s="46"/>
       <c r="D1" s="47" t="s">
-        <v>241</v>
+        <v>524</v>
       </c>
       <c r="E1" s="48"/>
       <c r="F1" s="48"/>
@@ -11981,7 +13078,7 @@
       <c r="B2" s="46"/>
       <c r="C2" s="46"/>
       <c r="D2" s="47" t="s">
-        <v>242</v>
+        <v>525</v>
       </c>
       <c r="E2" s="48"/>
       <c r="F2" s="48"/>
@@ -11990,7 +13087,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="50" t="s">
-        <v>243</v>
+        <v>526</v>
       </c>
       <c r="J2" s="51"/>
       <c r="K2" s="51"/>
@@ -12006,7 +13103,9 @@
       </c>
       <c r="B3" s="46"/>
       <c r="C3" s="46"/>
-      <c r="D3" s="47"/>
+      <c r="D3" s="47" t="s">
+        <v>373</v>
+      </c>
       <c r="E3" s="48"/>
       <c r="F3" s="48"/>
       <c r="G3" s="49"/>
@@ -12141,9 +13240,7 @@
       <c r="D8" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>104</v>
-      </c>
+      <c r="E8" s="7"/>
       <c r="F8" s="9" t="s">
         <v>238</v>
       </c>
@@ -12170,21 +13267,23 @@
       <c r="A9" s="7">
         <v>2</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
+      <c r="B9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>87</v>
+      </c>
       <c r="D9" s="9" t="s">
-        <v>388</v>
+        <v>531</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="9" t="s">
-        <v>389</v>
+        <v>532</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>387</v>
-      </c>
+        <v>527</v>
+      </c>
+      <c r="H9" s="9"/>
       <c r="I9" s="7" t="s">
         <v>27</v>
       </c>
@@ -12192,7 +13291,7 @@
         <v>28</v>
       </c>
       <c r="K9" s="7">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="L9" s="7"/>
       <c r="M9" s="9"/>
@@ -12207,6 +13306,1000 @@
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="1"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
+        <v>4</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K11" s="7">
+        <v>50</v>
+      </c>
+      <c r="L11" s="7"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="1"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="7">
+        <v>5</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="1"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="7">
+        <v>6</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13" s="7">
+        <v>50</v>
+      </c>
+      <c r="L13" s="7"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="1"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="7">
+        <v>7</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="1"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="1"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="27"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="31"/>
+      <c r="P16" s="28"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18" s="74" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="75"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="75"/>
+      <c r="I18" s="75"/>
+      <c r="J18" s="75"/>
+      <c r="K18" s="75"/>
+      <c r="L18" s="75"/>
+      <c r="M18" s="75"/>
+      <c r="N18" s="75"/>
+      <c r="O18" s="75"/>
+      <c r="P18" s="76"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A19" s="43">
+        <v>1</v>
+      </c>
+      <c r="B19" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="67"/>
+      <c r="D19" s="27" t="s">
+        <v>278</v>
+      </c>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H19" s="27"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="60" t="s">
+        <v>58</v>
+      </c>
+      <c r="L19" s="62"/>
+      <c r="M19" s="71" t="s">
+        <v>273</v>
+      </c>
+      <c r="N19" s="72"/>
+      <c r="O19" s="72"/>
+      <c r="P19" s="73"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A20" s="44"/>
+      <c r="B20" s="66" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="67"/>
+      <c r="D20" s="27" t="s">
+        <v>528</v>
+      </c>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H20" s="27" t="s">
+        <v>306</v>
+      </c>
+      <c r="I20" s="31"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="60" t="s">
+        <v>66</v>
+      </c>
+      <c r="L20" s="62"/>
+      <c r="M20" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="N20" s="51"/>
+      <c r="O20" s="51"/>
+      <c r="P20" s="52"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A21" s="44"/>
+      <c r="B21" s="66" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" s="67"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="50"/>
+      <c r="N21" s="51"/>
+      <c r="O21" s="51"/>
+      <c r="P21" s="52"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A22" s="44"/>
+      <c r="B22" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="67"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="60" t="s">
+        <v>9</v>
+      </c>
+      <c r="L22" s="62"/>
+      <c r="M22" s="50" t="s">
+        <v>143</v>
+      </c>
+      <c r="N22" s="51"/>
+      <c r="O22" s="51"/>
+      <c r="P22" s="52"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A23" s="44"/>
+      <c r="B23" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="69"/>
+      <c r="H23" s="69"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="70"/>
+      <c r="K23" s="68"/>
+      <c r="L23" s="70"/>
+      <c r="M23" s="68"/>
+      <c r="N23" s="69"/>
+      <c r="O23" s="69"/>
+      <c r="P23" s="70"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A24" s="44"/>
+      <c r="B24" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="61"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" s="62"/>
+      <c r="I24" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="J24" s="62"/>
+      <c r="K24" s="63"/>
+      <c r="L24" s="64"/>
+      <c r="M24" s="63"/>
+      <c r="N24" s="65"/>
+      <c r="O24" s="65"/>
+      <c r="P24" s="64"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A25" s="44"/>
+      <c r="B25" s="8">
+        <v>1</v>
+      </c>
+      <c r="C25" s="54" t="s">
+        <v>277</v>
+      </c>
+      <c r="D25" s="55"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="54" t="s">
+        <v>277</v>
+      </c>
+      <c r="H25" s="56"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="57"/>
+      <c r="L25" s="58"/>
+      <c r="M25" s="57"/>
+      <c r="N25" s="59"/>
+      <c r="O25" s="59"/>
+      <c r="P25" s="58"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A26" s="44"/>
+      <c r="B26" s="54"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="57"/>
+      <c r="L26" s="58"/>
+      <c r="M26" s="57"/>
+      <c r="N26" s="59"/>
+      <c r="O26" s="59"/>
+      <c r="P26" s="58"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A27" s="43">
+        <v>2</v>
+      </c>
+      <c r="B27" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="67"/>
+      <c r="D27" s="27" t="s">
+        <v>529</v>
+      </c>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H27" s="27"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="60" t="s">
+        <v>58</v>
+      </c>
+      <c r="L27" s="62"/>
+      <c r="M27" s="71" t="s">
+        <v>273</v>
+      </c>
+      <c r="N27" s="72"/>
+      <c r="O27" s="72"/>
+      <c r="P27" s="73"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A28" s="44"/>
+      <c r="B28" s="66" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="67"/>
+      <c r="D28" s="27" t="s">
+        <v>274</v>
+      </c>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H28" s="27" t="s">
+        <v>530</v>
+      </c>
+      <c r="I28" s="31"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="60" t="s">
+        <v>66</v>
+      </c>
+      <c r="L28" s="62"/>
+      <c r="M28" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="N28" s="51"/>
+      <c r="O28" s="51"/>
+      <c r="P28" s="52"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A29" s="44"/>
+      <c r="B29" s="66" t="s">
+        <v>98</v>
+      </c>
+      <c r="C29" s="67"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="50"/>
+      <c r="N29" s="51"/>
+      <c r="O29" s="51"/>
+      <c r="P29" s="52"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A30" s="44"/>
+      <c r="B30" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="67"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="60" t="s">
+        <v>9</v>
+      </c>
+      <c r="L30" s="62"/>
+      <c r="M30" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="N30" s="51"/>
+      <c r="O30" s="51"/>
+      <c r="P30" s="52"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A31" s="44"/>
+      <c r="B31" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="69"/>
+      <c r="D31" s="69"/>
+      <c r="E31" s="69"/>
+      <c r="F31" s="69"/>
+      <c r="G31" s="69"/>
+      <c r="H31" s="69"/>
+      <c r="I31" s="69"/>
+      <c r="J31" s="70"/>
+      <c r="K31" s="68"/>
+      <c r="L31" s="70"/>
+      <c r="M31" s="68"/>
+      <c r="N31" s="69"/>
+      <c r="O31" s="69"/>
+      <c r="P31" s="70"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A32" s="44"/>
+      <c r="B32" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" s="61"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="H32" s="62"/>
+      <c r="I32" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="J32" s="62"/>
+      <c r="K32" s="63"/>
+      <c r="L32" s="64"/>
+      <c r="M32" s="63"/>
+      <c r="N32" s="65"/>
+      <c r="O32" s="65"/>
+      <c r="P32" s="64"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A33" s="44"/>
+      <c r="B33" s="8">
+        <v>1</v>
+      </c>
+      <c r="C33" s="54" t="s">
+        <v>533</v>
+      </c>
+      <c r="D33" s="55"/>
+      <c r="E33" s="56"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="54" t="s">
+        <v>277</v>
+      </c>
+      <c r="H33" s="56"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="57"/>
+      <c r="L33" s="58"/>
+      <c r="M33" s="57"/>
+      <c r="N33" s="59"/>
+      <c r="O33" s="59"/>
+      <c r="P33" s="58"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A34" s="44"/>
+      <c r="B34" s="54"/>
+      <c r="C34" s="55"/>
+      <c r="D34" s="55"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="54"/>
+      <c r="H34" s="56"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="57"/>
+      <c r="L34" s="58"/>
+      <c r="M34" s="57"/>
+      <c r="N34" s="59"/>
+      <c r="O34" s="59"/>
+      <c r="P34" s="58"/>
+    </row>
+  </sheetData>
+  <mergeCells count="85">
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:L4"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A16:P16"/>
+    <mergeCell ref="A18:P18"/>
+    <mergeCell ref="A19:A26"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="M19:P19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="M20:P20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="B23:J23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="A27:A34"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="B31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="M34:P34"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:P32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="M33:P33"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="M19:P19" location="nop_dyn_module!A1" display="NopDynModule" xr:uid="{CDD7EA0B-E3D1-4B1F-B312-38BA0E9FBF47}"/>
+    <hyperlink ref="M27:P27" location="nop_dyn_module!A1" display="NopDynModule" xr:uid="{C6963D00-7B5A-4C11-AE65-3B298D9245C7}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F0DE455-FF29-43D0-9612-7232A83DF9B7}">
+  <dimension ref="A1:P32"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.33203125" customWidth="1"/>
+    <col min="2" max="2" width="4.4140625" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.9140625" customWidth="1"/>
+    <col min="5" max="5" width="5.08203125" customWidth="1"/>
+    <col min="6" max="6" width="15.08203125" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="9" max="9" width="4.75" customWidth="1"/>
+    <col min="10" max="10" width="11" customWidth="1"/>
+    <col min="11" max="11" width="6.08203125" customWidth="1"/>
+    <col min="12" max="12" width="8.25" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="47" t="s">
+        <v>241</v>
+      </c>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="27"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="47" t="s">
+        <v>242</v>
+      </c>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="50" t="s">
+        <v>243</v>
+      </c>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="27"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="28"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="53"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="53"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
+        <v>1</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="H8" s="9"/>
+      <c r="I8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="7">
+        <v>32</v>
+      </c>
+      <c r="L8" s="7"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="1"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
+        <v>2</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="7">
+        <v>100</v>
+      </c>
+      <c r="L9" s="7"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
+        <v>3</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="9" t="s">
         <v>383</v>
       </c>
       <c r="E10" s="7"/>
@@ -12365,7 +14458,9 @@
       <c r="D15" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="7"/>
+      <c r="E15" s="7" t="s">
+        <v>232</v>
+      </c>
       <c r="F15" s="9" t="s">
         <v>34</v>
       </c>
@@ -12383,6 +14478,9 @@
       <c r="L15" s="7"/>
       <c r="M15" s="26" t="s">
         <v>250</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
       </c>
       <c r="O15" s="7"/>
       <c r="P15" s="1"/>
@@ -12598,33 +14696,33 @@
       <c r="P22" s="28"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="68" t="s">
+      <c r="A24" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="69"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="69"/>
-      <c r="H24" s="69"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="69"/>
-      <c r="M24" s="69"/>
-      <c r="N24" s="69"/>
-      <c r="O24" s="69"/>
-      <c r="P24" s="70"/>
+      <c r="B24" s="75"/>
+      <c r="C24" s="75"/>
+      <c r="D24" s="75"/>
+      <c r="E24" s="75"/>
+      <c r="F24" s="75"/>
+      <c r="G24" s="75"/>
+      <c r="H24" s="75"/>
+      <c r="I24" s="75"/>
+      <c r="J24" s="75"/>
+      <c r="K24" s="75"/>
+      <c r="L24" s="75"/>
+      <c r="M24" s="75"/>
+      <c r="N24" s="75"/>
+      <c r="O24" s="75"/>
+      <c r="P24" s="76"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="43">
         <v>1</v>
       </c>
-      <c r="B25" s="60" t="s">
+      <c r="B25" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="61"/>
+      <c r="C25" s="67"/>
       <c r="D25" s="27" t="s">
         <v>271</v>
       </c>
@@ -12638,10 +14736,10 @@
       </c>
       <c r="I25" s="31"/>
       <c r="J25" s="28"/>
-      <c r="K25" s="54" t="s">
+      <c r="K25" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="L25" s="56"/>
+      <c r="L25" s="62"/>
       <c r="M25" s="50" t="s">
         <v>273</v>
       </c>
@@ -12651,10 +14749,10 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="44"/>
-      <c r="B26" s="60" t="s">
+      <c r="B26" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="61"/>
+      <c r="C26" s="67"/>
       <c r="D26" s="27" t="s">
         <v>274</v>
       </c>
@@ -12668,10 +14766,10 @@
       </c>
       <c r="I26" s="31"/>
       <c r="J26" s="28"/>
-      <c r="K26" s="54" t="s">
+      <c r="K26" s="60" t="s">
         <v>66</v>
       </c>
-      <c r="L26" s="56"/>
+      <c r="L26" s="62"/>
       <c r="M26" s="50" t="s">
         <v>67</v>
       </c>
@@ -12681,10 +14779,10 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="44"/>
-      <c r="B27" s="60" t="s">
+      <c r="B27" s="66" t="s">
         <v>98</v>
       </c>
-      <c r="C27" s="61"/>
+      <c r="C27" s="67"/>
       <c r="D27" s="27" t="s">
         <v>381</v>
       </c>
@@ -12707,10 +14805,10 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="44"/>
-      <c r="B28" s="60" t="s">
+      <c r="B28" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="61"/>
+      <c r="C28" s="67"/>
       <c r="D28" s="27"/>
       <c r="E28" s="31"/>
       <c r="F28" s="31"/>
@@ -12718,10 +14816,10 @@
       <c r="H28" s="31"/>
       <c r="I28" s="31"/>
       <c r="J28" s="28"/>
-      <c r="K28" s="54" t="s">
+      <c r="K28" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="L28" s="56"/>
+      <c r="L28" s="62"/>
       <c r="M28" s="50" t="s">
         <v>102</v>
       </c>
@@ -12731,93 +14829,93 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="44"/>
-      <c r="B29" s="62" t="s">
+      <c r="B29" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="63"/>
-      <c r="D29" s="63"/>
-      <c r="E29" s="63"/>
-      <c r="F29" s="63"/>
-      <c r="G29" s="63"/>
-      <c r="H29" s="63"/>
-      <c r="I29" s="63"/>
-      <c r="J29" s="64"/>
-      <c r="K29" s="62"/>
-      <c r="L29" s="64"/>
-      <c r="M29" s="62"/>
-      <c r="N29" s="63"/>
-      <c r="O29" s="63"/>
-      <c r="P29" s="64"/>
+      <c r="C29" s="69"/>
+      <c r="D29" s="69"/>
+      <c r="E29" s="69"/>
+      <c r="F29" s="69"/>
+      <c r="G29" s="69"/>
+      <c r="H29" s="69"/>
+      <c r="I29" s="69"/>
+      <c r="J29" s="70"/>
+      <c r="K29" s="68"/>
+      <c r="L29" s="70"/>
+      <c r="M29" s="68"/>
+      <c r="N29" s="69"/>
+      <c r="O29" s="69"/>
+      <c r="P29" s="70"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="44"/>
       <c r="B30" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="54" t="s">
+      <c r="C30" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="55"/>
-      <c r="E30" s="56"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="62"/>
       <c r="F30" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G30" s="54" t="s">
+      <c r="G30" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="H30" s="56"/>
-      <c r="I30" s="54" t="s">
+      <c r="H30" s="62"/>
+      <c r="I30" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="J30" s="56"/>
-      <c r="K30" s="71"/>
-      <c r="L30" s="73"/>
-      <c r="M30" s="71"/>
-      <c r="N30" s="72"/>
-      <c r="O30" s="72"/>
-      <c r="P30" s="73"/>
+      <c r="J30" s="62"/>
+      <c r="K30" s="63"/>
+      <c r="L30" s="64"/>
+      <c r="M30" s="63"/>
+      <c r="N30" s="65"/>
+      <c r="O30" s="65"/>
+      <c r="P30" s="64"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="44"/>
       <c r="B31" s="8">
         <v>1</v>
       </c>
-      <c r="C31" s="57" t="s">
+      <c r="C31" s="54" t="s">
         <v>276</v>
       </c>
-      <c r="D31" s="58"/>
-      <c r="E31" s="59"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="56"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="57" t="s">
+      <c r="G31" s="54" t="s">
         <v>277</v>
       </c>
-      <c r="H31" s="59"/>
+      <c r="H31" s="56"/>
       <c r="I31" s="3"/>
       <c r="J31" s="4"/>
-      <c r="K31" s="65"/>
-      <c r="L31" s="67"/>
-      <c r="M31" s="65"/>
-      <c r="N31" s="66"/>
-      <c r="O31" s="66"/>
-      <c r="P31" s="67"/>
+      <c r="K31" s="57"/>
+      <c r="L31" s="58"/>
+      <c r="M31" s="57"/>
+      <c r="N31" s="59"/>
+      <c r="O31" s="59"/>
+      <c r="P31" s="58"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="44"/>
-      <c r="B32" s="57"/>
-      <c r="C32" s="58"/>
-      <c r="D32" s="58"/>
-      <c r="E32" s="59"/>
+      <c r="B32" s="54"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="56"/>
       <c r="F32" s="3"/>
-      <c r="G32" s="57"/>
-      <c r="H32" s="59"/>
+      <c r="G32" s="54"/>
+      <c r="H32" s="56"/>
       <c r="I32" s="3"/>
       <c r="J32" s="4"/>
-      <c r="K32" s="65"/>
-      <c r="L32" s="67"/>
-      <c r="M32" s="65"/>
-      <c r="N32" s="66"/>
-      <c r="O32" s="66"/>
-      <c r="P32" s="67"/>
+      <c r="K32" s="57"/>
+      <c r="L32" s="58"/>
+      <c r="M32" s="57"/>
+      <c r="N32" s="59"/>
+      <c r="O32" s="59"/>
+      <c r="P32" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="50">
@@ -12881,7 +14979,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE4711A2-02AD-4A5B-BAC3-D68404A9BB39}">
   <dimension ref="A1:P34"/>
   <sheetViews>
@@ -13368,33 +15466,33 @@
       <c r="P16" s="28"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="68" t="s">
+      <c r="A18" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="69"/>
-      <c r="C18" s="69"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="69"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="69"/>
-      <c r="J18" s="69"/>
-      <c r="K18" s="69"/>
-      <c r="L18" s="69"/>
-      <c r="M18" s="69"/>
-      <c r="N18" s="69"/>
-      <c r="O18" s="69"/>
-      <c r="P18" s="70"/>
+      <c r="B18" s="75"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="75"/>
+      <c r="I18" s="75"/>
+      <c r="J18" s="75"/>
+      <c r="K18" s="75"/>
+      <c r="L18" s="75"/>
+      <c r="M18" s="75"/>
+      <c r="N18" s="75"/>
+      <c r="O18" s="75"/>
+      <c r="P18" s="76"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="43">
         <v>1</v>
       </c>
-      <c r="B19" s="60" t="s">
+      <c r="B19" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="61"/>
+      <c r="C19" s="67"/>
       <c r="D19" s="27" t="s">
         <v>298</v>
       </c>
@@ -13408,23 +15506,23 @@
       </c>
       <c r="I19" s="31"/>
       <c r="J19" s="28"/>
-      <c r="K19" s="54" t="s">
+      <c r="K19" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="L19" s="56"/>
-      <c r="M19" s="74" t="s">
+      <c r="L19" s="62"/>
+      <c r="M19" s="71" t="s">
         <v>299</v>
       </c>
-      <c r="N19" s="75"/>
-      <c r="O19" s="75"/>
-      <c r="P19" s="76"/>
+      <c r="N19" s="72"/>
+      <c r="O19" s="72"/>
+      <c r="P19" s="73"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="44"/>
-      <c r="B20" s="60" t="s">
+      <c r="B20" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="61"/>
+      <c r="C20" s="67"/>
       <c r="D20" s="27" t="s">
         <v>300</v>
       </c>
@@ -13438,10 +15536,10 @@
       </c>
       <c r="I20" s="31"/>
       <c r="J20" s="28"/>
-      <c r="K20" s="54" t="s">
+      <c r="K20" s="60" t="s">
         <v>66</v>
       </c>
-      <c r="L20" s="56"/>
+      <c r="L20" s="62"/>
       <c r="M20" s="50" t="s">
         <v>67</v>
       </c>
@@ -13451,10 +15549,10 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="44"/>
-      <c r="B21" s="60" t="s">
+      <c r="B21" s="66" t="s">
         <v>98</v>
       </c>
-      <c r="C21" s="61"/>
+      <c r="C21" s="67"/>
       <c r="D21" s="27"/>
       <c r="E21" s="31"/>
       <c r="F21" s="31"/>
@@ -13473,10 +15571,10 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="44"/>
-      <c r="B22" s="60" t="s">
+      <c r="B22" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="61"/>
+      <c r="C22" s="67"/>
       <c r="D22" s="27"/>
       <c r="E22" s="31"/>
       <c r="F22" s="31"/>
@@ -13484,10 +15582,10 @@
       <c r="H22" s="31"/>
       <c r="I22" s="31"/>
       <c r="J22" s="28"/>
-      <c r="K22" s="54" t="s">
+      <c r="K22" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="L22" s="56"/>
+      <c r="L22" s="62"/>
       <c r="M22" s="50" t="s">
         <v>143</v>
       </c>
@@ -13497,102 +15595,102 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="44"/>
-      <c r="B23" s="62" t="s">
+      <c r="B23" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="63"/>
-      <c r="D23" s="63"/>
-      <c r="E23" s="63"/>
-      <c r="F23" s="63"/>
-      <c r="G23" s="63"/>
-      <c r="H23" s="63"/>
-      <c r="I23" s="63"/>
-      <c r="J23" s="64"/>
-      <c r="K23" s="62"/>
-      <c r="L23" s="64"/>
-      <c r="M23" s="62"/>
-      <c r="N23" s="63"/>
-      <c r="O23" s="63"/>
-      <c r="P23" s="64"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="69"/>
+      <c r="H23" s="69"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="70"/>
+      <c r="K23" s="68"/>
+      <c r="L23" s="70"/>
+      <c r="M23" s="68"/>
+      <c r="N23" s="69"/>
+      <c r="O23" s="69"/>
+      <c r="P23" s="70"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="44"/>
       <c r="B24" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="54" t="s">
+      <c r="C24" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="55"/>
-      <c r="E24" s="56"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="62"/>
       <c r="F24" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G24" s="54" t="s">
+      <c r="G24" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="H24" s="56"/>
-      <c r="I24" s="54" t="s">
+      <c r="H24" s="62"/>
+      <c r="I24" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="J24" s="56"/>
-      <c r="K24" s="71"/>
-      <c r="L24" s="73"/>
-      <c r="M24" s="71"/>
-      <c r="N24" s="72"/>
-      <c r="O24" s="72"/>
-      <c r="P24" s="73"/>
+      <c r="J24" s="62"/>
+      <c r="K24" s="63"/>
+      <c r="L24" s="64"/>
+      <c r="M24" s="63"/>
+      <c r="N24" s="65"/>
+      <c r="O24" s="65"/>
+      <c r="P24" s="64"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="44"/>
       <c r="B25" s="8">
         <v>1</v>
       </c>
-      <c r="C25" s="57" t="s">
+      <c r="C25" s="54" t="s">
         <v>302</v>
       </c>
-      <c r="D25" s="58"/>
-      <c r="E25" s="59"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="56"/>
       <c r="F25" s="3"/>
-      <c r="G25" s="57" t="s">
+      <c r="G25" s="54" t="s">
         <v>302</v>
       </c>
-      <c r="H25" s="59"/>
+      <c r="H25" s="56"/>
       <c r="I25" s="3"/>
       <c r="J25" s="4"/>
-      <c r="K25" s="65"/>
-      <c r="L25" s="67"/>
-      <c r="M25" s="65"/>
-      <c r="N25" s="66"/>
-      <c r="O25" s="66"/>
-      <c r="P25" s="67"/>
+      <c r="K25" s="57"/>
+      <c r="L25" s="58"/>
+      <c r="M25" s="57"/>
+      <c r="N25" s="59"/>
+      <c r="O25" s="59"/>
+      <c r="P25" s="58"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="44"/>
-      <c r="B26" s="57"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="58"/>
-      <c r="E26" s="59"/>
+      <c r="B26" s="54"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="56"/>
       <c r="F26" s="3"/>
-      <c r="G26" s="57"/>
-      <c r="H26" s="59"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="56"/>
       <c r="I26" s="3"/>
       <c r="J26" s="4"/>
-      <c r="K26" s="65"/>
-      <c r="L26" s="67"/>
-      <c r="M26" s="65"/>
-      <c r="N26" s="66"/>
-      <c r="O26" s="66"/>
-      <c r="P26" s="67"/>
+      <c r="K26" s="57"/>
+      <c r="L26" s="58"/>
+      <c r="M26" s="57"/>
+      <c r="N26" s="59"/>
+      <c r="O26" s="59"/>
+      <c r="P26" s="58"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="43">
         <v>2</v>
       </c>
-      <c r="B27" s="60" t="s">
+      <c r="B27" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="61"/>
+      <c r="C27" s="67"/>
       <c r="D27" s="27" t="s">
         <v>278</v>
       </c>
@@ -13606,23 +15704,23 @@
       </c>
       <c r="I27" s="31"/>
       <c r="J27" s="28"/>
-      <c r="K27" s="54" t="s">
+      <c r="K27" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="L27" s="56"/>
-      <c r="M27" s="74" t="s">
+      <c r="L27" s="62"/>
+      <c r="M27" s="71" t="s">
         <v>273</v>
       </c>
-      <c r="N27" s="75"/>
-      <c r="O27" s="75"/>
-      <c r="P27" s="76"/>
+      <c r="N27" s="72"/>
+      <c r="O27" s="72"/>
+      <c r="P27" s="73"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="44"/>
-      <c r="B28" s="60" t="s">
+      <c r="B28" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="61"/>
+      <c r="C28" s="67"/>
       <c r="D28" s="27" t="s">
         <v>305</v>
       </c>
@@ -13636,10 +15734,10 @@
       </c>
       <c r="I28" s="31"/>
       <c r="J28" s="28"/>
-      <c r="K28" s="54" t="s">
+      <c r="K28" s="60" t="s">
         <v>66</v>
       </c>
-      <c r="L28" s="56"/>
+      <c r="L28" s="62"/>
       <c r="M28" s="50" t="s">
         <v>67</v>
       </c>
@@ -13649,10 +15747,10 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="44"/>
-      <c r="B29" s="60" t="s">
+      <c r="B29" s="66" t="s">
         <v>98</v>
       </c>
-      <c r="C29" s="61"/>
+      <c r="C29" s="67"/>
       <c r="D29" s="27"/>
       <c r="E29" s="31"/>
       <c r="F29" s="31"/>
@@ -13671,10 +15769,10 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="44"/>
-      <c r="B30" s="60" t="s">
+      <c r="B30" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="61"/>
+      <c r="C30" s="67"/>
       <c r="D30" s="27"/>
       <c r="E30" s="31"/>
       <c r="F30" s="31"/>
@@ -13682,10 +15780,10 @@
       <c r="H30" s="31"/>
       <c r="I30" s="31"/>
       <c r="J30" s="28"/>
-      <c r="K30" s="54" t="s">
+      <c r="K30" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="L30" s="56"/>
+      <c r="L30" s="62"/>
       <c r="M30" s="50" t="s">
         <v>143</v>
       </c>
@@ -13695,93 +15793,93 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="44"/>
-      <c r="B31" s="62" t="s">
+      <c r="B31" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="63"/>
-      <c r="D31" s="63"/>
-      <c r="E31" s="63"/>
-      <c r="F31" s="63"/>
-      <c r="G31" s="63"/>
-      <c r="H31" s="63"/>
-      <c r="I31" s="63"/>
-      <c r="J31" s="64"/>
-      <c r="K31" s="62"/>
-      <c r="L31" s="64"/>
-      <c r="M31" s="62"/>
-      <c r="N31" s="63"/>
-      <c r="O31" s="63"/>
-      <c r="P31" s="64"/>
+      <c r="C31" s="69"/>
+      <c r="D31" s="69"/>
+      <c r="E31" s="69"/>
+      <c r="F31" s="69"/>
+      <c r="G31" s="69"/>
+      <c r="H31" s="69"/>
+      <c r="I31" s="69"/>
+      <c r="J31" s="70"/>
+      <c r="K31" s="68"/>
+      <c r="L31" s="70"/>
+      <c r="M31" s="68"/>
+      <c r="N31" s="69"/>
+      <c r="O31" s="69"/>
+      <c r="P31" s="70"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="44"/>
       <c r="B32" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C32" s="54" t="s">
+      <c r="C32" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="D32" s="55"/>
-      <c r="E32" s="56"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="62"/>
       <c r="F32" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G32" s="54" t="s">
+      <c r="G32" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="H32" s="56"/>
-      <c r="I32" s="54" t="s">
+      <c r="H32" s="62"/>
+      <c r="I32" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="J32" s="56"/>
-      <c r="K32" s="71"/>
-      <c r="L32" s="73"/>
-      <c r="M32" s="71"/>
-      <c r="N32" s="72"/>
-      <c r="O32" s="72"/>
-      <c r="P32" s="73"/>
+      <c r="J32" s="62"/>
+      <c r="K32" s="63"/>
+      <c r="L32" s="64"/>
+      <c r="M32" s="63"/>
+      <c r="N32" s="65"/>
+      <c r="O32" s="65"/>
+      <c r="P32" s="64"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="44"/>
       <c r="B33" s="8">
         <v>1</v>
       </c>
-      <c r="C33" s="57" t="s">
+      <c r="C33" s="54" t="s">
         <v>277</v>
       </c>
-      <c r="D33" s="58"/>
-      <c r="E33" s="59"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="56"/>
       <c r="F33" s="3"/>
-      <c r="G33" s="57" t="s">
+      <c r="G33" s="54" t="s">
         <v>277</v>
       </c>
-      <c r="H33" s="59"/>
+      <c r="H33" s="56"/>
       <c r="I33" s="3"/>
       <c r="J33" s="4"/>
-      <c r="K33" s="65"/>
-      <c r="L33" s="67"/>
-      <c r="M33" s="65"/>
-      <c r="N33" s="66"/>
-      <c r="O33" s="66"/>
-      <c r="P33" s="67"/>
+      <c r="K33" s="57"/>
+      <c r="L33" s="58"/>
+      <c r="M33" s="57"/>
+      <c r="N33" s="59"/>
+      <c r="O33" s="59"/>
+      <c r="P33" s="58"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="44"/>
-      <c r="B34" s="57"/>
-      <c r="C34" s="58"/>
-      <c r="D34" s="58"/>
-      <c r="E34" s="59"/>
+      <c r="B34" s="54"/>
+      <c r="C34" s="55"/>
+      <c r="D34" s="55"/>
+      <c r="E34" s="56"/>
       <c r="F34" s="3"/>
-      <c r="G34" s="57"/>
-      <c r="H34" s="59"/>
+      <c r="G34" s="54"/>
+      <c r="H34" s="56"/>
       <c r="I34" s="3"/>
       <c r="J34" s="4"/>
-      <c r="K34" s="65"/>
-      <c r="L34" s="67"/>
-      <c r="M34" s="65"/>
-      <c r="N34" s="66"/>
-      <c r="O34" s="66"/>
-      <c r="P34" s="67"/>
+      <c r="K34" s="57"/>
+      <c r="L34" s="58"/>
+      <c r="M34" s="57"/>
+      <c r="N34" s="59"/>
+      <c r="O34" s="59"/>
+      <c r="P34" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="85">
@@ -13881,7 +15979,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70090909-6FEC-4A13-BB6C-D86D907DAE18}">
   <dimension ref="A1:P31"/>
   <sheetViews>
@@ -14544,33 +16642,33 @@
       <c r="P21" s="1"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="68" t="s">
+      <c r="A23" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="69"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="69"/>
-      <c r="H23" s="69"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="69"/>
-      <c r="K23" s="69"/>
-      <c r="L23" s="69"/>
-      <c r="M23" s="69"/>
-      <c r="N23" s="69"/>
-      <c r="O23" s="69"/>
-      <c r="P23" s="70"/>
+      <c r="B23" s="75"/>
+      <c r="C23" s="75"/>
+      <c r="D23" s="75"/>
+      <c r="E23" s="75"/>
+      <c r="F23" s="75"/>
+      <c r="G23" s="75"/>
+      <c r="H23" s="75"/>
+      <c r="I23" s="75"/>
+      <c r="J23" s="75"/>
+      <c r="K23" s="75"/>
+      <c r="L23" s="75"/>
+      <c r="M23" s="75"/>
+      <c r="N23" s="75"/>
+      <c r="O23" s="75"/>
+      <c r="P23" s="76"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="43">
         <v>1</v>
       </c>
-      <c r="B24" s="60" t="s">
+      <c r="B24" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="61"/>
+      <c r="C24" s="67"/>
       <c r="D24" s="27" t="s">
         <v>278</v>
       </c>
@@ -14584,23 +16682,23 @@
       </c>
       <c r="I24" s="31"/>
       <c r="J24" s="28"/>
-      <c r="K24" s="54" t="s">
+      <c r="K24" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="L24" s="56"/>
-      <c r="M24" s="74" t="s">
+      <c r="L24" s="62"/>
+      <c r="M24" s="71" t="s">
         <v>273</v>
       </c>
-      <c r="N24" s="75"/>
-      <c r="O24" s="75"/>
-      <c r="P24" s="76"/>
+      <c r="N24" s="72"/>
+      <c r="O24" s="72"/>
+      <c r="P24" s="73"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="44"/>
-      <c r="B25" s="60" t="s">
+      <c r="B25" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="61"/>
+      <c r="C25" s="67"/>
       <c r="D25" s="27" t="s">
         <v>281</v>
       </c>
@@ -14614,10 +16712,10 @@
       </c>
       <c r="I25" s="31"/>
       <c r="J25" s="28"/>
-      <c r="K25" s="54" t="s">
+      <c r="K25" s="60" t="s">
         <v>66</v>
       </c>
-      <c r="L25" s="56"/>
+      <c r="L25" s="62"/>
       <c r="M25" s="50" t="s">
         <v>67</v>
       </c>
@@ -14627,10 +16725,10 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="44"/>
-      <c r="B26" s="60" t="s">
+      <c r="B26" s="66" t="s">
         <v>98</v>
       </c>
-      <c r="C26" s="61"/>
+      <c r="C26" s="67"/>
       <c r="D26" s="27" t="s">
         <v>379</v>
       </c>
@@ -14653,10 +16751,10 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="44"/>
-      <c r="B27" s="60" t="s">
+      <c r="B27" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="61"/>
+      <c r="C27" s="67"/>
       <c r="D27" s="27"/>
       <c r="E27" s="31"/>
       <c r="F27" s="31"/>
@@ -14664,10 +16762,10 @@
       <c r="H27" s="31"/>
       <c r="I27" s="31"/>
       <c r="J27" s="28"/>
-      <c r="K27" s="54" t="s">
+      <c r="K27" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="L27" s="56"/>
+      <c r="L27" s="62"/>
       <c r="M27" s="50" t="s">
         <v>143</v>
       </c>
@@ -14677,93 +16775,93 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="44"/>
-      <c r="B28" s="62" t="s">
+      <c r="B28" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="63"/>
-      <c r="D28" s="63"/>
-      <c r="E28" s="63"/>
-      <c r="F28" s="63"/>
-      <c r="G28" s="63"/>
-      <c r="H28" s="63"/>
-      <c r="I28" s="63"/>
-      <c r="J28" s="64"/>
-      <c r="K28" s="62"/>
-      <c r="L28" s="64"/>
-      <c r="M28" s="62"/>
-      <c r="N28" s="63"/>
-      <c r="O28" s="63"/>
-      <c r="P28" s="64"/>
+      <c r="C28" s="69"/>
+      <c r="D28" s="69"/>
+      <c r="E28" s="69"/>
+      <c r="F28" s="69"/>
+      <c r="G28" s="69"/>
+      <c r="H28" s="69"/>
+      <c r="I28" s="69"/>
+      <c r="J28" s="70"/>
+      <c r="K28" s="68"/>
+      <c r="L28" s="70"/>
+      <c r="M28" s="68"/>
+      <c r="N28" s="69"/>
+      <c r="O28" s="69"/>
+      <c r="P28" s="70"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="44"/>
       <c r="B29" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="54" t="s">
+      <c r="C29" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="55"/>
-      <c r="E29" s="56"/>
+      <c r="D29" s="61"/>
+      <c r="E29" s="62"/>
       <c r="F29" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G29" s="54" t="s">
+      <c r="G29" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="H29" s="56"/>
-      <c r="I29" s="54" t="s">
+      <c r="H29" s="62"/>
+      <c r="I29" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="J29" s="56"/>
-      <c r="K29" s="71"/>
-      <c r="L29" s="73"/>
-      <c r="M29" s="71"/>
-      <c r="N29" s="72"/>
-      <c r="O29" s="72"/>
-      <c r="P29" s="73"/>
+      <c r="J29" s="62"/>
+      <c r="K29" s="63"/>
+      <c r="L29" s="64"/>
+      <c r="M29" s="63"/>
+      <c r="N29" s="65"/>
+      <c r="O29" s="65"/>
+      <c r="P29" s="64"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="44"/>
       <c r="B30" s="8">
         <v>1</v>
       </c>
-      <c r="C30" s="57" t="s">
+      <c r="C30" s="54" t="s">
         <v>277</v>
       </c>
-      <c r="D30" s="58"/>
-      <c r="E30" s="59"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="56"/>
       <c r="F30" s="3"/>
-      <c r="G30" s="57" t="s">
+      <c r="G30" s="54" t="s">
         <v>277</v>
       </c>
-      <c r="H30" s="59"/>
+      <c r="H30" s="56"/>
       <c r="I30" s="3"/>
       <c r="J30" s="4"/>
-      <c r="K30" s="65"/>
-      <c r="L30" s="67"/>
-      <c r="M30" s="65"/>
-      <c r="N30" s="66"/>
-      <c r="O30" s="66"/>
-      <c r="P30" s="67"/>
+      <c r="K30" s="57"/>
+      <c r="L30" s="58"/>
+      <c r="M30" s="57"/>
+      <c r="N30" s="59"/>
+      <c r="O30" s="59"/>
+      <c r="P30" s="58"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="44"/>
-      <c r="B31" s="57"/>
-      <c r="C31" s="58"/>
-      <c r="D31" s="58"/>
-      <c r="E31" s="59"/>
+      <c r="B31" s="54"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="56"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="57"/>
-      <c r="H31" s="59"/>
+      <c r="G31" s="54"/>
+      <c r="H31" s="56"/>
       <c r="I31" s="3"/>
       <c r="J31" s="4"/>
-      <c r="K31" s="65"/>
-      <c r="L31" s="67"/>
-      <c r="M31" s="65"/>
-      <c r="N31" s="66"/>
-      <c r="O31" s="66"/>
-      <c r="P31" s="67"/>
+      <c r="K31" s="57"/>
+      <c r="L31" s="58"/>
+      <c r="M31" s="57"/>
+      <c r="N31" s="59"/>
+      <c r="O31" s="59"/>
+      <c r="P31" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="49">
@@ -14825,1060 +16923,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC0BA8A4-9C3E-4604-A099-A93C4C69087F}">
-  <dimension ref="A1:P35"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="4.33203125" customWidth="1"/>
-    <col min="2" max="2" width="4.4140625" customWidth="1"/>
-    <col min="3" max="3" width="5.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.9140625" customWidth="1"/>
-    <col min="5" max="5" width="5.08203125" customWidth="1"/>
-    <col min="6" max="6" width="15.08203125" customWidth="1"/>
-    <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="9" max="9" width="4.75" customWidth="1"/>
-    <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="6.08203125" customWidth="1"/>
-    <col min="12" max="12" width="8.25" customWidth="1"/>
-    <col min="13" max="14" width="10.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="47" t="s">
-        <v>317</v>
-      </c>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="27"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="47" t="s">
-        <v>318</v>
-      </c>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="50" t="s">
-        <v>319</v>
-      </c>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="49"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="27"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="28"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="53" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="53"/>
-      <c r="N6" s="53"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="7">
-        <v>1</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>320</v>
-      </c>
-      <c r="H8" s="9"/>
-      <c r="I8" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K8" s="7">
-        <v>32</v>
-      </c>
-      <c r="L8" s="7"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="1"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="7">
-        <v>2</v>
-      </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="H9" s="9"/>
-      <c r="I9" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K9" s="7">
-        <v>32</v>
-      </c>
-      <c r="L9" s="7"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="1"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="7">
-        <v>3</v>
-      </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>321</v>
-      </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>323</v>
-      </c>
-      <c r="H10" s="9"/>
-      <c r="I10" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K10" s="7">
-        <v>200</v>
-      </c>
-      <c r="L10" s="7"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="1"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="7">
-        <v>4</v>
-      </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="H11" s="9"/>
-      <c r="I11" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J11" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K11" s="7">
-        <v>100</v>
-      </c>
-      <c r="L11" s="7"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="1"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="7">
-        <v>5</v>
-      </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="9" t="s">
-        <v>374</v>
-      </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="9" t="s">
-        <v>375</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="H12" s="9"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K12" s="7">
-        <v>100</v>
-      </c>
-      <c r="L12" s="7"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="1"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="7">
-        <v>6</v>
-      </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="9" t="s">
-        <v>421</v>
-      </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="9" t="s">
-        <v>422</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="H13" s="9"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K13" s="7">
-        <v>100</v>
-      </c>
-      <c r="L13" s="7"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="1"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="7">
-        <v>7</v>
-      </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="9" t="s">
-        <v>324</v>
-      </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="9" t="s">
-        <v>325</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>326</v>
-      </c>
-      <c r="H14" s="9"/>
-      <c r="I14" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J14" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="26" t="s">
-        <v>327</v>
-      </c>
-      <c r="N14" s="9"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="1"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15" s="7">
-        <v>8</v>
-      </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="9" t="s">
-        <v>348</v>
-      </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H15" s="9"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K15" s="7">
-        <v>200</v>
-      </c>
-      <c r="L15" s="7"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="1"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="7">
-        <v>9</v>
-      </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="9" t="s">
-        <v>519</v>
-      </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="9" t="s">
-        <v>520</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>521</v>
-      </c>
-      <c r="H16" s="9"/>
-      <c r="I16" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J16" s="9" t="s">
-        <v>411</v>
-      </c>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="1"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" s="7">
-        <v>10</v>
-      </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="H17" s="9"/>
-      <c r="I17" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J17" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="N17" s="9"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="1"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="7">
-        <v>11</v>
-      </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="9" t="s">
-        <v>424</v>
-      </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="9" t="s">
-        <v>425</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="I18" s="7"/>
-      <c r="J18" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K18" s="7">
-        <v>1000</v>
-      </c>
-      <c r="L18" s="7"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="1"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="7">
-        <v>12</v>
-      </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J19" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="1"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="7">
-        <v>13</v>
-      </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J20" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K20" s="7">
-        <v>50</v>
-      </c>
-      <c r="L20" s="7"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="1"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="7">
-        <v>14</v>
-      </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" s="7"/>
-      <c r="F21" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="H21" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J21" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="1"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="7">
-        <v>15</v>
-      </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E22" s="7"/>
-      <c r="F22" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="I22" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J22" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K22" s="7">
-        <v>50</v>
-      </c>
-      <c r="L22" s="7"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="1"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="7">
-        <v>16</v>
-      </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E23" s="7"/>
-      <c r="F23" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="H23" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J23" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="1"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="7">
-        <v>17</v>
-      </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="I24" s="7"/>
-      <c r="J24" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K24" s="7">
-        <v>200</v>
-      </c>
-      <c r="L24" s="7"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="1"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="1"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="68" t="s">
-        <v>13</v>
-      </c>
-      <c r="B27" s="69"/>
-      <c r="C27" s="69"/>
-      <c r="D27" s="69"/>
-      <c r="E27" s="69"/>
-      <c r="F27" s="69"/>
-      <c r="G27" s="69"/>
-      <c r="H27" s="69"/>
-      <c r="I27" s="69"/>
-      <c r="J27" s="69"/>
-      <c r="K27" s="69"/>
-      <c r="L27" s="69"/>
-      <c r="M27" s="69"/>
-      <c r="N27" s="69"/>
-      <c r="O27" s="69"/>
-      <c r="P27" s="70"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="43">
-        <v>1</v>
-      </c>
-      <c r="B28" s="60" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" s="61"/>
-      <c r="D28" s="27" t="s">
-        <v>278</v>
-      </c>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H28" s="27" t="s">
-        <v>376</v>
-      </c>
-      <c r="I28" s="31"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="54" t="s">
-        <v>58</v>
-      </c>
-      <c r="L28" s="56"/>
-      <c r="M28" s="74" t="s">
-        <v>273</v>
-      </c>
-      <c r="N28" s="75"/>
-      <c r="O28" s="75"/>
-      <c r="P28" s="76"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="44"/>
-      <c r="B29" s="60" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" s="61"/>
-      <c r="D29" s="27" t="s">
-        <v>281</v>
-      </c>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H29" s="27" t="s">
-        <v>280</v>
-      </c>
-      <c r="I29" s="31"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="54" t="s">
-        <v>66</v>
-      </c>
-      <c r="L29" s="56"/>
-      <c r="M29" s="50" t="s">
-        <v>67</v>
-      </c>
-      <c r="N29" s="51"/>
-      <c r="O29" s="51"/>
-      <c r="P29" s="52"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="44"/>
-      <c r="B30" s="60" t="s">
-        <v>98</v>
-      </c>
-      <c r="C30" s="61"/>
-      <c r="D30" s="27" t="s">
-        <v>377</v>
-      </c>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="H30" s="31" t="s">
-        <v>378</v>
-      </c>
-      <c r="I30" s="31"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="50"/>
-      <c r="N30" s="51"/>
-      <c r="O30" s="51"/>
-      <c r="P30" s="52"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="44"/>
-      <c r="B31" s="60" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31" s="61"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="31"/>
-      <c r="I31" s="31"/>
-      <c r="J31" s="28"/>
-      <c r="K31" s="54" t="s">
-        <v>9</v>
-      </c>
-      <c r="L31" s="56"/>
-      <c r="M31" s="50" t="s">
-        <v>143</v>
-      </c>
-      <c r="N31" s="51"/>
-      <c r="O31" s="51"/>
-      <c r="P31" s="52"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="44"/>
-      <c r="B32" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="C32" s="63"/>
-      <c r="D32" s="63"/>
-      <c r="E32" s="63"/>
-      <c r="F32" s="63"/>
-      <c r="G32" s="63"/>
-      <c r="H32" s="63"/>
-      <c r="I32" s="63"/>
-      <c r="J32" s="64"/>
-      <c r="K32" s="62"/>
-      <c r="L32" s="64"/>
-      <c r="M32" s="62"/>
-      <c r="N32" s="63"/>
-      <c r="O32" s="63"/>
-      <c r="P32" s="64"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A33" s="44"/>
-      <c r="B33" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C33" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="D33" s="55"/>
-      <c r="E33" s="56"/>
-      <c r="F33" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G33" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="H33" s="56"/>
-      <c r="I33" s="54" t="s">
-        <v>18</v>
-      </c>
-      <c r="J33" s="56"/>
-      <c r="K33" s="71"/>
-      <c r="L33" s="73"/>
-      <c r="M33" s="71"/>
-      <c r="N33" s="72"/>
-      <c r="O33" s="72"/>
-      <c r="P33" s="73"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A34" s="44"/>
-      <c r="B34" s="8">
-        <v>1</v>
-      </c>
-      <c r="C34" s="57" t="s">
-        <v>277</v>
-      </c>
-      <c r="D34" s="58"/>
-      <c r="E34" s="59"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="57" t="s">
-        <v>277</v>
-      </c>
-      <c r="H34" s="59"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="65"/>
-      <c r="L34" s="67"/>
-      <c r="M34" s="65"/>
-      <c r="N34" s="66"/>
-      <c r="O34" s="66"/>
-      <c r="P34" s="67"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A35" s="44"/>
-      <c r="B35" s="57"/>
-      <c r="C35" s="58"/>
-      <c r="D35" s="58"/>
-      <c r="E35" s="59"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="57"/>
-      <c r="H35" s="59"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="65"/>
-      <c r="L35" s="67"/>
-      <c r="M35" s="65"/>
-      <c r="N35" s="66"/>
-      <c r="O35" s="66"/>
-      <c r="P35" s="67"/>
-    </row>
-  </sheetData>
-  <mergeCells count="49">
-    <mergeCell ref="B32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:P32"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="M35:P35"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="M33:P33"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="M34:P34"/>
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:J31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:P31"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A27:P27"/>
-    <mergeCell ref="A28:A35"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:P29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:L4"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="M14" location="entity_store_type" display="dyn/page-schema-type" xr:uid="{A19F2678-1B24-4DCA-AC5A-69335700E3C0}"/>
-    <hyperlink ref="M28:P28" location="nop_dyn_module!A1" display="NopDynModule" xr:uid="{6580E2C8-10D8-477F-BE0A-37F2A03BFA6D}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
-</worksheet>
 </file>
--- a/nop-dyn/model/nop-dyn.orm.xlsx
+++ b/nop-dyn/model/nop-dyn.orm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-dyn\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EAF1515-E743-4240-A0CD-6ED904970C28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A79317B4-34D0-4BF0-8F50-73D8E8F7BA02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" firstSheet="10" activeTab="12" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1932" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1933" uniqueCount="534">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -7163,7 +7163,7 @@
   <dimension ref="A1:P35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:A24"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -7662,7 +7662,7 @@
         <v>522</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F17" s="9" t="s">
         <v>495</v>
@@ -7705,7 +7705,9 @@
         <v>505</v>
       </c>
       <c r="H18" s="9"/>
-      <c r="I18" s="7"/>
+      <c r="I18" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="J18" s="9" t="s">
         <v>28</v>
       </c>

--- a/nop-dyn/model/nop-dyn.orm.xlsx
+++ b/nop-dyn/model/nop-dyn.orm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-dyn\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72BFDE33-9F5D-4B14-AAF2-48ECDB6E3C75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89AA2E98-498B-4B72-8AA6-8D7902771363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" firstSheet="11" activeTab="12" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" firstSheet="11" activeTab="13" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="2" r:id="rId1"/>
@@ -2399,10 +2399,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RELATION_DISPLY_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Relation Display Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2496,6 +2492,10 @@
   </si>
   <si>
     <t>Relation Metas For Ref Entity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RELATION_DISPLAY_NAME</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6475,7 +6475,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68F89B88-34E8-484E-A694-177B0E94136A}">
   <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A8" sqref="A8:A32"/>
     </sheetView>
   </sheetViews>
@@ -8019,7 +8019,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D66624B-686C-432C-B2AF-E2E183AF36AB}">
   <dimension ref="A1:P44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A8" sqref="A8:A25"/>
     </sheetView>
   </sheetViews>
@@ -8070,7 +8070,7 @@
       <c r="B2" s="47"/>
       <c r="C2" s="47"/>
       <c r="D2" s="48" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E2" s="49"/>
       <c r="F2" s="49"/>
@@ -8294,14 +8294,14 @@
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="9" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="9" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="7" t="s">
@@ -8358,14 +8358,14 @@
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="9" t="s">
-        <v>588</v>
+        <v>612</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="9" t="s">
+        <v>588</v>
+      </c>
+      <c r="G12" s="9" t="s">
         <v>589</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>590</v>
       </c>
       <c r="H12" s="9"/>
       <c r="I12" s="7" t="s">
@@ -8424,19 +8424,17 @@
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="9" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="9" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>596</v>
+        <v>477</v>
       </c>
       <c r="H14" s="9"/>
-      <c r="I14" s="7" t="s">
-        <v>27</v>
-      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="9" t="s">
         <v>28</v>
       </c>
@@ -8444,7 +8442,7 @@
         <v>100</v>
       </c>
       <c r="L14" s="7"/>
-      <c r="M14" s="9"/>
+      <c r="M14" s="26"/>
       <c r="N14" s="9"/>
       <c r="O14" s="7"/>
       <c r="P14" s="1"/>
@@ -8456,14 +8454,14 @@
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="9" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="9" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="H15" s="9"/>
       <c r="I15" s="7" t="s">
@@ -8488,17 +8486,19 @@
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="9" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="9" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>477</v>
+        <v>596</v>
       </c>
       <c r="H16" s="9"/>
-      <c r="I16" s="7"/>
+      <c r="I16" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="J16" s="9" t="s">
         <v>28</v>
       </c>
@@ -8506,7 +8506,7 @@
         <v>100</v>
       </c>
       <c r="L16" s="7"/>
-      <c r="M16" s="26"/>
+      <c r="M16" s="9"/>
       <c r="N16" s="9"/>
       <c r="O16" s="7"/>
       <c r="P16" s="1"/>
@@ -8518,23 +8518,23 @@
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="9" t="s">
-        <v>472</v>
+        <v>33</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="9" t="s">
-        <v>325</v>
+        <v>34</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>9</v>
+        <v>95</v>
       </c>
       <c r="H17" s="9"/>
-      <c r="I17" s="7"/>
+      <c r="I17" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="J17" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K17" s="7">
-        <v>200</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="K17" s="7"/>
       <c r="L17" s="7"/>
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
@@ -8548,23 +8548,23 @@
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="9" t="s">
-        <v>33</v>
+        <v>472</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="9" t="s">
-        <v>34</v>
+        <v>325</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>95</v>
+        <v>9</v>
       </c>
       <c r="H18" s="9"/>
-      <c r="I18" s="7" t="s">
-        <v>27</v>
-      </c>
+      <c r="I18" s="7"/>
       <c r="J18" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="K18" s="7"/>
+        <v>28</v>
+      </c>
+      <c r="K18" s="7">
+        <v>200</v>
+      </c>
       <c r="L18" s="7"/>
       <c r="M18" s="9"/>
       <c r="N18" s="9"/>
@@ -8858,7 +8858,7 @@
         <v>57</v>
       </c>
       <c r="H29" s="28" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="I29" s="32"/>
       <c r="J29" s="29"/>
@@ -8910,7 +8910,7 @@
       </c>
       <c r="C31" s="68"/>
       <c r="D31" s="28" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E31" s="32"/>
       <c r="F31" s="32"/>
@@ -8918,7 +8918,7 @@
         <v>99</v>
       </c>
       <c r="H31" s="32" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I31" s="32"/>
       <c r="J31" s="29"/>
@@ -9052,7 +9052,7 @@
       </c>
       <c r="C37" s="68"/>
       <c r="D37" s="28" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E37" s="32"/>
       <c r="F37" s="32"/>
@@ -9060,7 +9060,7 @@
         <v>57</v>
       </c>
       <c r="H37" s="28" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="I37" s="32"/>
       <c r="J37" s="29"/>
@@ -9082,7 +9082,7 @@
       </c>
       <c r="C38" s="68"/>
       <c r="D38" s="28" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E38" s="32"/>
       <c r="F38" s="32"/>
@@ -9090,7 +9090,7 @@
         <v>3</v>
       </c>
       <c r="H38" s="28" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="I38" s="32"/>
       <c r="J38" s="29"/>
@@ -9112,7 +9112,7 @@
       </c>
       <c r="C39" s="68"/>
       <c r="D39" s="28" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E39" s="32"/>
       <c r="F39" s="32"/>
@@ -9120,7 +9120,7 @@
         <v>99</v>
       </c>
       <c r="H39" s="32" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I39" s="32"/>
       <c r="J39" s="29"/>
@@ -9209,7 +9209,7 @@
         <v>1</v>
       </c>
       <c r="C43" s="55" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D43" s="56"/>
       <c r="E43" s="57"/>

--- a/nop-dyn/model/nop-dyn.orm.xlsx
+++ b/nop-dyn/model/nop-dyn.orm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-dyn\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28BCEFD5-0756-40A9-93AD-3DAA30139FBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59EA279F-7279-40AD-BC51-2E41AE6B040E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" firstSheet="4" activeTab="5" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" firstSheet="1" activeTab="4" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="2" r:id="rId1"/>
@@ -18,21 +18,20 @@
     <sheet name="域定义" sheetId="15" r:id="rId3"/>
     <sheet name="字典定义" sheetId="23" r:id="rId4"/>
     <sheet name="nop_dyn_app" sheetId="30" r:id="rId5"/>
-    <sheet name="nop_dyn_patch" sheetId="42" r:id="rId6"/>
-    <sheet name="nop_dyn_patch_file" sheetId="41" r:id="rId7"/>
-    <sheet name="nop_dyn_module_dep" sheetId="38" r:id="rId8"/>
-    <sheet name="nop_dyn_module" sheetId="22" r:id="rId9"/>
-    <sheet name="nop_dyn_app_module" sheetId="31" r:id="rId10"/>
-    <sheet name="nop_dyn_sql" sheetId="40" r:id="rId11"/>
-    <sheet name="nop_dyn_file" sheetId="39" r:id="rId12"/>
-    <sheet name="nop_dyn_page" sheetId="29" r:id="rId13"/>
-    <sheet name="nop_dyn_entity_meta" sheetId="32" r:id="rId14"/>
-    <sheet name="nop_dyn_prop_meta" sheetId="33" r:id="rId15"/>
-    <sheet name="nop_dyn_entity_relation_meta" sheetId="36" r:id="rId16"/>
-    <sheet name="nop_dyn_function_meta" sheetId="37" r:id="rId17"/>
-    <sheet name="nop_dyn_domain" sheetId="34" r:id="rId18"/>
-    <sheet name="nop_dyn_entity" sheetId="28" r:id="rId19"/>
-    <sheet name="nop_dyn_entity_relation" sheetId="35" r:id="rId20"/>
+    <sheet name="nop_dyn_patch_file" sheetId="41" r:id="rId6"/>
+    <sheet name="nop_dyn_module_dep" sheetId="38" r:id="rId7"/>
+    <sheet name="nop_dyn_module" sheetId="22" r:id="rId8"/>
+    <sheet name="nop_dyn_app_module" sheetId="31" r:id="rId9"/>
+    <sheet name="nop_dyn_sql" sheetId="40" r:id="rId10"/>
+    <sheet name="nop_dyn_file" sheetId="39" r:id="rId11"/>
+    <sheet name="nop_dyn_page" sheetId="29" r:id="rId12"/>
+    <sheet name="nop_dyn_entity_meta" sheetId="32" r:id="rId13"/>
+    <sheet name="nop_dyn_prop_meta" sheetId="33" r:id="rId14"/>
+    <sheet name="nop_dyn_entity_relation_meta" sheetId="36" r:id="rId15"/>
+    <sheet name="nop_dyn_function_meta" sheetId="37" r:id="rId16"/>
+    <sheet name="nop_dyn_domain" sheetId="34" r:id="rId17"/>
+    <sheet name="nop_dyn_entity" sheetId="28" r:id="rId18"/>
+    <sheet name="nop_dyn_entity_relation" sheetId="35" r:id="rId19"/>
   </sheets>
   <definedNames>
     <definedName name="app_status">字典定义!$A$1:$G$9</definedName>
@@ -50,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2614" uniqueCount="659">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2515" uniqueCount="646">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2605,83 +2604,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PATCH_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Patch ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>补丁ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PATCH_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Patch Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>补丁名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PATCH_ORDER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Patch Order</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>补丁顺序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>patch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>patchFiles</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>所属补丁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> Patch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NopDynPatch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Patch Files</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>patchId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nop_dyn_patch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Patch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>补丁定义</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>引入多个模块可能出现冲突，可以通过补丁机制增加补丁文件来覆盖模块中已有的文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APP_VERSION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>App Version</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SORT_ORDER</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3122,6 +3069,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3164,14 +3120,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3181,15 +3137,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3712,1006 +3659,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE4711A2-02AD-4A5B-BAC3-D68404A9BB39}">
-  <dimension ref="A1:P34"/>
-  <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
-  <cols>
-    <col min="1" max="1" width="4.33203125" customWidth="1"/>
-    <col min="2" max="2" width="4.4140625" customWidth="1"/>
-    <col min="3" max="3" width="5.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.9140625" customWidth="1"/>
-    <col min="5" max="5" width="5.08203125" customWidth="1"/>
-    <col min="6" max="6" width="15.08203125" customWidth="1"/>
-    <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="9" max="9" width="4.75" customWidth="1"/>
-    <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="6.08203125" customWidth="1"/>
-    <col min="12" max="12" width="8.25" customWidth="1"/>
-    <col min="13" max="14" width="10.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16">
-      <c r="A1" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="50" t="s">
-        <v>272</v>
-      </c>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="34"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-    </row>
-    <row r="2" spans="1:16">
-      <c r="A2" s="49" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="50" t="s">
-        <v>273</v>
-      </c>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="53" t="s">
-        <v>274</v>
-      </c>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="A3" s="49" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="50" t="s">
-        <v>338</v>
-      </c>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="A4" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="A5" s="34"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="35"/>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="A6" s="48" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="48"/>
-      <c r="O6" s="48"/>
-      <c r="P6" s="48"/>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="A7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="A8" s="7">
-        <v>1</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="H8" s="9"/>
-      <c r="I8" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K8" s="7">
-        <v>32</v>
-      </c>
-      <c r="L8" s="7"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="1"/>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="A9" s="7">
-        <v>2</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="H9" s="9"/>
-      <c r="I9" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K9" s="7">
-        <v>32</v>
-      </c>
-      <c r="L9" s="7"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="1"/>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="A10" s="7">
-        <v>3</v>
-      </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="1"/>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="A11" s="7">
-        <v>4</v>
-      </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J11" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K11" s="7">
-        <v>50</v>
-      </c>
-      <c r="L11" s="7"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="1"/>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="A12" s="7">
-        <v>5</v>
-      </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="1"/>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="A13" s="7">
-        <v>6</v>
-      </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J13" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K13" s="7">
-        <v>50</v>
-      </c>
-      <c r="L13" s="7"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="1"/>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="A14" s="7">
-        <v>7</v>
-      </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J14" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="1"/>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="1"/>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="A16" s="34"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="36"/>
-      <c r="P16" s="35"/>
-    </row>
-    <row r="18" spans="1:16">
-      <c r="A18" s="73" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="74"/>
-      <c r="C18" s="74"/>
-      <c r="D18" s="74"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="74"/>
-      <c r="G18" s="74"/>
-      <c r="H18" s="74"/>
-      <c r="I18" s="74"/>
-      <c r="J18" s="74"/>
-      <c r="K18" s="74"/>
-      <c r="L18" s="74"/>
-      <c r="M18" s="74"/>
-      <c r="N18" s="74"/>
-      <c r="O18" s="74"/>
-      <c r="P18" s="75"/>
-    </row>
-    <row r="19" spans="1:16">
-      <c r="A19" s="29">
-        <v>1</v>
-      </c>
-      <c r="B19" s="68" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="69"/>
-      <c r="D19" s="34" t="s">
-        <v>275</v>
-      </c>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H19" s="34" t="s">
-        <v>280</v>
-      </c>
-      <c r="I19" s="36"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="62" t="s">
-        <v>58</v>
-      </c>
-      <c r="L19" s="64"/>
-      <c r="M19" s="76" t="s">
-        <v>276</v>
-      </c>
-      <c r="N19" s="77"/>
-      <c r="O19" s="77"/>
-      <c r="P19" s="78"/>
-    </row>
-    <row r="20" spans="1:16">
-      <c r="A20" s="30"/>
-      <c r="B20" s="68" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="69"/>
-      <c r="D20" s="34" t="s">
-        <v>277</v>
-      </c>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H20" s="34" t="s">
-        <v>278</v>
-      </c>
-      <c r="I20" s="36"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="62" t="s">
-        <v>66</v>
-      </c>
-      <c r="L20" s="64"/>
-      <c r="M20" s="53" t="s">
-        <v>67</v>
-      </c>
-      <c r="N20" s="54"/>
-      <c r="O20" s="54"/>
-      <c r="P20" s="55"/>
-    </row>
-    <row r="21" spans="1:16">
-      <c r="A21" s="30"/>
-      <c r="B21" s="68" t="s">
-        <v>98</v>
-      </c>
-      <c r="C21" s="69"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="53"/>
-      <c r="N21" s="54"/>
-      <c r="O21" s="54"/>
-      <c r="P21" s="55"/>
-    </row>
-    <row r="22" spans="1:16">
-      <c r="A22" s="30"/>
-      <c r="B22" s="68" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="69"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="62" t="s">
-        <v>9</v>
-      </c>
-      <c r="L22" s="64"/>
-      <c r="M22" s="53" t="s">
-        <v>141</v>
-      </c>
-      <c r="N22" s="54"/>
-      <c r="O22" s="54"/>
-      <c r="P22" s="55"/>
-    </row>
-    <row r="23" spans="1:16">
-      <c r="A23" s="30"/>
-      <c r="B23" s="70" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="71"/>
-      <c r="D23" s="71"/>
-      <c r="E23" s="71"/>
-      <c r="F23" s="71"/>
-      <c r="G23" s="71"/>
-      <c r="H23" s="71"/>
-      <c r="I23" s="71"/>
-      <c r="J23" s="72"/>
-      <c r="K23" s="70"/>
-      <c r="L23" s="72"/>
-      <c r="M23" s="70"/>
-      <c r="N23" s="71"/>
-      <c r="O23" s="71"/>
-      <c r="P23" s="72"/>
-    </row>
-    <row r="24" spans="1:16">
-      <c r="A24" s="30"/>
-      <c r="B24" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" s="62" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" s="63"/>
-      <c r="E24" s="64"/>
-      <c r="F24" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G24" s="62" t="s">
-        <v>17</v>
-      </c>
-      <c r="H24" s="64"/>
-      <c r="I24" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="J24" s="64"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="66"/>
-      <c r="M24" s="65"/>
-      <c r="N24" s="67"/>
-      <c r="O24" s="67"/>
-      <c r="P24" s="66"/>
-    </row>
-    <row r="25" spans="1:16">
-      <c r="A25" s="30"/>
-      <c r="B25" s="8">
-        <v>1</v>
-      </c>
-      <c r="C25" s="56" t="s">
-        <v>279</v>
-      </c>
-      <c r="D25" s="57"/>
-      <c r="E25" s="58"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="56" t="s">
-        <v>279</v>
-      </c>
-      <c r="H25" s="58"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="59"/>
-      <c r="L25" s="60"/>
-      <c r="M25" s="59"/>
-      <c r="N25" s="61"/>
-      <c r="O25" s="61"/>
-      <c r="P25" s="60"/>
-    </row>
-    <row r="26" spans="1:16">
-      <c r="A26" s="30"/>
-      <c r="B26" s="56"/>
-      <c r="C26" s="57"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="58"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="56"/>
-      <c r="H26" s="58"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="59"/>
-      <c r="L26" s="60"/>
-      <c r="M26" s="59"/>
-      <c r="N26" s="61"/>
-      <c r="O26" s="61"/>
-      <c r="P26" s="60"/>
-    </row>
-    <row r="27" spans="1:16">
-      <c r="A27" s="29">
-        <v>2</v>
-      </c>
-      <c r="B27" s="68" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" s="69"/>
-      <c r="D27" s="34" t="s">
-        <v>255</v>
-      </c>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H27" s="34" t="s">
-        <v>281</v>
-      </c>
-      <c r="I27" s="36"/>
-      <c r="J27" s="35"/>
-      <c r="K27" s="62" t="s">
-        <v>58</v>
-      </c>
-      <c r="L27" s="64"/>
-      <c r="M27" s="76" t="s">
-        <v>250</v>
-      </c>
-      <c r="N27" s="77"/>
-      <c r="O27" s="77"/>
-      <c r="P27" s="78"/>
-    </row>
-    <row r="28" spans="1:16">
-      <c r="A28" s="30"/>
-      <c r="B28" s="68" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" s="69"/>
-      <c r="D28" s="34" t="s">
-        <v>282</v>
-      </c>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H28" s="34" t="s">
-        <v>283</v>
-      </c>
-      <c r="I28" s="36"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="62" t="s">
-        <v>66</v>
-      </c>
-      <c r="L28" s="64"/>
-      <c r="M28" s="53" t="s">
-        <v>67</v>
-      </c>
-      <c r="N28" s="54"/>
-      <c r="O28" s="54"/>
-      <c r="P28" s="55"/>
-    </row>
-    <row r="29" spans="1:16">
-      <c r="A29" s="30"/>
-      <c r="B29" s="68" t="s">
-        <v>98</v>
-      </c>
-      <c r="C29" s="69"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="H29" s="36"/>
-      <c r="I29" s="36"/>
-      <c r="J29" s="35"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="16"/>
-      <c r="M29" s="53"/>
-      <c r="N29" s="54"/>
-      <c r="O29" s="54"/>
-      <c r="P29" s="55"/>
-    </row>
-    <row r="30" spans="1:16">
-      <c r="A30" s="30"/>
-      <c r="B30" s="68" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30" s="69"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="36"/>
-      <c r="I30" s="36"/>
-      <c r="J30" s="35"/>
-      <c r="K30" s="62" t="s">
-        <v>9</v>
-      </c>
-      <c r="L30" s="64"/>
-      <c r="M30" s="53" t="s">
-        <v>141</v>
-      </c>
-      <c r="N30" s="54"/>
-      <c r="O30" s="54"/>
-      <c r="P30" s="55"/>
-    </row>
-    <row r="31" spans="1:16">
-      <c r="A31" s="30"/>
-      <c r="B31" s="70" t="s">
-        <v>19</v>
-      </c>
-      <c r="C31" s="71"/>
-      <c r="D31" s="71"/>
-      <c r="E31" s="71"/>
-      <c r="F31" s="71"/>
-      <c r="G31" s="71"/>
-      <c r="H31" s="71"/>
-      <c r="I31" s="71"/>
-      <c r="J31" s="72"/>
-      <c r="K31" s="70"/>
-      <c r="L31" s="72"/>
-      <c r="M31" s="70"/>
-      <c r="N31" s="71"/>
-      <c r="O31" s="71"/>
-      <c r="P31" s="72"/>
-    </row>
-    <row r="32" spans="1:16">
-      <c r="A32" s="30"/>
-      <c r="B32" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C32" s="62" t="s">
-        <v>16</v>
-      </c>
-      <c r="D32" s="63"/>
-      <c r="E32" s="64"/>
-      <c r="F32" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G32" s="62" t="s">
-        <v>17</v>
-      </c>
-      <c r="H32" s="64"/>
-      <c r="I32" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="J32" s="64"/>
-      <c r="K32" s="65"/>
-      <c r="L32" s="66"/>
-      <c r="M32" s="65"/>
-      <c r="N32" s="67"/>
-      <c r="O32" s="67"/>
-      <c r="P32" s="66"/>
-    </row>
-    <row r="33" spans="1:16">
-      <c r="A33" s="30"/>
-      <c r="B33" s="8">
-        <v>1</v>
-      </c>
-      <c r="C33" s="56" t="s">
-        <v>254</v>
-      </c>
-      <c r="D33" s="57"/>
-      <c r="E33" s="58"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="56" t="s">
-        <v>254</v>
-      </c>
-      <c r="H33" s="58"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="59"/>
-      <c r="L33" s="60"/>
-      <c r="M33" s="59"/>
-      <c r="N33" s="61"/>
-      <c r="O33" s="61"/>
-      <c r="P33" s="60"/>
-    </row>
-    <row r="34" spans="1:16">
-      <c r="A34" s="30"/>
-      <c r="B34" s="56"/>
-      <c r="C34" s="57"/>
-      <c r="D34" s="57"/>
-      <c r="E34" s="58"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="56"/>
-      <c r="H34" s="58"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="59"/>
-      <c r="L34" s="60"/>
-      <c r="M34" s="59"/>
-      <c r="N34" s="61"/>
-      <c r="O34" s="61"/>
-      <c r="P34" s="60"/>
-    </row>
-  </sheetData>
-  <mergeCells count="85">
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:L4"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A16:P16"/>
-    <mergeCell ref="A18:P18"/>
-    <mergeCell ref="A19:A26"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="M19:P19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="M20:P20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="B23:J23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="A27:A34"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="M29:P29"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="B31:J31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:P31"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="M34:P34"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:P32"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="M33:P33"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="M19:P19" location="nop_dyn_app!A1" display="NopDynApp" xr:uid="{B0E982F8-6A07-434D-815E-DC84C72FDC84}"/>
-    <hyperlink ref="M27:P27" location="nop_dyn_module!A1" display="NopDynModule" xr:uid="{43F9D9C6-DD9F-4D1A-9045-420D4EAC83E3}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43436765-FF3E-4600-A093-D72F4D767F10}">
   <dimension ref="A1:P45"/>
   <sheetViews>
@@ -5788,33 +4735,33 @@
       <c r="P35" s="1"/>
     </row>
     <row r="37" spans="1:16">
-      <c r="A37" s="73" t="s">
+      <c r="A37" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="B37" s="74"/>
-      <c r="C37" s="74"/>
-      <c r="D37" s="74"/>
-      <c r="E37" s="74"/>
-      <c r="F37" s="74"/>
-      <c r="G37" s="74"/>
-      <c r="H37" s="74"/>
-      <c r="I37" s="74"/>
-      <c r="J37" s="74"/>
-      <c r="K37" s="74"/>
-      <c r="L37" s="74"/>
-      <c r="M37" s="74"/>
-      <c r="N37" s="74"/>
-      <c r="O37" s="74"/>
-      <c r="P37" s="75"/>
+      <c r="B37" s="77"/>
+      <c r="C37" s="77"/>
+      <c r="D37" s="77"/>
+      <c r="E37" s="77"/>
+      <c r="F37" s="77"/>
+      <c r="G37" s="77"/>
+      <c r="H37" s="77"/>
+      <c r="I37" s="77"/>
+      <c r="J37" s="77"/>
+      <c r="K37" s="77"/>
+      <c r="L37" s="77"/>
+      <c r="M37" s="77"/>
+      <c r="N37" s="77"/>
+      <c r="O37" s="77"/>
+      <c r="P37" s="78"/>
     </row>
     <row r="38" spans="1:16">
       <c r="A38" s="29">
         <v>1</v>
       </c>
-      <c r="B38" s="68" t="s">
+      <c r="B38" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="C38" s="69"/>
+      <c r="C38" s="72"/>
       <c r="D38" s="34" t="s">
         <v>255</v>
       </c>
@@ -5828,23 +4775,23 @@
       </c>
       <c r="I38" s="36"/>
       <c r="J38" s="35"/>
-      <c r="K38" s="62" t="s">
+      <c r="K38" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="L38" s="64"/>
-      <c r="M38" s="76" t="s">
+      <c r="L38" s="67"/>
+      <c r="M38" s="73" t="s">
         <v>250</v>
       </c>
-      <c r="N38" s="77"/>
-      <c r="O38" s="77"/>
-      <c r="P38" s="78"/>
+      <c r="N38" s="74"/>
+      <c r="O38" s="74"/>
+      <c r="P38" s="75"/>
     </row>
     <row r="39" spans="1:16">
       <c r="A39" s="30"/>
-      <c r="B39" s="68" t="s">
+      <c r="B39" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="C39" s="69"/>
+      <c r="C39" s="72"/>
       <c r="D39" s="34" t="s">
         <v>258</v>
       </c>
@@ -5858,10 +4805,10 @@
       </c>
       <c r="I39" s="36"/>
       <c r="J39" s="35"/>
-      <c r="K39" s="62" t="s">
+      <c r="K39" s="65" t="s">
         <v>66</v>
       </c>
-      <c r="L39" s="64"/>
+      <c r="L39" s="67"/>
       <c r="M39" s="53" t="s">
         <v>67</v>
       </c>
@@ -5871,10 +4818,10 @@
     </row>
     <row r="40" spans="1:16">
       <c r="A40" s="30"/>
-      <c r="B40" s="68" t="s">
+      <c r="B40" s="71" t="s">
         <v>98</v>
       </c>
-      <c r="C40" s="69"/>
+      <c r="C40" s="72"/>
       <c r="D40" s="34" t="s">
         <v>539</v>
       </c>
@@ -5897,10 +4844,10 @@
     </row>
     <row r="41" spans="1:16">
       <c r="A41" s="30"/>
-      <c r="B41" s="68" t="s">
+      <c r="B41" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="C41" s="69"/>
+      <c r="C41" s="72"/>
       <c r="D41" s="34"/>
       <c r="E41" s="36"/>
       <c r="F41" s="36"/>
@@ -5908,10 +4855,10 @@
       <c r="H41" s="36"/>
       <c r="I41" s="36"/>
       <c r="J41" s="35"/>
-      <c r="K41" s="62" t="s">
+      <c r="K41" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="L41" s="64"/>
+      <c r="L41" s="67"/>
       <c r="M41" s="53" t="s">
         <v>141</v>
       </c>
@@ -5921,93 +4868,93 @@
     </row>
     <row r="42" spans="1:16">
       <c r="A42" s="30"/>
-      <c r="B42" s="70" t="s">
+      <c r="B42" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="C42" s="71"/>
-      <c r="D42" s="71"/>
-      <c r="E42" s="71"/>
-      <c r="F42" s="71"/>
-      <c r="G42" s="71"/>
-      <c r="H42" s="71"/>
-      <c r="I42" s="71"/>
-      <c r="J42" s="72"/>
-      <c r="K42" s="70"/>
-      <c r="L42" s="72"/>
-      <c r="M42" s="70"/>
-      <c r="N42" s="71"/>
-      <c r="O42" s="71"/>
-      <c r="P42" s="72"/>
+      <c r="C42" s="57"/>
+      <c r="D42" s="57"/>
+      <c r="E42" s="57"/>
+      <c r="F42" s="57"/>
+      <c r="G42" s="57"/>
+      <c r="H42" s="57"/>
+      <c r="I42" s="57"/>
+      <c r="J42" s="58"/>
+      <c r="K42" s="56"/>
+      <c r="L42" s="58"/>
+      <c r="M42" s="56"/>
+      <c r="N42" s="57"/>
+      <c r="O42" s="57"/>
+      <c r="P42" s="58"/>
     </row>
     <row r="43" spans="1:16">
       <c r="A43" s="30"/>
       <c r="B43" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C43" s="62" t="s">
+      <c r="C43" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="D43" s="63"/>
-      <c r="E43" s="64"/>
+      <c r="D43" s="66"/>
+      <c r="E43" s="67"/>
       <c r="F43" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G43" s="62" t="s">
+      <c r="G43" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="H43" s="64"/>
-      <c r="I43" s="62" t="s">
+      <c r="H43" s="67"/>
+      <c r="I43" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="J43" s="64"/>
-      <c r="K43" s="65"/>
-      <c r="L43" s="66"/>
-      <c r="M43" s="65"/>
-      <c r="N43" s="67"/>
-      <c r="O43" s="67"/>
-      <c r="P43" s="66"/>
+      <c r="J43" s="67"/>
+      <c r="K43" s="68"/>
+      <c r="L43" s="69"/>
+      <c r="M43" s="68"/>
+      <c r="N43" s="70"/>
+      <c r="O43" s="70"/>
+      <c r="P43" s="69"/>
     </row>
     <row r="44" spans="1:16">
       <c r="A44" s="30"/>
       <c r="B44" s="8">
         <v>1</v>
       </c>
-      <c r="C44" s="56" t="s">
+      <c r="C44" s="59" t="s">
         <v>254</v>
       </c>
-      <c r="D44" s="57"/>
-      <c r="E44" s="58"/>
+      <c r="D44" s="60"/>
+      <c r="E44" s="61"/>
       <c r="F44" s="3"/>
-      <c r="G44" s="56" t="s">
+      <c r="G44" s="59" t="s">
         <v>254</v>
       </c>
-      <c r="H44" s="58"/>
+      <c r="H44" s="61"/>
       <c r="I44" s="3"/>
       <c r="J44" s="4"/>
-      <c r="K44" s="59"/>
-      <c r="L44" s="60"/>
-      <c r="M44" s="59"/>
-      <c r="N44" s="61"/>
-      <c r="O44" s="61"/>
-      <c r="P44" s="60"/>
+      <c r="K44" s="62"/>
+      <c r="L44" s="63"/>
+      <c r="M44" s="62"/>
+      <c r="N44" s="64"/>
+      <c r="O44" s="64"/>
+      <c r="P44" s="63"/>
     </row>
     <row r="45" spans="1:16">
       <c r="A45" s="30"/>
-      <c r="B45" s="56"/>
-      <c r="C45" s="57"/>
-      <c r="D45" s="57"/>
-      <c r="E45" s="58"/>
+      <c r="B45" s="59"/>
+      <c r="C45" s="60"/>
+      <c r="D45" s="60"/>
+      <c r="E45" s="61"/>
       <c r="F45" s="3"/>
-      <c r="G45" s="56"/>
-      <c r="H45" s="58"/>
+      <c r="G45" s="59"/>
+      <c r="H45" s="61"/>
       <c r="I45" s="3"/>
       <c r="J45" s="4"/>
-      <c r="K45" s="59"/>
-      <c r="L45" s="60"/>
-      <c r="M45" s="59"/>
-      <c r="N45" s="61"/>
-      <c r="O45" s="61"/>
-      <c r="P45" s="60"/>
+      <c r="K45" s="62"/>
+      <c r="L45" s="63"/>
+      <c r="M45" s="62"/>
+      <c r="N45" s="64"/>
+      <c r="O45" s="64"/>
+      <c r="P45" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="49">
@@ -6069,7 +5016,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B893140F-4055-42CF-B35D-49169A5D1A5B}">
   <dimension ref="A1:P31"/>
   <sheetViews>
@@ -6728,33 +5675,33 @@
       <c r="P21" s="1"/>
     </row>
     <row r="23" spans="1:16">
-      <c r="A23" s="73" t="s">
+      <c r="A23" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="74"/>
-      <c r="C23" s="74"/>
-      <c r="D23" s="74"/>
-      <c r="E23" s="74"/>
-      <c r="F23" s="74"/>
-      <c r="G23" s="74"/>
-      <c r="H23" s="74"/>
-      <c r="I23" s="74"/>
-      <c r="J23" s="74"/>
-      <c r="K23" s="74"/>
-      <c r="L23" s="74"/>
-      <c r="M23" s="74"/>
-      <c r="N23" s="74"/>
-      <c r="O23" s="74"/>
-      <c r="P23" s="75"/>
+      <c r="B23" s="77"/>
+      <c r="C23" s="77"/>
+      <c r="D23" s="77"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="77"/>
+      <c r="H23" s="77"/>
+      <c r="I23" s="77"/>
+      <c r="J23" s="77"/>
+      <c r="K23" s="77"/>
+      <c r="L23" s="77"/>
+      <c r="M23" s="77"/>
+      <c r="N23" s="77"/>
+      <c r="O23" s="77"/>
+      <c r="P23" s="78"/>
     </row>
     <row r="24" spans="1:16">
       <c r="A24" s="29">
         <v>1</v>
       </c>
-      <c r="B24" s="68" t="s">
+      <c r="B24" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="69"/>
+      <c r="C24" s="72"/>
       <c r="D24" s="34" t="s">
         <v>255</v>
       </c>
@@ -6768,23 +5715,23 @@
       </c>
       <c r="I24" s="36"/>
       <c r="J24" s="35"/>
-      <c r="K24" s="62" t="s">
+      <c r="K24" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="L24" s="64"/>
-      <c r="M24" s="76" t="s">
+      <c r="L24" s="67"/>
+      <c r="M24" s="73" t="s">
         <v>250</v>
       </c>
-      <c r="N24" s="77"/>
-      <c r="O24" s="77"/>
-      <c r="P24" s="78"/>
+      <c r="N24" s="74"/>
+      <c r="O24" s="74"/>
+      <c r="P24" s="75"/>
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="30"/>
-      <c r="B25" s="68" t="s">
+      <c r="B25" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="69"/>
+      <c r="C25" s="72"/>
       <c r="D25" s="34" t="s">
         <v>258</v>
       </c>
@@ -6798,10 +5745,10 @@
       </c>
       <c r="I25" s="36"/>
       <c r="J25" s="35"/>
-      <c r="K25" s="62" t="s">
+      <c r="K25" s="65" t="s">
         <v>66</v>
       </c>
-      <c r="L25" s="64"/>
+      <c r="L25" s="67"/>
       <c r="M25" s="53" t="s">
         <v>67</v>
       </c>
@@ -6811,10 +5758,10 @@
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="30"/>
-      <c r="B26" s="68" t="s">
+      <c r="B26" s="71" t="s">
         <v>98</v>
       </c>
-      <c r="C26" s="69"/>
+      <c r="C26" s="72"/>
       <c r="D26" s="34" t="s">
         <v>508</v>
       </c>
@@ -6837,10 +5784,10 @@
     </row>
     <row r="27" spans="1:16">
       <c r="A27" s="30"/>
-      <c r="B27" s="68" t="s">
+      <c r="B27" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="69"/>
+      <c r="C27" s="72"/>
       <c r="D27" s="34"/>
       <c r="E27" s="36"/>
       <c r="F27" s="36"/>
@@ -6848,10 +5795,10 @@
       <c r="H27" s="36"/>
       <c r="I27" s="36"/>
       <c r="J27" s="35"/>
-      <c r="K27" s="62" t="s">
+      <c r="K27" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="L27" s="64"/>
+      <c r="L27" s="67"/>
       <c r="M27" s="53" t="s">
         <v>141</v>
       </c>
@@ -6861,93 +5808,93 @@
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="30"/>
-      <c r="B28" s="70" t="s">
+      <c r="B28" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="71"/>
-      <c r="D28" s="71"/>
-      <c r="E28" s="71"/>
-      <c r="F28" s="71"/>
-      <c r="G28" s="71"/>
-      <c r="H28" s="71"/>
-      <c r="I28" s="71"/>
-      <c r="J28" s="72"/>
-      <c r="K28" s="70"/>
-      <c r="L28" s="72"/>
-      <c r="M28" s="70"/>
-      <c r="N28" s="71"/>
-      <c r="O28" s="71"/>
-      <c r="P28" s="72"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="57"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="57"/>
+      <c r="J28" s="58"/>
+      <c r="K28" s="56"/>
+      <c r="L28" s="58"/>
+      <c r="M28" s="56"/>
+      <c r="N28" s="57"/>
+      <c r="O28" s="57"/>
+      <c r="P28" s="58"/>
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="30"/>
       <c r="B29" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="62" t="s">
+      <c r="C29" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="63"/>
-      <c r="E29" s="64"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="67"/>
       <c r="F29" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G29" s="62" t="s">
+      <c r="G29" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="H29" s="64"/>
-      <c r="I29" s="62" t="s">
+      <c r="H29" s="67"/>
+      <c r="I29" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="J29" s="64"/>
-      <c r="K29" s="65"/>
-      <c r="L29" s="66"/>
-      <c r="M29" s="65"/>
-      <c r="N29" s="67"/>
-      <c r="O29" s="67"/>
-      <c r="P29" s="66"/>
+      <c r="J29" s="67"/>
+      <c r="K29" s="68"/>
+      <c r="L29" s="69"/>
+      <c r="M29" s="68"/>
+      <c r="N29" s="70"/>
+      <c r="O29" s="70"/>
+      <c r="P29" s="69"/>
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="30"/>
       <c r="B30" s="8">
         <v>1</v>
       </c>
-      <c r="C30" s="56" t="s">
+      <c r="C30" s="59" t="s">
         <v>254</v>
       </c>
-      <c r="D30" s="57"/>
-      <c r="E30" s="58"/>
+      <c r="D30" s="60"/>
+      <c r="E30" s="61"/>
       <c r="F30" s="3"/>
-      <c r="G30" s="56" t="s">
+      <c r="G30" s="59" t="s">
         <v>254</v>
       </c>
-      <c r="H30" s="58"/>
+      <c r="H30" s="61"/>
       <c r="I30" s="3"/>
       <c r="J30" s="4"/>
-      <c r="K30" s="59"/>
-      <c r="L30" s="60"/>
-      <c r="M30" s="59"/>
-      <c r="N30" s="61"/>
-      <c r="O30" s="61"/>
-      <c r="P30" s="60"/>
+      <c r="K30" s="62"/>
+      <c r="L30" s="63"/>
+      <c r="M30" s="62"/>
+      <c r="N30" s="64"/>
+      <c r="O30" s="64"/>
+      <c r="P30" s="63"/>
     </row>
     <row r="31" spans="1:16">
       <c r="A31" s="30"/>
-      <c r="B31" s="56"/>
-      <c r="C31" s="57"/>
-      <c r="D31" s="57"/>
-      <c r="E31" s="58"/>
+      <c r="B31" s="59"/>
+      <c r="C31" s="60"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="61"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="56"/>
-      <c r="H31" s="58"/>
+      <c r="G31" s="59"/>
+      <c r="H31" s="61"/>
       <c r="I31" s="3"/>
       <c r="J31" s="4"/>
-      <c r="K31" s="59"/>
-      <c r="L31" s="60"/>
-      <c r="M31" s="59"/>
-      <c r="N31" s="61"/>
-      <c r="O31" s="61"/>
-      <c r="P31" s="60"/>
+      <c r="K31" s="62"/>
+      <c r="L31" s="63"/>
+      <c r="M31" s="62"/>
+      <c r="N31" s="64"/>
+      <c r="O31" s="64"/>
+      <c r="P31" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="49">
@@ -7009,7 +5956,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70090909-6FEC-4A13-BB6C-D86D907DAE18}">
   <dimension ref="A1:P31"/>
   <sheetViews>
@@ -7676,33 +6623,33 @@
       <c r="P21" s="1"/>
     </row>
     <row r="23" spans="1:16">
-      <c r="A23" s="73" t="s">
+      <c r="A23" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="74"/>
-      <c r="C23" s="74"/>
-      <c r="D23" s="74"/>
-      <c r="E23" s="74"/>
-      <c r="F23" s="74"/>
-      <c r="G23" s="74"/>
-      <c r="H23" s="74"/>
-      <c r="I23" s="74"/>
-      <c r="J23" s="74"/>
-      <c r="K23" s="74"/>
-      <c r="L23" s="74"/>
-      <c r="M23" s="74"/>
-      <c r="N23" s="74"/>
-      <c r="O23" s="74"/>
-      <c r="P23" s="75"/>
+      <c r="B23" s="77"/>
+      <c r="C23" s="77"/>
+      <c r="D23" s="77"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="77"/>
+      <c r="H23" s="77"/>
+      <c r="I23" s="77"/>
+      <c r="J23" s="77"/>
+      <c r="K23" s="77"/>
+      <c r="L23" s="77"/>
+      <c r="M23" s="77"/>
+      <c r="N23" s="77"/>
+      <c r="O23" s="77"/>
+      <c r="P23" s="78"/>
     </row>
     <row r="24" spans="1:16">
       <c r="A24" s="29">
         <v>1</v>
       </c>
-      <c r="B24" s="68" t="s">
+      <c r="B24" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="69"/>
+      <c r="C24" s="72"/>
       <c r="D24" s="34" t="s">
         <v>255</v>
       </c>
@@ -7716,23 +6663,23 @@
       </c>
       <c r="I24" s="36"/>
       <c r="J24" s="35"/>
-      <c r="K24" s="62" t="s">
+      <c r="K24" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="L24" s="64"/>
-      <c r="M24" s="76" t="s">
+      <c r="L24" s="67"/>
+      <c r="M24" s="73" t="s">
         <v>250</v>
       </c>
-      <c r="N24" s="77"/>
-      <c r="O24" s="77"/>
-      <c r="P24" s="78"/>
+      <c r="N24" s="74"/>
+      <c r="O24" s="74"/>
+      <c r="P24" s="75"/>
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="30"/>
-      <c r="B25" s="68" t="s">
+      <c r="B25" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="69"/>
+      <c r="C25" s="72"/>
       <c r="D25" s="34" t="s">
         <v>258</v>
       </c>
@@ -7746,10 +6693,10 @@
       </c>
       <c r="I25" s="36"/>
       <c r="J25" s="35"/>
-      <c r="K25" s="62" t="s">
+      <c r="K25" s="65" t="s">
         <v>66</v>
       </c>
-      <c r="L25" s="64"/>
+      <c r="L25" s="67"/>
       <c r="M25" s="53" t="s">
         <v>67</v>
       </c>
@@ -7759,10 +6706,10 @@
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="30"/>
-      <c r="B26" s="68" t="s">
+      <c r="B26" s="71" t="s">
         <v>98</v>
       </c>
-      <c r="C26" s="69"/>
+      <c r="C26" s="72"/>
       <c r="D26" s="34" t="s">
         <v>344</v>
       </c>
@@ -7785,10 +6732,10 @@
     </row>
     <row r="27" spans="1:16">
       <c r="A27" s="30"/>
-      <c r="B27" s="68" t="s">
+      <c r="B27" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="69"/>
+      <c r="C27" s="72"/>
       <c r="D27" s="34"/>
       <c r="E27" s="36"/>
       <c r="F27" s="36"/>
@@ -7796,10 +6743,10 @@
       <c r="H27" s="36"/>
       <c r="I27" s="36"/>
       <c r="J27" s="35"/>
-      <c r="K27" s="62" t="s">
+      <c r="K27" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="L27" s="64"/>
+      <c r="L27" s="67"/>
       <c r="M27" s="53" t="s">
         <v>141</v>
       </c>
@@ -7809,93 +6756,93 @@
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="30"/>
-      <c r="B28" s="70" t="s">
+      <c r="B28" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="71"/>
-      <c r="D28" s="71"/>
-      <c r="E28" s="71"/>
-      <c r="F28" s="71"/>
-      <c r="G28" s="71"/>
-      <c r="H28" s="71"/>
-      <c r="I28" s="71"/>
-      <c r="J28" s="72"/>
-      <c r="K28" s="70"/>
-      <c r="L28" s="72"/>
-      <c r="M28" s="70"/>
-      <c r="N28" s="71"/>
-      <c r="O28" s="71"/>
-      <c r="P28" s="72"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="57"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="57"/>
+      <c r="J28" s="58"/>
+      <c r="K28" s="56"/>
+      <c r="L28" s="58"/>
+      <c r="M28" s="56"/>
+      <c r="N28" s="57"/>
+      <c r="O28" s="57"/>
+      <c r="P28" s="58"/>
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="30"/>
       <c r="B29" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="62" t="s">
+      <c r="C29" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="63"/>
-      <c r="E29" s="64"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="67"/>
       <c r="F29" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G29" s="62" t="s">
+      <c r="G29" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="H29" s="64"/>
-      <c r="I29" s="62" t="s">
+      <c r="H29" s="67"/>
+      <c r="I29" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="J29" s="64"/>
-      <c r="K29" s="65"/>
-      <c r="L29" s="66"/>
-      <c r="M29" s="65"/>
-      <c r="N29" s="67"/>
-      <c r="O29" s="67"/>
-      <c r="P29" s="66"/>
+      <c r="J29" s="67"/>
+      <c r="K29" s="68"/>
+      <c r="L29" s="69"/>
+      <c r="M29" s="68"/>
+      <c r="N29" s="70"/>
+      <c r="O29" s="70"/>
+      <c r="P29" s="69"/>
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="30"/>
       <c r="B30" s="8">
         <v>1</v>
       </c>
-      <c r="C30" s="56" t="s">
+      <c r="C30" s="59" t="s">
         <v>254</v>
       </c>
-      <c r="D30" s="57"/>
-      <c r="E30" s="58"/>
+      <c r="D30" s="60"/>
+      <c r="E30" s="61"/>
       <c r="F30" s="3"/>
-      <c r="G30" s="56" t="s">
+      <c r="G30" s="59" t="s">
         <v>254</v>
       </c>
-      <c r="H30" s="58"/>
+      <c r="H30" s="61"/>
       <c r="I30" s="3"/>
       <c r="J30" s="4"/>
-      <c r="K30" s="59"/>
-      <c r="L30" s="60"/>
-      <c r="M30" s="59"/>
-      <c r="N30" s="61"/>
-      <c r="O30" s="61"/>
-      <c r="P30" s="60"/>
+      <c r="K30" s="62"/>
+      <c r="L30" s="63"/>
+      <c r="M30" s="62"/>
+      <c r="N30" s="64"/>
+      <c r="O30" s="64"/>
+      <c r="P30" s="63"/>
     </row>
     <row r="31" spans="1:16">
       <c r="A31" s="30"/>
-      <c r="B31" s="56"/>
-      <c r="C31" s="57"/>
-      <c r="D31" s="57"/>
-      <c r="E31" s="58"/>
+      <c r="B31" s="59"/>
+      <c r="C31" s="60"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="61"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="56"/>
-      <c r="H31" s="58"/>
+      <c r="G31" s="59"/>
+      <c r="H31" s="61"/>
       <c r="I31" s="3"/>
       <c r="J31" s="4"/>
-      <c r="K31" s="59"/>
-      <c r="L31" s="60"/>
-      <c r="M31" s="59"/>
-      <c r="N31" s="61"/>
-      <c r="O31" s="61"/>
-      <c r="P31" s="60"/>
+      <c r="K31" s="62"/>
+      <c r="L31" s="63"/>
+      <c r="M31" s="62"/>
+      <c r="N31" s="64"/>
+      <c r="O31" s="64"/>
+      <c r="P31" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="49">
@@ -7959,7 +6906,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC0BA8A4-9C3E-4604-A099-A93C4C69087F}">
   <dimension ref="A1:P35"/>
   <sheetViews>
@@ -8732,33 +7679,33 @@
       <c r="P25" s="1"/>
     </row>
     <row r="27" spans="1:16">
-      <c r="A27" s="73" t="s">
+      <c r="A27" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="74"/>
-      <c r="C27" s="74"/>
-      <c r="D27" s="74"/>
-      <c r="E27" s="74"/>
-      <c r="F27" s="74"/>
-      <c r="G27" s="74"/>
-      <c r="H27" s="74"/>
-      <c r="I27" s="74"/>
-      <c r="J27" s="74"/>
-      <c r="K27" s="74"/>
-      <c r="L27" s="74"/>
-      <c r="M27" s="74"/>
-      <c r="N27" s="74"/>
-      <c r="O27" s="74"/>
-      <c r="P27" s="75"/>
+      <c r="B27" s="77"/>
+      <c r="C27" s="77"/>
+      <c r="D27" s="77"/>
+      <c r="E27" s="77"/>
+      <c r="F27" s="77"/>
+      <c r="G27" s="77"/>
+      <c r="H27" s="77"/>
+      <c r="I27" s="77"/>
+      <c r="J27" s="77"/>
+      <c r="K27" s="77"/>
+      <c r="L27" s="77"/>
+      <c r="M27" s="77"/>
+      <c r="N27" s="77"/>
+      <c r="O27" s="77"/>
+      <c r="P27" s="78"/>
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="29">
         <v>1</v>
       </c>
-      <c r="B28" s="68" t="s">
+      <c r="B28" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="69"/>
+      <c r="C28" s="72"/>
       <c r="D28" s="34" t="s">
         <v>255</v>
       </c>
@@ -8772,23 +7719,23 @@
       </c>
       <c r="I28" s="36"/>
       <c r="J28" s="35"/>
-      <c r="K28" s="62" t="s">
+      <c r="K28" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="L28" s="64"/>
-      <c r="M28" s="76" t="s">
+      <c r="L28" s="67"/>
+      <c r="M28" s="73" t="s">
         <v>250</v>
       </c>
-      <c r="N28" s="77"/>
-      <c r="O28" s="77"/>
-      <c r="P28" s="78"/>
+      <c r="N28" s="74"/>
+      <c r="O28" s="74"/>
+      <c r="P28" s="75"/>
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="30"/>
-      <c r="B29" s="68" t="s">
+      <c r="B29" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="69"/>
+      <c r="C29" s="72"/>
       <c r="D29" s="34" t="s">
         <v>258</v>
       </c>
@@ -8802,10 +7749,10 @@
       </c>
       <c r="I29" s="36"/>
       <c r="J29" s="35"/>
-      <c r="K29" s="62" t="s">
+      <c r="K29" s="65" t="s">
         <v>66</v>
       </c>
-      <c r="L29" s="64"/>
+      <c r="L29" s="67"/>
       <c r="M29" s="53" t="s">
         <v>67</v>
       </c>
@@ -8815,10 +7762,10 @@
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="30"/>
-      <c r="B30" s="68" t="s">
+      <c r="B30" s="71" t="s">
         <v>98</v>
       </c>
-      <c r="C30" s="69"/>
+      <c r="C30" s="72"/>
       <c r="D30" s="34" t="s">
         <v>342</v>
       </c>
@@ -8832,10 +7779,10 @@
       </c>
       <c r="I30" s="36"/>
       <c r="J30" s="35"/>
-      <c r="K30" s="62" t="s">
+      <c r="K30" s="65" t="s">
         <v>478</v>
       </c>
-      <c r="L30" s="64"/>
+      <c r="L30" s="67"/>
       <c r="M30" s="53"/>
       <c r="N30" s="54"/>
       <c r="O30" s="54"/>
@@ -8843,10 +7790,10 @@
     </row>
     <row r="31" spans="1:16">
       <c r="A31" s="30"/>
-      <c r="B31" s="68" t="s">
+      <c r="B31" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="69"/>
+      <c r="C31" s="72"/>
       <c r="D31" s="34"/>
       <c r="E31" s="36"/>
       <c r="F31" s="36"/>
@@ -8854,10 +7801,10 @@
       <c r="H31" s="36"/>
       <c r="I31" s="36"/>
       <c r="J31" s="35"/>
-      <c r="K31" s="62" t="s">
+      <c r="K31" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="L31" s="64"/>
+      <c r="L31" s="67"/>
       <c r="M31" s="53" t="s">
         <v>141</v>
       </c>
@@ -8867,93 +7814,93 @@
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="30"/>
-      <c r="B32" s="70" t="s">
+      <c r="B32" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="C32" s="71"/>
-      <c r="D32" s="71"/>
-      <c r="E32" s="71"/>
-      <c r="F32" s="71"/>
-      <c r="G32" s="71"/>
-      <c r="H32" s="71"/>
-      <c r="I32" s="71"/>
-      <c r="J32" s="72"/>
-      <c r="K32" s="70"/>
-      <c r="L32" s="72"/>
-      <c r="M32" s="70"/>
-      <c r="N32" s="71"/>
-      <c r="O32" s="71"/>
-      <c r="P32" s="72"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="57"/>
+      <c r="G32" s="57"/>
+      <c r="H32" s="57"/>
+      <c r="I32" s="57"/>
+      <c r="J32" s="58"/>
+      <c r="K32" s="56"/>
+      <c r="L32" s="58"/>
+      <c r="M32" s="56"/>
+      <c r="N32" s="57"/>
+      <c r="O32" s="57"/>
+      <c r="P32" s="58"/>
     </row>
     <row r="33" spans="1:16">
       <c r="A33" s="30"/>
       <c r="B33" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="62" t="s">
+      <c r="C33" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="D33" s="63"/>
-      <c r="E33" s="64"/>
+      <c r="D33" s="66"/>
+      <c r="E33" s="67"/>
       <c r="F33" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G33" s="62" t="s">
+      <c r="G33" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="H33" s="64"/>
-      <c r="I33" s="62" t="s">
+      <c r="H33" s="67"/>
+      <c r="I33" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="J33" s="64"/>
-      <c r="K33" s="65"/>
-      <c r="L33" s="66"/>
-      <c r="M33" s="65"/>
-      <c r="N33" s="67"/>
-      <c r="O33" s="67"/>
-      <c r="P33" s="66"/>
+      <c r="J33" s="67"/>
+      <c r="K33" s="68"/>
+      <c r="L33" s="69"/>
+      <c r="M33" s="68"/>
+      <c r="N33" s="70"/>
+      <c r="O33" s="70"/>
+      <c r="P33" s="69"/>
     </row>
     <row r="34" spans="1:16">
       <c r="A34" s="30"/>
       <c r="B34" s="8">
         <v>1</v>
       </c>
-      <c r="C34" s="56" t="s">
+      <c r="C34" s="59" t="s">
         <v>254</v>
       </c>
-      <c r="D34" s="57"/>
-      <c r="E34" s="58"/>
+      <c r="D34" s="60"/>
+      <c r="E34" s="61"/>
       <c r="F34" s="3"/>
-      <c r="G34" s="56" t="s">
+      <c r="G34" s="59" t="s">
         <v>254</v>
       </c>
-      <c r="H34" s="58"/>
+      <c r="H34" s="61"/>
       <c r="I34" s="3"/>
       <c r="J34" s="4"/>
-      <c r="K34" s="59"/>
-      <c r="L34" s="60"/>
-      <c r="M34" s="59"/>
-      <c r="N34" s="61"/>
-      <c r="O34" s="61"/>
-      <c r="P34" s="60"/>
+      <c r="K34" s="62"/>
+      <c r="L34" s="63"/>
+      <c r="M34" s="62"/>
+      <c r="N34" s="64"/>
+      <c r="O34" s="64"/>
+      <c r="P34" s="63"/>
     </row>
     <row r="35" spans="1:16">
       <c r="A35" s="30"/>
-      <c r="B35" s="56"/>
-      <c r="C35" s="57"/>
-      <c r="D35" s="57"/>
-      <c r="E35" s="58"/>
+      <c r="B35" s="59"/>
+      <c r="C35" s="60"/>
+      <c r="D35" s="60"/>
+      <c r="E35" s="61"/>
       <c r="F35" s="3"/>
-      <c r="G35" s="56"/>
-      <c r="H35" s="58"/>
+      <c r="G35" s="59"/>
+      <c r="H35" s="61"/>
       <c r="I35" s="3"/>
       <c r="J35" s="4"/>
-      <c r="K35" s="59"/>
-      <c r="L35" s="60"/>
-      <c r="M35" s="59"/>
-      <c r="N35" s="61"/>
-      <c r="O35" s="61"/>
-      <c r="P35" s="60"/>
+      <c r="K35" s="62"/>
+      <c r="L35" s="63"/>
+      <c r="M35" s="62"/>
+      <c r="N35" s="64"/>
+      <c r="O35" s="64"/>
+      <c r="P35" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="50">
@@ -9018,7 +7965,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68F89B88-34E8-484E-A694-177B0E94136A}">
   <dimension ref="A1:P51"/>
   <sheetViews>
@@ -10047,33 +8994,33 @@
       <c r="P33" s="1"/>
     </row>
     <row r="35" spans="1:16">
-      <c r="A35" s="73" t="s">
+      <c r="A35" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="B35" s="74"/>
-      <c r="C35" s="74"/>
-      <c r="D35" s="74"/>
-      <c r="E35" s="74"/>
-      <c r="F35" s="74"/>
-      <c r="G35" s="74"/>
-      <c r="H35" s="74"/>
-      <c r="I35" s="74"/>
-      <c r="J35" s="74"/>
-      <c r="K35" s="74"/>
-      <c r="L35" s="74"/>
-      <c r="M35" s="74"/>
-      <c r="N35" s="74"/>
-      <c r="O35" s="74"/>
-      <c r="P35" s="75"/>
+      <c r="B35" s="77"/>
+      <c r="C35" s="77"/>
+      <c r="D35" s="77"/>
+      <c r="E35" s="77"/>
+      <c r="F35" s="77"/>
+      <c r="G35" s="77"/>
+      <c r="H35" s="77"/>
+      <c r="I35" s="77"/>
+      <c r="J35" s="77"/>
+      <c r="K35" s="77"/>
+      <c r="L35" s="77"/>
+      <c r="M35" s="77"/>
+      <c r="N35" s="77"/>
+      <c r="O35" s="77"/>
+      <c r="P35" s="78"/>
     </row>
     <row r="36" spans="1:16">
       <c r="A36" s="29">
         <v>1</v>
       </c>
-      <c r="B36" s="68" t="s">
+      <c r="B36" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="69"/>
+      <c r="C36" s="72"/>
       <c r="D36" s="34" t="s">
         <v>313</v>
       </c>
@@ -10087,23 +9034,23 @@
       </c>
       <c r="I36" s="36"/>
       <c r="J36" s="35"/>
-      <c r="K36" s="62" t="s">
+      <c r="K36" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="L36" s="64"/>
-      <c r="M36" s="76" t="s">
+      <c r="L36" s="67"/>
+      <c r="M36" s="73" t="s">
         <v>315</v>
       </c>
-      <c r="N36" s="77"/>
-      <c r="O36" s="77"/>
-      <c r="P36" s="78"/>
+      <c r="N36" s="74"/>
+      <c r="O36" s="74"/>
+      <c r="P36" s="75"/>
     </row>
     <row r="37" spans="1:16">
       <c r="A37" s="30"/>
-      <c r="B37" s="68" t="s">
+      <c r="B37" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="C37" s="69"/>
+      <c r="C37" s="72"/>
       <c r="D37" s="34" t="s">
         <v>258</v>
       </c>
@@ -10117,10 +9064,10 @@
       </c>
       <c r="I37" s="36"/>
       <c r="J37" s="35"/>
-      <c r="K37" s="62" t="s">
+      <c r="K37" s="65" t="s">
         <v>66</v>
       </c>
-      <c r="L37" s="64"/>
+      <c r="L37" s="67"/>
       <c r="M37" s="53" t="s">
         <v>67</v>
       </c>
@@ -10130,10 +9077,10 @@
     </row>
     <row r="38" spans="1:16">
       <c r="A38" s="30"/>
-      <c r="B38" s="68" t="s">
+      <c r="B38" s="71" t="s">
         <v>98</v>
       </c>
-      <c r="C38" s="69"/>
+      <c r="C38" s="72"/>
       <c r="D38" s="34"/>
       <c r="E38" s="36"/>
       <c r="F38" s="36"/>
@@ -10143,10 +9090,10 @@
       <c r="H38" s="36"/>
       <c r="I38" s="36"/>
       <c r="J38" s="35"/>
-      <c r="K38" s="62" t="s">
+      <c r="K38" s="65" t="s">
         <v>478</v>
       </c>
-      <c r="L38" s="64"/>
+      <c r="L38" s="67"/>
       <c r="M38" s="53" t="s">
         <v>479</v>
       </c>
@@ -10160,10 +9107,10 @@
     </row>
     <row r="39" spans="1:16">
       <c r="A39" s="30"/>
-      <c r="B39" s="68" t="s">
+      <c r="B39" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="C39" s="69"/>
+      <c r="C39" s="72"/>
       <c r="D39" s="34"/>
       <c r="E39" s="36"/>
       <c r="F39" s="36"/>
@@ -10171,10 +9118,10 @@
       <c r="H39" s="36"/>
       <c r="I39" s="36"/>
       <c r="J39" s="35"/>
-      <c r="K39" s="62" t="s">
+      <c r="K39" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="L39" s="64"/>
+      <c r="L39" s="67"/>
       <c r="M39" s="53" t="s">
         <v>141</v>
       </c>
@@ -10184,102 +9131,102 @@
     </row>
     <row r="40" spans="1:16">
       <c r="A40" s="30"/>
-      <c r="B40" s="70" t="s">
+      <c r="B40" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="C40" s="71"/>
-      <c r="D40" s="71"/>
-      <c r="E40" s="71"/>
-      <c r="F40" s="71"/>
-      <c r="G40" s="71"/>
-      <c r="H40" s="71"/>
-      <c r="I40" s="71"/>
-      <c r="J40" s="72"/>
-      <c r="K40" s="70"/>
-      <c r="L40" s="72"/>
-      <c r="M40" s="70"/>
-      <c r="N40" s="71"/>
-      <c r="O40" s="71"/>
-      <c r="P40" s="72"/>
+      <c r="C40" s="57"/>
+      <c r="D40" s="57"/>
+      <c r="E40" s="57"/>
+      <c r="F40" s="57"/>
+      <c r="G40" s="57"/>
+      <c r="H40" s="57"/>
+      <c r="I40" s="57"/>
+      <c r="J40" s="58"/>
+      <c r="K40" s="56"/>
+      <c r="L40" s="58"/>
+      <c r="M40" s="56"/>
+      <c r="N40" s="57"/>
+      <c r="O40" s="57"/>
+      <c r="P40" s="58"/>
     </row>
     <row r="41" spans="1:16">
       <c r="A41" s="30"/>
       <c r="B41" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C41" s="62" t="s">
+      <c r="C41" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="D41" s="63"/>
-      <c r="E41" s="64"/>
+      <c r="D41" s="66"/>
+      <c r="E41" s="67"/>
       <c r="F41" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G41" s="62" t="s">
+      <c r="G41" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="H41" s="64"/>
-      <c r="I41" s="62" t="s">
+      <c r="H41" s="67"/>
+      <c r="I41" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="J41" s="64"/>
-      <c r="K41" s="65"/>
-      <c r="L41" s="66"/>
-      <c r="M41" s="65"/>
-      <c r="N41" s="67"/>
-      <c r="O41" s="67"/>
-      <c r="P41" s="66"/>
+      <c r="J41" s="67"/>
+      <c r="K41" s="68"/>
+      <c r="L41" s="69"/>
+      <c r="M41" s="68"/>
+      <c r="N41" s="70"/>
+      <c r="O41" s="70"/>
+      <c r="P41" s="69"/>
     </row>
     <row r="42" spans="1:16">
       <c r="A42" s="30"/>
       <c r="B42" s="8">
         <v>1</v>
       </c>
-      <c r="C42" s="56" t="s">
+      <c r="C42" s="59" t="s">
         <v>316</v>
       </c>
-      <c r="D42" s="57"/>
-      <c r="E42" s="58"/>
+      <c r="D42" s="60"/>
+      <c r="E42" s="61"/>
       <c r="F42" s="3"/>
-      <c r="G42" s="56" t="s">
+      <c r="G42" s="59" t="s">
         <v>316</v>
       </c>
-      <c r="H42" s="58"/>
+      <c r="H42" s="61"/>
       <c r="I42" s="3"/>
       <c r="J42" s="4"/>
-      <c r="K42" s="59"/>
-      <c r="L42" s="60"/>
-      <c r="M42" s="59"/>
-      <c r="N42" s="61"/>
-      <c r="O42" s="61"/>
-      <c r="P42" s="60"/>
+      <c r="K42" s="62"/>
+      <c r="L42" s="63"/>
+      <c r="M42" s="62"/>
+      <c r="N42" s="64"/>
+      <c r="O42" s="64"/>
+      <c r="P42" s="63"/>
     </row>
     <row r="43" spans="1:16">
       <c r="A43" s="30"/>
-      <c r="B43" s="56"/>
-      <c r="C43" s="57"/>
-      <c r="D43" s="57"/>
-      <c r="E43" s="58"/>
+      <c r="B43" s="59"/>
+      <c r="C43" s="60"/>
+      <c r="D43" s="60"/>
+      <c r="E43" s="61"/>
       <c r="F43" s="3"/>
-      <c r="G43" s="56"/>
-      <c r="H43" s="58"/>
+      <c r="G43" s="59"/>
+      <c r="H43" s="61"/>
       <c r="I43" s="3"/>
       <c r="J43" s="4"/>
-      <c r="K43" s="59"/>
-      <c r="L43" s="60"/>
-      <c r="M43" s="59"/>
-      <c r="N43" s="61"/>
-      <c r="O43" s="61"/>
-      <c r="P43" s="60"/>
+      <c r="K43" s="62"/>
+      <c r="L43" s="63"/>
+      <c r="M43" s="62"/>
+      <c r="N43" s="64"/>
+      <c r="O43" s="64"/>
+      <c r="P43" s="63"/>
     </row>
     <row r="44" spans="1:16">
       <c r="A44" s="29">
         <v>2</v>
       </c>
-      <c r="B44" s="68" t="s">
+      <c r="B44" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="C44" s="69"/>
+      <c r="C44" s="72"/>
       <c r="D44" s="34" t="s">
         <v>366</v>
       </c>
@@ -10291,23 +9238,23 @@
       <c r="H44" s="34"/>
       <c r="I44" s="36"/>
       <c r="J44" s="35"/>
-      <c r="K44" s="62" t="s">
+      <c r="K44" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="L44" s="64"/>
-      <c r="M44" s="76" t="s">
+      <c r="L44" s="67"/>
+      <c r="M44" s="73" t="s">
         <v>367</v>
       </c>
-      <c r="N44" s="77"/>
-      <c r="O44" s="77"/>
-      <c r="P44" s="78"/>
+      <c r="N44" s="74"/>
+      <c r="O44" s="74"/>
+      <c r="P44" s="75"/>
     </row>
     <row r="45" spans="1:16">
       <c r="A45" s="30"/>
-      <c r="B45" s="68" t="s">
+      <c r="B45" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="C45" s="69"/>
+      <c r="C45" s="72"/>
       <c r="D45" s="34" t="s">
         <v>8</v>
       </c>
@@ -10321,10 +9268,10 @@
       </c>
       <c r="I45" s="36"/>
       <c r="J45" s="35"/>
-      <c r="K45" s="62" t="s">
+      <c r="K45" s="65" t="s">
         <v>66</v>
       </c>
-      <c r="L45" s="64"/>
+      <c r="L45" s="67"/>
       <c r="M45" s="53" t="s">
         <v>67</v>
       </c>
@@ -10334,10 +9281,10 @@
     </row>
     <row r="46" spans="1:16">
       <c r="A46" s="30"/>
-      <c r="B46" s="68" t="s">
+      <c r="B46" s="71" t="s">
         <v>98</v>
       </c>
-      <c r="C46" s="69"/>
+      <c r="C46" s="72"/>
       <c r="D46" s="34"/>
       <c r="E46" s="36"/>
       <c r="F46" s="36"/>
@@ -10356,10 +9303,10 @@
     </row>
     <row r="47" spans="1:16">
       <c r="A47" s="30"/>
-      <c r="B47" s="68" t="s">
+      <c r="B47" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="C47" s="69"/>
+      <c r="C47" s="72"/>
       <c r="D47" s="34"/>
       <c r="E47" s="36"/>
       <c r="F47" s="36"/>
@@ -10367,10 +9314,10 @@
       <c r="H47" s="36"/>
       <c r="I47" s="36"/>
       <c r="J47" s="35"/>
-      <c r="K47" s="62" t="s">
+      <c r="K47" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="L47" s="64"/>
+      <c r="L47" s="67"/>
       <c r="M47" s="53" t="s">
         <v>102</v>
       </c>
@@ -10380,93 +9327,93 @@
     </row>
     <row r="48" spans="1:16">
       <c r="A48" s="30"/>
-      <c r="B48" s="70" t="s">
+      <c r="B48" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="C48" s="71"/>
-      <c r="D48" s="71"/>
-      <c r="E48" s="71"/>
-      <c r="F48" s="71"/>
-      <c r="G48" s="71"/>
-      <c r="H48" s="71"/>
-      <c r="I48" s="71"/>
-      <c r="J48" s="72"/>
-      <c r="K48" s="70"/>
-      <c r="L48" s="72"/>
-      <c r="M48" s="70"/>
-      <c r="N48" s="71"/>
-      <c r="O48" s="71"/>
-      <c r="P48" s="72"/>
+      <c r="C48" s="57"/>
+      <c r="D48" s="57"/>
+      <c r="E48" s="57"/>
+      <c r="F48" s="57"/>
+      <c r="G48" s="57"/>
+      <c r="H48" s="57"/>
+      <c r="I48" s="57"/>
+      <c r="J48" s="58"/>
+      <c r="K48" s="56"/>
+      <c r="L48" s="58"/>
+      <c r="M48" s="56"/>
+      <c r="N48" s="57"/>
+      <c r="O48" s="57"/>
+      <c r="P48" s="58"/>
     </row>
     <row r="49" spans="1:16">
       <c r="A49" s="30"/>
       <c r="B49" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C49" s="62" t="s">
+      <c r="C49" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="D49" s="63"/>
-      <c r="E49" s="64"/>
+      <c r="D49" s="66"/>
+      <c r="E49" s="67"/>
       <c r="F49" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G49" s="62" t="s">
+      <c r="G49" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="H49" s="64"/>
-      <c r="I49" s="62" t="s">
+      <c r="H49" s="67"/>
+      <c r="I49" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="J49" s="64"/>
-      <c r="K49" s="65"/>
-      <c r="L49" s="66"/>
-      <c r="M49" s="65"/>
-      <c r="N49" s="67"/>
-      <c r="O49" s="67"/>
-      <c r="P49" s="66"/>
+      <c r="J49" s="67"/>
+      <c r="K49" s="68"/>
+      <c r="L49" s="69"/>
+      <c r="M49" s="68"/>
+      <c r="N49" s="70"/>
+      <c r="O49" s="70"/>
+      <c r="P49" s="69"/>
     </row>
     <row r="50" spans="1:16">
       <c r="A50" s="30"/>
       <c r="B50" s="8">
         <v>1</v>
       </c>
-      <c r="C50" s="56" t="s">
+      <c r="C50" s="59" t="s">
         <v>368</v>
       </c>
-      <c r="D50" s="57"/>
-      <c r="E50" s="58"/>
+      <c r="D50" s="60"/>
+      <c r="E50" s="61"/>
       <c r="F50" s="3"/>
-      <c r="G50" s="56" t="s">
+      <c r="G50" s="59" t="s">
         <v>368</v>
       </c>
-      <c r="H50" s="58"/>
+      <c r="H50" s="61"/>
       <c r="I50" s="3"/>
       <c r="J50" s="4"/>
-      <c r="K50" s="59"/>
-      <c r="L50" s="60"/>
-      <c r="M50" s="59"/>
-      <c r="N50" s="61"/>
-      <c r="O50" s="61"/>
-      <c r="P50" s="60"/>
+      <c r="K50" s="62"/>
+      <c r="L50" s="63"/>
+      <c r="M50" s="62"/>
+      <c r="N50" s="64"/>
+      <c r="O50" s="64"/>
+      <c r="P50" s="63"/>
     </row>
     <row r="51" spans="1:16">
       <c r="A51" s="30"/>
-      <c r="B51" s="56"/>
-      <c r="C51" s="57"/>
-      <c r="D51" s="57"/>
-      <c r="E51" s="58"/>
+      <c r="B51" s="59"/>
+      <c r="C51" s="60"/>
+      <c r="D51" s="60"/>
+      <c r="E51" s="61"/>
       <c r="F51" s="3"/>
-      <c r="G51" s="56"/>
-      <c r="H51" s="58"/>
+      <c r="G51" s="59"/>
+      <c r="H51" s="61"/>
       <c r="I51" s="3"/>
       <c r="J51" s="4"/>
-      <c r="K51" s="59"/>
-      <c r="L51" s="60"/>
-      <c r="M51" s="59"/>
-      <c r="N51" s="61"/>
-      <c r="O51" s="61"/>
-      <c r="P51" s="60"/>
+      <c r="K51" s="62"/>
+      <c r="L51" s="63"/>
+      <c r="M51" s="62"/>
+      <c r="N51" s="64"/>
+      <c r="O51" s="64"/>
+      <c r="P51" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="85">
@@ -10566,7 +9513,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D66624B-686C-432C-B2AF-E2E183AF36AB}">
   <dimension ref="A1:P47"/>
   <sheetViews>
@@ -11465,33 +10412,33 @@
       <c r="P29" s="1"/>
     </row>
     <row r="31" spans="1:16">
-      <c r="A31" s="73" t="s">
+      <c r="A31" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="74"/>
-      <c r="C31" s="74"/>
-      <c r="D31" s="74"/>
-      <c r="E31" s="74"/>
-      <c r="F31" s="74"/>
-      <c r="G31" s="74"/>
-      <c r="H31" s="74"/>
-      <c r="I31" s="74"/>
-      <c r="J31" s="74"/>
-      <c r="K31" s="74"/>
-      <c r="L31" s="74"/>
-      <c r="M31" s="74"/>
-      <c r="N31" s="74"/>
-      <c r="O31" s="74"/>
-      <c r="P31" s="75"/>
+      <c r="B31" s="77"/>
+      <c r="C31" s="77"/>
+      <c r="D31" s="77"/>
+      <c r="E31" s="77"/>
+      <c r="F31" s="77"/>
+      <c r="G31" s="77"/>
+      <c r="H31" s="77"/>
+      <c r="I31" s="77"/>
+      <c r="J31" s="77"/>
+      <c r="K31" s="77"/>
+      <c r="L31" s="77"/>
+      <c r="M31" s="77"/>
+      <c r="N31" s="77"/>
+      <c r="O31" s="77"/>
+      <c r="P31" s="78"/>
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="29">
         <v>1</v>
       </c>
-      <c r="B32" s="68" t="s">
+      <c r="B32" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="69"/>
+      <c r="C32" s="72"/>
       <c r="D32" s="34" t="s">
         <v>313</v>
       </c>
@@ -11505,23 +10452,23 @@
       </c>
       <c r="I32" s="36"/>
       <c r="J32" s="35"/>
-      <c r="K32" s="62" t="s">
+      <c r="K32" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="L32" s="64"/>
-      <c r="M32" s="76" t="s">
+      <c r="L32" s="67"/>
+      <c r="M32" s="73" t="s">
         <v>315</v>
       </c>
-      <c r="N32" s="77"/>
-      <c r="O32" s="77"/>
-      <c r="P32" s="78"/>
+      <c r="N32" s="74"/>
+      <c r="O32" s="74"/>
+      <c r="P32" s="75"/>
     </row>
     <row r="33" spans="1:16">
       <c r="A33" s="30"/>
-      <c r="B33" s="68" t="s">
+      <c r="B33" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="69"/>
+      <c r="C33" s="72"/>
       <c r="D33" s="34" t="s">
         <v>295</v>
       </c>
@@ -11535,10 +10482,10 @@
       </c>
       <c r="I33" s="36"/>
       <c r="J33" s="35"/>
-      <c r="K33" s="62" t="s">
+      <c r="K33" s="65" t="s">
         <v>66</v>
       </c>
-      <c r="L33" s="64"/>
+      <c r="L33" s="67"/>
       <c r="M33" s="53" t="s">
         <v>67</v>
       </c>
@@ -11548,10 +10495,10 @@
     </row>
     <row r="34" spans="1:16">
       <c r="A34" s="30"/>
-      <c r="B34" s="68" t="s">
+      <c r="B34" s="71" t="s">
         <v>98</v>
       </c>
-      <c r="C34" s="69"/>
+      <c r="C34" s="72"/>
       <c r="D34" s="34" t="s">
         <v>602</v>
       </c>
@@ -11574,10 +10521,10 @@
     </row>
     <row r="35" spans="1:16">
       <c r="A35" s="30"/>
-      <c r="B35" s="68" t="s">
+      <c r="B35" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="C35" s="69"/>
+      <c r="C35" s="72"/>
       <c r="D35" s="34"/>
       <c r="E35" s="36"/>
       <c r="F35" s="36"/>
@@ -11585,10 +10532,10 @@
       <c r="H35" s="36"/>
       <c r="I35" s="36"/>
       <c r="J35" s="35"/>
-      <c r="K35" s="62" t="s">
+      <c r="K35" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="L35" s="64"/>
+      <c r="L35" s="67"/>
       <c r="M35" s="53" t="s">
         <v>141</v>
       </c>
@@ -11598,102 +10545,102 @@
     </row>
     <row r="36" spans="1:16">
       <c r="A36" s="30"/>
-      <c r="B36" s="70" t="s">
+      <c r="B36" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="C36" s="71"/>
-      <c r="D36" s="71"/>
-      <c r="E36" s="71"/>
-      <c r="F36" s="71"/>
-      <c r="G36" s="71"/>
-      <c r="H36" s="71"/>
-      <c r="I36" s="71"/>
-      <c r="J36" s="72"/>
-      <c r="K36" s="70"/>
-      <c r="L36" s="72"/>
-      <c r="M36" s="70"/>
-      <c r="N36" s="71"/>
-      <c r="O36" s="71"/>
-      <c r="P36" s="72"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="57"/>
+      <c r="G36" s="57"/>
+      <c r="H36" s="57"/>
+      <c r="I36" s="57"/>
+      <c r="J36" s="58"/>
+      <c r="K36" s="56"/>
+      <c r="L36" s="58"/>
+      <c r="M36" s="56"/>
+      <c r="N36" s="57"/>
+      <c r="O36" s="57"/>
+      <c r="P36" s="58"/>
     </row>
     <row r="37" spans="1:16">
       <c r="A37" s="30"/>
       <c r="B37" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C37" s="62" t="s">
+      <c r="C37" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="D37" s="63"/>
-      <c r="E37" s="64"/>
+      <c r="D37" s="66"/>
+      <c r="E37" s="67"/>
       <c r="F37" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G37" s="62" t="s">
+      <c r="G37" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="H37" s="64"/>
-      <c r="I37" s="62" t="s">
+      <c r="H37" s="67"/>
+      <c r="I37" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="J37" s="64"/>
-      <c r="K37" s="65"/>
-      <c r="L37" s="66"/>
-      <c r="M37" s="65"/>
-      <c r="N37" s="67"/>
-      <c r="O37" s="67"/>
-      <c r="P37" s="66"/>
+      <c r="J37" s="67"/>
+      <c r="K37" s="68"/>
+      <c r="L37" s="69"/>
+      <c r="M37" s="68"/>
+      <c r="N37" s="70"/>
+      <c r="O37" s="70"/>
+      <c r="P37" s="69"/>
     </row>
     <row r="38" spans="1:16">
       <c r="A38" s="30"/>
       <c r="B38" s="8">
         <v>1</v>
       </c>
-      <c r="C38" s="56" t="s">
+      <c r="C38" s="59" t="s">
         <v>316</v>
       </c>
-      <c r="D38" s="57"/>
-      <c r="E38" s="58"/>
+      <c r="D38" s="60"/>
+      <c r="E38" s="61"/>
       <c r="F38" s="3"/>
-      <c r="G38" s="56" t="s">
+      <c r="G38" s="59" t="s">
         <v>316</v>
       </c>
-      <c r="H38" s="58"/>
+      <c r="H38" s="61"/>
       <c r="I38" s="3"/>
       <c r="J38" s="4"/>
-      <c r="K38" s="59"/>
-      <c r="L38" s="60"/>
-      <c r="M38" s="59"/>
-      <c r="N38" s="61"/>
-      <c r="O38" s="61"/>
-      <c r="P38" s="60"/>
+      <c r="K38" s="62"/>
+      <c r="L38" s="63"/>
+      <c r="M38" s="62"/>
+      <c r="N38" s="64"/>
+      <c r="O38" s="64"/>
+      <c r="P38" s="63"/>
     </row>
     <row r="39" spans="1:16">
       <c r="A39" s="30"/>
-      <c r="B39" s="56"/>
-      <c r="C39" s="57"/>
-      <c r="D39" s="57"/>
-      <c r="E39" s="58"/>
+      <c r="B39" s="59"/>
+      <c r="C39" s="60"/>
+      <c r="D39" s="60"/>
+      <c r="E39" s="61"/>
       <c r="F39" s="3"/>
-      <c r="G39" s="56"/>
-      <c r="H39" s="58"/>
+      <c r="G39" s="59"/>
+      <c r="H39" s="61"/>
       <c r="I39" s="3"/>
       <c r="J39" s="4"/>
-      <c r="K39" s="59"/>
-      <c r="L39" s="60"/>
-      <c r="M39" s="59"/>
-      <c r="N39" s="61"/>
-      <c r="O39" s="61"/>
-      <c r="P39" s="60"/>
+      <c r="K39" s="62"/>
+      <c r="L39" s="63"/>
+      <c r="M39" s="62"/>
+      <c r="N39" s="64"/>
+      <c r="O39" s="64"/>
+      <c r="P39" s="63"/>
     </row>
     <row r="40" spans="1:16">
       <c r="A40" s="29">
         <v>2</v>
       </c>
-      <c r="B40" s="68" t="s">
+      <c r="B40" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="C40" s="69"/>
+      <c r="C40" s="72"/>
       <c r="D40" s="34" t="s">
         <v>606</v>
       </c>
@@ -11707,23 +10654,23 @@
       </c>
       <c r="I40" s="36"/>
       <c r="J40" s="35"/>
-      <c r="K40" s="62" t="s">
+      <c r="K40" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="L40" s="64"/>
-      <c r="M40" s="76" t="s">
+      <c r="L40" s="67"/>
+      <c r="M40" s="73" t="s">
         <v>315</v>
       </c>
-      <c r="N40" s="77"/>
-      <c r="O40" s="77"/>
-      <c r="P40" s="78"/>
+      <c r="N40" s="74"/>
+      <c r="O40" s="74"/>
+      <c r="P40" s="75"/>
     </row>
     <row r="41" spans="1:16">
       <c r="A41" s="30"/>
-      <c r="B41" s="68" t="s">
+      <c r="B41" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="C41" s="69"/>
+      <c r="C41" s="72"/>
       <c r="D41" s="34" t="s">
         <v>592</v>
       </c>
@@ -11737,10 +10684,10 @@
       </c>
       <c r="I41" s="36"/>
       <c r="J41" s="35"/>
-      <c r="K41" s="62" t="s">
+      <c r="K41" s="65" t="s">
         <v>66</v>
       </c>
-      <c r="L41" s="64"/>
+      <c r="L41" s="67"/>
       <c r="M41" s="53" t="s">
         <v>67</v>
       </c>
@@ -11750,10 +10697,10 @@
     </row>
     <row r="42" spans="1:16">
       <c r="A42" s="30"/>
-      <c r="B42" s="68" t="s">
+      <c r="B42" s="71" t="s">
         <v>98</v>
       </c>
-      <c r="C42" s="69"/>
+      <c r="C42" s="72"/>
       <c r="D42" s="34" t="s">
         <v>610</v>
       </c>
@@ -11776,10 +10723,10 @@
     </row>
     <row r="43" spans="1:16">
       <c r="A43" s="30"/>
-      <c r="B43" s="68" t="s">
+      <c r="B43" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="C43" s="69"/>
+      <c r="C43" s="72"/>
       <c r="D43" s="34"/>
       <c r="E43" s="36"/>
       <c r="F43" s="36"/>
@@ -11787,10 +10734,10 @@
       <c r="H43" s="36"/>
       <c r="I43" s="36"/>
       <c r="J43" s="35"/>
-      <c r="K43" s="62" t="s">
+      <c r="K43" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="L43" s="64"/>
+      <c r="L43" s="67"/>
       <c r="M43" s="53" t="s">
         <v>141</v>
       </c>
@@ -11800,93 +10747,93 @@
     </row>
     <row r="44" spans="1:16">
       <c r="A44" s="30"/>
-      <c r="B44" s="70" t="s">
+      <c r="B44" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="C44" s="71"/>
-      <c r="D44" s="71"/>
-      <c r="E44" s="71"/>
-      <c r="F44" s="71"/>
-      <c r="G44" s="71"/>
-      <c r="H44" s="71"/>
-      <c r="I44" s="71"/>
-      <c r="J44" s="72"/>
-      <c r="K44" s="70"/>
-      <c r="L44" s="72"/>
-      <c r="M44" s="70"/>
-      <c r="N44" s="71"/>
-      <c r="O44" s="71"/>
-      <c r="P44" s="72"/>
+      <c r="C44" s="57"/>
+      <c r="D44" s="57"/>
+      <c r="E44" s="57"/>
+      <c r="F44" s="57"/>
+      <c r="G44" s="57"/>
+      <c r="H44" s="57"/>
+      <c r="I44" s="57"/>
+      <c r="J44" s="58"/>
+      <c r="K44" s="56"/>
+      <c r="L44" s="58"/>
+      <c r="M44" s="56"/>
+      <c r="N44" s="57"/>
+      <c r="O44" s="57"/>
+      <c r="P44" s="58"/>
     </row>
     <row r="45" spans="1:16">
       <c r="A45" s="30"/>
       <c r="B45" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C45" s="62" t="s">
+      <c r="C45" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="D45" s="63"/>
-      <c r="E45" s="64"/>
+      <c r="D45" s="66"/>
+      <c r="E45" s="67"/>
       <c r="F45" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G45" s="62" t="s">
+      <c r="G45" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="H45" s="64"/>
-      <c r="I45" s="62" t="s">
+      <c r="H45" s="67"/>
+      <c r="I45" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="J45" s="64"/>
-      <c r="K45" s="65"/>
-      <c r="L45" s="66"/>
-      <c r="M45" s="65"/>
-      <c r="N45" s="67"/>
-      <c r="O45" s="67"/>
-      <c r="P45" s="66"/>
+      <c r="J45" s="67"/>
+      <c r="K45" s="68"/>
+      <c r="L45" s="69"/>
+      <c r="M45" s="68"/>
+      <c r="N45" s="70"/>
+      <c r="O45" s="70"/>
+      <c r="P45" s="69"/>
     </row>
     <row r="46" spans="1:16">
       <c r="A46" s="30"/>
       <c r="B46" s="8">
         <v>1</v>
       </c>
-      <c r="C46" s="56" t="s">
+      <c r="C46" s="59" t="s">
         <v>603</v>
       </c>
-      <c r="D46" s="57"/>
-      <c r="E46" s="58"/>
+      <c r="D46" s="60"/>
+      <c r="E46" s="61"/>
       <c r="F46" s="3"/>
-      <c r="G46" s="56" t="s">
+      <c r="G46" s="59" t="s">
         <v>316</v>
       </c>
-      <c r="H46" s="58"/>
+      <c r="H46" s="61"/>
       <c r="I46" s="3"/>
       <c r="J46" s="4"/>
-      <c r="K46" s="59"/>
-      <c r="L46" s="60"/>
-      <c r="M46" s="59"/>
-      <c r="N46" s="61"/>
-      <c r="O46" s="61"/>
-      <c r="P46" s="60"/>
+      <c r="K46" s="62"/>
+      <c r="L46" s="63"/>
+      <c r="M46" s="62"/>
+      <c r="N46" s="64"/>
+      <c r="O46" s="64"/>
+      <c r="P46" s="63"/>
     </row>
     <row r="47" spans="1:16">
       <c r="A47" s="30"/>
-      <c r="B47" s="56"/>
-      <c r="C47" s="57"/>
-      <c r="D47" s="57"/>
-      <c r="E47" s="58"/>
+      <c r="B47" s="59"/>
+      <c r="C47" s="60"/>
+      <c r="D47" s="60"/>
+      <c r="E47" s="61"/>
       <c r="F47" s="3"/>
-      <c r="G47" s="56"/>
-      <c r="H47" s="58"/>
+      <c r="G47" s="59"/>
+      <c r="H47" s="61"/>
       <c r="I47" s="3"/>
       <c r="J47" s="4"/>
-      <c r="K47" s="59"/>
-      <c r="L47" s="60"/>
-      <c r="M47" s="59"/>
-      <c r="N47" s="61"/>
-      <c r="O47" s="61"/>
-      <c r="P47" s="60"/>
+      <c r="K47" s="62"/>
+      <c r="L47" s="63"/>
+      <c r="M47" s="62"/>
+      <c r="N47" s="64"/>
+      <c r="O47" s="64"/>
+      <c r="P47" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="84">
@@ -11985,7 +10932,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F8B8ED6-4E67-4ACD-A9CD-16C476AFAB9F}">
   <dimension ref="A1:P35"/>
   <sheetViews>
@@ -12774,33 +11721,33 @@
       <c r="P25" s="1"/>
     </row>
     <row r="27" spans="1:16">
-      <c r="A27" s="73" t="s">
+      <c r="A27" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="74"/>
-      <c r="C27" s="74"/>
-      <c r="D27" s="74"/>
-      <c r="E27" s="74"/>
-      <c r="F27" s="74"/>
-      <c r="G27" s="74"/>
-      <c r="H27" s="74"/>
-      <c r="I27" s="74"/>
-      <c r="J27" s="74"/>
-      <c r="K27" s="74"/>
-      <c r="L27" s="74"/>
-      <c r="M27" s="74"/>
-      <c r="N27" s="74"/>
-      <c r="O27" s="74"/>
-      <c r="P27" s="75"/>
+      <c r="B27" s="77"/>
+      <c r="C27" s="77"/>
+      <c r="D27" s="77"/>
+      <c r="E27" s="77"/>
+      <c r="F27" s="77"/>
+      <c r="G27" s="77"/>
+      <c r="H27" s="77"/>
+      <c r="I27" s="77"/>
+      <c r="J27" s="77"/>
+      <c r="K27" s="77"/>
+      <c r="L27" s="77"/>
+      <c r="M27" s="77"/>
+      <c r="N27" s="77"/>
+      <c r="O27" s="77"/>
+      <c r="P27" s="78"/>
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="29">
         <v>1</v>
       </c>
-      <c r="B28" s="68" t="s">
+      <c r="B28" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="69"/>
+      <c r="C28" s="72"/>
       <c r="D28" s="34" t="s">
         <v>313</v>
       </c>
@@ -12814,23 +11761,23 @@
       </c>
       <c r="I28" s="36"/>
       <c r="J28" s="35"/>
-      <c r="K28" s="62" t="s">
+      <c r="K28" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="L28" s="64"/>
-      <c r="M28" s="76" t="s">
+      <c r="L28" s="67"/>
+      <c r="M28" s="73" t="s">
         <v>315</v>
       </c>
-      <c r="N28" s="77"/>
-      <c r="O28" s="77"/>
-      <c r="P28" s="78"/>
+      <c r="N28" s="74"/>
+      <c r="O28" s="74"/>
+      <c r="P28" s="75"/>
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="30"/>
-      <c r="B29" s="68" t="s">
+      <c r="B29" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="69"/>
+      <c r="C29" s="72"/>
       <c r="D29" s="34" t="s">
         <v>258</v>
       </c>
@@ -12844,10 +11791,10 @@
       </c>
       <c r="I29" s="36"/>
       <c r="J29" s="35"/>
-      <c r="K29" s="62" t="s">
+      <c r="K29" s="65" t="s">
         <v>66</v>
       </c>
-      <c r="L29" s="64"/>
+      <c r="L29" s="67"/>
       <c r="M29" s="53" t="s">
         <v>67</v>
       </c>
@@ -12857,10 +11804,10 @@
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="30"/>
-      <c r="B30" s="68" t="s">
+      <c r="B30" s="71" t="s">
         <v>98</v>
       </c>
-      <c r="C30" s="69"/>
+      <c r="C30" s="72"/>
       <c r="D30" s="34" t="s">
         <v>449</v>
       </c>
@@ -12874,10 +11821,10 @@
       </c>
       <c r="I30" s="36"/>
       <c r="J30" s="35"/>
-      <c r="K30" s="62" t="s">
+      <c r="K30" s="65" t="s">
         <v>478</v>
       </c>
-      <c r="L30" s="64"/>
+      <c r="L30" s="67"/>
       <c r="M30" s="53" t="s">
         <v>620</v>
       </c>
@@ -12891,10 +11838,10 @@
     </row>
     <row r="31" spans="1:16">
       <c r="A31" s="30"/>
-      <c r="B31" s="68" t="s">
+      <c r="B31" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="69"/>
+      <c r="C31" s="72"/>
       <c r="D31" s="34"/>
       <c r="E31" s="36"/>
       <c r="F31" s="36"/>
@@ -12902,10 +11849,10 @@
       <c r="H31" s="36"/>
       <c r="I31" s="36"/>
       <c r="J31" s="35"/>
-      <c r="K31" s="62" t="s">
+      <c r="K31" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="L31" s="64"/>
+      <c r="L31" s="67"/>
       <c r="M31" s="53" t="s">
         <v>141</v>
       </c>
@@ -12915,93 +11862,93 @@
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="30"/>
-      <c r="B32" s="70" t="s">
+      <c r="B32" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="C32" s="71"/>
-      <c r="D32" s="71"/>
-      <c r="E32" s="71"/>
-      <c r="F32" s="71"/>
-      <c r="G32" s="71"/>
-      <c r="H32" s="71"/>
-      <c r="I32" s="71"/>
-      <c r="J32" s="72"/>
-      <c r="K32" s="70"/>
-      <c r="L32" s="72"/>
-      <c r="M32" s="70"/>
-      <c r="N32" s="71"/>
-      <c r="O32" s="71"/>
-      <c r="P32" s="72"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="57"/>
+      <c r="G32" s="57"/>
+      <c r="H32" s="57"/>
+      <c r="I32" s="57"/>
+      <c r="J32" s="58"/>
+      <c r="K32" s="56"/>
+      <c r="L32" s="58"/>
+      <c r="M32" s="56"/>
+      <c r="N32" s="57"/>
+      <c r="O32" s="57"/>
+      <c r="P32" s="58"/>
     </row>
     <row r="33" spans="1:16">
       <c r="A33" s="30"/>
       <c r="B33" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="62" t="s">
+      <c r="C33" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="D33" s="63"/>
-      <c r="E33" s="64"/>
+      <c r="D33" s="66"/>
+      <c r="E33" s="67"/>
       <c r="F33" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G33" s="62" t="s">
+      <c r="G33" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="H33" s="64"/>
-      <c r="I33" s="62" t="s">
+      <c r="H33" s="67"/>
+      <c r="I33" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="J33" s="64"/>
-      <c r="K33" s="65"/>
-      <c r="L33" s="66"/>
-      <c r="M33" s="65"/>
-      <c r="N33" s="67"/>
-      <c r="O33" s="67"/>
-      <c r="P33" s="66"/>
+      <c r="J33" s="67"/>
+      <c r="K33" s="68"/>
+      <c r="L33" s="69"/>
+      <c r="M33" s="68"/>
+      <c r="N33" s="70"/>
+      <c r="O33" s="70"/>
+      <c r="P33" s="69"/>
     </row>
     <row r="34" spans="1:16">
       <c r="A34" s="30"/>
       <c r="B34" s="8">
         <v>1</v>
       </c>
-      <c r="C34" s="56" t="s">
+      <c r="C34" s="59" t="s">
         <v>316</v>
       </c>
-      <c r="D34" s="57"/>
-      <c r="E34" s="58"/>
+      <c r="D34" s="60"/>
+      <c r="E34" s="61"/>
       <c r="F34" s="3"/>
-      <c r="G34" s="56" t="s">
+      <c r="G34" s="59" t="s">
         <v>316</v>
       </c>
-      <c r="H34" s="58"/>
+      <c r="H34" s="61"/>
       <c r="I34" s="3"/>
       <c r="J34" s="4"/>
-      <c r="K34" s="59"/>
-      <c r="L34" s="60"/>
-      <c r="M34" s="59"/>
-      <c r="N34" s="61"/>
-      <c r="O34" s="61"/>
-      <c r="P34" s="60"/>
+      <c r="K34" s="62"/>
+      <c r="L34" s="63"/>
+      <c r="M34" s="62"/>
+      <c r="N34" s="64"/>
+      <c r="O34" s="64"/>
+      <c r="P34" s="63"/>
     </row>
     <row r="35" spans="1:16">
       <c r="A35" s="30"/>
-      <c r="B35" s="56"/>
-      <c r="C35" s="57"/>
-      <c r="D35" s="57"/>
-      <c r="E35" s="58"/>
+      <c r="B35" s="59"/>
+      <c r="C35" s="60"/>
+      <c r="D35" s="60"/>
+      <c r="E35" s="61"/>
       <c r="F35" s="3"/>
-      <c r="G35" s="56"/>
-      <c r="H35" s="58"/>
+      <c r="G35" s="59"/>
+      <c r="H35" s="61"/>
       <c r="I35" s="3"/>
       <c r="J35" s="4"/>
-      <c r="K35" s="59"/>
-      <c r="L35" s="60"/>
-      <c r="M35" s="59"/>
-      <c r="N35" s="61"/>
-      <c r="O35" s="61"/>
-      <c r="P35" s="60"/>
+      <c r="K35" s="62"/>
+      <c r="L35" s="63"/>
+      <c r="M35" s="62"/>
+      <c r="N35" s="64"/>
+      <c r="O35" s="64"/>
+      <c r="P35" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="50">
@@ -13065,7 +12012,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D349AB67-F500-46D9-95AE-D8168334F4A6}">
   <dimension ref="A1:P32"/>
   <sheetViews>
@@ -13746,33 +12693,33 @@
       <c r="P22" s="1"/>
     </row>
     <row r="24" spans="1:16">
-      <c r="A24" s="73" t="s">
+      <c r="A24" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="74"/>
-      <c r="C24" s="74"/>
-      <c r="D24" s="74"/>
-      <c r="E24" s="74"/>
-      <c r="F24" s="74"/>
-      <c r="G24" s="74"/>
-      <c r="H24" s="74"/>
-      <c r="I24" s="74"/>
-      <c r="J24" s="74"/>
-      <c r="K24" s="74"/>
-      <c r="L24" s="74"/>
-      <c r="M24" s="74"/>
-      <c r="N24" s="74"/>
-      <c r="O24" s="74"/>
-      <c r="P24" s="75"/>
+      <c r="B24" s="77"/>
+      <c r="C24" s="77"/>
+      <c r="D24" s="77"/>
+      <c r="E24" s="77"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="77"/>
+      <c r="H24" s="77"/>
+      <c r="I24" s="77"/>
+      <c r="J24" s="77"/>
+      <c r="K24" s="77"/>
+      <c r="L24" s="77"/>
+      <c r="M24" s="77"/>
+      <c r="N24" s="77"/>
+      <c r="O24" s="77"/>
+      <c r="P24" s="78"/>
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="29">
         <v>1</v>
       </c>
-      <c r="B25" s="68" t="s">
+      <c r="B25" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="69"/>
+      <c r="C25" s="72"/>
       <c r="D25" s="34" t="s">
         <v>255</v>
       </c>
@@ -13786,23 +12733,23 @@
       </c>
       <c r="I25" s="36"/>
       <c r="J25" s="35"/>
-      <c r="K25" s="62" t="s">
+      <c r="K25" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="L25" s="64"/>
-      <c r="M25" s="76" t="s">
+      <c r="L25" s="67"/>
+      <c r="M25" s="73" t="s">
         <v>250</v>
       </c>
-      <c r="N25" s="77"/>
-      <c r="O25" s="77"/>
-      <c r="P25" s="78"/>
+      <c r="N25" s="74"/>
+      <c r="O25" s="74"/>
+      <c r="P25" s="75"/>
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="30"/>
-      <c r="B26" s="68" t="s">
+      <c r="B26" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="69"/>
+      <c r="C26" s="72"/>
       <c r="D26" s="34" t="s">
         <v>258</v>
       </c>
@@ -13816,10 +12763,10 @@
       </c>
       <c r="I26" s="36"/>
       <c r="J26" s="35"/>
-      <c r="K26" s="62" t="s">
+      <c r="K26" s="65" t="s">
         <v>66</v>
       </c>
-      <c r="L26" s="64"/>
+      <c r="L26" s="67"/>
       <c r="M26" s="53" t="s">
         <v>67</v>
       </c>
@@ -13829,10 +12776,10 @@
     </row>
     <row r="27" spans="1:16">
       <c r="A27" s="30"/>
-      <c r="B27" s="68" t="s">
+      <c r="B27" s="71" t="s">
         <v>98</v>
       </c>
-      <c r="C27" s="69"/>
+      <c r="C27" s="72"/>
       <c r="D27" s="34" t="s">
         <v>623</v>
       </c>
@@ -13846,10 +12793,10 @@
       </c>
       <c r="I27" s="36"/>
       <c r="J27" s="35"/>
-      <c r="K27" s="62" t="s">
+      <c r="K27" s="65" t="s">
         <v>478</v>
       </c>
-      <c r="L27" s="64"/>
+      <c r="L27" s="67"/>
       <c r="M27" s="53" t="s">
         <v>625</v>
       </c>
@@ -13863,10 +12810,10 @@
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="30"/>
-      <c r="B28" s="68" t="s">
+      <c r="B28" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="69"/>
+      <c r="C28" s="72"/>
       <c r="D28" s="34"/>
       <c r="E28" s="36"/>
       <c r="F28" s="36"/>
@@ -13874,10 +12821,10 @@
       <c r="H28" s="36"/>
       <c r="I28" s="36"/>
       <c r="J28" s="35"/>
-      <c r="K28" s="62" t="s">
+      <c r="K28" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="L28" s="64"/>
+      <c r="L28" s="67"/>
       <c r="M28" s="53" t="s">
         <v>141</v>
       </c>
@@ -13887,93 +12834,93 @@
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="30"/>
-      <c r="B29" s="70" t="s">
+      <c r="B29" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="71"/>
-      <c r="D29" s="71"/>
-      <c r="E29" s="71"/>
-      <c r="F29" s="71"/>
-      <c r="G29" s="71"/>
-      <c r="H29" s="71"/>
-      <c r="I29" s="71"/>
-      <c r="J29" s="72"/>
-      <c r="K29" s="70"/>
-      <c r="L29" s="72"/>
-      <c r="M29" s="70"/>
-      <c r="N29" s="71"/>
-      <c r="O29" s="71"/>
-      <c r="P29" s="72"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="57"/>
+      <c r="J29" s="58"/>
+      <c r="K29" s="56"/>
+      <c r="L29" s="58"/>
+      <c r="M29" s="56"/>
+      <c r="N29" s="57"/>
+      <c r="O29" s="57"/>
+      <c r="P29" s="58"/>
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="30"/>
       <c r="B30" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="62" t="s">
+      <c r="C30" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="63"/>
-      <c r="E30" s="64"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="67"/>
       <c r="F30" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G30" s="62" t="s">
+      <c r="G30" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="H30" s="64"/>
-      <c r="I30" s="62" t="s">
+      <c r="H30" s="67"/>
+      <c r="I30" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="J30" s="64"/>
-      <c r="K30" s="65"/>
-      <c r="L30" s="66"/>
-      <c r="M30" s="65"/>
-      <c r="N30" s="67"/>
-      <c r="O30" s="67"/>
-      <c r="P30" s="66"/>
+      <c r="J30" s="67"/>
+      <c r="K30" s="68"/>
+      <c r="L30" s="69"/>
+      <c r="M30" s="68"/>
+      <c r="N30" s="70"/>
+      <c r="O30" s="70"/>
+      <c r="P30" s="69"/>
     </row>
     <row r="31" spans="1:16">
       <c r="A31" s="30"/>
       <c r="B31" s="8">
         <v>1</v>
       </c>
-      <c r="C31" s="56" t="s">
+      <c r="C31" s="59" t="s">
         <v>254</v>
       </c>
-      <c r="D31" s="57"/>
-      <c r="E31" s="58"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="61"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="56" t="s">
+      <c r="G31" s="59" t="s">
         <v>254</v>
       </c>
-      <c r="H31" s="58"/>
+      <c r="H31" s="61"/>
       <c r="I31" s="3"/>
       <c r="J31" s="4"/>
-      <c r="K31" s="59"/>
-      <c r="L31" s="60"/>
-      <c r="M31" s="59"/>
-      <c r="N31" s="61"/>
-      <c r="O31" s="61"/>
-      <c r="P31" s="60"/>
+      <c r="K31" s="62"/>
+      <c r="L31" s="63"/>
+      <c r="M31" s="62"/>
+      <c r="N31" s="64"/>
+      <c r="O31" s="64"/>
+      <c r="P31" s="63"/>
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="30"/>
-      <c r="B32" s="56"/>
-      <c r="C32" s="57"/>
-      <c r="D32" s="57"/>
-      <c r="E32" s="58"/>
+      <c r="B32" s="59"/>
+      <c r="C32" s="60"/>
+      <c r="D32" s="60"/>
+      <c r="E32" s="61"/>
       <c r="F32" s="3"/>
-      <c r="G32" s="56"/>
-      <c r="H32" s="58"/>
+      <c r="G32" s="59"/>
+      <c r="H32" s="61"/>
       <c r="I32" s="3"/>
       <c r="J32" s="4"/>
-      <c r="K32" s="59"/>
-      <c r="L32" s="60"/>
-      <c r="M32" s="59"/>
-      <c r="N32" s="61"/>
-      <c r="O32" s="61"/>
-      <c r="P32" s="60"/>
+      <c r="K32" s="62"/>
+      <c r="L32" s="63"/>
+      <c r="M32" s="62"/>
+      <c r="N32" s="64"/>
+      <c r="O32" s="64"/>
+      <c r="P32" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="50">
@@ -14037,7 +12984,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2A916FD-1DF6-4F49-9D99-66DD7EC19D8D}">
   <dimension ref="A1:P50"/>
   <sheetViews>
@@ -15288,33 +14235,33 @@
       <c r="P40" s="1"/>
     </row>
     <row r="42" spans="1:16">
-      <c r="A42" s="73" t="s">
+      <c r="A42" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="B42" s="74"/>
-      <c r="C42" s="74"/>
-      <c r="D42" s="74"/>
-      <c r="E42" s="74"/>
-      <c r="F42" s="74"/>
-      <c r="G42" s="74"/>
-      <c r="H42" s="74"/>
-      <c r="I42" s="74"/>
-      <c r="J42" s="74"/>
-      <c r="K42" s="74"/>
-      <c r="L42" s="74"/>
-      <c r="M42" s="74"/>
-      <c r="N42" s="74"/>
-      <c r="O42" s="74"/>
-      <c r="P42" s="75"/>
+      <c r="B42" s="77"/>
+      <c r="C42" s="77"/>
+      <c r="D42" s="77"/>
+      <c r="E42" s="77"/>
+      <c r="F42" s="77"/>
+      <c r="G42" s="77"/>
+      <c r="H42" s="77"/>
+      <c r="I42" s="77"/>
+      <c r="J42" s="77"/>
+      <c r="K42" s="77"/>
+      <c r="L42" s="77"/>
+      <c r="M42" s="77"/>
+      <c r="N42" s="77"/>
+      <c r="O42" s="77"/>
+      <c r="P42" s="78"/>
     </row>
     <row r="43" spans="1:16">
       <c r="A43" s="29">
         <v>2</v>
       </c>
-      <c r="B43" s="68" t="s">
+      <c r="B43" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="C43" s="69"/>
+      <c r="C43" s="72"/>
       <c r="D43" s="34" t="s">
         <v>490</v>
       </c>
@@ -15328,10 +14275,10 @@
       </c>
       <c r="I43" s="36"/>
       <c r="J43" s="35"/>
-      <c r="K43" s="62" t="s">
+      <c r="K43" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="L43" s="64"/>
+      <c r="L43" s="67"/>
       <c r="M43" s="53" t="s">
         <v>285</v>
       </c>
@@ -15341,10 +14288,10 @@
     </row>
     <row r="44" spans="1:16">
       <c r="A44" s="30"/>
-      <c r="B44" s="68" t="s">
+      <c r="B44" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="C44" s="69"/>
+      <c r="C44" s="72"/>
       <c r="D44" s="34" t="s">
         <v>157</v>
       </c>
@@ -15358,10 +14305,10 @@
       </c>
       <c r="I44" s="36"/>
       <c r="J44" s="35"/>
-      <c r="K44" s="62" t="s">
+      <c r="K44" s="65" t="s">
         <v>66</v>
       </c>
-      <c r="L44" s="64"/>
+      <c r="L44" s="67"/>
       <c r="M44" s="53" t="s">
         <v>67</v>
       </c>
@@ -15371,10 +14318,10 @@
     </row>
     <row r="45" spans="1:16">
       <c r="A45" s="30"/>
-      <c r="B45" s="68" t="s">
+      <c r="B45" s="71" t="s">
         <v>98</v>
       </c>
-      <c r="C45" s="69"/>
+      <c r="C45" s="72"/>
       <c r="D45" s="34" t="s">
         <v>159</v>
       </c>
@@ -15397,10 +14344,10 @@
     </row>
     <row r="46" spans="1:16">
       <c r="A46" s="30"/>
-      <c r="B46" s="68" t="s">
+      <c r="B46" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="C46" s="69"/>
+      <c r="C46" s="72"/>
       <c r="D46" s="34"/>
       <c r="E46" s="36"/>
       <c r="F46" s="36"/>
@@ -15408,10 +14355,10 @@
       <c r="H46" s="36"/>
       <c r="I46" s="36"/>
       <c r="J46" s="35"/>
-      <c r="K46" s="62" t="s">
+      <c r="K46" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="L46" s="64"/>
+      <c r="L46" s="67"/>
       <c r="M46" s="53" t="s">
         <v>139</v>
       </c>
@@ -15421,93 +14368,93 @@
     </row>
     <row r="47" spans="1:16">
       <c r="A47" s="30"/>
-      <c r="B47" s="70" t="s">
+      <c r="B47" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="C47" s="71"/>
-      <c r="D47" s="71"/>
-      <c r="E47" s="71"/>
-      <c r="F47" s="71"/>
-      <c r="G47" s="71"/>
-      <c r="H47" s="71"/>
-      <c r="I47" s="71"/>
-      <c r="J47" s="72"/>
-      <c r="K47" s="70"/>
-      <c r="L47" s="72"/>
-      <c r="M47" s="70"/>
-      <c r="N47" s="71"/>
-      <c r="O47" s="71"/>
-      <c r="P47" s="72"/>
+      <c r="C47" s="57"/>
+      <c r="D47" s="57"/>
+      <c r="E47" s="57"/>
+      <c r="F47" s="57"/>
+      <c r="G47" s="57"/>
+      <c r="H47" s="57"/>
+      <c r="I47" s="57"/>
+      <c r="J47" s="58"/>
+      <c r="K47" s="56"/>
+      <c r="L47" s="58"/>
+      <c r="M47" s="56"/>
+      <c r="N47" s="57"/>
+      <c r="O47" s="57"/>
+      <c r="P47" s="58"/>
     </row>
     <row r="48" spans="1:16">
       <c r="A48" s="30"/>
       <c r="B48" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C48" s="62" t="s">
+      <c r="C48" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="D48" s="63"/>
-      <c r="E48" s="64"/>
+      <c r="D48" s="66"/>
+      <c r="E48" s="67"/>
       <c r="F48" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G48" s="62" t="s">
+      <c r="G48" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="H48" s="64"/>
-      <c r="I48" s="62" t="s">
+      <c r="H48" s="67"/>
+      <c r="I48" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="J48" s="64"/>
-      <c r="K48" s="65"/>
-      <c r="L48" s="66"/>
-      <c r="M48" s="65"/>
-      <c r="N48" s="67"/>
-      <c r="O48" s="67"/>
-      <c r="P48" s="66"/>
+      <c r="J48" s="67"/>
+      <c r="K48" s="68"/>
+      <c r="L48" s="69"/>
+      <c r="M48" s="68"/>
+      <c r="N48" s="70"/>
+      <c r="O48" s="70"/>
+      <c r="P48" s="69"/>
     </row>
     <row r="49" spans="1:16">
       <c r="A49" s="30"/>
       <c r="B49" s="8">
         <v>1</v>
       </c>
-      <c r="C49" s="56" t="s">
+      <c r="C49" s="59" t="s">
         <v>489</v>
       </c>
-      <c r="D49" s="57"/>
-      <c r="E49" s="58"/>
+      <c r="D49" s="60"/>
+      <c r="E49" s="61"/>
       <c r="F49" s="3"/>
-      <c r="G49" s="56" t="s">
+      <c r="G49" s="59" t="s">
         <v>142</v>
       </c>
-      <c r="H49" s="58"/>
+      <c r="H49" s="61"/>
       <c r="I49" s="3"/>
       <c r="J49" s="4"/>
-      <c r="K49" s="59"/>
-      <c r="L49" s="60"/>
-      <c r="M49" s="59"/>
-      <c r="N49" s="61"/>
-      <c r="O49" s="61"/>
-      <c r="P49" s="60"/>
+      <c r="K49" s="62"/>
+      <c r="L49" s="63"/>
+      <c r="M49" s="62"/>
+      <c r="N49" s="64"/>
+      <c r="O49" s="64"/>
+      <c r="P49" s="63"/>
     </row>
     <row r="50" spans="1:16">
       <c r="A50" s="30"/>
-      <c r="B50" s="56"/>
-      <c r="C50" s="57"/>
-      <c r="D50" s="57"/>
-      <c r="E50" s="58"/>
+      <c r="B50" s="59"/>
+      <c r="C50" s="60"/>
+      <c r="D50" s="60"/>
+      <c r="E50" s="61"/>
       <c r="F50" s="3"/>
-      <c r="G50" s="56"/>
-      <c r="H50" s="58"/>
+      <c r="G50" s="59"/>
+      <c r="H50" s="61"/>
       <c r="I50" s="3"/>
       <c r="J50" s="4"/>
-      <c r="K50" s="59"/>
-      <c r="L50" s="60"/>
-      <c r="M50" s="59"/>
-      <c r="N50" s="61"/>
-      <c r="O50" s="61"/>
-      <c r="P50" s="60"/>
+      <c r="K50" s="62"/>
+      <c r="L50" s="63"/>
+      <c r="M50" s="62"/>
+      <c r="N50" s="64"/>
+      <c r="O50" s="64"/>
+      <c r="P50" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="49">
@@ -15567,172 +14514,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9313AC94-4A2B-4F66-85AD-4A3D79664E62}">
-  <dimension ref="A1:C16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
-  <cols>
-    <col min="1" max="1" width="22.08203125" customWidth="1"/>
-    <col min="2" max="2" width="27.9140625" customWidth="1"/>
-    <col min="3" max="3" width="39.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A11" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B11" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AD7D9E9-B50D-4F1F-8CE6-988661D177E2}">
   <dimension ref="A1:P20"/>
   <sheetViews>
@@ -16375,6 +15157,171 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9313AC94-4A2B-4F66-85AD-4A3D79664E62}">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="22.08203125" customWidth="1"/>
+    <col min="2" max="2" width="27.9140625" customWidth="1"/>
+    <col min="3" max="3" width="39.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A11" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B11" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -17628,10 +16575,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44FDE2B5-AFC1-4A23-9D01-924959A8BB4F}">
-  <dimension ref="A1:P18"/>
+  <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -17934,19 +16881,19 @@
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="9" t="s">
-        <v>33</v>
+        <v>642</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="9" t="s">
-        <v>34</v>
+        <v>643</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>95</v>
+        <v>644</v>
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="7" t="s">
@@ -17957,38 +16904,33 @@
       </c>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
-      <c r="M11" s="26" t="s">
-        <v>268</v>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9">
+        <v>1</v>
       </c>
       <c r="O11" s="7"/>
       <c r="P11" s="1"/>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>104</v>
-      </c>
+        <v>645</v>
+      </c>
+      <c r="E12" s="7"/>
       <c r="F12" s="9" t="s">
-        <v>37</v>
+        <v>147</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>27</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="H12" s="9"/>
+      <c r="I12" s="7"/>
       <c r="J12" s="9" t="s">
-        <v>119</v>
+        <v>29</v>
       </c>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
@@ -17999,66 +16941,61 @@
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>209</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="E13" s="7"/>
       <c r="F13" s="9" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>89</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="H13" s="9"/>
       <c r="I13" s="7" t="s">
         <v>27</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K13" s="7">
-        <v>50</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="K13" s="7"/>
       <c r="L13" s="7"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
+      <c r="M13" s="26" t="s">
+        <v>268</v>
+      </c>
       <c r="O13" s="7"/>
       <c r="P13" s="1"/>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>209</v>
+        <v>104</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I14" s="7" t="s">
         <v>27</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>46</v>
+        <v>119</v>
       </c>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
@@ -18069,24 +17006,24 @@
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="9" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>209</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I15" s="7" t="s">
         <v>27</v>
@@ -18105,24 +17042,24 @@
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="9" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>209</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I16" s="7" t="s">
         <v>27</v>
@@ -18138,17 +17075,35 @@
       <c r="P16" s="1"/>
     </row>
     <row r="17" spans="1:16">
-      <c r="A17" s="7"/>
+      <c r="A17" s="7">
+        <v>10</v>
+      </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="7"/>
+      <c r="D17" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K17" s="7">
+        <v>50</v>
+      </c>
       <c r="L17" s="7"/>
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
@@ -18156,22 +17111,74 @@
       <c r="P17" s="1"/>
     </row>
     <row r="18" spans="1:16">
-      <c r="A18" s="34"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="36"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="36"/>
-      <c r="P18" s="35"/>
+      <c r="A18" s="7">
+        <v>11</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="1"/>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="1"/>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" s="34"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -18182,7 +17189,7 @@
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="I2:M2"/>
     <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A18:P18"/>
+    <mergeCell ref="A20:P20"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="I3:M3"/>
@@ -18192,7 +17199,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="M11" location="app_status" display="dyn/app-status" xr:uid="{1FB75574-5BC5-4322-A9ED-3E2F85131694}"/>
+    <hyperlink ref="M13" location="app_status" display="dyn/app-status" xr:uid="{1FB75574-5BC5-4322-A9ED-3E2F85131694}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -18200,11 +17207,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B27D40AA-2582-4406-945D-3D7516A4883B}">
-  <dimension ref="A1:P29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16C4B3F2-7BD8-422B-BF02-3DBEBBC32833}">
+  <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28:H28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -18230,7 +17237,7 @@
       <c r="B1" s="49"/>
       <c r="C1" s="49"/>
       <c r="D1" s="50" t="s">
-        <v>655</v>
+        <v>636</v>
       </c>
       <c r="E1" s="51"/>
       <c r="F1" s="51"/>
@@ -18254,7 +17261,7 @@
       <c r="B2" s="49"/>
       <c r="C2" s="49"/>
       <c r="D2" s="50" t="s">
-        <v>657</v>
+        <v>637</v>
       </c>
       <c r="E2" s="51"/>
       <c r="F2" s="51"/>
@@ -18263,7 +17270,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="53" t="s">
-        <v>656</v>
+        <v>638</v>
       </c>
       <c r="J2" s="54"/>
       <c r="K2" s="54"/>
@@ -18300,7 +17307,7 @@
       <c r="B4" s="49"/>
       <c r="C4" s="49"/>
       <c r="D4" s="50" t="s">
-        <v>658</v>
+        <v>641</v>
       </c>
       <c r="E4" s="51"/>
       <c r="F4" s="51"/>
@@ -18411,19 +17418,19 @@
         <v>25</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>87</v>
+        <v>514</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>639</v>
+        <v>510</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>104</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>640</v>
+        <v>512</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>641</v>
+        <v>513</v>
       </c>
       <c r="H8" s="9"/>
       <c r="I8" s="7" t="s">
@@ -18448,853 +17455,14 @@
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="9" t="s">
-        <v>642</v>
+        <v>262</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="9" t="s">
-        <v>643</v>
+        <v>263</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>644</v>
-      </c>
-      <c r="H9" s="9"/>
-      <c r="I9" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K9" s="7">
-        <v>100</v>
-      </c>
-      <c r="L9" s="7"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="1"/>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="A10" s="7">
-        <v>3</v>
-      </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="9" t="s">
-        <v>645</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="9" t="s">
-        <v>646</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>647</v>
-      </c>
-      <c r="H10" s="9"/>
-      <c r="I10" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9">
-        <v>1</v>
-      </c>
-      <c r="O10" s="7"/>
-      <c r="P10" s="1"/>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="A11" s="7">
-        <v>4</v>
-      </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="H11" s="9"/>
-      <c r="I11" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J11" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K11" s="7">
-        <v>200</v>
-      </c>
-      <c r="L11" s="7"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="1"/>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="A12" s="7">
-        <v>9</v>
-      </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="H12" s="9"/>
-      <c r="I12" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="26"/>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12" s="7"/>
-      <c r="P12" s="1"/>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="A13" s="7">
-        <v>10</v>
-      </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J13" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="1"/>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="A14" s="7">
-        <v>11</v>
-      </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J14" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K14" s="7">
-        <v>50</v>
-      </c>
-      <c r="L14" s="7"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="1"/>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="A15" s="7">
-        <v>12</v>
-      </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J15" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="1"/>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="A16" s="7">
-        <v>13</v>
-      </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J16" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K16" s="7">
-        <v>50</v>
-      </c>
-      <c r="L16" s="7"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="1"/>
-    </row>
-    <row r="17" spans="1:16">
-      <c r="A17" s="7">
-        <v>14</v>
-      </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J17" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="1"/>
-    </row>
-    <row r="18" spans="1:16">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="1"/>
-    </row>
-    <row r="19" spans="1:16">
-      <c r="A19" s="34"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="36"/>
-      <c r="P19" s="35"/>
-    </row>
-    <row r="21" spans="1:16">
-      <c r="A21" s="73" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="74"/>
-      <c r="C21" s="74"/>
-      <c r="D21" s="74"/>
-      <c r="E21" s="74"/>
-      <c r="F21" s="74"/>
-      <c r="G21" s="74"/>
-      <c r="H21" s="74"/>
-      <c r="I21" s="74"/>
-      <c r="J21" s="74"/>
-      <c r="K21" s="74"/>
-      <c r="L21" s="74"/>
-      <c r="M21" s="74"/>
-      <c r="N21" s="74"/>
-      <c r="O21" s="74"/>
-      <c r="P21" s="75"/>
-    </row>
-    <row r="22" spans="1:16">
-      <c r="A22" s="29"/>
-      <c r="B22" s="68" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="69"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H22" s="34"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="62" t="s">
-        <v>58</v>
-      </c>
-      <c r="L22" s="64"/>
-      <c r="M22" s="53"/>
-      <c r="N22" s="54"/>
-      <c r="O22" s="54"/>
-      <c r="P22" s="55"/>
-    </row>
-    <row r="23" spans="1:16">
-      <c r="A23" s="30"/>
-      <c r="B23" s="68" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" s="69"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H23" s="34"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="62" t="s">
-        <v>66</v>
-      </c>
-      <c r="L23" s="64"/>
-      <c r="M23" s="53"/>
-      <c r="N23" s="54"/>
-      <c r="O23" s="54"/>
-      <c r="P23" s="55"/>
-    </row>
-    <row r="24" spans="1:16">
-      <c r="A24" s="30"/>
-      <c r="B24" s="68" t="s">
-        <v>98</v>
-      </c>
-      <c r="C24" s="69"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="53"/>
-      <c r="N24" s="54"/>
-      <c r="O24" s="54"/>
-      <c r="P24" s="55"/>
-    </row>
-    <row r="25" spans="1:16">
-      <c r="A25" s="30"/>
-      <c r="B25" s="68" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" s="69"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="35"/>
-      <c r="K25" s="62" t="s">
-        <v>9</v>
-      </c>
-      <c r="L25" s="64"/>
-      <c r="M25" s="53"/>
-      <c r="N25" s="54"/>
-      <c r="O25" s="54"/>
-      <c r="P25" s="55"/>
-    </row>
-    <row r="26" spans="1:16">
-      <c r="A26" s="30"/>
-      <c r="B26" s="70" t="s">
-        <v>19</v>
-      </c>
-      <c r="C26" s="71"/>
-      <c r="D26" s="71"/>
-      <c r="E26" s="71"/>
-      <c r="F26" s="71"/>
-      <c r="G26" s="71"/>
-      <c r="H26" s="71"/>
-      <c r="I26" s="71"/>
-      <c r="J26" s="72"/>
-      <c r="K26" s="70"/>
-      <c r="L26" s="72"/>
-      <c r="M26" s="70"/>
-      <c r="N26" s="71"/>
-      <c r="O26" s="71"/>
-      <c r="P26" s="72"/>
-    </row>
-    <row r="27" spans="1:16">
-      <c r="A27" s="30"/>
-      <c r="B27" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" s="62" t="s">
-        <v>16</v>
-      </c>
-      <c r="D27" s="63"/>
-      <c r="E27" s="64"/>
-      <c r="F27" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G27" s="62" t="s">
-        <v>17</v>
-      </c>
-      <c r="H27" s="64"/>
-      <c r="I27" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="J27" s="64"/>
-      <c r="K27" s="65"/>
-      <c r="L27" s="66"/>
-      <c r="M27" s="65"/>
-      <c r="N27" s="67"/>
-      <c r="O27" s="67"/>
-      <c r="P27" s="66"/>
-    </row>
-    <row r="28" spans="1:16">
-      <c r="A28" s="30"/>
-      <c r="B28" s="8">
-        <v>1</v>
-      </c>
-      <c r="C28" s="56"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="58"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="56"/>
-      <c r="H28" s="58"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="59"/>
-      <c r="L28" s="60"/>
-      <c r="M28" s="59"/>
-      <c r="N28" s="61"/>
-      <c r="O28" s="61"/>
-      <c r="P28" s="60"/>
-    </row>
-    <row r="29" spans="1:16">
-      <c r="A29" s="30"/>
-      <c r="B29" s="56"/>
-      <c r="C29" s="57"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="58"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="56"/>
-      <c r="H29" s="58"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="59"/>
-      <c r="L29" s="60"/>
-      <c r="M29" s="59"/>
-      <c r="N29" s="61"/>
-      <c r="O29" s="61"/>
-      <c r="P29" s="60"/>
-    </row>
-  </sheetData>
-  <mergeCells count="50">
-    <mergeCell ref="A22:A29"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:L4"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A19:P19"/>
-    <mergeCell ref="A21:P21"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="B26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:P29"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:P28"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16C4B3F2-7BD8-422B-BF02-3DBEBBC32833}">
-  <dimension ref="A1:P40"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G40" sqref="G40:H40"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
-  <cols>
-    <col min="1" max="1" width="4.33203125" customWidth="1"/>
-    <col min="2" max="2" width="4.4140625" customWidth="1"/>
-    <col min="3" max="3" width="5.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.9140625" customWidth="1"/>
-    <col min="5" max="5" width="5.08203125" customWidth="1"/>
-    <col min="6" max="6" width="15.08203125" customWidth="1"/>
-    <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="9" max="9" width="4.75" customWidth="1"/>
-    <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="6.08203125" customWidth="1"/>
-    <col min="12" max="12" width="8.25" customWidth="1"/>
-    <col min="13" max="14" width="10.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16">
-      <c r="A1" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="50" t="s">
-        <v>636</v>
-      </c>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="34"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-    </row>
-    <row r="2" spans="1:16">
-      <c r="A2" s="49" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="50" t="s">
-        <v>637</v>
-      </c>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="53" t="s">
-        <v>638</v>
-      </c>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="A3" s="49" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="A4" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="A5" s="34"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="35"/>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="A6" s="48" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="48"/>
-      <c r="O6" s="48"/>
-      <c r="P6" s="48"/>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="A7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="A8" s="7">
-        <v>1</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>514</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>510</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>512</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>513</v>
-      </c>
-      <c r="H8" s="9"/>
-      <c r="I8" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K8" s="7">
-        <v>32</v>
-      </c>
-      <c r="L8" s="7"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="1"/>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="A9" s="7">
-        <v>2</v>
-      </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="9" t="s">
-        <v>639</v>
-      </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="9" t="s">
-        <v>640</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>641</v>
+        <v>263</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="7" t="s">
@@ -19729,33 +17897,33 @@
       <c r="P22" s="1"/>
     </row>
     <row r="24" spans="1:16">
-      <c r="A24" s="73" t="s">
+      <c r="A24" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="74"/>
-      <c r="C24" s="74"/>
-      <c r="D24" s="74"/>
-      <c r="E24" s="74"/>
-      <c r="F24" s="74"/>
-      <c r="G24" s="74"/>
-      <c r="H24" s="74"/>
-      <c r="I24" s="74"/>
-      <c r="J24" s="74"/>
-      <c r="K24" s="74"/>
-      <c r="L24" s="74"/>
-      <c r="M24" s="74"/>
-      <c r="N24" s="74"/>
-      <c r="O24" s="74"/>
-      <c r="P24" s="75"/>
+      <c r="B24" s="77"/>
+      <c r="C24" s="77"/>
+      <c r="D24" s="77"/>
+      <c r="E24" s="77"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="77"/>
+      <c r="H24" s="77"/>
+      <c r="I24" s="77"/>
+      <c r="J24" s="77"/>
+      <c r="K24" s="77"/>
+      <c r="L24" s="77"/>
+      <c r="M24" s="77"/>
+      <c r="N24" s="77"/>
+      <c r="O24" s="77"/>
+      <c r="P24" s="78"/>
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="29">
         <v>1</v>
       </c>
-      <c r="B25" s="68" t="s">
+      <c r="B25" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="69"/>
+      <c r="C25" s="72"/>
       <c r="D25" s="34" t="s">
         <v>255</v>
       </c>
@@ -19767,23 +17935,23 @@
       <c r="H25" s="34"/>
       <c r="I25" s="36"/>
       <c r="J25" s="35"/>
-      <c r="K25" s="62" t="s">
+      <c r="K25" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="L25" s="64"/>
-      <c r="M25" s="76" t="s">
+      <c r="L25" s="67"/>
+      <c r="M25" s="73" t="s">
         <v>250</v>
       </c>
-      <c r="N25" s="77"/>
-      <c r="O25" s="77"/>
-      <c r="P25" s="78"/>
+      <c r="N25" s="74"/>
+      <c r="O25" s="74"/>
+      <c r="P25" s="75"/>
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="30"/>
-      <c r="B26" s="68" t="s">
+      <c r="B26" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="69"/>
+      <c r="C26" s="72"/>
       <c r="D26" s="34" t="s">
         <v>258</v>
       </c>
@@ -19797,10 +17965,10 @@
       </c>
       <c r="I26" s="36"/>
       <c r="J26" s="35"/>
-      <c r="K26" s="62" t="s">
+      <c r="K26" s="65" t="s">
         <v>66</v>
       </c>
-      <c r="L26" s="64"/>
+      <c r="L26" s="67"/>
       <c r="M26" s="53" t="s">
         <v>67</v>
       </c>
@@ -19810,10 +17978,10 @@
     </row>
     <row r="27" spans="1:16">
       <c r="A27" s="30"/>
-      <c r="B27" s="68" t="s">
+      <c r="B27" s="71" t="s">
         <v>98</v>
       </c>
-      <c r="C27" s="69"/>
+      <c r="C27" s="72"/>
       <c r="D27" s="34"/>
       <c r="E27" s="36"/>
       <c r="F27" s="36"/>
@@ -19832,10 +18000,10 @@
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="30"/>
-      <c r="B28" s="68" t="s">
+      <c r="B28" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="69"/>
+      <c r="C28" s="72"/>
       <c r="D28" s="34"/>
       <c r="E28" s="36"/>
       <c r="F28" s="36"/>
@@ -19843,10 +18011,10 @@
       <c r="H28" s="36"/>
       <c r="I28" s="36"/>
       <c r="J28" s="35"/>
-      <c r="K28" s="62" t="s">
+      <c r="K28" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="L28" s="64"/>
+      <c r="L28" s="67"/>
       <c r="M28" s="53" t="s">
         <v>141</v>
       </c>
@@ -19856,104 +18024,104 @@
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="30"/>
-      <c r="B29" s="70" t="s">
+      <c r="B29" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="71"/>
-      <c r="D29" s="71"/>
-      <c r="E29" s="71"/>
-      <c r="F29" s="71"/>
-      <c r="G29" s="71"/>
-      <c r="H29" s="71"/>
-      <c r="I29" s="71"/>
-      <c r="J29" s="72"/>
-      <c r="K29" s="70"/>
-      <c r="L29" s="72"/>
-      <c r="M29" s="70"/>
-      <c r="N29" s="71"/>
-      <c r="O29" s="71"/>
-      <c r="P29" s="72"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="57"/>
+      <c r="J29" s="58"/>
+      <c r="K29" s="56"/>
+      <c r="L29" s="58"/>
+      <c r="M29" s="56"/>
+      <c r="N29" s="57"/>
+      <c r="O29" s="57"/>
+      <c r="P29" s="58"/>
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="30"/>
       <c r="B30" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="62" t="s">
+      <c r="C30" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="63"/>
-      <c r="E30" s="64"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="67"/>
       <c r="F30" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G30" s="62" t="s">
+      <c r="G30" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="H30" s="64"/>
-      <c r="I30" s="62" t="s">
+      <c r="H30" s="67"/>
+      <c r="I30" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="J30" s="64"/>
-      <c r="K30" s="65"/>
-      <c r="L30" s="66"/>
-      <c r="M30" s="65"/>
-      <c r="N30" s="67"/>
-      <c r="O30" s="67"/>
-      <c r="P30" s="66"/>
+      <c r="J30" s="67"/>
+      <c r="K30" s="68"/>
+      <c r="L30" s="69"/>
+      <c r="M30" s="68"/>
+      <c r="N30" s="70"/>
+      <c r="O30" s="70"/>
+      <c r="P30" s="69"/>
     </row>
     <row r="31" spans="1:16">
       <c r="A31" s="30"/>
       <c r="B31" s="8">
         <v>1</v>
       </c>
-      <c r="C31" s="56" t="s">
+      <c r="C31" s="59" t="s">
         <v>254</v>
       </c>
-      <c r="D31" s="57"/>
-      <c r="E31" s="58"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="61"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="56" t="s">
+      <c r="G31" s="59" t="s">
         <v>254</v>
       </c>
-      <c r="H31" s="58"/>
+      <c r="H31" s="61"/>
       <c r="I31" s="3"/>
       <c r="J31" s="4"/>
-      <c r="K31" s="59"/>
-      <c r="L31" s="60"/>
-      <c r="M31" s="59"/>
-      <c r="N31" s="61"/>
-      <c r="O31" s="61"/>
-      <c r="P31" s="60"/>
+      <c r="K31" s="62"/>
+      <c r="L31" s="63"/>
+      <c r="M31" s="62"/>
+      <c r="N31" s="64"/>
+      <c r="O31" s="64"/>
+      <c r="P31" s="63"/>
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="30"/>
-      <c r="B32" s="56"/>
-      <c r="C32" s="57"/>
-      <c r="D32" s="57"/>
-      <c r="E32" s="58"/>
+      <c r="B32" s="59"/>
+      <c r="C32" s="60"/>
+      <c r="D32" s="60"/>
+      <c r="E32" s="61"/>
       <c r="F32" s="3"/>
-      <c r="G32" s="56"/>
-      <c r="H32" s="58"/>
+      <c r="G32" s="59"/>
+      <c r="H32" s="61"/>
       <c r="I32" s="3"/>
       <c r="J32" s="4"/>
-      <c r="K32" s="59"/>
-      <c r="L32" s="60"/>
-      <c r="M32" s="59"/>
-      <c r="N32" s="61"/>
-      <c r="O32" s="61"/>
-      <c r="P32" s="60"/>
+      <c r="K32" s="62"/>
+      <c r="L32" s="63"/>
+      <c r="M32" s="62"/>
+      <c r="N32" s="64"/>
+      <c r="O32" s="64"/>
+      <c r="P32" s="63"/>
     </row>
     <row r="33" spans="1:16">
       <c r="A33" s="29">
         <v>1</v>
       </c>
-      <c r="B33" s="68" t="s">
+      <c r="B33" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="69"/>
+      <c r="C33" s="72"/>
       <c r="D33" s="34" t="s">
-        <v>648</v>
+        <v>275</v>
       </c>
       <c r="E33" s="36"/>
       <c r="F33" s="36"/>
@@ -19961,29 +18129,29 @@
         <v>57</v>
       </c>
       <c r="H33" s="34" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="I33" s="36"/>
       <c r="J33" s="35"/>
-      <c r="K33" s="62" t="s">
+      <c r="K33" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="L33" s="64"/>
-      <c r="M33" s="76" t="s">
-        <v>652</v>
-      </c>
-      <c r="N33" s="77"/>
-      <c r="O33" s="77"/>
-      <c r="P33" s="78"/>
+      <c r="L33" s="67"/>
+      <c r="M33" s="73" t="s">
+        <v>276</v>
+      </c>
+      <c r="N33" s="74"/>
+      <c r="O33" s="74"/>
+      <c r="P33" s="75"/>
     </row>
     <row r="34" spans="1:16">
       <c r="A34" s="30"/>
-      <c r="B34" s="68" t="s">
+      <c r="B34" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="69"/>
+      <c r="C34" s="72"/>
       <c r="D34" s="34" t="s">
-        <v>650</v>
+        <v>277</v>
       </c>
       <c r="E34" s="36"/>
       <c r="F34" s="36"/>
@@ -19991,14 +18159,14 @@
         <v>3</v>
       </c>
       <c r="H34" s="34" t="s">
-        <v>651</v>
+        <v>278</v>
       </c>
       <c r="I34" s="36"/>
       <c r="J34" s="35"/>
-      <c r="K34" s="62" t="s">
+      <c r="K34" s="65" t="s">
         <v>66</v>
       </c>
-      <c r="L34" s="64"/>
+      <c r="L34" s="67"/>
       <c r="M34" s="53" t="s">
         <v>67</v>
       </c>
@@ -20008,10 +18176,10 @@
     </row>
     <row r="35" spans="1:16">
       <c r="A35" s="30"/>
-      <c r="B35" s="68" t="s">
+      <c r="B35" s="71" t="s">
         <v>98</v>
       </c>
-      <c r="C35" s="69"/>
+      <c r="C35" s="72"/>
       <c r="D35" s="34" t="s">
         <v>637</v>
       </c>
@@ -20021,7 +18189,7 @@
         <v>99</v>
       </c>
       <c r="H35" s="36" t="s">
-        <v>653</v>
+        <v>640</v>
       </c>
       <c r="I35" s="36"/>
       <c r="J35" s="35"/>
@@ -20034,10 +18202,10 @@
     </row>
     <row r="36" spans="1:16">
       <c r="A36" s="30"/>
-      <c r="B36" s="68" t="s">
+      <c r="B36" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="C36" s="69"/>
+      <c r="C36" s="72"/>
       <c r="D36" s="34"/>
       <c r="E36" s="36"/>
       <c r="F36" s="36"/>
@@ -20045,10 +18213,10 @@
       <c r="H36" s="36"/>
       <c r="I36" s="36"/>
       <c r="J36" s="35"/>
-      <c r="K36" s="62" t="s">
+      <c r="K36" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="L36" s="64"/>
+      <c r="L36" s="67"/>
       <c r="M36" s="53" t="s">
         <v>141</v>
       </c>
@@ -20058,93 +18226,93 @@
     </row>
     <row r="37" spans="1:16">
       <c r="A37" s="30"/>
-      <c r="B37" s="70" t="s">
+      <c r="B37" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="C37" s="71"/>
-      <c r="D37" s="71"/>
-      <c r="E37" s="71"/>
-      <c r="F37" s="71"/>
-      <c r="G37" s="71"/>
-      <c r="H37" s="71"/>
-      <c r="I37" s="71"/>
-      <c r="J37" s="72"/>
-      <c r="K37" s="70"/>
-      <c r="L37" s="72"/>
-      <c r="M37" s="70"/>
-      <c r="N37" s="71"/>
-      <c r="O37" s="71"/>
-      <c r="P37" s="72"/>
+      <c r="C37" s="57"/>
+      <c r="D37" s="57"/>
+      <c r="E37" s="57"/>
+      <c r="F37" s="57"/>
+      <c r="G37" s="57"/>
+      <c r="H37" s="57"/>
+      <c r="I37" s="57"/>
+      <c r="J37" s="58"/>
+      <c r="K37" s="56"/>
+      <c r="L37" s="58"/>
+      <c r="M37" s="56"/>
+      <c r="N37" s="57"/>
+      <c r="O37" s="57"/>
+      <c r="P37" s="58"/>
     </row>
     <row r="38" spans="1:16">
       <c r="A38" s="30"/>
       <c r="B38" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C38" s="62" t="s">
+      <c r="C38" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="D38" s="63"/>
-      <c r="E38" s="64"/>
+      <c r="D38" s="66"/>
+      <c r="E38" s="67"/>
       <c r="F38" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G38" s="62" t="s">
+      <c r="G38" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="H38" s="64"/>
-      <c r="I38" s="62" t="s">
+      <c r="H38" s="67"/>
+      <c r="I38" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="J38" s="64"/>
-      <c r="K38" s="65"/>
-      <c r="L38" s="66"/>
-      <c r="M38" s="65"/>
-      <c r="N38" s="67"/>
-      <c r="O38" s="67"/>
-      <c r="P38" s="66"/>
+      <c r="J38" s="67"/>
+      <c r="K38" s="68"/>
+      <c r="L38" s="69"/>
+      <c r="M38" s="68"/>
+      <c r="N38" s="70"/>
+      <c r="O38" s="70"/>
+      <c r="P38" s="69"/>
     </row>
     <row r="39" spans="1:16">
       <c r="A39" s="30"/>
       <c r="B39" s="8">
         <v>1</v>
       </c>
-      <c r="C39" s="56" t="s">
-        <v>654</v>
-      </c>
-      <c r="D39" s="57"/>
-      <c r="E39" s="58"/>
+      <c r="C39" s="59" t="s">
+        <v>279</v>
+      </c>
+      <c r="D39" s="60"/>
+      <c r="E39" s="61"/>
       <c r="F39" s="3"/>
-      <c r="G39" s="56" t="s">
-        <v>654</v>
-      </c>
-      <c r="H39" s="58"/>
+      <c r="G39" s="59" t="s">
+        <v>279</v>
+      </c>
+      <c r="H39" s="61"/>
       <c r="I39" s="3"/>
       <c r="J39" s="4"/>
-      <c r="K39" s="59"/>
-      <c r="L39" s="60"/>
-      <c r="M39" s="59"/>
-      <c r="N39" s="61"/>
-      <c r="O39" s="61"/>
-      <c r="P39" s="60"/>
+      <c r="K39" s="62"/>
+      <c r="L39" s="63"/>
+      <c r="M39" s="62"/>
+      <c r="N39" s="64"/>
+      <c r="O39" s="64"/>
+      <c r="P39" s="63"/>
     </row>
     <row r="40" spans="1:16">
       <c r="A40" s="30"/>
-      <c r="B40" s="56"/>
-      <c r="C40" s="57"/>
-      <c r="D40" s="57"/>
-      <c r="E40" s="58"/>
+      <c r="B40" s="59"/>
+      <c r="C40" s="60"/>
+      <c r="D40" s="60"/>
+      <c r="E40" s="61"/>
       <c r="F40" s="3"/>
-      <c r="G40" s="56"/>
-      <c r="H40" s="58"/>
+      <c r="G40" s="59"/>
+      <c r="H40" s="61"/>
       <c r="I40" s="3"/>
       <c r="J40" s="4"/>
-      <c r="K40" s="59"/>
-      <c r="L40" s="60"/>
-      <c r="M40" s="59"/>
-      <c r="N40" s="61"/>
-      <c r="O40" s="61"/>
-      <c r="P40" s="60"/>
+      <c r="K40" s="62"/>
+      <c r="L40" s="63"/>
+      <c r="M40" s="62"/>
+      <c r="N40" s="64"/>
+      <c r="O40" s="64"/>
+      <c r="P40" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="84">
@@ -20236,17 +18404,17 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="M25:P25" location="nop_dyn_module!A1" display="NopDynModule" xr:uid="{11E2CABE-3822-4D70-AE4D-934F972959A7}"/>
-    <hyperlink ref="M33:P33" location="nop_dyn_module!A1" display="NopDynModule" xr:uid="{38B88885-F35F-402A-AC35-78727972BC39}"/>
+    <hyperlink ref="M33:P33" location="nop_dyn_app!A1" display="NopDynApp" xr:uid="{38B88885-F35F-402A-AC35-78727972BC39}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E24B2EA-F9B2-4CC8-9728-7CD095AB02A3}">
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B34" sqref="B34:E34"/>
     </sheetView>
   </sheetViews>
@@ -20729,33 +18897,33 @@
       <c r="P16" s="35"/>
     </row>
     <row r="18" spans="1:16">
-      <c r="A18" s="73" t="s">
+      <c r="A18" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="74"/>
-      <c r="C18" s="74"/>
-      <c r="D18" s="74"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="74"/>
-      <c r="G18" s="74"/>
-      <c r="H18" s="74"/>
-      <c r="I18" s="74"/>
-      <c r="J18" s="74"/>
-      <c r="K18" s="74"/>
-      <c r="L18" s="74"/>
-      <c r="M18" s="74"/>
-      <c r="N18" s="74"/>
-      <c r="O18" s="74"/>
-      <c r="P18" s="75"/>
+      <c r="B18" s="77"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="77"/>
+      <c r="F18" s="77"/>
+      <c r="G18" s="77"/>
+      <c r="H18" s="77"/>
+      <c r="I18" s="77"/>
+      <c r="J18" s="77"/>
+      <c r="K18" s="77"/>
+      <c r="L18" s="77"/>
+      <c r="M18" s="77"/>
+      <c r="N18" s="77"/>
+      <c r="O18" s="77"/>
+      <c r="P18" s="78"/>
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="29">
         <v>1</v>
       </c>
-      <c r="B19" s="68" t="s">
+      <c r="B19" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="69"/>
+      <c r="C19" s="72"/>
       <c r="D19" s="34" t="s">
         <v>255</v>
       </c>
@@ -20767,23 +18935,23 @@
       <c r="H19" s="34"/>
       <c r="I19" s="36"/>
       <c r="J19" s="35"/>
-      <c r="K19" s="62" t="s">
+      <c r="K19" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="L19" s="64"/>
-      <c r="M19" s="76" t="s">
+      <c r="L19" s="67"/>
+      <c r="M19" s="73" t="s">
         <v>250</v>
       </c>
-      <c r="N19" s="77"/>
-      <c r="O19" s="77"/>
-      <c r="P19" s="78"/>
+      <c r="N19" s="74"/>
+      <c r="O19" s="74"/>
+      <c r="P19" s="75"/>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="30"/>
-      <c r="B20" s="68" t="s">
+      <c r="B20" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="69"/>
+      <c r="C20" s="72"/>
       <c r="D20" s="34" t="s">
         <v>466</v>
       </c>
@@ -20797,10 +18965,10 @@
       </c>
       <c r="I20" s="36"/>
       <c r="J20" s="35"/>
-      <c r="K20" s="62" t="s">
+      <c r="K20" s="65" t="s">
         <v>66</v>
       </c>
-      <c r="L20" s="64"/>
+      <c r="L20" s="67"/>
       <c r="M20" s="53" t="s">
         <v>67</v>
       </c>
@@ -20810,10 +18978,10 @@
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="30"/>
-      <c r="B21" s="68" t="s">
+      <c r="B21" s="71" t="s">
         <v>98</v>
       </c>
-      <c r="C21" s="69"/>
+      <c r="C21" s="72"/>
       <c r="D21" s="34"/>
       <c r="E21" s="36"/>
       <c r="F21" s="36"/>
@@ -20832,10 +19000,10 @@
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="30"/>
-      <c r="B22" s="68" t="s">
+      <c r="B22" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="69"/>
+      <c r="C22" s="72"/>
       <c r="D22" s="34"/>
       <c r="E22" s="36"/>
       <c r="F22" s="36"/>
@@ -20843,10 +19011,10 @@
       <c r="H22" s="36"/>
       <c r="I22" s="36"/>
       <c r="J22" s="35"/>
-      <c r="K22" s="62" t="s">
+      <c r="K22" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="L22" s="64"/>
+      <c r="L22" s="67"/>
       <c r="M22" s="53" t="s">
         <v>141</v>
       </c>
@@ -20856,102 +19024,102 @@
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="30"/>
-      <c r="B23" s="70" t="s">
+      <c r="B23" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="71"/>
-      <c r="D23" s="71"/>
-      <c r="E23" s="71"/>
-      <c r="F23" s="71"/>
-      <c r="G23" s="71"/>
-      <c r="H23" s="71"/>
-      <c r="I23" s="71"/>
-      <c r="J23" s="72"/>
-      <c r="K23" s="70"/>
-      <c r="L23" s="72"/>
-      <c r="M23" s="70"/>
-      <c r="N23" s="71"/>
-      <c r="O23" s="71"/>
-      <c r="P23" s="72"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="56"/>
+      <c r="L23" s="58"/>
+      <c r="M23" s="56"/>
+      <c r="N23" s="57"/>
+      <c r="O23" s="57"/>
+      <c r="P23" s="58"/>
     </row>
     <row r="24" spans="1:16">
       <c r="A24" s="30"/>
       <c r="B24" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="62" t="s">
+      <c r="C24" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="63"/>
-      <c r="E24" s="64"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="67"/>
       <c r="F24" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G24" s="62" t="s">
+      <c r="G24" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="H24" s="64"/>
-      <c r="I24" s="62" t="s">
+      <c r="H24" s="67"/>
+      <c r="I24" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="J24" s="64"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="66"/>
-      <c r="M24" s="65"/>
-      <c r="N24" s="67"/>
-      <c r="O24" s="67"/>
-      <c r="P24" s="66"/>
+      <c r="J24" s="67"/>
+      <c r="K24" s="68"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="68"/>
+      <c r="N24" s="70"/>
+      <c r="O24" s="70"/>
+      <c r="P24" s="69"/>
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="30"/>
       <c r="B25" s="8">
         <v>1</v>
       </c>
-      <c r="C25" s="56" t="s">
+      <c r="C25" s="59" t="s">
         <v>254</v>
       </c>
-      <c r="D25" s="57"/>
-      <c r="E25" s="58"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="61"/>
       <c r="F25" s="3"/>
-      <c r="G25" s="56" t="s">
+      <c r="G25" s="59" t="s">
         <v>254</v>
       </c>
-      <c r="H25" s="58"/>
+      <c r="H25" s="61"/>
       <c r="I25" s="3"/>
       <c r="J25" s="4"/>
-      <c r="K25" s="59"/>
-      <c r="L25" s="60"/>
-      <c r="M25" s="59"/>
-      <c r="N25" s="61"/>
-      <c r="O25" s="61"/>
-      <c r="P25" s="60"/>
+      <c r="K25" s="62"/>
+      <c r="L25" s="63"/>
+      <c r="M25" s="62"/>
+      <c r="N25" s="64"/>
+      <c r="O25" s="64"/>
+      <c r="P25" s="63"/>
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="30"/>
-      <c r="B26" s="56"/>
-      <c r="C26" s="57"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="58"/>
+      <c r="B26" s="59"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="61"/>
       <c r="F26" s="3"/>
-      <c r="G26" s="56"/>
-      <c r="H26" s="58"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="61"/>
       <c r="I26" s="3"/>
       <c r="J26" s="4"/>
-      <c r="K26" s="59"/>
-      <c r="L26" s="60"/>
-      <c r="M26" s="59"/>
-      <c r="N26" s="61"/>
-      <c r="O26" s="61"/>
-      <c r="P26" s="60"/>
+      <c r="K26" s="62"/>
+      <c r="L26" s="63"/>
+      <c r="M26" s="62"/>
+      <c r="N26" s="64"/>
+      <c r="O26" s="64"/>
+      <c r="P26" s="63"/>
     </row>
     <row r="27" spans="1:16">
       <c r="A27" s="29">
         <v>2</v>
       </c>
-      <c r="B27" s="68" t="s">
+      <c r="B27" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="69"/>
+      <c r="C27" s="72"/>
       <c r="D27" s="34" t="s">
         <v>467</v>
       </c>
@@ -20963,23 +19131,23 @@
       <c r="H27" s="34"/>
       <c r="I27" s="36"/>
       <c r="J27" s="35"/>
-      <c r="K27" s="62" t="s">
+      <c r="K27" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="L27" s="64"/>
-      <c r="M27" s="76" t="s">
+      <c r="L27" s="67"/>
+      <c r="M27" s="73" t="s">
         <v>250</v>
       </c>
-      <c r="N27" s="77"/>
-      <c r="O27" s="77"/>
-      <c r="P27" s="78"/>
+      <c r="N27" s="74"/>
+      <c r="O27" s="74"/>
+      <c r="P27" s="75"/>
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="30"/>
-      <c r="B28" s="68" t="s">
+      <c r="B28" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="69"/>
+      <c r="C28" s="72"/>
       <c r="D28" s="34" t="s">
         <v>251</v>
       </c>
@@ -20993,10 +19161,10 @@
       </c>
       <c r="I28" s="36"/>
       <c r="J28" s="35"/>
-      <c r="K28" s="62" t="s">
+      <c r="K28" s="65" t="s">
         <v>66</v>
       </c>
-      <c r="L28" s="64"/>
+      <c r="L28" s="67"/>
       <c r="M28" s="53" t="s">
         <v>67</v>
       </c>
@@ -21006,10 +19174,10 @@
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="30"/>
-      <c r="B29" s="68" t="s">
+      <c r="B29" s="71" t="s">
         <v>98</v>
       </c>
-      <c r="C29" s="69"/>
+      <c r="C29" s="72"/>
       <c r="D29" s="34"/>
       <c r="E29" s="36"/>
       <c r="F29" s="36"/>
@@ -21028,10 +19196,10 @@
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="30"/>
-      <c r="B30" s="68" t="s">
+      <c r="B30" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="69"/>
+      <c r="C30" s="72"/>
       <c r="D30" s="34"/>
       <c r="E30" s="36"/>
       <c r="F30" s="36"/>
@@ -21039,10 +19207,10 @@
       <c r="H30" s="36"/>
       <c r="I30" s="36"/>
       <c r="J30" s="35"/>
-      <c r="K30" s="62" t="s">
+      <c r="K30" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="L30" s="64"/>
+      <c r="L30" s="67"/>
       <c r="M30" s="53" t="s">
         <v>102</v>
       </c>
@@ -21052,93 +19220,93 @@
     </row>
     <row r="31" spans="1:16">
       <c r="A31" s="30"/>
-      <c r="B31" s="70" t="s">
+      <c r="B31" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="71"/>
-      <c r="D31" s="71"/>
-      <c r="E31" s="71"/>
-      <c r="F31" s="71"/>
-      <c r="G31" s="71"/>
-      <c r="H31" s="71"/>
-      <c r="I31" s="71"/>
-      <c r="J31" s="72"/>
-      <c r="K31" s="70"/>
-      <c r="L31" s="72"/>
-      <c r="M31" s="70"/>
-      <c r="N31" s="71"/>
-      <c r="O31" s="71"/>
-      <c r="P31" s="72"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="57"/>
+      <c r="G31" s="57"/>
+      <c r="H31" s="57"/>
+      <c r="I31" s="57"/>
+      <c r="J31" s="58"/>
+      <c r="K31" s="56"/>
+      <c r="L31" s="58"/>
+      <c r="M31" s="56"/>
+      <c r="N31" s="57"/>
+      <c r="O31" s="57"/>
+      <c r="P31" s="58"/>
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="30"/>
       <c r="B32" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C32" s="62" t="s">
+      <c r="C32" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="D32" s="63"/>
-      <c r="E32" s="64"/>
+      <c r="D32" s="66"/>
+      <c r="E32" s="67"/>
       <c r="F32" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G32" s="62" t="s">
+      <c r="G32" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="H32" s="64"/>
-      <c r="I32" s="62" t="s">
+      <c r="H32" s="67"/>
+      <c r="I32" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="J32" s="64"/>
-      <c r="K32" s="65"/>
-      <c r="L32" s="66"/>
-      <c r="M32" s="65"/>
-      <c r="N32" s="67"/>
-      <c r="O32" s="67"/>
-      <c r="P32" s="66"/>
+      <c r="J32" s="67"/>
+      <c r="K32" s="68"/>
+      <c r="L32" s="69"/>
+      <c r="M32" s="68"/>
+      <c r="N32" s="70"/>
+      <c r="O32" s="70"/>
+      <c r="P32" s="69"/>
     </row>
     <row r="33" spans="1:16">
       <c r="A33" s="30"/>
       <c r="B33" s="8">
         <v>1</v>
       </c>
-      <c r="C33" s="56" t="s">
+      <c r="C33" s="59" t="s">
         <v>471</v>
       </c>
-      <c r="D33" s="57"/>
-      <c r="E33" s="58"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="61"/>
       <c r="F33" s="3"/>
-      <c r="G33" s="56" t="s">
+      <c r="G33" s="59" t="s">
         <v>254</v>
       </c>
-      <c r="H33" s="58"/>
+      <c r="H33" s="61"/>
       <c r="I33" s="3"/>
       <c r="J33" s="4"/>
-      <c r="K33" s="59"/>
-      <c r="L33" s="60"/>
-      <c r="M33" s="59"/>
-      <c r="N33" s="61"/>
-      <c r="O33" s="61"/>
-      <c r="P33" s="60"/>
+      <c r="K33" s="62"/>
+      <c r="L33" s="63"/>
+      <c r="M33" s="62"/>
+      <c r="N33" s="64"/>
+      <c r="O33" s="64"/>
+      <c r="P33" s="63"/>
     </row>
     <row r="34" spans="1:16">
       <c r="A34" s="30"/>
-      <c r="B34" s="56"/>
-      <c r="C34" s="57"/>
-      <c r="D34" s="57"/>
-      <c r="E34" s="58"/>
+      <c r="B34" s="59"/>
+      <c r="C34" s="60"/>
+      <c r="D34" s="60"/>
+      <c r="E34" s="61"/>
       <c r="F34" s="3"/>
-      <c r="G34" s="56"/>
-      <c r="H34" s="58"/>
+      <c r="G34" s="59"/>
+      <c r="H34" s="61"/>
       <c r="I34" s="3"/>
       <c r="J34" s="4"/>
-      <c r="K34" s="59"/>
-      <c r="L34" s="60"/>
-      <c r="M34" s="59"/>
-      <c r="N34" s="61"/>
-      <c r="O34" s="61"/>
-      <c r="P34" s="60"/>
+      <c r="K34" s="62"/>
+      <c r="L34" s="63"/>
+      <c r="M34" s="62"/>
+      <c r="N34" s="64"/>
+      <c r="O34" s="64"/>
+      <c r="P34" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="85">
@@ -21238,12 +19406,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F0DE455-FF29-43D0-9612-7232A83DF9B7}">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -21945,33 +20113,33 @@
       <c r="P23" s="35"/>
     </row>
     <row r="25" spans="1:16">
-      <c r="A25" s="73" t="s">
+      <c r="A25" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="74"/>
-      <c r="C25" s="74"/>
-      <c r="D25" s="74"/>
-      <c r="E25" s="74"/>
-      <c r="F25" s="74"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="74"/>
-      <c r="I25" s="74"/>
-      <c r="J25" s="74"/>
-      <c r="K25" s="74"/>
-      <c r="L25" s="74"/>
-      <c r="M25" s="74"/>
-      <c r="N25" s="74"/>
-      <c r="O25" s="74"/>
-      <c r="P25" s="75"/>
+      <c r="B25" s="77"/>
+      <c r="C25" s="77"/>
+      <c r="D25" s="77"/>
+      <c r="E25" s="77"/>
+      <c r="F25" s="77"/>
+      <c r="G25" s="77"/>
+      <c r="H25" s="77"/>
+      <c r="I25" s="77"/>
+      <c r="J25" s="77"/>
+      <c r="K25" s="77"/>
+      <c r="L25" s="77"/>
+      <c r="M25" s="77"/>
+      <c r="N25" s="77"/>
+      <c r="O25" s="77"/>
+      <c r="P25" s="78"/>
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="29">
         <v>1</v>
       </c>
-      <c r="B26" s="68" t="s">
+      <c r="B26" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="69"/>
+      <c r="C26" s="72"/>
       <c r="D26" s="34" t="s">
         <v>248</v>
       </c>
@@ -21985,10 +20153,10 @@
       </c>
       <c r="I26" s="36"/>
       <c r="J26" s="35"/>
-      <c r="K26" s="62" t="s">
+      <c r="K26" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="L26" s="64"/>
+      <c r="L26" s="67"/>
       <c r="M26" s="53" t="s">
         <v>250</v>
       </c>
@@ -21998,10 +20166,10 @@
     </row>
     <row r="27" spans="1:16">
       <c r="A27" s="30"/>
-      <c r="B27" s="68" t="s">
+      <c r="B27" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="69"/>
+      <c r="C27" s="72"/>
       <c r="D27" s="34" t="s">
         <v>251</v>
       </c>
@@ -22015,10 +20183,10 @@
       </c>
       <c r="I27" s="36"/>
       <c r="J27" s="35"/>
-      <c r="K27" s="62" t="s">
+      <c r="K27" s="65" t="s">
         <v>66</v>
       </c>
-      <c r="L27" s="64"/>
+      <c r="L27" s="67"/>
       <c r="M27" s="53" t="s">
         <v>67</v>
       </c>
@@ -22028,10 +20196,10 @@
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="30"/>
-      <c r="B28" s="68" t="s">
+      <c r="B28" s="71" t="s">
         <v>98</v>
       </c>
-      <c r="C28" s="69"/>
+      <c r="C28" s="72"/>
       <c r="D28" s="34" t="s">
         <v>346</v>
       </c>
@@ -22054,10 +20222,10 @@
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="30"/>
-      <c r="B29" s="68" t="s">
+      <c r="B29" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="69"/>
+      <c r="C29" s="72"/>
       <c r="D29" s="34"/>
       <c r="E29" s="36"/>
       <c r="F29" s="36"/>
@@ -22065,10 +20233,10 @@
       <c r="H29" s="36"/>
       <c r="I29" s="36"/>
       <c r="J29" s="35"/>
-      <c r="K29" s="62" t="s">
+      <c r="K29" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="L29" s="64"/>
+      <c r="L29" s="67"/>
       <c r="M29" s="53" t="s">
         <v>102</v>
       </c>
@@ -22078,93 +20246,93 @@
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="30"/>
-      <c r="B30" s="70" t="s">
+      <c r="B30" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="C30" s="71"/>
-      <c r="D30" s="71"/>
-      <c r="E30" s="71"/>
-      <c r="F30" s="71"/>
-      <c r="G30" s="71"/>
-      <c r="H30" s="71"/>
-      <c r="I30" s="71"/>
-      <c r="J30" s="72"/>
-      <c r="K30" s="70"/>
-      <c r="L30" s="72"/>
-      <c r="M30" s="70"/>
-      <c r="N30" s="71"/>
-      <c r="O30" s="71"/>
-      <c r="P30" s="72"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="57"/>
+      <c r="H30" s="57"/>
+      <c r="I30" s="57"/>
+      <c r="J30" s="58"/>
+      <c r="K30" s="56"/>
+      <c r="L30" s="58"/>
+      <c r="M30" s="56"/>
+      <c r="N30" s="57"/>
+      <c r="O30" s="57"/>
+      <c r="P30" s="58"/>
     </row>
     <row r="31" spans="1:16">
       <c r="A31" s="30"/>
       <c r="B31" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C31" s="62" t="s">
+      <c r="C31" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="D31" s="63"/>
-      <c r="E31" s="64"/>
+      <c r="D31" s="66"/>
+      <c r="E31" s="67"/>
       <c r="F31" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G31" s="62" t="s">
+      <c r="G31" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="H31" s="64"/>
-      <c r="I31" s="62" t="s">
+      <c r="H31" s="67"/>
+      <c r="I31" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="J31" s="64"/>
-      <c r="K31" s="65"/>
-      <c r="L31" s="66"/>
-      <c r="M31" s="65"/>
-      <c r="N31" s="67"/>
-      <c r="O31" s="67"/>
-      <c r="P31" s="66"/>
+      <c r="J31" s="67"/>
+      <c r="K31" s="68"/>
+      <c r="L31" s="69"/>
+      <c r="M31" s="68"/>
+      <c r="N31" s="70"/>
+      <c r="O31" s="70"/>
+      <c r="P31" s="69"/>
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="30"/>
       <c r="B32" s="8">
         <v>1</v>
       </c>
-      <c r="C32" s="56" t="s">
+      <c r="C32" s="59" t="s">
         <v>253</v>
       </c>
-      <c r="D32" s="57"/>
-      <c r="E32" s="58"/>
+      <c r="D32" s="60"/>
+      <c r="E32" s="61"/>
       <c r="F32" s="3"/>
-      <c r="G32" s="56" t="s">
+      <c r="G32" s="59" t="s">
         <v>254</v>
       </c>
-      <c r="H32" s="58"/>
+      <c r="H32" s="61"/>
       <c r="I32" s="3"/>
       <c r="J32" s="4"/>
-      <c r="K32" s="59"/>
-      <c r="L32" s="60"/>
-      <c r="M32" s="59"/>
-      <c r="N32" s="61"/>
-      <c r="O32" s="61"/>
-      <c r="P32" s="60"/>
+      <c r="K32" s="62"/>
+      <c r="L32" s="63"/>
+      <c r="M32" s="62"/>
+      <c r="N32" s="64"/>
+      <c r="O32" s="64"/>
+      <c r="P32" s="63"/>
     </row>
     <row r="33" spans="1:16">
       <c r="A33" s="30"/>
-      <c r="B33" s="56"/>
-      <c r="C33" s="57"/>
-      <c r="D33" s="57"/>
-      <c r="E33" s="58"/>
+      <c r="B33" s="59"/>
+      <c r="C33" s="60"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="61"/>
       <c r="F33" s="3"/>
-      <c r="G33" s="56"/>
-      <c r="H33" s="58"/>
+      <c r="G33" s="59"/>
+      <c r="H33" s="61"/>
       <c r="I33" s="3"/>
       <c r="J33" s="4"/>
-      <c r="K33" s="59"/>
-      <c r="L33" s="60"/>
-      <c r="M33" s="59"/>
-      <c r="N33" s="61"/>
-      <c r="O33" s="61"/>
-      <c r="P33" s="60"/>
+      <c r="K33" s="62"/>
+      <c r="L33" s="63"/>
+      <c r="M33" s="62"/>
+      <c r="N33" s="64"/>
+      <c r="O33" s="64"/>
+      <c r="P33" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="50">
@@ -22226,4 +20394,1004 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE4711A2-02AD-4A5B-BAC3-D68404A9BB39}">
+  <dimension ref="A1:P34"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="4.33203125" customWidth="1"/>
+    <col min="2" max="2" width="4.4140625" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.9140625" customWidth="1"/>
+    <col min="5" max="5" width="5.08203125" customWidth="1"/>
+    <col min="6" max="6" width="15.08203125" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="9" max="9" width="4.75" customWidth="1"/>
+    <col min="10" max="10" width="11" customWidth="1"/>
+    <col min="11" max="11" width="6.08203125" customWidth="1"/>
+    <col min="12" max="12" width="8.25" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="50" t="s">
+        <v>272</v>
+      </c>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="34"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="50" t="s">
+        <v>273</v>
+      </c>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="53" t="s">
+        <v>274</v>
+      </c>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="50" t="s">
+        <v>338</v>
+      </c>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="34"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="35"/>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="48"/>
+      <c r="P6" s="48"/>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="7">
+        <v>1</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="H8" s="9"/>
+      <c r="I8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="7">
+        <v>32</v>
+      </c>
+      <c r="L8" s="7"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="1"/>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="7">
+        <v>2</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="H9" s="9"/>
+      <c r="I9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="7">
+        <v>32</v>
+      </c>
+      <c r="L9" s="7"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="7">
+        <v>3</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="1"/>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="7">
+        <v>4</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K11" s="7">
+        <v>50</v>
+      </c>
+      <c r="L11" s="7"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="1"/>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="7">
+        <v>5</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="1"/>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="7">
+        <v>6</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13" s="7">
+        <v>50</v>
+      </c>
+      <c r="L13" s="7"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="1"/>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="7">
+        <v>7</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="1"/>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="1"/>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="34"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="35"/>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="76" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="77"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="77"/>
+      <c r="F18" s="77"/>
+      <c r="G18" s="77"/>
+      <c r="H18" s="77"/>
+      <c r="I18" s="77"/>
+      <c r="J18" s="77"/>
+      <c r="K18" s="77"/>
+      <c r="L18" s="77"/>
+      <c r="M18" s="77"/>
+      <c r="N18" s="77"/>
+      <c r="O18" s="77"/>
+      <c r="P18" s="78"/>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="29">
+        <v>1</v>
+      </c>
+      <c r="B19" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="72"/>
+      <c r="D19" s="34" t="s">
+        <v>275</v>
+      </c>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H19" s="34" t="s">
+        <v>280</v>
+      </c>
+      <c r="I19" s="36"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="L19" s="67"/>
+      <c r="M19" s="73" t="s">
+        <v>276</v>
+      </c>
+      <c r="N19" s="74"/>
+      <c r="O19" s="74"/>
+      <c r="P19" s="75"/>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" s="30"/>
+      <c r="B20" s="71" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="72"/>
+      <c r="D20" s="34" t="s">
+        <v>277</v>
+      </c>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H20" s="34" t="s">
+        <v>278</v>
+      </c>
+      <c r="I20" s="36"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="65" t="s">
+        <v>66</v>
+      </c>
+      <c r="L20" s="67"/>
+      <c r="M20" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="N20" s="54"/>
+      <c r="O20" s="54"/>
+      <c r="P20" s="55"/>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="30"/>
+      <c r="B21" s="71" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" s="72"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="53"/>
+      <c r="N21" s="54"/>
+      <c r="O21" s="54"/>
+      <c r="P21" s="55"/>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" s="30"/>
+      <c r="B22" s="71" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="72"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="65" t="s">
+        <v>9</v>
+      </c>
+      <c r="L22" s="67"/>
+      <c r="M22" s="53" t="s">
+        <v>141</v>
+      </c>
+      <c r="N22" s="54"/>
+      <c r="O22" s="54"/>
+      <c r="P22" s="55"/>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="30"/>
+      <c r="B23" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="56"/>
+      <c r="L23" s="58"/>
+      <c r="M23" s="56"/>
+      <c r="N23" s="57"/>
+      <c r="O23" s="57"/>
+      <c r="P23" s="58"/>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" s="30"/>
+      <c r="B24" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="66"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="65" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" s="67"/>
+      <c r="I24" s="65" t="s">
+        <v>18</v>
+      </c>
+      <c r="J24" s="67"/>
+      <c r="K24" s="68"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="68"/>
+      <c r="N24" s="70"/>
+      <c r="O24" s="70"/>
+      <c r="P24" s="69"/>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" s="30"/>
+      <c r="B25" s="8">
+        <v>1</v>
+      </c>
+      <c r="C25" s="59" t="s">
+        <v>279</v>
+      </c>
+      <c r="D25" s="60"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="59" t="s">
+        <v>279</v>
+      </c>
+      <c r="H25" s="61"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="62"/>
+      <c r="L25" s="63"/>
+      <c r="M25" s="62"/>
+      <c r="N25" s="64"/>
+      <c r="O25" s="64"/>
+      <c r="P25" s="63"/>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" s="30"/>
+      <c r="B26" s="59"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="62"/>
+      <c r="L26" s="63"/>
+      <c r="M26" s="62"/>
+      <c r="N26" s="64"/>
+      <c r="O26" s="64"/>
+      <c r="P26" s="63"/>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27" s="29">
+        <v>2</v>
+      </c>
+      <c r="B27" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="72"/>
+      <c r="D27" s="34" t="s">
+        <v>255</v>
+      </c>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H27" s="34" t="s">
+        <v>281</v>
+      </c>
+      <c r="I27" s="36"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="L27" s="67"/>
+      <c r="M27" s="73" t="s">
+        <v>250</v>
+      </c>
+      <c r="N27" s="74"/>
+      <c r="O27" s="74"/>
+      <c r="P27" s="75"/>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" s="30"/>
+      <c r="B28" s="71" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="72"/>
+      <c r="D28" s="34" t="s">
+        <v>282</v>
+      </c>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H28" s="34" t="s">
+        <v>283</v>
+      </c>
+      <c r="I28" s="36"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="65" t="s">
+        <v>66</v>
+      </c>
+      <c r="L28" s="67"/>
+      <c r="M28" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="N28" s="54"/>
+      <c r="O28" s="54"/>
+      <c r="P28" s="55"/>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29" s="30"/>
+      <c r="B29" s="71" t="s">
+        <v>98</v>
+      </c>
+      <c r="C29" s="72"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="53"/>
+      <c r="N29" s="54"/>
+      <c r="O29" s="54"/>
+      <c r="P29" s="55"/>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30" s="30"/>
+      <c r="B30" s="71" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="72"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="65" t="s">
+        <v>9</v>
+      </c>
+      <c r="L30" s="67"/>
+      <c r="M30" s="53" t="s">
+        <v>141</v>
+      </c>
+      <c r="N30" s="54"/>
+      <c r="O30" s="54"/>
+      <c r="P30" s="55"/>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31" s="30"/>
+      <c r="B31" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="57"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="57"/>
+      <c r="G31" s="57"/>
+      <c r="H31" s="57"/>
+      <c r="I31" s="57"/>
+      <c r="J31" s="58"/>
+      <c r="K31" s="56"/>
+      <c r="L31" s="58"/>
+      <c r="M31" s="56"/>
+      <c r="N31" s="57"/>
+      <c r="O31" s="57"/>
+      <c r="P31" s="58"/>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32" s="30"/>
+      <c r="B32" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" s="66"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32" s="65" t="s">
+        <v>17</v>
+      </c>
+      <c r="H32" s="67"/>
+      <c r="I32" s="65" t="s">
+        <v>18</v>
+      </c>
+      <c r="J32" s="67"/>
+      <c r="K32" s="68"/>
+      <c r="L32" s="69"/>
+      <c r="M32" s="68"/>
+      <c r="N32" s="70"/>
+      <c r="O32" s="70"/>
+      <c r="P32" s="69"/>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33" s="30"/>
+      <c r="B33" s="8">
+        <v>1</v>
+      </c>
+      <c r="C33" s="59" t="s">
+        <v>254</v>
+      </c>
+      <c r="D33" s="60"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="59" t="s">
+        <v>254</v>
+      </c>
+      <c r="H33" s="61"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="62"/>
+      <c r="L33" s="63"/>
+      <c r="M33" s="62"/>
+      <c r="N33" s="64"/>
+      <c r="O33" s="64"/>
+      <c r="P33" s="63"/>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34" s="30"/>
+      <c r="B34" s="59"/>
+      <c r="C34" s="60"/>
+      <c r="D34" s="60"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="59"/>
+      <c r="H34" s="61"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="62"/>
+      <c r="L34" s="63"/>
+      <c r="M34" s="62"/>
+      <c r="N34" s="64"/>
+      <c r="O34" s="64"/>
+      <c r="P34" s="63"/>
+    </row>
+  </sheetData>
+  <mergeCells count="85">
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:L4"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A16:P16"/>
+    <mergeCell ref="A18:P18"/>
+    <mergeCell ref="A19:A26"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="M19:P19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="M20:P20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="B23:J23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="A27:A34"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="B31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="M34:P34"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:P32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="G33:H33"/>
+